--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -8,28 +8,76 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NSS\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D797FB-86D0-494E-9FEE-A260E252533D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C062DEC-97CD-469A-8E1E-59F5F372B9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6254C165-ABD6-4E53-9ECE-5A2DBD780014}"/>
   </bookViews>
   <sheets>
     <sheet name="被保険者住所変更届（二枚目）" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
+    <definedName name="A1_10_1">'被保険者住所変更届（二枚目）'!$Q$14</definedName>
+    <definedName name="A1_10_2">'被保険者住所変更届（二枚目）'!$S$14</definedName>
+    <definedName name="A1_10_3">'被保険者住所変更届（二枚目）'!$U$14</definedName>
+    <definedName name="A1_10_4">'被保険者住所変更届（二枚目）'!$W$14</definedName>
+    <definedName name="A1_10_5">'被保険者住所変更届（二枚目）'!$Y$14</definedName>
+    <definedName name="A1_10_6">'被保険者住所変更届（二枚目）'!$AA$14</definedName>
+    <definedName name="A1_11">"Check Box 1"</definedName>
     <definedName name="A1_2">'被保険者住所変更届（二枚目）'!$AX$7</definedName>
     <definedName name="A1_3">'被保険者住所変更届（二枚目）'!$BD$7</definedName>
     <definedName name="A1_4">'被保険者住所変更届（二枚目）'!$AX$8</definedName>
     <definedName name="A1_5">'被保険者住所変更届（二枚目）'!$BF$8</definedName>
+    <definedName name="A1_54_1">'被保険者住所変更届（二枚目）'!$BP$7</definedName>
+    <definedName name="A1_54_2">'被保険者住所変更届（二枚目）'!$BR$7</definedName>
+    <definedName name="A1_54_3">'被保険者住所変更届（二枚目）'!$BT$7</definedName>
+    <definedName name="A1_54_4">'被保険者住所変更届（二枚目）'!$BV$7</definedName>
+    <definedName name="A1_54_5">'被保険者住所変更届（二枚目）'!$BX$7</definedName>
+    <definedName name="A1_54_6">'被保険者住所変更届（二枚目）'!$BZ$7</definedName>
+    <definedName name="A1_6_1">'被保険者住所変更届（二枚目）'!$P$9</definedName>
+    <definedName name="A1_6_2">'被保険者住所変更届（二枚目）'!$R$9</definedName>
+    <definedName name="A1_6_3">'被保険者住所変更届（二枚目）'!$T$9</definedName>
+    <definedName name="A1_6_4">'被保険者住所変更届（二枚目）'!$V$9</definedName>
+    <definedName name="A1_6_5">'被保険者住所変更届（二枚目）'!$X$9</definedName>
+    <definedName name="A1_6_6">'被保険者住所変更届（二枚目）'!$Z$9</definedName>
+    <definedName name="A1_6_7">'被保険者住所変更届（二枚目）'!$AB$9</definedName>
     <definedName name="A1_7">'被保険者住所変更届（二枚目）'!$AK$9</definedName>
+    <definedName name="A2_10_1">'被保険者住所変更届（二枚目）'!$J$24</definedName>
+    <definedName name="A2_10_2">'被保険者住所変更届（二枚目）'!$L$24</definedName>
+    <definedName name="A2_10_3">'被保険者住所変更届（二枚目）'!$N$24</definedName>
+    <definedName name="A2_10_4">'被保険者住所変更届（二枚目）'!$P$24</definedName>
+    <definedName name="A2_10_5">'被保険者住所変更届（二枚目）'!$R$24</definedName>
+    <definedName name="A2_10_6">'被保険者住所変更届（二枚目）'!$T$24</definedName>
+    <definedName name="A2_10_7">'被保険者住所変更届（二枚目）'!$V$24</definedName>
     <definedName name="A2_11">'被保険者住所変更届（二枚目）'!$AL$24</definedName>
+    <definedName name="A2_13_1">'被保険者住所変更届（二枚目）'!$BS$24</definedName>
+    <definedName name="A2_13_2">'被保険者住所変更届（二枚目）'!$BU$24</definedName>
+    <definedName name="A2_13_3">'被保険者住所変更届（二枚目）'!$BW$24</definedName>
+    <definedName name="A2_13_4">'被保険者住所変更届（二枚目）'!$BY$24</definedName>
+    <definedName name="A2_13_5">'被保険者住所変更届（二枚目）'!$CA$24</definedName>
+    <definedName name="A2_13_6">'被保険者住所変更届（二枚目）'!$CC$24</definedName>
+    <definedName name="A2_2_1">'被保険者住所変更届（二枚目）'!$G$21</definedName>
+    <definedName name="A2_2_10">'被保険者住所変更届（二枚目）'!$Y$21</definedName>
+    <definedName name="A2_2_11">'被保険者住所変更届（二枚目）'!$AA$21</definedName>
+    <definedName name="A2_2_12">'被保険者住所変更届（二枚目）'!$AC$21</definedName>
+    <definedName name="A2_2_2">'被保険者住所変更届（二枚目）'!$I$21</definedName>
+    <definedName name="A2_2_3">'被保険者住所変更届（二枚目）'!$K$21</definedName>
+    <definedName name="A2_2_4">'被保険者住所変更届（二枚目）'!$M$21</definedName>
+    <definedName name="A2_2_5">'被保険者住所変更届（二枚目）'!$O$21</definedName>
+    <definedName name="A2_2_6">'被保険者住所変更届（二枚目）'!$Q$21</definedName>
+    <definedName name="A2_2_7">'被保険者住所変更届（二枚目）'!$S$21</definedName>
+    <definedName name="A2_2_8">'被保険者住所変更届（二枚目）'!$U$21</definedName>
+    <definedName name="A2_2_9">'被保険者住所変更届（二枚目）'!$W$21</definedName>
+    <definedName name="A2_5_1">'被保険者住所変更届（二枚目）'!$AI$21</definedName>
+    <definedName name="A2_5_2">'被保険者住所変更届（二枚目）'!$AK$21</definedName>
+    <definedName name="A2_5_3">'被保険者住所変更届（二枚目）'!$AM$21</definedName>
+    <definedName name="A2_5_4">'被保険者住所変更届（二枚目）'!$AO$21</definedName>
+    <definedName name="A2_5_5">'被保険者住所変更届（二枚目）'!$AQ$21</definedName>
+    <definedName name="A2_5_6">'被保険者住所変更届（二枚目）'!$AS$21</definedName>
     <definedName name="A2_6">'被保険者住所変更届（二枚目）'!$BC$20</definedName>
     <definedName name="A2_7">'被保険者住所変更届（二枚目）'!$BI$20</definedName>
     <definedName name="A2_8">'被保険者住所変更届（二枚目）'!$BB$21</definedName>
     <definedName name="A2_9">'被保険者住所変更届（二枚目）'!$BK$21</definedName>
-    <definedName name="A3_1">'被保険者住所変更届（二枚目）'!$M$32:$AB$32</definedName>
+    <definedName name="A3_1">'被保険者住所変更届（二枚目）'!$L$32</definedName>
     <definedName name="A3_2">'被保険者住所変更届（二枚目）'!$L$33</definedName>
     <definedName name="A3_3">'被保険者住所変更届（二枚目）'!$L$34</definedName>
     <definedName name="A3_4">'被保険者住所変更届（二枚目）'!$L$35</definedName>
@@ -52,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>電話番号</t>
     <rPh sb="0" eb="2">
@@ -878,7 +926,34 @@
   </si>
   <si>
     <r>
-      <t>　  　短期在留　         住民票住所以外の居所</t>
+      <t xml:space="preserve">　　　　　　　　　　　　　　（本人が自署した場合は押印は不要です。）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　　　　　　　-　　　　　　　　-　　　　　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　　　　　　　　</t>
+    </r>
+  </si>
+  <si>
+    <t>令和　　　年　　　月　　　日提出</t>
+  </si>
+  <si>
+    <r>
+      <t>　  　短期在留　            住民票住所以外の居所</t>
     </r>
     <r>
       <rPr>
@@ -900,32 +975,11 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-　　  海外居住　　       その他（　　　　　　　　　　）  </t>
+　　  海外居住　　           その他（　　　　　　　　　　）  </t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">　　　　　　　　　　　　　　（本人が自署した場合は押印は不要です。）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　　　　　　　　　-　　　　　　　　-　　　　　　　　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　　　　　　　　　　</t>
-    </r>
+    <t>住　所</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +1964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2086,6 +2140,243 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
@@ -2104,230 +2395,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2338,27 +2422,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2494,6 +2557,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2515,81 +2581,207 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2626,153 +2818,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2782,6 +2827,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2813,6 +2861,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2833,7 +2893,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2841,15 +2901,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2857,19 +2917,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3014,61 +3074,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>140806</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8123168" y="4427056"/>
-          <a:ext cx="184731" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>63</xdr:col>
@@ -6611,119 +6616,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>65690</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>151087</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276422" cy="225703"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="テキスト ボックス 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7247540" y="4437337"/>
-          <a:ext cx="276422" cy="225703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>エ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="テキスト ボックス 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8248650" y="6343650"/>
-          <a:ext cx="184731" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -6741,7 +6633,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+            <xdr:cNvPr id="1025" name="111" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
@@ -6808,7 +6700,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+            <xdr:cNvPr id="1026" name="112" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
@@ -6875,7 +6767,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+            <xdr:cNvPr id="1027" name="113" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
@@ -6942,7 +6834,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
+            <xdr:cNvPr id="1028" name="114" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
@@ -7076,7 +6968,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+            <xdr:cNvPr id="1030" name="221" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
@@ -7143,7 +7035,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+            <xdr:cNvPr id="1031" name="223" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1031"/>
@@ -7210,7 +7102,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+            <xdr:cNvPr id="1032" name="222" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1032"/>
@@ -7277,7 +7169,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+            <xdr:cNvPr id="1033" name="224" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
@@ -7394,61 +7286,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>140806</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="テキスト ボックス 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8123168" y="4427056"/>
-          <a:ext cx="184731" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
@@ -7464,10 +7301,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="Oval 83">
+        <xdr:cNvPr id="84" name="A2_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FB0DC5-3B04-4203-87AA-63C219434971}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7530,10 +7367,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="Oval 95">
+        <xdr:cNvPr id="96" name="A2_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C569D87-1FED-45EF-AD0D-48437536BD21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7596,10 +7433,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="Oval 96">
+        <xdr:cNvPr id="97" name="A2_41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18170936-8E50-4C36-90AE-220C80DE3976}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7649,14 +7486,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -7665,7 +7502,7 @@
         <xdr:cNvPr id="85" name="A2_19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2AB3F1-319A-4136-817B-F018A7C170CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7673,7 +7510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9572625" y="5753100"/>
+          <a:off x="9686925" y="5753100"/>
           <a:ext cx="609600" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7727,7 +7564,7 @@
         <xdr:cNvPr id="101" name="A1_15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04B71AE-86D7-4D29-BF79-A61B09B22EFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7771,20 +7608,733 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="A1_51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058150" y="1524000"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="A1_52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067675" y="1666875"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="A1_53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058150" y="1809750"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="A1_8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219700" y="2190750"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="A1_81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="2343150"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="A1_9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="2581275"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="A1_91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="2752725"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="A2_12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="5143500"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="A2_121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="5305425"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="A2_14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="5581650"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="A2_141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="5743575"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="被保険者住所変更届（一枚目）"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8089,8 +8639,8 @@
   </sheetPr>
   <dimension ref="C1:CX76"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AM19" sqref="AM19"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AS10" sqref="AS10:CD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -8111,25 +8661,25 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="BK2" s="111" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="BK2" s="59" t="s">
         <v>64</v>
       </c>
       <c r="BL2" s="39"/>
@@ -8159,61 +8709,61 @@
       <c r="CD2" s="58"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="Y3" s="142" t="s">
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="Y3" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="142"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="142"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="142"/>
-      <c r="AP3" s="142"/>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="142"/>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="142"/>
-      <c r="AV3" s="142"/>
-      <c r="AW3" s="142"/>
-      <c r="AX3" s="142"/>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="142"/>
-      <c r="BB3" s="142"/>
-      <c r="BC3" s="142"/>
-      <c r="BD3" s="142"/>
-      <c r="BE3" s="142"/>
-      <c r="BF3" s="142"/>
-      <c r="BG3" s="142"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="152"/>
+      <c r="AJ3" s="152"/>
+      <c r="AK3" s="152"/>
+      <c r="AL3" s="152"/>
+      <c r="AM3" s="152"/>
+      <c r="AN3" s="152"/>
+      <c r="AO3" s="152"/>
+      <c r="AP3" s="152"/>
+      <c r="AQ3" s="152"/>
+      <c r="AR3" s="152"/>
+      <c r="AS3" s="152"/>
+      <c r="AT3" s="152"/>
+      <c r="AU3" s="152"/>
+      <c r="AV3" s="152"/>
+      <c r="AW3" s="152"/>
+      <c r="AX3" s="152"/>
+      <c r="AY3" s="152"/>
+      <c r="AZ3" s="152"/>
+      <c r="BA3" s="152"/>
+      <c r="BB3" s="152"/>
+      <c r="BC3" s="152"/>
+      <c r="BD3" s="152"/>
+      <c r="BE3" s="152"/>
+      <c r="BF3" s="152"/>
+      <c r="BG3" s="152"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
@@ -8239,59 +8789,59 @@
       <c r="CD3" s="42"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="142"/>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="142"/>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
-      <c r="AL4" s="142"/>
-      <c r="AM4" s="142"/>
-      <c r="AN4" s="142"/>
-      <c r="AO4" s="142"/>
-      <c r="AP4" s="142"/>
-      <c r="AQ4" s="142"/>
-      <c r="AR4" s="142"/>
-      <c r="AS4" s="142"/>
-      <c r="AT4" s="142"/>
-      <c r="AU4" s="142"/>
-      <c r="AV4" s="142"/>
-      <c r="AW4" s="142"/>
-      <c r="AX4" s="142"/>
-      <c r="AY4" s="142"/>
-      <c r="AZ4" s="142"/>
-      <c r="BA4" s="142"/>
-      <c r="BB4" s="142"/>
-      <c r="BC4" s="142"/>
-      <c r="BD4" s="142"/>
-      <c r="BE4" s="142"/>
-      <c r="BF4" s="142"/>
-      <c r="BG4" s="142"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="Y4" s="152"/>
+      <c r="Z4" s="152"/>
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="152"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="152"/>
+      <c r="AG4" s="152"/>
+      <c r="AH4" s="152"/>
+      <c r="AI4" s="152"/>
+      <c r="AJ4" s="152"/>
+      <c r="AK4" s="152"/>
+      <c r="AL4" s="152"/>
+      <c r="AM4" s="152"/>
+      <c r="AN4" s="152"/>
+      <c r="AO4" s="152"/>
+      <c r="AP4" s="152"/>
+      <c r="AQ4" s="152"/>
+      <c r="AR4" s="152"/>
+      <c r="AS4" s="152"/>
+      <c r="AT4" s="152"/>
+      <c r="AU4" s="152"/>
+      <c r="AV4" s="152"/>
+      <c r="AW4" s="152"/>
+      <c r="AX4" s="152"/>
+      <c r="AY4" s="152"/>
+      <c r="AZ4" s="152"/>
+      <c r="BA4" s="152"/>
+      <c r="BB4" s="152"/>
+      <c r="BC4" s="152"/>
+      <c r="BD4" s="152"/>
+      <c r="BE4" s="152"/>
+      <c r="BF4" s="152"/>
+      <c r="BG4" s="152"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
@@ -8318,36 +8868,36 @@
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="202"/>
-      <c r="E6" s="68" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="290" t="s">
+      <c r="F6" s="94"/>
+      <c r="G6" s="287" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="290"/>
-      <c r="L6" s="290"/>
-      <c r="M6" s="290"/>
-      <c r="N6" s="290"/>
-      <c r="O6" s="290"/>
-      <c r="P6" s="290"/>
-      <c r="Q6" s="290"/>
-      <c r="R6" s="290"/>
-      <c r="S6" s="288" t="s">
+      <c r="H6" s="287"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="287"/>
+      <c r="M6" s="287"/>
+      <c r="N6" s="287"/>
+      <c r="O6" s="287"/>
+      <c r="P6" s="287"/>
+      <c r="Q6" s="287"/>
+      <c r="R6" s="287"/>
+      <c r="S6" s="285" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="289"/>
-      <c r="U6" s="289"/>
-      <c r="V6" s="289"/>
-      <c r="W6" s="289"/>
-      <c r="X6" s="143" t="s">
+      <c r="T6" s="286"/>
+      <c r="U6" s="286"/>
+      <c r="V6" s="286"/>
+      <c r="W6" s="286"/>
+      <c r="X6" s="288" t="s">
         <v>56</v>
       </c>
       <c r="Y6" s="144"/>
@@ -8414,27 +8964,27 @@
       <c r="CD6" s="27"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="66"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="109"/>
       <c r="S7" s="36"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
       <c r="X7" s="36"/>
       <c r="Y7" s="37"/>
       <c r="Z7" s="46"/>
@@ -8469,71 +9019,53 @@
       <c r="BA7" s="148"/>
       <c r="BB7" s="148"/>
       <c r="BC7" s="149"/>
-      <c r="BD7" s="270"/>
-      <c r="BE7" s="271"/>
-      <c r="BF7" s="271"/>
-      <c r="BG7" s="271"/>
-      <c r="BH7" s="271"/>
-      <c r="BI7" s="271"/>
-      <c r="BJ7" s="271"/>
-      <c r="BK7" s="272"/>
+      <c r="BD7" s="253"/>
+      <c r="BE7" s="254"/>
+      <c r="BF7" s="254"/>
+      <c r="BG7" s="254"/>
+      <c r="BH7" s="254"/>
+      <c r="BI7" s="254"/>
+      <c r="BJ7" s="254"/>
+      <c r="BK7" s="255"/>
       <c r="BL7" s="127" t="s">
         <v>34</v>
       </c>
       <c r="BM7" s="128"/>
       <c r="BN7" s="128"/>
       <c r="BO7" s="129"/>
-      <c r="BP7" s="113" t="str">
-        <f>IF('[1]被保険者住所変更届（一枚目）'!BN7="","",'[1]被保険者住所変更届（一枚目）'!BN7)</f>
-        <v/>
-      </c>
+      <c r="BP7" s="104"/>
       <c r="BQ7" s="37"/>
-      <c r="BR7" s="112" t="str">
-        <f>IF('[1]被保険者住所変更届（一枚目）'!BQ7="","",'[1]被保険者住所変更届（一枚目）'!BQ7)</f>
-        <v/>
-      </c>
+      <c r="BR7" s="103"/>
       <c r="BS7" s="37"/>
-      <c r="BT7" s="113" t="str">
-        <f>IF('[1]被保険者住所変更届（一枚目）'!BS7="","",'[1]被保険者住所変更届（一枚目）'!BS7)</f>
-        <v/>
-      </c>
+      <c r="BT7" s="104"/>
       <c r="BU7" s="37"/>
-      <c r="BV7" s="112" t="str">
-        <f>IF('[1]被保険者住所変更届（一枚目）'!BU7="","",'[1]被保険者住所変更届（一枚目）'!BU7)</f>
-        <v/>
-      </c>
+      <c r="BV7" s="103"/>
       <c r="BW7" s="37"/>
-      <c r="BX7" s="113" t="str">
-        <f>IF('[1]被保険者住所変更届（一枚目）'!BW7="","",'[1]被保険者住所変更届（一枚目）'!BW7)</f>
-        <v/>
-      </c>
-      <c r="BY7" s="112"/>
-      <c r="BZ7" s="46" t="str">
-        <f>IF('[1]被保険者住所変更届（一枚目）'!BY7="","",'[1]被保険者住所変更届（一枚目）'!BY7)</f>
-        <v/>
-      </c>
+      <c r="BX7" s="104"/>
+      <c r="BY7" s="103"/>
+      <c r="BZ7" s="46"/>
       <c r="CA7" s="47"/>
       <c r="CB7" s="28"/>
       <c r="CC7"/>
       <c r="CD7" s="27"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="66"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="303"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="109"/>
       <c r="S8" s="38"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
@@ -8587,15 +9119,15 @@
       <c r="BM8" s="131"/>
       <c r="BN8" s="131"/>
       <c r="BO8" s="132"/>
-      <c r="BP8" s="114"/>
+      <c r="BP8" s="105"/>
       <c r="BQ8" s="35"/>
       <c r="BR8" s="34"/>
       <c r="BS8" s="35"/>
-      <c r="BT8" s="114"/>
+      <c r="BT8" s="105"/>
       <c r="BU8" s="35"/>
       <c r="BV8" s="34"/>
       <c r="BW8" s="35"/>
-      <c r="BX8" s="114"/>
+      <c r="BX8" s="105"/>
       <c r="BY8" s="34"/>
       <c r="BZ8" s="48"/>
       <c r="CA8" s="49"/>
@@ -8604,23 +9136,23 @@
       <c r="CD8" s="27"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="227" t="s">
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="228"/>
-      <c r="I9" s="229"/>
-      <c r="J9" s="105" t="s">
+      <c r="H9" s="274"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="107"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="99"/>
       <c r="P9" s="46"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="46"/>
@@ -8635,162 +9167,162 @@
       <c r="AA9" s="37"/>
       <c r="AB9" s="46"/>
       <c r="AC9" s="37"/>
-      <c r="AD9" s="68" t="s">
+      <c r="AD9" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="77" t="s">
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="294"/>
-      <c r="AL9" s="294"/>
-      <c r="AM9" s="294"/>
-      <c r="AN9" s="294"/>
-      <c r="AO9" s="294"/>
-      <c r="AP9" s="294"/>
-      <c r="AQ9" s="294"/>
-      <c r="AR9" s="294"/>
-      <c r="AS9" s="294"/>
-      <c r="AT9" s="294"/>
-      <c r="AU9" s="294"/>
-      <c r="AV9" s="294"/>
-      <c r="AW9" s="294"/>
-      <c r="AX9" s="294"/>
-      <c r="AY9" s="294"/>
-      <c r="AZ9" s="294"/>
-      <c r="BA9" s="294"/>
-      <c r="BB9" s="294"/>
-      <c r="BC9" s="294"/>
-      <c r="BD9" s="294"/>
-      <c r="BE9" s="294"/>
-      <c r="BF9" s="294"/>
-      <c r="BG9" s="294"/>
-      <c r="BH9" s="294"/>
-      <c r="BI9" s="294"/>
-      <c r="BJ9" s="294"/>
-      <c r="BK9" s="294"/>
-      <c r="BL9" s="294"/>
-      <c r="BM9" s="294"/>
-      <c r="BN9" s="294"/>
-      <c r="BO9" s="294"/>
-      <c r="BP9" s="294"/>
-      <c r="BQ9" s="294"/>
-      <c r="BR9" s="294"/>
-      <c r="BS9" s="294"/>
-      <c r="BT9" s="294"/>
-      <c r="BU9" s="294"/>
-      <c r="BV9" s="294"/>
-      <c r="BW9" s="294"/>
-      <c r="BX9" s="294"/>
-      <c r="BY9" s="294"/>
-      <c r="BZ9" s="294"/>
-      <c r="CA9" s="294"/>
-      <c r="CB9" s="294"/>
-      <c r="CC9" s="294"/>
-      <c r="CD9" s="295"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="292"/>
+      <c r="AL9" s="292"/>
+      <c r="AM9" s="292"/>
+      <c r="AN9" s="292"/>
+      <c r="AO9" s="292"/>
+      <c r="AP9" s="292"/>
+      <c r="AQ9" s="292"/>
+      <c r="AR9" s="292"/>
+      <c r="AS9" s="292"/>
+      <c r="AT9" s="292"/>
+      <c r="AU9" s="292"/>
+      <c r="AV9" s="292"/>
+      <c r="AW9" s="292"/>
+      <c r="AX9" s="292"/>
+      <c r="AY9" s="292"/>
+      <c r="AZ9" s="292"/>
+      <c r="BA9" s="292"/>
+      <c r="BB9" s="292"/>
+      <c r="BC9" s="292"/>
+      <c r="BD9" s="292"/>
+      <c r="BE9" s="292"/>
+      <c r="BF9" s="292"/>
+      <c r="BG9" s="292"/>
+      <c r="BH9" s="292"/>
+      <c r="BI9" s="292"/>
+      <c r="BJ9" s="292"/>
+      <c r="BK9" s="292"/>
+      <c r="BL9" s="292"/>
+      <c r="BM9" s="292"/>
+      <c r="BN9" s="292"/>
+      <c r="BO9" s="292"/>
+      <c r="BP9" s="292"/>
+      <c r="BQ9" s="292"/>
+      <c r="BR9" s="292"/>
+      <c r="BS9" s="292"/>
+      <c r="BT9" s="292"/>
+      <c r="BU9" s="292"/>
+      <c r="BV9" s="292"/>
+      <c r="BW9" s="292"/>
+      <c r="BX9" s="292"/>
+      <c r="BY9" s="292"/>
+      <c r="BZ9" s="292"/>
+      <c r="CA9" s="292"/>
+      <c r="CB9" s="292"/>
+      <c r="CC9" s="292"/>
+      <c r="CD9" s="293"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="238"/>
-      <c r="P10" s="67"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="282"/>
+      <c r="K10" s="283"/>
+      <c r="L10" s="283"/>
+      <c r="M10" s="283"/>
+      <c r="N10" s="283"/>
+      <c r="O10" s="284"/>
+      <c r="P10" s="115"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="67"/>
+      <c r="R10" s="115"/>
       <c r="S10" s="33"/>
-      <c r="T10" s="67"/>
+      <c r="T10" s="115"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="67"/>
+      <c r="V10" s="115"/>
       <c r="W10" s="33"/>
-      <c r="X10" s="67"/>
+      <c r="X10" s="115"/>
       <c r="Y10" s="33"/>
-      <c r="Z10" s="67"/>
+      <c r="Z10" s="115"/>
       <c r="AA10" s="33"/>
-      <c r="AB10" s="67"/>
+      <c r="AB10" s="115"/>
       <c r="AC10" s="33"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="265"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
       <c r="AO10" s="54" t="s">
         <v>21</v>
       </c>
       <c r="AP10" s="54"/>
       <c r="AQ10" s="54"/>
       <c r="AR10" s="54"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="79"/>
-      <c r="BJ10" s="79"/>
-      <c r="BK10" s="79"/>
-      <c r="BL10" s="79"/>
-      <c r="BM10" s="79"/>
-      <c r="BN10" s="79"/>
-      <c r="BO10" s="79"/>
-      <c r="BP10" s="79"/>
-      <c r="BQ10" s="79"/>
-      <c r="BR10" s="79"/>
-      <c r="BS10" s="79"/>
-      <c r="BT10" s="79"/>
-      <c r="BU10" s="79"/>
-      <c r="BV10" s="79"/>
-      <c r="BW10" s="79"/>
-      <c r="BX10" s="79"/>
-      <c r="BY10" s="79"/>
-      <c r="BZ10" s="79"/>
-      <c r="CA10" s="79"/>
-      <c r="CB10" s="79"/>
-      <c r="CC10" s="79"/>
-      <c r="CD10" s="80"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="71"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="71"/>
+      <c r="BG10" s="71"/>
+      <c r="BH10" s="71"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="71"/>
+      <c r="BK10" s="71"/>
+      <c r="BL10" s="71"/>
+      <c r="BM10" s="71"/>
+      <c r="BN10" s="71"/>
+      <c r="BO10" s="71"/>
+      <c r="BP10" s="71"/>
+      <c r="BQ10" s="71"/>
+      <c r="BR10" s="71"/>
+      <c r="BS10" s="71"/>
+      <c r="BT10" s="71"/>
+      <c r="BU10" s="71"/>
+      <c r="BV10" s="71"/>
+      <c r="BW10" s="71"/>
+      <c r="BX10" s="71"/>
+      <c r="BY10" s="71"/>
+      <c r="BZ10" s="71"/>
+      <c r="CA10" s="71"/>
+      <c r="CB10" s="71"/>
+      <c r="CC10" s="71"/>
+      <c r="CD10" s="72"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="235"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="279"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="102"/>
       <c r="P11" s="48"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="48"/>
@@ -8805,304 +9337,304 @@
       <c r="AA11" s="35"/>
       <c r="AB11" s="48"/>
       <c r="AC11" s="35"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="206"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="81"/>
-      <c r="AL11" s="81"/>
-      <c r="AM11" s="81"/>
-      <c r="AN11" s="81"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="137"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="73"/>
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="73"/>
       <c r="AO11" s="55"/>
       <c r="AP11" s="55"/>
       <c r="AQ11" s="55"/>
       <c r="AR11" s="55"/>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="81"/>
-      <c r="AU11" s="81"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="81"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="81"/>
-      <c r="AZ11" s="81"/>
-      <c r="BA11" s="81"/>
-      <c r="BB11" s="81"/>
-      <c r="BC11" s="81"/>
-      <c r="BD11" s="81"/>
-      <c r="BE11" s="81"/>
-      <c r="BF11" s="81"/>
-      <c r="BG11" s="81"/>
-      <c r="BH11" s="81"/>
-      <c r="BI11" s="81"/>
-      <c r="BJ11" s="81"/>
-      <c r="BK11" s="81"/>
-      <c r="BL11" s="81"/>
-      <c r="BM11" s="81"/>
-      <c r="BN11" s="81"/>
-      <c r="BO11" s="81"/>
-      <c r="BP11" s="81"/>
-      <c r="BQ11" s="81"/>
-      <c r="BR11" s="81"/>
-      <c r="BS11" s="81"/>
-      <c r="BT11" s="81"/>
-      <c r="BU11" s="81"/>
-      <c r="BV11" s="81"/>
-      <c r="BW11" s="81"/>
-      <c r="BX11" s="81"/>
-      <c r="BY11" s="81"/>
-      <c r="BZ11" s="81"/>
-      <c r="CA11" s="81"/>
-      <c r="CB11" s="81"/>
-      <c r="CC11" s="81"/>
-      <c r="CD11" s="82"/>
+      <c r="AS11" s="73"/>
+      <c r="AT11" s="73"/>
+      <c r="AU11" s="73"/>
+      <c r="AV11" s="73"/>
+      <c r="AW11" s="73"/>
+      <c r="AX11" s="73"/>
+      <c r="AY11" s="73"/>
+      <c r="AZ11" s="73"/>
+      <c r="BA11" s="73"/>
+      <c r="BB11" s="73"/>
+      <c r="BC11" s="73"/>
+      <c r="BD11" s="73"/>
+      <c r="BE11" s="73"/>
+      <c r="BF11" s="73"/>
+      <c r="BG11" s="73"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="73"/>
+      <c r="BJ11" s="73"/>
+      <c r="BK11" s="73"/>
+      <c r="BL11" s="73"/>
+      <c r="BM11" s="73"/>
+      <c r="BN11" s="73"/>
+      <c r="BO11" s="73"/>
+      <c r="BP11" s="73"/>
+      <c r="BQ11" s="73"/>
+      <c r="BR11" s="73"/>
+      <c r="BS11" s="73"/>
+      <c r="BT11" s="73"/>
+      <c r="BU11" s="73"/>
+      <c r="BV11" s="73"/>
+      <c r="BW11" s="73"/>
+      <c r="BX11" s="73"/>
+      <c r="BY11" s="73"/>
+      <c r="BZ11" s="73"/>
+      <c r="CA11" s="73"/>
+      <c r="CB11" s="73"/>
+      <c r="CC11" s="73"/>
+      <c r="CD11" s="74"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="208" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="206" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="209"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="105" t="s">
-        <v>7</v>
+      <c r="H12" s="207"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="97" t="s">
+        <v>72</v>
       </c>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="205"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="207" t="s">
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="271"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="Y12" s="207"/>
-      <c r="Z12" s="207"/>
-      <c r="AA12" s="207"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="83"/>
-      <c r="AI12" s="83"/>
-      <c r="AJ12" s="83"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="83"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="83"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="83"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="83"/>
-      <c r="AW12" s="83"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="83"/>
-      <c r="AZ12" s="83"/>
-      <c r="BA12" s="83"/>
-      <c r="BB12" s="83"/>
-      <c r="BC12" s="83"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="83"/>
-      <c r="BF12" s="83"/>
-      <c r="BG12" s="83"/>
-      <c r="BH12" s="83"/>
-      <c r="BI12" s="83"/>
-      <c r="BJ12" s="83"/>
-      <c r="BK12" s="83"/>
-      <c r="BL12" s="83"/>
-      <c r="BM12" s="83"/>
-      <c r="BN12" s="83"/>
-      <c r="BO12" s="83"/>
-      <c r="BP12" s="83"/>
-      <c r="BQ12" s="83"/>
-      <c r="BR12" s="83"/>
-      <c r="BS12" s="83"/>
-      <c r="BT12" s="83"/>
-      <c r="BU12" s="83"/>
-      <c r="BV12" s="83"/>
-      <c r="BW12" s="83"/>
-      <c r="BX12" s="83"/>
-      <c r="BY12" s="83"/>
-      <c r="BZ12" s="83"/>
-      <c r="CA12" s="83"/>
-      <c r="CB12" s="83"/>
-      <c r="CC12" s="83"/>
-      <c r="CD12" s="84"/>
+      <c r="Y12" s="272"/>
+      <c r="Z12" s="272"/>
+      <c r="AA12" s="272"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="75"/>
+      <c r="AQ12" s="75"/>
+      <c r="AR12" s="75"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="75"/>
+      <c r="AU12" s="75"/>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="75"/>
+      <c r="AX12" s="75"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="75"/>
+      <c r="BA12" s="75"/>
+      <c r="BB12" s="75"/>
+      <c r="BC12" s="75"/>
+      <c r="BD12" s="75"/>
+      <c r="BE12" s="75"/>
+      <c r="BF12" s="75"/>
+      <c r="BG12" s="75"/>
+      <c r="BH12" s="75"/>
+      <c r="BI12" s="75"/>
+      <c r="BJ12" s="75"/>
+      <c r="BK12" s="75"/>
+      <c r="BL12" s="75"/>
+      <c r="BM12" s="75"/>
+      <c r="BN12" s="75"/>
+      <c r="BO12" s="75"/>
+      <c r="BP12" s="75"/>
+      <c r="BQ12" s="75"/>
+      <c r="BR12" s="75"/>
+      <c r="BS12" s="75"/>
+      <c r="BT12" s="75"/>
+      <c r="BU12" s="75"/>
+      <c r="BV12" s="75"/>
+      <c r="BW12" s="75"/>
+      <c r="BX12" s="75"/>
+      <c r="BY12" s="75"/>
+      <c r="BZ12" s="75"/>
+      <c r="CA12" s="75"/>
+      <c r="CB12" s="75"/>
+      <c r="CC12" s="75"/>
+      <c r="CD12" s="76"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="206"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="209"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
       <c r="X13" s="55"/>
       <c r="Y13" s="55"/>
       <c r="Z13" s="55"/>
       <c r="AA13" s="55"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="81"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="81"/>
-      <c r="AQ13" s="81"/>
-      <c r="AR13" s="81"/>
-      <c r="AS13" s="81"/>
-      <c r="AT13" s="81"/>
-      <c r="AU13" s="81"/>
-      <c r="AV13" s="81"/>
-      <c r="AW13" s="81"/>
-      <c r="AX13" s="81"/>
-      <c r="AY13" s="81"/>
-      <c r="AZ13" s="81"/>
-      <c r="BA13" s="81"/>
-      <c r="BB13" s="81"/>
-      <c r="BC13" s="81"/>
-      <c r="BD13" s="81"/>
-      <c r="BE13" s="81"/>
-      <c r="BF13" s="81"/>
-      <c r="BG13" s="81"/>
-      <c r="BH13" s="81"/>
-      <c r="BI13" s="81"/>
-      <c r="BJ13" s="81"/>
-      <c r="BK13" s="81"/>
-      <c r="BL13" s="81"/>
-      <c r="BM13" s="81"/>
-      <c r="BN13" s="81"/>
-      <c r="BO13" s="81"/>
-      <c r="BP13" s="81"/>
-      <c r="BQ13" s="81"/>
-      <c r="BR13" s="81"/>
-      <c r="BS13" s="81"/>
-      <c r="BT13" s="81"/>
-      <c r="BU13" s="81"/>
-      <c r="BV13" s="81"/>
-      <c r="BW13" s="81"/>
-      <c r="BX13" s="81"/>
-      <c r="BY13" s="81"/>
-      <c r="BZ13" s="81"/>
-      <c r="CA13" s="81"/>
-      <c r="CB13" s="81"/>
-      <c r="CC13" s="81"/>
-      <c r="CD13" s="82"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="73"/>
+      <c r="AR13" s="73"/>
+      <c r="AS13" s="73"/>
+      <c r="AT13" s="73"/>
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="73"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="73"/>
+      <c r="BA13" s="73"/>
+      <c r="BB13" s="73"/>
+      <c r="BC13" s="73"/>
+      <c r="BD13" s="73"/>
+      <c r="BE13" s="73"/>
+      <c r="BF13" s="73"/>
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="73"/>
+      <c r="BJ13" s="73"/>
+      <c r="BK13" s="73"/>
+      <c r="BL13" s="73"/>
+      <c r="BM13" s="73"/>
+      <c r="BN13" s="73"/>
+      <c r="BO13" s="73"/>
+      <c r="BP13" s="73"/>
+      <c r="BQ13" s="73"/>
+      <c r="BR13" s="73"/>
+      <c r="BS13" s="73"/>
+      <c r="BT13" s="73"/>
+      <c r="BU13" s="73"/>
+      <c r="BV13" s="73"/>
+      <c r="BW13" s="73"/>
+      <c r="BX13" s="73"/>
+      <c r="BY13" s="73"/>
+      <c r="BZ13" s="73"/>
+      <c r="CA13" s="73"/>
+      <c r="CB13" s="73"/>
+      <c r="CC13" s="73"/>
+      <c r="CD13" s="74"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="296" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="294" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="297"/>
-      <c r="I14" s="297"/>
-      <c r="J14" s="297"/>
-      <c r="K14" s="297"/>
-      <c r="L14" s="298"/>
-      <c r="M14" s="163" t="s">
+      <c r="H14" s="295"/>
+      <c r="I14" s="295"/>
+      <c r="J14" s="295"/>
+      <c r="K14" s="295"/>
+      <c r="L14" s="296"/>
+      <c r="M14" s="166" t="s">
         <v>46</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="151"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="192"/>
+      <c r="R14" s="154"/>
       <c r="S14" s="50"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="189"/>
-      <c r="V14" s="151"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="192"/>
+      <c r="V14" s="154"/>
       <c r="W14" s="50"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="189"/>
-      <c r="Z14" s="151"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="192"/>
+      <c r="Z14" s="154"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="51"/>
-      <c r="AC14" s="196"/>
-      <c r="AD14" s="197"/>
-      <c r="AE14" s="198"/>
-      <c r="AF14" s="153" t="s">
+      <c r="AC14" s="200"/>
+      <c r="AD14" s="201"/>
+      <c r="AE14" s="202"/>
+      <c r="AF14" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="AG14" s="154"/>
-      <c r="AH14" s="154"/>
-      <c r="AI14" s="154"/>
-      <c r="AJ14" s="167" t="s">
+      <c r="AG14" s="157"/>
+      <c r="AH14" s="157"/>
+      <c r="AI14" s="157"/>
+      <c r="AJ14" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="AK14" s="168"/>
-      <c r="AL14" s="168"/>
-      <c r="AM14" s="168"/>
-      <c r="AN14" s="168"/>
-      <c r="AO14" s="168"/>
-      <c r="AP14" s="168"/>
-      <c r="AQ14" s="168"/>
-      <c r="AR14" s="168"/>
-      <c r="AS14" s="168"/>
-      <c r="AT14" s="168"/>
-      <c r="AU14" s="168"/>
-      <c r="AV14" s="168"/>
-      <c r="AW14" s="168"/>
-      <c r="AX14" s="168"/>
-      <c r="AY14" s="168"/>
-      <c r="AZ14" s="168"/>
-      <c r="BA14" s="168"/>
-      <c r="BB14" s="168"/>
-      <c r="BC14" s="168"/>
-      <c r="BD14" s="168"/>
-      <c r="BE14" s="168"/>
-      <c r="BF14" s="168"/>
-      <c r="BG14" s="168"/>
-      <c r="BH14" s="168"/>
-      <c r="BI14" s="168"/>
-      <c r="BJ14" s="168"/>
-      <c r="BK14" s="168"/>
-      <c r="BL14" s="168"/>
-      <c r="BM14" s="168"/>
-      <c r="BN14" s="168"/>
-      <c r="BO14" s="169"/>
+      <c r="AK14" s="171"/>
+      <c r="AL14" s="171"/>
+      <c r="AM14" s="171"/>
+      <c r="AN14" s="171"/>
+      <c r="AO14" s="171"/>
+      <c r="AP14" s="171"/>
+      <c r="AQ14" s="171"/>
+      <c r="AR14" s="171"/>
+      <c r="AS14" s="171"/>
+      <c r="AT14" s="171"/>
+      <c r="AU14" s="171"/>
+      <c r="AV14" s="171"/>
+      <c r="AW14" s="171"/>
+      <c r="AX14" s="171"/>
+      <c r="AY14" s="171"/>
+      <c r="AZ14" s="171"/>
+      <c r="BA14" s="171"/>
+      <c r="BB14" s="171"/>
+      <c r="BC14" s="171"/>
+      <c r="BD14" s="171"/>
+      <c r="BE14" s="171"/>
+      <c r="BF14" s="171"/>
+      <c r="BG14" s="171"/>
+      <c r="BH14" s="171"/>
+      <c r="BI14" s="171"/>
+      <c r="BJ14" s="171"/>
+      <c r="BK14" s="171"/>
+      <c r="BL14" s="171"/>
+      <c r="BM14" s="171"/>
+      <c r="BN14" s="171"/>
+      <c r="BO14" s="172"/>
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
@@ -9119,91 +9651,91 @@
       <c r="CC14"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="300"/>
-      <c r="I15" s="300"/>
-      <c r="J15" s="300"/>
-      <c r="K15" s="300"/>
-      <c r="L15" s="301"/>
-      <c r="M15" s="165"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="297"/>
+      <c r="H15" s="298"/>
+      <c r="I15" s="298"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="299"/>
+      <c r="M15" s="168"/>
       <c r="N15" s="44"/>
       <c r="O15" s="44"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="190"/>
-      <c r="R15" s="152"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="155"/>
       <c r="S15" s="52"/>
-      <c r="T15" s="192"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="152"/>
+      <c r="T15" s="195"/>
+      <c r="U15" s="193"/>
+      <c r="V15" s="155"/>
       <c r="W15" s="52"/>
-      <c r="X15" s="192"/>
-      <c r="Y15" s="190"/>
-      <c r="Z15" s="152"/>
+      <c r="X15" s="195"/>
+      <c r="Y15" s="193"/>
+      <c r="Z15" s="155"/>
       <c r="AA15" s="52"/>
       <c r="AB15" s="53"/>
-      <c r="AC15" s="199"/>
-      <c r="AD15" s="200"/>
-      <c r="AE15" s="201"/>
-      <c r="AF15" s="155"/>
-      <c r="AG15" s="156"/>
-      <c r="AH15" s="156"/>
-      <c r="AI15" s="156"/>
-      <c r="AJ15" s="170"/>
-      <c r="AK15" s="171"/>
-      <c r="AL15" s="171"/>
-      <c r="AM15" s="171"/>
-      <c r="AN15" s="171"/>
-      <c r="AO15" s="171"/>
-      <c r="AP15" s="171"/>
-      <c r="AQ15" s="171"/>
-      <c r="AR15" s="171"/>
-      <c r="AS15" s="171"/>
-      <c r="AT15" s="171"/>
-      <c r="AU15" s="171"/>
-      <c r="AV15" s="171"/>
-      <c r="AW15" s="171"/>
-      <c r="AX15" s="171"/>
-      <c r="AY15" s="171"/>
-      <c r="AZ15" s="171"/>
-      <c r="BA15" s="171"/>
-      <c r="BB15" s="171"/>
-      <c r="BC15" s="171"/>
-      <c r="BD15" s="171"/>
-      <c r="BE15" s="171"/>
-      <c r="BF15" s="171"/>
-      <c r="BG15" s="171"/>
-      <c r="BH15" s="171"/>
-      <c r="BI15" s="171"/>
-      <c r="BJ15" s="171"/>
-      <c r="BK15" s="171"/>
-      <c r="BL15" s="171"/>
-      <c r="BM15" s="171"/>
-      <c r="BN15" s="171"/>
-      <c r="BO15" s="172"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="204"/>
+      <c r="AE15" s="205"/>
+      <c r="AF15" s="158"/>
+      <c r="AG15" s="159"/>
+      <c r="AH15" s="159"/>
+      <c r="AI15" s="159"/>
+      <c r="AJ15" s="173"/>
+      <c r="AK15" s="174"/>
+      <c r="AL15" s="174"/>
+      <c r="AM15" s="174"/>
+      <c r="AN15" s="174"/>
+      <c r="AO15" s="174"/>
+      <c r="AP15" s="174"/>
+      <c r="AQ15" s="174"/>
+      <c r="AR15" s="174"/>
+      <c r="AS15" s="174"/>
+      <c r="AT15" s="174"/>
+      <c r="AU15" s="174"/>
+      <c r="AV15" s="174"/>
+      <c r="AW15" s="174"/>
+      <c r="AX15" s="174"/>
+      <c r="AY15" s="174"/>
+      <c r="AZ15" s="174"/>
+      <c r="BA15" s="174"/>
+      <c r="BB15" s="174"/>
+      <c r="BC15" s="174"/>
+      <c r="BD15" s="174"/>
+      <c r="BE15" s="174"/>
+      <c r="BF15" s="174"/>
+      <c r="BG15" s="174"/>
+      <c r="BH15" s="174"/>
+      <c r="BI15" s="174"/>
+      <c r="BJ15" s="174"/>
+      <c r="BK15" s="174"/>
+      <c r="BL15" s="174"/>
+      <c r="BM15" s="174"/>
+      <c r="BN15" s="174"/>
+      <c r="BO15" s="175"/>
       <c r="BP15"/>
       <c r="BQ15"/>
-      <c r="BS15" s="85" t="s">
+      <c r="BS15" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="BT15" s="86"/>
-      <c r="BU15" s="86"/>
-      <c r="BV15" s="86"/>
-      <c r="BW15" s="86"/>
-      <c r="BX15" s="86"/>
-      <c r="BY15" s="86"/>
-      <c r="BZ15" s="86"/>
-      <c r="CA15" s="86"/>
-      <c r="CB15" s="86"/>
-      <c r="CC15" s="86"/>
-      <c r="CD15" s="87"/>
+      <c r="BT15" s="78"/>
+      <c r="BU15" s="78"/>
+      <c r="BV15" s="78"/>
+      <c r="BW15" s="78"/>
+      <c r="BX15" s="78"/>
+      <c r="BY15" s="78"/>
+      <c r="BZ15" s="78"/>
+      <c r="CA15" s="78"/>
+      <c r="CB15" s="78"/>
+      <c r="CC15" s="78"/>
+      <c r="CD15" s="79"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="25"/>
@@ -9271,22 +9803,22 @@
       <c r="BO16"/>
       <c r="BP16"/>
       <c r="BQ16"/>
-      <c r="BS16" s="85"/>
-      <c r="BT16" s="86"/>
-      <c r="BU16" s="86"/>
-      <c r="BV16" s="86"/>
-      <c r="BW16" s="86"/>
-      <c r="BX16" s="86"/>
-      <c r="BY16" s="86"/>
-      <c r="BZ16" s="86"/>
-      <c r="CA16" s="86"/>
-      <c r="CB16" s="86"/>
-      <c r="CC16" s="86"/>
-      <c r="CD16" s="87"/>
+      <c r="BS16" s="77"/>
+      <c r="BT16" s="78"/>
+      <c r="BU16" s="78"/>
+      <c r="BV16" s="78"/>
+      <c r="BW16" s="78"/>
+      <c r="BX16" s="78"/>
+      <c r="BY16" s="78"/>
+      <c r="BZ16" s="78"/>
+      <c r="CA16" s="78"/>
+      <c r="CB16" s="78"/>
+      <c r="CC16" s="78"/>
+      <c r="CD16" s="79"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="21" t="s">
@@ -9295,22 +9827,22 @@
       <c r="AO17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="BS17" s="88"/>
-      <c r="BT17" s="89"/>
-      <c r="BU17" s="89"/>
-      <c r="BV17" s="89"/>
-      <c r="BW17" s="89"/>
-      <c r="BX17" s="89"/>
-      <c r="BY17" s="89"/>
-      <c r="BZ17" s="89"/>
-      <c r="CA17" s="89"/>
-      <c r="CB17" s="89"/>
-      <c r="CC17" s="89"/>
-      <c r="CD17" s="90"/>
+      <c r="BS17" s="80"/>
+      <c r="BT17" s="81"/>
+      <c r="BU17" s="81"/>
+      <c r="BV17" s="81"/>
+      <c r="BW17" s="81"/>
+      <c r="BX17" s="81"/>
+      <c r="BY17" s="81"/>
+      <c r="BZ17" s="81"/>
+      <c r="CA17" s="81"/>
+      <c r="CB17" s="81"/>
+      <c r="CC17" s="81"/>
+      <c r="CD17" s="82"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="19" t="s">
@@ -9351,56 +9883,56 @@
       <c r="BE18"/>
       <c r="BF18"/>
       <c r="BG18"/>
-      <c r="BS18" s="88"/>
-      <c r="BT18" s="89"/>
-      <c r="BU18" s="89"/>
-      <c r="BV18" s="89"/>
-      <c r="BW18" s="89"/>
-      <c r="BX18" s="89"/>
-      <c r="BY18" s="89"/>
-      <c r="BZ18" s="89"/>
-      <c r="CA18" s="89"/>
-      <c r="CB18" s="89"/>
-      <c r="CC18" s="89"/>
-      <c r="CD18" s="90"/>
+      <c r="BS18" s="80"/>
+      <c r="BT18" s="81"/>
+      <c r="BU18" s="81"/>
+      <c r="BV18" s="81"/>
+      <c r="BW18" s="81"/>
+      <c r="BX18" s="81"/>
+      <c r="BY18" s="81"/>
+      <c r="BZ18" s="81"/>
+      <c r="CA18" s="81"/>
+      <c r="CB18" s="81"/>
+      <c r="CC18" s="81"/>
+      <c r="CD18" s="82"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="100" t="s">
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="101"/>
-      <c r="AD19" s="101"/>
-      <c r="AE19" s="101"/>
-      <c r="AF19" s="101"/>
-      <c r="AG19" s="101"/>
-      <c r="AH19" s="101"/>
-      <c r="AI19" s="101"/>
-      <c r="AJ19" s="101"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="93"/>
+      <c r="AJ19" s="93"/>
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
@@ -9424,27 +9956,27 @@
       <c r="BE19"/>
       <c r="BF19"/>
       <c r="BG19"/>
-      <c r="BS19" s="88"/>
-      <c r="BT19" s="89"/>
-      <c r="BU19" s="89"/>
-      <c r="BV19" s="89"/>
-      <c r="BW19" s="89"/>
-      <c r="BX19" s="89"/>
-      <c r="BY19" s="89"/>
-      <c r="BZ19" s="89"/>
-      <c r="CA19" s="89"/>
-      <c r="CB19" s="89"/>
-      <c r="CC19" s="89"/>
-      <c r="CD19" s="90"/>
+      <c r="BS19" s="80"/>
+      <c r="BT19" s="81"/>
+      <c r="BU19" s="81"/>
+      <c r="BV19" s="81"/>
+      <c r="BW19" s="81"/>
+      <c r="BX19" s="81"/>
+      <c r="BY19" s="81"/>
+      <c r="BZ19" s="81"/>
+      <c r="CA19" s="81"/>
+      <c r="CB19" s="81"/>
+      <c r="CC19" s="81"/>
+      <c r="CD19" s="82"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="59" t="s">
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="143" t="s">
+      <c r="F20" s="139"/>
+      <c r="G20" s="288" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="144"/>
@@ -9470,7 +10002,7 @@
       <c r="AB20" s="144"/>
       <c r="AC20" s="144"/>
       <c r="AD20" s="145"/>
-      <c r="AE20" s="143" t="s">
+      <c r="AE20" s="288" t="s">
         <v>36</v>
       </c>
       <c r="AF20" s="144"/>
@@ -9488,188 +10020,188 @@
       <c r="AR20" s="144"/>
       <c r="AS20" s="144"/>
       <c r="AT20" s="145"/>
-      <c r="AU20" s="157"/>
-      <c r="AV20" s="158"/>
-      <c r="AW20" s="274" t="s">
+      <c r="AU20" s="160"/>
+      <c r="AV20" s="161"/>
+      <c r="AW20" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="AX20" s="275"/>
+      <c r="AX20" s="258"/>
       <c r="AY20" s="18"/>
       <c r="AZ20" s="17" t="s">
         <v>25</v>
       </c>
       <c r="BA20" s="16"/>
       <c r="BB20" s="16"/>
-      <c r="BC20" s="271"/>
-      <c r="BD20" s="271"/>
-      <c r="BE20" s="271"/>
-      <c r="BF20" s="271"/>
-      <c r="BG20" s="271"/>
-      <c r="BH20" s="271"/>
-      <c r="BI20" s="291"/>
-      <c r="BJ20" s="292"/>
-      <c r="BK20" s="292"/>
-      <c r="BL20" s="292"/>
-      <c r="BM20" s="292"/>
-      <c r="BN20" s="292"/>
-      <c r="BO20" s="292"/>
-      <c r="BP20" s="292"/>
-      <c r="BQ20" s="293"/>
-      <c r="BS20" s="88"/>
-      <c r="BT20" s="89"/>
-      <c r="BU20" s="89"/>
-      <c r="BV20" s="89"/>
-      <c r="BW20" s="89"/>
-      <c r="BX20" s="89"/>
-      <c r="BY20" s="89"/>
-      <c r="BZ20" s="89"/>
-      <c r="CA20" s="89"/>
-      <c r="CB20" s="89"/>
-      <c r="CC20" s="89"/>
-      <c r="CD20" s="90"/>
+      <c r="BC20" s="254"/>
+      <c r="BD20" s="254"/>
+      <c r="BE20" s="254"/>
+      <c r="BF20" s="254"/>
+      <c r="BG20" s="254"/>
+      <c r="BH20" s="254"/>
+      <c r="BI20" s="289"/>
+      <c r="BJ20" s="290"/>
+      <c r="BK20" s="290"/>
+      <c r="BL20" s="290"/>
+      <c r="BM20" s="290"/>
+      <c r="BN20" s="290"/>
+      <c r="BO20" s="290"/>
+      <c r="BP20" s="290"/>
+      <c r="BQ20" s="291"/>
+      <c r="BS20" s="80"/>
+      <c r="BT20" s="81"/>
+      <c r="BU20" s="81"/>
+      <c r="BV20" s="81"/>
+      <c r="BW20" s="81"/>
+      <c r="BX20" s="81"/>
+      <c r="BY20" s="81"/>
+      <c r="BZ20" s="81"/>
+      <c r="CA20" s="81"/>
+      <c r="CB20" s="81"/>
+      <c r="CC20" s="81"/>
+      <c r="CD20" s="82"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="202"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="193"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="193"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="66"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="196"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="198"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="198"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="196"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="198"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="198"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="109"/>
       <c r="AE21" s="127" t="s">
         <v>34</v>
       </c>
       <c r="AF21" s="128"/>
       <c r="AG21" s="128"/>
       <c r="AH21" s="129"/>
-      <c r="AI21" s="286"/>
-      <c r="AJ21" s="174"/>
-      <c r="AK21" s="177"/>
-      <c r="AL21" s="178"/>
-      <c r="AM21" s="173"/>
-      <c r="AN21" s="174"/>
-      <c r="AO21" s="177"/>
-      <c r="AP21" s="178"/>
-      <c r="AQ21" s="173"/>
-      <c r="AR21" s="174"/>
-      <c r="AS21" s="177"/>
-      <c r="AT21" s="178"/>
-      <c r="AU21" s="159"/>
-      <c r="AV21" s="160"/>
-      <c r="AW21" s="278" t="s">
+      <c r="AI21" s="269"/>
+      <c r="AJ21" s="177"/>
+      <c r="AK21" s="180"/>
+      <c r="AL21" s="181"/>
+      <c r="AM21" s="176"/>
+      <c r="AN21" s="177"/>
+      <c r="AO21" s="180"/>
+      <c r="AP21" s="181"/>
+      <c r="AQ21" s="176"/>
+      <c r="AR21" s="177"/>
+      <c r="AS21" s="180"/>
+      <c r="AT21" s="181"/>
+      <c r="AU21" s="162"/>
+      <c r="AV21" s="163"/>
+      <c r="AW21" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="AX21" s="278"/>
-      <c r="AY21" s="279"/>
+      <c r="AX21" s="261"/>
+      <c r="AY21" s="262"/>
       <c r="AZ21" s="15" t="s">
         <v>32</v>
       </c>
       <c r="BA21" s="14"/>
-      <c r="BB21" s="94"/>
-      <c r="BC21" s="94"/>
-      <c r="BD21" s="94"/>
-      <c r="BE21" s="94"/>
-      <c r="BF21" s="94"/>
-      <c r="BG21" s="94"/>
-      <c r="BH21" s="94"/>
+      <c r="BB21" s="86"/>
+      <c r="BC21" s="86"/>
+      <c r="BD21" s="86"/>
+      <c r="BE21" s="86"/>
+      <c r="BF21" s="86"/>
+      <c r="BG21" s="86"/>
+      <c r="BH21" s="86"/>
       <c r="BI21" s="15" t="s">
         <v>31</v>
       </c>
       <c r="BJ21" s="14"/>
-      <c r="BK21" s="94"/>
-      <c r="BL21" s="94"/>
-      <c r="BM21" s="94"/>
-      <c r="BN21" s="94"/>
-      <c r="BO21" s="94"/>
-      <c r="BP21" s="94"/>
-      <c r="BQ21" s="273"/>
-      <c r="BS21" s="91"/>
-      <c r="BT21" s="92"/>
-      <c r="BU21" s="92"/>
-      <c r="BV21" s="92"/>
-      <c r="BW21" s="92"/>
-      <c r="BX21" s="92"/>
-      <c r="BY21" s="92"/>
-      <c r="BZ21" s="92"/>
-      <c r="CA21" s="92"/>
-      <c r="CB21" s="92"/>
-      <c r="CC21" s="92"/>
-      <c r="CD21" s="93"/>
-      <c r="CV21" s="141"/>
-      <c r="CW21" s="141"/>
-      <c r="CX21" s="141"/>
+      <c r="BK21" s="86"/>
+      <c r="BL21" s="86"/>
+      <c r="BM21" s="86"/>
+      <c r="BN21" s="86"/>
+      <c r="BO21" s="86"/>
+      <c r="BP21" s="86"/>
+      <c r="BQ21" s="256"/>
+      <c r="BS21" s="83"/>
+      <c r="BT21" s="84"/>
+      <c r="BU21" s="84"/>
+      <c r="BV21" s="84"/>
+      <c r="BW21" s="84"/>
+      <c r="BX21" s="84"/>
+      <c r="BY21" s="84"/>
+      <c r="BZ21" s="84"/>
+      <c r="CA21" s="84"/>
+      <c r="CB21" s="84"/>
+      <c r="CC21" s="84"/>
+      <c r="CD21" s="85"/>
+      <c r="CV21" s="151"/>
+      <c r="CW21" s="151"/>
+      <c r="CX21" s="151"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="194"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="194"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="66"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="197"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="109"/>
       <c r="AE22" s="130"/>
       <c r="AF22" s="131"/>
       <c r="AG22" s="131"/>
       <c r="AH22" s="132"/>
-      <c r="AI22" s="287"/>
-      <c r="AJ22" s="176"/>
+      <c r="AI22" s="270"/>
+      <c r="AJ22" s="179"/>
       <c r="AK22" s="35"/>
-      <c r="AL22" s="176"/>
-      <c r="AM22" s="175"/>
-      <c r="AN22" s="176"/>
+      <c r="AL22" s="179"/>
+      <c r="AM22" s="178"/>
+      <c r="AN22" s="179"/>
       <c r="AO22" s="35"/>
-      <c r="AP22" s="176"/>
-      <c r="AQ22" s="175"/>
-      <c r="AR22" s="176"/>
+      <c r="AP22" s="179"/>
+      <c r="AQ22" s="178"/>
+      <c r="AR22" s="179"/>
       <c r="AS22" s="35"/>
-      <c r="AT22" s="176"/>
-      <c r="AU22" s="161"/>
-      <c r="AV22" s="162"/>
-      <c r="AW22" s="280"/>
-      <c r="AX22" s="280"/>
-      <c r="AY22" s="281"/>
+      <c r="AT22" s="179"/>
+      <c r="AU22" s="164"/>
+      <c r="AV22" s="165"/>
+      <c r="AW22" s="263"/>
+      <c r="AX22" s="263"/>
+      <c r="AY22" s="264"/>
       <c r="AZ22" s="13"/>
       <c r="BA22" s="5"/>
       <c r="BB22" s="34"/>
@@ -9688,20 +10220,20 @@
       <c r="BO22" s="34"/>
       <c r="BP22" s="34"/>
       <c r="BQ22" s="49"/>
-      <c r="CV22" s="141"/>
-      <c r="CW22" s="141"/>
-      <c r="CX22" s="141"/>
+      <c r="CV22" s="151"/>
+      <c r="CW22" s="151"/>
+      <c r="CX22" s="151"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="68" t="s">
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="102"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="94"/>
       <c r="J23" s="40" t="s">
         <v>29</v>
       </c>
@@ -9781,239 +10313,221 @@
       <c r="CB23" s="41"/>
       <c r="CC23" s="41"/>
       <c r="CD23" s="42"/>
-      <c r="CE23" s="115"/>
-      <c r="CF23" s="115"/>
+      <c r="CE23" s="114"/>
+      <c r="CF23" s="114"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="141"/>
-      <c r="CW23" s="141"/>
-      <c r="CX23" s="141"/>
+      <c r="CV23" s="151"/>
+      <c r="CW23" s="151"/>
+      <c r="CX23" s="151"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="103"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="95"/>
       <c r="J24" s="117"/>
-      <c r="K24" s="151"/>
+      <c r="K24" s="154"/>
       <c r="L24" s="50"/>
-      <c r="M24" s="151"/>
+      <c r="M24" s="154"/>
       <c r="N24" s="50"/>
-      <c r="O24" s="151"/>
+      <c r="O24" s="154"/>
       <c r="P24" s="50"/>
-      <c r="Q24" s="151"/>
+      <c r="Q24" s="154"/>
       <c r="R24" s="50"/>
-      <c r="S24" s="151"/>
+      <c r="S24" s="154"/>
       <c r="T24" s="50"/>
-      <c r="U24" s="151"/>
+      <c r="U24" s="154"/>
       <c r="V24" s="50"/>
       <c r="W24" s="51"/>
-      <c r="X24" s="135" t="s">
+      <c r="X24" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="Y24" s="136"/>
-      <c r="Z24" s="136"/>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="136"/>
-      <c r="AC24" s="136"/>
-      <c r="AD24" s="136"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="136"/>
-      <c r="AG24" s="137"/>
-      <c r="AH24" s="150" t="s">
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="134"/>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="134"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="135"/>
+      <c r="AH24" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="AI24" s="150"/>
-      <c r="AJ24" s="150"/>
-      <c r="AK24" s="150"/>
-      <c r="AL24" s="276"/>
-      <c r="AM24" s="276"/>
-      <c r="AN24" s="276"/>
-      <c r="AO24" s="276"/>
-      <c r="AP24" s="276"/>
-      <c r="AQ24" s="276"/>
-      <c r="AR24" s="276"/>
-      <c r="AS24" s="276"/>
-      <c r="AT24" s="276"/>
-      <c r="AU24" s="276"/>
-      <c r="AV24" s="276"/>
-      <c r="AW24" s="276"/>
-      <c r="AX24" s="276"/>
-      <c r="AY24" s="276"/>
-      <c r="AZ24" s="276"/>
-      <c r="BA24" s="276"/>
-      <c r="BB24" s="276"/>
-      <c r="BC24" s="276"/>
-      <c r="BD24" s="276"/>
-      <c r="BE24" s="276"/>
-      <c r="BF24" s="276"/>
-      <c r="BG24" s="276"/>
-      <c r="BH24" s="276"/>
-      <c r="BI24" s="276"/>
-      <c r="BJ24" s="276"/>
-      <c r="BK24" s="276"/>
-      <c r="BL24" s="276"/>
-      <c r="BM24" s="276"/>
-      <c r="BN24" s="276"/>
-      <c r="BO24" s="276"/>
-      <c r="BP24" s="277"/>
-      <c r="BQ24" s="282" t="s">
+      <c r="AI24" s="153"/>
+      <c r="AJ24" s="153"/>
+      <c r="AK24" s="153"/>
+      <c r="AL24" s="259"/>
+      <c r="AM24" s="259"/>
+      <c r="AN24" s="259"/>
+      <c r="AO24" s="259"/>
+      <c r="AP24" s="259"/>
+      <c r="AQ24" s="259"/>
+      <c r="AR24" s="259"/>
+      <c r="AS24" s="259"/>
+      <c r="AT24" s="259"/>
+      <c r="AU24" s="259"/>
+      <c r="AV24" s="259"/>
+      <c r="AW24" s="259"/>
+      <c r="AX24" s="259"/>
+      <c r="AY24" s="259"/>
+      <c r="AZ24" s="259"/>
+      <c r="BA24" s="259"/>
+      <c r="BB24" s="259"/>
+      <c r="BC24" s="259"/>
+      <c r="BD24" s="259"/>
+      <c r="BE24" s="259"/>
+      <c r="BF24" s="259"/>
+      <c r="BG24" s="259"/>
+      <c r="BH24" s="259"/>
+      <c r="BI24" s="259"/>
+      <c r="BJ24" s="259"/>
+      <c r="BK24" s="259"/>
+      <c r="BL24" s="259"/>
+      <c r="BM24" s="259"/>
+      <c r="BN24" s="259"/>
+      <c r="BO24" s="259"/>
+      <c r="BP24" s="260"/>
+      <c r="BQ24" s="265" t="s">
         <v>24</v>
       </c>
-      <c r="BR24" s="283"/>
-      <c r="BS24" s="117">
-        <f>'[1]被保険者住所変更届（一枚目）'!BQ24</f>
-        <v>0</v>
-      </c>
+      <c r="BR24" s="266"/>
+      <c r="BS24" s="117"/>
       <c r="BT24" s="37"/>
-      <c r="BU24" s="50">
-        <f>'[1]被保険者住所変更届（一枚目）'!BS24</f>
-        <v>0</v>
-      </c>
+      <c r="BU24" s="50"/>
       <c r="BV24" s="47"/>
-      <c r="BW24" s="117">
-        <f>'[1]被保険者住所変更届（一枚目）'!BU24</f>
-        <v>0</v>
-      </c>
+      <c r="BW24" s="117"/>
       <c r="BX24" s="37"/>
-      <c r="BY24" s="50">
-        <f>'[1]被保険者住所変更届（一枚目）'!BW24</f>
-        <v>0</v>
-      </c>
+      <c r="BY24" s="50"/>
       <c r="BZ24" s="47"/>
-      <c r="CA24" s="117">
-        <f>'[1]被保険者住所変更届（一枚目）'!BY24</f>
-        <v>0</v>
-      </c>
+      <c r="CA24" s="117"/>
       <c r="CB24" s="37"/>
-      <c r="CC24" s="50">
-        <f>'[1]被保険者住所変更届（一枚目）'!CA24</f>
-        <v>0</v>
-      </c>
+      <c r="CC24" s="50"/>
       <c r="CD24" s="47"/>
-      <c r="CE24" s="115"/>
-      <c r="CF24" s="115"/>
+      <c r="CE24" s="114"/>
+      <c r="CF24" s="114"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="239"/>
-      <c r="K25" s="195"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="195"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="195"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="195"/>
-      <c r="R25" s="133"/>
-      <c r="S25" s="195"/>
-      <c r="T25" s="133"/>
-      <c r="U25" s="195"/>
-      <c r="V25" s="133"/>
-      <c r="W25" s="134"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="199"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="199"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="199"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="199"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="107"/>
       <c r="X25" s="117"/>
-      <c r="Y25" s="151"/>
+      <c r="Y25" s="154"/>
       <c r="Z25" s="50"/>
-      <c r="AA25" s="151"/>
+      <c r="AA25" s="154"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="151"/>
+      <c r="AC25" s="154"/>
       <c r="AD25" s="50"/>
-      <c r="AE25" s="151"/>
+      <c r="AE25" s="154"/>
       <c r="AF25" s="50"/>
       <c r="AG25" s="51"/>
-      <c r="AH25" s="94"/>
-      <c r="AI25" s="94"/>
-      <c r="AJ25" s="94"/>
-      <c r="AK25" s="94"/>
-      <c r="AL25" s="94"/>
-      <c r="AM25" s="94"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="86"/>
+      <c r="AJ25" s="86"/>
+      <c r="AK25" s="86"/>
+      <c r="AL25" s="86"/>
+      <c r="AM25" s="86"/>
       <c r="AN25" s="54" t="s">
         <v>21</v>
       </c>
       <c r="AO25" s="54"/>
       <c r="AP25" s="54"/>
       <c r="AQ25" s="54"/>
-      <c r="AR25" s="95"/>
-      <c r="AS25" s="95"/>
-      <c r="AT25" s="95"/>
-      <c r="AU25" s="95"/>
-      <c r="AV25" s="95"/>
-      <c r="AW25" s="95"/>
-      <c r="AX25" s="95"/>
-      <c r="AY25" s="95"/>
-      <c r="AZ25" s="95"/>
-      <c r="BA25" s="95"/>
-      <c r="BB25" s="95"/>
-      <c r="BC25" s="95"/>
-      <c r="BD25" s="95"/>
-      <c r="BE25" s="95"/>
-      <c r="BF25" s="95"/>
-      <c r="BG25" s="95"/>
-      <c r="BH25" s="95"/>
-      <c r="BI25" s="95"/>
-      <c r="BJ25" s="95"/>
-      <c r="BK25" s="95"/>
-      <c r="BL25" s="95"/>
-      <c r="BM25" s="95"/>
-      <c r="BN25" s="95"/>
-      <c r="BO25" s="95"/>
-      <c r="BP25" s="96"/>
-      <c r="BQ25" s="284"/>
-      <c r="BR25" s="285"/>
+      <c r="AR25" s="87"/>
+      <c r="AS25" s="87"/>
+      <c r="AT25" s="87"/>
+      <c r="AU25" s="87"/>
+      <c r="AV25" s="87"/>
+      <c r="AW25" s="87"/>
+      <c r="AX25" s="87"/>
+      <c r="AY25" s="87"/>
+      <c r="AZ25" s="87"/>
+      <c r="BA25" s="87"/>
+      <c r="BB25" s="87"/>
+      <c r="BC25" s="87"/>
+      <c r="BD25" s="87"/>
+      <c r="BE25" s="87"/>
+      <c r="BF25" s="87"/>
+      <c r="BG25" s="87"/>
+      <c r="BH25" s="87"/>
+      <c r="BI25" s="87"/>
+      <c r="BJ25" s="87"/>
+      <c r="BK25" s="87"/>
+      <c r="BL25" s="87"/>
+      <c r="BM25" s="87"/>
+      <c r="BN25" s="87"/>
+      <c r="BO25" s="87"/>
+      <c r="BP25" s="88"/>
+      <c r="BQ25" s="267"/>
+      <c r="BR25" s="268"/>
       <c r="BS25" s="118"/>
       <c r="BT25" s="33"/>
-      <c r="BU25" s="67"/>
+      <c r="BU25" s="115"/>
       <c r="BV25" s="116"/>
       <c r="BW25" s="118"/>
       <c r="BX25" s="33"/>
-      <c r="BY25" s="67"/>
+      <c r="BY25" s="115"/>
       <c r="BZ25" s="116"/>
       <c r="CA25" s="118"/>
       <c r="CB25" s="33"/>
-      <c r="CC25" s="67"/>
+      <c r="CC25" s="115"/>
       <c r="CD25" s="116"/>
-      <c r="CE25" s="115"/>
-      <c r="CF25" s="115"/>
+      <c r="CE25" s="114"/>
+      <c r="CF25" s="114"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="226"/>
-      <c r="K26" s="152"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="224"/>
+      <c r="K26" s="155"/>
       <c r="L26" s="52"/>
-      <c r="M26" s="152"/>
+      <c r="M26" s="155"/>
       <c r="N26" s="52"/>
-      <c r="O26" s="152"/>
+      <c r="O26" s="155"/>
       <c r="P26" s="52"/>
-      <c r="Q26" s="152"/>
+      <c r="Q26" s="155"/>
       <c r="R26" s="52"/>
-      <c r="S26" s="152"/>
+      <c r="S26" s="155"/>
       <c r="T26" s="52"/>
-      <c r="U26" s="152"/>
+      <c r="U26" s="155"/>
       <c r="V26" s="52"/>
       <c r="W26" s="53"/>
-      <c r="X26" s="226"/>
-      <c r="Y26" s="152"/>
+      <c r="X26" s="224"/>
+      <c r="Y26" s="155"/>
       <c r="Z26" s="52"/>
-      <c r="AA26" s="152"/>
+      <c r="AA26" s="155"/>
       <c r="AB26" s="52"/>
-      <c r="AC26" s="152"/>
+      <c r="AC26" s="155"/>
       <c r="AD26" s="52"/>
-      <c r="AE26" s="152"/>
+      <c r="AE26" s="155"/>
       <c r="AF26" s="52"/>
       <c r="AG26" s="53"/>
       <c r="AH26" s="34"/>
@@ -10026,159 +10540,159 @@
       <c r="AO26" s="55"/>
       <c r="AP26" s="55"/>
       <c r="AQ26" s="55"/>
-      <c r="AR26" s="97"/>
-      <c r="AS26" s="97"/>
-      <c r="AT26" s="97"/>
-      <c r="AU26" s="97"/>
-      <c r="AV26" s="97"/>
-      <c r="AW26" s="97"/>
-      <c r="AX26" s="97"/>
-      <c r="AY26" s="97"/>
-      <c r="AZ26" s="97"/>
-      <c r="BA26" s="97"/>
-      <c r="BB26" s="97"/>
-      <c r="BC26" s="97"/>
-      <c r="BD26" s="97"/>
-      <c r="BE26" s="97"/>
-      <c r="BF26" s="97"/>
-      <c r="BG26" s="97"/>
-      <c r="BH26" s="97"/>
-      <c r="BI26" s="97"/>
-      <c r="BJ26" s="98"/>
-      <c r="BK26" s="98"/>
-      <c r="BL26" s="98"/>
-      <c r="BM26" s="98"/>
-      <c r="BN26" s="98"/>
-      <c r="BO26" s="98"/>
-      <c r="BP26" s="99"/>
-      <c r="BQ26" s="284"/>
-      <c r="BR26" s="285"/>
+      <c r="AR26" s="89"/>
+      <c r="AS26" s="89"/>
+      <c r="AT26" s="89"/>
+      <c r="AU26" s="89"/>
+      <c r="AV26" s="89"/>
+      <c r="AW26" s="89"/>
+      <c r="AX26" s="89"/>
+      <c r="AY26" s="89"/>
+      <c r="AZ26" s="89"/>
+      <c r="BA26" s="89"/>
+      <c r="BB26" s="89"/>
+      <c r="BC26" s="89"/>
+      <c r="BD26" s="89"/>
+      <c r="BE26" s="89"/>
+      <c r="BF26" s="89"/>
+      <c r="BG26" s="89"/>
+      <c r="BH26" s="89"/>
+      <c r="BI26" s="89"/>
+      <c r="BJ26" s="90"/>
+      <c r="BK26" s="90"/>
+      <c r="BL26" s="90"/>
+      <c r="BM26" s="90"/>
+      <c r="BN26" s="90"/>
+      <c r="BO26" s="90"/>
+      <c r="BP26" s="91"/>
+      <c r="BQ26" s="267"/>
+      <c r="BR26" s="268"/>
       <c r="BS26" s="118"/>
       <c r="BT26" s="33"/>
-      <c r="BU26" s="67"/>
+      <c r="BU26" s="115"/>
       <c r="BV26" s="116"/>
       <c r="BW26" s="118"/>
       <c r="BX26" s="33"/>
-      <c r="BY26" s="67"/>
+      <c r="BY26" s="115"/>
       <c r="BZ26" s="116"/>
       <c r="CA26" s="118"/>
       <c r="CB26" s="33"/>
-      <c r="CC26" s="67"/>
+      <c r="CC26" s="115"/>
       <c r="CD26" s="116"/>
-      <c r="CE26" s="115"/>
-      <c r="CF26" s="115"/>
+      <c r="CE26" s="114"/>
+      <c r="CF26" s="114"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C27" s="202"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="208" t="s">
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="209"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="217" t="s">
+      <c r="H27" s="207"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="218"/>
-      <c r="L27" s="218"/>
-      <c r="M27" s="218"/>
-      <c r="N27" s="218"/>
-      <c r="O27" s="219"/>
+      <c r="K27" s="216"/>
+      <c r="L27" s="216"/>
+      <c r="M27" s="216"/>
+      <c r="N27" s="216"/>
+      <c r="O27" s="217"/>
       <c r="P27" s="36"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="220" t="s">
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="Y27" s="221"/>
-      <c r="Z27" s="221"/>
-      <c r="AA27" s="222"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="112"/>
-      <c r="AD27" s="112"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="112"/>
-      <c r="AI27" s="112"/>
-      <c r="AJ27" s="112"/>
-      <c r="AK27" s="112"/>
-      <c r="AL27" s="112"/>
-      <c r="AM27" s="112"/>
-      <c r="AN27" s="112"/>
-      <c r="AO27" s="112"/>
-      <c r="AP27" s="112"/>
-      <c r="AQ27" s="112"/>
-      <c r="AR27" s="112"/>
-      <c r="AS27" s="112"/>
-      <c r="AT27" s="112"/>
-      <c r="AU27" s="112"/>
-      <c r="AV27" s="112"/>
-      <c r="AW27" s="112"/>
-      <c r="AX27" s="112"/>
-      <c r="AY27" s="112"/>
-      <c r="AZ27" s="112"/>
-      <c r="BA27" s="112"/>
-      <c r="BB27" s="112"/>
-      <c r="BC27" s="112"/>
-      <c r="BD27" s="112"/>
-      <c r="BE27" s="112"/>
-      <c r="BF27" s="112"/>
-      <c r="BG27" s="112"/>
-      <c r="BH27" s="112"/>
-      <c r="BI27" s="112"/>
-      <c r="BJ27" s="179" t="s">
+      <c r="Y27" s="219"/>
+      <c r="Z27" s="219"/>
+      <c r="AA27" s="220"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="103"/>
+      <c r="AM27" s="103"/>
+      <c r="AN27" s="103"/>
+      <c r="AO27" s="103"/>
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="103"/>
+      <c r="AR27" s="103"/>
+      <c r="AS27" s="103"/>
+      <c r="AT27" s="103"/>
+      <c r="AU27" s="103"/>
+      <c r="AV27" s="103"/>
+      <c r="AW27" s="103"/>
+      <c r="AX27" s="103"/>
+      <c r="AY27" s="103"/>
+      <c r="AZ27" s="103"/>
+      <c r="BA27" s="103"/>
+      <c r="BB27" s="103"/>
+      <c r="BC27" s="103"/>
+      <c r="BD27" s="103"/>
+      <c r="BE27" s="103"/>
+      <c r="BF27" s="103"/>
+      <c r="BG27" s="103"/>
+      <c r="BH27" s="103"/>
+      <c r="BI27" s="103"/>
+      <c r="BJ27" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="BK27" s="180"/>
-      <c r="BL27" s="181"/>
-      <c r="BM27" s="185" t="s">
-        <v>69</v>
+      <c r="BK27" s="183"/>
+      <c r="BL27" s="184"/>
+      <c r="BM27" s="188" t="s">
+        <v>71</v>
       </c>
-      <c r="BN27" s="185"/>
-      <c r="BO27" s="185"/>
-      <c r="BP27" s="185"/>
-      <c r="BQ27" s="185"/>
-      <c r="BR27" s="185"/>
-      <c r="BS27" s="185"/>
-      <c r="BT27" s="185"/>
-      <c r="BU27" s="185"/>
-      <c r="BV27" s="185"/>
-      <c r="BW27" s="185"/>
-      <c r="BX27" s="185"/>
-      <c r="BY27" s="185"/>
-      <c r="BZ27" s="185"/>
-      <c r="CA27" s="185"/>
-      <c r="CB27" s="185"/>
-      <c r="CC27" s="185"/>
-      <c r="CD27" s="185"/>
-      <c r="CE27" s="185"/>
-      <c r="CF27" s="186"/>
+      <c r="BN27" s="188"/>
+      <c r="BO27" s="188"/>
+      <c r="BP27" s="188"/>
+      <c r="BQ27" s="188"/>
+      <c r="BR27" s="188"/>
+      <c r="BS27" s="188"/>
+      <c r="BT27" s="188"/>
+      <c r="BU27" s="188"/>
+      <c r="BV27" s="188"/>
+      <c r="BW27" s="188"/>
+      <c r="BX27" s="188"/>
+      <c r="BY27" s="188"/>
+      <c r="BZ27" s="188"/>
+      <c r="CA27" s="188"/>
+      <c r="CB27" s="188"/>
+      <c r="CC27" s="188"/>
+      <c r="CD27" s="188"/>
+      <c r="CE27" s="188"/>
+      <c r="CF27" s="189"/>
     </row>
     <row r="28" spans="3:102" ht="22.5" customHeight="1">
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="214" t="s">
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
-      <c r="M28" s="215"/>
-      <c r="N28" s="215"/>
-      <c r="O28" s="216"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="213"/>
+      <c r="M28" s="213"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="214"/>
       <c r="P28" s="38"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
@@ -10187,10 +10701,10 @@
       <c r="U28" s="34"/>
       <c r="V28" s="34"/>
       <c r="W28" s="34"/>
-      <c r="X28" s="223"/>
-      <c r="Y28" s="224"/>
-      <c r="Z28" s="224"/>
-      <c r="AA28" s="225"/>
+      <c r="X28" s="221"/>
+      <c r="Y28" s="222"/>
+      <c r="Z28" s="222"/>
+      <c r="AA28" s="223"/>
       <c r="AB28" s="34"/>
       <c r="AC28" s="34"/>
       <c r="AD28" s="34"/>
@@ -10225,29 +10739,29 @@
       <c r="BG28" s="34"/>
       <c r="BH28" s="34"/>
       <c r="BI28" s="34"/>
-      <c r="BJ28" s="182"/>
-      <c r="BK28" s="183"/>
-      <c r="BL28" s="184"/>
-      <c r="BM28" s="187"/>
-      <c r="BN28" s="187"/>
-      <c r="BO28" s="187"/>
-      <c r="BP28" s="187"/>
-      <c r="BQ28" s="187"/>
-      <c r="BR28" s="187"/>
-      <c r="BS28" s="187"/>
-      <c r="BT28" s="187"/>
-      <c r="BU28" s="187"/>
-      <c r="BV28" s="187"/>
-      <c r="BW28" s="187"/>
-      <c r="BX28" s="187"/>
-      <c r="BY28" s="187"/>
-      <c r="BZ28" s="187"/>
-      <c r="CA28" s="187"/>
-      <c r="CB28" s="187"/>
-      <c r="CC28" s="187"/>
-      <c r="CD28" s="187"/>
-      <c r="CE28" s="187"/>
-      <c r="CF28" s="188"/>
+      <c r="BJ28" s="185"/>
+      <c r="BK28" s="186"/>
+      <c r="BL28" s="187"/>
+      <c r="BM28" s="190"/>
+      <c r="BN28" s="190"/>
+      <c r="BO28" s="190"/>
+      <c r="BP28" s="190"/>
+      <c r="BQ28" s="190"/>
+      <c r="BR28" s="190"/>
+      <c r="BS28" s="190"/>
+      <c r="BT28" s="190"/>
+      <c r="BU28" s="190"/>
+      <c r="BV28" s="190"/>
+      <c r="BW28" s="190"/>
+      <c r="BX28" s="190"/>
+      <c r="BY28" s="190"/>
+      <c r="BZ28" s="190"/>
+      <c r="CA28" s="190"/>
+      <c r="CB28" s="190"/>
+      <c r="CC28" s="190"/>
+      <c r="CD28" s="190"/>
+      <c r="CE28" s="190"/>
+      <c r="CF28" s="191"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="12"/>
@@ -10334,100 +10848,105 @@
       <c r="CF30" s="5"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="248" t="s">
+      <c r="C31" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="249"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="249"/>
-      <c r="I31" s="249"/>
-      <c r="J31" s="249"/>
-      <c r="K31" s="249"/>
-      <c r="L31" s="249"/>
-      <c r="M31" s="249"/>
-      <c r="N31" s="249"/>
-      <c r="O31" s="249"/>
-      <c r="P31" s="249"/>
-      <c r="Q31" s="249"/>
-      <c r="R31" s="249"/>
-      <c r="S31" s="249"/>
-      <c r="T31" s="249"/>
-      <c r="U31" s="249"/>
-      <c r="V31" s="249"/>
-      <c r="W31" s="249"/>
-      <c r="X31" s="249"/>
-      <c r="Y31" s="249"/>
-      <c r="Z31" s="249"/>
-      <c r="AA31" s="249"/>
-      <c r="AB31" s="250"/>
-      <c r="AD31" s="252" t="s">
+      <c r="D31" s="235"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
+      <c r="K31" s="235"/>
+      <c r="L31" s="235"/>
+      <c r="M31" s="235"/>
+      <c r="N31" s="235"/>
+      <c r="O31" s="235"/>
+      <c r="P31" s="235"/>
+      <c r="Q31" s="235"/>
+      <c r="R31" s="235"/>
+      <c r="S31" s="235"/>
+      <c r="T31" s="235"/>
+      <c r="U31" s="235"/>
+      <c r="V31" s="235"/>
+      <c r="W31" s="235"/>
+      <c r="X31" s="235"/>
+      <c r="Y31" s="235"/>
+      <c r="Z31" s="235"/>
+      <c r="AA31" s="235"/>
+      <c r="AB31" s="236"/>
+      <c r="AD31" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="AE31" s="253"/>
-      <c r="AF31" s="253"/>
-      <c r="AG31" s="253"/>
-      <c r="AH31" s="253"/>
-      <c r="AI31" s="253"/>
-      <c r="AJ31" s="253"/>
-      <c r="AK31" s="253"/>
-      <c r="AL31" s="253"/>
-      <c r="AM31" s="253"/>
-      <c r="AN31" s="253"/>
-      <c r="AO31" s="253"/>
-      <c r="AP31" s="253"/>
-      <c r="AQ31" s="253"/>
-      <c r="AR31" s="253"/>
-      <c r="AS31" s="253"/>
-      <c r="AT31" s="253"/>
-      <c r="AU31" s="253"/>
-      <c r="AV31" s="253"/>
-      <c r="AW31" s="253"/>
-      <c r="AX31" s="253"/>
-      <c r="AY31" s="253"/>
-      <c r="AZ31" s="253"/>
-      <c r="BA31" s="253"/>
-      <c r="BB31" s="253"/>
-      <c r="BC31" s="254"/>
-      <c r="BE31" s="246" t="s">
+      <c r="AE31" s="239"/>
+      <c r="AF31" s="239"/>
+      <c r="AG31" s="239"/>
+      <c r="AH31" s="239"/>
+      <c r="AI31" s="239"/>
+      <c r="AJ31" s="239"/>
+      <c r="AK31" s="239"/>
+      <c r="AL31" s="239"/>
+      <c r="AM31" s="239"/>
+      <c r="AN31" s="239"/>
+      <c r="AO31" s="239"/>
+      <c r="AP31" s="239"/>
+      <c r="AQ31" s="239"/>
+      <c r="AR31" s="239"/>
+      <c r="AS31" s="239"/>
+      <c r="AT31" s="239"/>
+      <c r="AU31" s="239"/>
+      <c r="AV31" s="239"/>
+      <c r="AW31" s="239"/>
+      <c r="AX31" s="239"/>
+      <c r="AY31" s="239"/>
+      <c r="AZ31" s="239"/>
+      <c r="BA31" s="239"/>
+      <c r="BB31" s="239"/>
+      <c r="BC31" s="240"/>
+      <c r="BE31" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="BF31" s="247"/>
-      <c r="BG31" s="247"/>
-      <c r="BH31" s="247"/>
-      <c r="BI31" s="247"/>
-      <c r="BJ31" s="247"/>
-      <c r="BK31" s="247"/>
-      <c r="BL31" s="247"/>
-      <c r="BM31" s="247"/>
-      <c r="BN31" s="247"/>
-      <c r="BO31" s="247"/>
-      <c r="BP31" s="247"/>
-      <c r="BQ31" s="247"/>
-      <c r="BR31" s="247"/>
-      <c r="BS31" s="247"/>
-      <c r="BT31" s="247"/>
-      <c r="BU31" s="247"/>
-      <c r="BV31" s="247"/>
-      <c r="BW31" s="247"/>
-      <c r="BX31" s="247"/>
-      <c r="BY31" s="247"/>
-      <c r="BZ31" s="247"/>
-      <c r="CA31" s="247"/>
-      <c r="CB31" s="247"/>
-      <c r="CC31" s="247"/>
-      <c r="CD31" s="247"/>
-      <c r="CE31" s="247"/>
-      <c r="CF31" s="247"/>
+      <c r="BF31" s="233"/>
+      <c r="BG31" s="233"/>
+      <c r="BH31" s="233"/>
+      <c r="BI31" s="233"/>
+      <c r="BJ31" s="233"/>
+      <c r="BK31" s="233"/>
+      <c r="BL31" s="233"/>
+      <c r="BM31" s="233"/>
+      <c r="BN31" s="233"/>
+      <c r="BO31" s="233"/>
+      <c r="BP31" s="233"/>
+      <c r="BQ31" s="233"/>
+      <c r="BR31" s="233"/>
+      <c r="BS31" s="233"/>
+      <c r="BT31" s="233"/>
+      <c r="BU31" s="233"/>
+      <c r="BV31" s="233"/>
+      <c r="BW31" s="233"/>
+      <c r="BX31" s="233"/>
+      <c r="BY31" s="233"/>
+      <c r="BZ31" s="233"/>
+      <c r="CA31" s="233"/>
+      <c r="CB31" s="233"/>
+      <c r="CC31" s="233"/>
+      <c r="CD31" s="233"/>
+      <c r="CE31" s="233"/>
+      <c r="CF31" s="233"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="11"/>
       <c r="D32" s="2"/>
-      <c r="Q32" s="251" t="s">
-        <v>10</v>
+      <c r="L32" s="251" t="s">
+        <v>70</v>
       </c>
+      <c r="M32" s="251"/>
+      <c r="N32" s="251"/>
+      <c r="O32" s="251"/>
+      <c r="P32" s="251"/>
+      <c r="Q32" s="251"/>
       <c r="R32" s="251"/>
       <c r="S32" s="251"/>
       <c r="T32" s="251"/>
@@ -10438,295 +10957,295 @@
       <c r="Y32" s="251"/>
       <c r="Z32" s="251"/>
       <c r="AA32" s="251"/>
-      <c r="AB32" s="264"/>
+      <c r="AB32" s="252"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="251" t="s">
+      <c r="AR32" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="AS32" s="251"/>
-      <c r="AT32" s="251"/>
-      <c r="AU32" s="251"/>
-      <c r="AV32" s="251"/>
-      <c r="AW32" s="251"/>
-      <c r="AX32" s="251"/>
-      <c r="AY32" s="251"/>
-      <c r="AZ32" s="251"/>
-      <c r="BA32" s="251"/>
-      <c r="BB32" s="251"/>
-      <c r="BC32" s="264"/>
-      <c r="BE32" s="243" t="s">
+      <c r="AS32" s="237"/>
+      <c r="AT32" s="237"/>
+      <c r="AU32" s="237"/>
+      <c r="AV32" s="237"/>
+      <c r="AW32" s="237"/>
+      <c r="AX32" s="237"/>
+      <c r="AY32" s="237"/>
+      <c r="AZ32" s="237"/>
+      <c r="BA32" s="237"/>
+      <c r="BB32" s="237"/>
+      <c r="BC32" s="250"/>
+      <c r="BE32" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="BF32" s="244"/>
-      <c r="BG32" s="244"/>
-      <c r="BH32" s="244"/>
-      <c r="BI32" s="244"/>
-      <c r="BJ32" s="244"/>
-      <c r="BK32" s="244"/>
-      <c r="BL32" s="244"/>
-      <c r="BM32" s="244"/>
-      <c r="BN32" s="244"/>
-      <c r="BO32" s="244"/>
-      <c r="BP32" s="244"/>
-      <c r="BQ32" s="244"/>
-      <c r="BR32" s="244"/>
-      <c r="BS32" s="244"/>
-      <c r="BT32" s="244"/>
-      <c r="BU32" s="244"/>
-      <c r="BV32" s="244"/>
-      <c r="BW32" s="244"/>
-      <c r="BX32" s="244"/>
-      <c r="BY32" s="244"/>
-      <c r="BZ32" s="244"/>
-      <c r="CA32" s="244"/>
-      <c r="CB32" s="244"/>
-      <c r="CC32" s="244"/>
-      <c r="CD32" s="244"/>
-      <c r="CE32" s="244"/>
-      <c r="CF32" s="245"/>
+      <c r="BF32" s="230"/>
+      <c r="BG32" s="230"/>
+      <c r="BH32" s="230"/>
+      <c r="BI32" s="230"/>
+      <c r="BJ32" s="230"/>
+      <c r="BK32" s="230"/>
+      <c r="BL32" s="230"/>
+      <c r="BM32" s="230"/>
+      <c r="BN32" s="230"/>
+      <c r="BO32" s="230"/>
+      <c r="BP32" s="230"/>
+      <c r="BQ32" s="230"/>
+      <c r="BR32" s="230"/>
+      <c r="BS32" s="230"/>
+      <c r="BT32" s="230"/>
+      <c r="BU32" s="230"/>
+      <c r="BV32" s="230"/>
+      <c r="BW32" s="230"/>
+      <c r="BX32" s="230"/>
+      <c r="BY32" s="230"/>
+      <c r="BZ32" s="230"/>
+      <c r="CA32" s="230"/>
+      <c r="CB32" s="230"/>
+      <c r="CC32" s="230"/>
+      <c r="CD32" s="230"/>
+      <c r="CE32" s="230"/>
+      <c r="CF32" s="231"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="255"/>
+      <c r="D33" s="241"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="257"/>
-      <c r="M33" s="257"/>
-      <c r="N33" s="257"/>
-      <c r="O33" s="257"/>
-      <c r="P33" s="257"/>
-      <c r="Q33" s="257"/>
-      <c r="R33" s="257"/>
-      <c r="S33" s="257"/>
-      <c r="T33" s="257"/>
-      <c r="U33" s="257"/>
-      <c r="V33" s="257"/>
-      <c r="W33" s="257"/>
-      <c r="X33" s="257"/>
-      <c r="Y33" s="257"/>
-      <c r="Z33" s="257"/>
-      <c r="AA33" s="257"/>
-      <c r="AB33" s="258"/>
-      <c r="AD33" s="61" t="s">
+      <c r="L33" s="243"/>
+      <c r="M33" s="243"/>
+      <c r="N33" s="243"/>
+      <c r="O33" s="243"/>
+      <c r="P33" s="243"/>
+      <c r="Q33" s="243"/>
+      <c r="R33" s="243"/>
+      <c r="S33" s="243"/>
+      <c r="T33" s="243"/>
+      <c r="U33" s="243"/>
+      <c r="V33" s="243"/>
+      <c r="W33" s="243"/>
+      <c r="X33" s="243"/>
+      <c r="Y33" s="243"/>
+      <c r="Z33" s="243"/>
+      <c r="AA33" s="243"/>
+      <c r="AB33" s="244"/>
+      <c r="AD33" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AE33" s="255"/>
+      <c r="AE33" s="241"/>
       <c r="AF33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AJ33" s="257"/>
-      <c r="AK33" s="257"/>
-      <c r="AL33" s="257"/>
-      <c r="AM33" s="257"/>
-      <c r="AN33" s="257"/>
-      <c r="AO33" s="257"/>
-      <c r="AP33" s="257"/>
-      <c r="AQ33" s="257"/>
-      <c r="AR33" s="257"/>
-      <c r="AS33" s="257"/>
-      <c r="AT33" s="257"/>
-      <c r="AU33" s="257"/>
-      <c r="AV33" s="257"/>
-      <c r="AW33" s="257"/>
-      <c r="AX33" s="257"/>
-      <c r="AY33" s="257"/>
-      <c r="AZ33" s="257"/>
-      <c r="BA33" s="257"/>
-      <c r="BB33" s="257"/>
-      <c r="BC33" s="258"/>
-      <c r="BE33" s="260" t="s">
+      <c r="AJ33" s="243"/>
+      <c r="AK33" s="243"/>
+      <c r="AL33" s="243"/>
+      <c r="AM33" s="243"/>
+      <c r="AN33" s="243"/>
+      <c r="AO33" s="243"/>
+      <c r="AP33" s="243"/>
+      <c r="AQ33" s="243"/>
+      <c r="AR33" s="243"/>
+      <c r="AS33" s="243"/>
+      <c r="AT33" s="243"/>
+      <c r="AU33" s="243"/>
+      <c r="AV33" s="243"/>
+      <c r="AW33" s="243"/>
+      <c r="AX33" s="243"/>
+      <c r="AY33" s="243"/>
+      <c r="AZ33" s="243"/>
+      <c r="BA33" s="243"/>
+      <c r="BB33" s="243"/>
+      <c r="BC33" s="244"/>
+      <c r="BE33" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="BF33" s="261"/>
-      <c r="BG33" s="242" t="s">
+      <c r="BF33" s="247"/>
+      <c r="BG33" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="BH33" s="242"/>
-      <c r="BI33" s="242"/>
-      <c r="BJ33" s="242"/>
-      <c r="BK33" s="242"/>
-      <c r="BL33" s="242"/>
-      <c r="BM33" s="242"/>
-      <c r="BN33" s="242"/>
-      <c r="BO33" s="242"/>
-      <c r="BP33" s="242"/>
-      <c r="BQ33" s="242"/>
-      <c r="BT33" s="251" t="s">
+      <c r="BH33" s="228"/>
+      <c r="BI33" s="228"/>
+      <c r="BJ33" s="228"/>
+      <c r="BK33" s="228"/>
+      <c r="BL33" s="228"/>
+      <c r="BM33" s="228"/>
+      <c r="BN33" s="228"/>
+      <c r="BO33" s="228"/>
+      <c r="BP33" s="228"/>
+      <c r="BQ33" s="228"/>
+      <c r="BT33" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="BU33" s="251"/>
-      <c r="BV33" s="251"/>
-      <c r="BW33" s="251"/>
-      <c r="BX33" s="251"/>
-      <c r="BY33" s="251"/>
-      <c r="BZ33" s="251"/>
-      <c r="CA33" s="251"/>
-      <c r="CB33" s="251"/>
-      <c r="CC33" s="251"/>
-      <c r="CD33" s="251"/>
-      <c r="CE33" s="251"/>
+      <c r="BU33" s="237"/>
+      <c r="BV33" s="237"/>
+      <c r="BW33" s="237"/>
+      <c r="BX33" s="237"/>
+      <c r="BY33" s="237"/>
+      <c r="BZ33" s="237"/>
+      <c r="CA33" s="237"/>
+      <c r="CB33" s="237"/>
+      <c r="CC33" s="237"/>
+      <c r="CD33" s="237"/>
+      <c r="CE33" s="237"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="61"/>
-      <c r="D34" s="255"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="241"/>
       <c r="E34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="257"/>
-      <c r="M34" s="257"/>
-      <c r="N34" s="257"/>
-      <c r="O34" s="257"/>
-      <c r="P34" s="257"/>
-      <c r="Q34" s="257"/>
-      <c r="R34" s="257"/>
-      <c r="S34" s="257"/>
-      <c r="T34" s="257"/>
-      <c r="U34" s="257"/>
-      <c r="V34" s="257"/>
-      <c r="W34" s="257"/>
-      <c r="X34" s="257"/>
-      <c r="Y34" s="257"/>
-      <c r="Z34" s="257"/>
-      <c r="AA34" s="257"/>
-      <c r="AB34" s="258"/>
-      <c r="AD34" s="61"/>
-      <c r="AE34" s="255"/>
+      <c r="L34" s="243"/>
+      <c r="M34" s="243"/>
+      <c r="N34" s="243"/>
+      <c r="O34" s="243"/>
+      <c r="P34" s="243"/>
+      <c r="Q34" s="243"/>
+      <c r="R34" s="243"/>
+      <c r="S34" s="243"/>
+      <c r="T34" s="243"/>
+      <c r="U34" s="243"/>
+      <c r="V34" s="243"/>
+      <c r="W34" s="243"/>
+      <c r="X34" s="243"/>
+      <c r="Y34" s="243"/>
+      <c r="Z34" s="243"/>
+      <c r="AA34" s="243"/>
+      <c r="AB34" s="244"/>
+      <c r="AD34" s="140"/>
+      <c r="AE34" s="241"/>
       <c r="AF34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AJ34" s="257"/>
-      <c r="AK34" s="257"/>
-      <c r="AL34" s="257"/>
-      <c r="AM34" s="257"/>
-      <c r="AN34" s="257"/>
-      <c r="AO34" s="257"/>
-      <c r="AP34" s="257"/>
-      <c r="AQ34" s="257"/>
-      <c r="AR34" s="257"/>
-      <c r="AS34" s="257"/>
-      <c r="AT34" s="257"/>
-      <c r="AU34" s="257"/>
-      <c r="AV34" s="257"/>
-      <c r="AW34" s="257"/>
-      <c r="AX34" s="257"/>
-      <c r="AY34" s="257"/>
-      <c r="AZ34" s="257"/>
-      <c r="BA34" s="257"/>
-      <c r="BB34" s="257"/>
-      <c r="BC34" s="258"/>
-      <c r="BE34" s="260"/>
-      <c r="BF34" s="261"/>
+      <c r="AJ34" s="243"/>
+      <c r="AK34" s="243"/>
+      <c r="AL34" s="243"/>
+      <c r="AM34" s="243"/>
+      <c r="AN34" s="243"/>
+      <c r="AO34" s="243"/>
+      <c r="AP34" s="243"/>
+      <c r="AQ34" s="243"/>
+      <c r="AR34" s="243"/>
+      <c r="AS34" s="243"/>
+      <c r="AT34" s="243"/>
+      <c r="AU34" s="243"/>
+      <c r="AV34" s="243"/>
+      <c r="AW34" s="243"/>
+      <c r="AX34" s="243"/>
+      <c r="AY34" s="243"/>
+      <c r="AZ34" s="243"/>
+      <c r="BA34" s="243"/>
+      <c r="BB34" s="243"/>
+      <c r="BC34" s="244"/>
+      <c r="BE34" s="246"/>
+      <c r="BF34" s="247"/>
       <c r="BG34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BL34" s="156"/>
-      <c r="BM34" s="156"/>
-      <c r="BN34" s="156"/>
-      <c r="BO34" s="156"/>
-      <c r="BP34" s="156"/>
-      <c r="BQ34" s="156"/>
-      <c r="BR34" s="156"/>
-      <c r="BS34" s="156"/>
-      <c r="BT34" s="156"/>
-      <c r="BU34" s="156"/>
-      <c r="BV34" s="156"/>
-      <c r="BW34" s="156"/>
-      <c r="BX34" s="156"/>
-      <c r="BY34" s="156"/>
-      <c r="BZ34" s="156"/>
-      <c r="CA34" s="156"/>
-      <c r="CB34" s="156"/>
-      <c r="CC34" s="156"/>
-      <c r="CD34" s="156"/>
+      <c r="BL34" s="159"/>
+      <c r="BM34" s="159"/>
+      <c r="BN34" s="159"/>
+      <c r="BO34" s="159"/>
+      <c r="BP34" s="159"/>
+      <c r="BQ34" s="159"/>
+      <c r="BR34" s="159"/>
+      <c r="BS34" s="159"/>
+      <c r="BT34" s="159"/>
+      <c r="BU34" s="159"/>
+      <c r="BV34" s="159"/>
+      <c r="BW34" s="159"/>
+      <c r="BX34" s="159"/>
+      <c r="BY34" s="159"/>
+      <c r="BZ34" s="159"/>
+      <c r="CA34" s="159"/>
+      <c r="CB34" s="159"/>
+      <c r="CC34" s="159"/>
+      <c r="CD34" s="159"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="61"/>
-      <c r="D35" s="255"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="241"/>
       <c r="E35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="257"/>
-      <c r="M35" s="257"/>
-      <c r="N35" s="257"/>
-      <c r="O35" s="257"/>
-      <c r="P35" s="257"/>
-      <c r="Q35" s="257"/>
-      <c r="R35" s="257"/>
-      <c r="S35" s="257"/>
-      <c r="T35" s="257"/>
-      <c r="U35" s="257"/>
-      <c r="V35" s="257"/>
-      <c r="W35" s="257"/>
-      <c r="X35" s="257"/>
-      <c r="Y35" s="257"/>
-      <c r="Z35" s="257"/>
+      <c r="L35" s="243"/>
+      <c r="M35" s="243"/>
+      <c r="N35" s="243"/>
+      <c r="O35" s="243"/>
+      <c r="P35" s="243"/>
+      <c r="Q35" s="243"/>
+      <c r="R35" s="243"/>
+      <c r="S35" s="243"/>
+      <c r="T35" s="243"/>
+      <c r="U35" s="243"/>
+      <c r="V35" s="243"/>
+      <c r="W35" s="243"/>
+      <c r="X35" s="243"/>
+      <c r="Y35" s="243"/>
+      <c r="Z35" s="243"/>
       <c r="AA35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="AB35" s="9"/>
-      <c r="AD35" s="61"/>
-      <c r="AE35" s="255"/>
+      <c r="AD35" s="140"/>
+      <c r="AE35" s="241"/>
       <c r="AF35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AJ35" s="257"/>
-      <c r="AK35" s="257"/>
-      <c r="AL35" s="257"/>
-      <c r="AM35" s="257"/>
-      <c r="AN35" s="257"/>
-      <c r="AO35" s="257"/>
-      <c r="AP35" s="257"/>
-      <c r="AQ35" s="257"/>
-      <c r="AR35" s="257"/>
-      <c r="AS35" s="257"/>
-      <c r="AT35" s="257"/>
-      <c r="AU35" s="257"/>
-      <c r="AV35" s="257"/>
-      <c r="AW35" s="257"/>
-      <c r="AX35" s="257"/>
-      <c r="AY35" s="257"/>
-      <c r="AZ35" s="257"/>
-      <c r="BA35" s="257"/>
+      <c r="AJ35" s="243"/>
+      <c r="AK35" s="243"/>
+      <c r="AL35" s="243"/>
+      <c r="AM35" s="243"/>
+      <c r="AN35" s="243"/>
+      <c r="AO35" s="243"/>
+      <c r="AP35" s="243"/>
+      <c r="AQ35" s="243"/>
+      <c r="AR35" s="243"/>
+      <c r="AS35" s="243"/>
+      <c r="AT35" s="243"/>
+      <c r="AU35" s="243"/>
+      <c r="AV35" s="243"/>
+      <c r="AW35" s="243"/>
+      <c r="AX35" s="243"/>
+      <c r="AY35" s="243"/>
+      <c r="AZ35" s="243"/>
+      <c r="BA35" s="243"/>
       <c r="BB35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="BC35" s="9"/>
-      <c r="BE35" s="260"/>
-      <c r="BF35" s="261"/>
+      <c r="BE35" s="246"/>
+      <c r="BF35" s="247"/>
       <c r="BG35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BL35" s="156"/>
-      <c r="BM35" s="156"/>
-      <c r="BN35" s="156"/>
-      <c r="BO35" s="156"/>
-      <c r="BP35" s="156"/>
-      <c r="BQ35" s="156"/>
-      <c r="BR35" s="156"/>
-      <c r="BS35" s="156"/>
-      <c r="BT35" s="156"/>
-      <c r="BU35" s="156"/>
-      <c r="BV35" s="156"/>
-      <c r="BW35" s="156"/>
-      <c r="BX35" s="156"/>
-      <c r="BY35" s="156"/>
-      <c r="BZ35" s="156"/>
-      <c r="CA35" s="156"/>
-      <c r="CB35" s="156"/>
+      <c r="BL35" s="159"/>
+      <c r="BM35" s="159"/>
+      <c r="BN35" s="159"/>
+      <c r="BO35" s="159"/>
+      <c r="BP35" s="159"/>
+      <c r="BQ35" s="159"/>
+      <c r="BR35" s="159"/>
+      <c r="BS35" s="159"/>
+      <c r="BT35" s="159"/>
+      <c r="BU35" s="159"/>
+      <c r="BV35" s="159"/>
+      <c r="BW35" s="159"/>
+      <c r="BX35" s="159"/>
+      <c r="BY35" s="159"/>
+      <c r="BZ35" s="159"/>
+      <c r="CA35" s="159"/>
+      <c r="CB35" s="159"/>
       <c r="CC35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="63"/>
-      <c r="D36" s="256"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="242"/>
       <c r="E36" s="7" t="s">
         <v>2</v>
       </c>
@@ -10736,53 +11255,53 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="156"/>
-      <c r="P36" s="156"/>
-      <c r="Q36" s="156"/>
-      <c r="R36" s="156"/>
-      <c r="S36" s="156"/>
-      <c r="T36" s="156"/>
-      <c r="U36" s="156"/>
-      <c r="V36" s="156"/>
-      <c r="W36" s="156"/>
-      <c r="X36" s="156"/>
-      <c r="Y36" s="156"/>
-      <c r="Z36" s="156"/>
-      <c r="AA36" s="156"/>
-      <c r="AB36" s="259"/>
-      <c r="AD36" s="63"/>
-      <c r="AE36" s="256"/>
+      <c r="L36" s="159"/>
+      <c r="M36" s="159"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="159"/>
+      <c r="Q36" s="159"/>
+      <c r="R36" s="159"/>
+      <c r="S36" s="159"/>
+      <c r="T36" s="159"/>
+      <c r="U36" s="159"/>
+      <c r="V36" s="159"/>
+      <c r="W36" s="159"/>
+      <c r="X36" s="159"/>
+      <c r="Y36" s="159"/>
+      <c r="Z36" s="159"/>
+      <c r="AA36" s="159"/>
+      <c r="AB36" s="245"/>
+      <c r="AD36" s="142"/>
+      <c r="AE36" s="242"/>
       <c r="AF36" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="156"/>
-      <c r="AK36" s="156"/>
-      <c r="AL36" s="156"/>
-      <c r="AM36" s="156"/>
-      <c r="AN36" s="156"/>
-      <c r="AO36" s="156"/>
-      <c r="AP36" s="156"/>
-      <c r="AQ36" s="156"/>
-      <c r="AR36" s="156"/>
-      <c r="AS36" s="156"/>
-      <c r="AT36" s="156"/>
-      <c r="AU36" s="156"/>
-      <c r="AV36" s="156"/>
-      <c r="AW36" s="156"/>
-      <c r="AX36" s="156"/>
-      <c r="AY36" s="156"/>
-      <c r="AZ36" s="156"/>
-      <c r="BA36" s="156"/>
-      <c r="BB36" s="156"/>
-      <c r="BC36" s="259"/>
-      <c r="BE36" s="262"/>
-      <c r="BF36" s="263"/>
+      <c r="AJ36" s="159"/>
+      <c r="AK36" s="159"/>
+      <c r="AL36" s="159"/>
+      <c r="AM36" s="159"/>
+      <c r="AN36" s="159"/>
+      <c r="AO36" s="159"/>
+      <c r="AP36" s="159"/>
+      <c r="AQ36" s="159"/>
+      <c r="AR36" s="159"/>
+      <c r="AS36" s="159"/>
+      <c r="AT36" s="159"/>
+      <c r="AU36" s="159"/>
+      <c r="AV36" s="159"/>
+      <c r="AW36" s="159"/>
+      <c r="AX36" s="159"/>
+      <c r="AY36" s="159"/>
+      <c r="AZ36" s="159"/>
+      <c r="BA36" s="159"/>
+      <c r="BB36" s="159"/>
+      <c r="BC36" s="245"/>
+      <c r="BE36" s="248"/>
+      <c r="BF36" s="249"/>
       <c r="BG36" s="6" t="s">
         <v>0</v>
       </c>
@@ -10790,27 +11309,27 @@
       <c r="BI36" s="5"/>
       <c r="BJ36" s="5"/>
       <c r="BK36" s="5"/>
-      <c r="BL36" s="240" t="s">
-        <v>70</v>
+      <c r="BL36" s="226" t="s">
+        <v>69</v>
       </c>
-      <c r="BM36" s="241"/>
-      <c r="BN36" s="241"/>
-      <c r="BO36" s="241"/>
-      <c r="BP36" s="241"/>
-      <c r="BQ36" s="241"/>
-      <c r="BR36" s="241"/>
-      <c r="BS36" s="241"/>
-      <c r="BT36" s="241"/>
-      <c r="BU36" s="241"/>
-      <c r="BV36" s="241"/>
-      <c r="BW36" s="241"/>
-      <c r="BX36" s="241"/>
-      <c r="BY36" s="241"/>
-      <c r="BZ36" s="241"/>
-      <c r="CA36" s="241"/>
-      <c r="CB36" s="241"/>
-      <c r="CC36" s="241"/>
-      <c r="CD36" s="241"/>
+      <c r="BM36" s="227"/>
+      <c r="BN36" s="227"/>
+      <c r="BO36" s="227"/>
+      <c r="BP36" s="227"/>
+      <c r="BQ36" s="227"/>
+      <c r="BR36" s="227"/>
+      <c r="BS36" s="227"/>
+      <c r="BT36" s="227"/>
+      <c r="BU36" s="227"/>
+      <c r="BV36" s="227"/>
+      <c r="BW36" s="227"/>
+      <c r="BX36" s="227"/>
+      <c r="BY36" s="227"/>
+      <c r="BZ36" s="227"/>
+      <c r="CA36" s="227"/>
+      <c r="CB36" s="227"/>
+      <c r="CC36" s="227"/>
+      <c r="CD36" s="227"/>
       <c r="CE36" s="5"/>
       <c r="CF36" s="5"/>
       <c r="CG36" s="4"/>
@@ -11039,11 +11558,6 @@
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="Z9:AA11"/>
     <mergeCell ref="CV21:CX23"/>
     <mergeCell ref="G20:AD20"/>
     <mergeCell ref="AE20:AT20"/>
@@ -11057,24 +11571,23 @@
     <mergeCell ref="G21:H22"/>
     <mergeCell ref="I21:J22"/>
     <mergeCell ref="K21:L22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="J9:O11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="Z9:AA11"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="BD7:BK7"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="AW21:AY22"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="X6:AU6"/>
     <mergeCell ref="BL35:CB35"/>
     <mergeCell ref="BL36:CD36"/>
     <mergeCell ref="BG33:BQ33"/>
@@ -11096,10 +11609,7 @@
     <mergeCell ref="L34:AB34"/>
     <mergeCell ref="L35:Z35"/>
     <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="Q32:AB32"/>
-    <mergeCell ref="P12:W13"/>
-    <mergeCell ref="X12:AA13"/>
-    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="L32:AB32"/>
     <mergeCell ref="G27:I28"/>
     <mergeCell ref="J28:O28"/>
     <mergeCell ref="J27:O27"/>
@@ -11110,13 +11620,9 @@
     <mergeCell ref="T24:U26"/>
     <mergeCell ref="R24:S26"/>
     <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="J9:O11"/>
-    <mergeCell ref="W21:X22"/>
     <mergeCell ref="J24:K26"/>
-    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
     <mergeCell ref="AB27:BI28"/>
     <mergeCell ref="AH24:AK24"/>
     <mergeCell ref="AD25:AE26"/>
@@ -11141,8 +11647,6 @@
     <mergeCell ref="AB25:AC26"/>
     <mergeCell ref="Z25:AA26"/>
     <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:R2"/>
     <mergeCell ref="S2:T4"/>
@@ -11152,7 +11656,6 @@
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="I3:R3"/>
     <mergeCell ref="I4:R4"/>
-    <mergeCell ref="X6:AU6"/>
     <mergeCell ref="AV6:BK6"/>
     <mergeCell ref="X7:Y8"/>
     <mergeCell ref="AT7:AU8"/>
@@ -11163,6 +11666,8 @@
     <mergeCell ref="AP7:AQ8"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="BD7:BK7"/>
+    <mergeCell ref="Q7:R8"/>
     <mergeCell ref="C6:D28"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="CE23:CF26"/>
@@ -11187,16 +11692,6 @@
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="V9:W11"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AS10:CD11"/>
-    <mergeCell ref="AB12:CD13"/>
-    <mergeCell ref="BS16:CD21"/>
-    <mergeCell ref="AN25:AQ26"/>
-    <mergeCell ref="AH25:AM26"/>
-    <mergeCell ref="AR25:BP26"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="E6:F15"/>
     <mergeCell ref="AB7:AC8"/>
     <mergeCell ref="J12:O13"/>
     <mergeCell ref="BV7:BW8"/>
@@ -11207,6 +11702,20 @@
     <mergeCell ref="AL7:AM8"/>
     <mergeCell ref="V24:W26"/>
     <mergeCell ref="M21:N22"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="AW21:AY22"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="P12:W13"/>
+    <mergeCell ref="X12:AA13"/>
+    <mergeCell ref="R9:S11"/>
     <mergeCell ref="BP2:BT2"/>
     <mergeCell ref="AD7:AE8"/>
     <mergeCell ref="AF7:AG8"/>
@@ -11221,6 +11730,16 @@
     <mergeCell ref="BU3:BY4"/>
     <mergeCell ref="BP3:BT4"/>
     <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AS10:CD11"/>
+    <mergeCell ref="AB12:CD13"/>
+    <mergeCell ref="BS16:CD21"/>
+    <mergeCell ref="AN25:AQ26"/>
+    <mergeCell ref="AH25:AM26"/>
+    <mergeCell ref="AR25:BP26"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="E6:F15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11233,7 +11752,7 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId4" name="Check Box 1">
+            <control shapeId="1025" r:id="rId4" name="111">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11255,7 +11774,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId5" name="Check Box 2">
+            <control shapeId="1026" r:id="rId5" name="112">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11277,7 +11796,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId6" name="Check Box 3">
+            <control shapeId="1027" r:id="rId6" name="113">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11299,7 +11818,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId7" name="Check Box 4">
+            <control shapeId="1028" r:id="rId7" name="114">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11343,7 +11862,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId9" name="Check Box 6">
+            <control shapeId="1030" r:id="rId9" name="221">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11365,7 +11884,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId10" name="Check Box 7">
+            <control shapeId="1031" r:id="rId10" name="223">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11387,7 +11906,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId11" name="Check Box 8">
+            <control shapeId="1032" r:id="rId11" name="222">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11409,7 +11928,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId12" name="Check Box 9">
+            <control shapeId="1033" r:id="rId12" name="224">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NSS\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C062DEC-97CD-469A-8E1E-59F5F372B9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA88DEA-22DE-4D6A-A891-96F761ABC4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6254C165-ABD6-4E53-9ECE-5A2DBD780014}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <definedName name="A3_5">'被保険者住所変更届（二枚目）'!$L$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'被保険者住所変更届（二枚目）'!$A$1:$CI$37</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2050,6 +2050,744 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2059,78 +2797,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2143,30 +2815,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2176,39 +2830,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2219,9 +2852,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2244,636 +2874,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8639,8 +8639,8 @@
   </sheetPr>
   <dimension ref="C1:CX76"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AS10" sqref="AS10:CD11"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AJ35" sqref="AJ35:BA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -8661,980 +8661,980 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="BK2" s="59" t="s">
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="BK2" s="283" t="s">
         <v>64</v>
       </c>
-      <c r="BL2" s="39"/>
-      <c r="BM2" s="39"/>
-      <c r="BN2" s="39"/>
-      <c r="BO2" s="39"/>
-      <c r="BP2" s="29" t="s">
+      <c r="BL2" s="278"/>
+      <c r="BM2" s="278"/>
+      <c r="BN2" s="278"/>
+      <c r="BO2" s="278"/>
+      <c r="BP2" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="31"/>
-      <c r="BU2" s="39" t="s">
+      <c r="BQ2" s="276"/>
+      <c r="BR2" s="276"/>
+      <c r="BS2" s="276"/>
+      <c r="BT2" s="277"/>
+      <c r="BU2" s="278" t="s">
         <v>62</v>
       </c>
-      <c r="BV2" s="39"/>
-      <c r="BW2" s="39"/>
-      <c r="BX2" s="39"/>
-      <c r="BY2" s="39"/>
-      <c r="BZ2" s="56" t="s">
+      <c r="BV2" s="278"/>
+      <c r="BW2" s="278"/>
+      <c r="BX2" s="278"/>
+      <c r="BY2" s="278"/>
+      <c r="BZ2" s="280" t="s">
         <v>61</v>
       </c>
-      <c r="CA2" s="57"/>
-      <c r="CB2" s="57"/>
-      <c r="CC2" s="57"/>
-      <c r="CD2" s="58"/>
+      <c r="CA2" s="281"/>
+      <c r="CB2" s="281"/>
+      <c r="CC2" s="281"/>
+      <c r="CD2" s="282"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="Y3" s="152" t="s">
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="Y3" s="211" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="152"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="152"/>
-      <c r="AJ3" s="152"/>
-      <c r="AK3" s="152"/>
-      <c r="AL3" s="152"/>
-      <c r="AM3" s="152"/>
-      <c r="AN3" s="152"/>
-      <c r="AO3" s="152"/>
-      <c r="AP3" s="152"/>
-      <c r="AQ3" s="152"/>
-      <c r="AR3" s="152"/>
-      <c r="AS3" s="152"/>
-      <c r="AT3" s="152"/>
-      <c r="AU3" s="152"/>
-      <c r="AV3" s="152"/>
-      <c r="AW3" s="152"/>
-      <c r="AX3" s="152"/>
-      <c r="AY3" s="152"/>
-      <c r="AZ3" s="152"/>
-      <c r="BA3" s="152"/>
-      <c r="BB3" s="152"/>
-      <c r="BC3" s="152"/>
-      <c r="BD3" s="152"/>
-      <c r="BE3" s="152"/>
-      <c r="BF3" s="152"/>
-      <c r="BG3" s="152"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="211"/>
+      <c r="AC3" s="211"/>
+      <c r="AD3" s="211"/>
+      <c r="AE3" s="211"/>
+      <c r="AF3" s="211"/>
+      <c r="AG3" s="211"/>
+      <c r="AH3" s="211"/>
+      <c r="AI3" s="211"/>
+      <c r="AJ3" s="211"/>
+      <c r="AK3" s="211"/>
+      <c r="AL3" s="211"/>
+      <c r="AM3" s="211"/>
+      <c r="AN3" s="211"/>
+      <c r="AO3" s="211"/>
+      <c r="AP3" s="211"/>
+      <c r="AQ3" s="211"/>
+      <c r="AR3" s="211"/>
+      <c r="AS3" s="211"/>
+      <c r="AT3" s="211"/>
+      <c r="AU3" s="211"/>
+      <c r="AV3" s="211"/>
+      <c r="AW3" s="211"/>
+      <c r="AX3" s="211"/>
+      <c r="AY3" s="211"/>
+      <c r="AZ3" s="211"/>
+      <c r="BA3" s="211"/>
+      <c r="BB3" s="211"/>
+      <c r="BC3" s="211"/>
+      <c r="BD3" s="211"/>
+      <c r="BE3" s="211"/>
+      <c r="BF3" s="211"/>
+      <c r="BG3" s="211"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
-      <c r="BK3" s="40"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="40"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="40"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="41"/>
-      <c r="CB3" s="41"/>
-      <c r="CC3" s="41"/>
-      <c r="CD3" s="42"/>
+      <c r="BK3" s="143"/>
+      <c r="BL3" s="144"/>
+      <c r="BM3" s="144"/>
+      <c r="BN3" s="144"/>
+      <c r="BO3" s="145"/>
+      <c r="BP3" s="143"/>
+      <c r="BQ3" s="144"/>
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="144"/>
+      <c r="BT3" s="145"/>
+      <c r="BU3" s="143"/>
+      <c r="BV3" s="144"/>
+      <c r="BW3" s="144"/>
+      <c r="BX3" s="144"/>
+      <c r="BY3" s="145"/>
+      <c r="BZ3" s="143"/>
+      <c r="CA3" s="144"/>
+      <c r="CB3" s="144"/>
+      <c r="CC3" s="144"/>
+      <c r="CD3" s="145"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="Y4" s="152"/>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="152"/>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="152"/>
-      <c r="AG4" s="152"/>
-      <c r="AH4" s="152"/>
-      <c r="AI4" s="152"/>
-      <c r="AJ4" s="152"/>
-      <c r="AK4" s="152"/>
-      <c r="AL4" s="152"/>
-      <c r="AM4" s="152"/>
-      <c r="AN4" s="152"/>
-      <c r="AO4" s="152"/>
-      <c r="AP4" s="152"/>
-      <c r="AQ4" s="152"/>
-      <c r="AR4" s="152"/>
-      <c r="AS4" s="152"/>
-      <c r="AT4" s="152"/>
-      <c r="AU4" s="152"/>
-      <c r="AV4" s="152"/>
-      <c r="AW4" s="152"/>
-      <c r="AX4" s="152"/>
-      <c r="AY4" s="152"/>
-      <c r="AZ4" s="152"/>
-      <c r="BA4" s="152"/>
-      <c r="BB4" s="152"/>
-      <c r="BC4" s="152"/>
-      <c r="BD4" s="152"/>
-      <c r="BE4" s="152"/>
-      <c r="BF4" s="152"/>
-      <c r="BG4" s="152"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="Y4" s="211"/>
+      <c r="Z4" s="211"/>
+      <c r="AA4" s="211"/>
+      <c r="AB4" s="211"/>
+      <c r="AC4" s="211"/>
+      <c r="AD4" s="211"/>
+      <c r="AE4" s="211"/>
+      <c r="AF4" s="211"/>
+      <c r="AG4" s="211"/>
+      <c r="AH4" s="211"/>
+      <c r="AI4" s="211"/>
+      <c r="AJ4" s="211"/>
+      <c r="AK4" s="211"/>
+      <c r="AL4" s="211"/>
+      <c r="AM4" s="211"/>
+      <c r="AN4" s="211"/>
+      <c r="AO4" s="211"/>
+      <c r="AP4" s="211"/>
+      <c r="AQ4" s="211"/>
+      <c r="AR4" s="211"/>
+      <c r="AS4" s="211"/>
+      <c r="AT4" s="211"/>
+      <c r="AU4" s="211"/>
+      <c r="AV4" s="211"/>
+      <c r="AW4" s="211"/>
+      <c r="AX4" s="211"/>
+      <c r="AY4" s="211"/>
+      <c r="AZ4" s="211"/>
+      <c r="BA4" s="211"/>
+      <c r="BB4" s="211"/>
+      <c r="BC4" s="211"/>
+      <c r="BD4" s="211"/>
+      <c r="BE4" s="211"/>
+      <c r="BF4" s="211"/>
+      <c r="BG4" s="211"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="43"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="45"/>
-      <c r="BP4" s="43"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="45"/>
-      <c r="BU4" s="43"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="45"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="45"/>
+      <c r="BK4" s="218"/>
+      <c r="BL4" s="171"/>
+      <c r="BM4" s="171"/>
+      <c r="BN4" s="171"/>
+      <c r="BO4" s="219"/>
+      <c r="BP4" s="218"/>
+      <c r="BQ4" s="171"/>
+      <c r="BR4" s="171"/>
+      <c r="BS4" s="171"/>
+      <c r="BT4" s="219"/>
+      <c r="BU4" s="218"/>
+      <c r="BV4" s="171"/>
+      <c r="BW4" s="171"/>
+      <c r="BX4" s="171"/>
+      <c r="BY4" s="219"/>
+      <c r="BZ4" s="218"/>
+      <c r="CA4" s="171"/>
+      <c r="CB4" s="171"/>
+      <c r="CC4" s="171"/>
+      <c r="CD4" s="219"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="60" t="s">
+      <c r="D6" s="222"/>
+      <c r="E6" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="287" t="s">
+      <c r="F6" s="151"/>
+      <c r="G6" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
-      <c r="M6" s="287"/>
-      <c r="N6" s="287"/>
-      <c r="O6" s="287"/>
-      <c r="P6" s="287"/>
-      <c r="Q6" s="287"/>
-      <c r="R6" s="287"/>
-      <c r="S6" s="285" t="s">
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="286"/>
-      <c r="U6" s="286"/>
-      <c r="V6" s="286"/>
-      <c r="W6" s="286"/>
-      <c r="X6" s="288" t="s">
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144"/>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="144"/>
-      <c r="AD6" s="144"/>
-      <c r="AE6" s="144"/>
-      <c r="AF6" s="144"/>
-      <c r="AG6" s="144"/>
-      <c r="AH6" s="144"/>
-      <c r="AI6" s="144"/>
-      <c r="AJ6" s="144"/>
-      <c r="AK6" s="144"/>
-      <c r="AL6" s="144"/>
-      <c r="AM6" s="144"/>
-      <c r="AN6" s="144"/>
-      <c r="AO6" s="144"/>
-      <c r="AP6" s="144"/>
-      <c r="AQ6" s="144"/>
-      <c r="AR6" s="144"/>
-      <c r="AS6" s="144"/>
-      <c r="AT6" s="144"/>
-      <c r="AU6" s="145"/>
-      <c r="AV6" s="144" t="s">
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AW6" s="144"/>
-      <c r="AX6" s="144"/>
-      <c r="AY6" s="144"/>
-      <c r="AZ6" s="144"/>
-      <c r="BA6" s="144"/>
-      <c r="BB6" s="144"/>
-      <c r="BC6" s="144"/>
-      <c r="BD6" s="144"/>
-      <c r="BE6" s="144"/>
-      <c r="BF6" s="144"/>
-      <c r="BG6" s="144"/>
-      <c r="BH6" s="144"/>
-      <c r="BI6" s="144"/>
-      <c r="BJ6" s="144"/>
-      <c r="BK6" s="145"/>
-      <c r="BL6" s="40" t="s">
+      <c r="AW6" s="31"/>
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="31"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="31"/>
+      <c r="BC6" s="31"/>
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="BM6" s="41"/>
-      <c r="BN6" s="41"/>
-      <c r="BO6" s="41"/>
-      <c r="BP6" s="41"/>
-      <c r="BQ6" s="41"/>
-      <c r="BR6" s="41"/>
-      <c r="BS6" s="41"/>
-      <c r="BT6" s="41"/>
-      <c r="BU6" s="41"/>
-      <c r="BV6" s="41"/>
-      <c r="BW6" s="41"/>
-      <c r="BX6" s="41"/>
-      <c r="BY6" s="41"/>
-      <c r="BZ6" s="41"/>
-      <c r="CA6" s="42"/>
+      <c r="BM6" s="144"/>
+      <c r="BN6" s="144"/>
+      <c r="BO6" s="144"/>
+      <c r="BP6" s="144"/>
+      <c r="BQ6" s="144"/>
+      <c r="BR6" s="144"/>
+      <c r="BS6" s="144"/>
+      <c r="BT6" s="144"/>
+      <c r="BU6" s="144"/>
+      <c r="BV6" s="144"/>
+      <c r="BW6" s="144"/>
+      <c r="BX6" s="144"/>
+      <c r="BY6" s="144"/>
+      <c r="BZ6" s="144"/>
+      <c r="CA6" s="145"/>
       <c r="CB6"/>
       <c r="CC6"/>
       <c r="CD6" s="27"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="146" t="s">
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="213"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="213"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="213"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="AW7" s="147"/>
-      <c r="AX7" s="148"/>
-      <c r="AY7" s="148"/>
-      <c r="AZ7" s="148"/>
-      <c r="BA7" s="148"/>
-      <c r="BB7" s="148"/>
-      <c r="BC7" s="149"/>
-      <c r="BD7" s="253"/>
-      <c r="BE7" s="254"/>
-      <c r="BF7" s="254"/>
-      <c r="BG7" s="254"/>
-      <c r="BH7" s="254"/>
-      <c r="BI7" s="254"/>
-      <c r="BJ7" s="254"/>
-      <c r="BK7" s="255"/>
-      <c r="BL7" s="127" t="s">
+      <c r="AW7" s="215"/>
+      <c r="AX7" s="216"/>
+      <c r="AY7" s="216"/>
+      <c r="AZ7" s="216"/>
+      <c r="BA7" s="216"/>
+      <c r="BB7" s="216"/>
+      <c r="BC7" s="217"/>
+      <c r="BD7" s="220"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="33"/>
+      <c r="BK7" s="221"/>
+      <c r="BL7" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="BM7" s="128"/>
-      <c r="BN7" s="128"/>
-      <c r="BO7" s="129"/>
-      <c r="BP7" s="104"/>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="103"/>
-      <c r="BS7" s="37"/>
-      <c r="BT7" s="104"/>
-      <c r="BU7" s="37"/>
-      <c r="BV7" s="103"/>
-      <c r="BW7" s="37"/>
-      <c r="BX7" s="104"/>
-      <c r="BY7" s="103"/>
-      <c r="BZ7" s="46"/>
-      <c r="CA7" s="47"/>
+      <c r="BM7" s="186"/>
+      <c r="BN7" s="186"/>
+      <c r="BO7" s="187"/>
+      <c r="BP7" s="251"/>
+      <c r="BQ7" s="40"/>
+      <c r="BR7" s="90"/>
+      <c r="BS7" s="40"/>
+      <c r="BT7" s="251"/>
+      <c r="BU7" s="40"/>
+      <c r="BV7" s="90"/>
+      <c r="BW7" s="40"/>
+      <c r="BX7" s="251"/>
+      <c r="BY7" s="90"/>
+      <c r="BZ7" s="39"/>
+      <c r="CA7" s="229"/>
       <c r="CB7" s="28"/>
       <c r="CC7"/>
       <c r="CD7" s="27"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="302"/>
-      <c r="J8" s="303"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="119" t="s">
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="91"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="AW8" s="120"/>
-      <c r="AX8" s="121"/>
-      <c r="AY8" s="121"/>
-      <c r="AZ8" s="121"/>
-      <c r="BA8" s="121"/>
-      <c r="BB8" s="121"/>
-      <c r="BC8" s="122"/>
-      <c r="BD8" s="123" t="s">
+      <c r="AW8" s="233"/>
+      <c r="AX8" s="234"/>
+      <c r="AY8" s="234"/>
+      <c r="AZ8" s="234"/>
+      <c r="BA8" s="234"/>
+      <c r="BB8" s="234"/>
+      <c r="BC8" s="235"/>
+      <c r="BD8" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="BE8" s="124"/>
-      <c r="BF8" s="125"/>
-      <c r="BG8" s="125"/>
-      <c r="BH8" s="125"/>
-      <c r="BI8" s="125"/>
-      <c r="BJ8" s="125"/>
-      <c r="BK8" s="126"/>
-      <c r="BL8" s="130"/>
-      <c r="BM8" s="131"/>
-      <c r="BN8" s="131"/>
-      <c r="BO8" s="132"/>
-      <c r="BP8" s="105"/>
-      <c r="BQ8" s="35"/>
-      <c r="BR8" s="34"/>
-      <c r="BS8" s="35"/>
-      <c r="BT8" s="105"/>
-      <c r="BU8" s="35"/>
-      <c r="BV8" s="34"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="105"/>
-      <c r="BY8" s="34"/>
-      <c r="BZ8" s="48"/>
-      <c r="CA8" s="49"/>
+      <c r="BE8" s="237"/>
+      <c r="BF8" s="238"/>
+      <c r="BG8" s="238"/>
+      <c r="BH8" s="238"/>
+      <c r="BI8" s="238"/>
+      <c r="BJ8" s="238"/>
+      <c r="BK8" s="239"/>
+      <c r="BL8" s="188"/>
+      <c r="BM8" s="189"/>
+      <c r="BN8" s="189"/>
+      <c r="BO8" s="190"/>
+      <c r="BP8" s="252"/>
+      <c r="BQ8" s="44"/>
+      <c r="BR8" s="92"/>
+      <c r="BS8" s="44"/>
+      <c r="BT8" s="252"/>
+      <c r="BU8" s="44"/>
+      <c r="BV8" s="92"/>
+      <c r="BW8" s="44"/>
+      <c r="BX8" s="252"/>
+      <c r="BY8" s="92"/>
+      <c r="BZ8" s="43"/>
+      <c r="CA8" s="256"/>
       <c r="CB8" s="13"/>
       <c r="CC8" s="5"/>
       <c r="CD8" s="27"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="273" t="s">
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="274"/>
-      <c r="I9" s="275"/>
-      <c r="J9" s="97" t="s">
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="60" t="s">
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="69" t="s">
+      <c r="AE9" s="150"/>
+      <c r="AF9" s="284"/>
+      <c r="AG9" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="292"/>
-      <c r="AL9" s="292"/>
-      <c r="AM9" s="292"/>
-      <c r="AN9" s="292"/>
-      <c r="AO9" s="292"/>
-      <c r="AP9" s="292"/>
-      <c r="AQ9" s="292"/>
-      <c r="AR9" s="292"/>
-      <c r="AS9" s="292"/>
-      <c r="AT9" s="292"/>
-      <c r="AU9" s="292"/>
-      <c r="AV9" s="292"/>
-      <c r="AW9" s="292"/>
-      <c r="AX9" s="292"/>
-      <c r="AY9" s="292"/>
-      <c r="AZ9" s="292"/>
-      <c r="BA9" s="292"/>
-      <c r="BB9" s="292"/>
-      <c r="BC9" s="292"/>
-      <c r="BD9" s="292"/>
-      <c r="BE9" s="292"/>
-      <c r="BF9" s="292"/>
-      <c r="BG9" s="292"/>
-      <c r="BH9" s="292"/>
-      <c r="BI9" s="292"/>
-      <c r="BJ9" s="292"/>
-      <c r="BK9" s="292"/>
-      <c r="BL9" s="292"/>
-      <c r="BM9" s="292"/>
-      <c r="BN9" s="292"/>
-      <c r="BO9" s="292"/>
-      <c r="BP9" s="292"/>
-      <c r="BQ9" s="292"/>
-      <c r="BR9" s="292"/>
-      <c r="BS9" s="292"/>
-      <c r="BT9" s="292"/>
-      <c r="BU9" s="292"/>
-      <c r="BV9" s="292"/>
-      <c r="BW9" s="292"/>
-      <c r="BX9" s="292"/>
-      <c r="BY9" s="292"/>
-      <c r="BZ9" s="292"/>
-      <c r="CA9" s="292"/>
-      <c r="CB9" s="292"/>
-      <c r="CC9" s="292"/>
-      <c r="CD9" s="293"/>
+      <c r="AH9" s="288"/>
+      <c r="AI9" s="288"/>
+      <c r="AJ9" s="288"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="45"/>
+      <c r="BF9" s="45"/>
+      <c r="BG9" s="45"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="45"/>
+      <c r="BJ9" s="45"/>
+      <c r="BK9" s="45"/>
+      <c r="BL9" s="45"/>
+      <c r="BM9" s="45"/>
+      <c r="BN9" s="45"/>
+      <c r="BO9" s="45"/>
+      <c r="BP9" s="45"/>
+      <c r="BQ9" s="45"/>
+      <c r="BR9" s="45"/>
+      <c r="BS9" s="45"/>
+      <c r="BT9" s="45"/>
+      <c r="BU9" s="45"/>
+      <c r="BV9" s="45"/>
+      <c r="BW9" s="45"/>
+      <c r="BX9" s="45"/>
+      <c r="BY9" s="45"/>
+      <c r="BZ9" s="45"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="45"/>
+      <c r="CC9" s="45"/>
+      <c r="CD9" s="46"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="282"/>
-      <c r="K10" s="283"/>
-      <c r="L10" s="283"/>
-      <c r="M10" s="283"/>
-      <c r="N10" s="283"/>
-      <c r="O10" s="284"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="63"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="54" t="s">
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="285"/>
+      <c r="AG10" s="243"/>
+      <c r="AH10" s="244"/>
+      <c r="AI10" s="244"/>
+      <c r="AJ10" s="244"/>
+      <c r="AK10" s="244"/>
+      <c r="AL10" s="244"/>
+      <c r="AM10" s="244"/>
+      <c r="AN10" s="244"/>
+      <c r="AO10" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="71"/>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="71"/>
-      <c r="BB10" s="71"/>
-      <c r="BC10" s="71"/>
-      <c r="BD10" s="71"/>
-      <c r="BE10" s="71"/>
-      <c r="BF10" s="71"/>
-      <c r="BG10" s="71"/>
-      <c r="BH10" s="71"/>
-      <c r="BI10" s="71"/>
-      <c r="BJ10" s="71"/>
-      <c r="BK10" s="71"/>
-      <c r="BL10" s="71"/>
-      <c r="BM10" s="71"/>
-      <c r="BN10" s="71"/>
-      <c r="BO10" s="71"/>
-      <c r="BP10" s="71"/>
-      <c r="BQ10" s="71"/>
-      <c r="BR10" s="71"/>
-      <c r="BS10" s="71"/>
-      <c r="BT10" s="71"/>
-      <c r="BU10" s="71"/>
-      <c r="BV10" s="71"/>
-      <c r="BW10" s="71"/>
-      <c r="BX10" s="71"/>
-      <c r="BY10" s="71"/>
-      <c r="BZ10" s="71"/>
-      <c r="CA10" s="71"/>
-      <c r="CB10" s="71"/>
-      <c r="CC10" s="71"/>
-      <c r="CD10" s="72"/>
+      <c r="AP10" s="279"/>
+      <c r="AQ10" s="279"/>
+      <c r="AR10" s="279"/>
+      <c r="AS10" s="244"/>
+      <c r="AT10" s="244"/>
+      <c r="AU10" s="244"/>
+      <c r="AV10" s="244"/>
+      <c r="AW10" s="244"/>
+      <c r="AX10" s="244"/>
+      <c r="AY10" s="244"/>
+      <c r="AZ10" s="244"/>
+      <c r="BA10" s="244"/>
+      <c r="BB10" s="244"/>
+      <c r="BC10" s="244"/>
+      <c r="BD10" s="244"/>
+      <c r="BE10" s="244"/>
+      <c r="BF10" s="244"/>
+      <c r="BG10" s="244"/>
+      <c r="BH10" s="244"/>
+      <c r="BI10" s="244"/>
+      <c r="BJ10" s="244"/>
+      <c r="BK10" s="244"/>
+      <c r="BL10" s="244"/>
+      <c r="BM10" s="244"/>
+      <c r="BN10" s="244"/>
+      <c r="BO10" s="244"/>
+      <c r="BP10" s="244"/>
+      <c r="BQ10" s="244"/>
+      <c r="BR10" s="244"/>
+      <c r="BS10" s="244"/>
+      <c r="BT10" s="244"/>
+      <c r="BU10" s="244"/>
+      <c r="BV10" s="244"/>
+      <c r="BW10" s="244"/>
+      <c r="BX10" s="244"/>
+      <c r="BY10" s="244"/>
+      <c r="BZ10" s="244"/>
+      <c r="CA10" s="244"/>
+      <c r="CB10" s="244"/>
+      <c r="CC10" s="244"/>
+      <c r="CD10" s="289"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="279"/>
-      <c r="H11" s="280"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="137"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="55"/>
-      <c r="AP11" s="55"/>
-      <c r="AQ11" s="55"/>
-      <c r="AR11" s="55"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="73"/>
-      <c r="AX11" s="73"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="73"/>
-      <c r="BA11" s="73"/>
-      <c r="BB11" s="73"/>
-      <c r="BC11" s="73"/>
-      <c r="BD11" s="73"/>
-      <c r="BE11" s="73"/>
-      <c r="BF11" s="73"/>
-      <c r="BG11" s="73"/>
-      <c r="BH11" s="73"/>
-      <c r="BI11" s="73"/>
-      <c r="BJ11" s="73"/>
-      <c r="BK11" s="73"/>
-      <c r="BL11" s="73"/>
-      <c r="BM11" s="73"/>
-      <c r="BN11" s="73"/>
-      <c r="BO11" s="73"/>
-      <c r="BP11" s="73"/>
-      <c r="BQ11" s="73"/>
-      <c r="BR11" s="73"/>
-      <c r="BS11" s="73"/>
-      <c r="BT11" s="73"/>
-      <c r="BU11" s="73"/>
-      <c r="BV11" s="73"/>
-      <c r="BW11" s="73"/>
-      <c r="BX11" s="73"/>
-      <c r="BY11" s="73"/>
-      <c r="BZ11" s="73"/>
-      <c r="CA11" s="73"/>
-      <c r="CB11" s="73"/>
-      <c r="CC11" s="73"/>
-      <c r="CD11" s="74"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="155"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="286"/>
+      <c r="AG11" s="245"/>
+      <c r="AH11" s="246"/>
+      <c r="AI11" s="246"/>
+      <c r="AJ11" s="246"/>
+      <c r="AK11" s="246"/>
+      <c r="AL11" s="246"/>
+      <c r="AM11" s="246"/>
+      <c r="AN11" s="246"/>
+      <c r="AO11" s="274"/>
+      <c r="AP11" s="274"/>
+      <c r="AQ11" s="274"/>
+      <c r="AR11" s="274"/>
+      <c r="AS11" s="246"/>
+      <c r="AT11" s="246"/>
+      <c r="AU11" s="246"/>
+      <c r="AV11" s="246"/>
+      <c r="AW11" s="246"/>
+      <c r="AX11" s="246"/>
+      <c r="AY11" s="246"/>
+      <c r="AZ11" s="246"/>
+      <c r="BA11" s="246"/>
+      <c r="BB11" s="246"/>
+      <c r="BC11" s="246"/>
+      <c r="BD11" s="246"/>
+      <c r="BE11" s="246"/>
+      <c r="BF11" s="246"/>
+      <c r="BG11" s="246"/>
+      <c r="BH11" s="246"/>
+      <c r="BI11" s="246"/>
+      <c r="BJ11" s="246"/>
+      <c r="BK11" s="246"/>
+      <c r="BL11" s="246"/>
+      <c r="BM11" s="246"/>
+      <c r="BN11" s="246"/>
+      <c r="BO11" s="246"/>
+      <c r="BP11" s="246"/>
+      <c r="BQ11" s="246"/>
+      <c r="BR11" s="246"/>
+      <c r="BS11" s="246"/>
+      <c r="BT11" s="246"/>
+      <c r="BU11" s="246"/>
+      <c r="BV11" s="246"/>
+      <c r="BW11" s="246"/>
+      <c r="BX11" s="246"/>
+      <c r="BY11" s="246"/>
+      <c r="BZ11" s="246"/>
+      <c r="CA11" s="246"/>
+      <c r="CB11" s="246"/>
+      <c r="CC11" s="246"/>
+      <c r="CD11" s="290"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="206" t="s">
+      <c r="C12" s="222"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="207"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="97" t="s">
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="99"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="76"/>
       <c r="P12" s="271"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="272" t="s">
+      <c r="Q12" s="272"/>
+      <c r="R12" s="272"/>
+      <c r="S12" s="272"/>
+      <c r="T12" s="272"/>
+      <c r="U12" s="272"/>
+      <c r="V12" s="272"/>
+      <c r="W12" s="272"/>
+      <c r="X12" s="273" t="s">
         <v>21</v>
       </c>
-      <c r="Y12" s="272"/>
-      <c r="Z12" s="272"/>
-      <c r="AA12" s="272"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="75"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="75"/>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="75"/>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="75"/>
-      <c r="AP12" s="75"/>
-      <c r="AQ12" s="75"/>
-      <c r="AR12" s="75"/>
-      <c r="AS12" s="75"/>
-      <c r="AT12" s="75"/>
-      <c r="AU12" s="75"/>
-      <c r="AV12" s="75"/>
-      <c r="AW12" s="75"/>
-      <c r="AX12" s="75"/>
-      <c r="AY12" s="75"/>
-      <c r="AZ12" s="75"/>
-      <c r="BA12" s="75"/>
-      <c r="BB12" s="75"/>
-      <c r="BC12" s="75"/>
-      <c r="BD12" s="75"/>
-      <c r="BE12" s="75"/>
-      <c r="BF12" s="75"/>
-      <c r="BG12" s="75"/>
-      <c r="BH12" s="75"/>
-      <c r="BI12" s="75"/>
-      <c r="BJ12" s="75"/>
-      <c r="BK12" s="75"/>
-      <c r="BL12" s="75"/>
-      <c r="BM12" s="75"/>
-      <c r="BN12" s="75"/>
-      <c r="BO12" s="75"/>
-      <c r="BP12" s="75"/>
-      <c r="BQ12" s="75"/>
-      <c r="BR12" s="75"/>
-      <c r="BS12" s="75"/>
-      <c r="BT12" s="75"/>
-      <c r="BU12" s="75"/>
-      <c r="BV12" s="75"/>
-      <c r="BW12" s="75"/>
-      <c r="BX12" s="75"/>
-      <c r="BY12" s="75"/>
-      <c r="BZ12" s="75"/>
-      <c r="CA12" s="75"/>
-      <c r="CB12" s="75"/>
-      <c r="CC12" s="75"/>
-      <c r="CD12" s="76"/>
+      <c r="Y12" s="273"/>
+      <c r="Z12" s="273"/>
+      <c r="AA12" s="273"/>
+      <c r="AB12" s="272"/>
+      <c r="AC12" s="272"/>
+      <c r="AD12" s="272"/>
+      <c r="AE12" s="272"/>
+      <c r="AF12" s="272"/>
+      <c r="AG12" s="272"/>
+      <c r="AH12" s="272"/>
+      <c r="AI12" s="272"/>
+      <c r="AJ12" s="272"/>
+      <c r="AK12" s="272"/>
+      <c r="AL12" s="272"/>
+      <c r="AM12" s="272"/>
+      <c r="AN12" s="272"/>
+      <c r="AO12" s="272"/>
+      <c r="AP12" s="272"/>
+      <c r="AQ12" s="272"/>
+      <c r="AR12" s="272"/>
+      <c r="AS12" s="272"/>
+      <c r="AT12" s="272"/>
+      <c r="AU12" s="272"/>
+      <c r="AV12" s="272"/>
+      <c r="AW12" s="272"/>
+      <c r="AX12" s="272"/>
+      <c r="AY12" s="272"/>
+      <c r="AZ12" s="272"/>
+      <c r="BA12" s="272"/>
+      <c r="BB12" s="272"/>
+      <c r="BC12" s="272"/>
+      <c r="BD12" s="272"/>
+      <c r="BE12" s="272"/>
+      <c r="BF12" s="272"/>
+      <c r="BG12" s="272"/>
+      <c r="BH12" s="272"/>
+      <c r="BI12" s="272"/>
+      <c r="BJ12" s="272"/>
+      <c r="BK12" s="272"/>
+      <c r="BL12" s="272"/>
+      <c r="BM12" s="272"/>
+      <c r="BN12" s="272"/>
+      <c r="BO12" s="272"/>
+      <c r="BP12" s="272"/>
+      <c r="BQ12" s="272"/>
+      <c r="BR12" s="272"/>
+      <c r="BS12" s="272"/>
+      <c r="BT12" s="272"/>
+      <c r="BU12" s="272"/>
+      <c r="BV12" s="272"/>
+      <c r="BW12" s="272"/>
+      <c r="BX12" s="272"/>
+      <c r="BY12" s="272"/>
+      <c r="BZ12" s="272"/>
+      <c r="CA12" s="272"/>
+      <c r="CB12" s="272"/>
+      <c r="CC12" s="272"/>
+      <c r="CD12" s="291"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="73"/>
-      <c r="AI13" s="73"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="73"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="73"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="73"/>
-      <c r="AZ13" s="73"/>
-      <c r="BA13" s="73"/>
-      <c r="BB13" s="73"/>
-      <c r="BC13" s="73"/>
-      <c r="BD13" s="73"/>
-      <c r="BE13" s="73"/>
-      <c r="BF13" s="73"/>
-      <c r="BG13" s="73"/>
-      <c r="BH13" s="73"/>
-      <c r="BI13" s="73"/>
-      <c r="BJ13" s="73"/>
-      <c r="BK13" s="73"/>
-      <c r="BL13" s="73"/>
-      <c r="BM13" s="73"/>
-      <c r="BN13" s="73"/>
-      <c r="BO13" s="73"/>
-      <c r="BP13" s="73"/>
-      <c r="BQ13" s="73"/>
-      <c r="BR13" s="73"/>
-      <c r="BS13" s="73"/>
-      <c r="BT13" s="73"/>
-      <c r="BU13" s="73"/>
-      <c r="BV13" s="73"/>
-      <c r="BW13" s="73"/>
-      <c r="BX13" s="73"/>
-      <c r="BY13" s="73"/>
-      <c r="BZ13" s="73"/>
-      <c r="CA13" s="73"/>
-      <c r="CB13" s="73"/>
-      <c r="CC13" s="73"/>
-      <c r="CD13" s="74"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="245"/>
+      <c r="Q13" s="246"/>
+      <c r="R13" s="246"/>
+      <c r="S13" s="246"/>
+      <c r="T13" s="246"/>
+      <c r="U13" s="246"/>
+      <c r="V13" s="246"/>
+      <c r="W13" s="246"/>
+      <c r="X13" s="274"/>
+      <c r="Y13" s="274"/>
+      <c r="Z13" s="274"/>
+      <c r="AA13" s="274"/>
+      <c r="AB13" s="246"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="246"/>
+      <c r="AE13" s="246"/>
+      <c r="AF13" s="246"/>
+      <c r="AG13" s="246"/>
+      <c r="AH13" s="246"/>
+      <c r="AI13" s="246"/>
+      <c r="AJ13" s="246"/>
+      <c r="AK13" s="246"/>
+      <c r="AL13" s="246"/>
+      <c r="AM13" s="246"/>
+      <c r="AN13" s="246"/>
+      <c r="AO13" s="246"/>
+      <c r="AP13" s="246"/>
+      <c r="AQ13" s="246"/>
+      <c r="AR13" s="246"/>
+      <c r="AS13" s="246"/>
+      <c r="AT13" s="246"/>
+      <c r="AU13" s="246"/>
+      <c r="AV13" s="246"/>
+      <c r="AW13" s="246"/>
+      <c r="AX13" s="246"/>
+      <c r="AY13" s="246"/>
+      <c r="AZ13" s="246"/>
+      <c r="BA13" s="246"/>
+      <c r="BB13" s="246"/>
+      <c r="BC13" s="246"/>
+      <c r="BD13" s="246"/>
+      <c r="BE13" s="246"/>
+      <c r="BF13" s="246"/>
+      <c r="BG13" s="246"/>
+      <c r="BH13" s="246"/>
+      <c r="BI13" s="246"/>
+      <c r="BJ13" s="246"/>
+      <c r="BK13" s="246"/>
+      <c r="BL13" s="246"/>
+      <c r="BM13" s="246"/>
+      <c r="BN13" s="246"/>
+      <c r="BO13" s="246"/>
+      <c r="BP13" s="246"/>
+      <c r="BQ13" s="246"/>
+      <c r="BR13" s="246"/>
+      <c r="BS13" s="246"/>
+      <c r="BT13" s="246"/>
+      <c r="BU13" s="246"/>
+      <c r="BV13" s="246"/>
+      <c r="BW13" s="246"/>
+      <c r="BX13" s="246"/>
+      <c r="BY13" s="246"/>
+      <c r="BZ13" s="246"/>
+      <c r="CA13" s="246"/>
+      <c r="CB13" s="246"/>
+      <c r="CC13" s="246"/>
+      <c r="CD13" s="290"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="294" t="s">
+      <c r="C14" s="222"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="295"/>
-      <c r="I14" s="295"/>
-      <c r="J14" s="295"/>
-      <c r="K14" s="295"/>
-      <c r="L14" s="296"/>
-      <c r="M14" s="166" t="s">
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="192"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="194"/>
-      <c r="U14" s="192"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="194"/>
-      <c r="Y14" s="192"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="200"/>
-      <c r="AD14" s="201"/>
-      <c r="AE14" s="202"/>
-      <c r="AF14" s="156" t="s">
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="201"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="201"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="204"/>
+      <c r="AD14" s="205"/>
+      <c r="AE14" s="206"/>
+      <c r="AF14" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="AG14" s="157"/>
-      <c r="AH14" s="157"/>
-      <c r="AI14" s="157"/>
-      <c r="AJ14" s="170" t="s">
+      <c r="AG14" s="160"/>
+      <c r="AH14" s="160"/>
+      <c r="AI14" s="160"/>
+      <c r="AJ14" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="AK14" s="171"/>
-      <c r="AL14" s="171"/>
-      <c r="AM14" s="171"/>
-      <c r="AN14" s="171"/>
-      <c r="AO14" s="171"/>
-      <c r="AP14" s="171"/>
-      <c r="AQ14" s="171"/>
-      <c r="AR14" s="171"/>
-      <c r="AS14" s="171"/>
-      <c r="AT14" s="171"/>
-      <c r="AU14" s="171"/>
-      <c r="AV14" s="171"/>
-      <c r="AW14" s="171"/>
-      <c r="AX14" s="171"/>
-      <c r="AY14" s="171"/>
-      <c r="AZ14" s="171"/>
-      <c r="BA14" s="171"/>
-      <c r="BB14" s="171"/>
-      <c r="BC14" s="171"/>
-      <c r="BD14" s="171"/>
-      <c r="BE14" s="171"/>
-      <c r="BF14" s="171"/>
-      <c r="BG14" s="171"/>
-      <c r="BH14" s="171"/>
-      <c r="BI14" s="171"/>
-      <c r="BJ14" s="171"/>
-      <c r="BK14" s="171"/>
-      <c r="BL14" s="171"/>
-      <c r="BM14" s="171"/>
-      <c r="BN14" s="171"/>
-      <c r="BO14" s="172"/>
+      <c r="AK14" s="174"/>
+      <c r="AL14" s="174"/>
+      <c r="AM14" s="174"/>
+      <c r="AN14" s="174"/>
+      <c r="AO14" s="174"/>
+      <c r="AP14" s="174"/>
+      <c r="AQ14" s="174"/>
+      <c r="AR14" s="174"/>
+      <c r="AS14" s="174"/>
+      <c r="AT14" s="174"/>
+      <c r="AU14" s="174"/>
+      <c r="AV14" s="174"/>
+      <c r="AW14" s="174"/>
+      <c r="AX14" s="174"/>
+      <c r="AY14" s="174"/>
+      <c r="AZ14" s="174"/>
+      <c r="BA14" s="174"/>
+      <c r="BB14" s="174"/>
+      <c r="BC14" s="174"/>
+      <c r="BD14" s="174"/>
+      <c r="BE14" s="174"/>
+      <c r="BF14" s="174"/>
+      <c r="BG14" s="174"/>
+      <c r="BH14" s="174"/>
+      <c r="BI14" s="174"/>
+      <c r="BJ14" s="174"/>
+      <c r="BK14" s="174"/>
+      <c r="BL14" s="174"/>
+      <c r="BM14" s="174"/>
+      <c r="BN14" s="174"/>
+      <c r="BO14" s="175"/>
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
@@ -9651,91 +9651,91 @@
       <c r="CC14"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="297"/>
-      <c r="H15" s="298"/>
-      <c r="I15" s="298"/>
-      <c r="J15" s="298"/>
-      <c r="K15" s="298"/>
-      <c r="L15" s="299"/>
-      <c r="M15" s="168"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="193"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="195"/>
-      <c r="U15" s="193"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="195"/>
-      <c r="Y15" s="193"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="203"/>
-      <c r="AD15" s="204"/>
-      <c r="AE15" s="205"/>
-      <c r="AF15" s="158"/>
-      <c r="AG15" s="159"/>
-      <c r="AH15" s="159"/>
-      <c r="AI15" s="159"/>
-      <c r="AJ15" s="173"/>
-      <c r="AK15" s="174"/>
-      <c r="AL15" s="174"/>
-      <c r="AM15" s="174"/>
-      <c r="AN15" s="174"/>
-      <c r="AO15" s="174"/>
-      <c r="AP15" s="174"/>
-      <c r="AQ15" s="174"/>
-      <c r="AR15" s="174"/>
-      <c r="AS15" s="174"/>
-      <c r="AT15" s="174"/>
-      <c r="AU15" s="174"/>
-      <c r="AV15" s="174"/>
-      <c r="AW15" s="174"/>
-      <c r="AX15" s="174"/>
-      <c r="AY15" s="174"/>
-      <c r="AZ15" s="174"/>
-      <c r="BA15" s="174"/>
-      <c r="BB15" s="174"/>
-      <c r="BC15" s="174"/>
-      <c r="BD15" s="174"/>
-      <c r="BE15" s="174"/>
-      <c r="BF15" s="174"/>
-      <c r="BG15" s="174"/>
-      <c r="BH15" s="174"/>
-      <c r="BI15" s="174"/>
-      <c r="BJ15" s="174"/>
-      <c r="BK15" s="174"/>
-      <c r="BL15" s="174"/>
-      <c r="BM15" s="174"/>
-      <c r="BN15" s="174"/>
-      <c r="BO15" s="175"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="202"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="207"/>
+      <c r="AD15" s="208"/>
+      <c r="AE15" s="209"/>
+      <c r="AF15" s="161"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="176"/>
+      <c r="AK15" s="177"/>
+      <c r="AL15" s="177"/>
+      <c r="AM15" s="177"/>
+      <c r="AN15" s="177"/>
+      <c r="AO15" s="177"/>
+      <c r="AP15" s="177"/>
+      <c r="AQ15" s="177"/>
+      <c r="AR15" s="177"/>
+      <c r="AS15" s="177"/>
+      <c r="AT15" s="177"/>
+      <c r="AU15" s="177"/>
+      <c r="AV15" s="177"/>
+      <c r="AW15" s="177"/>
+      <c r="AX15" s="177"/>
+      <c r="AY15" s="177"/>
+      <c r="AZ15" s="177"/>
+      <c r="BA15" s="177"/>
+      <c r="BB15" s="177"/>
+      <c r="BC15" s="177"/>
+      <c r="BD15" s="177"/>
+      <c r="BE15" s="177"/>
+      <c r="BF15" s="177"/>
+      <c r="BG15" s="177"/>
+      <c r="BH15" s="177"/>
+      <c r="BI15" s="177"/>
+      <c r="BJ15" s="177"/>
+      <c r="BK15" s="177"/>
+      <c r="BL15" s="177"/>
+      <c r="BM15" s="177"/>
+      <c r="BN15" s="177"/>
+      <c r="BO15" s="178"/>
       <c r="BP15"/>
       <c r="BQ15"/>
-      <c r="BS15" s="77" t="s">
+      <c r="BS15" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="BT15" s="78"/>
-      <c r="BU15" s="78"/>
-      <c r="BV15" s="78"/>
-      <c r="BW15" s="78"/>
-      <c r="BX15" s="78"/>
-      <c r="BY15" s="78"/>
-      <c r="BZ15" s="78"/>
-      <c r="CA15" s="78"/>
-      <c r="CB15" s="78"/>
-      <c r="CC15" s="78"/>
-      <c r="CD15" s="79"/>
+      <c r="BT15" s="227"/>
+      <c r="BU15" s="227"/>
+      <c r="BV15" s="227"/>
+      <c r="BW15" s="227"/>
+      <c r="BX15" s="227"/>
+      <c r="BY15" s="227"/>
+      <c r="BZ15" s="227"/>
+      <c r="CA15" s="227"/>
+      <c r="CB15" s="227"/>
+      <c r="CC15" s="227"/>
+      <c r="CD15" s="228"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="25"/>
@@ -9803,22 +9803,22 @@
       <c r="BO16"/>
       <c r="BP16"/>
       <c r="BQ16"/>
-      <c r="BS16" s="77"/>
-      <c r="BT16" s="78"/>
-      <c r="BU16" s="78"/>
-      <c r="BV16" s="78"/>
-      <c r="BW16" s="78"/>
-      <c r="BX16" s="78"/>
-      <c r="BY16" s="78"/>
-      <c r="BZ16" s="78"/>
-      <c r="CA16" s="78"/>
-      <c r="CB16" s="78"/>
-      <c r="CC16" s="78"/>
-      <c r="CD16" s="79"/>
+      <c r="BS16" s="226"/>
+      <c r="BT16" s="227"/>
+      <c r="BU16" s="227"/>
+      <c r="BV16" s="227"/>
+      <c r="BW16" s="227"/>
+      <c r="BX16" s="227"/>
+      <c r="BY16" s="227"/>
+      <c r="BZ16" s="227"/>
+      <c r="CA16" s="227"/>
+      <c r="CB16" s="227"/>
+      <c r="CC16" s="227"/>
+      <c r="CD16" s="228"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="21" t="s">
@@ -9827,22 +9827,22 @@
       <c r="AO17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="BS17" s="80"/>
-      <c r="BT17" s="81"/>
-      <c r="BU17" s="81"/>
-      <c r="BV17" s="81"/>
-      <c r="BW17" s="81"/>
-      <c r="BX17" s="81"/>
-      <c r="BY17" s="81"/>
-      <c r="BZ17" s="81"/>
-      <c r="CA17" s="81"/>
-      <c r="CB17" s="81"/>
-      <c r="CC17" s="81"/>
-      <c r="CD17" s="82"/>
+      <c r="BS17" s="292"/>
+      <c r="BT17" s="212"/>
+      <c r="BU17" s="212"/>
+      <c r="BV17" s="212"/>
+      <c r="BW17" s="212"/>
+      <c r="BX17" s="212"/>
+      <c r="BY17" s="212"/>
+      <c r="BZ17" s="212"/>
+      <c r="CA17" s="212"/>
+      <c r="CB17" s="212"/>
+      <c r="CC17" s="212"/>
+      <c r="CD17" s="293"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="19" t="s">
@@ -9883,56 +9883,56 @@
       <c r="BE18"/>
       <c r="BF18"/>
       <c r="BG18"/>
-      <c r="BS18" s="80"/>
-      <c r="BT18" s="81"/>
-      <c r="BU18" s="81"/>
-      <c r="BV18" s="81"/>
-      <c r="BW18" s="81"/>
-      <c r="BX18" s="81"/>
-      <c r="BY18" s="81"/>
-      <c r="BZ18" s="81"/>
-      <c r="CA18" s="81"/>
-      <c r="CB18" s="81"/>
-      <c r="CC18" s="81"/>
-      <c r="CD18" s="82"/>
+      <c r="BS18" s="292"/>
+      <c r="BT18" s="212"/>
+      <c r="BU18" s="212"/>
+      <c r="BV18" s="212"/>
+      <c r="BW18" s="212"/>
+      <c r="BX18" s="212"/>
+      <c r="BY18" s="212"/>
+      <c r="BZ18" s="212"/>
+      <c r="CA18" s="212"/>
+      <c r="CB18" s="212"/>
+      <c r="CC18" s="212"/>
+      <c r="CD18" s="293"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="92" t="s">
+      <c r="C19" s="222"/>
+      <c r="D19" s="222"/>
+      <c r="E19" s="302" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
+      <c r="F19" s="303"/>
+      <c r="G19" s="303"/>
+      <c r="H19" s="303"/>
+      <c r="I19" s="303"/>
+      <c r="J19" s="303"/>
+      <c r="K19" s="303"/>
+      <c r="L19" s="303"/>
+      <c r="M19" s="303"/>
+      <c r="N19" s="303"/>
+      <c r="O19" s="303"/>
+      <c r="P19" s="303"/>
+      <c r="Q19" s="303"/>
+      <c r="R19" s="303"/>
+      <c r="S19" s="303"/>
+      <c r="T19" s="303"/>
+      <c r="U19" s="303"/>
+      <c r="V19" s="303"/>
+      <c r="W19" s="303"/>
+      <c r="X19" s="303"/>
+      <c r="Y19" s="303"/>
+      <c r="Z19" s="303"/>
+      <c r="AA19" s="303"/>
+      <c r="AB19" s="303"/>
+      <c r="AC19" s="303"/>
+      <c r="AD19" s="303"/>
+      <c r="AE19" s="303"/>
+      <c r="AF19" s="303"/>
+      <c r="AG19" s="303"/>
+      <c r="AH19" s="303"/>
+      <c r="AI19" s="303"/>
+      <c r="AJ19" s="303"/>
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
@@ -9956,72 +9956,72 @@
       <c r="BE19"/>
       <c r="BF19"/>
       <c r="BG19"/>
-      <c r="BS19" s="80"/>
-      <c r="BT19" s="81"/>
-      <c r="BU19" s="81"/>
-      <c r="BV19" s="81"/>
-      <c r="BW19" s="81"/>
-      <c r="BX19" s="81"/>
-      <c r="BY19" s="81"/>
-      <c r="BZ19" s="81"/>
-      <c r="CA19" s="81"/>
-      <c r="CB19" s="81"/>
-      <c r="CC19" s="81"/>
-      <c r="CD19" s="82"/>
+      <c r="BS19" s="292"/>
+      <c r="BT19" s="212"/>
+      <c r="BU19" s="212"/>
+      <c r="BV19" s="212"/>
+      <c r="BW19" s="212"/>
+      <c r="BX19" s="212"/>
+      <c r="BY19" s="212"/>
+      <c r="BZ19" s="212"/>
+      <c r="CA19" s="212"/>
+      <c r="CB19" s="212"/>
+      <c r="CC19" s="212"/>
+      <c r="CD19" s="293"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="138" t="s">
+      <c r="C20" s="222"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="139"/>
-      <c r="G20" s="288" t="s">
+      <c r="F20" s="248"/>
+      <c r="G20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="144"/>
-      <c r="Z20" s="144"/>
-      <c r="AA20" s="144"/>
-      <c r="AB20" s="144"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="145"/>
-      <c r="AE20" s="288" t="s">
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AF20" s="144"/>
-      <c r="AG20" s="144"/>
-      <c r="AH20" s="144"/>
-      <c r="AI20" s="144"/>
-      <c r="AJ20" s="144"/>
-      <c r="AK20" s="144"/>
-      <c r="AL20" s="144"/>
-      <c r="AM20" s="144"/>
-      <c r="AN20" s="144"/>
-      <c r="AO20" s="144"/>
-      <c r="AP20" s="144"/>
-      <c r="AQ20" s="144"/>
-      <c r="AR20" s="144"/>
-      <c r="AS20" s="144"/>
-      <c r="AT20" s="145"/>
-      <c r="AU20" s="160"/>
-      <c r="AV20" s="161"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="162"/>
+      <c r="AV20" s="163"/>
       <c r="AW20" s="257" t="s">
         <v>35</v>
       </c>
@@ -10032,83 +10032,83 @@
       </c>
       <c r="BA20" s="16"/>
       <c r="BB20" s="16"/>
-      <c r="BC20" s="254"/>
-      <c r="BD20" s="254"/>
-      <c r="BE20" s="254"/>
-      <c r="BF20" s="254"/>
-      <c r="BG20" s="254"/>
-      <c r="BH20" s="254"/>
-      <c r="BI20" s="289"/>
-      <c r="BJ20" s="290"/>
-      <c r="BK20" s="290"/>
-      <c r="BL20" s="290"/>
-      <c r="BM20" s="290"/>
-      <c r="BN20" s="290"/>
-      <c r="BO20" s="290"/>
-      <c r="BP20" s="290"/>
-      <c r="BQ20" s="291"/>
-      <c r="BS20" s="80"/>
-      <c r="BT20" s="81"/>
-      <c r="BU20" s="81"/>
-      <c r="BV20" s="81"/>
-      <c r="BW20" s="81"/>
-      <c r="BX20" s="81"/>
-      <c r="BY20" s="81"/>
-      <c r="BZ20" s="81"/>
-      <c r="CA20" s="81"/>
-      <c r="CB20" s="81"/>
-      <c r="CC20" s="81"/>
-      <c r="CD20" s="82"/>
+      <c r="BC20" s="33"/>
+      <c r="BD20" s="33"/>
+      <c r="BE20" s="33"/>
+      <c r="BF20" s="33"/>
+      <c r="BG20" s="33"/>
+      <c r="BH20" s="33"/>
+      <c r="BI20" s="34"/>
+      <c r="BJ20" s="35"/>
+      <c r="BK20" s="35"/>
+      <c r="BL20" s="35"/>
+      <c r="BM20" s="35"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="35"/>
+      <c r="BP20" s="35"/>
+      <c r="BQ20" s="36"/>
+      <c r="BS20" s="292"/>
+      <c r="BT20" s="212"/>
+      <c r="BU20" s="212"/>
+      <c r="BV20" s="212"/>
+      <c r="BW20" s="212"/>
+      <c r="BX20" s="212"/>
+      <c r="BY20" s="212"/>
+      <c r="BZ20" s="212"/>
+      <c r="CA20" s="212"/>
+      <c r="CB20" s="212"/>
+      <c r="CC20" s="212"/>
+      <c r="CD20" s="293"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="196"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="198"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="109"/>
-      <c r="W21" s="196"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="198"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="198"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="127" t="s">
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="203"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="203"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="203"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="129"/>
+      <c r="AF21" s="186"/>
+      <c r="AG21" s="186"/>
+      <c r="AH21" s="187"/>
       <c r="AI21" s="269"/>
-      <c r="AJ21" s="177"/>
-      <c r="AK21" s="180"/>
-      <c r="AL21" s="181"/>
-      <c r="AM21" s="176"/>
-      <c r="AN21" s="177"/>
-      <c r="AO21" s="180"/>
-      <c r="AP21" s="181"/>
-      <c r="AQ21" s="176"/>
-      <c r="AR21" s="177"/>
-      <c r="AS21" s="180"/>
-      <c r="AT21" s="181"/>
-      <c r="AU21" s="162"/>
-      <c r="AV21" s="163"/>
+      <c r="AJ21" s="180"/>
+      <c r="AK21" s="183"/>
+      <c r="AL21" s="184"/>
+      <c r="AM21" s="179"/>
+      <c r="AN21" s="180"/>
+      <c r="AO21" s="183"/>
+      <c r="AP21" s="184"/>
+      <c r="AQ21" s="179"/>
+      <c r="AR21" s="180"/>
+      <c r="AS21" s="183"/>
+      <c r="AT21" s="184"/>
+      <c r="AU21" s="164"/>
+      <c r="AV21" s="165"/>
       <c r="AW21" s="261" t="s">
         <v>33</v>
       </c>
@@ -10118,248 +10118,248 @@
         <v>32</v>
       </c>
       <c r="BA21" s="14"/>
-      <c r="BB21" s="86"/>
-      <c r="BC21" s="86"/>
-      <c r="BD21" s="86"/>
-      <c r="BE21" s="86"/>
-      <c r="BF21" s="86"/>
-      <c r="BG21" s="86"/>
-      <c r="BH21" s="86"/>
+      <c r="BB21" s="254"/>
+      <c r="BC21" s="254"/>
+      <c r="BD21" s="254"/>
+      <c r="BE21" s="254"/>
+      <c r="BF21" s="254"/>
+      <c r="BG21" s="254"/>
+      <c r="BH21" s="254"/>
       <c r="BI21" s="15" t="s">
         <v>31</v>
       </c>
       <c r="BJ21" s="14"/>
-      <c r="BK21" s="86"/>
-      <c r="BL21" s="86"/>
-      <c r="BM21" s="86"/>
-      <c r="BN21" s="86"/>
-      <c r="BO21" s="86"/>
-      <c r="BP21" s="86"/>
-      <c r="BQ21" s="256"/>
-      <c r="BS21" s="83"/>
-      <c r="BT21" s="84"/>
-      <c r="BU21" s="84"/>
-      <c r="BV21" s="84"/>
-      <c r="BW21" s="84"/>
-      <c r="BX21" s="84"/>
-      <c r="BY21" s="84"/>
-      <c r="BZ21" s="84"/>
-      <c r="CA21" s="84"/>
-      <c r="CB21" s="84"/>
-      <c r="CC21" s="84"/>
-      <c r="CD21" s="85"/>
-      <c r="CV21" s="151"/>
-      <c r="CW21" s="151"/>
-      <c r="CX21" s="151"/>
+      <c r="BK21" s="254"/>
+      <c r="BL21" s="254"/>
+      <c r="BM21" s="254"/>
+      <c r="BN21" s="254"/>
+      <c r="BO21" s="254"/>
+      <c r="BP21" s="254"/>
+      <c r="BQ21" s="255"/>
+      <c r="BS21" s="294"/>
+      <c r="BT21" s="295"/>
+      <c r="BU21" s="295"/>
+      <c r="BV21" s="295"/>
+      <c r="BW21" s="295"/>
+      <c r="BX21" s="295"/>
+      <c r="BY21" s="295"/>
+      <c r="BZ21" s="295"/>
+      <c r="CA21" s="295"/>
+      <c r="CB21" s="295"/>
+      <c r="CC21" s="295"/>
+      <c r="CD21" s="296"/>
+      <c r="CV21" s="29"/>
+      <c r="CW21" s="29"/>
+      <c r="CX21" s="29"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="197"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="197"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="130"/>
-      <c r="AF22" s="131"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="132"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="222"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="188"/>
+      <c r="AF22" s="189"/>
+      <c r="AG22" s="189"/>
+      <c r="AH22" s="190"/>
       <c r="AI22" s="270"/>
-      <c r="AJ22" s="179"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="179"/>
-      <c r="AM22" s="178"/>
-      <c r="AN22" s="179"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="179"/>
-      <c r="AQ22" s="178"/>
-      <c r="AR22" s="179"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="179"/>
-      <c r="AU22" s="164"/>
-      <c r="AV22" s="165"/>
+      <c r="AJ22" s="182"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="182"/>
+      <c r="AM22" s="181"/>
+      <c r="AN22" s="182"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="182"/>
+      <c r="AQ22" s="181"/>
+      <c r="AR22" s="182"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="182"/>
+      <c r="AU22" s="166"/>
+      <c r="AV22" s="167"/>
       <c r="AW22" s="263"/>
       <c r="AX22" s="263"/>
       <c r="AY22" s="264"/>
       <c r="AZ22" s="13"/>
       <c r="BA22" s="5"/>
-      <c r="BB22" s="34"/>
-      <c r="BC22" s="34"/>
-      <c r="BD22" s="34"/>
-      <c r="BE22" s="34"/>
-      <c r="BF22" s="34"/>
-      <c r="BG22" s="34"/>
-      <c r="BH22" s="34"/>
+      <c r="BB22" s="92"/>
+      <c r="BC22" s="92"/>
+      <c r="BD22" s="92"/>
+      <c r="BE22" s="92"/>
+      <c r="BF22" s="92"/>
+      <c r="BG22" s="92"/>
+      <c r="BH22" s="92"/>
       <c r="BI22" s="13"/>
       <c r="BJ22" s="5"/>
-      <c r="BK22" s="34"/>
-      <c r="BL22" s="34"/>
-      <c r="BM22" s="34"/>
-      <c r="BN22" s="34"/>
-      <c r="BO22" s="34"/>
-      <c r="BP22" s="34"/>
-      <c r="BQ22" s="49"/>
-      <c r="CV22" s="151"/>
-      <c r="CW22" s="151"/>
-      <c r="CX22" s="151"/>
+      <c r="BK22" s="92"/>
+      <c r="BL22" s="92"/>
+      <c r="BM22" s="92"/>
+      <c r="BN22" s="92"/>
+      <c r="BO22" s="92"/>
+      <c r="BP22" s="92"/>
+      <c r="BQ22" s="256"/>
+      <c r="CV22" s="29"/>
+      <c r="CW22" s="29"/>
+      <c r="CX22" s="29"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="60" t="s">
+      <c r="C23" s="222"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="40" t="s">
+      <c r="H23" s="150"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="40" t="s">
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="144"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="144"/>
+      <c r="T23" s="144"/>
+      <c r="U23" s="144"/>
+      <c r="V23" s="144"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
-      <c r="BA23" s="41"/>
-      <c r="BB23" s="41"/>
-      <c r="BC23" s="41"/>
-      <c r="BD23" s="41"/>
-      <c r="BE23" s="41"/>
-      <c r="BF23" s="41"/>
-      <c r="BG23" s="41"/>
-      <c r="BH23" s="41"/>
-      <c r="BI23" s="41"/>
-      <c r="BJ23" s="41"/>
-      <c r="BK23" s="41"/>
-      <c r="BL23" s="41"/>
-      <c r="BM23" s="41"/>
-      <c r="BN23" s="41"/>
-      <c r="BO23" s="41"/>
-      <c r="BP23" s="42"/>
-      <c r="BQ23" s="40" t="s">
+      <c r="Y23" s="144"/>
+      <c r="Z23" s="144"/>
+      <c r="AA23" s="144"/>
+      <c r="AB23" s="144"/>
+      <c r="AC23" s="144"/>
+      <c r="AD23" s="144"/>
+      <c r="AE23" s="144"/>
+      <c r="AF23" s="144"/>
+      <c r="AG23" s="144"/>
+      <c r="AH23" s="144"/>
+      <c r="AI23" s="144"/>
+      <c r="AJ23" s="144"/>
+      <c r="AK23" s="144"/>
+      <c r="AL23" s="144"/>
+      <c r="AM23" s="144"/>
+      <c r="AN23" s="144"/>
+      <c r="AO23" s="144"/>
+      <c r="AP23" s="144"/>
+      <c r="AQ23" s="144"/>
+      <c r="AR23" s="144"/>
+      <c r="AS23" s="144"/>
+      <c r="AT23" s="144"/>
+      <c r="AU23" s="144"/>
+      <c r="AV23" s="144"/>
+      <c r="AW23" s="144"/>
+      <c r="AX23" s="144"/>
+      <c r="AY23" s="144"/>
+      <c r="AZ23" s="144"/>
+      <c r="BA23" s="144"/>
+      <c r="BB23" s="144"/>
+      <c r="BC23" s="144"/>
+      <c r="BD23" s="144"/>
+      <c r="BE23" s="144"/>
+      <c r="BF23" s="144"/>
+      <c r="BG23" s="144"/>
+      <c r="BH23" s="144"/>
+      <c r="BI23" s="144"/>
+      <c r="BJ23" s="144"/>
+      <c r="BK23" s="144"/>
+      <c r="BL23" s="144"/>
+      <c r="BM23" s="144"/>
+      <c r="BN23" s="144"/>
+      <c r="BO23" s="144"/>
+      <c r="BP23" s="145"/>
+      <c r="BQ23" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="BR23" s="41"/>
-      <c r="BS23" s="41"/>
-      <c r="BT23" s="41"/>
-      <c r="BU23" s="41"/>
-      <c r="BV23" s="41"/>
-      <c r="BW23" s="41"/>
-      <c r="BX23" s="41"/>
-      <c r="BY23" s="41"/>
-      <c r="BZ23" s="41"/>
-      <c r="CA23" s="41"/>
-      <c r="CB23" s="41"/>
-      <c r="CC23" s="41"/>
-      <c r="CD23" s="42"/>
-      <c r="CE23" s="114"/>
-      <c r="CF23" s="114"/>
+      <c r="BR23" s="144"/>
+      <c r="BS23" s="144"/>
+      <c r="BT23" s="144"/>
+      <c r="BU23" s="144"/>
+      <c r="BV23" s="144"/>
+      <c r="BW23" s="144"/>
+      <c r="BX23" s="144"/>
+      <c r="BY23" s="144"/>
+      <c r="BZ23" s="144"/>
+      <c r="CA23" s="144"/>
+      <c r="CB23" s="144"/>
+      <c r="CC23" s="144"/>
+      <c r="CD23" s="145"/>
+      <c r="CE23" s="225"/>
+      <c r="CF23" s="225"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="151"/>
-      <c r="CW23" s="151"/>
-      <c r="CX23" s="151"/>
+      <c r="CV23" s="29"/>
+      <c r="CW23" s="29"/>
+      <c r="CX23" s="29"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="133" t="s">
+      <c r="C24" s="222"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="Y24" s="134"/>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="134"/>
-      <c r="AD24" s="134"/>
-      <c r="AE24" s="134"/>
-      <c r="AF24" s="134"/>
-      <c r="AG24" s="135"/>
-      <c r="AH24" s="153" t="s">
+      <c r="Y24" s="241"/>
+      <c r="Z24" s="241"/>
+      <c r="AA24" s="241"/>
+      <c r="AB24" s="241"/>
+      <c r="AC24" s="241"/>
+      <c r="AD24" s="241"/>
+      <c r="AE24" s="241"/>
+      <c r="AF24" s="241"/>
+      <c r="AG24" s="242"/>
+      <c r="AH24" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="AI24" s="153"/>
-      <c r="AJ24" s="153"/>
-      <c r="AK24" s="153"/>
+      <c r="AI24" s="158"/>
+      <c r="AJ24" s="158"/>
+      <c r="AK24" s="158"/>
       <c r="AL24" s="259"/>
       <c r="AM24" s="259"/>
       <c r="AN24" s="259"/>
@@ -10395,373 +10395,373 @@
         <v>24</v>
       </c>
       <c r="BR24" s="266"/>
-      <c r="BS24" s="117"/>
-      <c r="BT24" s="37"/>
-      <c r="BU24" s="50"/>
-      <c r="BV24" s="47"/>
-      <c r="BW24" s="117"/>
-      <c r="BX24" s="37"/>
-      <c r="BY24" s="50"/>
-      <c r="BZ24" s="47"/>
-      <c r="CA24" s="117"/>
-      <c r="CB24" s="37"/>
-      <c r="CC24" s="50"/>
-      <c r="CD24" s="47"/>
-      <c r="CE24" s="114"/>
-      <c r="CF24" s="114"/>
+      <c r="BS24" s="141"/>
+      <c r="BT24" s="40"/>
+      <c r="BU24" s="55"/>
+      <c r="BV24" s="229"/>
+      <c r="BW24" s="141"/>
+      <c r="BX24" s="40"/>
+      <c r="BY24" s="55"/>
+      <c r="BZ24" s="229"/>
+      <c r="CA24" s="141"/>
+      <c r="CB24" s="40"/>
+      <c r="CC24" s="55"/>
+      <c r="CD24" s="229"/>
+      <c r="CE24" s="225"/>
+      <c r="CF24" s="225"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="225"/>
-      <c r="K25" s="199"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="199"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="154"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="154"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="154"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="154"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="86"/>
-      <c r="AJ25" s="86"/>
-      <c r="AK25" s="86"/>
-      <c r="AL25" s="86"/>
-      <c r="AM25" s="86"/>
-      <c r="AN25" s="54" t="s">
+      <c r="C25" s="222"/>
+      <c r="D25" s="222"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="146"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="146"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="253"/>
+      <c r="X25" s="141"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="254"/>
+      <c r="AI25" s="254"/>
+      <c r="AJ25" s="254"/>
+      <c r="AK25" s="254"/>
+      <c r="AL25" s="254"/>
+      <c r="AM25" s="254"/>
+      <c r="AN25" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="AO25" s="54"/>
-      <c r="AP25" s="54"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="87"/>
-      <c r="AS25" s="87"/>
-      <c r="AT25" s="87"/>
-      <c r="AU25" s="87"/>
-      <c r="AV25" s="87"/>
-      <c r="AW25" s="87"/>
-      <c r="AX25" s="87"/>
-      <c r="AY25" s="87"/>
-      <c r="AZ25" s="87"/>
-      <c r="BA25" s="87"/>
-      <c r="BB25" s="87"/>
-      <c r="BC25" s="87"/>
-      <c r="BD25" s="87"/>
-      <c r="BE25" s="87"/>
-      <c r="BF25" s="87"/>
-      <c r="BG25" s="87"/>
-      <c r="BH25" s="87"/>
-      <c r="BI25" s="87"/>
-      <c r="BJ25" s="87"/>
-      <c r="BK25" s="87"/>
-      <c r="BL25" s="87"/>
-      <c r="BM25" s="87"/>
-      <c r="BN25" s="87"/>
-      <c r="BO25" s="87"/>
-      <c r="BP25" s="88"/>
+      <c r="AO25" s="279"/>
+      <c r="AP25" s="279"/>
+      <c r="AQ25" s="279"/>
+      <c r="AR25" s="297"/>
+      <c r="AS25" s="297"/>
+      <c r="AT25" s="297"/>
+      <c r="AU25" s="297"/>
+      <c r="AV25" s="297"/>
+      <c r="AW25" s="297"/>
+      <c r="AX25" s="297"/>
+      <c r="AY25" s="297"/>
+      <c r="AZ25" s="297"/>
+      <c r="BA25" s="297"/>
+      <c r="BB25" s="297"/>
+      <c r="BC25" s="297"/>
+      <c r="BD25" s="297"/>
+      <c r="BE25" s="297"/>
+      <c r="BF25" s="297"/>
+      <c r="BG25" s="297"/>
+      <c r="BH25" s="297"/>
+      <c r="BI25" s="297"/>
+      <c r="BJ25" s="297"/>
+      <c r="BK25" s="297"/>
+      <c r="BL25" s="297"/>
+      <c r="BM25" s="297"/>
+      <c r="BN25" s="297"/>
+      <c r="BO25" s="297"/>
+      <c r="BP25" s="298"/>
       <c r="BQ25" s="267"/>
       <c r="BR25" s="268"/>
-      <c r="BS25" s="118"/>
-      <c r="BT25" s="33"/>
-      <c r="BU25" s="115"/>
-      <c r="BV25" s="116"/>
-      <c r="BW25" s="118"/>
-      <c r="BX25" s="33"/>
-      <c r="BY25" s="115"/>
-      <c r="BZ25" s="116"/>
-      <c r="CA25" s="118"/>
-      <c r="CB25" s="33"/>
-      <c r="CC25" s="115"/>
-      <c r="CD25" s="116"/>
-      <c r="CE25" s="114"/>
-      <c r="CF25" s="114"/>
+      <c r="BS25" s="231"/>
+      <c r="BT25" s="42"/>
+      <c r="BU25" s="41"/>
+      <c r="BV25" s="230"/>
+      <c r="BW25" s="231"/>
+      <c r="BX25" s="42"/>
+      <c r="BY25" s="41"/>
+      <c r="BZ25" s="230"/>
+      <c r="CA25" s="231"/>
+      <c r="CB25" s="42"/>
+      <c r="CC25" s="41"/>
+      <c r="CD25" s="230"/>
+      <c r="CE25" s="225"/>
+      <c r="CF25" s="225"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="224"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="224"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="55"/>
-      <c r="AO26" s="55"/>
-      <c r="AP26" s="55"/>
-      <c r="AQ26" s="55"/>
-      <c r="AR26" s="89"/>
-      <c r="AS26" s="89"/>
-      <c r="AT26" s="89"/>
-      <c r="AU26" s="89"/>
-      <c r="AV26" s="89"/>
-      <c r="AW26" s="89"/>
-      <c r="AX26" s="89"/>
-      <c r="AY26" s="89"/>
-      <c r="AZ26" s="89"/>
-      <c r="BA26" s="89"/>
-      <c r="BB26" s="89"/>
-      <c r="BC26" s="89"/>
-      <c r="BD26" s="89"/>
-      <c r="BE26" s="89"/>
-      <c r="BF26" s="89"/>
-      <c r="BG26" s="89"/>
-      <c r="BH26" s="89"/>
-      <c r="BI26" s="89"/>
-      <c r="BJ26" s="90"/>
-      <c r="BK26" s="90"/>
-      <c r="BL26" s="90"/>
-      <c r="BM26" s="90"/>
-      <c r="BN26" s="90"/>
-      <c r="BO26" s="90"/>
-      <c r="BP26" s="91"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="222"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="142"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="92"/>
+      <c r="AJ26" s="92"/>
+      <c r="AK26" s="92"/>
+      <c r="AL26" s="92"/>
+      <c r="AM26" s="92"/>
+      <c r="AN26" s="274"/>
+      <c r="AO26" s="274"/>
+      <c r="AP26" s="274"/>
+      <c r="AQ26" s="274"/>
+      <c r="AR26" s="299"/>
+      <c r="AS26" s="299"/>
+      <c r="AT26" s="299"/>
+      <c r="AU26" s="299"/>
+      <c r="AV26" s="299"/>
+      <c r="AW26" s="299"/>
+      <c r="AX26" s="299"/>
+      <c r="AY26" s="299"/>
+      <c r="AZ26" s="299"/>
+      <c r="BA26" s="299"/>
+      <c r="BB26" s="299"/>
+      <c r="BC26" s="299"/>
+      <c r="BD26" s="299"/>
+      <c r="BE26" s="299"/>
+      <c r="BF26" s="299"/>
+      <c r="BG26" s="299"/>
+      <c r="BH26" s="299"/>
+      <c r="BI26" s="299"/>
+      <c r="BJ26" s="300"/>
+      <c r="BK26" s="300"/>
+      <c r="BL26" s="300"/>
+      <c r="BM26" s="300"/>
+      <c r="BN26" s="300"/>
+      <c r="BO26" s="300"/>
+      <c r="BP26" s="301"/>
       <c r="BQ26" s="267"/>
       <c r="BR26" s="268"/>
-      <c r="BS26" s="118"/>
-      <c r="BT26" s="33"/>
-      <c r="BU26" s="115"/>
-      <c r="BV26" s="116"/>
-      <c r="BW26" s="118"/>
-      <c r="BX26" s="33"/>
-      <c r="BY26" s="115"/>
-      <c r="BZ26" s="116"/>
-      <c r="CA26" s="118"/>
-      <c r="CB26" s="33"/>
-      <c r="CC26" s="115"/>
-      <c r="CD26" s="116"/>
-      <c r="CE26" s="114"/>
-      <c r="CF26" s="114"/>
+      <c r="BS26" s="231"/>
+      <c r="BT26" s="42"/>
+      <c r="BU26" s="41"/>
+      <c r="BV26" s="230"/>
+      <c r="BW26" s="231"/>
+      <c r="BX26" s="42"/>
+      <c r="BY26" s="41"/>
+      <c r="BZ26" s="230"/>
+      <c r="CA26" s="231"/>
+      <c r="CB26" s="42"/>
+      <c r="CC26" s="41"/>
+      <c r="CD26" s="230"/>
+      <c r="CE26" s="225"/>
+      <c r="CF26" s="225"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="206" t="s">
+      <c r="C27" s="222"/>
+      <c r="D27" s="222"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="207"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="215" t="s">
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="216"/>
-      <c r="L27" s="216"/>
-      <c r="M27" s="216"/>
-      <c r="N27" s="216"/>
-      <c r="O27" s="217"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="218" t="s">
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="Y27" s="219"/>
-      <c r="Z27" s="219"/>
-      <c r="AA27" s="220"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="103"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="103"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="103"/>
-      <c r="AO27" s="103"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="103"/>
-      <c r="AU27" s="103"/>
-      <c r="AV27" s="103"/>
-      <c r="AW27" s="103"/>
-      <c r="AX27" s="103"/>
-      <c r="AY27" s="103"/>
-      <c r="AZ27" s="103"/>
-      <c r="BA27" s="103"/>
-      <c r="BB27" s="103"/>
-      <c r="BC27" s="103"/>
-      <c r="BD27" s="103"/>
-      <c r="BE27" s="103"/>
-      <c r="BF27" s="103"/>
-      <c r="BG27" s="103"/>
-      <c r="BH27" s="103"/>
-      <c r="BI27" s="103"/>
-      <c r="BJ27" s="182" t="s">
+      <c r="Y27" s="136"/>
+      <c r="Z27" s="136"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="90"/>
+      <c r="AM27" s="90"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BB27" s="90"/>
+      <c r="BC27" s="90"/>
+      <c r="BD27" s="90"/>
+      <c r="BE27" s="90"/>
+      <c r="BF27" s="90"/>
+      <c r="BG27" s="90"/>
+      <c r="BH27" s="90"/>
+      <c r="BI27" s="90"/>
+      <c r="BJ27" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="BK27" s="183"/>
-      <c r="BL27" s="184"/>
-      <c r="BM27" s="188" t="s">
+      <c r="BK27" s="192"/>
+      <c r="BL27" s="193"/>
+      <c r="BM27" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="BN27" s="188"/>
-      <c r="BO27" s="188"/>
-      <c r="BP27" s="188"/>
-      <c r="BQ27" s="188"/>
-      <c r="BR27" s="188"/>
-      <c r="BS27" s="188"/>
-      <c r="BT27" s="188"/>
-      <c r="BU27" s="188"/>
-      <c r="BV27" s="188"/>
-      <c r="BW27" s="188"/>
-      <c r="BX27" s="188"/>
-      <c r="BY27" s="188"/>
-      <c r="BZ27" s="188"/>
-      <c r="CA27" s="188"/>
-      <c r="CB27" s="188"/>
-      <c r="CC27" s="188"/>
-      <c r="CD27" s="188"/>
-      <c r="CE27" s="188"/>
-      <c r="CF27" s="189"/>
+      <c r="BN27" s="197"/>
+      <c r="BO27" s="197"/>
+      <c r="BP27" s="197"/>
+      <c r="BQ27" s="197"/>
+      <c r="BR27" s="197"/>
+      <c r="BS27" s="197"/>
+      <c r="BT27" s="197"/>
+      <c r="BU27" s="197"/>
+      <c r="BV27" s="197"/>
+      <c r="BW27" s="197"/>
+      <c r="BX27" s="197"/>
+      <c r="BY27" s="197"/>
+      <c r="BZ27" s="197"/>
+      <c r="CA27" s="197"/>
+      <c r="CB27" s="197"/>
+      <c r="CC27" s="197"/>
+      <c r="CD27" s="197"/>
+      <c r="CE27" s="197"/>
+      <c r="CF27" s="198"/>
     </row>
     <row r="28" spans="3:102" ht="22.5" customHeight="1">
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="210"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="212" t="s">
+      <c r="C28" s="222"/>
+      <c r="D28" s="222"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="250"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="213"/>
-      <c r="L28" s="213"/>
-      <c r="M28" s="213"/>
-      <c r="N28" s="213"/>
-      <c r="O28" s="214"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="221"/>
-      <c r="Y28" s="222"/>
-      <c r="Z28" s="222"/>
-      <c r="AA28" s="223"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="34"/>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="34"/>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="34"/>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
-      <c r="BJ28" s="185"/>
-      <c r="BK28" s="186"/>
-      <c r="BL28" s="187"/>
-      <c r="BM28" s="190"/>
-      <c r="BN28" s="190"/>
-      <c r="BO28" s="190"/>
-      <c r="BP28" s="190"/>
-      <c r="BQ28" s="190"/>
-      <c r="BR28" s="190"/>
-      <c r="BS28" s="190"/>
-      <c r="BT28" s="190"/>
-      <c r="BU28" s="190"/>
-      <c r="BV28" s="190"/>
-      <c r="BW28" s="190"/>
-      <c r="BX28" s="190"/>
-      <c r="BY28" s="190"/>
-      <c r="BZ28" s="190"/>
-      <c r="CA28" s="190"/>
-      <c r="CB28" s="190"/>
-      <c r="CC28" s="190"/>
-      <c r="CD28" s="190"/>
-      <c r="CE28" s="190"/>
-      <c r="CF28" s="191"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="140"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="92"/>
+      <c r="AN28" s="92"/>
+      <c r="AO28" s="92"/>
+      <c r="AP28" s="92"/>
+      <c r="AQ28" s="92"/>
+      <c r="AR28" s="92"/>
+      <c r="AS28" s="92"/>
+      <c r="AT28" s="92"/>
+      <c r="AU28" s="92"/>
+      <c r="AV28" s="92"/>
+      <c r="AW28" s="92"/>
+      <c r="AX28" s="92"/>
+      <c r="AY28" s="92"/>
+      <c r="AZ28" s="92"/>
+      <c r="BA28" s="92"/>
+      <c r="BB28" s="92"/>
+      <c r="BC28" s="92"/>
+      <c r="BD28" s="92"/>
+      <c r="BE28" s="92"/>
+      <c r="BF28" s="92"/>
+      <c r="BG28" s="92"/>
+      <c r="BH28" s="92"/>
+      <c r="BI28" s="92"/>
+      <c r="BJ28" s="194"/>
+      <c r="BK28" s="195"/>
+      <c r="BL28" s="196"/>
+      <c r="BM28" s="199"/>
+      <c r="BN28" s="199"/>
+      <c r="BO28" s="199"/>
+      <c r="BP28" s="199"/>
+      <c r="BQ28" s="199"/>
+      <c r="BR28" s="199"/>
+      <c r="BS28" s="199"/>
+      <c r="BT28" s="199"/>
+      <c r="BU28" s="199"/>
+      <c r="BV28" s="199"/>
+      <c r="BW28" s="199"/>
+      <c r="BX28" s="199"/>
+      <c r="BY28" s="199"/>
+      <c r="BZ28" s="199"/>
+      <c r="CA28" s="199"/>
+      <c r="CB28" s="199"/>
+      <c r="CC28" s="199"/>
+      <c r="CD28" s="199"/>
+      <c r="CE28" s="199"/>
+      <c r="CF28" s="200"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="12"/>
@@ -10848,404 +10848,404 @@
       <c r="CF30" s="5"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="234" t="s">
+      <c r="C31" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="235"/>
-      <c r="E31" s="235"/>
-      <c r="F31" s="235"/>
-      <c r="G31" s="235"/>
-      <c r="H31" s="235"/>
-      <c r="I31" s="235"/>
-      <c r="J31" s="235"/>
-      <c r="K31" s="235"/>
-      <c r="L31" s="235"/>
-      <c r="M31" s="235"/>
-      <c r="N31" s="235"/>
-      <c r="O31" s="235"/>
-      <c r="P31" s="235"/>
-      <c r="Q31" s="235"/>
-      <c r="R31" s="235"/>
-      <c r="S31" s="235"/>
-      <c r="T31" s="235"/>
-      <c r="U31" s="235"/>
-      <c r="V31" s="235"/>
-      <c r="W31" s="235"/>
-      <c r="X31" s="235"/>
-      <c r="Y31" s="235"/>
-      <c r="Z31" s="235"/>
-      <c r="AA31" s="235"/>
-      <c r="AB31" s="236"/>
-      <c r="AD31" s="238" t="s">
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="110"/>
+      <c r="AD31" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="AE31" s="239"/>
-      <c r="AF31" s="239"/>
-      <c r="AG31" s="239"/>
-      <c r="AH31" s="239"/>
-      <c r="AI31" s="239"/>
-      <c r="AJ31" s="239"/>
-      <c r="AK31" s="239"/>
-      <c r="AL31" s="239"/>
-      <c r="AM31" s="239"/>
-      <c r="AN31" s="239"/>
-      <c r="AO31" s="239"/>
-      <c r="AP31" s="239"/>
-      <c r="AQ31" s="239"/>
-      <c r="AR31" s="239"/>
-      <c r="AS31" s="239"/>
-      <c r="AT31" s="239"/>
-      <c r="AU31" s="239"/>
-      <c r="AV31" s="239"/>
-      <c r="AW31" s="239"/>
-      <c r="AX31" s="239"/>
-      <c r="AY31" s="239"/>
-      <c r="AZ31" s="239"/>
-      <c r="BA31" s="239"/>
-      <c r="BB31" s="239"/>
-      <c r="BC31" s="240"/>
-      <c r="BE31" s="232" t="s">
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="113"/>
+      <c r="AJ31" s="113"/>
+      <c r="AK31" s="113"/>
+      <c r="AL31" s="113"/>
+      <c r="AM31" s="113"/>
+      <c r="AN31" s="113"/>
+      <c r="AO31" s="113"/>
+      <c r="AP31" s="113"/>
+      <c r="AQ31" s="113"/>
+      <c r="AR31" s="113"/>
+      <c r="AS31" s="113"/>
+      <c r="AT31" s="113"/>
+      <c r="AU31" s="113"/>
+      <c r="AV31" s="113"/>
+      <c r="AW31" s="113"/>
+      <c r="AX31" s="113"/>
+      <c r="AY31" s="113"/>
+      <c r="AZ31" s="113"/>
+      <c r="BA31" s="113"/>
+      <c r="BB31" s="113"/>
+      <c r="BC31" s="114"/>
+      <c r="BE31" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="BF31" s="233"/>
-      <c r="BG31" s="233"/>
-      <c r="BH31" s="233"/>
-      <c r="BI31" s="233"/>
-      <c r="BJ31" s="233"/>
-      <c r="BK31" s="233"/>
-      <c r="BL31" s="233"/>
-      <c r="BM31" s="233"/>
-      <c r="BN31" s="233"/>
-      <c r="BO31" s="233"/>
-      <c r="BP31" s="233"/>
-      <c r="BQ31" s="233"/>
-      <c r="BR31" s="233"/>
-      <c r="BS31" s="233"/>
-      <c r="BT31" s="233"/>
-      <c r="BU31" s="233"/>
-      <c r="BV31" s="233"/>
-      <c r="BW31" s="233"/>
-      <c r="BX31" s="233"/>
-      <c r="BY31" s="233"/>
-      <c r="BZ31" s="233"/>
-      <c r="CA31" s="233"/>
-      <c r="CB31" s="233"/>
-      <c r="CC31" s="233"/>
-      <c r="CD31" s="233"/>
-      <c r="CE31" s="233"/>
-      <c r="CF31" s="233"/>
+      <c r="BF31" s="107"/>
+      <c r="BG31" s="107"/>
+      <c r="BH31" s="107"/>
+      <c r="BI31" s="107"/>
+      <c r="BJ31" s="107"/>
+      <c r="BK31" s="107"/>
+      <c r="BL31" s="107"/>
+      <c r="BM31" s="107"/>
+      <c r="BN31" s="107"/>
+      <c r="BO31" s="107"/>
+      <c r="BP31" s="107"/>
+      <c r="BQ31" s="107"/>
+      <c r="BR31" s="107"/>
+      <c r="BS31" s="107"/>
+      <c r="BT31" s="107"/>
+      <c r="BU31" s="107"/>
+      <c r="BV31" s="107"/>
+      <c r="BW31" s="107"/>
+      <c r="BX31" s="107"/>
+      <c r="BY31" s="107"/>
+      <c r="BZ31" s="107"/>
+      <c r="CA31" s="107"/>
+      <c r="CB31" s="107"/>
+      <c r="CC31" s="107"/>
+      <c r="CD31" s="107"/>
+      <c r="CE31" s="107"/>
+      <c r="CF31" s="107"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="11"/>
       <c r="D32" s="2"/>
-      <c r="L32" s="251" t="s">
+      <c r="L32" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="251"/>
-      <c r="N32" s="251"/>
-      <c r="O32" s="251"/>
-      <c r="P32" s="251"/>
-      <c r="Q32" s="251"/>
-      <c r="R32" s="251"/>
-      <c r="S32" s="251"/>
-      <c r="T32" s="251"/>
-      <c r="U32" s="251"/>
-      <c r="V32" s="251"/>
-      <c r="W32" s="251"/>
-      <c r="X32" s="251"/>
-      <c r="Y32" s="251"/>
-      <c r="Z32" s="251"/>
-      <c r="AA32" s="251"/>
-      <c r="AB32" s="252"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="128"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="237" t="s">
+      <c r="AR32" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="AS32" s="237"/>
-      <c r="AT32" s="237"/>
-      <c r="AU32" s="237"/>
-      <c r="AV32" s="237"/>
-      <c r="AW32" s="237"/>
-      <c r="AX32" s="237"/>
-      <c r="AY32" s="237"/>
-      <c r="AZ32" s="237"/>
-      <c r="BA32" s="237"/>
-      <c r="BB32" s="237"/>
-      <c r="BC32" s="250"/>
-      <c r="BE32" s="229" t="s">
+      <c r="AS32" s="111"/>
+      <c r="AT32" s="111"/>
+      <c r="AU32" s="111"/>
+      <c r="AV32" s="111"/>
+      <c r="AW32" s="111"/>
+      <c r="AX32" s="111"/>
+      <c r="AY32" s="111"/>
+      <c r="AZ32" s="111"/>
+      <c r="BA32" s="111"/>
+      <c r="BB32" s="111"/>
+      <c r="BC32" s="126"/>
+      <c r="BE32" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="BF32" s="230"/>
-      <c r="BG32" s="230"/>
-      <c r="BH32" s="230"/>
-      <c r="BI32" s="230"/>
-      <c r="BJ32" s="230"/>
-      <c r="BK32" s="230"/>
-      <c r="BL32" s="230"/>
-      <c r="BM32" s="230"/>
-      <c r="BN32" s="230"/>
-      <c r="BO32" s="230"/>
-      <c r="BP32" s="230"/>
-      <c r="BQ32" s="230"/>
-      <c r="BR32" s="230"/>
-      <c r="BS32" s="230"/>
-      <c r="BT32" s="230"/>
-      <c r="BU32" s="230"/>
-      <c r="BV32" s="230"/>
-      <c r="BW32" s="230"/>
-      <c r="BX32" s="230"/>
-      <c r="BY32" s="230"/>
-      <c r="BZ32" s="230"/>
-      <c r="CA32" s="230"/>
-      <c r="CB32" s="230"/>
-      <c r="CC32" s="230"/>
-      <c r="CD32" s="230"/>
-      <c r="CE32" s="230"/>
-      <c r="CF32" s="231"/>
+      <c r="BF32" s="104"/>
+      <c r="BG32" s="104"/>
+      <c r="BH32" s="104"/>
+      <c r="BI32" s="104"/>
+      <c r="BJ32" s="104"/>
+      <c r="BK32" s="104"/>
+      <c r="BL32" s="104"/>
+      <c r="BM32" s="104"/>
+      <c r="BN32" s="104"/>
+      <c r="BO32" s="104"/>
+      <c r="BP32" s="104"/>
+      <c r="BQ32" s="104"/>
+      <c r="BR32" s="104"/>
+      <c r="BS32" s="104"/>
+      <c r="BT32" s="104"/>
+      <c r="BU32" s="104"/>
+      <c r="BV32" s="104"/>
+      <c r="BW32" s="104"/>
+      <c r="BX32" s="104"/>
+      <c r="BY32" s="104"/>
+      <c r="BZ32" s="104"/>
+      <c r="CA32" s="104"/>
+      <c r="CB32" s="104"/>
+      <c r="CC32" s="104"/>
+      <c r="CD32" s="104"/>
+      <c r="CE32" s="104"/>
+      <c r="CF32" s="105"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="241"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="243"/>
-      <c r="M33" s="243"/>
-      <c r="N33" s="243"/>
-      <c r="O33" s="243"/>
-      <c r="P33" s="243"/>
-      <c r="Q33" s="243"/>
-      <c r="R33" s="243"/>
-      <c r="S33" s="243"/>
-      <c r="T33" s="243"/>
-      <c r="U33" s="243"/>
-      <c r="V33" s="243"/>
-      <c r="W33" s="243"/>
-      <c r="X33" s="243"/>
-      <c r="Y33" s="243"/>
-      <c r="Z33" s="243"/>
-      <c r="AA33" s="243"/>
-      <c r="AB33" s="244"/>
-      <c r="AD33" s="140" t="s">
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="119"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="119"/>
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="120"/>
+      <c r="AD33" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="AE33" s="241"/>
+      <c r="AE33" s="116"/>
       <c r="AF33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AJ33" s="243"/>
-      <c r="AK33" s="243"/>
-      <c r="AL33" s="243"/>
-      <c r="AM33" s="243"/>
-      <c r="AN33" s="243"/>
-      <c r="AO33" s="243"/>
-      <c r="AP33" s="243"/>
-      <c r="AQ33" s="243"/>
-      <c r="AR33" s="243"/>
-      <c r="AS33" s="243"/>
-      <c r="AT33" s="243"/>
-      <c r="AU33" s="243"/>
-      <c r="AV33" s="243"/>
-      <c r="AW33" s="243"/>
-      <c r="AX33" s="243"/>
-      <c r="AY33" s="243"/>
-      <c r="AZ33" s="243"/>
-      <c r="BA33" s="243"/>
-      <c r="BB33" s="243"/>
-      <c r="BC33" s="244"/>
-      <c r="BE33" s="246" t="s">
+      <c r="AJ33" s="119"/>
+      <c r="AK33" s="119"/>
+      <c r="AL33" s="119"/>
+      <c r="AM33" s="119"/>
+      <c r="AN33" s="119"/>
+      <c r="AO33" s="119"/>
+      <c r="AP33" s="119"/>
+      <c r="AQ33" s="119"/>
+      <c r="AR33" s="119"/>
+      <c r="AS33" s="119"/>
+      <c r="AT33" s="119"/>
+      <c r="AU33" s="119"/>
+      <c r="AV33" s="119"/>
+      <c r="AW33" s="119"/>
+      <c r="AX33" s="119"/>
+      <c r="AY33" s="119"/>
+      <c r="AZ33" s="119"/>
+      <c r="BA33" s="119"/>
+      <c r="BB33" s="119"/>
+      <c r="BC33" s="120"/>
+      <c r="BE33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="BF33" s="247"/>
-      <c r="BG33" s="228" t="s">
+      <c r="BF33" s="123"/>
+      <c r="BG33" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="BH33" s="228"/>
-      <c r="BI33" s="228"/>
-      <c r="BJ33" s="228"/>
-      <c r="BK33" s="228"/>
-      <c r="BL33" s="228"/>
-      <c r="BM33" s="228"/>
-      <c r="BN33" s="228"/>
-      <c r="BO33" s="228"/>
-      <c r="BP33" s="228"/>
-      <c r="BQ33" s="228"/>
-      <c r="BT33" s="237" t="s">
+      <c r="BH33" s="102"/>
+      <c r="BI33" s="102"/>
+      <c r="BJ33" s="102"/>
+      <c r="BK33" s="102"/>
+      <c r="BL33" s="102"/>
+      <c r="BM33" s="102"/>
+      <c r="BN33" s="102"/>
+      <c r="BO33" s="102"/>
+      <c r="BP33" s="102"/>
+      <c r="BQ33" s="102"/>
+      <c r="BT33" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="BU33" s="237"/>
-      <c r="BV33" s="237"/>
-      <c r="BW33" s="237"/>
-      <c r="BX33" s="237"/>
-      <c r="BY33" s="237"/>
-      <c r="BZ33" s="237"/>
-      <c r="CA33" s="237"/>
-      <c r="CB33" s="237"/>
-      <c r="CC33" s="237"/>
-      <c r="CD33" s="237"/>
-      <c r="CE33" s="237"/>
+      <c r="BU33" s="111"/>
+      <c r="BV33" s="111"/>
+      <c r="BW33" s="111"/>
+      <c r="BX33" s="111"/>
+      <c r="BY33" s="111"/>
+      <c r="BZ33" s="111"/>
+      <c r="CA33" s="111"/>
+      <c r="CB33" s="111"/>
+      <c r="CC33" s="111"/>
+      <c r="CD33" s="111"/>
+      <c r="CE33" s="111"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="140"/>
-      <c r="D34" s="241"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="243"/>
-      <c r="M34" s="243"/>
-      <c r="N34" s="243"/>
-      <c r="O34" s="243"/>
-      <c r="P34" s="243"/>
-      <c r="Q34" s="243"/>
-      <c r="R34" s="243"/>
-      <c r="S34" s="243"/>
-      <c r="T34" s="243"/>
-      <c r="U34" s="243"/>
-      <c r="V34" s="243"/>
-      <c r="W34" s="243"/>
-      <c r="X34" s="243"/>
-      <c r="Y34" s="243"/>
-      <c r="Z34" s="243"/>
-      <c r="AA34" s="243"/>
-      <c r="AB34" s="244"/>
-      <c r="AD34" s="140"/>
-      <c r="AE34" s="241"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="119"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="119"/>
+      <c r="V34" s="119"/>
+      <c r="W34" s="119"/>
+      <c r="X34" s="119"/>
+      <c r="Y34" s="119"/>
+      <c r="Z34" s="119"/>
+      <c r="AA34" s="119"/>
+      <c r="AB34" s="120"/>
+      <c r="AD34" s="115"/>
+      <c r="AE34" s="116"/>
       <c r="AF34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AJ34" s="243"/>
-      <c r="AK34" s="243"/>
-      <c r="AL34" s="243"/>
-      <c r="AM34" s="243"/>
-      <c r="AN34" s="243"/>
-      <c r="AO34" s="243"/>
-      <c r="AP34" s="243"/>
-      <c r="AQ34" s="243"/>
-      <c r="AR34" s="243"/>
-      <c r="AS34" s="243"/>
-      <c r="AT34" s="243"/>
-      <c r="AU34" s="243"/>
-      <c r="AV34" s="243"/>
-      <c r="AW34" s="243"/>
-      <c r="AX34" s="243"/>
-      <c r="AY34" s="243"/>
-      <c r="AZ34" s="243"/>
-      <c r="BA34" s="243"/>
-      <c r="BB34" s="243"/>
-      <c r="BC34" s="244"/>
-      <c r="BE34" s="246"/>
-      <c r="BF34" s="247"/>
+      <c r="AJ34" s="119"/>
+      <c r="AK34" s="119"/>
+      <c r="AL34" s="119"/>
+      <c r="AM34" s="119"/>
+      <c r="AN34" s="119"/>
+      <c r="AO34" s="119"/>
+      <c r="AP34" s="119"/>
+      <c r="AQ34" s="119"/>
+      <c r="AR34" s="119"/>
+      <c r="AS34" s="119"/>
+      <c r="AT34" s="119"/>
+      <c r="AU34" s="119"/>
+      <c r="AV34" s="119"/>
+      <c r="AW34" s="119"/>
+      <c r="AX34" s="119"/>
+      <c r="AY34" s="119"/>
+      <c r="AZ34" s="119"/>
+      <c r="BA34" s="119"/>
+      <c r="BB34" s="119"/>
+      <c r="BC34" s="120"/>
+      <c r="BE34" s="122"/>
+      <c r="BF34" s="123"/>
       <c r="BG34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BL34" s="159"/>
-      <c r="BM34" s="159"/>
-      <c r="BN34" s="159"/>
-      <c r="BO34" s="159"/>
-      <c r="BP34" s="159"/>
-      <c r="BQ34" s="159"/>
-      <c r="BR34" s="159"/>
-      <c r="BS34" s="159"/>
-      <c r="BT34" s="159"/>
-      <c r="BU34" s="159"/>
-      <c r="BV34" s="159"/>
-      <c r="BW34" s="159"/>
-      <c r="BX34" s="159"/>
-      <c r="BY34" s="159"/>
-      <c r="BZ34" s="159"/>
-      <c r="CA34" s="159"/>
-      <c r="CB34" s="159"/>
-      <c r="CC34" s="159"/>
-      <c r="CD34" s="159"/>
+      <c r="BL34" s="99"/>
+      <c r="BM34" s="99"/>
+      <c r="BN34" s="99"/>
+      <c r="BO34" s="99"/>
+      <c r="BP34" s="99"/>
+      <c r="BQ34" s="99"/>
+      <c r="BR34" s="99"/>
+      <c r="BS34" s="99"/>
+      <c r="BT34" s="99"/>
+      <c r="BU34" s="99"/>
+      <c r="BV34" s="99"/>
+      <c r="BW34" s="99"/>
+      <c r="BX34" s="99"/>
+      <c r="BY34" s="99"/>
+      <c r="BZ34" s="99"/>
+      <c r="CA34" s="99"/>
+      <c r="CB34" s="99"/>
+      <c r="CC34" s="99"/>
+      <c r="CD34" s="99"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="140"/>
-      <c r="D35" s="241"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="243"/>
-      <c r="M35" s="243"/>
-      <c r="N35" s="243"/>
-      <c r="O35" s="243"/>
-      <c r="P35" s="243"/>
-      <c r="Q35" s="243"/>
-      <c r="R35" s="243"/>
-      <c r="S35" s="243"/>
-      <c r="T35" s="243"/>
-      <c r="U35" s="243"/>
-      <c r="V35" s="243"/>
-      <c r="W35" s="243"/>
-      <c r="X35" s="243"/>
-      <c r="Y35" s="243"/>
-      <c r="Z35" s="243"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
+      <c r="T35" s="119"/>
+      <c r="U35" s="119"/>
+      <c r="V35" s="119"/>
+      <c r="W35" s="119"/>
+      <c r="X35" s="119"/>
+      <c r="Y35" s="119"/>
+      <c r="Z35" s="119"/>
       <c r="AA35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="AB35" s="9"/>
-      <c r="AD35" s="140"/>
-      <c r="AE35" s="241"/>
+      <c r="AD35" s="115"/>
+      <c r="AE35" s="116"/>
       <c r="AF35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AJ35" s="243"/>
-      <c r="AK35" s="243"/>
-      <c r="AL35" s="243"/>
-      <c r="AM35" s="243"/>
-      <c r="AN35" s="243"/>
-      <c r="AO35" s="243"/>
-      <c r="AP35" s="243"/>
-      <c r="AQ35" s="243"/>
-      <c r="AR35" s="243"/>
-      <c r="AS35" s="243"/>
-      <c r="AT35" s="243"/>
-      <c r="AU35" s="243"/>
-      <c r="AV35" s="243"/>
-      <c r="AW35" s="243"/>
-      <c r="AX35" s="243"/>
-      <c r="AY35" s="243"/>
-      <c r="AZ35" s="243"/>
-      <c r="BA35" s="243"/>
+      <c r="AJ35" s="119"/>
+      <c r="AK35" s="119"/>
+      <c r="AL35" s="119"/>
+      <c r="AM35" s="119"/>
+      <c r="AN35" s="119"/>
+      <c r="AO35" s="119"/>
+      <c r="AP35" s="119"/>
+      <c r="AQ35" s="119"/>
+      <c r="AR35" s="119"/>
+      <c r="AS35" s="119"/>
+      <c r="AT35" s="119"/>
+      <c r="AU35" s="119"/>
+      <c r="AV35" s="119"/>
+      <c r="AW35" s="119"/>
+      <c r="AX35" s="119"/>
+      <c r="AY35" s="119"/>
+      <c r="AZ35" s="119"/>
+      <c r="BA35" s="119"/>
       <c r="BB35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="BC35" s="9"/>
-      <c r="BE35" s="246"/>
-      <c r="BF35" s="247"/>
+      <c r="BE35" s="122"/>
+      <c r="BF35" s="123"/>
       <c r="BG35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BL35" s="159"/>
-      <c r="BM35" s="159"/>
-      <c r="BN35" s="159"/>
-      <c r="BO35" s="159"/>
-      <c r="BP35" s="159"/>
-      <c r="BQ35" s="159"/>
-      <c r="BR35" s="159"/>
-      <c r="BS35" s="159"/>
-      <c r="BT35" s="159"/>
-      <c r="BU35" s="159"/>
-      <c r="BV35" s="159"/>
-      <c r="BW35" s="159"/>
-      <c r="BX35" s="159"/>
-      <c r="BY35" s="159"/>
-      <c r="BZ35" s="159"/>
-      <c r="CA35" s="159"/>
-      <c r="CB35" s="159"/>
+      <c r="BL35" s="99"/>
+      <c r="BM35" s="99"/>
+      <c r="BN35" s="99"/>
+      <c r="BO35" s="99"/>
+      <c r="BP35" s="99"/>
+      <c r="BQ35" s="99"/>
+      <c r="BR35" s="99"/>
+      <c r="BS35" s="99"/>
+      <c r="BT35" s="99"/>
+      <c r="BU35" s="99"/>
+      <c r="BV35" s="99"/>
+      <c r="BW35" s="99"/>
+      <c r="BX35" s="99"/>
+      <c r="BY35" s="99"/>
+      <c r="BZ35" s="99"/>
+      <c r="CA35" s="99"/>
+      <c r="CB35" s="99"/>
       <c r="CC35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="142"/>
-      <c r="D36" s="242"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="7" t="s">
         <v>2</v>
       </c>
@@ -11255,53 +11255,53 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="159"/>
-      <c r="M36" s="159"/>
-      <c r="N36" s="159"/>
-      <c r="O36" s="159"/>
-      <c r="P36" s="159"/>
-      <c r="Q36" s="159"/>
-      <c r="R36" s="159"/>
-      <c r="S36" s="159"/>
-      <c r="T36" s="159"/>
-      <c r="U36" s="159"/>
-      <c r="V36" s="159"/>
-      <c r="W36" s="159"/>
-      <c r="X36" s="159"/>
-      <c r="Y36" s="159"/>
-      <c r="Z36" s="159"/>
-      <c r="AA36" s="159"/>
-      <c r="AB36" s="245"/>
-      <c r="AD36" s="142"/>
-      <c r="AE36" s="242"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="99"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="99"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="99"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="121"/>
+      <c r="AD36" s="117"/>
+      <c r="AE36" s="118"/>
       <c r="AF36" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="159"/>
-      <c r="AK36" s="159"/>
-      <c r="AL36" s="159"/>
-      <c r="AM36" s="159"/>
-      <c r="AN36" s="159"/>
-      <c r="AO36" s="159"/>
-      <c r="AP36" s="159"/>
-      <c r="AQ36" s="159"/>
-      <c r="AR36" s="159"/>
-      <c r="AS36" s="159"/>
-      <c r="AT36" s="159"/>
-      <c r="AU36" s="159"/>
-      <c r="AV36" s="159"/>
-      <c r="AW36" s="159"/>
-      <c r="AX36" s="159"/>
-      <c r="AY36" s="159"/>
-      <c r="AZ36" s="159"/>
-      <c r="BA36" s="159"/>
-      <c r="BB36" s="159"/>
-      <c r="BC36" s="245"/>
-      <c r="BE36" s="248"/>
-      <c r="BF36" s="249"/>
+      <c r="AJ36" s="99"/>
+      <c r="AK36" s="99"/>
+      <c r="AL36" s="99"/>
+      <c r="AM36" s="99"/>
+      <c r="AN36" s="99"/>
+      <c r="AO36" s="99"/>
+      <c r="AP36" s="99"/>
+      <c r="AQ36" s="99"/>
+      <c r="AR36" s="99"/>
+      <c r="AS36" s="99"/>
+      <c r="AT36" s="99"/>
+      <c r="AU36" s="99"/>
+      <c r="AV36" s="99"/>
+      <c r="AW36" s="99"/>
+      <c r="AX36" s="99"/>
+      <c r="AY36" s="99"/>
+      <c r="AZ36" s="99"/>
+      <c r="BA36" s="99"/>
+      <c r="BB36" s="99"/>
+      <c r="BC36" s="121"/>
+      <c r="BE36" s="124"/>
+      <c r="BF36" s="125"/>
       <c r="BG36" s="6" t="s">
         <v>0</v>
       </c>
@@ -11309,27 +11309,27 @@
       <c r="BI36" s="5"/>
       <c r="BJ36" s="5"/>
       <c r="BK36" s="5"/>
-      <c r="BL36" s="226" t="s">
+      <c r="BL36" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="BM36" s="227"/>
-      <c r="BN36" s="227"/>
-      <c r="BO36" s="227"/>
-      <c r="BP36" s="227"/>
-      <c r="BQ36" s="227"/>
-      <c r="BR36" s="227"/>
-      <c r="BS36" s="227"/>
-      <c r="BT36" s="227"/>
-      <c r="BU36" s="227"/>
-      <c r="BV36" s="227"/>
-      <c r="BW36" s="227"/>
-      <c r="BX36" s="227"/>
-      <c r="BY36" s="227"/>
-      <c r="BZ36" s="227"/>
-      <c r="CA36" s="227"/>
-      <c r="CB36" s="227"/>
-      <c r="CC36" s="227"/>
-      <c r="CD36" s="227"/>
+      <c r="BM36" s="101"/>
+      <c r="BN36" s="101"/>
+      <c r="BO36" s="101"/>
+      <c r="BP36" s="101"/>
+      <c r="BQ36" s="101"/>
+      <c r="BR36" s="101"/>
+      <c r="BS36" s="101"/>
+      <c r="BT36" s="101"/>
+      <c r="BU36" s="101"/>
+      <c r="BV36" s="101"/>
+      <c r="BW36" s="101"/>
+      <c r="BX36" s="101"/>
+      <c r="BY36" s="101"/>
+      <c r="BZ36" s="101"/>
+      <c r="CA36" s="101"/>
+      <c r="CB36" s="101"/>
+      <c r="CC36" s="101"/>
+      <c r="CD36" s="101"/>
       <c r="CE36" s="5"/>
       <c r="CF36" s="5"/>
       <c r="CG36" s="4"/>
@@ -11558,71 +11558,98 @@
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="CV21:CX23"/>
-    <mergeCell ref="G20:AD20"/>
-    <mergeCell ref="AE20:AT20"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BI20:BQ20"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AK9:CD9"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="G14:L15"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="J9:O11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="P27:W28"/>
-    <mergeCell ref="X27:AA28"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ3:CD4"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AF25:AG26"/>
+    <mergeCell ref="AO10:AR11"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BU3:BY4"/>
+    <mergeCell ref="BP3:BT4"/>
+    <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AS10:CD11"/>
+    <mergeCell ref="AB12:CD13"/>
+    <mergeCell ref="BS16:CD21"/>
+    <mergeCell ref="AN25:AQ26"/>
+    <mergeCell ref="AH25:AM26"/>
+    <mergeCell ref="AR25:BP26"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="E6:F15"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="BX7:BY8"/>
+    <mergeCell ref="BP7:BQ8"/>
+    <mergeCell ref="BR7:BS8"/>
+    <mergeCell ref="BT7:BU8"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="AW21:AY22"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="P12:W13"/>
+    <mergeCell ref="X12:AA13"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BF8:BK8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="AG10:AN11"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="AV6:BK6"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="BD7:BK7"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
     <mergeCell ref="AB27:BI28"/>
     <mergeCell ref="AH24:AK24"/>
     <mergeCell ref="AD25:AE26"/>
@@ -11647,103 +11674,76 @@
     <mergeCell ref="AB25:AC26"/>
     <mergeCell ref="Z25:AA26"/>
     <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="AV6:BK6"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="BD7:BK7"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="BF8:BK8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="AG10:AN11"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="P27:W28"/>
+    <mergeCell ref="X27:AA28"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="X6:AU6"/>
+    <mergeCell ref="CV21:CX23"/>
+    <mergeCell ref="G20:AD20"/>
+    <mergeCell ref="AE20:AT20"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BI20:BQ20"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="T9:U11"/>
+    <mergeCell ref="AK9:CD9"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="G14:L15"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="J9:O11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Q14:R15"/>
     <mergeCell ref="J12:O13"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="BX7:BY8"/>
-    <mergeCell ref="BP7:BQ8"/>
-    <mergeCell ref="BR7:BS8"/>
-    <mergeCell ref="BT7:BU8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="V24:W26"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="AW21:AY22"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="P12:W13"/>
-    <mergeCell ref="X12:AA13"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BZ3:CD4"/>
-    <mergeCell ref="BZ7:CA8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AF25:AG26"/>
-    <mergeCell ref="AO10:AR11"/>
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BU3:BY4"/>
-    <mergeCell ref="BP3:BT4"/>
-    <mergeCell ref="BL6:CA6"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AS10:CD11"/>
-    <mergeCell ref="AB12:CD13"/>
-    <mergeCell ref="BS16:CD21"/>
-    <mergeCell ref="AN25:AQ26"/>
-    <mergeCell ref="AH25:AM26"/>
-    <mergeCell ref="AR25:BP26"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="E6:F15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NSS\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA88DEA-22DE-4D6A-A891-96F761ABC4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6905A6-4474-4C93-BF8C-7DB745A9A240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6254C165-ABD6-4E53-9ECE-5A2DBD780014}"/>
   </bookViews>
@@ -16,6 +16,18 @@
     <sheet name="被保険者住所変更届（二枚目）" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="A1_1_1">'被保険者住所変更届（二枚目）'!$X$7</definedName>
+    <definedName name="A1_1_10">'被保険者住所変更届（二枚目）'!$AP$7</definedName>
+    <definedName name="A1_1_11">'被保険者住所変更届（二枚目）'!$AR$7</definedName>
+    <definedName name="A1_1_12">'被保険者住所変更届（二枚目）'!$AT$7</definedName>
+    <definedName name="A1_1_2">'被保険者住所変更届（二枚目）'!$Z$7</definedName>
+    <definedName name="A1_1_3">'被保険者住所変更届（二枚目）'!$AB$7</definedName>
+    <definedName name="A1_1_4">'被保険者住所変更届（二枚目）'!$AD$7</definedName>
+    <definedName name="A1_1_5">'被保険者住所変更届（二枚目）'!$AF$7</definedName>
+    <definedName name="A1_1_6">'被保険者住所変更届（二枚目）'!$AH$7</definedName>
+    <definedName name="A1_1_7">'被保険者住所変更届（二枚目）'!$AJ$7</definedName>
+    <definedName name="A1_1_8">'被保険者住所変更届（二枚目）'!$AL$7</definedName>
+    <definedName name="A1_1_9">'被保険者住所変更届（二枚目）'!$AN$7</definedName>
     <definedName name="A1_10_1">'被保険者住所変更届（二枚目）'!$Q$14</definedName>
     <definedName name="A1_10_2">'被保険者住所変更届（二枚目）'!$S$14</definedName>
     <definedName name="A1_10_3">'被保険者住所変更届（二枚目）'!$U$14</definedName>
@@ -41,6 +53,8 @@
     <definedName name="A1_6_6">'被保険者住所変更届（二枚目）'!$Z$9</definedName>
     <definedName name="A1_6_7">'被保険者住所変更届（二枚目）'!$AB$9</definedName>
     <definedName name="A1_7">'被保険者住所変更届（二枚目）'!$AK$9</definedName>
+    <definedName name="A1_8">'被保険者住所変更届（二枚目）'!$AG$10:$CD$11</definedName>
+    <definedName name="A1_9">'被保険者住所変更届（二枚目）'!$P$12</definedName>
     <definedName name="A2_10_1">'被保険者住所変更届（二枚目）'!$J$24</definedName>
     <definedName name="A2_10_2">'被保険者住所変更届（二枚目）'!$L$24</definedName>
     <definedName name="A2_10_3">'被保険者住所変更届（二枚目）'!$N$24</definedName>
@@ -49,12 +63,14 @@
     <definedName name="A2_10_6">'被保険者住所変更届（二枚目）'!$T$24</definedName>
     <definedName name="A2_10_7">'被保険者住所変更届（二枚目）'!$V$24</definedName>
     <definedName name="A2_11">'被保険者住所変更届（二枚目）'!$AL$24</definedName>
+    <definedName name="A2_12">'被保険者住所変更届（二枚目）'!$AH$25</definedName>
     <definedName name="A2_13_1">'被保険者住所変更届（二枚目）'!$BS$24</definedName>
     <definedName name="A2_13_2">'被保険者住所変更届（二枚目）'!$BU$24</definedName>
     <definedName name="A2_13_3">'被保険者住所変更届（二枚目）'!$BW$24</definedName>
     <definedName name="A2_13_4">'被保険者住所変更届（二枚目）'!$BY$24</definedName>
     <definedName name="A2_13_5">'被保険者住所変更届（二枚目）'!$CA$24</definedName>
     <definedName name="A2_13_6">'被保険者住所変更届（二枚目）'!$CC$24</definedName>
+    <definedName name="A2_14">'被保険者住所変更届（二枚目）'!$P$27</definedName>
     <definedName name="A2_2_1">'被保険者住所変更届（二枚目）'!$G$21</definedName>
     <definedName name="A2_2_10">'被保険者住所変更届（二枚目）'!$Y$21</definedName>
     <definedName name="A2_2_11">'被保険者住所変更届（二枚目）'!$AA$21</definedName>
@@ -100,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>電話番号</t>
     <rPh sb="0" eb="2">
@@ -376,23 +392,6 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>都 道
-府 県</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1286,21 +1285,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="1"/>
@@ -1345,21 +1329,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1958,13 +1927,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2007,16 +1998,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2050,28 +2041,547 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2080,65 +2590,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
@@ -2146,7 +2620,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2158,13 +2632,151 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2803,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2200,7 +2812,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2209,671 +2821,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7806,534 +7767,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="A1_8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5219700" y="2190750"/>
-          <a:ext cx="409575" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="A1_81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5229225" y="2343150"/>
-          <a:ext cx="409575" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="A1_9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3162300" y="2581275"/>
-          <a:ext cx="409575" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="A1_91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3162300" y="2752725"/>
-          <a:ext cx="409575" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="A2_12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="5143500"/>
-          <a:ext cx="409575" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="A2_121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="5305425"/>
-          <a:ext cx="409575" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="A2_14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3114675" y="5581650"/>
-          <a:ext cx="409575" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="215" name="A2_141">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3114675" y="5743575"/>
-          <a:ext cx="409575" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8639,8 +8072,8 @@
   </sheetPr>
   <dimension ref="C1:CX76"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AJ35" sqref="AJ35:BA35"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AH25" sqref="AH25:BP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -8661,980 +8094,976 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="BK2" s="283" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL2" s="278"/>
-      <c r="BM2" s="278"/>
-      <c r="BN2" s="278"/>
-      <c r="BO2" s="278"/>
-      <c r="BP2" s="275" t="s">
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="BK2" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="276"/>
-      <c r="BR2" s="276"/>
-      <c r="BS2" s="276"/>
-      <c r="BT2" s="277"/>
-      <c r="BU2" s="278" t="s">
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="BV2" s="278"/>
-      <c r="BW2" s="278"/>
-      <c r="BX2" s="278"/>
-      <c r="BY2" s="278"/>
-      <c r="BZ2" s="280" t="s">
+      <c r="BQ2" s="30"/>
+      <c r="BR2" s="30"/>
+      <c r="BS2" s="30"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="CA2" s="281"/>
-      <c r="CB2" s="281"/>
-      <c r="CC2" s="281"/>
-      <c r="CD2" s="282"/>
+      <c r="BV2" s="39"/>
+      <c r="BW2" s="39"/>
+      <c r="BX2" s="39"/>
+      <c r="BY2" s="39"/>
+      <c r="BZ2" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA2" s="55"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="56"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="Y3" s="211" t="s">
-        <v>60</v>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="Y3" s="170" t="s">
+        <v>59</v>
       </c>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="211"/>
-      <c r="AD3" s="211"/>
-      <c r="AE3" s="211"/>
-      <c r="AF3" s="211"/>
-      <c r="AG3" s="211"/>
-      <c r="AH3" s="211"/>
-      <c r="AI3" s="211"/>
-      <c r="AJ3" s="211"/>
-      <c r="AK3" s="211"/>
-      <c r="AL3" s="211"/>
-      <c r="AM3" s="211"/>
-      <c r="AN3" s="211"/>
-      <c r="AO3" s="211"/>
-      <c r="AP3" s="211"/>
-      <c r="AQ3" s="211"/>
-      <c r="AR3" s="211"/>
-      <c r="AS3" s="211"/>
-      <c r="AT3" s="211"/>
-      <c r="AU3" s="211"/>
-      <c r="AV3" s="211"/>
-      <c r="AW3" s="211"/>
-      <c r="AX3" s="211"/>
-      <c r="AY3" s="211"/>
-      <c r="AZ3" s="211"/>
-      <c r="BA3" s="211"/>
-      <c r="BB3" s="211"/>
-      <c r="BC3" s="211"/>
-      <c r="BD3" s="211"/>
-      <c r="BE3" s="211"/>
-      <c r="BF3" s="211"/>
-      <c r="BG3" s="211"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="170"/>
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="170"/>
+      <c r="AR3" s="170"/>
+      <c r="AS3" s="170"/>
+      <c r="AT3" s="170"/>
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="170"/>
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="170"/>
+      <c r="AY3" s="170"/>
+      <c r="AZ3" s="170"/>
+      <c r="BA3" s="170"/>
+      <c r="BB3" s="170"/>
+      <c r="BC3" s="170"/>
+      <c r="BD3" s="170"/>
+      <c r="BE3" s="170"/>
+      <c r="BF3" s="170"/>
+      <c r="BG3" s="170"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
-      <c r="BK3" s="143"/>
-      <c r="BL3" s="144"/>
-      <c r="BM3" s="144"/>
-      <c r="BN3" s="144"/>
-      <c r="BO3" s="145"/>
-      <c r="BP3" s="143"/>
-      <c r="BQ3" s="144"/>
-      <c r="BR3" s="144"/>
-      <c r="BS3" s="144"/>
-      <c r="BT3" s="145"/>
-      <c r="BU3" s="143"/>
-      <c r="BV3" s="144"/>
-      <c r="BW3" s="144"/>
-      <c r="BX3" s="144"/>
-      <c r="BY3" s="145"/>
-      <c r="BZ3" s="143"/>
-      <c r="CA3" s="144"/>
-      <c r="CB3" s="144"/>
-      <c r="CC3" s="144"/>
-      <c r="CD3" s="145"/>
+      <c r="BK3" s="40"/>
+      <c r="BL3" s="41"/>
+      <c r="BM3" s="41"/>
+      <c r="BN3" s="41"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="40"/>
+      <c r="BQ3" s="41"/>
+      <c r="BR3" s="41"/>
+      <c r="BS3" s="41"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="40"/>
+      <c r="BV3" s="41"/>
+      <c r="BW3" s="41"/>
+      <c r="BX3" s="41"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="41"/>
+      <c r="CB3" s="41"/>
+      <c r="CC3" s="41"/>
+      <c r="CD3" s="42"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="212"/>
-      <c r="K4" s="212"/>
-      <c r="L4" s="212"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="212"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="212"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="Y4" s="211"/>
-      <c r="Z4" s="211"/>
-      <c r="AA4" s="211"/>
-      <c r="AB4" s="211"/>
-      <c r="AC4" s="211"/>
-      <c r="AD4" s="211"/>
-      <c r="AE4" s="211"/>
-      <c r="AF4" s="211"/>
-      <c r="AG4" s="211"/>
-      <c r="AH4" s="211"/>
-      <c r="AI4" s="211"/>
-      <c r="AJ4" s="211"/>
-      <c r="AK4" s="211"/>
-      <c r="AL4" s="211"/>
-      <c r="AM4" s="211"/>
-      <c r="AN4" s="211"/>
-      <c r="AO4" s="211"/>
-      <c r="AP4" s="211"/>
-      <c r="AQ4" s="211"/>
-      <c r="AR4" s="211"/>
-      <c r="AS4" s="211"/>
-      <c r="AT4" s="211"/>
-      <c r="AU4" s="211"/>
-      <c r="AV4" s="211"/>
-      <c r="AW4" s="211"/>
-      <c r="AX4" s="211"/>
-      <c r="AY4" s="211"/>
-      <c r="AZ4" s="211"/>
-      <c r="BA4" s="211"/>
-      <c r="BB4" s="211"/>
-      <c r="BC4" s="211"/>
-      <c r="BD4" s="211"/>
-      <c r="BE4" s="211"/>
-      <c r="BF4" s="211"/>
-      <c r="BG4" s="211"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="170"/>
+      <c r="AA4" s="170"/>
+      <c r="AB4" s="170"/>
+      <c r="AC4" s="170"/>
+      <c r="AD4" s="170"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="170"/>
+      <c r="AH4" s="170"/>
+      <c r="AI4" s="170"/>
+      <c r="AJ4" s="170"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="170"/>
+      <c r="AP4" s="170"/>
+      <c r="AQ4" s="170"/>
+      <c r="AR4" s="170"/>
+      <c r="AS4" s="170"/>
+      <c r="AT4" s="170"/>
+      <c r="AU4" s="170"/>
+      <c r="AV4" s="170"/>
+      <c r="AW4" s="170"/>
+      <c r="AX4" s="170"/>
+      <c r="AY4" s="170"/>
+      <c r="AZ4" s="170"/>
+      <c r="BA4" s="170"/>
+      <c r="BB4" s="170"/>
+      <c r="BC4" s="170"/>
+      <c r="BD4" s="170"/>
+      <c r="BE4" s="170"/>
+      <c r="BF4" s="170"/>
+      <c r="BG4" s="170"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="218"/>
-      <c r="BL4" s="171"/>
-      <c r="BM4" s="171"/>
-      <c r="BN4" s="171"/>
-      <c r="BO4" s="219"/>
-      <c r="BP4" s="218"/>
-      <c r="BQ4" s="171"/>
-      <c r="BR4" s="171"/>
-      <c r="BS4" s="171"/>
-      <c r="BT4" s="219"/>
-      <c r="BU4" s="218"/>
-      <c r="BV4" s="171"/>
-      <c r="BW4" s="171"/>
-      <c r="BX4" s="171"/>
-      <c r="BY4" s="219"/>
-      <c r="BZ4" s="218"/>
-      <c r="CA4" s="171"/>
-      <c r="CB4" s="171"/>
-      <c r="CC4" s="171"/>
-      <c r="CD4" s="219"/>
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="44"/>
+      <c r="BM4" s="44"/>
+      <c r="BN4" s="44"/>
+      <c r="BO4" s="45"/>
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="44"/>
+      <c r="BR4" s="44"/>
+      <c r="BS4" s="44"/>
+      <c r="BT4" s="45"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="44"/>
+      <c r="BW4" s="44"/>
+      <c r="BX4" s="44"/>
+      <c r="BY4" s="45"/>
+      <c r="BZ4" s="43"/>
+      <c r="CA4" s="44"/>
+      <c r="CB4" s="44"/>
+      <c r="CC4" s="44"/>
+      <c r="CD4" s="45"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="120"/>
+      <c r="E6" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="87"/>
+      <c r="G6" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="160" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="161"/>
+      <c r="U6" s="161"/>
+      <c r="V6" s="161"/>
+      <c r="W6" s="161"/>
+      <c r="X6" s="167" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" s="151"/>
+      <c r="Z6" s="151"/>
+      <c r="AA6" s="151"/>
+      <c r="AB6" s="151"/>
+      <c r="AC6" s="151"/>
+      <c r="AD6" s="151"/>
+      <c r="AE6" s="151"/>
+      <c r="AF6" s="151"/>
+      <c r="AG6" s="151"/>
+      <c r="AH6" s="151"/>
+      <c r="AI6" s="151"/>
+      <c r="AJ6" s="151"/>
+      <c r="AK6" s="151"/>
+      <c r="AL6" s="151"/>
+      <c r="AM6" s="151"/>
+      <c r="AN6" s="151"/>
+      <c r="AO6" s="151"/>
+      <c r="AP6" s="151"/>
+      <c r="AQ6" s="151"/>
+      <c r="AR6" s="151"/>
+      <c r="AS6" s="151"/>
+      <c r="AT6" s="151"/>
+      <c r="AU6" s="152"/>
+      <c r="AV6" s="151" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW6" s="151"/>
+      <c r="AX6" s="151"/>
+      <c r="AY6" s="151"/>
+      <c r="AZ6" s="151"/>
+      <c r="BA6" s="151"/>
+      <c r="BB6" s="151"/>
+      <c r="BC6" s="151"/>
+      <c r="BD6" s="151"/>
+      <c r="BE6" s="151"/>
+      <c r="BF6" s="151"/>
+      <c r="BG6" s="151"/>
+      <c r="BH6" s="151"/>
+      <c r="BI6" s="151"/>
+      <c r="BJ6" s="151"/>
+      <c r="BK6" s="152"/>
+      <c r="BL6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="222"/>
-      <c r="E6" s="149" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="151"/>
-      <c r="G6" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="31"/>
-      <c r="AY6" s="31"/>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
-      <c r="BB6" s="31"/>
-      <c r="BC6" s="31"/>
-      <c r="BD6" s="31"/>
-      <c r="BE6" s="31"/>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
-      <c r="BH6" s="31"/>
-      <c r="BI6" s="31"/>
-      <c r="BJ6" s="31"/>
-      <c r="BK6" s="32"/>
-      <c r="BL6" s="143" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM6" s="144"/>
-      <c r="BN6" s="144"/>
-      <c r="BO6" s="144"/>
-      <c r="BP6" s="144"/>
-      <c r="BQ6" s="144"/>
-      <c r="BR6" s="144"/>
-      <c r="BS6" s="144"/>
-      <c r="BT6" s="144"/>
-      <c r="BU6" s="144"/>
-      <c r="BV6" s="144"/>
-      <c r="BW6" s="144"/>
-      <c r="BX6" s="144"/>
-      <c r="BY6" s="144"/>
-      <c r="BZ6" s="144"/>
-      <c r="CA6" s="145"/>
+      <c r="BM6" s="41"/>
+      <c r="BN6" s="41"/>
+      <c r="BO6" s="41"/>
+      <c r="BP6" s="41"/>
+      <c r="BQ6" s="41"/>
+      <c r="BR6" s="41"/>
+      <c r="BS6" s="41"/>
+      <c r="BT6" s="41"/>
+      <c r="BU6" s="41"/>
+      <c r="BV6" s="41"/>
+      <c r="BW6" s="41"/>
+      <c r="BX6" s="41"/>
+      <c r="BY6" s="41"/>
+      <c r="BZ6" s="41"/>
+      <c r="CA6" s="42"/>
       <c r="CB6"/>
       <c r="CC6"/>
       <c r="CD6" s="27"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="222"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="89"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="36"/>
       <c r="T7" s="90"/>
       <c r="U7" s="90"/>
       <c r="V7" s="90"/>
       <c r="W7" s="90"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="213"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="213"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="213"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="214" t="s">
-        <v>25</v>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="153" t="s">
+        <v>24</v>
       </c>
-      <c r="AW7" s="215"/>
-      <c r="AX7" s="216"/>
-      <c r="AY7" s="216"/>
-      <c r="AZ7" s="216"/>
-      <c r="BA7" s="216"/>
-      <c r="BB7" s="216"/>
-      <c r="BC7" s="217"/>
-      <c r="BD7" s="220"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="33"/>
-      <c r="BI7" s="33"/>
-      <c r="BJ7" s="33"/>
-      <c r="BK7" s="221"/>
-      <c r="BL7" s="185" t="s">
-        <v>34</v>
+      <c r="AW7" s="154"/>
+      <c r="AX7" s="155"/>
+      <c r="AY7" s="155"/>
+      <c r="AZ7" s="155"/>
+      <c r="BA7" s="155"/>
+      <c r="BB7" s="155"/>
+      <c r="BC7" s="156"/>
+      <c r="BD7" s="157"/>
+      <c r="BE7" s="158"/>
+      <c r="BF7" s="158"/>
+      <c r="BG7" s="158"/>
+      <c r="BH7" s="158"/>
+      <c r="BI7" s="158"/>
+      <c r="BJ7" s="158"/>
+      <c r="BK7" s="159"/>
+      <c r="BL7" s="135" t="s">
+        <v>33</v>
       </c>
-      <c r="BM7" s="186"/>
-      <c r="BN7" s="186"/>
-      <c r="BO7" s="187"/>
-      <c r="BP7" s="251"/>
-      <c r="BQ7" s="40"/>
+      <c r="BM7" s="136"/>
+      <c r="BN7" s="136"/>
+      <c r="BO7" s="137"/>
+      <c r="BP7" s="91"/>
+      <c r="BQ7" s="37"/>
       <c r="BR7" s="90"/>
-      <c r="BS7" s="40"/>
-      <c r="BT7" s="251"/>
-      <c r="BU7" s="40"/>
+      <c r="BS7" s="37"/>
+      <c r="BT7" s="91"/>
+      <c r="BU7" s="37"/>
       <c r="BV7" s="90"/>
-      <c r="BW7" s="40"/>
-      <c r="BX7" s="251"/>
+      <c r="BW7" s="37"/>
+      <c r="BX7" s="91"/>
       <c r="BY7" s="90"/>
-      <c r="BZ7" s="39"/>
-      <c r="CA7" s="229"/>
+      <c r="BZ7" s="46"/>
+      <c r="CA7" s="47"/>
       <c r="CB7" s="28"/>
       <c r="CC7"/>
       <c r="CD7" s="27"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="232" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW8" s="233"/>
-      <c r="AX8" s="234"/>
-      <c r="AY8" s="234"/>
-      <c r="AZ8" s="234"/>
-      <c r="BA8" s="234"/>
-      <c r="BB8" s="234"/>
-      <c r="BC8" s="235"/>
-      <c r="BD8" s="236" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="BE8" s="237"/>
-      <c r="BF8" s="238"/>
-      <c r="BG8" s="238"/>
-      <c r="BH8" s="238"/>
-      <c r="BI8" s="238"/>
-      <c r="BJ8" s="238"/>
-      <c r="BK8" s="239"/>
-      <c r="BL8" s="188"/>
-      <c r="BM8" s="189"/>
-      <c r="BN8" s="189"/>
-      <c r="BO8" s="190"/>
-      <c r="BP8" s="252"/>
-      <c r="BQ8" s="44"/>
-      <c r="BR8" s="92"/>
-      <c r="BS8" s="44"/>
-      <c r="BT8" s="252"/>
-      <c r="BU8" s="44"/>
-      <c r="BV8" s="92"/>
-      <c r="BW8" s="44"/>
-      <c r="BX8" s="252"/>
-      <c r="BY8" s="92"/>
-      <c r="BZ8" s="43"/>
-      <c r="CA8" s="256"/>
+      <c r="AW8" s="128"/>
+      <c r="AX8" s="129"/>
+      <c r="AY8" s="129"/>
+      <c r="AZ8" s="129"/>
+      <c r="BA8" s="129"/>
+      <c r="BB8" s="129"/>
+      <c r="BC8" s="130"/>
+      <c r="BD8" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE8" s="132"/>
+      <c r="BF8" s="133"/>
+      <c r="BG8" s="133"/>
+      <c r="BH8" s="133"/>
+      <c r="BI8" s="133"/>
+      <c r="BJ8" s="133"/>
+      <c r="BK8" s="134"/>
+      <c r="BL8" s="138"/>
+      <c r="BM8" s="139"/>
+      <c r="BN8" s="139"/>
+      <c r="BO8" s="140"/>
+      <c r="BP8" s="92"/>
+      <c r="BQ8" s="35"/>
+      <c r="BR8" s="34"/>
+      <c r="BS8" s="35"/>
+      <c r="BT8" s="92"/>
+      <c r="BU8" s="35"/>
+      <c r="BV8" s="34"/>
+      <c r="BW8" s="35"/>
+      <c r="BX8" s="92"/>
+      <c r="BY8" s="34"/>
+      <c r="BZ8" s="48"/>
+      <c r="CA8" s="49"/>
       <c r="CB8" s="13"/>
       <c r="CC8" s="5"/>
       <c r="CD8" s="27"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="222"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="74" t="s">
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="272" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="149" t="s">
+      <c r="H9" s="273"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="281" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" s="150"/>
-      <c r="AF9" s="284"/>
-      <c r="AG9" s="287" t="s">
+      <c r="K9" s="282"/>
+      <c r="L9" s="282"/>
+      <c r="M9" s="282"/>
+      <c r="N9" s="282"/>
+      <c r="O9" s="283"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="AH9" s="288"/>
-      <c r="AI9" s="288"/>
-      <c r="AJ9" s="288"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45"/>
-      <c r="BG9" s="45"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="45"/>
-      <c r="BL9" s="45"/>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="45"/>
-      <c r="BO9" s="45"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BR9" s="45"/>
-      <c r="BS9" s="45"/>
-      <c r="BT9" s="45"/>
-      <c r="BU9" s="45"/>
-      <c r="BV9" s="45"/>
-      <c r="BW9" s="45"/>
-      <c r="BX9" s="45"/>
-      <c r="BY9" s="45"/>
-      <c r="BZ9" s="45"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="45"/>
-      <c r="CC9" s="45"/>
-      <c r="CD9" s="46"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="264"/>
+      <c r="AL9" s="264"/>
+      <c r="AM9" s="264"/>
+      <c r="AN9" s="264"/>
+      <c r="AO9" s="264"/>
+      <c r="AP9" s="264"/>
+      <c r="AQ9" s="264"/>
+      <c r="AR9" s="264"/>
+      <c r="AS9" s="264"/>
+      <c r="AT9" s="264"/>
+      <c r="AU9" s="264"/>
+      <c r="AV9" s="264"/>
+      <c r="AW9" s="264"/>
+      <c r="AX9" s="264"/>
+      <c r="AY9" s="264"/>
+      <c r="AZ9" s="264"/>
+      <c r="BA9" s="264"/>
+      <c r="BB9" s="264"/>
+      <c r="BC9" s="264"/>
+      <c r="BD9" s="264"/>
+      <c r="BE9" s="264"/>
+      <c r="BF9" s="264"/>
+      <c r="BG9" s="264"/>
+      <c r="BH9" s="264"/>
+      <c r="BI9" s="264"/>
+      <c r="BJ9" s="264"/>
+      <c r="BK9" s="264"/>
+      <c r="BL9" s="264"/>
+      <c r="BM9" s="264"/>
+      <c r="BN9" s="264"/>
+      <c r="BO9" s="264"/>
+      <c r="BP9" s="264"/>
+      <c r="BQ9" s="264"/>
+      <c r="BR9" s="264"/>
+      <c r="BS9" s="264"/>
+      <c r="BT9" s="264"/>
+      <c r="BU9" s="264"/>
+      <c r="BV9" s="264"/>
+      <c r="BW9" s="264"/>
+      <c r="BX9" s="264"/>
+      <c r="BY9" s="264"/>
+      <c r="BZ9" s="264"/>
+      <c r="CA9" s="264"/>
+      <c r="CB9" s="264"/>
+      <c r="CC9" s="264"/>
+      <c r="CD9" s="265"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="285"/>
-      <c r="AG10" s="243"/>
-      <c r="AH10" s="244"/>
-      <c r="AI10" s="244"/>
-      <c r="AJ10" s="244"/>
-      <c r="AK10" s="244"/>
-      <c r="AL10" s="244"/>
-      <c r="AM10" s="244"/>
-      <c r="AN10" s="244"/>
-      <c r="AO10" s="279" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP10" s="279"/>
-      <c r="AQ10" s="279"/>
-      <c r="AR10" s="279"/>
-      <c r="AS10" s="244"/>
-      <c r="AT10" s="244"/>
-      <c r="AU10" s="244"/>
-      <c r="AV10" s="244"/>
-      <c r="AW10" s="244"/>
-      <c r="AX10" s="244"/>
-      <c r="AY10" s="244"/>
-      <c r="AZ10" s="244"/>
-      <c r="BA10" s="244"/>
-      <c r="BB10" s="244"/>
-      <c r="BC10" s="244"/>
-      <c r="BD10" s="244"/>
-      <c r="BE10" s="244"/>
-      <c r="BF10" s="244"/>
-      <c r="BG10" s="244"/>
-      <c r="BH10" s="244"/>
-      <c r="BI10" s="244"/>
-      <c r="BJ10" s="244"/>
-      <c r="BK10" s="244"/>
-      <c r="BL10" s="244"/>
-      <c r="BM10" s="244"/>
-      <c r="BN10" s="244"/>
-      <c r="BO10" s="244"/>
-      <c r="BP10" s="244"/>
-      <c r="BQ10" s="244"/>
-      <c r="BR10" s="244"/>
-      <c r="BS10" s="244"/>
-      <c r="BT10" s="244"/>
-      <c r="BU10" s="244"/>
-      <c r="BV10" s="244"/>
-      <c r="BW10" s="244"/>
-      <c r="BX10" s="244"/>
-      <c r="BY10" s="244"/>
-      <c r="BZ10" s="244"/>
-      <c r="CA10" s="244"/>
-      <c r="CB10" s="244"/>
-      <c r="CC10" s="244"/>
-      <c r="CD10" s="289"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="284"/>
+      <c r="K10" s="285"/>
+      <c r="L10" s="285"/>
+      <c r="M10" s="285"/>
+      <c r="N10" s="285"/>
+      <c r="O10" s="286"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="69"/>
+      <c r="BE10" s="69"/>
+      <c r="BF10" s="69"/>
+      <c r="BG10" s="69"/>
+      <c r="BH10" s="69"/>
+      <c r="BI10" s="69"/>
+      <c r="BJ10" s="69"/>
+      <c r="BK10" s="69"/>
+      <c r="BL10" s="69"/>
+      <c r="BM10" s="69"/>
+      <c r="BN10" s="69"/>
+      <c r="BO10" s="69"/>
+      <c r="BP10" s="69"/>
+      <c r="BQ10" s="69"/>
+      <c r="BR10" s="69"/>
+      <c r="BS10" s="69"/>
+      <c r="BT10" s="69"/>
+      <c r="BU10" s="69"/>
+      <c r="BV10" s="69"/>
+      <c r="BW10" s="69"/>
+      <c r="BX10" s="69"/>
+      <c r="BY10" s="69"/>
+      <c r="BZ10" s="69"/>
+      <c r="CA10" s="69"/>
+      <c r="CB10" s="69"/>
+      <c r="CC10" s="69"/>
+      <c r="CD10" s="70"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="222"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="286"/>
-      <c r="AG11" s="245"/>
-      <c r="AH11" s="246"/>
-      <c r="AI11" s="246"/>
-      <c r="AJ11" s="246"/>
-      <c r="AK11" s="246"/>
-      <c r="AL11" s="246"/>
-      <c r="AM11" s="246"/>
-      <c r="AN11" s="246"/>
-      <c r="AO11" s="274"/>
-      <c r="AP11" s="274"/>
-      <c r="AQ11" s="274"/>
-      <c r="AR11" s="274"/>
-      <c r="AS11" s="246"/>
-      <c r="AT11" s="246"/>
-      <c r="AU11" s="246"/>
-      <c r="AV11" s="246"/>
-      <c r="AW11" s="246"/>
-      <c r="AX11" s="246"/>
-      <c r="AY11" s="246"/>
-      <c r="AZ11" s="246"/>
-      <c r="BA11" s="246"/>
-      <c r="BB11" s="246"/>
-      <c r="BC11" s="246"/>
-      <c r="BD11" s="246"/>
-      <c r="BE11" s="246"/>
-      <c r="BF11" s="246"/>
-      <c r="BG11" s="246"/>
-      <c r="BH11" s="246"/>
-      <c r="BI11" s="246"/>
-      <c r="BJ11" s="246"/>
-      <c r="BK11" s="246"/>
-      <c r="BL11" s="246"/>
-      <c r="BM11" s="246"/>
-      <c r="BN11" s="246"/>
-      <c r="BO11" s="246"/>
-      <c r="BP11" s="246"/>
-      <c r="BQ11" s="246"/>
-      <c r="BR11" s="246"/>
-      <c r="BS11" s="246"/>
-      <c r="BT11" s="246"/>
-      <c r="BU11" s="246"/>
-      <c r="BV11" s="246"/>
-      <c r="BW11" s="246"/>
-      <c r="BX11" s="246"/>
-      <c r="BY11" s="246"/>
-      <c r="BZ11" s="246"/>
-      <c r="CA11" s="246"/>
-      <c r="CB11" s="246"/>
-      <c r="CC11" s="246"/>
-      <c r="CD11" s="290"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="278"/>
+      <c r="H11" s="279"/>
+      <c r="I11" s="280"/>
+      <c r="J11" s="287"/>
+      <c r="K11" s="288"/>
+      <c r="L11" s="288"/>
+      <c r="M11" s="288"/>
+      <c r="N11" s="288"/>
+      <c r="O11" s="289"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="71"/>
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="71"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="71"/>
+      <c r="AR11" s="71"/>
+      <c r="AS11" s="71"/>
+      <c r="AT11" s="71"/>
+      <c r="AU11" s="71"/>
+      <c r="AV11" s="71"/>
+      <c r="AW11" s="71"/>
+      <c r="AX11" s="71"/>
+      <c r="AY11" s="71"/>
+      <c r="AZ11" s="71"/>
+      <c r="BA11" s="71"/>
+      <c r="BB11" s="71"/>
+      <c r="BC11" s="71"/>
+      <c r="BD11" s="71"/>
+      <c r="BE11" s="71"/>
+      <c r="BF11" s="71"/>
+      <c r="BG11" s="71"/>
+      <c r="BH11" s="71"/>
+      <c r="BI11" s="71"/>
+      <c r="BJ11" s="71"/>
+      <c r="BK11" s="71"/>
+      <c r="BL11" s="71"/>
+      <c r="BM11" s="71"/>
+      <c r="BN11" s="71"/>
+      <c r="BO11" s="71"/>
+      <c r="BP11" s="71"/>
+      <c r="BQ11" s="71"/>
+      <c r="BR11" s="71"/>
+      <c r="BS11" s="71"/>
+      <c r="BT11" s="71"/>
+      <c r="BU11" s="71"/>
+      <c r="BV11" s="71"/>
+      <c r="BW11" s="71"/>
+      <c r="BX11" s="71"/>
+      <c r="BY11" s="71"/>
+      <c r="BZ11" s="71"/>
+      <c r="CA11" s="71"/>
+      <c r="CB11" s="71"/>
+      <c r="CC11" s="71"/>
+      <c r="CD11" s="72"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="222"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="59" t="s">
-        <v>48</v>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="220" t="s">
+        <v>47</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="74" t="s">
-        <v>72</v>
+      <c r="H12" s="221"/>
+      <c r="I12" s="222"/>
+      <c r="J12" s="281" t="s">
+        <v>71</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="271"/>
-      <c r="Q12" s="272"/>
-      <c r="R12" s="272"/>
-      <c r="S12" s="272"/>
-      <c r="T12" s="272"/>
-      <c r="U12" s="272"/>
-      <c r="V12" s="272"/>
-      <c r="W12" s="272"/>
-      <c r="X12" s="273" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y12" s="273"/>
-      <c r="Z12" s="273"/>
-      <c r="AA12" s="273"/>
-      <c r="AB12" s="272"/>
-      <c r="AC12" s="272"/>
-      <c r="AD12" s="272"/>
-      <c r="AE12" s="272"/>
-      <c r="AF12" s="272"/>
-      <c r="AG12" s="272"/>
-      <c r="AH12" s="272"/>
-      <c r="AI12" s="272"/>
-      <c r="AJ12" s="272"/>
-      <c r="AK12" s="272"/>
-      <c r="AL12" s="272"/>
-      <c r="AM12" s="272"/>
-      <c r="AN12" s="272"/>
-      <c r="AO12" s="272"/>
-      <c r="AP12" s="272"/>
-      <c r="AQ12" s="272"/>
-      <c r="AR12" s="272"/>
-      <c r="AS12" s="272"/>
-      <c r="AT12" s="272"/>
-      <c r="AU12" s="272"/>
-      <c r="AV12" s="272"/>
-      <c r="AW12" s="272"/>
-      <c r="AX12" s="272"/>
-      <c r="AY12" s="272"/>
-      <c r="AZ12" s="272"/>
-      <c r="BA12" s="272"/>
-      <c r="BB12" s="272"/>
-      <c r="BC12" s="272"/>
-      <c r="BD12" s="272"/>
-      <c r="BE12" s="272"/>
-      <c r="BF12" s="272"/>
-      <c r="BG12" s="272"/>
-      <c r="BH12" s="272"/>
-      <c r="BI12" s="272"/>
-      <c r="BJ12" s="272"/>
-      <c r="BK12" s="272"/>
-      <c r="BL12" s="272"/>
-      <c r="BM12" s="272"/>
-      <c r="BN12" s="272"/>
-      <c r="BO12" s="272"/>
-      <c r="BP12" s="272"/>
-      <c r="BQ12" s="272"/>
-      <c r="BR12" s="272"/>
-      <c r="BS12" s="272"/>
-      <c r="BT12" s="272"/>
-      <c r="BU12" s="272"/>
-      <c r="BV12" s="272"/>
-      <c r="BW12" s="272"/>
-      <c r="BX12" s="272"/>
-      <c r="BY12" s="272"/>
-      <c r="BZ12" s="272"/>
-      <c r="CA12" s="272"/>
-      <c r="CB12" s="272"/>
-      <c r="CC12" s="272"/>
-      <c r="CD12" s="291"/>
+      <c r="K12" s="282"/>
+      <c r="L12" s="282"/>
+      <c r="M12" s="282"/>
+      <c r="N12" s="282"/>
+      <c r="O12" s="283"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="73"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="73"/>
+      <c r="BF12" s="73"/>
+      <c r="BG12" s="73"/>
+      <c r="BH12" s="73"/>
+      <c r="BI12" s="73"/>
+      <c r="BJ12" s="73"/>
+      <c r="BK12" s="73"/>
+      <c r="BL12" s="73"/>
+      <c r="BM12" s="73"/>
+      <c r="BN12" s="73"/>
+      <c r="BO12" s="73"/>
+      <c r="BP12" s="73"/>
+      <c r="BQ12" s="73"/>
+      <c r="BR12" s="73"/>
+      <c r="BS12" s="73"/>
+      <c r="BT12" s="73"/>
+      <c r="BU12" s="73"/>
+      <c r="BV12" s="73"/>
+      <c r="BW12" s="73"/>
+      <c r="BX12" s="73"/>
+      <c r="BY12" s="73"/>
+      <c r="BZ12" s="73"/>
+      <c r="CA12" s="73"/>
+      <c r="CB12" s="73"/>
+      <c r="CC12" s="73"/>
+      <c r="CD12" s="74"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="222"/>
-      <c r="D13" s="222"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="245"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="246"/>
-      <c r="U13" s="246"/>
-      <c r="V13" s="246"/>
-      <c r="W13" s="246"/>
-      <c r="X13" s="274"/>
-      <c r="Y13" s="274"/>
-      <c r="Z13" s="274"/>
-      <c r="AA13" s="274"/>
-      <c r="AB13" s="246"/>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="246"/>
-      <c r="AE13" s="246"/>
-      <c r="AF13" s="246"/>
-      <c r="AG13" s="246"/>
-      <c r="AH13" s="246"/>
-      <c r="AI13" s="246"/>
-      <c r="AJ13" s="246"/>
-      <c r="AK13" s="246"/>
-      <c r="AL13" s="246"/>
-      <c r="AM13" s="246"/>
-      <c r="AN13" s="246"/>
-      <c r="AO13" s="246"/>
-      <c r="AP13" s="246"/>
-      <c r="AQ13" s="246"/>
-      <c r="AR13" s="246"/>
-      <c r="AS13" s="246"/>
-      <c r="AT13" s="246"/>
-      <c r="AU13" s="246"/>
-      <c r="AV13" s="246"/>
-      <c r="AW13" s="246"/>
-      <c r="AX13" s="246"/>
-      <c r="AY13" s="246"/>
-      <c r="AZ13" s="246"/>
-      <c r="BA13" s="246"/>
-      <c r="BB13" s="246"/>
-      <c r="BC13" s="246"/>
-      <c r="BD13" s="246"/>
-      <c r="BE13" s="246"/>
-      <c r="BF13" s="246"/>
-      <c r="BG13" s="246"/>
-      <c r="BH13" s="246"/>
-      <c r="BI13" s="246"/>
-      <c r="BJ13" s="246"/>
-      <c r="BK13" s="246"/>
-      <c r="BL13" s="246"/>
-      <c r="BM13" s="246"/>
-      <c r="BN13" s="246"/>
-      <c r="BO13" s="246"/>
-      <c r="BP13" s="246"/>
-      <c r="BQ13" s="246"/>
-      <c r="BR13" s="246"/>
-      <c r="BS13" s="246"/>
-      <c r="BT13" s="246"/>
-      <c r="BU13" s="246"/>
-      <c r="BV13" s="246"/>
-      <c r="BW13" s="246"/>
-      <c r="BX13" s="246"/>
-      <c r="BY13" s="246"/>
-      <c r="BZ13" s="246"/>
-      <c r="CA13" s="246"/>
-      <c r="CB13" s="246"/>
-      <c r="CC13" s="246"/>
-      <c r="CD13" s="290"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="225"/>
+      <c r="J13" s="287"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="288"/>
+      <c r="M13" s="288"/>
+      <c r="N13" s="288"/>
+      <c r="O13" s="289"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="71"/>
+      <c r="AS13" s="71"/>
+      <c r="AT13" s="71"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="71"/>
+      <c r="AW13" s="71"/>
+      <c r="AX13" s="71"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="71"/>
+      <c r="BB13" s="71"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="71"/>
+      <c r="BE13" s="71"/>
+      <c r="BF13" s="71"/>
+      <c r="BG13" s="71"/>
+      <c r="BH13" s="71"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="71"/>
+      <c r="BK13" s="71"/>
+      <c r="BL13" s="71"/>
+      <c r="BM13" s="71"/>
+      <c r="BN13" s="71"/>
+      <c r="BO13" s="71"/>
+      <c r="BP13" s="71"/>
+      <c r="BQ13" s="71"/>
+      <c r="BR13" s="71"/>
+      <c r="BS13" s="71"/>
+      <c r="BT13" s="71"/>
+      <c r="BU13" s="71"/>
+      <c r="BV13" s="71"/>
+      <c r="BW13" s="71"/>
+      <c r="BX13" s="71"/>
+      <c r="BY13" s="71"/>
+      <c r="BZ13" s="71"/>
+      <c r="CA13" s="71"/>
+      <c r="CB13" s="71"/>
+      <c r="CC13" s="71"/>
+      <c r="CD13" s="72"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="222"/>
-      <c r="D14" s="222"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="168" t="s">
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="266" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="201"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="201"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="204"/>
-      <c r="AD14" s="205"/>
-      <c r="AE14" s="206"/>
-      <c r="AF14" s="159" t="s">
+      <c r="H14" s="267"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="267"/>
+      <c r="L14" s="268"/>
+      <c r="M14" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="160"/>
-      <c r="AI14" s="160"/>
-      <c r="AJ14" s="173" t="s">
-        <v>68</v>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="206"/>
+      <c r="R14" s="172"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="208"/>
+      <c r="U14" s="206"/>
+      <c r="V14" s="172"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="208"/>
+      <c r="Y14" s="206"/>
+      <c r="Z14" s="172"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="214"/>
+      <c r="AD14" s="215"/>
+      <c r="AE14" s="216"/>
+      <c r="AF14" s="174" t="s">
+        <v>44</v>
       </c>
-      <c r="AK14" s="174"/>
-      <c r="AL14" s="174"/>
-      <c r="AM14" s="174"/>
-      <c r="AN14" s="174"/>
-      <c r="AO14" s="174"/>
-      <c r="AP14" s="174"/>
-      <c r="AQ14" s="174"/>
-      <c r="AR14" s="174"/>
-      <c r="AS14" s="174"/>
-      <c r="AT14" s="174"/>
-      <c r="AU14" s="174"/>
-      <c r="AV14" s="174"/>
-      <c r="AW14" s="174"/>
-      <c r="AX14" s="174"/>
-      <c r="AY14" s="174"/>
-      <c r="AZ14" s="174"/>
-      <c r="BA14" s="174"/>
-      <c r="BB14" s="174"/>
-      <c r="BC14" s="174"/>
-      <c r="BD14" s="174"/>
-      <c r="BE14" s="174"/>
-      <c r="BF14" s="174"/>
-      <c r="BG14" s="174"/>
-      <c r="BH14" s="174"/>
-      <c r="BI14" s="174"/>
-      <c r="BJ14" s="174"/>
-      <c r="BK14" s="174"/>
-      <c r="BL14" s="174"/>
-      <c r="BM14" s="174"/>
-      <c r="BN14" s="174"/>
-      <c r="BO14" s="175"/>
+      <c r="AG14" s="175"/>
+      <c r="AH14" s="175"/>
+      <c r="AI14" s="175"/>
+      <c r="AJ14" s="188" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK14" s="189"/>
+      <c r="AL14" s="189"/>
+      <c r="AM14" s="189"/>
+      <c r="AN14" s="189"/>
+      <c r="AO14" s="189"/>
+      <c r="AP14" s="189"/>
+      <c r="AQ14" s="189"/>
+      <c r="AR14" s="189"/>
+      <c r="AS14" s="189"/>
+      <c r="AT14" s="189"/>
+      <c r="AU14" s="189"/>
+      <c r="AV14" s="189"/>
+      <c r="AW14" s="189"/>
+      <c r="AX14" s="189"/>
+      <c r="AY14" s="189"/>
+      <c r="AZ14" s="189"/>
+      <c r="BA14" s="189"/>
+      <c r="BB14" s="189"/>
+      <c r="BC14" s="189"/>
+      <c r="BD14" s="189"/>
+      <c r="BE14" s="189"/>
+      <c r="BF14" s="189"/>
+      <c r="BG14" s="189"/>
+      <c r="BH14" s="189"/>
+      <c r="BI14" s="189"/>
+      <c r="BJ14" s="189"/>
+      <c r="BK14" s="189"/>
+      <c r="BL14" s="189"/>
+      <c r="BM14" s="189"/>
+      <c r="BN14" s="189"/>
+      <c r="BO14" s="190"/>
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
@@ -9651,91 +9080,91 @@
       <c r="CC14"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="222"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="202"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="202"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="207"/>
-      <c r="AD15" s="208"/>
-      <c r="AE15" s="209"/>
-      <c r="AF15" s="161"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="99"/>
-      <c r="AJ15" s="176"/>
-      <c r="AK15" s="177"/>
-      <c r="AL15" s="177"/>
-      <c r="AM15" s="177"/>
-      <c r="AN15" s="177"/>
-      <c r="AO15" s="177"/>
-      <c r="AP15" s="177"/>
-      <c r="AQ15" s="177"/>
-      <c r="AR15" s="177"/>
-      <c r="AS15" s="177"/>
-      <c r="AT15" s="177"/>
-      <c r="AU15" s="177"/>
-      <c r="AV15" s="177"/>
-      <c r="AW15" s="177"/>
-      <c r="AX15" s="177"/>
-      <c r="AY15" s="177"/>
-      <c r="AZ15" s="177"/>
-      <c r="BA15" s="177"/>
-      <c r="BB15" s="177"/>
-      <c r="BC15" s="177"/>
-      <c r="BD15" s="177"/>
-      <c r="BE15" s="177"/>
-      <c r="BF15" s="177"/>
-      <c r="BG15" s="177"/>
-      <c r="BH15" s="177"/>
-      <c r="BI15" s="177"/>
-      <c r="BJ15" s="177"/>
-      <c r="BK15" s="177"/>
-      <c r="BL15" s="177"/>
-      <c r="BM15" s="177"/>
-      <c r="BN15" s="177"/>
-      <c r="BO15" s="178"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="269"/>
+      <c r="H15" s="270"/>
+      <c r="I15" s="270"/>
+      <c r="J15" s="270"/>
+      <c r="K15" s="270"/>
+      <c r="L15" s="271"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="187"/>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="173"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="209"/>
+      <c r="U15" s="207"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="209"/>
+      <c r="Y15" s="207"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="217"/>
+      <c r="AD15" s="218"/>
+      <c r="AE15" s="219"/>
+      <c r="AF15" s="176"/>
+      <c r="AG15" s="177"/>
+      <c r="AH15" s="177"/>
+      <c r="AI15" s="177"/>
+      <c r="AJ15" s="191"/>
+      <c r="AK15" s="192"/>
+      <c r="AL15" s="192"/>
+      <c r="AM15" s="192"/>
+      <c r="AN15" s="192"/>
+      <c r="AO15" s="192"/>
+      <c r="AP15" s="192"/>
+      <c r="AQ15" s="192"/>
+      <c r="AR15" s="192"/>
+      <c r="AS15" s="192"/>
+      <c r="AT15" s="192"/>
+      <c r="AU15" s="192"/>
+      <c r="AV15" s="192"/>
+      <c r="AW15" s="192"/>
+      <c r="AX15" s="192"/>
+      <c r="AY15" s="192"/>
+      <c r="AZ15" s="192"/>
+      <c r="BA15" s="192"/>
+      <c r="BB15" s="192"/>
+      <c r="BC15" s="192"/>
+      <c r="BD15" s="192"/>
+      <c r="BE15" s="192"/>
+      <c r="BF15" s="192"/>
+      <c r="BG15" s="192"/>
+      <c r="BH15" s="192"/>
+      <c r="BI15" s="192"/>
+      <c r="BJ15" s="192"/>
+      <c r="BK15" s="192"/>
+      <c r="BL15" s="192"/>
+      <c r="BM15" s="192"/>
+      <c r="BN15" s="192"/>
+      <c r="BO15" s="193"/>
       <c r="BP15"/>
       <c r="BQ15"/>
-      <c r="BS15" s="226" t="s">
-        <v>44</v>
+      <c r="BS15" s="75" t="s">
+        <v>43</v>
       </c>
-      <c r="BT15" s="227"/>
-      <c r="BU15" s="227"/>
-      <c r="BV15" s="227"/>
-      <c r="BW15" s="227"/>
-      <c r="BX15" s="227"/>
-      <c r="BY15" s="227"/>
-      <c r="BZ15" s="227"/>
-      <c r="CA15" s="227"/>
-      <c r="CB15" s="227"/>
-      <c r="CC15" s="227"/>
-      <c r="CD15" s="228"/>
+      <c r="BT15" s="76"/>
+      <c r="BU15" s="76"/>
+      <c r="BV15" s="76"/>
+      <c r="BW15" s="76"/>
+      <c r="BX15" s="76"/>
+      <c r="BY15" s="76"/>
+      <c r="BZ15" s="76"/>
+      <c r="CA15" s="76"/>
+      <c r="CB15" s="76"/>
+      <c r="CC15" s="76"/>
+      <c r="CD15" s="77"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="25"/>
@@ -9773,7 +9202,7 @@
       <c r="AM16"/>
       <c r="AN16"/>
       <c r="AO16" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AP16"/>
       <c r="AQ16"/>
@@ -9803,50 +9232,50 @@
       <c r="BO16"/>
       <c r="BP16"/>
       <c r="BQ16"/>
-      <c r="BS16" s="226"/>
-      <c r="BT16" s="227"/>
-      <c r="BU16" s="227"/>
-      <c r="BV16" s="227"/>
-      <c r="BW16" s="227"/>
-      <c r="BX16" s="227"/>
-      <c r="BY16" s="227"/>
-      <c r="BZ16" s="227"/>
-      <c r="CA16" s="227"/>
-      <c r="CB16" s="227"/>
-      <c r="CC16" s="227"/>
-      <c r="CD16" s="228"/>
+      <c r="BS16" s="75"/>
+      <c r="BT16" s="76"/>
+      <c r="BU16" s="76"/>
+      <c r="BV16" s="76"/>
+      <c r="BW16" s="76"/>
+      <c r="BX16" s="76"/>
+      <c r="BY16" s="76"/>
+      <c r="BZ16" s="76"/>
+      <c r="CA16" s="76"/>
+      <c r="CB16" s="76"/>
+      <c r="CC16" s="76"/>
+      <c r="CD16" s="77"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO17" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
-      <c r="BS17" s="292"/>
-      <c r="BT17" s="212"/>
-      <c r="BU17" s="212"/>
-      <c r="BV17" s="212"/>
-      <c r="BW17" s="212"/>
-      <c r="BX17" s="212"/>
-      <c r="BY17" s="212"/>
-      <c r="BZ17" s="212"/>
-      <c r="CA17" s="212"/>
-      <c r="CB17" s="212"/>
-      <c r="CC17" s="212"/>
-      <c r="CD17" s="293"/>
+      <c r="BS17" s="78"/>
+      <c r="BT17" s="79"/>
+      <c r="BU17" s="79"/>
+      <c r="BV17" s="79"/>
+      <c r="BW17" s="79"/>
+      <c r="BX17" s="79"/>
+      <c r="BY17" s="79"/>
+      <c r="BZ17" s="79"/>
+      <c r="CA17" s="79"/>
+      <c r="CB17" s="79"/>
+      <c r="CC17" s="79"/>
+      <c r="CD17" s="80"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y18"/>
       <c r="Z18"/>
@@ -9883,56 +9312,56 @@
       <c r="BE18"/>
       <c r="BF18"/>
       <c r="BG18"/>
-      <c r="BS18" s="292"/>
-      <c r="BT18" s="212"/>
-      <c r="BU18" s="212"/>
-      <c r="BV18" s="212"/>
-      <c r="BW18" s="212"/>
-      <c r="BX18" s="212"/>
-      <c r="BY18" s="212"/>
-      <c r="BZ18" s="212"/>
-      <c r="CA18" s="212"/>
-      <c r="CB18" s="212"/>
-      <c r="CC18" s="212"/>
-      <c r="CD18" s="293"/>
+      <c r="BS18" s="78"/>
+      <c r="BT18" s="79"/>
+      <c r="BU18" s="79"/>
+      <c r="BV18" s="79"/>
+      <c r="BW18" s="79"/>
+      <c r="BX18" s="79"/>
+      <c r="BY18" s="79"/>
+      <c r="BZ18" s="79"/>
+      <c r="CA18" s="79"/>
+      <c r="CB18" s="79"/>
+      <c r="CC18" s="79"/>
+      <c r="CD18" s="80"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="222"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="302" t="s">
-        <v>39</v>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="85" t="s">
+        <v>38</v>
       </c>
-      <c r="F19" s="303"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="303"/>
-      <c r="I19" s="303"/>
-      <c r="J19" s="303"/>
-      <c r="K19" s="303"/>
-      <c r="L19" s="303"/>
-      <c r="M19" s="303"/>
-      <c r="N19" s="303"/>
-      <c r="O19" s="303"/>
-      <c r="P19" s="303"/>
-      <c r="Q19" s="303"/>
-      <c r="R19" s="303"/>
-      <c r="S19" s="303"/>
-      <c r="T19" s="303"/>
-      <c r="U19" s="303"/>
-      <c r="V19" s="303"/>
-      <c r="W19" s="303"/>
-      <c r="X19" s="303"/>
-      <c r="Y19" s="303"/>
-      <c r="Z19" s="303"/>
-      <c r="AA19" s="303"/>
-      <c r="AB19" s="303"/>
-      <c r="AC19" s="303"/>
-      <c r="AD19" s="303"/>
-      <c r="AE19" s="303"/>
-      <c r="AF19" s="303"/>
-      <c r="AG19" s="303"/>
-      <c r="AH19" s="303"/>
-      <c r="AI19" s="303"/>
-      <c r="AJ19" s="303"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
@@ -9956,652 +9385,650 @@
       <c r="BE19"/>
       <c r="BF19"/>
       <c r="BG19"/>
-      <c r="BS19" s="292"/>
-      <c r="BT19" s="212"/>
-      <c r="BU19" s="212"/>
-      <c r="BV19" s="212"/>
-      <c r="BW19" s="212"/>
-      <c r="BX19" s="212"/>
-      <c r="BY19" s="212"/>
-      <c r="BZ19" s="212"/>
-      <c r="CA19" s="212"/>
-      <c r="CB19" s="212"/>
-      <c r="CC19" s="212"/>
-      <c r="CD19" s="293"/>
+      <c r="BS19" s="78"/>
+      <c r="BT19" s="79"/>
+      <c r="BU19" s="79"/>
+      <c r="BV19" s="79"/>
+      <c r="BW19" s="79"/>
+      <c r="BX19" s="79"/>
+      <c r="BY19" s="79"/>
+      <c r="BZ19" s="79"/>
+      <c r="CA19" s="79"/>
+      <c r="CB19" s="79"/>
+      <c r="CC19" s="79"/>
+      <c r="CD19" s="80"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="222"/>
-      <c r="D20" s="222"/>
-      <c r="E20" s="247" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="248"/>
-      <c r="G20" s="30" t="s">
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="30" t="s">
+      <c r="F20" s="146"/>
+      <c r="G20" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="162"/>
-      <c r="AV20" s="163"/>
-      <c r="AW20" s="257" t="s">
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="151"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="151"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="151"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="151"/>
+      <c r="X20" s="151"/>
+      <c r="Y20" s="151"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="151"/>
+      <c r="AB20" s="151"/>
+      <c r="AC20" s="151"/>
+      <c r="AD20" s="152"/>
+      <c r="AE20" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="AX20" s="258"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="151"/>
+      <c r="AI20" s="151"/>
+      <c r="AJ20" s="151"/>
+      <c r="AK20" s="151"/>
+      <c r="AL20" s="151"/>
+      <c r="AM20" s="151"/>
+      <c r="AN20" s="151"/>
+      <c r="AO20" s="151"/>
+      <c r="AP20" s="151"/>
+      <c r="AQ20" s="151"/>
+      <c r="AR20" s="151"/>
+      <c r="AS20" s="151"/>
+      <c r="AT20" s="152"/>
+      <c r="AU20" s="178"/>
+      <c r="AV20" s="179"/>
+      <c r="AW20" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX20" s="103"/>
       <c r="AY20" s="18"/>
       <c r="AZ20" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA20" s="16"/>
       <c r="BB20" s="16"/>
-      <c r="BC20" s="33"/>
-      <c r="BD20" s="33"/>
-      <c r="BE20" s="33"/>
-      <c r="BF20" s="33"/>
-      <c r="BG20" s="33"/>
-      <c r="BH20" s="33"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="35"/>
-      <c r="BK20" s="35"/>
-      <c r="BL20" s="35"/>
-      <c r="BM20" s="35"/>
-      <c r="BN20" s="35"/>
-      <c r="BO20" s="35"/>
-      <c r="BP20" s="35"/>
-      <c r="BQ20" s="36"/>
-      <c r="BS20" s="292"/>
-      <c r="BT20" s="212"/>
-      <c r="BU20" s="212"/>
-      <c r="BV20" s="212"/>
-      <c r="BW20" s="212"/>
-      <c r="BX20" s="212"/>
-      <c r="BY20" s="212"/>
-      <c r="BZ20" s="212"/>
-      <c r="CA20" s="212"/>
-      <c r="CB20" s="212"/>
-      <c r="CC20" s="212"/>
-      <c r="CD20" s="293"/>
+      <c r="BC20" s="158"/>
+      <c r="BD20" s="158"/>
+      <c r="BE20" s="158"/>
+      <c r="BF20" s="158"/>
+      <c r="BG20" s="158"/>
+      <c r="BH20" s="158"/>
+      <c r="BI20" s="261"/>
+      <c r="BJ20" s="262"/>
+      <c r="BK20" s="262"/>
+      <c r="BL20" s="262"/>
+      <c r="BM20" s="262"/>
+      <c r="BN20" s="262"/>
+      <c r="BO20" s="262"/>
+      <c r="BP20" s="262"/>
+      <c r="BQ20" s="263"/>
+      <c r="BS20" s="78"/>
+      <c r="BT20" s="79"/>
+      <c r="BU20" s="79"/>
+      <c r="BV20" s="79"/>
+      <c r="BW20" s="79"/>
+      <c r="BX20" s="79"/>
+      <c r="BY20" s="79"/>
+      <c r="BZ20" s="79"/>
+      <c r="CA20" s="79"/>
+      <c r="CB20" s="79"/>
+      <c r="CC20" s="79"/>
+      <c r="CD20" s="80"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="222"/>
-      <c r="D21" s="222"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="203"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="203"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="185" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF21" s="186"/>
-      <c r="AG21" s="186"/>
-      <c r="AH21" s="187"/>
-      <c r="AI21" s="269"/>
-      <c r="AJ21" s="180"/>
-      <c r="AK21" s="183"/>
-      <c r="AL21" s="184"/>
-      <c r="AM21" s="179"/>
-      <c r="AN21" s="180"/>
-      <c r="AO21" s="183"/>
-      <c r="AP21" s="184"/>
-      <c r="AQ21" s="179"/>
-      <c r="AR21" s="180"/>
-      <c r="AS21" s="183"/>
-      <c r="AT21" s="184"/>
-      <c r="AU21" s="164"/>
-      <c r="AV21" s="165"/>
-      <c r="AW21" s="261" t="s">
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="212"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="210"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="212"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="212"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="210"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="212"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="212"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="AX21" s="261"/>
-      <c r="AY21" s="262"/>
-      <c r="AZ21" s="15" t="s">
+      <c r="AF21" s="136"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="137"/>
+      <c r="AI21" s="114"/>
+      <c r="AJ21" s="115"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="194"/>
+      <c r="AN21" s="115"/>
+      <c r="AO21" s="98"/>
+      <c r="AP21" s="99"/>
+      <c r="AQ21" s="194"/>
+      <c r="AR21" s="115"/>
+      <c r="AS21" s="98"/>
+      <c r="AT21" s="99"/>
+      <c r="AU21" s="180"/>
+      <c r="AV21" s="181"/>
+      <c r="AW21" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="254"/>
-      <c r="BC21" s="254"/>
-      <c r="BD21" s="254"/>
-      <c r="BE21" s="254"/>
-      <c r="BF21" s="254"/>
-      <c r="BG21" s="254"/>
-      <c r="BH21" s="254"/>
-      <c r="BI21" s="15" t="s">
+      <c r="AX21" s="106"/>
+      <c r="AY21" s="107"/>
+      <c r="AZ21" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="84"/>
+      <c r="BC21" s="84"/>
+      <c r="BD21" s="84"/>
+      <c r="BE21" s="84"/>
+      <c r="BF21" s="84"/>
+      <c r="BG21" s="84"/>
+      <c r="BH21" s="84"/>
+      <c r="BI21" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="BJ21" s="14"/>
-      <c r="BK21" s="254"/>
-      <c r="BL21" s="254"/>
-      <c r="BM21" s="254"/>
-      <c r="BN21" s="254"/>
-      <c r="BO21" s="254"/>
-      <c r="BP21" s="254"/>
-      <c r="BQ21" s="255"/>
-      <c r="BS21" s="294"/>
-      <c r="BT21" s="295"/>
-      <c r="BU21" s="295"/>
-      <c r="BV21" s="295"/>
-      <c r="BW21" s="295"/>
-      <c r="BX21" s="295"/>
-      <c r="BY21" s="295"/>
-      <c r="BZ21" s="295"/>
-      <c r="CA21" s="295"/>
-      <c r="CB21" s="295"/>
-      <c r="CC21" s="295"/>
-      <c r="CD21" s="296"/>
-      <c r="CV21" s="29"/>
-      <c r="CW21" s="29"/>
-      <c r="CX21" s="29"/>
+      <c r="BK21" s="84"/>
+      <c r="BL21" s="84"/>
+      <c r="BM21" s="84"/>
+      <c r="BN21" s="84"/>
+      <c r="BO21" s="84"/>
+      <c r="BP21" s="84"/>
+      <c r="BQ21" s="101"/>
+      <c r="BS21" s="81"/>
+      <c r="BT21" s="82"/>
+      <c r="BU21" s="82"/>
+      <c r="BV21" s="82"/>
+      <c r="BW21" s="82"/>
+      <c r="BX21" s="82"/>
+      <c r="BY21" s="82"/>
+      <c r="BZ21" s="82"/>
+      <c r="CA21" s="82"/>
+      <c r="CB21" s="82"/>
+      <c r="CC21" s="82"/>
+      <c r="CD21" s="83"/>
+      <c r="CV21" s="169"/>
+      <c r="CW21" s="169"/>
+      <c r="CX21" s="169"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="222"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="188"/>
-      <c r="AF22" s="189"/>
-      <c r="AG22" s="189"/>
-      <c r="AH22" s="190"/>
-      <c r="AI22" s="270"/>
-      <c r="AJ22" s="182"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="182"/>
-      <c r="AM22" s="181"/>
-      <c r="AN22" s="182"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="182"/>
-      <c r="AQ22" s="181"/>
-      <c r="AR22" s="182"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="182"/>
-      <c r="AU22" s="166"/>
-      <c r="AV22" s="167"/>
-      <c r="AW22" s="263"/>
-      <c r="AX22" s="263"/>
-      <c r="AY22" s="264"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="211"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="211"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="139"/>
+      <c r="AH22" s="140"/>
+      <c r="AI22" s="116"/>
+      <c r="AJ22" s="100"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="100"/>
+      <c r="AM22" s="195"/>
+      <c r="AN22" s="100"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="100"/>
+      <c r="AQ22" s="195"/>
+      <c r="AR22" s="100"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="100"/>
+      <c r="AU22" s="182"/>
+      <c r="AV22" s="183"/>
+      <c r="AW22" s="108"/>
+      <c r="AX22" s="108"/>
+      <c r="AY22" s="109"/>
       <c r="AZ22" s="13"/>
       <c r="BA22" s="5"/>
-      <c r="BB22" s="92"/>
-      <c r="BC22" s="92"/>
-      <c r="BD22" s="92"/>
-      <c r="BE22" s="92"/>
-      <c r="BF22" s="92"/>
-      <c r="BG22" s="92"/>
-      <c r="BH22" s="92"/>
+      <c r="BB22" s="34"/>
+      <c r="BC22" s="34"/>
+      <c r="BD22" s="34"/>
+      <c r="BE22" s="34"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="34"/>
+      <c r="BH22" s="34"/>
       <c r="BI22" s="13"/>
       <c r="BJ22" s="5"/>
-      <c r="BK22" s="92"/>
-      <c r="BL22" s="92"/>
-      <c r="BM22" s="92"/>
-      <c r="BN22" s="92"/>
-      <c r="BO22" s="92"/>
-      <c r="BP22" s="92"/>
-      <c r="BQ22" s="256"/>
-      <c r="CV22" s="29"/>
-      <c r="CW22" s="29"/>
-      <c r="CX22" s="29"/>
+      <c r="BK22" s="34"/>
+      <c r="BL22" s="34"/>
+      <c r="BM22" s="34"/>
+      <c r="BN22" s="34"/>
+      <c r="BO22" s="34"/>
+      <c r="BP22" s="34"/>
+      <c r="BQ22" s="49"/>
+      <c r="CV22" s="169"/>
+      <c r="CW22" s="169"/>
+      <c r="CX22" s="169"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="222"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="150"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="143" t="s">
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="143" t="s">
+      <c r="H23" s="59"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="144"/>
-      <c r="AB23" s="144"/>
-      <c r="AC23" s="144"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="144"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="144"/>
-      <c r="AH23" s="144"/>
-      <c r="AI23" s="144"/>
-      <c r="AJ23" s="144"/>
-      <c r="AK23" s="144"/>
-      <c r="AL23" s="144"/>
-      <c r="AM23" s="144"/>
-      <c r="AN23" s="144"/>
-      <c r="AO23" s="144"/>
-      <c r="AP23" s="144"/>
-      <c r="AQ23" s="144"/>
-      <c r="AR23" s="144"/>
-      <c r="AS23" s="144"/>
-      <c r="AT23" s="144"/>
-      <c r="AU23" s="144"/>
-      <c r="AV23" s="144"/>
-      <c r="AW23" s="144"/>
-      <c r="AX23" s="144"/>
-      <c r="AY23" s="144"/>
-      <c r="AZ23" s="144"/>
-      <c r="BA23" s="144"/>
-      <c r="BB23" s="144"/>
-      <c r="BC23" s="144"/>
-      <c r="BD23" s="144"/>
-      <c r="BE23" s="144"/>
-      <c r="BF23" s="144"/>
-      <c r="BG23" s="144"/>
-      <c r="BH23" s="144"/>
-      <c r="BI23" s="144"/>
-      <c r="BJ23" s="144"/>
-      <c r="BK23" s="144"/>
-      <c r="BL23" s="144"/>
-      <c r="BM23" s="144"/>
-      <c r="BN23" s="144"/>
-      <c r="BO23" s="144"/>
-      <c r="BP23" s="145"/>
-      <c r="BQ23" s="143" t="s">
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="BR23" s="144"/>
-      <c r="BS23" s="144"/>
-      <c r="BT23" s="144"/>
-      <c r="BU23" s="144"/>
-      <c r="BV23" s="144"/>
-      <c r="BW23" s="144"/>
-      <c r="BX23" s="144"/>
-      <c r="BY23" s="144"/>
-      <c r="BZ23" s="144"/>
-      <c r="CA23" s="144"/>
-      <c r="CB23" s="144"/>
-      <c r="CC23" s="144"/>
-      <c r="CD23" s="145"/>
-      <c r="CE23" s="225"/>
-      <c r="CF23" s="225"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="41"/>
+      <c r="BA23" s="41"/>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="41"/>
+      <c r="BD23" s="41"/>
+      <c r="BE23" s="41"/>
+      <c r="BF23" s="41"/>
+      <c r="BG23" s="41"/>
+      <c r="BH23" s="41"/>
+      <c r="BI23" s="41"/>
+      <c r="BJ23" s="41"/>
+      <c r="BK23" s="41"/>
+      <c r="BL23" s="41"/>
+      <c r="BM23" s="41"/>
+      <c r="BN23" s="41"/>
+      <c r="BO23" s="41"/>
+      <c r="BP23" s="42"/>
+      <c r="BQ23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR23" s="41"/>
+      <c r="BS23" s="41"/>
+      <c r="BT23" s="41"/>
+      <c r="BU23" s="41"/>
+      <c r="BV23" s="41"/>
+      <c r="BW23" s="41"/>
+      <c r="BX23" s="41"/>
+      <c r="BY23" s="41"/>
+      <c r="BZ23" s="41"/>
+      <c r="CA23" s="41"/>
+      <c r="CB23" s="41"/>
+      <c r="CC23" s="41"/>
+      <c r="CD23" s="42"/>
+      <c r="CE23" s="123"/>
+      <c r="CF23" s="123"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="29"/>
-      <c r="CW23" s="29"/>
-      <c r="CX23" s="29"/>
+      <c r="CV23" s="169"/>
+      <c r="CW23" s="169"/>
+      <c r="CX23" s="169"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="222"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="249"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="240" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y24" s="241"/>
-      <c r="Z24" s="241"/>
-      <c r="AA24" s="241"/>
-      <c r="AB24" s="241"/>
-      <c r="AC24" s="241"/>
-      <c r="AD24" s="241"/>
-      <c r="AE24" s="241"/>
-      <c r="AF24" s="241"/>
-      <c r="AG24" s="242"/>
-      <c r="AH24" s="158" t="s">
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="172"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="AI24" s="158"/>
-      <c r="AJ24" s="158"/>
-      <c r="AK24" s="158"/>
-      <c r="AL24" s="259"/>
-      <c r="AM24" s="259"/>
-      <c r="AN24" s="259"/>
-      <c r="AO24" s="259"/>
-      <c r="AP24" s="259"/>
-      <c r="AQ24" s="259"/>
-      <c r="AR24" s="259"/>
-      <c r="AS24" s="259"/>
-      <c r="AT24" s="259"/>
-      <c r="AU24" s="259"/>
-      <c r="AV24" s="259"/>
-      <c r="AW24" s="259"/>
-      <c r="AX24" s="259"/>
-      <c r="AY24" s="259"/>
-      <c r="AZ24" s="259"/>
-      <c r="BA24" s="259"/>
-      <c r="BB24" s="259"/>
-      <c r="BC24" s="259"/>
-      <c r="BD24" s="259"/>
-      <c r="BE24" s="259"/>
-      <c r="BF24" s="259"/>
-      <c r="BG24" s="259"/>
-      <c r="BH24" s="259"/>
-      <c r="BI24" s="259"/>
-      <c r="BJ24" s="259"/>
-      <c r="BK24" s="259"/>
-      <c r="BL24" s="259"/>
-      <c r="BM24" s="259"/>
-      <c r="BN24" s="259"/>
-      <c r="BO24" s="259"/>
-      <c r="BP24" s="260"/>
-      <c r="BQ24" s="265" t="s">
+      <c r="Y24" s="142"/>
+      <c r="Z24" s="142"/>
+      <c r="AA24" s="142"/>
+      <c r="AB24" s="142"/>
+      <c r="AC24" s="142"/>
+      <c r="AD24" s="142"/>
+      <c r="AE24" s="142"/>
+      <c r="AF24" s="142"/>
+      <c r="AG24" s="143"/>
+      <c r="AH24" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="BR24" s="266"/>
-      <c r="BS24" s="141"/>
-      <c r="BT24" s="40"/>
-      <c r="BU24" s="55"/>
-      <c r="BV24" s="229"/>
-      <c r="BW24" s="141"/>
-      <c r="BX24" s="40"/>
-      <c r="BY24" s="55"/>
-      <c r="BZ24" s="229"/>
-      <c r="CA24" s="141"/>
-      <c r="CB24" s="40"/>
-      <c r="CC24" s="55"/>
-      <c r="CD24" s="229"/>
-      <c r="CE24" s="225"/>
-      <c r="CF24" s="225"/>
+      <c r="AI24" s="171"/>
+      <c r="AJ24" s="171"/>
+      <c r="AK24" s="171"/>
+      <c r="AL24" s="104"/>
+      <c r="AM24" s="104"/>
+      <c r="AN24" s="104"/>
+      <c r="AO24" s="104"/>
+      <c r="AP24" s="104"/>
+      <c r="AQ24" s="104"/>
+      <c r="AR24" s="104"/>
+      <c r="AS24" s="104"/>
+      <c r="AT24" s="104"/>
+      <c r="AU24" s="104"/>
+      <c r="AV24" s="104"/>
+      <c r="AW24" s="104"/>
+      <c r="AX24" s="104"/>
+      <c r="AY24" s="104"/>
+      <c r="AZ24" s="104"/>
+      <c r="BA24" s="104"/>
+      <c r="BB24" s="104"/>
+      <c r="BC24" s="104"/>
+      <c r="BD24" s="104"/>
+      <c r="BE24" s="104"/>
+      <c r="BF24" s="104"/>
+      <c r="BG24" s="104"/>
+      <c r="BH24" s="104"/>
+      <c r="BI24" s="104"/>
+      <c r="BJ24" s="104"/>
+      <c r="BK24" s="104"/>
+      <c r="BL24" s="104"/>
+      <c r="BM24" s="104"/>
+      <c r="BN24" s="104"/>
+      <c r="BO24" s="104"/>
+      <c r="BP24" s="105"/>
+      <c r="BQ24" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR24" s="111"/>
+      <c r="BS24" s="125"/>
+      <c r="BT24" s="37"/>
+      <c r="BU24" s="50"/>
+      <c r="BV24" s="47"/>
+      <c r="BW24" s="125"/>
+      <c r="BX24" s="37"/>
+      <c r="BY24" s="50"/>
+      <c r="BZ24" s="47"/>
+      <c r="CA24" s="125"/>
+      <c r="CB24" s="37"/>
+      <c r="CC24" s="50"/>
+      <c r="CD24" s="47"/>
+      <c r="CE24" s="123"/>
+      <c r="CF24" s="123"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="222"/>
-      <c r="D25" s="222"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="146"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="146"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="146"/>
-      <c r="W25" s="253"/>
-      <c r="X25" s="141"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="254"/>
-      <c r="AI25" s="254"/>
-      <c r="AJ25" s="254"/>
-      <c r="AK25" s="254"/>
-      <c r="AL25" s="254"/>
-      <c r="AM25" s="254"/>
-      <c r="AN25" s="279" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO25" s="279"/>
-      <c r="AP25" s="279"/>
-      <c r="AQ25" s="279"/>
-      <c r="AR25" s="297"/>
-      <c r="AS25" s="297"/>
-      <c r="AT25" s="297"/>
-      <c r="AU25" s="297"/>
-      <c r="AV25" s="297"/>
-      <c r="AW25" s="297"/>
-      <c r="AX25" s="297"/>
-      <c r="AY25" s="297"/>
-      <c r="AZ25" s="297"/>
-      <c r="BA25" s="297"/>
-      <c r="BB25" s="297"/>
-      <c r="BC25" s="297"/>
-      <c r="BD25" s="297"/>
-      <c r="BE25" s="297"/>
-      <c r="BF25" s="297"/>
-      <c r="BG25" s="297"/>
-      <c r="BH25" s="297"/>
-      <c r="BI25" s="297"/>
-      <c r="BJ25" s="297"/>
-      <c r="BK25" s="297"/>
-      <c r="BL25" s="297"/>
-      <c r="BM25" s="297"/>
-      <c r="BN25" s="297"/>
-      <c r="BO25" s="297"/>
-      <c r="BP25" s="298"/>
-      <c r="BQ25" s="267"/>
-      <c r="BR25" s="268"/>
-      <c r="BS25" s="231"/>
-      <c r="BT25" s="42"/>
-      <c r="BU25" s="41"/>
-      <c r="BV25" s="230"/>
-      <c r="BW25" s="231"/>
-      <c r="BX25" s="42"/>
-      <c r="BY25" s="41"/>
-      <c r="BZ25" s="230"/>
-      <c r="CA25" s="231"/>
-      <c r="CB25" s="42"/>
-      <c r="CC25" s="41"/>
-      <c r="CD25" s="230"/>
-      <c r="CE25" s="225"/>
-      <c r="CF25" s="225"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="213"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="213"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="213"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="213"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="172"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="172"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="172"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="172"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="290"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="84"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="84"/>
+      <c r="AO25" s="84"/>
+      <c r="AP25" s="84"/>
+      <c r="AQ25" s="84"/>
+      <c r="AR25" s="84"/>
+      <c r="AS25" s="84"/>
+      <c r="AT25" s="84"/>
+      <c r="AU25" s="84"/>
+      <c r="AV25" s="84"/>
+      <c r="AW25" s="84"/>
+      <c r="AX25" s="84"/>
+      <c r="AY25" s="84"/>
+      <c r="AZ25" s="84"/>
+      <c r="BA25" s="84"/>
+      <c r="BB25" s="84"/>
+      <c r="BC25" s="84"/>
+      <c r="BD25" s="84"/>
+      <c r="BE25" s="84"/>
+      <c r="BF25" s="84"/>
+      <c r="BG25" s="84"/>
+      <c r="BH25" s="84"/>
+      <c r="BI25" s="84"/>
+      <c r="BJ25" s="84"/>
+      <c r="BK25" s="84"/>
+      <c r="BL25" s="84"/>
+      <c r="BM25" s="84"/>
+      <c r="BN25" s="84"/>
+      <c r="BO25" s="84"/>
+      <c r="BP25" s="101"/>
+      <c r="BQ25" s="112"/>
+      <c r="BR25" s="113"/>
+      <c r="BS25" s="126"/>
+      <c r="BT25" s="33"/>
+      <c r="BU25" s="119"/>
+      <c r="BV25" s="124"/>
+      <c r="BW25" s="126"/>
+      <c r="BX25" s="33"/>
+      <c r="BY25" s="119"/>
+      <c r="BZ25" s="124"/>
+      <c r="CA25" s="126"/>
+      <c r="CB25" s="33"/>
+      <c r="CC25" s="119"/>
+      <c r="CD25" s="124"/>
+      <c r="CE25" s="123"/>
+      <c r="CF25" s="123"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="222"/>
-      <c r="D26" s="222"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="249"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="142"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="92"/>
-      <c r="AJ26" s="92"/>
-      <c r="AK26" s="92"/>
-      <c r="AL26" s="92"/>
-      <c r="AM26" s="92"/>
-      <c r="AN26" s="274"/>
-      <c r="AO26" s="274"/>
-      <c r="AP26" s="274"/>
-      <c r="AQ26" s="274"/>
-      <c r="AR26" s="299"/>
-      <c r="AS26" s="299"/>
-      <c r="AT26" s="299"/>
-      <c r="AU26" s="299"/>
-      <c r="AV26" s="299"/>
-      <c r="AW26" s="299"/>
-      <c r="AX26" s="299"/>
-      <c r="AY26" s="299"/>
-      <c r="AZ26" s="299"/>
-      <c r="BA26" s="299"/>
-      <c r="BB26" s="299"/>
-      <c r="BC26" s="299"/>
-      <c r="BD26" s="299"/>
-      <c r="BE26" s="299"/>
-      <c r="BF26" s="299"/>
-      <c r="BG26" s="299"/>
-      <c r="BH26" s="299"/>
-      <c r="BI26" s="299"/>
-      <c r="BJ26" s="300"/>
-      <c r="BK26" s="300"/>
-      <c r="BL26" s="300"/>
-      <c r="BM26" s="300"/>
-      <c r="BN26" s="300"/>
-      <c r="BO26" s="300"/>
-      <c r="BP26" s="301"/>
-      <c r="BQ26" s="267"/>
-      <c r="BR26" s="268"/>
-      <c r="BS26" s="231"/>
-      <c r="BT26" s="42"/>
-      <c r="BU26" s="41"/>
-      <c r="BV26" s="230"/>
-      <c r="BW26" s="231"/>
-      <c r="BX26" s="42"/>
-      <c r="BY26" s="41"/>
-      <c r="BZ26" s="230"/>
-      <c r="CA26" s="231"/>
-      <c r="CB26" s="42"/>
-      <c r="CC26" s="41"/>
-      <c r="CD26" s="230"/>
-      <c r="CE26" s="225"/>
-      <c r="CF26" s="225"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="173"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="173"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="232"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="173"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="173"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="291"/>
+      <c r="AJ26" s="291"/>
+      <c r="AK26" s="291"/>
+      <c r="AL26" s="291"/>
+      <c r="AM26" s="291"/>
+      <c r="AN26" s="291"/>
+      <c r="AO26" s="291"/>
+      <c r="AP26" s="291"/>
+      <c r="AQ26" s="291"/>
+      <c r="AR26" s="291"/>
+      <c r="AS26" s="291"/>
+      <c r="AT26" s="291"/>
+      <c r="AU26" s="291"/>
+      <c r="AV26" s="291"/>
+      <c r="AW26" s="291"/>
+      <c r="AX26" s="291"/>
+      <c r="AY26" s="291"/>
+      <c r="AZ26" s="291"/>
+      <c r="BA26" s="291"/>
+      <c r="BB26" s="291"/>
+      <c r="BC26" s="291"/>
+      <c r="BD26" s="291"/>
+      <c r="BE26" s="291"/>
+      <c r="BF26" s="291"/>
+      <c r="BG26" s="291"/>
+      <c r="BH26" s="291"/>
+      <c r="BI26" s="291"/>
+      <c r="BJ26" s="291"/>
+      <c r="BK26" s="291"/>
+      <c r="BL26" s="291"/>
+      <c r="BM26" s="291"/>
+      <c r="BN26" s="291"/>
+      <c r="BO26" s="291"/>
+      <c r="BP26" s="124"/>
+      <c r="BQ26" s="112"/>
+      <c r="BR26" s="113"/>
+      <c r="BS26" s="126"/>
+      <c r="BT26" s="33"/>
+      <c r="BU26" s="119"/>
+      <c r="BV26" s="124"/>
+      <c r="BW26" s="126"/>
+      <c r="BX26" s="33"/>
+      <c r="BY26" s="119"/>
+      <c r="BZ26" s="124"/>
+      <c r="CA26" s="126"/>
+      <c r="CB26" s="33"/>
+      <c r="CC26" s="119"/>
+      <c r="CD26" s="124"/>
+      <c r="CE26" s="123"/>
+      <c r="CF26" s="123"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C27" s="222"/>
-      <c r="D27" s="222"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="132" t="s">
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="89"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="222"/>
+      <c r="J27" s="229" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="230"/>
+      <c r="L27" s="230"/>
+      <c r="M27" s="230"/>
+      <c r="N27" s="230"/>
+      <c r="O27" s="231"/>
+      <c r="P27" s="36"/>
       <c r="Q27" s="90"/>
       <c r="R27" s="90"/>
       <c r="S27" s="90"/>
@@ -10609,12 +10036,10 @@
       <c r="U27" s="90"/>
       <c r="V27" s="90"/>
       <c r="W27" s="90"/>
-      <c r="X27" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y27" s="136"/>
-      <c r="Z27" s="136"/>
-      <c r="AA27" s="137"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
       <c r="AB27" s="90"/>
       <c r="AC27" s="90"/>
       <c r="AD27" s="90"/>
@@ -10648,120 +10073,120 @@
       <c r="BF27" s="90"/>
       <c r="BG27" s="90"/>
       <c r="BH27" s="90"/>
-      <c r="BI27" s="90"/>
-      <c r="BJ27" s="191" t="s">
+      <c r="BI27" s="292"/>
+      <c r="BJ27" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="BK27" s="192"/>
-      <c r="BL27" s="193"/>
-      <c r="BM27" s="197" t="s">
-        <v>71</v>
+      <c r="BK27" s="197"/>
+      <c r="BL27" s="198"/>
+      <c r="BM27" s="202" t="s">
+        <v>70</v>
       </c>
-      <c r="BN27" s="197"/>
-      <c r="BO27" s="197"/>
-      <c r="BP27" s="197"/>
-      <c r="BQ27" s="197"/>
-      <c r="BR27" s="197"/>
-      <c r="BS27" s="197"/>
-      <c r="BT27" s="197"/>
-      <c r="BU27" s="197"/>
-      <c r="BV27" s="197"/>
-      <c r="BW27" s="197"/>
-      <c r="BX27" s="197"/>
-      <c r="BY27" s="197"/>
-      <c r="BZ27" s="197"/>
-      <c r="CA27" s="197"/>
-      <c r="CB27" s="197"/>
-      <c r="CC27" s="197"/>
-      <c r="CD27" s="197"/>
-      <c r="CE27" s="197"/>
-      <c r="CF27" s="198"/>
+      <c r="BN27" s="202"/>
+      <c r="BO27" s="202"/>
+      <c r="BP27" s="202"/>
+      <c r="BQ27" s="202"/>
+      <c r="BR27" s="202"/>
+      <c r="BS27" s="202"/>
+      <c r="BT27" s="202"/>
+      <c r="BU27" s="202"/>
+      <c r="BV27" s="202"/>
+      <c r="BW27" s="202"/>
+      <c r="BX27" s="202"/>
+      <c r="BY27" s="202"/>
+      <c r="BZ27" s="202"/>
+      <c r="CA27" s="202"/>
+      <c r="CB27" s="202"/>
+      <c r="CC27" s="202"/>
+      <c r="CD27" s="202"/>
+      <c r="CE27" s="202"/>
+      <c r="CF27" s="203"/>
     </row>
     <row r="28" spans="3:102" ht="22.5" customHeight="1">
-      <c r="C28" s="222"/>
-      <c r="D28" s="222"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="250"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="129" t="s">
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="224"/>
+      <c r="I28" s="225"/>
+      <c r="J28" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="140"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="92"/>
-      <c r="AO28" s="92"/>
-      <c r="AP28" s="92"/>
-      <c r="AQ28" s="92"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
-      <c r="AW28" s="92"/>
-      <c r="AX28" s="92"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="92"/>
-      <c r="BA28" s="92"/>
-      <c r="BB28" s="92"/>
-      <c r="BC28" s="92"/>
-      <c r="BD28" s="92"/>
-      <c r="BE28" s="92"/>
-      <c r="BF28" s="92"/>
-      <c r="BG28" s="92"/>
-      <c r="BH28" s="92"/>
-      <c r="BI28" s="92"/>
-      <c r="BJ28" s="194"/>
-      <c r="BK28" s="195"/>
-      <c r="BL28" s="196"/>
-      <c r="BM28" s="199"/>
-      <c r="BN28" s="199"/>
-      <c r="BO28" s="199"/>
-      <c r="BP28" s="199"/>
-      <c r="BQ28" s="199"/>
-      <c r="BR28" s="199"/>
-      <c r="BS28" s="199"/>
-      <c r="BT28" s="199"/>
-      <c r="BU28" s="199"/>
-      <c r="BV28" s="199"/>
-      <c r="BW28" s="199"/>
-      <c r="BX28" s="199"/>
-      <c r="BY28" s="199"/>
-      <c r="BZ28" s="199"/>
-      <c r="CA28" s="199"/>
-      <c r="CB28" s="199"/>
-      <c r="CC28" s="199"/>
-      <c r="CD28" s="199"/>
-      <c r="CE28" s="199"/>
-      <c r="CF28" s="200"/>
+      <c r="K28" s="227"/>
+      <c r="L28" s="227"/>
+      <c r="M28" s="227"/>
+      <c r="N28" s="227"/>
+      <c r="O28" s="228"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="34"/>
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="34"/>
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="34"/>
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="34"/>
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="34"/>
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="293"/>
+      <c r="BJ28" s="199"/>
+      <c r="BK28" s="200"/>
+      <c r="BL28" s="201"/>
+      <c r="BM28" s="204"/>
+      <c r="BN28" s="204"/>
+      <c r="BO28" s="204"/>
+      <c r="BP28" s="204"/>
+      <c r="BQ28" s="204"/>
+      <c r="BR28" s="204"/>
+      <c r="BS28" s="204"/>
+      <c r="BT28" s="204"/>
+      <c r="BU28" s="204"/>
+      <c r="BV28" s="204"/>
+      <c r="BW28" s="204"/>
+      <c r="BX28" s="204"/>
+      <c r="BY28" s="204"/>
+      <c r="BZ28" s="204"/>
+      <c r="CA28" s="204"/>
+      <c r="CB28" s="204"/>
+      <c r="CC28" s="204"/>
+      <c r="CD28" s="204"/>
+      <c r="CE28" s="204"/>
+      <c r="CF28" s="205"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="12"/>
@@ -10848,404 +10273,404 @@
       <c r="CF30" s="5"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="108" t="s">
+      <c r="C31" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="109"/>
-      <c r="AA31" s="109"/>
-      <c r="AB31" s="110"/>
-      <c r="AD31" s="112" t="s">
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="243"/>
+      <c r="I31" s="243"/>
+      <c r="J31" s="243"/>
+      <c r="K31" s="243"/>
+      <c r="L31" s="243"/>
+      <c r="M31" s="243"/>
+      <c r="N31" s="243"/>
+      <c r="O31" s="243"/>
+      <c r="P31" s="243"/>
+      <c r="Q31" s="243"/>
+      <c r="R31" s="243"/>
+      <c r="S31" s="243"/>
+      <c r="T31" s="243"/>
+      <c r="U31" s="243"/>
+      <c r="V31" s="243"/>
+      <c r="W31" s="243"/>
+      <c r="X31" s="243"/>
+      <c r="Y31" s="243"/>
+      <c r="Z31" s="243"/>
+      <c r="AA31" s="243"/>
+      <c r="AB31" s="244"/>
+      <c r="AD31" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="113"/>
-      <c r="AI31" s="113"/>
-      <c r="AJ31" s="113"/>
-      <c r="AK31" s="113"/>
-      <c r="AL31" s="113"/>
-      <c r="AM31" s="113"/>
-      <c r="AN31" s="113"/>
-      <c r="AO31" s="113"/>
-      <c r="AP31" s="113"/>
-      <c r="AQ31" s="113"/>
-      <c r="AR31" s="113"/>
-      <c r="AS31" s="113"/>
-      <c r="AT31" s="113"/>
-      <c r="AU31" s="113"/>
-      <c r="AV31" s="113"/>
-      <c r="AW31" s="113"/>
-      <c r="AX31" s="113"/>
-      <c r="AY31" s="113"/>
-      <c r="AZ31" s="113"/>
-      <c r="BA31" s="113"/>
-      <c r="BB31" s="113"/>
-      <c r="BC31" s="114"/>
-      <c r="BE31" s="106" t="s">
+      <c r="AE31" s="247"/>
+      <c r="AF31" s="247"/>
+      <c r="AG31" s="247"/>
+      <c r="AH31" s="247"/>
+      <c r="AI31" s="247"/>
+      <c r="AJ31" s="247"/>
+      <c r="AK31" s="247"/>
+      <c r="AL31" s="247"/>
+      <c r="AM31" s="247"/>
+      <c r="AN31" s="247"/>
+      <c r="AO31" s="247"/>
+      <c r="AP31" s="247"/>
+      <c r="AQ31" s="247"/>
+      <c r="AR31" s="247"/>
+      <c r="AS31" s="247"/>
+      <c r="AT31" s="247"/>
+      <c r="AU31" s="247"/>
+      <c r="AV31" s="247"/>
+      <c r="AW31" s="247"/>
+      <c r="AX31" s="247"/>
+      <c r="AY31" s="247"/>
+      <c r="AZ31" s="247"/>
+      <c r="BA31" s="247"/>
+      <c r="BB31" s="247"/>
+      <c r="BC31" s="248"/>
+      <c r="BE31" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="BF31" s="107"/>
-      <c r="BG31" s="107"/>
-      <c r="BH31" s="107"/>
-      <c r="BI31" s="107"/>
-      <c r="BJ31" s="107"/>
-      <c r="BK31" s="107"/>
-      <c r="BL31" s="107"/>
-      <c r="BM31" s="107"/>
-      <c r="BN31" s="107"/>
-      <c r="BO31" s="107"/>
-      <c r="BP31" s="107"/>
-      <c r="BQ31" s="107"/>
-      <c r="BR31" s="107"/>
-      <c r="BS31" s="107"/>
-      <c r="BT31" s="107"/>
-      <c r="BU31" s="107"/>
-      <c r="BV31" s="107"/>
-      <c r="BW31" s="107"/>
-      <c r="BX31" s="107"/>
-      <c r="BY31" s="107"/>
-      <c r="BZ31" s="107"/>
-      <c r="CA31" s="107"/>
-      <c r="CB31" s="107"/>
-      <c r="CC31" s="107"/>
-      <c r="CD31" s="107"/>
-      <c r="CE31" s="107"/>
-      <c r="CF31" s="107"/>
+      <c r="BF31" s="241"/>
+      <c r="BG31" s="241"/>
+      <c r="BH31" s="241"/>
+      <c r="BI31" s="241"/>
+      <c r="BJ31" s="241"/>
+      <c r="BK31" s="241"/>
+      <c r="BL31" s="241"/>
+      <c r="BM31" s="241"/>
+      <c r="BN31" s="241"/>
+      <c r="BO31" s="241"/>
+      <c r="BP31" s="241"/>
+      <c r="BQ31" s="241"/>
+      <c r="BR31" s="241"/>
+      <c r="BS31" s="241"/>
+      <c r="BT31" s="241"/>
+      <c r="BU31" s="241"/>
+      <c r="BV31" s="241"/>
+      <c r="BW31" s="241"/>
+      <c r="BX31" s="241"/>
+      <c r="BY31" s="241"/>
+      <c r="BZ31" s="241"/>
+      <c r="CA31" s="241"/>
+      <c r="CB31" s="241"/>
+      <c r="CC31" s="241"/>
+      <c r="CD31" s="241"/>
+      <c r="CE31" s="241"/>
+      <c r="CF31" s="241"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="11"/>
       <c r="D32" s="2"/>
-      <c r="L32" s="127" t="s">
-        <v>70</v>
+      <c r="L32" s="259" t="s">
+        <v>69</v>
       </c>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="128"/>
+      <c r="M32" s="259"/>
+      <c r="N32" s="259"/>
+      <c r="O32" s="259"/>
+      <c r="P32" s="259"/>
+      <c r="Q32" s="259"/>
+      <c r="R32" s="259"/>
+      <c r="S32" s="259"/>
+      <c r="T32" s="259"/>
+      <c r="U32" s="259"/>
+      <c r="V32" s="259"/>
+      <c r="W32" s="259"/>
+      <c r="X32" s="259"/>
+      <c r="Y32" s="259"/>
+      <c r="Z32" s="259"/>
+      <c r="AA32" s="259"/>
+      <c r="AB32" s="260"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="111" t="s">
+      <c r="AR32" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="AS32" s="111"/>
-      <c r="AT32" s="111"/>
-      <c r="AU32" s="111"/>
-      <c r="AV32" s="111"/>
-      <c r="AW32" s="111"/>
-      <c r="AX32" s="111"/>
-      <c r="AY32" s="111"/>
-      <c r="AZ32" s="111"/>
-      <c r="BA32" s="111"/>
-      <c r="BB32" s="111"/>
-      <c r="BC32" s="126"/>
-      <c r="BE32" s="103" t="s">
+      <c r="AS32" s="245"/>
+      <c r="AT32" s="245"/>
+      <c r="AU32" s="245"/>
+      <c r="AV32" s="245"/>
+      <c r="AW32" s="245"/>
+      <c r="AX32" s="245"/>
+      <c r="AY32" s="245"/>
+      <c r="AZ32" s="245"/>
+      <c r="BA32" s="245"/>
+      <c r="BB32" s="245"/>
+      <c r="BC32" s="258"/>
+      <c r="BE32" s="237" t="s">
         <v>16</v>
       </c>
-      <c r="BF32" s="104"/>
-      <c r="BG32" s="104"/>
-      <c r="BH32" s="104"/>
-      <c r="BI32" s="104"/>
-      <c r="BJ32" s="104"/>
-      <c r="BK32" s="104"/>
-      <c r="BL32" s="104"/>
-      <c r="BM32" s="104"/>
-      <c r="BN32" s="104"/>
-      <c r="BO32" s="104"/>
-      <c r="BP32" s="104"/>
-      <c r="BQ32" s="104"/>
-      <c r="BR32" s="104"/>
-      <c r="BS32" s="104"/>
-      <c r="BT32" s="104"/>
-      <c r="BU32" s="104"/>
-      <c r="BV32" s="104"/>
-      <c r="BW32" s="104"/>
-      <c r="BX32" s="104"/>
-      <c r="BY32" s="104"/>
-      <c r="BZ32" s="104"/>
-      <c r="CA32" s="104"/>
-      <c r="CB32" s="104"/>
-      <c r="CC32" s="104"/>
-      <c r="CD32" s="104"/>
-      <c r="CE32" s="104"/>
-      <c r="CF32" s="105"/>
+      <c r="BF32" s="238"/>
+      <c r="BG32" s="238"/>
+      <c r="BH32" s="238"/>
+      <c r="BI32" s="238"/>
+      <c r="BJ32" s="238"/>
+      <c r="BK32" s="238"/>
+      <c r="BL32" s="238"/>
+      <c r="BM32" s="238"/>
+      <c r="BN32" s="238"/>
+      <c r="BO32" s="238"/>
+      <c r="BP32" s="238"/>
+      <c r="BQ32" s="238"/>
+      <c r="BR32" s="238"/>
+      <c r="BS32" s="238"/>
+      <c r="BT32" s="238"/>
+      <c r="BU32" s="238"/>
+      <c r="BV32" s="238"/>
+      <c r="BW32" s="238"/>
+      <c r="BX32" s="238"/>
+      <c r="BY32" s="238"/>
+      <c r="BZ32" s="238"/>
+      <c r="CA32" s="238"/>
+      <c r="CB32" s="238"/>
+      <c r="CC32" s="238"/>
+      <c r="CD32" s="238"/>
+      <c r="CE32" s="238"/>
+      <c r="CF32" s="239"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="116"/>
+      <c r="D33" s="249"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="119"/>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119"/>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="120"/>
-      <c r="AD33" s="115" t="s">
+      <c r="L33" s="251"/>
+      <c r="M33" s="251"/>
+      <c r="N33" s="251"/>
+      <c r="O33" s="251"/>
+      <c r="P33" s="251"/>
+      <c r="Q33" s="251"/>
+      <c r="R33" s="251"/>
+      <c r="S33" s="251"/>
+      <c r="T33" s="251"/>
+      <c r="U33" s="251"/>
+      <c r="V33" s="251"/>
+      <c r="W33" s="251"/>
+      <c r="X33" s="251"/>
+      <c r="Y33" s="251"/>
+      <c r="Z33" s="251"/>
+      <c r="AA33" s="251"/>
+      <c r="AB33" s="252"/>
+      <c r="AD33" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="AE33" s="116"/>
+      <c r="AE33" s="249"/>
       <c r="AF33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AJ33" s="119"/>
-      <c r="AK33" s="119"/>
-      <c r="AL33" s="119"/>
-      <c r="AM33" s="119"/>
-      <c r="AN33" s="119"/>
-      <c r="AO33" s="119"/>
-      <c r="AP33" s="119"/>
-      <c r="AQ33" s="119"/>
-      <c r="AR33" s="119"/>
-      <c r="AS33" s="119"/>
-      <c r="AT33" s="119"/>
-      <c r="AU33" s="119"/>
-      <c r="AV33" s="119"/>
-      <c r="AW33" s="119"/>
-      <c r="AX33" s="119"/>
-      <c r="AY33" s="119"/>
-      <c r="AZ33" s="119"/>
-      <c r="BA33" s="119"/>
-      <c r="BB33" s="119"/>
-      <c r="BC33" s="120"/>
-      <c r="BE33" s="122" t="s">
+      <c r="AJ33" s="251"/>
+      <c r="AK33" s="251"/>
+      <c r="AL33" s="251"/>
+      <c r="AM33" s="251"/>
+      <c r="AN33" s="251"/>
+      <c r="AO33" s="251"/>
+      <c r="AP33" s="251"/>
+      <c r="AQ33" s="251"/>
+      <c r="AR33" s="251"/>
+      <c r="AS33" s="251"/>
+      <c r="AT33" s="251"/>
+      <c r="AU33" s="251"/>
+      <c r="AV33" s="251"/>
+      <c r="AW33" s="251"/>
+      <c r="AX33" s="251"/>
+      <c r="AY33" s="251"/>
+      <c r="AZ33" s="251"/>
+      <c r="BA33" s="251"/>
+      <c r="BB33" s="251"/>
+      <c r="BC33" s="252"/>
+      <c r="BE33" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="BF33" s="123"/>
-      <c r="BG33" s="102" t="s">
-        <v>67</v>
+      <c r="BF33" s="255"/>
+      <c r="BG33" s="236" t="s">
+        <v>66</v>
       </c>
-      <c r="BH33" s="102"/>
-      <c r="BI33" s="102"/>
-      <c r="BJ33" s="102"/>
-      <c r="BK33" s="102"/>
-      <c r="BL33" s="102"/>
-      <c r="BM33" s="102"/>
-      <c r="BN33" s="102"/>
-      <c r="BO33" s="102"/>
-      <c r="BP33" s="102"/>
-      <c r="BQ33" s="102"/>
-      <c r="BT33" s="111" t="s">
+      <c r="BH33" s="236"/>
+      <c r="BI33" s="236"/>
+      <c r="BJ33" s="236"/>
+      <c r="BK33" s="236"/>
+      <c r="BL33" s="236"/>
+      <c r="BM33" s="236"/>
+      <c r="BN33" s="236"/>
+      <c r="BO33" s="236"/>
+      <c r="BP33" s="236"/>
+      <c r="BQ33" s="236"/>
+      <c r="BT33" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="BU33" s="111"/>
-      <c r="BV33" s="111"/>
-      <c r="BW33" s="111"/>
-      <c r="BX33" s="111"/>
-      <c r="BY33" s="111"/>
-      <c r="BZ33" s="111"/>
-      <c r="CA33" s="111"/>
-      <c r="CB33" s="111"/>
-      <c r="CC33" s="111"/>
-      <c r="CD33" s="111"/>
-      <c r="CE33" s="111"/>
+      <c r="BU33" s="245"/>
+      <c r="BV33" s="245"/>
+      <c r="BW33" s="245"/>
+      <c r="BX33" s="245"/>
+      <c r="BY33" s="245"/>
+      <c r="BZ33" s="245"/>
+      <c r="CA33" s="245"/>
+      <c r="CB33" s="245"/>
+      <c r="CC33" s="245"/>
+      <c r="CD33" s="245"/>
+      <c r="CE33" s="245"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="249"/>
       <c r="E34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="119"/>
-      <c r="S34" s="119"/>
-      <c r="T34" s="119"/>
-      <c r="U34" s="119"/>
-      <c r="V34" s="119"/>
-      <c r="W34" s="119"/>
-      <c r="X34" s="119"/>
-      <c r="Y34" s="119"/>
-      <c r="Z34" s="119"/>
-      <c r="AA34" s="119"/>
-      <c r="AB34" s="120"/>
-      <c r="AD34" s="115"/>
-      <c r="AE34" s="116"/>
+      <c r="L34" s="251"/>
+      <c r="M34" s="251"/>
+      <c r="N34" s="251"/>
+      <c r="O34" s="251"/>
+      <c r="P34" s="251"/>
+      <c r="Q34" s="251"/>
+      <c r="R34" s="251"/>
+      <c r="S34" s="251"/>
+      <c r="T34" s="251"/>
+      <c r="U34" s="251"/>
+      <c r="V34" s="251"/>
+      <c r="W34" s="251"/>
+      <c r="X34" s="251"/>
+      <c r="Y34" s="251"/>
+      <c r="Z34" s="251"/>
+      <c r="AA34" s="251"/>
+      <c r="AB34" s="252"/>
+      <c r="AD34" s="147"/>
+      <c r="AE34" s="249"/>
       <c r="AF34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AJ34" s="119"/>
-      <c r="AK34" s="119"/>
-      <c r="AL34" s="119"/>
-      <c r="AM34" s="119"/>
-      <c r="AN34" s="119"/>
-      <c r="AO34" s="119"/>
-      <c r="AP34" s="119"/>
-      <c r="AQ34" s="119"/>
-      <c r="AR34" s="119"/>
-      <c r="AS34" s="119"/>
-      <c r="AT34" s="119"/>
-      <c r="AU34" s="119"/>
-      <c r="AV34" s="119"/>
-      <c r="AW34" s="119"/>
-      <c r="AX34" s="119"/>
-      <c r="AY34" s="119"/>
-      <c r="AZ34" s="119"/>
-      <c r="BA34" s="119"/>
-      <c r="BB34" s="119"/>
-      <c r="BC34" s="120"/>
-      <c r="BE34" s="122"/>
-      <c r="BF34" s="123"/>
+      <c r="AJ34" s="251"/>
+      <c r="AK34" s="251"/>
+      <c r="AL34" s="251"/>
+      <c r="AM34" s="251"/>
+      <c r="AN34" s="251"/>
+      <c r="AO34" s="251"/>
+      <c r="AP34" s="251"/>
+      <c r="AQ34" s="251"/>
+      <c r="AR34" s="251"/>
+      <c r="AS34" s="251"/>
+      <c r="AT34" s="251"/>
+      <c r="AU34" s="251"/>
+      <c r="AV34" s="251"/>
+      <c r="AW34" s="251"/>
+      <c r="AX34" s="251"/>
+      <c r="AY34" s="251"/>
+      <c r="AZ34" s="251"/>
+      <c r="BA34" s="251"/>
+      <c r="BB34" s="251"/>
+      <c r="BC34" s="252"/>
+      <c r="BE34" s="254"/>
+      <c r="BF34" s="255"/>
       <c r="BG34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BL34" s="99"/>
-      <c r="BM34" s="99"/>
-      <c r="BN34" s="99"/>
-      <c r="BO34" s="99"/>
-      <c r="BP34" s="99"/>
-      <c r="BQ34" s="99"/>
-      <c r="BR34" s="99"/>
-      <c r="BS34" s="99"/>
-      <c r="BT34" s="99"/>
-      <c r="BU34" s="99"/>
-      <c r="BV34" s="99"/>
-      <c r="BW34" s="99"/>
-      <c r="BX34" s="99"/>
-      <c r="BY34" s="99"/>
-      <c r="BZ34" s="99"/>
-      <c r="CA34" s="99"/>
-      <c r="CB34" s="99"/>
-      <c r="CC34" s="99"/>
-      <c r="CD34" s="99"/>
+      <c r="BL34" s="177"/>
+      <c r="BM34" s="177"/>
+      <c r="BN34" s="177"/>
+      <c r="BO34" s="177"/>
+      <c r="BP34" s="177"/>
+      <c r="BQ34" s="177"/>
+      <c r="BR34" s="177"/>
+      <c r="BS34" s="177"/>
+      <c r="BT34" s="177"/>
+      <c r="BU34" s="177"/>
+      <c r="BV34" s="177"/>
+      <c r="BW34" s="177"/>
+      <c r="BX34" s="177"/>
+      <c r="BY34" s="177"/>
+      <c r="BZ34" s="177"/>
+      <c r="CA34" s="177"/>
+      <c r="CB34" s="177"/>
+      <c r="CC34" s="177"/>
+      <c r="CD34" s="177"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="115"/>
-      <c r="D35" s="116"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="249"/>
       <c r="E35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="119"/>
-      <c r="T35" s="119"/>
-      <c r="U35" s="119"/>
-      <c r="V35" s="119"/>
-      <c r="W35" s="119"/>
-      <c r="X35" s="119"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="119"/>
+      <c r="L35" s="251"/>
+      <c r="M35" s="251"/>
+      <c r="N35" s="251"/>
+      <c r="O35" s="251"/>
+      <c r="P35" s="251"/>
+      <c r="Q35" s="251"/>
+      <c r="R35" s="251"/>
+      <c r="S35" s="251"/>
+      <c r="T35" s="251"/>
+      <c r="U35" s="251"/>
+      <c r="V35" s="251"/>
+      <c r="W35" s="251"/>
+      <c r="X35" s="251"/>
+      <c r="Y35" s="251"/>
+      <c r="Z35" s="251"/>
       <c r="AA35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="AB35" s="9"/>
-      <c r="AD35" s="115"/>
-      <c r="AE35" s="116"/>
+      <c r="AD35" s="147"/>
+      <c r="AE35" s="249"/>
       <c r="AF35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AJ35" s="119"/>
-      <c r="AK35" s="119"/>
-      <c r="AL35" s="119"/>
-      <c r="AM35" s="119"/>
-      <c r="AN35" s="119"/>
-      <c r="AO35" s="119"/>
-      <c r="AP35" s="119"/>
-      <c r="AQ35" s="119"/>
-      <c r="AR35" s="119"/>
-      <c r="AS35" s="119"/>
-      <c r="AT35" s="119"/>
-      <c r="AU35" s="119"/>
-      <c r="AV35" s="119"/>
-      <c r="AW35" s="119"/>
-      <c r="AX35" s="119"/>
-      <c r="AY35" s="119"/>
-      <c r="AZ35" s="119"/>
-      <c r="BA35" s="119"/>
+      <c r="AJ35" s="251"/>
+      <c r="AK35" s="251"/>
+      <c r="AL35" s="251"/>
+      <c r="AM35" s="251"/>
+      <c r="AN35" s="251"/>
+      <c r="AO35" s="251"/>
+      <c r="AP35" s="251"/>
+      <c r="AQ35" s="251"/>
+      <c r="AR35" s="251"/>
+      <c r="AS35" s="251"/>
+      <c r="AT35" s="251"/>
+      <c r="AU35" s="251"/>
+      <c r="AV35" s="251"/>
+      <c r="AW35" s="251"/>
+      <c r="AX35" s="251"/>
+      <c r="AY35" s="251"/>
+      <c r="AZ35" s="251"/>
+      <c r="BA35" s="251"/>
       <c r="BB35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="BC35" s="9"/>
-      <c r="BE35" s="122"/>
-      <c r="BF35" s="123"/>
+      <c r="BE35" s="254"/>
+      <c r="BF35" s="255"/>
       <c r="BG35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BL35" s="99"/>
-      <c r="BM35" s="99"/>
-      <c r="BN35" s="99"/>
-      <c r="BO35" s="99"/>
-      <c r="BP35" s="99"/>
-      <c r="BQ35" s="99"/>
-      <c r="BR35" s="99"/>
-      <c r="BS35" s="99"/>
-      <c r="BT35" s="99"/>
-      <c r="BU35" s="99"/>
-      <c r="BV35" s="99"/>
-      <c r="BW35" s="99"/>
-      <c r="BX35" s="99"/>
-      <c r="BY35" s="99"/>
-      <c r="BZ35" s="99"/>
-      <c r="CA35" s="99"/>
-      <c r="CB35" s="99"/>
+      <c r="BL35" s="177"/>
+      <c r="BM35" s="177"/>
+      <c r="BN35" s="177"/>
+      <c r="BO35" s="177"/>
+      <c r="BP35" s="177"/>
+      <c r="BQ35" s="177"/>
+      <c r="BR35" s="177"/>
+      <c r="BS35" s="177"/>
+      <c r="BT35" s="177"/>
+      <c r="BU35" s="177"/>
+      <c r="BV35" s="177"/>
+      <c r="BW35" s="177"/>
+      <c r="BX35" s="177"/>
+      <c r="BY35" s="177"/>
+      <c r="BZ35" s="177"/>
+      <c r="CA35" s="177"/>
+      <c r="CB35" s="177"/>
       <c r="CC35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="117"/>
-      <c r="D36" s="118"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="7" t="s">
         <v>2</v>
       </c>
@@ -11255,53 +10680,53 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="99"/>
-      <c r="U36" s="99"/>
-      <c r="V36" s="99"/>
-      <c r="W36" s="99"/>
-      <c r="X36" s="99"/>
-      <c r="Y36" s="99"/>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="121"/>
-      <c r="AD36" s="117"/>
-      <c r="AE36" s="118"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="177"/>
+      <c r="T36" s="177"/>
+      <c r="U36" s="177"/>
+      <c r="V36" s="177"/>
+      <c r="W36" s="177"/>
+      <c r="X36" s="177"/>
+      <c r="Y36" s="177"/>
+      <c r="Z36" s="177"/>
+      <c r="AA36" s="177"/>
+      <c r="AB36" s="253"/>
+      <c r="AD36" s="149"/>
+      <c r="AE36" s="250"/>
       <c r="AF36" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="99"/>
-      <c r="AK36" s="99"/>
-      <c r="AL36" s="99"/>
-      <c r="AM36" s="99"/>
-      <c r="AN36" s="99"/>
-      <c r="AO36" s="99"/>
-      <c r="AP36" s="99"/>
-      <c r="AQ36" s="99"/>
-      <c r="AR36" s="99"/>
-      <c r="AS36" s="99"/>
-      <c r="AT36" s="99"/>
-      <c r="AU36" s="99"/>
-      <c r="AV36" s="99"/>
-      <c r="AW36" s="99"/>
-      <c r="AX36" s="99"/>
-      <c r="AY36" s="99"/>
-      <c r="AZ36" s="99"/>
-      <c r="BA36" s="99"/>
-      <c r="BB36" s="99"/>
-      <c r="BC36" s="121"/>
-      <c r="BE36" s="124"/>
-      <c r="BF36" s="125"/>
+      <c r="AJ36" s="177"/>
+      <c r="AK36" s="177"/>
+      <c r="AL36" s="177"/>
+      <c r="AM36" s="177"/>
+      <c r="AN36" s="177"/>
+      <c r="AO36" s="177"/>
+      <c r="AP36" s="177"/>
+      <c r="AQ36" s="177"/>
+      <c r="AR36" s="177"/>
+      <c r="AS36" s="177"/>
+      <c r="AT36" s="177"/>
+      <c r="AU36" s="177"/>
+      <c r="AV36" s="177"/>
+      <c r="AW36" s="177"/>
+      <c r="AX36" s="177"/>
+      <c r="AY36" s="177"/>
+      <c r="AZ36" s="177"/>
+      <c r="BA36" s="177"/>
+      <c r="BB36" s="177"/>
+      <c r="BC36" s="253"/>
+      <c r="BE36" s="256"/>
+      <c r="BF36" s="257"/>
       <c r="BG36" s="6" t="s">
         <v>0</v>
       </c>
@@ -11309,27 +10734,27 @@
       <c r="BI36" s="5"/>
       <c r="BJ36" s="5"/>
       <c r="BK36" s="5"/>
-      <c r="BL36" s="100" t="s">
-        <v>69</v>
+      <c r="BL36" s="234" t="s">
+        <v>68</v>
       </c>
-      <c r="BM36" s="101"/>
-      <c r="BN36" s="101"/>
-      <c r="BO36" s="101"/>
-      <c r="BP36" s="101"/>
-      <c r="BQ36" s="101"/>
-      <c r="BR36" s="101"/>
-      <c r="BS36" s="101"/>
-      <c r="BT36" s="101"/>
-      <c r="BU36" s="101"/>
-      <c r="BV36" s="101"/>
-      <c r="BW36" s="101"/>
-      <c r="BX36" s="101"/>
-      <c r="BY36" s="101"/>
-      <c r="BZ36" s="101"/>
-      <c r="CA36" s="101"/>
-      <c r="CB36" s="101"/>
-      <c r="CC36" s="101"/>
-      <c r="CD36" s="101"/>
+      <c r="BM36" s="235"/>
+      <c r="BN36" s="235"/>
+      <c r="BO36" s="235"/>
+      <c r="BP36" s="235"/>
+      <c r="BQ36" s="235"/>
+      <c r="BR36" s="235"/>
+      <c r="BS36" s="235"/>
+      <c r="BT36" s="235"/>
+      <c r="BU36" s="235"/>
+      <c r="BV36" s="235"/>
+      <c r="BW36" s="235"/>
+      <c r="BX36" s="235"/>
+      <c r="BY36" s="235"/>
+      <c r="BZ36" s="235"/>
+      <c r="CA36" s="235"/>
+      <c r="CB36" s="235"/>
+      <c r="CC36" s="235"/>
+      <c r="CD36" s="235"/>
       <c r="CE36" s="5"/>
       <c r="CF36" s="5"/>
       <c r="CG36" s="4"/>
@@ -11557,100 +10982,66 @@
       <c r="G76"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BZ3:CD4"/>
-    <mergeCell ref="BZ7:CA8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AF25:AG26"/>
-    <mergeCell ref="AO10:AR11"/>
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BU3:BY4"/>
-    <mergeCell ref="BP3:BT4"/>
-    <mergeCell ref="BL6:CA6"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AS10:CD11"/>
-    <mergeCell ref="AB12:CD13"/>
-    <mergeCell ref="BS16:CD21"/>
-    <mergeCell ref="AN25:AQ26"/>
-    <mergeCell ref="AH25:AM26"/>
-    <mergeCell ref="AR25:BP26"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="E6:F15"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="BX7:BY8"/>
-    <mergeCell ref="BP7:BQ8"/>
-    <mergeCell ref="BR7:BS8"/>
-    <mergeCell ref="BT7:BU8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="V24:W26"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="AW21:AY22"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="P12:W13"/>
-    <mergeCell ref="X12:AA13"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="BF8:BK8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="AG10:AN11"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="AV6:BK6"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="BD7:BK7"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="AB27:BI28"/>
+  <mergeCells count="174">
+    <mergeCell ref="AH25:BP26"/>
+    <mergeCell ref="P27:BI28"/>
+    <mergeCell ref="CV21:CX23"/>
+    <mergeCell ref="G20:AD20"/>
+    <mergeCell ref="AE20:AT20"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BI20:BQ20"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="T9:U11"/>
+    <mergeCell ref="AK9:CD9"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="G14:L15"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="J9:O11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="AG10:CD11"/>
+    <mergeCell ref="P12:CD13"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
     <mergeCell ref="AH24:AK24"/>
     <mergeCell ref="AD25:AE26"/>
     <mergeCell ref="AF14:AI15"/>
@@ -11674,72 +11065,98 @@
     <mergeCell ref="AB25:AC26"/>
     <mergeCell ref="Z25:AA26"/>
     <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="P27:W28"/>
-    <mergeCell ref="X27:AA28"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="AV6:BK6"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="BD7:BK7"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="AB7:AC8"/>
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="S7:W8"/>
     <mergeCell ref="G6:R6"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="Z9:AA11"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="CV21:CX23"/>
-    <mergeCell ref="G20:AD20"/>
-    <mergeCell ref="AE20:AT20"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BI20:BQ20"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AK9:CD9"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="G14:L15"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="J9:O11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BF8:BK8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="BX7:BY8"/>
+    <mergeCell ref="BP7:BQ8"/>
+    <mergeCell ref="BR7:BS8"/>
+    <mergeCell ref="BT7:BU8"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="AW21:AY22"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ3:CD4"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AF25:AG26"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BU3:BY4"/>
+    <mergeCell ref="BP3:BT4"/>
+    <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="BS16:CD21"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="E6:F15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NSS\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6905A6-4474-4C93-BF8C-7DB745A9A240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0905F8E0-F733-421C-BFF3-DB1B96F432DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6254C165-ABD6-4E53-9ECE-5A2DBD780014}"/>
   </bookViews>
@@ -560,19 +560,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　　　　　　　　　　　（      被保険者と配偶者は同居している。）</t>
-    <rPh sb="18" eb="22">
-      <t>ヒホケンシャ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ハイグウシャ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ドウキョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>同居の場合は、下記の□欄に「レ」等のしるしを付してください。</t>
     </r>
@@ -979,6 +966,9 @@
   </si>
   <si>
     <t>住　所</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　（      被保険者と配偶者は同居している。）</t>
   </si>
 </sst>
 </file>
@@ -2041,6 +2031,732 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2050,72 +2766,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2128,30 +2781,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2161,39 +2796,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2204,9 +2809,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -2215,625 +2817,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2874,7 +2864,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6862,7 +6852,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+            <xdr:cNvPr id="1029" name="333" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
@@ -8072,8 +8062,8 @@
   </sheetPr>
   <dimension ref="C1:CX76"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25:BP26"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10:CD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -8094,976 +8084,976 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="BK2" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL2" s="39"/>
-      <c r="BM2" s="39"/>
-      <c r="BN2" s="39"/>
-      <c r="BO2" s="39"/>
-      <c r="BP2" s="29" t="s">
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="BK2" s="278" t="s">
         <v>62</v>
       </c>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="31"/>
-      <c r="BU2" s="39" t="s">
+      <c r="BL2" s="274"/>
+      <c r="BM2" s="274"/>
+      <c r="BN2" s="274"/>
+      <c r="BO2" s="274"/>
+      <c r="BP2" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="BV2" s="39"/>
-      <c r="BW2" s="39"/>
-      <c r="BX2" s="39"/>
-      <c r="BY2" s="39"/>
-      <c r="BZ2" s="54" t="s">
+      <c r="BQ2" s="272"/>
+      <c r="BR2" s="272"/>
+      <c r="BS2" s="272"/>
+      <c r="BT2" s="273"/>
+      <c r="BU2" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="CA2" s="55"/>
-      <c r="CB2" s="55"/>
-      <c r="CC2" s="55"/>
-      <c r="CD2" s="56"/>
+      <c r="BV2" s="274"/>
+      <c r="BW2" s="274"/>
+      <c r="BX2" s="274"/>
+      <c r="BY2" s="274"/>
+      <c r="BZ2" s="275" t="s">
+        <v>59</v>
+      </c>
+      <c r="CA2" s="276"/>
+      <c r="CB2" s="276"/>
+      <c r="CC2" s="276"/>
+      <c r="CD2" s="277"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="Y3" s="170" t="s">
-        <v>59</v>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="Y3" s="212" t="s">
+        <v>58</v>
       </c>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="170"/>
-      <c r="AK3" s="170"/>
-      <c r="AL3" s="170"/>
-      <c r="AM3" s="170"/>
-      <c r="AN3" s="170"/>
-      <c r="AO3" s="170"/>
-      <c r="AP3" s="170"/>
-      <c r="AQ3" s="170"/>
-      <c r="AR3" s="170"/>
-      <c r="AS3" s="170"/>
-      <c r="AT3" s="170"/>
-      <c r="AU3" s="170"/>
-      <c r="AV3" s="170"/>
-      <c r="AW3" s="170"/>
-      <c r="AX3" s="170"/>
-      <c r="AY3" s="170"/>
-      <c r="AZ3" s="170"/>
-      <c r="BA3" s="170"/>
-      <c r="BB3" s="170"/>
-      <c r="BC3" s="170"/>
-      <c r="BD3" s="170"/>
-      <c r="BE3" s="170"/>
-      <c r="BF3" s="170"/>
-      <c r="BG3" s="170"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="212"/>
+      <c r="AE3" s="212"/>
+      <c r="AF3" s="212"/>
+      <c r="AG3" s="212"/>
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="212"/>
+      <c r="AJ3" s="212"/>
+      <c r="AK3" s="212"/>
+      <c r="AL3" s="212"/>
+      <c r="AM3" s="212"/>
+      <c r="AN3" s="212"/>
+      <c r="AO3" s="212"/>
+      <c r="AP3" s="212"/>
+      <c r="AQ3" s="212"/>
+      <c r="AR3" s="212"/>
+      <c r="AS3" s="212"/>
+      <c r="AT3" s="212"/>
+      <c r="AU3" s="212"/>
+      <c r="AV3" s="212"/>
+      <c r="AW3" s="212"/>
+      <c r="AX3" s="212"/>
+      <c r="AY3" s="212"/>
+      <c r="AZ3" s="212"/>
+      <c r="BA3" s="212"/>
+      <c r="BB3" s="212"/>
+      <c r="BC3" s="212"/>
+      <c r="BD3" s="212"/>
+      <c r="BE3" s="212"/>
+      <c r="BF3" s="212"/>
+      <c r="BG3" s="212"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
-      <c r="BK3" s="40"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="40"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="40"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="41"/>
-      <c r="CB3" s="41"/>
-      <c r="CC3" s="41"/>
-      <c r="CD3" s="42"/>
+      <c r="BK3" s="137"/>
+      <c r="BL3" s="138"/>
+      <c r="BM3" s="138"/>
+      <c r="BN3" s="138"/>
+      <c r="BO3" s="139"/>
+      <c r="BP3" s="137"/>
+      <c r="BQ3" s="138"/>
+      <c r="BR3" s="138"/>
+      <c r="BS3" s="138"/>
+      <c r="BT3" s="139"/>
+      <c r="BU3" s="137"/>
+      <c r="BV3" s="138"/>
+      <c r="BW3" s="138"/>
+      <c r="BX3" s="138"/>
+      <c r="BY3" s="139"/>
+      <c r="BZ3" s="137"/>
+      <c r="CA3" s="138"/>
+      <c r="CB3" s="138"/>
+      <c r="CC3" s="138"/>
+      <c r="CD3" s="139"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170"/>
-      <c r="AB4" s="170"/>
-      <c r="AC4" s="170"/>
-      <c r="AD4" s="170"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="170"/>
-      <c r="AG4" s="170"/>
-      <c r="AH4" s="170"/>
-      <c r="AI4" s="170"/>
-      <c r="AJ4" s="170"/>
-      <c r="AK4" s="170"/>
-      <c r="AL4" s="170"/>
-      <c r="AM4" s="170"/>
-      <c r="AN4" s="170"/>
-      <c r="AO4" s="170"/>
-      <c r="AP4" s="170"/>
-      <c r="AQ4" s="170"/>
-      <c r="AR4" s="170"/>
-      <c r="AS4" s="170"/>
-      <c r="AT4" s="170"/>
-      <c r="AU4" s="170"/>
-      <c r="AV4" s="170"/>
-      <c r="AW4" s="170"/>
-      <c r="AX4" s="170"/>
-      <c r="AY4" s="170"/>
-      <c r="AZ4" s="170"/>
-      <c r="BA4" s="170"/>
-      <c r="BB4" s="170"/>
-      <c r="BC4" s="170"/>
-      <c r="BD4" s="170"/>
-      <c r="BE4" s="170"/>
-      <c r="BF4" s="170"/>
-      <c r="BG4" s="170"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="213"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="213"/>
+      <c r="R4" s="213"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="Y4" s="212"/>
+      <c r="Z4" s="212"/>
+      <c r="AA4" s="212"/>
+      <c r="AB4" s="212"/>
+      <c r="AC4" s="212"/>
+      <c r="AD4" s="212"/>
+      <c r="AE4" s="212"/>
+      <c r="AF4" s="212"/>
+      <c r="AG4" s="212"/>
+      <c r="AH4" s="212"/>
+      <c r="AI4" s="212"/>
+      <c r="AJ4" s="212"/>
+      <c r="AK4" s="212"/>
+      <c r="AL4" s="212"/>
+      <c r="AM4" s="212"/>
+      <c r="AN4" s="212"/>
+      <c r="AO4" s="212"/>
+      <c r="AP4" s="212"/>
+      <c r="AQ4" s="212"/>
+      <c r="AR4" s="212"/>
+      <c r="AS4" s="212"/>
+      <c r="AT4" s="212"/>
+      <c r="AU4" s="212"/>
+      <c r="AV4" s="212"/>
+      <c r="AW4" s="212"/>
+      <c r="AX4" s="212"/>
+      <c r="AY4" s="212"/>
+      <c r="AZ4" s="212"/>
+      <c r="BA4" s="212"/>
+      <c r="BB4" s="212"/>
+      <c r="BC4" s="212"/>
+      <c r="BD4" s="212"/>
+      <c r="BE4" s="212"/>
+      <c r="BF4" s="212"/>
+      <c r="BG4" s="212"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="43"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="45"/>
-      <c r="BP4" s="43"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="45"/>
-      <c r="BU4" s="43"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="45"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="45"/>
+      <c r="BK4" s="214"/>
+      <c r="BL4" s="191"/>
+      <c r="BM4" s="191"/>
+      <c r="BN4" s="191"/>
+      <c r="BO4" s="215"/>
+      <c r="BP4" s="214"/>
+      <c r="BQ4" s="191"/>
+      <c r="BR4" s="191"/>
+      <c r="BS4" s="191"/>
+      <c r="BT4" s="215"/>
+      <c r="BU4" s="214"/>
+      <c r="BV4" s="191"/>
+      <c r="BW4" s="191"/>
+      <c r="BX4" s="191"/>
+      <c r="BY4" s="215"/>
+      <c r="BZ4" s="214"/>
+      <c r="CA4" s="191"/>
+      <c r="CB4" s="191"/>
+      <c r="CC4" s="191"/>
+      <c r="CD4" s="215"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="233"/>
+      <c r="E6" s="143" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="145"/>
+      <c r="G6" s="220" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="220"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="220"/>
+      <c r="P6" s="220"/>
+      <c r="Q6" s="220"/>
+      <c r="R6" s="220"/>
+      <c r="S6" s="218" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="219"/>
+      <c r="U6" s="219"/>
+      <c r="V6" s="219"/>
+      <c r="W6" s="219"/>
+      <c r="X6" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW6" s="31"/>
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="31"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="31"/>
+      <c r="BC6" s="31"/>
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="162" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="160" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="161"/>
-      <c r="U6" s="161"/>
-      <c r="V6" s="161"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="167" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" s="151"/>
-      <c r="Z6" s="151"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="151"/>
-      <c r="AC6" s="151"/>
-      <c r="AD6" s="151"/>
-      <c r="AE6" s="151"/>
-      <c r="AF6" s="151"/>
-      <c r="AG6" s="151"/>
-      <c r="AH6" s="151"/>
-      <c r="AI6" s="151"/>
-      <c r="AJ6" s="151"/>
-      <c r="AK6" s="151"/>
-      <c r="AL6" s="151"/>
-      <c r="AM6" s="151"/>
-      <c r="AN6" s="151"/>
-      <c r="AO6" s="151"/>
-      <c r="AP6" s="151"/>
-      <c r="AQ6" s="151"/>
-      <c r="AR6" s="151"/>
-      <c r="AS6" s="151"/>
-      <c r="AT6" s="151"/>
-      <c r="AU6" s="152"/>
-      <c r="AV6" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW6" s="151"/>
-      <c r="AX6" s="151"/>
-      <c r="AY6" s="151"/>
-      <c r="AZ6" s="151"/>
-      <c r="BA6" s="151"/>
-      <c r="BB6" s="151"/>
-      <c r="BC6" s="151"/>
-      <c r="BD6" s="151"/>
-      <c r="BE6" s="151"/>
-      <c r="BF6" s="151"/>
-      <c r="BG6" s="151"/>
-      <c r="BH6" s="151"/>
-      <c r="BI6" s="151"/>
-      <c r="BJ6" s="151"/>
-      <c r="BK6" s="152"/>
-      <c r="BL6" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM6" s="41"/>
-      <c r="BN6" s="41"/>
-      <c r="BO6" s="41"/>
-      <c r="BP6" s="41"/>
-      <c r="BQ6" s="41"/>
-      <c r="BR6" s="41"/>
-      <c r="BS6" s="41"/>
-      <c r="BT6" s="41"/>
-      <c r="BU6" s="41"/>
-      <c r="BV6" s="41"/>
-      <c r="BW6" s="41"/>
-      <c r="BX6" s="41"/>
-      <c r="BY6" s="41"/>
-      <c r="BZ6" s="41"/>
-      <c r="CA6" s="42"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="138"/>
+      <c r="BO6" s="138"/>
+      <c r="BP6" s="138"/>
+      <c r="BQ6" s="138"/>
+      <c r="BR6" s="138"/>
+      <c r="BS6" s="138"/>
+      <c r="BT6" s="138"/>
+      <c r="BU6" s="138"/>
+      <c r="BV6" s="138"/>
+      <c r="BW6" s="138"/>
+      <c r="BX6" s="138"/>
+      <c r="BY6" s="138"/>
+      <c r="BZ6" s="138"/>
+      <c r="CA6" s="139"/>
       <c r="CB6"/>
       <c r="CC6"/>
       <c r="CD6" s="27"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="153" t="s">
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="153"/>
+      <c r="W7" s="153"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="225"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="225"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="152"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="225"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="226" t="s">
         <v>24</v>
       </c>
-      <c r="AW7" s="154"/>
-      <c r="AX7" s="155"/>
-      <c r="AY7" s="155"/>
-      <c r="AZ7" s="155"/>
-      <c r="BA7" s="155"/>
-      <c r="BB7" s="155"/>
-      <c r="BC7" s="156"/>
-      <c r="BD7" s="157"/>
-      <c r="BE7" s="158"/>
-      <c r="BF7" s="158"/>
-      <c r="BG7" s="158"/>
-      <c r="BH7" s="158"/>
-      <c r="BI7" s="158"/>
-      <c r="BJ7" s="158"/>
-      <c r="BK7" s="159"/>
-      <c r="BL7" s="135" t="s">
+      <c r="AW7" s="227"/>
+      <c r="AX7" s="228"/>
+      <c r="AY7" s="228"/>
+      <c r="AZ7" s="228"/>
+      <c r="BA7" s="228"/>
+      <c r="BB7" s="228"/>
+      <c r="BC7" s="229"/>
+      <c r="BD7" s="216"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="33"/>
+      <c r="BK7" s="217"/>
+      <c r="BL7" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="BM7" s="136"/>
-      <c r="BN7" s="136"/>
-      <c r="BO7" s="137"/>
-      <c r="BP7" s="91"/>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="90"/>
-      <c r="BS7" s="37"/>
-      <c r="BT7" s="91"/>
-      <c r="BU7" s="37"/>
-      <c r="BV7" s="90"/>
-      <c r="BW7" s="37"/>
-      <c r="BX7" s="91"/>
-      <c r="BY7" s="90"/>
-      <c r="BZ7" s="46"/>
-      <c r="CA7" s="47"/>
+      <c r="BM7" s="206"/>
+      <c r="BN7" s="206"/>
+      <c r="BO7" s="207"/>
+      <c r="BP7" s="291"/>
+      <c r="BQ7" s="40"/>
+      <c r="BR7" s="153"/>
+      <c r="BS7" s="40"/>
+      <c r="BT7" s="291"/>
+      <c r="BU7" s="40"/>
+      <c r="BV7" s="153"/>
+      <c r="BW7" s="40"/>
+      <c r="BX7" s="291"/>
+      <c r="BY7" s="153"/>
+      <c r="BZ7" s="39"/>
+      <c r="CA7" s="240"/>
       <c r="CB7" s="28"/>
       <c r="CC7"/>
       <c r="CD7" s="27"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW8" s="128"/>
-      <c r="AX8" s="129"/>
-      <c r="AY8" s="129"/>
-      <c r="AZ8" s="129"/>
-      <c r="BA8" s="129"/>
-      <c r="BB8" s="129"/>
-      <c r="BC8" s="130"/>
-      <c r="BD8" s="131" t="s">
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="155"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="156"/>
+      <c r="W8" s="156"/>
+      <c r="X8" s="155"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="156"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="155"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="156"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="155"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="241" t="s">
         <v>52</v>
       </c>
-      <c r="BE8" s="132"/>
-      <c r="BF8" s="133"/>
-      <c r="BG8" s="133"/>
-      <c r="BH8" s="133"/>
-      <c r="BI8" s="133"/>
-      <c r="BJ8" s="133"/>
-      <c r="BK8" s="134"/>
-      <c r="BL8" s="138"/>
-      <c r="BM8" s="139"/>
-      <c r="BN8" s="139"/>
-      <c r="BO8" s="140"/>
-      <c r="BP8" s="92"/>
-      <c r="BQ8" s="35"/>
-      <c r="BR8" s="34"/>
-      <c r="BS8" s="35"/>
-      <c r="BT8" s="92"/>
-      <c r="BU8" s="35"/>
-      <c r="BV8" s="34"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="92"/>
-      <c r="BY8" s="34"/>
-      <c r="BZ8" s="48"/>
-      <c r="CA8" s="49"/>
+      <c r="AW8" s="242"/>
+      <c r="AX8" s="243"/>
+      <c r="AY8" s="243"/>
+      <c r="AZ8" s="243"/>
+      <c r="BA8" s="243"/>
+      <c r="BB8" s="243"/>
+      <c r="BC8" s="244"/>
+      <c r="BD8" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE8" s="246"/>
+      <c r="BF8" s="247"/>
+      <c r="BG8" s="247"/>
+      <c r="BH8" s="247"/>
+      <c r="BI8" s="247"/>
+      <c r="BJ8" s="247"/>
+      <c r="BK8" s="248"/>
+      <c r="BL8" s="208"/>
+      <c r="BM8" s="209"/>
+      <c r="BN8" s="209"/>
+      <c r="BO8" s="210"/>
+      <c r="BP8" s="292"/>
+      <c r="BQ8" s="44"/>
+      <c r="BR8" s="156"/>
+      <c r="BS8" s="44"/>
+      <c r="BT8" s="292"/>
+      <c r="BU8" s="44"/>
+      <c r="BV8" s="156"/>
+      <c r="BW8" s="44"/>
+      <c r="BX8" s="292"/>
+      <c r="BY8" s="156"/>
+      <c r="BZ8" s="43"/>
+      <c r="CA8" s="256"/>
       <c r="CB8" s="13"/>
       <c r="CC8" s="5"/>
       <c r="CD8" s="27"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="272" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="273"/>
-      <c r="I9" s="274"/>
-      <c r="J9" s="281" t="s">
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="282"/>
-      <c r="L9" s="282"/>
-      <c r="M9" s="282"/>
-      <c r="N9" s="282"/>
-      <c r="O9" s="283"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="58" t="s">
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="67" t="s">
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="68"/>
-      <c r="AK9" s="264"/>
-      <c r="AL9" s="264"/>
-      <c r="AM9" s="264"/>
-      <c r="AN9" s="264"/>
-      <c r="AO9" s="264"/>
-      <c r="AP9" s="264"/>
-      <c r="AQ9" s="264"/>
-      <c r="AR9" s="264"/>
-      <c r="AS9" s="264"/>
-      <c r="AT9" s="264"/>
-      <c r="AU9" s="264"/>
-      <c r="AV9" s="264"/>
-      <c r="AW9" s="264"/>
-      <c r="AX9" s="264"/>
-      <c r="AY9" s="264"/>
-      <c r="AZ9" s="264"/>
-      <c r="BA9" s="264"/>
-      <c r="BB9" s="264"/>
-      <c r="BC9" s="264"/>
-      <c r="BD9" s="264"/>
-      <c r="BE9" s="264"/>
-      <c r="BF9" s="264"/>
-      <c r="BG9" s="264"/>
-      <c r="BH9" s="264"/>
-      <c r="BI9" s="264"/>
-      <c r="BJ9" s="264"/>
-      <c r="BK9" s="264"/>
-      <c r="BL9" s="264"/>
-      <c r="BM9" s="264"/>
-      <c r="BN9" s="264"/>
-      <c r="BO9" s="264"/>
-      <c r="BP9" s="264"/>
-      <c r="BQ9" s="264"/>
-      <c r="BR9" s="264"/>
-      <c r="BS9" s="264"/>
-      <c r="BT9" s="264"/>
-      <c r="BU9" s="264"/>
-      <c r="BV9" s="264"/>
-      <c r="BW9" s="264"/>
-      <c r="BX9" s="264"/>
-      <c r="BY9" s="264"/>
-      <c r="BZ9" s="264"/>
-      <c r="CA9" s="264"/>
-      <c r="CB9" s="264"/>
-      <c r="CC9" s="264"/>
-      <c r="CD9" s="265"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="279"/>
+      <c r="AG9" s="282" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH9" s="283"/>
+      <c r="AI9" s="283"/>
+      <c r="AJ9" s="283"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="45"/>
+      <c r="BF9" s="45"/>
+      <c r="BG9" s="45"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="45"/>
+      <c r="BJ9" s="45"/>
+      <c r="BK9" s="45"/>
+      <c r="BL9" s="45"/>
+      <c r="BM9" s="45"/>
+      <c r="BN9" s="45"/>
+      <c r="BO9" s="45"/>
+      <c r="BP9" s="45"/>
+      <c r="BQ9" s="45"/>
+      <c r="BR9" s="45"/>
+      <c r="BS9" s="45"/>
+      <c r="BT9" s="45"/>
+      <c r="BU9" s="45"/>
+      <c r="BV9" s="45"/>
+      <c r="BW9" s="45"/>
+      <c r="BX9" s="45"/>
+      <c r="BY9" s="45"/>
+      <c r="BZ9" s="45"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="45"/>
+      <c r="CC9" s="45"/>
+      <c r="CD9" s="46"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="284"/>
-      <c r="K10" s="285"/>
-      <c r="L10" s="285"/>
-      <c r="M10" s="285"/>
-      <c r="N10" s="285"/>
-      <c r="O10" s="286"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="69"/>
-      <c r="BG10" s="69"/>
-      <c r="BH10" s="69"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="69"/>
-      <c r="BK10" s="69"/>
-      <c r="BL10" s="69"/>
-      <c r="BM10" s="69"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="69"/>
-      <c r="BP10" s="69"/>
-      <c r="BQ10" s="69"/>
-      <c r="BR10" s="69"/>
-      <c r="BS10" s="69"/>
-      <c r="BT10" s="69"/>
-      <c r="BU10" s="69"/>
-      <c r="BV10" s="69"/>
-      <c r="BW10" s="69"/>
-      <c r="BX10" s="69"/>
-      <c r="BY10" s="69"/>
-      <c r="BZ10" s="69"/>
-      <c r="CA10" s="69"/>
-      <c r="CB10" s="69"/>
-      <c r="CC10" s="69"/>
-      <c r="CD10" s="70"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="146"/>
+      <c r="AE10" s="147"/>
+      <c r="AF10" s="280"/>
+      <c r="AG10" s="230"/>
+      <c r="AH10" s="231"/>
+      <c r="AI10" s="231"/>
+      <c r="AJ10" s="231"/>
+      <c r="AK10" s="231"/>
+      <c r="AL10" s="231"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="231"/>
+      <c r="AO10" s="231"/>
+      <c r="AP10" s="231"/>
+      <c r="AQ10" s="231"/>
+      <c r="AR10" s="231"/>
+      <c r="AS10" s="231"/>
+      <c r="AT10" s="231"/>
+      <c r="AU10" s="231"/>
+      <c r="AV10" s="231"/>
+      <c r="AW10" s="231"/>
+      <c r="AX10" s="231"/>
+      <c r="AY10" s="231"/>
+      <c r="AZ10" s="231"/>
+      <c r="BA10" s="231"/>
+      <c r="BB10" s="231"/>
+      <c r="BC10" s="231"/>
+      <c r="BD10" s="231"/>
+      <c r="BE10" s="231"/>
+      <c r="BF10" s="231"/>
+      <c r="BG10" s="231"/>
+      <c r="BH10" s="231"/>
+      <c r="BI10" s="231"/>
+      <c r="BJ10" s="231"/>
+      <c r="BK10" s="231"/>
+      <c r="BL10" s="231"/>
+      <c r="BM10" s="231"/>
+      <c r="BN10" s="231"/>
+      <c r="BO10" s="231"/>
+      <c r="BP10" s="231"/>
+      <c r="BQ10" s="231"/>
+      <c r="BR10" s="231"/>
+      <c r="BS10" s="231"/>
+      <c r="BT10" s="231"/>
+      <c r="BU10" s="231"/>
+      <c r="BV10" s="231"/>
+      <c r="BW10" s="231"/>
+      <c r="BX10" s="231"/>
+      <c r="BY10" s="231"/>
+      <c r="BZ10" s="231"/>
+      <c r="CA10" s="231"/>
+      <c r="CB10" s="231"/>
+      <c r="CC10" s="231"/>
+      <c r="CD10" s="232"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="278"/>
-      <c r="H11" s="279"/>
-      <c r="I11" s="280"/>
-      <c r="J11" s="287"/>
-      <c r="K11" s="288"/>
-      <c r="L11" s="288"/>
-      <c r="M11" s="288"/>
-      <c r="N11" s="288"/>
-      <c r="O11" s="289"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="71"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="71"/>
-      <c r="AP11" s="71"/>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="71"/>
-      <c r="AS11" s="71"/>
-      <c r="AT11" s="71"/>
-      <c r="AU11" s="71"/>
-      <c r="AV11" s="71"/>
-      <c r="AW11" s="71"/>
-      <c r="AX11" s="71"/>
-      <c r="AY11" s="71"/>
-      <c r="AZ11" s="71"/>
-      <c r="BA11" s="71"/>
-      <c r="BB11" s="71"/>
-      <c r="BC11" s="71"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="71"/>
-      <c r="BF11" s="71"/>
-      <c r="BG11" s="71"/>
-      <c r="BH11" s="71"/>
-      <c r="BI11" s="71"/>
-      <c r="BJ11" s="71"/>
-      <c r="BK11" s="71"/>
-      <c r="BL11" s="71"/>
-      <c r="BM11" s="71"/>
-      <c r="BN11" s="71"/>
-      <c r="BO11" s="71"/>
-      <c r="BP11" s="71"/>
-      <c r="BQ11" s="71"/>
-      <c r="BR11" s="71"/>
-      <c r="BS11" s="71"/>
-      <c r="BT11" s="71"/>
-      <c r="BU11" s="71"/>
-      <c r="BV11" s="71"/>
-      <c r="BW11" s="71"/>
-      <c r="BX11" s="71"/>
-      <c r="BY11" s="71"/>
-      <c r="BZ11" s="71"/>
-      <c r="CA11" s="71"/>
-      <c r="CB11" s="71"/>
-      <c r="CC11" s="71"/>
-      <c r="CD11" s="72"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="149"/>
+      <c r="AE11" s="150"/>
+      <c r="AF11" s="281"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="91"/>
+      <c r="AO11" s="91"/>
+      <c r="AP11" s="91"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="91"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="91"/>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="91"/>
+      <c r="AX11" s="91"/>
+      <c r="AY11" s="91"/>
+      <c r="AZ11" s="91"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="91"/>
+      <c r="BD11" s="91"/>
+      <c r="BE11" s="91"/>
+      <c r="BF11" s="91"/>
+      <c r="BG11" s="91"/>
+      <c r="BH11" s="91"/>
+      <c r="BI11" s="91"/>
+      <c r="BJ11" s="91"/>
+      <c r="BK11" s="91"/>
+      <c r="BL11" s="91"/>
+      <c r="BM11" s="91"/>
+      <c r="BN11" s="91"/>
+      <c r="BO11" s="91"/>
+      <c r="BP11" s="91"/>
+      <c r="BQ11" s="91"/>
+      <c r="BR11" s="91"/>
+      <c r="BS11" s="91"/>
+      <c r="BT11" s="91"/>
+      <c r="BU11" s="91"/>
+      <c r="BV11" s="91"/>
+      <c r="BW11" s="91"/>
+      <c r="BX11" s="91"/>
+      <c r="BY11" s="91"/>
+      <c r="BZ11" s="91"/>
+      <c r="CA11" s="91"/>
+      <c r="CB11" s="91"/>
+      <c r="CC11" s="91"/>
+      <c r="CD11" s="92"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="220" t="s">
-        <v>47</v>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="59" t="s">
+        <v>46</v>
       </c>
-      <c r="H12" s="221"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="281" t="s">
-        <v>71</v>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="74" t="s">
+        <v>70</v>
       </c>
-      <c r="K12" s="282"/>
-      <c r="L12" s="282"/>
-      <c r="M12" s="282"/>
-      <c r="N12" s="282"/>
-      <c r="O12" s="283"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="73"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="73"/>
-      <c r="AX12" s="73"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="73"/>
-      <c r="BD12" s="73"/>
-      <c r="BE12" s="73"/>
-      <c r="BF12" s="73"/>
-      <c r="BG12" s="73"/>
-      <c r="BH12" s="73"/>
-      <c r="BI12" s="73"/>
-      <c r="BJ12" s="73"/>
-      <c r="BK12" s="73"/>
-      <c r="BL12" s="73"/>
-      <c r="BM12" s="73"/>
-      <c r="BN12" s="73"/>
-      <c r="BO12" s="73"/>
-      <c r="BP12" s="73"/>
-      <c r="BQ12" s="73"/>
-      <c r="BR12" s="73"/>
-      <c r="BS12" s="73"/>
-      <c r="BT12" s="73"/>
-      <c r="BU12" s="73"/>
-      <c r="BV12" s="73"/>
-      <c r="BW12" s="73"/>
-      <c r="BX12" s="73"/>
-      <c r="BY12" s="73"/>
-      <c r="BZ12" s="73"/>
-      <c r="CA12" s="73"/>
-      <c r="CB12" s="73"/>
-      <c r="CC12" s="73"/>
-      <c r="CD12" s="74"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
+      <c r="AE12" s="88"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="88"/>
+      <c r="AH12" s="88"/>
+      <c r="AI12" s="88"/>
+      <c r="AJ12" s="88"/>
+      <c r="AK12" s="88"/>
+      <c r="AL12" s="88"/>
+      <c r="AM12" s="88"/>
+      <c r="AN12" s="88"/>
+      <c r="AO12" s="88"/>
+      <c r="AP12" s="88"/>
+      <c r="AQ12" s="88"/>
+      <c r="AR12" s="88"/>
+      <c r="AS12" s="88"/>
+      <c r="AT12" s="88"/>
+      <c r="AU12" s="88"/>
+      <c r="AV12" s="88"/>
+      <c r="AW12" s="88"/>
+      <c r="AX12" s="88"/>
+      <c r="AY12" s="88"/>
+      <c r="AZ12" s="88"/>
+      <c r="BA12" s="88"/>
+      <c r="BB12" s="88"/>
+      <c r="BC12" s="88"/>
+      <c r="BD12" s="88"/>
+      <c r="BE12" s="88"/>
+      <c r="BF12" s="88"/>
+      <c r="BG12" s="88"/>
+      <c r="BH12" s="88"/>
+      <c r="BI12" s="88"/>
+      <c r="BJ12" s="88"/>
+      <c r="BK12" s="88"/>
+      <c r="BL12" s="88"/>
+      <c r="BM12" s="88"/>
+      <c r="BN12" s="88"/>
+      <c r="BO12" s="88"/>
+      <c r="BP12" s="88"/>
+      <c r="BQ12" s="88"/>
+      <c r="BR12" s="88"/>
+      <c r="BS12" s="88"/>
+      <c r="BT12" s="88"/>
+      <c r="BU12" s="88"/>
+      <c r="BV12" s="88"/>
+      <c r="BW12" s="88"/>
+      <c r="BX12" s="88"/>
+      <c r="BY12" s="88"/>
+      <c r="BZ12" s="88"/>
+      <c r="CA12" s="88"/>
+      <c r="CB12" s="88"/>
+      <c r="CC12" s="88"/>
+      <c r="CD12" s="89"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="224"/>
-      <c r="I13" s="225"/>
-      <c r="J13" s="287"/>
-      <c r="K13" s="288"/>
-      <c r="L13" s="288"/>
-      <c r="M13" s="288"/>
-      <c r="N13" s="288"/>
-      <c r="O13" s="289"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="71"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="71"/>
-      <c r="AP13" s="71"/>
-      <c r="AQ13" s="71"/>
-      <c r="AR13" s="71"/>
-      <c r="AS13" s="71"/>
-      <c r="AT13" s="71"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="71"/>
-      <c r="AW13" s="71"/>
-      <c r="AX13" s="71"/>
-      <c r="AY13" s="71"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="71"/>
-      <c r="BB13" s="71"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="71"/>
-      <c r="BE13" s="71"/>
-      <c r="BF13" s="71"/>
-      <c r="BG13" s="71"/>
-      <c r="BH13" s="71"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="71"/>
-      <c r="BK13" s="71"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="71"/>
-      <c r="BN13" s="71"/>
-      <c r="BO13" s="71"/>
-      <c r="BP13" s="71"/>
-      <c r="BQ13" s="71"/>
-      <c r="BR13" s="71"/>
-      <c r="BS13" s="71"/>
-      <c r="BT13" s="71"/>
-      <c r="BU13" s="71"/>
-      <c r="BV13" s="71"/>
-      <c r="BW13" s="71"/>
-      <c r="BX13" s="71"/>
-      <c r="BY13" s="71"/>
-      <c r="BZ13" s="71"/>
-      <c r="CA13" s="71"/>
-      <c r="CB13" s="71"/>
-      <c r="CC13" s="71"/>
-      <c r="CD13" s="72"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="91"/>
+      <c r="AN13" s="91"/>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="91"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="91"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="91"/>
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="91"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="91"/>
+      <c r="BC13" s="91"/>
+      <c r="BD13" s="91"/>
+      <c r="BE13" s="91"/>
+      <c r="BF13" s="91"/>
+      <c r="BG13" s="91"/>
+      <c r="BH13" s="91"/>
+      <c r="BI13" s="91"/>
+      <c r="BJ13" s="91"/>
+      <c r="BK13" s="91"/>
+      <c r="BL13" s="91"/>
+      <c r="BM13" s="91"/>
+      <c r="BN13" s="91"/>
+      <c r="BO13" s="91"/>
+      <c r="BP13" s="91"/>
+      <c r="BQ13" s="91"/>
+      <c r="BR13" s="91"/>
+      <c r="BS13" s="91"/>
+      <c r="BT13" s="91"/>
+      <c r="BU13" s="91"/>
+      <c r="BV13" s="91"/>
+      <c r="BW13" s="91"/>
+      <c r="BX13" s="91"/>
+      <c r="BY13" s="91"/>
+      <c r="BZ13" s="91"/>
+      <c r="CA13" s="91"/>
+      <c r="CB13" s="91"/>
+      <c r="CC13" s="91"/>
+      <c r="CD13" s="92"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="266" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="267"/>
-      <c r="I14" s="267"/>
-      <c r="J14" s="267"/>
-      <c r="K14" s="267"/>
-      <c r="L14" s="268"/>
-      <c r="M14" s="184" t="s">
+      <c r="C14" s="233"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="185"/>
-      <c r="Q14" s="206"/>
-      <c r="R14" s="172"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="208"/>
-      <c r="U14" s="206"/>
-      <c r="V14" s="172"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="208"/>
-      <c r="Y14" s="206"/>
-      <c r="Z14" s="172"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="214"/>
-      <c r="AD14" s="215"/>
-      <c r="AE14" s="216"/>
-      <c r="AF14" s="174" t="s">
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="AG14" s="175"/>
-      <c r="AH14" s="175"/>
-      <c r="AI14" s="175"/>
-      <c r="AJ14" s="188" t="s">
-        <v>67</v>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="172"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="174"/>
+      <c r="AF14" s="179" t="s">
+        <v>43</v>
       </c>
-      <c r="AK14" s="189"/>
-      <c r="AL14" s="189"/>
-      <c r="AM14" s="189"/>
-      <c r="AN14" s="189"/>
-      <c r="AO14" s="189"/>
-      <c r="AP14" s="189"/>
-      <c r="AQ14" s="189"/>
-      <c r="AR14" s="189"/>
-      <c r="AS14" s="189"/>
-      <c r="AT14" s="189"/>
-      <c r="AU14" s="189"/>
-      <c r="AV14" s="189"/>
-      <c r="AW14" s="189"/>
-      <c r="AX14" s="189"/>
-      <c r="AY14" s="189"/>
-      <c r="AZ14" s="189"/>
-      <c r="BA14" s="189"/>
-      <c r="BB14" s="189"/>
-      <c r="BC14" s="189"/>
-      <c r="BD14" s="189"/>
-      <c r="BE14" s="189"/>
-      <c r="BF14" s="189"/>
-      <c r="BG14" s="189"/>
-      <c r="BH14" s="189"/>
-      <c r="BI14" s="189"/>
-      <c r="BJ14" s="189"/>
-      <c r="BK14" s="189"/>
-      <c r="BL14" s="189"/>
-      <c r="BM14" s="189"/>
-      <c r="BN14" s="189"/>
-      <c r="BO14" s="190"/>
+      <c r="AG14" s="180"/>
+      <c r="AH14" s="180"/>
+      <c r="AI14" s="180"/>
+      <c r="AJ14" s="193" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK14" s="194"/>
+      <c r="AL14" s="194"/>
+      <c r="AM14" s="194"/>
+      <c r="AN14" s="194"/>
+      <c r="AO14" s="194"/>
+      <c r="AP14" s="194"/>
+      <c r="AQ14" s="194"/>
+      <c r="AR14" s="194"/>
+      <c r="AS14" s="194"/>
+      <c r="AT14" s="194"/>
+      <c r="AU14" s="194"/>
+      <c r="AV14" s="194"/>
+      <c r="AW14" s="194"/>
+      <c r="AX14" s="194"/>
+      <c r="AY14" s="194"/>
+      <c r="AZ14" s="194"/>
+      <c r="BA14" s="194"/>
+      <c r="BB14" s="194"/>
+      <c r="BC14" s="194"/>
+      <c r="BD14" s="194"/>
+      <c r="BE14" s="194"/>
+      <c r="BF14" s="194"/>
+      <c r="BG14" s="194"/>
+      <c r="BH14" s="194"/>
+      <c r="BI14" s="194"/>
+      <c r="BJ14" s="194"/>
+      <c r="BK14" s="194"/>
+      <c r="BL14" s="194"/>
+      <c r="BM14" s="194"/>
+      <c r="BN14" s="194"/>
+      <c r="BO14" s="195"/>
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
@@ -9080,91 +9070,91 @@
       <c r="CC14"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="269"/>
-      <c r="H15" s="270"/>
-      <c r="I15" s="270"/>
-      <c r="J15" s="270"/>
-      <c r="K15" s="270"/>
-      <c r="L15" s="271"/>
-      <c r="M15" s="186"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="187"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="209"/>
-      <c r="U15" s="207"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="209"/>
-      <c r="Y15" s="207"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="217"/>
-      <c r="AD15" s="218"/>
-      <c r="AE15" s="219"/>
-      <c r="AF15" s="176"/>
-      <c r="AG15" s="177"/>
-      <c r="AH15" s="177"/>
-      <c r="AI15" s="177"/>
-      <c r="AJ15" s="191"/>
-      <c r="AK15" s="192"/>
-      <c r="AL15" s="192"/>
-      <c r="AM15" s="192"/>
-      <c r="AN15" s="192"/>
-      <c r="AO15" s="192"/>
-      <c r="AP15" s="192"/>
-      <c r="AQ15" s="192"/>
-      <c r="AR15" s="192"/>
-      <c r="AS15" s="192"/>
-      <c r="AT15" s="192"/>
-      <c r="AU15" s="192"/>
-      <c r="AV15" s="192"/>
-      <c r="AW15" s="192"/>
-      <c r="AX15" s="192"/>
-      <c r="AY15" s="192"/>
-      <c r="AZ15" s="192"/>
-      <c r="BA15" s="192"/>
-      <c r="BB15" s="192"/>
-      <c r="BC15" s="192"/>
-      <c r="BD15" s="192"/>
-      <c r="BE15" s="192"/>
-      <c r="BF15" s="192"/>
-      <c r="BG15" s="192"/>
-      <c r="BH15" s="192"/>
-      <c r="BI15" s="192"/>
-      <c r="BJ15" s="192"/>
-      <c r="BK15" s="192"/>
-      <c r="BL15" s="192"/>
-      <c r="BM15" s="192"/>
-      <c r="BN15" s="192"/>
-      <c r="BO15" s="193"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="169"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="169"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="175"/>
+      <c r="AD15" s="176"/>
+      <c r="AE15" s="177"/>
+      <c r="AF15" s="181"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="196"/>
+      <c r="AK15" s="197"/>
+      <c r="AL15" s="197"/>
+      <c r="AM15" s="197"/>
+      <c r="AN15" s="197"/>
+      <c r="AO15" s="197"/>
+      <c r="AP15" s="197"/>
+      <c r="AQ15" s="197"/>
+      <c r="AR15" s="197"/>
+      <c r="AS15" s="197"/>
+      <c r="AT15" s="197"/>
+      <c r="AU15" s="197"/>
+      <c r="AV15" s="197"/>
+      <c r="AW15" s="197"/>
+      <c r="AX15" s="197"/>
+      <c r="AY15" s="197"/>
+      <c r="AZ15" s="197"/>
+      <c r="BA15" s="197"/>
+      <c r="BB15" s="197"/>
+      <c r="BC15" s="197"/>
+      <c r="BD15" s="197"/>
+      <c r="BE15" s="197"/>
+      <c r="BF15" s="197"/>
+      <c r="BG15" s="197"/>
+      <c r="BH15" s="197"/>
+      <c r="BI15" s="197"/>
+      <c r="BJ15" s="197"/>
+      <c r="BK15" s="197"/>
+      <c r="BL15" s="197"/>
+      <c r="BM15" s="197"/>
+      <c r="BN15" s="197"/>
+      <c r="BO15" s="198"/>
       <c r="BP15"/>
       <c r="BQ15"/>
-      <c r="BS15" s="75" t="s">
-        <v>43</v>
+      <c r="BS15" s="237" t="s">
+        <v>42</v>
       </c>
-      <c r="BT15" s="76"/>
-      <c r="BU15" s="76"/>
-      <c r="BV15" s="76"/>
-      <c r="BW15" s="76"/>
-      <c r="BX15" s="76"/>
-      <c r="BY15" s="76"/>
-      <c r="BZ15" s="76"/>
-      <c r="CA15" s="76"/>
-      <c r="CB15" s="76"/>
-      <c r="CC15" s="76"/>
-      <c r="CD15" s="77"/>
+      <c r="BT15" s="238"/>
+      <c r="BU15" s="238"/>
+      <c r="BV15" s="238"/>
+      <c r="BW15" s="238"/>
+      <c r="BX15" s="238"/>
+      <c r="BY15" s="238"/>
+      <c r="BZ15" s="238"/>
+      <c r="CA15" s="238"/>
+      <c r="CB15" s="238"/>
+      <c r="CC15" s="238"/>
+      <c r="CD15" s="239"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="25"/>
@@ -9202,7 +9192,7 @@
       <c r="AM16"/>
       <c r="AN16"/>
       <c r="AO16" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AP16"/>
       <c r="AQ16"/>
@@ -9232,50 +9222,50 @@
       <c r="BO16"/>
       <c r="BP16"/>
       <c r="BQ16"/>
-      <c r="BS16" s="75"/>
-      <c r="BT16" s="76"/>
-      <c r="BU16" s="76"/>
-      <c r="BV16" s="76"/>
-      <c r="BW16" s="76"/>
-      <c r="BX16" s="76"/>
-      <c r="BY16" s="76"/>
-      <c r="BZ16" s="76"/>
-      <c r="CA16" s="76"/>
-      <c r="CB16" s="76"/>
-      <c r="CC16" s="76"/>
-      <c r="CD16" s="77"/>
+      <c r="BS16" s="237"/>
+      <c r="BT16" s="238"/>
+      <c r="BU16" s="238"/>
+      <c r="BV16" s="238"/>
+      <c r="BW16" s="238"/>
+      <c r="BX16" s="238"/>
+      <c r="BY16" s="238"/>
+      <c r="BZ16" s="238"/>
+      <c r="CA16" s="238"/>
+      <c r="CB16" s="238"/>
+      <c r="CC16" s="238"/>
+      <c r="CD16" s="239"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AO17" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
-      <c r="BS17" s="78"/>
-      <c r="BT17" s="79"/>
-      <c r="BU17" s="79"/>
-      <c r="BV17" s="79"/>
-      <c r="BW17" s="79"/>
-      <c r="BX17" s="79"/>
-      <c r="BY17" s="79"/>
-      <c r="BZ17" s="79"/>
-      <c r="CA17" s="79"/>
-      <c r="CB17" s="79"/>
-      <c r="CC17" s="79"/>
-      <c r="CD17" s="80"/>
+      <c r="BS17" s="284"/>
+      <c r="BT17" s="213"/>
+      <c r="BU17" s="213"/>
+      <c r="BV17" s="213"/>
+      <c r="BW17" s="213"/>
+      <c r="BX17" s="213"/>
+      <c r="BY17" s="213"/>
+      <c r="BZ17" s="213"/>
+      <c r="CA17" s="213"/>
+      <c r="CB17" s="213"/>
+      <c r="CC17" s="213"/>
+      <c r="CD17" s="285"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y18"/>
       <c r="Z18"/>
@@ -9312,56 +9302,56 @@
       <c r="BE18"/>
       <c r="BF18"/>
       <c r="BG18"/>
-      <c r="BS18" s="78"/>
-      <c r="BT18" s="79"/>
-      <c r="BU18" s="79"/>
-      <c r="BV18" s="79"/>
-      <c r="BW18" s="79"/>
-      <c r="BX18" s="79"/>
-      <c r="BY18" s="79"/>
-      <c r="BZ18" s="79"/>
-      <c r="CA18" s="79"/>
-      <c r="CB18" s="79"/>
-      <c r="CC18" s="79"/>
-      <c r="CD18" s="80"/>
+      <c r="BS18" s="284"/>
+      <c r="BT18" s="213"/>
+      <c r="BU18" s="213"/>
+      <c r="BV18" s="213"/>
+      <c r="BW18" s="213"/>
+      <c r="BX18" s="213"/>
+      <c r="BY18" s="213"/>
+      <c r="BZ18" s="213"/>
+      <c r="CA18" s="213"/>
+      <c r="CB18" s="213"/>
+      <c r="CC18" s="213"/>
+      <c r="CD18" s="285"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="85" t="s">
-        <v>38</v>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="289" t="s">
+        <v>71</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="86"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
+      <c r="J19" s="290"/>
+      <c r="K19" s="290"/>
+      <c r="L19" s="290"/>
+      <c r="M19" s="290"/>
+      <c r="N19" s="290"/>
+      <c r="O19" s="290"/>
+      <c r="P19" s="290"/>
+      <c r="Q19" s="290"/>
+      <c r="R19" s="290"/>
+      <c r="S19" s="290"/>
+      <c r="T19" s="290"/>
+      <c r="U19" s="290"/>
+      <c r="V19" s="290"/>
+      <c r="W19" s="290"/>
+      <c r="X19" s="290"/>
+      <c r="Y19" s="290"/>
+      <c r="Z19" s="290"/>
+      <c r="AA19" s="290"/>
+      <c r="AB19" s="290"/>
+      <c r="AC19" s="290"/>
+      <c r="AD19" s="290"/>
+      <c r="AE19" s="290"/>
+      <c r="AF19" s="290"/>
+      <c r="AG19" s="290"/>
+      <c r="AH19" s="290"/>
+      <c r="AI19" s="290"/>
+      <c r="AJ19" s="290"/>
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
@@ -9385,808 +9375,808 @@
       <c r="BE19"/>
       <c r="BF19"/>
       <c r="BG19"/>
-      <c r="BS19" s="78"/>
-      <c r="BT19" s="79"/>
-      <c r="BU19" s="79"/>
-      <c r="BV19" s="79"/>
-      <c r="BW19" s="79"/>
-      <c r="BX19" s="79"/>
-      <c r="BY19" s="79"/>
-      <c r="BZ19" s="79"/>
-      <c r="CA19" s="79"/>
-      <c r="CB19" s="79"/>
-      <c r="CC19" s="79"/>
-      <c r="CD19" s="80"/>
+      <c r="BS19" s="284"/>
+      <c r="BT19" s="213"/>
+      <c r="BU19" s="213"/>
+      <c r="BV19" s="213"/>
+      <c r="BW19" s="213"/>
+      <c r="BX19" s="213"/>
+      <c r="BY19" s="213"/>
+      <c r="BZ19" s="213"/>
+      <c r="CA19" s="213"/>
+      <c r="CB19" s="213"/>
+      <c r="CC19" s="213"/>
+      <c r="CD19" s="285"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="145" t="s">
+      <c r="C20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="146"/>
-      <c r="G20" s="167" t="s">
+      <c r="F20" s="253"/>
+      <c r="G20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="151"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="151"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="151"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="151"/>
-      <c r="AB20" s="151"/>
-      <c r="AC20" s="151"/>
-      <c r="AD20" s="152"/>
-      <c r="AE20" s="167" t="s">
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="151"/>
-      <c r="AJ20" s="151"/>
-      <c r="AK20" s="151"/>
-      <c r="AL20" s="151"/>
-      <c r="AM20" s="151"/>
-      <c r="AN20" s="151"/>
-      <c r="AO20" s="151"/>
-      <c r="AP20" s="151"/>
-      <c r="AQ20" s="151"/>
-      <c r="AR20" s="151"/>
-      <c r="AS20" s="151"/>
-      <c r="AT20" s="152"/>
-      <c r="AU20" s="178"/>
-      <c r="AV20" s="179"/>
-      <c r="AW20" s="102" t="s">
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="182"/>
+      <c r="AV20" s="183"/>
+      <c r="AW20" s="257" t="s">
         <v>34</v>
       </c>
-      <c r="AX20" s="103"/>
+      <c r="AX20" s="258"/>
       <c r="AY20" s="18"/>
       <c r="AZ20" s="17" t="s">
         <v>24</v>
       </c>
       <c r="BA20" s="16"/>
       <c r="BB20" s="16"/>
-      <c r="BC20" s="158"/>
-      <c r="BD20" s="158"/>
-      <c r="BE20" s="158"/>
-      <c r="BF20" s="158"/>
-      <c r="BG20" s="158"/>
-      <c r="BH20" s="158"/>
-      <c r="BI20" s="261"/>
-      <c r="BJ20" s="262"/>
-      <c r="BK20" s="262"/>
-      <c r="BL20" s="262"/>
-      <c r="BM20" s="262"/>
-      <c r="BN20" s="262"/>
-      <c r="BO20" s="262"/>
-      <c r="BP20" s="262"/>
-      <c r="BQ20" s="263"/>
-      <c r="BS20" s="78"/>
-      <c r="BT20" s="79"/>
-      <c r="BU20" s="79"/>
-      <c r="BV20" s="79"/>
-      <c r="BW20" s="79"/>
-      <c r="BX20" s="79"/>
-      <c r="BY20" s="79"/>
-      <c r="BZ20" s="79"/>
-      <c r="CA20" s="79"/>
-      <c r="CB20" s="79"/>
-      <c r="CC20" s="79"/>
-      <c r="CD20" s="80"/>
+      <c r="BC20" s="33"/>
+      <c r="BD20" s="33"/>
+      <c r="BE20" s="33"/>
+      <c r="BF20" s="33"/>
+      <c r="BG20" s="33"/>
+      <c r="BH20" s="33"/>
+      <c r="BI20" s="34"/>
+      <c r="BJ20" s="35"/>
+      <c r="BK20" s="35"/>
+      <c r="BL20" s="35"/>
+      <c r="BM20" s="35"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="35"/>
+      <c r="BP20" s="35"/>
+      <c r="BQ20" s="36"/>
+      <c r="BS20" s="284"/>
+      <c r="BT20" s="213"/>
+      <c r="BU20" s="213"/>
+      <c r="BV20" s="213"/>
+      <c r="BW20" s="213"/>
+      <c r="BX20" s="213"/>
+      <c r="BY20" s="213"/>
+      <c r="BZ20" s="213"/>
+      <c r="CA20" s="213"/>
+      <c r="CB20" s="213"/>
+      <c r="CC20" s="213"/>
+      <c r="CD20" s="285"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="212"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="210"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="212"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="212"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="210"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="212"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="212"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="135" t="s">
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="170"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="170"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="AF21" s="136"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="137"/>
-      <c r="AI21" s="114"/>
-      <c r="AJ21" s="115"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="99"/>
-      <c r="AM21" s="194"/>
-      <c r="AN21" s="115"/>
-      <c r="AO21" s="98"/>
-      <c r="AP21" s="99"/>
-      <c r="AQ21" s="194"/>
-      <c r="AR21" s="115"/>
-      <c r="AS21" s="98"/>
-      <c r="AT21" s="99"/>
-      <c r="AU21" s="180"/>
-      <c r="AV21" s="181"/>
-      <c r="AW21" s="106" t="s">
+      <c r="AF21" s="206"/>
+      <c r="AG21" s="206"/>
+      <c r="AH21" s="207"/>
+      <c r="AI21" s="269"/>
+      <c r="AJ21" s="200"/>
+      <c r="AK21" s="203"/>
+      <c r="AL21" s="204"/>
+      <c r="AM21" s="199"/>
+      <c r="AN21" s="200"/>
+      <c r="AO21" s="203"/>
+      <c r="AP21" s="204"/>
+      <c r="AQ21" s="199"/>
+      <c r="AR21" s="200"/>
+      <c r="AS21" s="203"/>
+      <c r="AT21" s="204"/>
+      <c r="AU21" s="184"/>
+      <c r="AV21" s="185"/>
+      <c r="AW21" s="261" t="s">
         <v>32</v>
       </c>
-      <c r="AX21" s="106"/>
-      <c r="AY21" s="107"/>
+      <c r="AX21" s="261"/>
+      <c r="AY21" s="262"/>
       <c r="AZ21" s="15" t="s">
         <v>31</v>
       </c>
       <c r="BA21" s="14"/>
-      <c r="BB21" s="84"/>
-      <c r="BC21" s="84"/>
-      <c r="BD21" s="84"/>
-      <c r="BE21" s="84"/>
-      <c r="BF21" s="84"/>
-      <c r="BG21" s="84"/>
-      <c r="BH21" s="84"/>
+      <c r="BB21" s="124"/>
+      <c r="BC21" s="124"/>
+      <c r="BD21" s="124"/>
+      <c r="BE21" s="124"/>
+      <c r="BF21" s="124"/>
+      <c r="BG21" s="124"/>
+      <c r="BH21" s="124"/>
       <c r="BI21" s="15" t="s">
         <v>30</v>
       </c>
       <c r="BJ21" s="14"/>
-      <c r="BK21" s="84"/>
-      <c r="BL21" s="84"/>
-      <c r="BM21" s="84"/>
-      <c r="BN21" s="84"/>
-      <c r="BO21" s="84"/>
-      <c r="BP21" s="84"/>
-      <c r="BQ21" s="101"/>
-      <c r="BS21" s="81"/>
-      <c r="BT21" s="82"/>
-      <c r="BU21" s="82"/>
-      <c r="BV21" s="82"/>
-      <c r="BW21" s="82"/>
-      <c r="BX21" s="82"/>
-      <c r="BY21" s="82"/>
-      <c r="BZ21" s="82"/>
-      <c r="CA21" s="82"/>
-      <c r="CB21" s="82"/>
-      <c r="CC21" s="82"/>
-      <c r="CD21" s="83"/>
-      <c r="CV21" s="169"/>
-      <c r="CW21" s="169"/>
-      <c r="CX21" s="169"/>
+      <c r="BK21" s="124"/>
+      <c r="BL21" s="124"/>
+      <c r="BM21" s="124"/>
+      <c r="BN21" s="124"/>
+      <c r="BO21" s="124"/>
+      <c r="BP21" s="124"/>
+      <c r="BQ21" s="125"/>
+      <c r="BS21" s="286"/>
+      <c r="BT21" s="287"/>
+      <c r="BU21" s="287"/>
+      <c r="BV21" s="287"/>
+      <c r="BW21" s="287"/>
+      <c r="BX21" s="287"/>
+      <c r="BY21" s="287"/>
+      <c r="BZ21" s="287"/>
+      <c r="CA21" s="287"/>
+      <c r="CB21" s="287"/>
+      <c r="CC21" s="287"/>
+      <c r="CD21" s="288"/>
+      <c r="CV21" s="29"/>
+      <c r="CW21" s="29"/>
+      <c r="CX21" s="29"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="211"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="211"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="139"/>
-      <c r="AG22" s="139"/>
-      <c r="AH22" s="140"/>
-      <c r="AI22" s="116"/>
-      <c r="AJ22" s="100"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="100"/>
-      <c r="AM22" s="195"/>
-      <c r="AN22" s="100"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="100"/>
-      <c r="AQ22" s="195"/>
-      <c r="AR22" s="100"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="100"/>
-      <c r="AU22" s="182"/>
-      <c r="AV22" s="183"/>
-      <c r="AW22" s="108"/>
-      <c r="AX22" s="108"/>
-      <c r="AY22" s="109"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="171"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="171"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="208"/>
+      <c r="AF22" s="209"/>
+      <c r="AG22" s="209"/>
+      <c r="AH22" s="210"/>
+      <c r="AI22" s="270"/>
+      <c r="AJ22" s="202"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="202"/>
+      <c r="AM22" s="201"/>
+      <c r="AN22" s="202"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="202"/>
+      <c r="AQ22" s="201"/>
+      <c r="AR22" s="202"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="202"/>
+      <c r="AU22" s="186"/>
+      <c r="AV22" s="187"/>
+      <c r="AW22" s="263"/>
+      <c r="AX22" s="263"/>
+      <c r="AY22" s="264"/>
       <c r="AZ22" s="13"/>
       <c r="BA22" s="5"/>
-      <c r="BB22" s="34"/>
-      <c r="BC22" s="34"/>
-      <c r="BD22" s="34"/>
-      <c r="BE22" s="34"/>
-      <c r="BF22" s="34"/>
-      <c r="BG22" s="34"/>
-      <c r="BH22" s="34"/>
+      <c r="BB22" s="156"/>
+      <c r="BC22" s="156"/>
+      <c r="BD22" s="156"/>
+      <c r="BE22" s="156"/>
+      <c r="BF22" s="156"/>
+      <c r="BG22" s="156"/>
+      <c r="BH22" s="156"/>
       <c r="BI22" s="13"/>
       <c r="BJ22" s="5"/>
-      <c r="BK22" s="34"/>
-      <c r="BL22" s="34"/>
-      <c r="BM22" s="34"/>
-      <c r="BN22" s="34"/>
-      <c r="BO22" s="34"/>
-      <c r="BP22" s="34"/>
-      <c r="BQ22" s="49"/>
-      <c r="CV22" s="169"/>
-      <c r="CW22" s="169"/>
-      <c r="CX22" s="169"/>
+      <c r="BK22" s="156"/>
+      <c r="BL22" s="156"/>
+      <c r="BM22" s="156"/>
+      <c r="BN22" s="156"/>
+      <c r="BO22" s="156"/>
+      <c r="BP22" s="156"/>
+      <c r="BQ22" s="256"/>
+      <c r="CV22" s="29"/>
+      <c r="CW22" s="29"/>
+      <c r="CX22" s="29"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="58" t="s">
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="40" t="s">
+      <c r="H23" s="144"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="40" t="s">
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
-      <c r="BA23" s="41"/>
-      <c r="BB23" s="41"/>
-      <c r="BC23" s="41"/>
-      <c r="BD23" s="41"/>
-      <c r="BE23" s="41"/>
-      <c r="BF23" s="41"/>
-      <c r="BG23" s="41"/>
-      <c r="BH23" s="41"/>
-      <c r="BI23" s="41"/>
-      <c r="BJ23" s="41"/>
-      <c r="BK23" s="41"/>
-      <c r="BL23" s="41"/>
-      <c r="BM23" s="41"/>
-      <c r="BN23" s="41"/>
-      <c r="BO23" s="41"/>
-      <c r="BP23" s="42"/>
-      <c r="BQ23" s="40" t="s">
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="138"/>
+      <c r="AA23" s="138"/>
+      <c r="AB23" s="138"/>
+      <c r="AC23" s="138"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="138"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="138"/>
+      <c r="AJ23" s="138"/>
+      <c r="AK23" s="138"/>
+      <c r="AL23" s="138"/>
+      <c r="AM23" s="138"/>
+      <c r="AN23" s="138"/>
+      <c r="AO23" s="138"/>
+      <c r="AP23" s="138"/>
+      <c r="AQ23" s="138"/>
+      <c r="AR23" s="138"/>
+      <c r="AS23" s="138"/>
+      <c r="AT23" s="138"/>
+      <c r="AU23" s="138"/>
+      <c r="AV23" s="138"/>
+      <c r="AW23" s="138"/>
+      <c r="AX23" s="138"/>
+      <c r="AY23" s="138"/>
+      <c r="AZ23" s="138"/>
+      <c r="BA23" s="138"/>
+      <c r="BB23" s="138"/>
+      <c r="BC23" s="138"/>
+      <c r="BD23" s="138"/>
+      <c r="BE23" s="138"/>
+      <c r="BF23" s="138"/>
+      <c r="BG23" s="138"/>
+      <c r="BH23" s="138"/>
+      <c r="BI23" s="138"/>
+      <c r="BJ23" s="138"/>
+      <c r="BK23" s="138"/>
+      <c r="BL23" s="138"/>
+      <c r="BM23" s="138"/>
+      <c r="BN23" s="138"/>
+      <c r="BO23" s="138"/>
+      <c r="BP23" s="139"/>
+      <c r="BQ23" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="BR23" s="41"/>
-      <c r="BS23" s="41"/>
-      <c r="BT23" s="41"/>
-      <c r="BU23" s="41"/>
-      <c r="BV23" s="41"/>
-      <c r="BW23" s="41"/>
-      <c r="BX23" s="41"/>
-      <c r="BY23" s="41"/>
-      <c r="BZ23" s="41"/>
-      <c r="CA23" s="41"/>
-      <c r="CB23" s="41"/>
-      <c r="CC23" s="41"/>
-      <c r="CD23" s="42"/>
-      <c r="CE23" s="123"/>
-      <c r="CF23" s="123"/>
+      <c r="BR23" s="138"/>
+      <c r="BS23" s="138"/>
+      <c r="BT23" s="138"/>
+      <c r="BU23" s="138"/>
+      <c r="BV23" s="138"/>
+      <c r="BW23" s="138"/>
+      <c r="BX23" s="138"/>
+      <c r="BY23" s="138"/>
+      <c r="BZ23" s="138"/>
+      <c r="CA23" s="138"/>
+      <c r="CB23" s="138"/>
+      <c r="CC23" s="138"/>
+      <c r="CD23" s="139"/>
+      <c r="CE23" s="236"/>
+      <c r="CF23" s="236"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="169"/>
-      <c r="CW23" s="169"/>
-      <c r="CX23" s="169"/>
+      <c r="CV23" s="29"/>
+      <c r="CW23" s="29"/>
+      <c r="CX23" s="29"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="172"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="141" t="s">
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="Y24" s="142"/>
-      <c r="Z24" s="142"/>
-      <c r="AA24" s="142"/>
-      <c r="AB24" s="142"/>
-      <c r="AC24" s="142"/>
-      <c r="AD24" s="142"/>
-      <c r="AE24" s="142"/>
-      <c r="AF24" s="142"/>
-      <c r="AG24" s="143"/>
-      <c r="AH24" s="171" t="s">
+      <c r="Y24" s="250"/>
+      <c r="Z24" s="250"/>
+      <c r="AA24" s="250"/>
+      <c r="AB24" s="250"/>
+      <c r="AC24" s="250"/>
+      <c r="AD24" s="250"/>
+      <c r="AE24" s="250"/>
+      <c r="AF24" s="250"/>
+      <c r="AG24" s="251"/>
+      <c r="AH24" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="AI24" s="171"/>
-      <c r="AJ24" s="171"/>
-      <c r="AK24" s="171"/>
-      <c r="AL24" s="104"/>
-      <c r="AM24" s="104"/>
-      <c r="AN24" s="104"/>
-      <c r="AO24" s="104"/>
-      <c r="AP24" s="104"/>
-      <c r="AQ24" s="104"/>
-      <c r="AR24" s="104"/>
-      <c r="AS24" s="104"/>
-      <c r="AT24" s="104"/>
-      <c r="AU24" s="104"/>
-      <c r="AV24" s="104"/>
-      <c r="AW24" s="104"/>
-      <c r="AX24" s="104"/>
-      <c r="AY24" s="104"/>
-      <c r="AZ24" s="104"/>
-      <c r="BA24" s="104"/>
-      <c r="BB24" s="104"/>
-      <c r="BC24" s="104"/>
-      <c r="BD24" s="104"/>
-      <c r="BE24" s="104"/>
-      <c r="BF24" s="104"/>
-      <c r="BG24" s="104"/>
-      <c r="BH24" s="104"/>
-      <c r="BI24" s="104"/>
-      <c r="BJ24" s="104"/>
-      <c r="BK24" s="104"/>
-      <c r="BL24" s="104"/>
-      <c r="BM24" s="104"/>
-      <c r="BN24" s="104"/>
-      <c r="BO24" s="104"/>
-      <c r="BP24" s="105"/>
-      <c r="BQ24" s="110" t="s">
+      <c r="AI24" s="178"/>
+      <c r="AJ24" s="178"/>
+      <c r="AK24" s="178"/>
+      <c r="AL24" s="259"/>
+      <c r="AM24" s="259"/>
+      <c r="AN24" s="259"/>
+      <c r="AO24" s="259"/>
+      <c r="AP24" s="259"/>
+      <c r="AQ24" s="259"/>
+      <c r="AR24" s="259"/>
+      <c r="AS24" s="259"/>
+      <c r="AT24" s="259"/>
+      <c r="AU24" s="259"/>
+      <c r="AV24" s="259"/>
+      <c r="AW24" s="259"/>
+      <c r="AX24" s="259"/>
+      <c r="AY24" s="259"/>
+      <c r="AZ24" s="259"/>
+      <c r="BA24" s="259"/>
+      <c r="BB24" s="259"/>
+      <c r="BC24" s="259"/>
+      <c r="BD24" s="259"/>
+      <c r="BE24" s="259"/>
+      <c r="BF24" s="259"/>
+      <c r="BG24" s="259"/>
+      <c r="BH24" s="259"/>
+      <c r="BI24" s="259"/>
+      <c r="BJ24" s="259"/>
+      <c r="BK24" s="259"/>
+      <c r="BL24" s="259"/>
+      <c r="BM24" s="259"/>
+      <c r="BN24" s="259"/>
+      <c r="BO24" s="259"/>
+      <c r="BP24" s="260"/>
+      <c r="BQ24" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="BR24" s="111"/>
-      <c r="BS24" s="125"/>
-      <c r="BT24" s="37"/>
-      <c r="BU24" s="50"/>
-      <c r="BV24" s="47"/>
-      <c r="BW24" s="125"/>
-      <c r="BX24" s="37"/>
-      <c r="BY24" s="50"/>
-      <c r="BZ24" s="47"/>
-      <c r="CA24" s="125"/>
-      <c r="CB24" s="37"/>
-      <c r="CC24" s="50"/>
-      <c r="CD24" s="47"/>
-      <c r="CE24" s="123"/>
-      <c r="CF24" s="123"/>
+      <c r="BR24" s="266"/>
+      <c r="BS24" s="135"/>
+      <c r="BT24" s="40"/>
+      <c r="BU24" s="55"/>
+      <c r="BV24" s="240"/>
+      <c r="BW24" s="135"/>
+      <c r="BX24" s="40"/>
+      <c r="BY24" s="55"/>
+      <c r="BZ24" s="240"/>
+      <c r="CA24" s="135"/>
+      <c r="CB24" s="40"/>
+      <c r="CC24" s="55"/>
+      <c r="CD24" s="240"/>
+      <c r="CE24" s="236"/>
+      <c r="CF24" s="236"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="213"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="213"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="213"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="213"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="213"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="213"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="172"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="172"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="172"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="290"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="84"/>
-      <c r="AK25" s="84"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="84"/>
-      <c r="AN25" s="84"/>
-      <c r="AO25" s="84"/>
-      <c r="AP25" s="84"/>
-      <c r="AQ25" s="84"/>
-      <c r="AR25" s="84"/>
-      <c r="AS25" s="84"/>
-      <c r="AT25" s="84"/>
-      <c r="AU25" s="84"/>
-      <c r="AV25" s="84"/>
-      <c r="AW25" s="84"/>
-      <c r="AX25" s="84"/>
-      <c r="AY25" s="84"/>
-      <c r="AZ25" s="84"/>
-      <c r="BA25" s="84"/>
-      <c r="BB25" s="84"/>
-      <c r="BC25" s="84"/>
-      <c r="BD25" s="84"/>
-      <c r="BE25" s="84"/>
-      <c r="BF25" s="84"/>
-      <c r="BG25" s="84"/>
-      <c r="BH25" s="84"/>
-      <c r="BI25" s="84"/>
-      <c r="BJ25" s="84"/>
-      <c r="BK25" s="84"/>
-      <c r="BL25" s="84"/>
-      <c r="BM25" s="84"/>
-      <c r="BN25" s="84"/>
-      <c r="BO25" s="84"/>
-      <c r="BP25" s="101"/>
-      <c r="BQ25" s="112"/>
-      <c r="BR25" s="113"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="141"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="141"/>
+      <c r="R25" s="140"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="140"/>
+      <c r="W25" s="293"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="123"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="124"/>
+      <c r="AL25" s="124"/>
+      <c r="AM25" s="124"/>
+      <c r="AN25" s="124"/>
+      <c r="AO25" s="124"/>
+      <c r="AP25" s="124"/>
+      <c r="AQ25" s="124"/>
+      <c r="AR25" s="124"/>
+      <c r="AS25" s="124"/>
+      <c r="AT25" s="124"/>
+      <c r="AU25" s="124"/>
+      <c r="AV25" s="124"/>
+      <c r="AW25" s="124"/>
+      <c r="AX25" s="124"/>
+      <c r="AY25" s="124"/>
+      <c r="AZ25" s="124"/>
+      <c r="BA25" s="124"/>
+      <c r="BB25" s="124"/>
+      <c r="BC25" s="124"/>
+      <c r="BD25" s="124"/>
+      <c r="BE25" s="124"/>
+      <c r="BF25" s="124"/>
+      <c r="BG25" s="124"/>
+      <c r="BH25" s="124"/>
+      <c r="BI25" s="124"/>
+      <c r="BJ25" s="124"/>
+      <c r="BK25" s="124"/>
+      <c r="BL25" s="124"/>
+      <c r="BM25" s="124"/>
+      <c r="BN25" s="124"/>
+      <c r="BO25" s="124"/>
+      <c r="BP25" s="125"/>
+      <c r="BQ25" s="267"/>
+      <c r="BR25" s="268"/>
       <c r="BS25" s="126"/>
-      <c r="BT25" s="33"/>
-      <c r="BU25" s="119"/>
-      <c r="BV25" s="124"/>
+      <c r="BT25" s="42"/>
+      <c r="BU25" s="41"/>
+      <c r="BV25" s="128"/>
       <c r="BW25" s="126"/>
-      <c r="BX25" s="33"/>
-      <c r="BY25" s="119"/>
-      <c r="BZ25" s="124"/>
+      <c r="BX25" s="42"/>
+      <c r="BY25" s="41"/>
+      <c r="BZ25" s="128"/>
       <c r="CA25" s="126"/>
-      <c r="CB25" s="33"/>
-      <c r="CC25" s="119"/>
-      <c r="CD25" s="124"/>
-      <c r="CE25" s="123"/>
-      <c r="CF25" s="123"/>
+      <c r="CB25" s="42"/>
+      <c r="CC25" s="41"/>
+      <c r="CD25" s="128"/>
+      <c r="CE25" s="236"/>
+      <c r="CF25" s="236"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="173"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="173"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="232"/>
-      <c r="Y26" s="173"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="173"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="173"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="136"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="58"/>
       <c r="AH26" s="126"/>
-      <c r="AI26" s="291"/>
-      <c r="AJ26" s="291"/>
-      <c r="AK26" s="291"/>
-      <c r="AL26" s="291"/>
-      <c r="AM26" s="291"/>
-      <c r="AN26" s="291"/>
-      <c r="AO26" s="291"/>
-      <c r="AP26" s="291"/>
-      <c r="AQ26" s="291"/>
-      <c r="AR26" s="291"/>
-      <c r="AS26" s="291"/>
-      <c r="AT26" s="291"/>
-      <c r="AU26" s="291"/>
-      <c r="AV26" s="291"/>
-      <c r="AW26" s="291"/>
-      <c r="AX26" s="291"/>
-      <c r="AY26" s="291"/>
-      <c r="AZ26" s="291"/>
-      <c r="BA26" s="291"/>
-      <c r="BB26" s="291"/>
-      <c r="BC26" s="291"/>
-      <c r="BD26" s="291"/>
-      <c r="BE26" s="291"/>
-      <c r="BF26" s="291"/>
-      <c r="BG26" s="291"/>
-      <c r="BH26" s="291"/>
-      <c r="BI26" s="291"/>
-      <c r="BJ26" s="291"/>
-      <c r="BK26" s="291"/>
-      <c r="BL26" s="291"/>
-      <c r="BM26" s="291"/>
-      <c r="BN26" s="291"/>
-      <c r="BO26" s="291"/>
-      <c r="BP26" s="124"/>
-      <c r="BQ26" s="112"/>
-      <c r="BR26" s="113"/>
+      <c r="AI26" s="127"/>
+      <c r="AJ26" s="127"/>
+      <c r="AK26" s="127"/>
+      <c r="AL26" s="127"/>
+      <c r="AM26" s="127"/>
+      <c r="AN26" s="127"/>
+      <c r="AO26" s="127"/>
+      <c r="AP26" s="127"/>
+      <c r="AQ26" s="127"/>
+      <c r="AR26" s="127"/>
+      <c r="AS26" s="127"/>
+      <c r="AT26" s="127"/>
+      <c r="AU26" s="127"/>
+      <c r="AV26" s="127"/>
+      <c r="AW26" s="127"/>
+      <c r="AX26" s="127"/>
+      <c r="AY26" s="127"/>
+      <c r="AZ26" s="127"/>
+      <c r="BA26" s="127"/>
+      <c r="BB26" s="127"/>
+      <c r="BC26" s="127"/>
+      <c r="BD26" s="127"/>
+      <c r="BE26" s="127"/>
+      <c r="BF26" s="127"/>
+      <c r="BG26" s="127"/>
+      <c r="BH26" s="127"/>
+      <c r="BI26" s="127"/>
+      <c r="BJ26" s="127"/>
+      <c r="BK26" s="127"/>
+      <c r="BL26" s="127"/>
+      <c r="BM26" s="127"/>
+      <c r="BN26" s="127"/>
+      <c r="BO26" s="127"/>
+      <c r="BP26" s="128"/>
+      <c r="BQ26" s="267"/>
+      <c r="BR26" s="268"/>
       <c r="BS26" s="126"/>
-      <c r="BT26" s="33"/>
-      <c r="BU26" s="119"/>
-      <c r="BV26" s="124"/>
+      <c r="BT26" s="42"/>
+      <c r="BU26" s="41"/>
+      <c r="BV26" s="128"/>
       <c r="BW26" s="126"/>
-      <c r="BX26" s="33"/>
-      <c r="BY26" s="119"/>
-      <c r="BZ26" s="124"/>
+      <c r="BX26" s="42"/>
+      <c r="BY26" s="41"/>
+      <c r="BZ26" s="128"/>
       <c r="CA26" s="126"/>
-      <c r="CB26" s="33"/>
-      <c r="CC26" s="119"/>
-      <c r="CD26" s="124"/>
-      <c r="CE26" s="123"/>
-      <c r="CF26" s="123"/>
+      <c r="CB26" s="42"/>
+      <c r="CC26" s="41"/>
+      <c r="CD26" s="128"/>
+      <c r="CE26" s="236"/>
+      <c r="CF26" s="236"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="220" t="s">
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="221"/>
-      <c r="I27" s="222"/>
-      <c r="J27" s="229" t="s">
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="230"/>
-      <c r="L27" s="230"/>
-      <c r="M27" s="230"/>
-      <c r="N27" s="230"/>
-      <c r="O27" s="231"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="90"/>
-      <c r="AM27" s="90"/>
-      <c r="AN27" s="90"/>
-      <c r="AO27" s="90"/>
-      <c r="AP27" s="90"/>
-      <c r="AQ27" s="90"/>
-      <c r="AR27" s="90"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="90"/>
-      <c r="AU27" s="90"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="90"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="90"/>
-      <c r="AZ27" s="90"/>
-      <c r="BA27" s="90"/>
-      <c r="BB27" s="90"/>
-      <c r="BC27" s="90"/>
-      <c r="BD27" s="90"/>
-      <c r="BE27" s="90"/>
-      <c r="BF27" s="90"/>
-      <c r="BG27" s="90"/>
-      <c r="BH27" s="90"/>
-      <c r="BI27" s="292"/>
-      <c r="BJ27" s="196" t="s">
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="153"/>
+      <c r="V27" s="153"/>
+      <c r="W27" s="153"/>
+      <c r="X27" s="153"/>
+      <c r="Y27" s="153"/>
+      <c r="Z27" s="153"/>
+      <c r="AA27" s="153"/>
+      <c r="AB27" s="153"/>
+      <c r="AC27" s="153"/>
+      <c r="AD27" s="153"/>
+      <c r="AE27" s="153"/>
+      <c r="AF27" s="153"/>
+      <c r="AG27" s="153"/>
+      <c r="AH27" s="153"/>
+      <c r="AI27" s="153"/>
+      <c r="AJ27" s="153"/>
+      <c r="AK27" s="153"/>
+      <c r="AL27" s="153"/>
+      <c r="AM27" s="153"/>
+      <c r="AN27" s="153"/>
+      <c r="AO27" s="153"/>
+      <c r="AP27" s="153"/>
+      <c r="AQ27" s="153"/>
+      <c r="AR27" s="153"/>
+      <c r="AS27" s="153"/>
+      <c r="AT27" s="153"/>
+      <c r="AU27" s="153"/>
+      <c r="AV27" s="153"/>
+      <c r="AW27" s="153"/>
+      <c r="AX27" s="153"/>
+      <c r="AY27" s="153"/>
+      <c r="AZ27" s="153"/>
+      <c r="BA27" s="153"/>
+      <c r="BB27" s="153"/>
+      <c r="BC27" s="153"/>
+      <c r="BD27" s="153"/>
+      <c r="BE27" s="153"/>
+      <c r="BF27" s="153"/>
+      <c r="BG27" s="153"/>
+      <c r="BH27" s="153"/>
+      <c r="BI27" s="154"/>
+      <c r="BJ27" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="BK27" s="197"/>
-      <c r="BL27" s="198"/>
-      <c r="BM27" s="202" t="s">
-        <v>70</v>
+      <c r="BK27" s="159"/>
+      <c r="BL27" s="160"/>
+      <c r="BM27" s="164" t="s">
+        <v>69</v>
       </c>
-      <c r="BN27" s="202"/>
-      <c r="BO27" s="202"/>
-      <c r="BP27" s="202"/>
-      <c r="BQ27" s="202"/>
-      <c r="BR27" s="202"/>
-      <c r="BS27" s="202"/>
-      <c r="BT27" s="202"/>
-      <c r="BU27" s="202"/>
-      <c r="BV27" s="202"/>
-      <c r="BW27" s="202"/>
-      <c r="BX27" s="202"/>
-      <c r="BY27" s="202"/>
-      <c r="BZ27" s="202"/>
-      <c r="CA27" s="202"/>
-      <c r="CB27" s="202"/>
-      <c r="CC27" s="202"/>
-      <c r="CD27" s="202"/>
-      <c r="CE27" s="202"/>
-      <c r="CF27" s="203"/>
+      <c r="BN27" s="164"/>
+      <c r="BO27" s="164"/>
+      <c r="BP27" s="164"/>
+      <c r="BQ27" s="164"/>
+      <c r="BR27" s="164"/>
+      <c r="BS27" s="164"/>
+      <c r="BT27" s="164"/>
+      <c r="BU27" s="164"/>
+      <c r="BV27" s="164"/>
+      <c r="BW27" s="164"/>
+      <c r="BX27" s="164"/>
+      <c r="BY27" s="164"/>
+      <c r="BZ27" s="164"/>
+      <c r="CA27" s="164"/>
+      <c r="CB27" s="164"/>
+      <c r="CC27" s="164"/>
+      <c r="CD27" s="164"/>
+      <c r="CE27" s="164"/>
+      <c r="CF27" s="165"/>
     </row>
     <row r="28" spans="3:102" ht="22.5" customHeight="1">
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="225"/>
-      <c r="J28" s="226" t="s">
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="255"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="228"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="34"/>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="34"/>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="34"/>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="293"/>
-      <c r="BJ28" s="199"/>
-      <c r="BK28" s="200"/>
-      <c r="BL28" s="201"/>
-      <c r="BM28" s="204"/>
-      <c r="BN28" s="204"/>
-      <c r="BO28" s="204"/>
-      <c r="BP28" s="204"/>
-      <c r="BQ28" s="204"/>
-      <c r="BR28" s="204"/>
-      <c r="BS28" s="204"/>
-      <c r="BT28" s="204"/>
-      <c r="BU28" s="204"/>
-      <c r="BV28" s="204"/>
-      <c r="BW28" s="204"/>
-      <c r="BX28" s="204"/>
-      <c r="BY28" s="204"/>
-      <c r="BZ28" s="204"/>
-      <c r="CA28" s="204"/>
-      <c r="CB28" s="204"/>
-      <c r="CC28" s="204"/>
-      <c r="CD28" s="204"/>
-      <c r="CE28" s="204"/>
-      <c r="CF28" s="205"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="156"/>
+      <c r="AH28" s="156"/>
+      <c r="AI28" s="156"/>
+      <c r="AJ28" s="156"/>
+      <c r="AK28" s="156"/>
+      <c r="AL28" s="156"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156"/>
+      <c r="AP28" s="156"/>
+      <c r="AQ28" s="156"/>
+      <c r="AR28" s="156"/>
+      <c r="AS28" s="156"/>
+      <c r="AT28" s="156"/>
+      <c r="AU28" s="156"/>
+      <c r="AV28" s="156"/>
+      <c r="AW28" s="156"/>
+      <c r="AX28" s="156"/>
+      <c r="AY28" s="156"/>
+      <c r="AZ28" s="156"/>
+      <c r="BA28" s="156"/>
+      <c r="BB28" s="156"/>
+      <c r="BC28" s="156"/>
+      <c r="BD28" s="156"/>
+      <c r="BE28" s="156"/>
+      <c r="BF28" s="156"/>
+      <c r="BG28" s="156"/>
+      <c r="BH28" s="156"/>
+      <c r="BI28" s="157"/>
+      <c r="BJ28" s="161"/>
+      <c r="BK28" s="162"/>
+      <c r="BL28" s="163"/>
+      <c r="BM28" s="166"/>
+      <c r="BN28" s="166"/>
+      <c r="BO28" s="166"/>
+      <c r="BP28" s="166"/>
+      <c r="BQ28" s="166"/>
+      <c r="BR28" s="166"/>
+      <c r="BS28" s="166"/>
+      <c r="BT28" s="166"/>
+      <c r="BU28" s="166"/>
+      <c r="BV28" s="166"/>
+      <c r="BW28" s="166"/>
+      <c r="BX28" s="166"/>
+      <c r="BY28" s="166"/>
+      <c r="BZ28" s="166"/>
+      <c r="CA28" s="166"/>
+      <c r="CB28" s="166"/>
+      <c r="CC28" s="166"/>
+      <c r="CD28" s="166"/>
+      <c r="CE28" s="166"/>
+      <c r="CF28" s="167"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="12"/>
@@ -10273,404 +10263,404 @@
       <c r="CF30" s="5"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="242" t="s">
+      <c r="C31" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="243"/>
-      <c r="I31" s="243"/>
-      <c r="J31" s="243"/>
-      <c r="K31" s="243"/>
-      <c r="L31" s="243"/>
-      <c r="M31" s="243"/>
-      <c r="N31" s="243"/>
-      <c r="O31" s="243"/>
-      <c r="P31" s="243"/>
-      <c r="Q31" s="243"/>
-      <c r="R31" s="243"/>
-      <c r="S31" s="243"/>
-      <c r="T31" s="243"/>
-      <c r="U31" s="243"/>
-      <c r="V31" s="243"/>
-      <c r="W31" s="243"/>
-      <c r="X31" s="243"/>
-      <c r="Y31" s="243"/>
-      <c r="Z31" s="243"/>
-      <c r="AA31" s="243"/>
-      <c r="AB31" s="244"/>
-      <c r="AD31" s="246" t="s">
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="104"/>
+      <c r="AD31" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="AE31" s="247"/>
-      <c r="AF31" s="247"/>
-      <c r="AG31" s="247"/>
-      <c r="AH31" s="247"/>
-      <c r="AI31" s="247"/>
-      <c r="AJ31" s="247"/>
-      <c r="AK31" s="247"/>
-      <c r="AL31" s="247"/>
-      <c r="AM31" s="247"/>
-      <c r="AN31" s="247"/>
-      <c r="AO31" s="247"/>
-      <c r="AP31" s="247"/>
-      <c r="AQ31" s="247"/>
-      <c r="AR31" s="247"/>
-      <c r="AS31" s="247"/>
-      <c r="AT31" s="247"/>
-      <c r="AU31" s="247"/>
-      <c r="AV31" s="247"/>
-      <c r="AW31" s="247"/>
-      <c r="AX31" s="247"/>
-      <c r="AY31" s="247"/>
-      <c r="AZ31" s="247"/>
-      <c r="BA31" s="247"/>
-      <c r="BB31" s="247"/>
-      <c r="BC31" s="248"/>
-      <c r="BE31" s="240" t="s">
+      <c r="AE31" s="107"/>
+      <c r="AF31" s="107"/>
+      <c r="AG31" s="107"/>
+      <c r="AH31" s="107"/>
+      <c r="AI31" s="107"/>
+      <c r="AJ31" s="107"/>
+      <c r="AK31" s="107"/>
+      <c r="AL31" s="107"/>
+      <c r="AM31" s="107"/>
+      <c r="AN31" s="107"/>
+      <c r="AO31" s="107"/>
+      <c r="AP31" s="107"/>
+      <c r="AQ31" s="107"/>
+      <c r="AR31" s="107"/>
+      <c r="AS31" s="107"/>
+      <c r="AT31" s="107"/>
+      <c r="AU31" s="107"/>
+      <c r="AV31" s="107"/>
+      <c r="AW31" s="107"/>
+      <c r="AX31" s="107"/>
+      <c r="AY31" s="107"/>
+      <c r="AZ31" s="107"/>
+      <c r="BA31" s="107"/>
+      <c r="BB31" s="107"/>
+      <c r="BC31" s="108"/>
+      <c r="BE31" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="BF31" s="241"/>
-      <c r="BG31" s="241"/>
-      <c r="BH31" s="241"/>
-      <c r="BI31" s="241"/>
-      <c r="BJ31" s="241"/>
-      <c r="BK31" s="241"/>
-      <c r="BL31" s="241"/>
-      <c r="BM31" s="241"/>
-      <c r="BN31" s="241"/>
-      <c r="BO31" s="241"/>
-      <c r="BP31" s="241"/>
-      <c r="BQ31" s="241"/>
-      <c r="BR31" s="241"/>
-      <c r="BS31" s="241"/>
-      <c r="BT31" s="241"/>
-      <c r="BU31" s="241"/>
-      <c r="BV31" s="241"/>
-      <c r="BW31" s="241"/>
-      <c r="BX31" s="241"/>
-      <c r="BY31" s="241"/>
-      <c r="BZ31" s="241"/>
-      <c r="CA31" s="241"/>
-      <c r="CB31" s="241"/>
-      <c r="CC31" s="241"/>
-      <c r="CD31" s="241"/>
-      <c r="CE31" s="241"/>
-      <c r="CF31" s="241"/>
+      <c r="BF31" s="101"/>
+      <c r="BG31" s="101"/>
+      <c r="BH31" s="101"/>
+      <c r="BI31" s="101"/>
+      <c r="BJ31" s="101"/>
+      <c r="BK31" s="101"/>
+      <c r="BL31" s="101"/>
+      <c r="BM31" s="101"/>
+      <c r="BN31" s="101"/>
+      <c r="BO31" s="101"/>
+      <c r="BP31" s="101"/>
+      <c r="BQ31" s="101"/>
+      <c r="BR31" s="101"/>
+      <c r="BS31" s="101"/>
+      <c r="BT31" s="101"/>
+      <c r="BU31" s="101"/>
+      <c r="BV31" s="101"/>
+      <c r="BW31" s="101"/>
+      <c r="BX31" s="101"/>
+      <c r="BY31" s="101"/>
+      <c r="BZ31" s="101"/>
+      <c r="CA31" s="101"/>
+      <c r="CB31" s="101"/>
+      <c r="CC31" s="101"/>
+      <c r="CD31" s="101"/>
+      <c r="CE31" s="101"/>
+      <c r="CF31" s="101"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="11"/>
       <c r="D32" s="2"/>
-      <c r="L32" s="259" t="s">
-        <v>69</v>
+      <c r="L32" s="121" t="s">
+        <v>68</v>
       </c>
-      <c r="M32" s="259"/>
-      <c r="N32" s="259"/>
-      <c r="O32" s="259"/>
-      <c r="P32" s="259"/>
-      <c r="Q32" s="259"/>
-      <c r="R32" s="259"/>
-      <c r="S32" s="259"/>
-      <c r="T32" s="259"/>
-      <c r="U32" s="259"/>
-      <c r="V32" s="259"/>
-      <c r="W32" s="259"/>
-      <c r="X32" s="259"/>
-      <c r="Y32" s="259"/>
-      <c r="Z32" s="259"/>
-      <c r="AA32" s="259"/>
-      <c r="AB32" s="260"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="122"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="245" t="s">
+      <c r="AR32" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="AS32" s="245"/>
-      <c r="AT32" s="245"/>
-      <c r="AU32" s="245"/>
-      <c r="AV32" s="245"/>
-      <c r="AW32" s="245"/>
-      <c r="AX32" s="245"/>
-      <c r="AY32" s="245"/>
-      <c r="AZ32" s="245"/>
-      <c r="BA32" s="245"/>
-      <c r="BB32" s="245"/>
-      <c r="BC32" s="258"/>
-      <c r="BE32" s="237" t="s">
+      <c r="AS32" s="105"/>
+      <c r="AT32" s="105"/>
+      <c r="AU32" s="105"/>
+      <c r="AV32" s="105"/>
+      <c r="AW32" s="105"/>
+      <c r="AX32" s="105"/>
+      <c r="AY32" s="105"/>
+      <c r="AZ32" s="105"/>
+      <c r="BA32" s="105"/>
+      <c r="BB32" s="105"/>
+      <c r="BC32" s="120"/>
+      <c r="BE32" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="BF32" s="238"/>
-      <c r="BG32" s="238"/>
-      <c r="BH32" s="238"/>
-      <c r="BI32" s="238"/>
-      <c r="BJ32" s="238"/>
-      <c r="BK32" s="238"/>
-      <c r="BL32" s="238"/>
-      <c r="BM32" s="238"/>
-      <c r="BN32" s="238"/>
-      <c r="BO32" s="238"/>
-      <c r="BP32" s="238"/>
-      <c r="BQ32" s="238"/>
-      <c r="BR32" s="238"/>
-      <c r="BS32" s="238"/>
-      <c r="BT32" s="238"/>
-      <c r="BU32" s="238"/>
-      <c r="BV32" s="238"/>
-      <c r="BW32" s="238"/>
-      <c r="BX32" s="238"/>
-      <c r="BY32" s="238"/>
-      <c r="BZ32" s="238"/>
-      <c r="CA32" s="238"/>
-      <c r="CB32" s="238"/>
-      <c r="CC32" s="238"/>
-      <c r="CD32" s="238"/>
-      <c r="CE32" s="238"/>
-      <c r="CF32" s="239"/>
+      <c r="BF32" s="98"/>
+      <c r="BG32" s="98"/>
+      <c r="BH32" s="98"/>
+      <c r="BI32" s="98"/>
+      <c r="BJ32" s="98"/>
+      <c r="BK32" s="98"/>
+      <c r="BL32" s="98"/>
+      <c r="BM32" s="98"/>
+      <c r="BN32" s="98"/>
+      <c r="BO32" s="98"/>
+      <c r="BP32" s="98"/>
+      <c r="BQ32" s="98"/>
+      <c r="BR32" s="98"/>
+      <c r="BS32" s="98"/>
+      <c r="BT32" s="98"/>
+      <c r="BU32" s="98"/>
+      <c r="BV32" s="98"/>
+      <c r="BW32" s="98"/>
+      <c r="BX32" s="98"/>
+      <c r="BY32" s="98"/>
+      <c r="BZ32" s="98"/>
+      <c r="CA32" s="98"/>
+      <c r="CB32" s="98"/>
+      <c r="CC32" s="98"/>
+      <c r="CD32" s="98"/>
+      <c r="CE32" s="98"/>
+      <c r="CF32" s="99"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="249"/>
+      <c r="D33" s="110"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="251"/>
-      <c r="M33" s="251"/>
-      <c r="N33" s="251"/>
-      <c r="O33" s="251"/>
-      <c r="P33" s="251"/>
-      <c r="Q33" s="251"/>
-      <c r="R33" s="251"/>
-      <c r="S33" s="251"/>
-      <c r="T33" s="251"/>
-      <c r="U33" s="251"/>
-      <c r="V33" s="251"/>
-      <c r="W33" s="251"/>
-      <c r="X33" s="251"/>
-      <c r="Y33" s="251"/>
-      <c r="Z33" s="251"/>
-      <c r="AA33" s="251"/>
-      <c r="AB33" s="252"/>
-      <c r="AD33" s="147" t="s">
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="114"/>
+      <c r="AD33" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="AE33" s="249"/>
+      <c r="AE33" s="110"/>
       <c r="AF33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AJ33" s="251"/>
-      <c r="AK33" s="251"/>
-      <c r="AL33" s="251"/>
-      <c r="AM33" s="251"/>
-      <c r="AN33" s="251"/>
-      <c r="AO33" s="251"/>
-      <c r="AP33" s="251"/>
-      <c r="AQ33" s="251"/>
-      <c r="AR33" s="251"/>
-      <c r="AS33" s="251"/>
-      <c r="AT33" s="251"/>
-      <c r="AU33" s="251"/>
-      <c r="AV33" s="251"/>
-      <c r="AW33" s="251"/>
-      <c r="AX33" s="251"/>
-      <c r="AY33" s="251"/>
-      <c r="AZ33" s="251"/>
-      <c r="BA33" s="251"/>
-      <c r="BB33" s="251"/>
-      <c r="BC33" s="252"/>
-      <c r="BE33" s="254" t="s">
+      <c r="AJ33" s="113"/>
+      <c r="AK33" s="113"/>
+      <c r="AL33" s="113"/>
+      <c r="AM33" s="113"/>
+      <c r="AN33" s="113"/>
+      <c r="AO33" s="113"/>
+      <c r="AP33" s="113"/>
+      <c r="AQ33" s="113"/>
+      <c r="AR33" s="113"/>
+      <c r="AS33" s="113"/>
+      <c r="AT33" s="113"/>
+      <c r="AU33" s="113"/>
+      <c r="AV33" s="113"/>
+      <c r="AW33" s="113"/>
+      <c r="AX33" s="113"/>
+      <c r="AY33" s="113"/>
+      <c r="AZ33" s="113"/>
+      <c r="BA33" s="113"/>
+      <c r="BB33" s="113"/>
+      <c r="BC33" s="114"/>
+      <c r="BE33" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="BF33" s="255"/>
-      <c r="BG33" s="236" t="s">
-        <v>66</v>
+      <c r="BF33" s="117"/>
+      <c r="BG33" s="96" t="s">
+        <v>65</v>
       </c>
-      <c r="BH33" s="236"/>
-      <c r="BI33" s="236"/>
-      <c r="BJ33" s="236"/>
-      <c r="BK33" s="236"/>
-      <c r="BL33" s="236"/>
-      <c r="BM33" s="236"/>
-      <c r="BN33" s="236"/>
-      <c r="BO33" s="236"/>
-      <c r="BP33" s="236"/>
-      <c r="BQ33" s="236"/>
-      <c r="BT33" s="245" t="s">
+      <c r="BH33" s="96"/>
+      <c r="BI33" s="96"/>
+      <c r="BJ33" s="96"/>
+      <c r="BK33" s="96"/>
+      <c r="BL33" s="96"/>
+      <c r="BM33" s="96"/>
+      <c r="BN33" s="96"/>
+      <c r="BO33" s="96"/>
+      <c r="BP33" s="96"/>
+      <c r="BQ33" s="96"/>
+      <c r="BT33" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="BU33" s="245"/>
-      <c r="BV33" s="245"/>
-      <c r="BW33" s="245"/>
-      <c r="BX33" s="245"/>
-      <c r="BY33" s="245"/>
-      <c r="BZ33" s="245"/>
-      <c r="CA33" s="245"/>
-      <c r="CB33" s="245"/>
-      <c r="CC33" s="245"/>
-      <c r="CD33" s="245"/>
-      <c r="CE33" s="245"/>
+      <c r="BU33" s="105"/>
+      <c r="BV33" s="105"/>
+      <c r="BW33" s="105"/>
+      <c r="BX33" s="105"/>
+      <c r="BY33" s="105"/>
+      <c r="BZ33" s="105"/>
+      <c r="CA33" s="105"/>
+      <c r="CB33" s="105"/>
+      <c r="CC33" s="105"/>
+      <c r="CD33" s="105"/>
+      <c r="CE33" s="105"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="147"/>
-      <c r="D34" s="249"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="251"/>
-      <c r="M34" s="251"/>
-      <c r="N34" s="251"/>
-      <c r="O34" s="251"/>
-      <c r="P34" s="251"/>
-      <c r="Q34" s="251"/>
-      <c r="R34" s="251"/>
-      <c r="S34" s="251"/>
-      <c r="T34" s="251"/>
-      <c r="U34" s="251"/>
-      <c r="V34" s="251"/>
-      <c r="W34" s="251"/>
-      <c r="X34" s="251"/>
-      <c r="Y34" s="251"/>
-      <c r="Z34" s="251"/>
-      <c r="AA34" s="251"/>
-      <c r="AB34" s="252"/>
-      <c r="AD34" s="147"/>
-      <c r="AE34" s="249"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="113"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="113"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="114"/>
+      <c r="AD34" s="109"/>
+      <c r="AE34" s="110"/>
       <c r="AF34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AJ34" s="251"/>
-      <c r="AK34" s="251"/>
-      <c r="AL34" s="251"/>
-      <c r="AM34" s="251"/>
-      <c r="AN34" s="251"/>
-      <c r="AO34" s="251"/>
-      <c r="AP34" s="251"/>
-      <c r="AQ34" s="251"/>
-      <c r="AR34" s="251"/>
-      <c r="AS34" s="251"/>
-      <c r="AT34" s="251"/>
-      <c r="AU34" s="251"/>
-      <c r="AV34" s="251"/>
-      <c r="AW34" s="251"/>
-      <c r="AX34" s="251"/>
-      <c r="AY34" s="251"/>
-      <c r="AZ34" s="251"/>
-      <c r="BA34" s="251"/>
-      <c r="BB34" s="251"/>
-      <c r="BC34" s="252"/>
-      <c r="BE34" s="254"/>
-      <c r="BF34" s="255"/>
+      <c r="AJ34" s="113"/>
+      <c r="AK34" s="113"/>
+      <c r="AL34" s="113"/>
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="113"/>
+      <c r="AO34" s="113"/>
+      <c r="AP34" s="113"/>
+      <c r="AQ34" s="113"/>
+      <c r="AR34" s="113"/>
+      <c r="AS34" s="113"/>
+      <c r="AT34" s="113"/>
+      <c r="AU34" s="113"/>
+      <c r="AV34" s="113"/>
+      <c r="AW34" s="113"/>
+      <c r="AX34" s="113"/>
+      <c r="AY34" s="113"/>
+      <c r="AZ34" s="113"/>
+      <c r="BA34" s="113"/>
+      <c r="BB34" s="113"/>
+      <c r="BC34" s="114"/>
+      <c r="BE34" s="116"/>
+      <c r="BF34" s="117"/>
       <c r="BG34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BL34" s="177"/>
-      <c r="BM34" s="177"/>
-      <c r="BN34" s="177"/>
-      <c r="BO34" s="177"/>
-      <c r="BP34" s="177"/>
-      <c r="BQ34" s="177"/>
-      <c r="BR34" s="177"/>
-      <c r="BS34" s="177"/>
-      <c r="BT34" s="177"/>
-      <c r="BU34" s="177"/>
-      <c r="BV34" s="177"/>
-      <c r="BW34" s="177"/>
-      <c r="BX34" s="177"/>
-      <c r="BY34" s="177"/>
-      <c r="BZ34" s="177"/>
-      <c r="CA34" s="177"/>
-      <c r="CB34" s="177"/>
-      <c r="CC34" s="177"/>
-      <c r="CD34" s="177"/>
+      <c r="BL34" s="93"/>
+      <c r="BM34" s="93"/>
+      <c r="BN34" s="93"/>
+      <c r="BO34" s="93"/>
+      <c r="BP34" s="93"/>
+      <c r="BQ34" s="93"/>
+      <c r="BR34" s="93"/>
+      <c r="BS34" s="93"/>
+      <c r="BT34" s="93"/>
+      <c r="BU34" s="93"/>
+      <c r="BV34" s="93"/>
+      <c r="BW34" s="93"/>
+      <c r="BX34" s="93"/>
+      <c r="BY34" s="93"/>
+      <c r="BZ34" s="93"/>
+      <c r="CA34" s="93"/>
+      <c r="CB34" s="93"/>
+      <c r="CC34" s="93"/>
+      <c r="CD34" s="93"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="147"/>
-      <c r="D35" s="249"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="251"/>
-      <c r="M35" s="251"/>
-      <c r="N35" s="251"/>
-      <c r="O35" s="251"/>
-      <c r="P35" s="251"/>
-      <c r="Q35" s="251"/>
-      <c r="R35" s="251"/>
-      <c r="S35" s="251"/>
-      <c r="T35" s="251"/>
-      <c r="U35" s="251"/>
-      <c r="V35" s="251"/>
-      <c r="W35" s="251"/>
-      <c r="X35" s="251"/>
-      <c r="Y35" s="251"/>
-      <c r="Z35" s="251"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="113"/>
+      <c r="W35" s="113"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
       <c r="AA35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="AB35" s="9"/>
-      <c r="AD35" s="147"/>
-      <c r="AE35" s="249"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="110"/>
       <c r="AF35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AJ35" s="251"/>
-      <c r="AK35" s="251"/>
-      <c r="AL35" s="251"/>
-      <c r="AM35" s="251"/>
-      <c r="AN35" s="251"/>
-      <c r="AO35" s="251"/>
-      <c r="AP35" s="251"/>
-      <c r="AQ35" s="251"/>
-      <c r="AR35" s="251"/>
-      <c r="AS35" s="251"/>
-      <c r="AT35" s="251"/>
-      <c r="AU35" s="251"/>
-      <c r="AV35" s="251"/>
-      <c r="AW35" s="251"/>
-      <c r="AX35" s="251"/>
-      <c r="AY35" s="251"/>
-      <c r="AZ35" s="251"/>
-      <c r="BA35" s="251"/>
+      <c r="AJ35" s="113"/>
+      <c r="AK35" s="113"/>
+      <c r="AL35" s="113"/>
+      <c r="AM35" s="113"/>
+      <c r="AN35" s="113"/>
+      <c r="AO35" s="113"/>
+      <c r="AP35" s="113"/>
+      <c r="AQ35" s="113"/>
+      <c r="AR35" s="113"/>
+      <c r="AS35" s="113"/>
+      <c r="AT35" s="113"/>
+      <c r="AU35" s="113"/>
+      <c r="AV35" s="113"/>
+      <c r="AW35" s="113"/>
+      <c r="AX35" s="113"/>
+      <c r="AY35" s="113"/>
+      <c r="AZ35" s="113"/>
+      <c r="BA35" s="113"/>
       <c r="BB35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="BC35" s="9"/>
-      <c r="BE35" s="254"/>
-      <c r="BF35" s="255"/>
+      <c r="BE35" s="116"/>
+      <c r="BF35" s="117"/>
       <c r="BG35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BL35" s="177"/>
-      <c r="BM35" s="177"/>
-      <c r="BN35" s="177"/>
-      <c r="BO35" s="177"/>
-      <c r="BP35" s="177"/>
-      <c r="BQ35" s="177"/>
-      <c r="BR35" s="177"/>
-      <c r="BS35" s="177"/>
-      <c r="BT35" s="177"/>
-      <c r="BU35" s="177"/>
-      <c r="BV35" s="177"/>
-      <c r="BW35" s="177"/>
-      <c r="BX35" s="177"/>
-      <c r="BY35" s="177"/>
-      <c r="BZ35" s="177"/>
-      <c r="CA35" s="177"/>
-      <c r="CB35" s="177"/>
+      <c r="BL35" s="93"/>
+      <c r="BM35" s="93"/>
+      <c r="BN35" s="93"/>
+      <c r="BO35" s="93"/>
+      <c r="BP35" s="93"/>
+      <c r="BQ35" s="93"/>
+      <c r="BR35" s="93"/>
+      <c r="BS35" s="93"/>
+      <c r="BT35" s="93"/>
+      <c r="BU35" s="93"/>
+      <c r="BV35" s="93"/>
+      <c r="BW35" s="93"/>
+      <c r="BX35" s="93"/>
+      <c r="BY35" s="93"/>
+      <c r="BZ35" s="93"/>
+      <c r="CA35" s="93"/>
+      <c r="CB35" s="93"/>
       <c r="CC35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="149"/>
-      <c r="D36" s="250"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="112"/>
       <c r="E36" s="7" t="s">
         <v>2</v>
       </c>
@@ -10680,53 +10670,53 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="177"/>
-      <c r="M36" s="177"/>
-      <c r="N36" s="177"/>
-      <c r="O36" s="177"/>
-      <c r="P36" s="177"/>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="177"/>
-      <c r="S36" s="177"/>
-      <c r="T36" s="177"/>
-      <c r="U36" s="177"/>
-      <c r="V36" s="177"/>
-      <c r="W36" s="177"/>
-      <c r="X36" s="177"/>
-      <c r="Y36" s="177"/>
-      <c r="Z36" s="177"/>
-      <c r="AA36" s="177"/>
-      <c r="AB36" s="253"/>
-      <c r="AD36" s="149"/>
-      <c r="AE36" s="250"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="115"/>
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="112"/>
       <c r="AF36" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="177"/>
-      <c r="AK36" s="177"/>
-      <c r="AL36" s="177"/>
-      <c r="AM36" s="177"/>
-      <c r="AN36" s="177"/>
-      <c r="AO36" s="177"/>
-      <c r="AP36" s="177"/>
-      <c r="AQ36" s="177"/>
-      <c r="AR36" s="177"/>
-      <c r="AS36" s="177"/>
-      <c r="AT36" s="177"/>
-      <c r="AU36" s="177"/>
-      <c r="AV36" s="177"/>
-      <c r="AW36" s="177"/>
-      <c r="AX36" s="177"/>
-      <c r="AY36" s="177"/>
-      <c r="AZ36" s="177"/>
-      <c r="BA36" s="177"/>
-      <c r="BB36" s="177"/>
-      <c r="BC36" s="253"/>
-      <c r="BE36" s="256"/>
-      <c r="BF36" s="257"/>
+      <c r="AJ36" s="93"/>
+      <c r="AK36" s="93"/>
+      <c r="AL36" s="93"/>
+      <c r="AM36" s="93"/>
+      <c r="AN36" s="93"/>
+      <c r="AO36" s="93"/>
+      <c r="AP36" s="93"/>
+      <c r="AQ36" s="93"/>
+      <c r="AR36" s="93"/>
+      <c r="AS36" s="93"/>
+      <c r="AT36" s="93"/>
+      <c r="AU36" s="93"/>
+      <c r="AV36" s="93"/>
+      <c r="AW36" s="93"/>
+      <c r="AX36" s="93"/>
+      <c r="AY36" s="93"/>
+      <c r="AZ36" s="93"/>
+      <c r="BA36" s="93"/>
+      <c r="BB36" s="93"/>
+      <c r="BC36" s="115"/>
+      <c r="BE36" s="118"/>
+      <c r="BF36" s="119"/>
       <c r="BG36" s="6" t="s">
         <v>0</v>
       </c>
@@ -10734,27 +10724,27 @@
       <c r="BI36" s="5"/>
       <c r="BJ36" s="5"/>
       <c r="BK36" s="5"/>
-      <c r="BL36" s="234" t="s">
-        <v>68</v>
+      <c r="BL36" s="94" t="s">
+        <v>67</v>
       </c>
-      <c r="BM36" s="235"/>
-      <c r="BN36" s="235"/>
-      <c r="BO36" s="235"/>
-      <c r="BP36" s="235"/>
-      <c r="BQ36" s="235"/>
-      <c r="BR36" s="235"/>
-      <c r="BS36" s="235"/>
-      <c r="BT36" s="235"/>
-      <c r="BU36" s="235"/>
-      <c r="BV36" s="235"/>
-      <c r="BW36" s="235"/>
-      <c r="BX36" s="235"/>
-      <c r="BY36" s="235"/>
-      <c r="BZ36" s="235"/>
-      <c r="CA36" s="235"/>
-      <c r="CB36" s="235"/>
-      <c r="CC36" s="235"/>
-      <c r="CD36" s="235"/>
+      <c r="BM36" s="95"/>
+      <c r="BN36" s="95"/>
+      <c r="BO36" s="95"/>
+      <c r="BP36" s="95"/>
+      <c r="BQ36" s="95"/>
+      <c r="BR36" s="95"/>
+      <c r="BS36" s="95"/>
+      <c r="BT36" s="95"/>
+      <c r="BU36" s="95"/>
+      <c r="BV36" s="95"/>
+      <c r="BW36" s="95"/>
+      <c r="BX36" s="95"/>
+      <c r="BY36" s="95"/>
+      <c r="BZ36" s="95"/>
+      <c r="CA36" s="95"/>
+      <c r="CB36" s="95"/>
+      <c r="CC36" s="95"/>
+      <c r="CD36" s="95"/>
       <c r="CE36" s="5"/>
       <c r="CF36" s="5"/>
       <c r="CG36" s="4"/>
@@ -10983,8 +10973,156 @@
     </row>
   </sheetData>
   <mergeCells count="174">
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ3:CD4"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AF25:AG26"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BU3:BY4"/>
+    <mergeCell ref="BP3:BT4"/>
+    <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="BS16:CD21"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="E6:F15"/>
+    <mergeCell ref="BX7:BY8"/>
+    <mergeCell ref="BP7:BQ8"/>
+    <mergeCell ref="BR7:BS8"/>
+    <mergeCell ref="BT7:BU8"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="AW21:AY22"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BF8:BK8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="AV6:BK6"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AG10:CD11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="X6:AU6"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="AF14:AI15"/>
+    <mergeCell ref="AU20:AV22"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="AJ14:BO15"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AE21:AH22"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="BD7:BK7"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC14:AE15"/>
+    <mergeCell ref="AD25:AE26"/>
     <mergeCell ref="AH25:BP26"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
     <mergeCell ref="P27:BI28"/>
+    <mergeCell ref="BJ27:BL28"/>
+    <mergeCell ref="BM27:CF28"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="L32:AB32"/>
     <mergeCell ref="CV21:CX23"/>
     <mergeCell ref="G20:AD20"/>
     <mergeCell ref="AE20:AT20"/>
@@ -11007,156 +11145,8 @@
     <mergeCell ref="W21:X22"/>
     <mergeCell ref="Q14:R15"/>
     <mergeCell ref="J12:O13"/>
-    <mergeCell ref="AG10:CD11"/>
     <mergeCell ref="P12:CD13"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="AF14:AI15"/>
-    <mergeCell ref="AU20:AV22"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="AJ14:BO15"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AE21:AH22"/>
-    <mergeCell ref="BJ27:BL28"/>
-    <mergeCell ref="BM27:CF28"/>
     <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="AV6:BK6"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="BD7:BK7"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="BF8:BK8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="BX7:BY8"/>
-    <mergeCell ref="BP7:BQ8"/>
-    <mergeCell ref="BR7:BS8"/>
-    <mergeCell ref="BT7:BU8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="V24:W26"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="AW21:AY22"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BZ3:CD4"/>
-    <mergeCell ref="BZ7:CA8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AF25:AG26"/>
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BU3:BY4"/>
-    <mergeCell ref="BP3:BT4"/>
-    <mergeCell ref="BL6:CA6"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="BS16:CD21"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="E6:F15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11257,7 +11247,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId8" name="Check Box 5">
+            <control shapeId="1029" r:id="rId8" name="333">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NSS\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0905F8E0-F733-421C-BFF3-DB1B96F432DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D5BAE-1163-4D34-86FB-FC571BD644FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6254C165-ABD6-4E53-9ECE-5A2DBD780014}"/>
   </bookViews>
@@ -2031,21 +2031,705 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2055,30 +2739,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2103,42 +2763,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2193,18 +2817,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2212,618 +2824,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2852,7 +2852,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7757,6 +7757,526 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>193071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="A4_111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A1CC7B-FAAB-466F-BB4D-62AB2836DFC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667251" y="2962275"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>193071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="A4_113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18EE95C-797A-4388-BE07-B8612FD82F01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="3162300"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>193071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="A4_112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69F232B-7C33-40F9-8952-0B57E4AA399B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600701" y="2962275"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="A4_114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E9A954-65F1-4CA5-84C0-A55A372939F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619751" y="3152775"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40671</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="A4_221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E385ED8D-ABFC-4A42-956F-BD52975FD717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="5572125"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="A4_222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5BCBBD-8DBE-4748-8629-2CA74E3DF53D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="5553075"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>231171</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="A4_223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764886ED-146B-49AC-833A-20A013144539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="5762625"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>250221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="A4_224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A142FEB-4BED-43C1-9EEA-83916E6E838D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="5781675"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8062,8 +8582,8 @@
   </sheetPr>
   <dimension ref="C1:CX76"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10:CD11"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27:BI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -8084,976 +8604,976 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="BK2" s="278" t="s">
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="BK2" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" s="274"/>
-      <c r="BM2" s="274"/>
-      <c r="BN2" s="274"/>
-      <c r="BO2" s="274"/>
-      <c r="BP2" s="271" t="s">
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BQ2" s="272"/>
-      <c r="BR2" s="272"/>
-      <c r="BS2" s="272"/>
-      <c r="BT2" s="273"/>
-      <c r="BU2" s="274" t="s">
+      <c r="BQ2" s="30"/>
+      <c r="BR2" s="30"/>
+      <c r="BS2" s="30"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="BV2" s="274"/>
-      <c r="BW2" s="274"/>
-      <c r="BX2" s="274"/>
-      <c r="BY2" s="274"/>
-      <c r="BZ2" s="275" t="s">
+      <c r="BV2" s="39"/>
+      <c r="BW2" s="39"/>
+      <c r="BX2" s="39"/>
+      <c r="BY2" s="39"/>
+      <c r="BZ2" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="CA2" s="276"/>
-      <c r="CB2" s="276"/>
-      <c r="CC2" s="276"/>
-      <c r="CD2" s="277"/>
+      <c r="CA2" s="55"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="56"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="Y3" s="212" t="s">
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="Y3" s="186" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="212"/>
-      <c r="AE3" s="212"/>
-      <c r="AF3" s="212"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="212"/>
-      <c r="AK3" s="212"/>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="212"/>
-      <c r="AN3" s="212"/>
-      <c r="AO3" s="212"/>
-      <c r="AP3" s="212"/>
-      <c r="AQ3" s="212"/>
-      <c r="AR3" s="212"/>
-      <c r="AS3" s="212"/>
-      <c r="AT3" s="212"/>
-      <c r="AU3" s="212"/>
-      <c r="AV3" s="212"/>
-      <c r="AW3" s="212"/>
-      <c r="AX3" s="212"/>
-      <c r="AY3" s="212"/>
-      <c r="AZ3" s="212"/>
-      <c r="BA3" s="212"/>
-      <c r="BB3" s="212"/>
-      <c r="BC3" s="212"/>
-      <c r="BD3" s="212"/>
-      <c r="BE3" s="212"/>
-      <c r="BF3" s="212"/>
-      <c r="BG3" s="212"/>
+      <c r="Z3" s="186"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="186"/>
+      <c r="AE3" s="186"/>
+      <c r="AF3" s="186"/>
+      <c r="AG3" s="186"/>
+      <c r="AH3" s="186"/>
+      <c r="AI3" s="186"/>
+      <c r="AJ3" s="186"/>
+      <c r="AK3" s="186"/>
+      <c r="AL3" s="186"/>
+      <c r="AM3" s="186"/>
+      <c r="AN3" s="186"/>
+      <c r="AO3" s="186"/>
+      <c r="AP3" s="186"/>
+      <c r="AQ3" s="186"/>
+      <c r="AR3" s="186"/>
+      <c r="AS3" s="186"/>
+      <c r="AT3" s="186"/>
+      <c r="AU3" s="186"/>
+      <c r="AV3" s="186"/>
+      <c r="AW3" s="186"/>
+      <c r="AX3" s="186"/>
+      <c r="AY3" s="186"/>
+      <c r="AZ3" s="186"/>
+      <c r="BA3" s="186"/>
+      <c r="BB3" s="186"/>
+      <c r="BC3" s="186"/>
+      <c r="BD3" s="186"/>
+      <c r="BE3" s="186"/>
+      <c r="BF3" s="186"/>
+      <c r="BG3" s="186"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
-      <c r="BK3" s="137"/>
-      <c r="BL3" s="138"/>
-      <c r="BM3" s="138"/>
-      <c r="BN3" s="138"/>
-      <c r="BO3" s="139"/>
-      <c r="BP3" s="137"/>
-      <c r="BQ3" s="138"/>
-      <c r="BR3" s="138"/>
-      <c r="BS3" s="138"/>
-      <c r="BT3" s="139"/>
-      <c r="BU3" s="137"/>
-      <c r="BV3" s="138"/>
-      <c r="BW3" s="138"/>
-      <c r="BX3" s="138"/>
-      <c r="BY3" s="139"/>
-      <c r="BZ3" s="137"/>
-      <c r="CA3" s="138"/>
-      <c r="CB3" s="138"/>
-      <c r="CC3" s="138"/>
-      <c r="CD3" s="139"/>
+      <c r="BK3" s="40"/>
+      <c r="BL3" s="41"/>
+      <c r="BM3" s="41"/>
+      <c r="BN3" s="41"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="40"/>
+      <c r="BQ3" s="41"/>
+      <c r="BR3" s="41"/>
+      <c r="BS3" s="41"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="40"/>
+      <c r="BV3" s="41"/>
+      <c r="BW3" s="41"/>
+      <c r="BX3" s="41"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="41"/>
+      <c r="CB3" s="41"/>
+      <c r="CC3" s="41"/>
+      <c r="CD3" s="42"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="213"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="Y4" s="212"/>
-      <c r="Z4" s="212"/>
-      <c r="AA4" s="212"/>
-      <c r="AB4" s="212"/>
-      <c r="AC4" s="212"/>
-      <c r="AD4" s="212"/>
-      <c r="AE4" s="212"/>
-      <c r="AF4" s="212"/>
-      <c r="AG4" s="212"/>
-      <c r="AH4" s="212"/>
-      <c r="AI4" s="212"/>
-      <c r="AJ4" s="212"/>
-      <c r="AK4" s="212"/>
-      <c r="AL4" s="212"/>
-      <c r="AM4" s="212"/>
-      <c r="AN4" s="212"/>
-      <c r="AO4" s="212"/>
-      <c r="AP4" s="212"/>
-      <c r="AQ4" s="212"/>
-      <c r="AR4" s="212"/>
-      <c r="AS4" s="212"/>
-      <c r="AT4" s="212"/>
-      <c r="AU4" s="212"/>
-      <c r="AV4" s="212"/>
-      <c r="AW4" s="212"/>
-      <c r="AX4" s="212"/>
-      <c r="AY4" s="212"/>
-      <c r="AZ4" s="212"/>
-      <c r="BA4" s="212"/>
-      <c r="BB4" s="212"/>
-      <c r="BC4" s="212"/>
-      <c r="BD4" s="212"/>
-      <c r="BE4" s="212"/>
-      <c r="BF4" s="212"/>
-      <c r="BG4" s="212"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="185"/>
+      <c r="Y4" s="186"/>
+      <c r="Z4" s="186"/>
+      <c r="AA4" s="186"/>
+      <c r="AB4" s="186"/>
+      <c r="AC4" s="186"/>
+      <c r="AD4" s="186"/>
+      <c r="AE4" s="186"/>
+      <c r="AF4" s="186"/>
+      <c r="AG4" s="186"/>
+      <c r="AH4" s="186"/>
+      <c r="AI4" s="186"/>
+      <c r="AJ4" s="186"/>
+      <c r="AK4" s="186"/>
+      <c r="AL4" s="186"/>
+      <c r="AM4" s="186"/>
+      <c r="AN4" s="186"/>
+      <c r="AO4" s="186"/>
+      <c r="AP4" s="186"/>
+      <c r="AQ4" s="186"/>
+      <c r="AR4" s="186"/>
+      <c r="AS4" s="186"/>
+      <c r="AT4" s="186"/>
+      <c r="AU4" s="186"/>
+      <c r="AV4" s="186"/>
+      <c r="AW4" s="186"/>
+      <c r="AX4" s="186"/>
+      <c r="AY4" s="186"/>
+      <c r="AZ4" s="186"/>
+      <c r="BA4" s="186"/>
+      <c r="BB4" s="186"/>
+      <c r="BC4" s="186"/>
+      <c r="BD4" s="186"/>
+      <c r="BE4" s="186"/>
+      <c r="BF4" s="186"/>
+      <c r="BG4" s="186"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="214"/>
-      <c r="BL4" s="191"/>
-      <c r="BM4" s="191"/>
-      <c r="BN4" s="191"/>
-      <c r="BO4" s="215"/>
-      <c r="BP4" s="214"/>
-      <c r="BQ4" s="191"/>
-      <c r="BR4" s="191"/>
-      <c r="BS4" s="191"/>
-      <c r="BT4" s="215"/>
-      <c r="BU4" s="214"/>
-      <c r="BV4" s="191"/>
-      <c r="BW4" s="191"/>
-      <c r="BX4" s="191"/>
-      <c r="BY4" s="215"/>
-      <c r="BZ4" s="214"/>
-      <c r="CA4" s="191"/>
-      <c r="CB4" s="191"/>
-      <c r="CC4" s="191"/>
-      <c r="CD4" s="215"/>
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="44"/>
+      <c r="BM4" s="44"/>
+      <c r="BN4" s="44"/>
+      <c r="BO4" s="45"/>
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="44"/>
+      <c r="BR4" s="44"/>
+      <c r="BS4" s="44"/>
+      <c r="BT4" s="45"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="44"/>
+      <c r="BW4" s="44"/>
+      <c r="BX4" s="44"/>
+      <c r="BY4" s="45"/>
+      <c r="BZ4" s="43"/>
+      <c r="CA4" s="44"/>
+      <c r="CB4" s="44"/>
+      <c r="CC4" s="44"/>
+      <c r="CD4" s="45"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="233" t="s">
+      <c r="C6" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="233"/>
-      <c r="E6" s="143" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="145"/>
-      <c r="G6" s="220" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="220"/>
-      <c r="S6" s="218" t="s">
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="219"/>
-      <c r="U6" s="219"/>
-      <c r="V6" s="219"/>
-      <c r="W6" s="219"/>
-      <c r="X6" s="30" t="s">
+      <c r="T6" s="155"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="31" t="s">
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="142"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="142"/>
+      <c r="AC6" s="142"/>
+      <c r="AD6" s="142"/>
+      <c r="AE6" s="142"/>
+      <c r="AF6" s="142"/>
+      <c r="AG6" s="142"/>
+      <c r="AH6" s="142"/>
+      <c r="AI6" s="142"/>
+      <c r="AJ6" s="142"/>
+      <c r="AK6" s="142"/>
+      <c r="AL6" s="142"/>
+      <c r="AM6" s="142"/>
+      <c r="AN6" s="142"/>
+      <c r="AO6" s="142"/>
+      <c r="AP6" s="142"/>
+      <c r="AQ6" s="142"/>
+      <c r="AR6" s="142"/>
+      <c r="AS6" s="142"/>
+      <c r="AT6" s="142"/>
+      <c r="AU6" s="143"/>
+      <c r="AV6" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="31"/>
-      <c r="AY6" s="31"/>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
-      <c r="BB6" s="31"/>
-      <c r="BC6" s="31"/>
-      <c r="BD6" s="31"/>
-      <c r="BE6" s="31"/>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
-      <c r="BH6" s="31"/>
-      <c r="BI6" s="31"/>
-      <c r="BJ6" s="31"/>
-      <c r="BK6" s="32"/>
-      <c r="BL6" s="137" t="s">
+      <c r="AW6" s="142"/>
+      <c r="AX6" s="142"/>
+      <c r="AY6" s="142"/>
+      <c r="AZ6" s="142"/>
+      <c r="BA6" s="142"/>
+      <c r="BB6" s="142"/>
+      <c r="BC6" s="142"/>
+      <c r="BD6" s="142"/>
+      <c r="BE6" s="142"/>
+      <c r="BF6" s="142"/>
+      <c r="BG6" s="142"/>
+      <c r="BH6" s="142"/>
+      <c r="BI6" s="142"/>
+      <c r="BJ6" s="142"/>
+      <c r="BK6" s="143"/>
+      <c r="BL6" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="138"/>
-      <c r="BO6" s="138"/>
-      <c r="BP6" s="138"/>
-      <c r="BQ6" s="138"/>
-      <c r="BR6" s="138"/>
-      <c r="BS6" s="138"/>
-      <c r="BT6" s="138"/>
-      <c r="BU6" s="138"/>
-      <c r="BV6" s="138"/>
-      <c r="BW6" s="138"/>
-      <c r="BX6" s="138"/>
-      <c r="BY6" s="138"/>
-      <c r="BZ6" s="138"/>
-      <c r="CA6" s="139"/>
+      <c r="BM6" s="41"/>
+      <c r="BN6" s="41"/>
+      <c r="BO6" s="41"/>
+      <c r="BP6" s="41"/>
+      <c r="BQ6" s="41"/>
+      <c r="BR6" s="41"/>
+      <c r="BS6" s="41"/>
+      <c r="BT6" s="41"/>
+      <c r="BU6" s="41"/>
+      <c r="BV6" s="41"/>
+      <c r="BW6" s="41"/>
+      <c r="BX6" s="41"/>
+      <c r="BY6" s="41"/>
+      <c r="BZ6" s="41"/>
+      <c r="CA6" s="42"/>
       <c r="CB6"/>
       <c r="CC6"/>
       <c r="CD6" s="27"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="222"/>
-      <c r="K7" s="171"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="152"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="152"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="225"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="152"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="225"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="152"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="225"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="226" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="AW7" s="227"/>
-      <c r="AX7" s="228"/>
-      <c r="AY7" s="228"/>
-      <c r="AZ7" s="228"/>
-      <c r="BA7" s="228"/>
-      <c r="BB7" s="228"/>
-      <c r="BC7" s="229"/>
-      <c r="BD7" s="216"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="33"/>
-      <c r="BI7" s="33"/>
-      <c r="BJ7" s="33"/>
-      <c r="BK7" s="217"/>
-      <c r="BL7" s="205" t="s">
+      <c r="AW7" s="145"/>
+      <c r="AX7" s="146"/>
+      <c r="AY7" s="146"/>
+      <c r="AZ7" s="146"/>
+      <c r="BA7" s="146"/>
+      <c r="BB7" s="146"/>
+      <c r="BC7" s="147"/>
+      <c r="BD7" s="187"/>
+      <c r="BE7" s="188"/>
+      <c r="BF7" s="188"/>
+      <c r="BG7" s="188"/>
+      <c r="BH7" s="188"/>
+      <c r="BI7" s="188"/>
+      <c r="BJ7" s="188"/>
+      <c r="BK7" s="189"/>
+      <c r="BL7" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="BM7" s="206"/>
-      <c r="BN7" s="206"/>
-      <c r="BO7" s="207"/>
-      <c r="BP7" s="291"/>
-      <c r="BQ7" s="40"/>
-      <c r="BR7" s="153"/>
-      <c r="BS7" s="40"/>
-      <c r="BT7" s="291"/>
-      <c r="BU7" s="40"/>
-      <c r="BV7" s="153"/>
-      <c r="BW7" s="40"/>
-      <c r="BX7" s="291"/>
-      <c r="BY7" s="153"/>
-      <c r="BZ7" s="39"/>
-      <c r="CA7" s="240"/>
+      <c r="BM7" s="128"/>
+      <c r="BN7" s="128"/>
+      <c r="BO7" s="129"/>
+      <c r="BP7" s="83"/>
+      <c r="BQ7" s="37"/>
+      <c r="BR7" s="84"/>
+      <c r="BS7" s="37"/>
+      <c r="BT7" s="83"/>
+      <c r="BU7" s="37"/>
+      <c r="BV7" s="84"/>
+      <c r="BW7" s="37"/>
+      <c r="BX7" s="83"/>
+      <c r="BY7" s="84"/>
+      <c r="BZ7" s="46"/>
+      <c r="CA7" s="47"/>
       <c r="CB7" s="28"/>
       <c r="CC7"/>
       <c r="CD7" s="27"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="155"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="156"/>
-      <c r="W8" s="156"/>
-      <c r="X8" s="155"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="156"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="155"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="156"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="155"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="156"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="241" t="s">
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="AW8" s="242"/>
-      <c r="AX8" s="243"/>
-      <c r="AY8" s="243"/>
-      <c r="AZ8" s="243"/>
-      <c r="BA8" s="243"/>
-      <c r="BB8" s="243"/>
-      <c r="BC8" s="244"/>
-      <c r="BD8" s="245" t="s">
+      <c r="AW8" s="120"/>
+      <c r="AX8" s="121"/>
+      <c r="AY8" s="121"/>
+      <c r="AZ8" s="121"/>
+      <c r="BA8" s="121"/>
+      <c r="BB8" s="121"/>
+      <c r="BC8" s="122"/>
+      <c r="BD8" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="BE8" s="246"/>
-      <c r="BF8" s="247"/>
-      <c r="BG8" s="247"/>
-      <c r="BH8" s="247"/>
-      <c r="BI8" s="247"/>
-      <c r="BJ8" s="247"/>
-      <c r="BK8" s="248"/>
-      <c r="BL8" s="208"/>
-      <c r="BM8" s="209"/>
-      <c r="BN8" s="209"/>
-      <c r="BO8" s="210"/>
-      <c r="BP8" s="292"/>
-      <c r="BQ8" s="44"/>
-      <c r="BR8" s="156"/>
-      <c r="BS8" s="44"/>
-      <c r="BT8" s="292"/>
-      <c r="BU8" s="44"/>
-      <c r="BV8" s="156"/>
-      <c r="BW8" s="44"/>
-      <c r="BX8" s="292"/>
-      <c r="BY8" s="156"/>
-      <c r="BZ8" s="43"/>
-      <c r="CA8" s="256"/>
+      <c r="BE8" s="124"/>
+      <c r="BF8" s="125"/>
+      <c r="BG8" s="125"/>
+      <c r="BH8" s="125"/>
+      <c r="BI8" s="125"/>
+      <c r="BJ8" s="125"/>
+      <c r="BK8" s="126"/>
+      <c r="BL8" s="130"/>
+      <c r="BM8" s="131"/>
+      <c r="BN8" s="131"/>
+      <c r="BO8" s="132"/>
+      <c r="BP8" s="85"/>
+      <c r="BQ8" s="35"/>
+      <c r="BR8" s="34"/>
+      <c r="BS8" s="35"/>
+      <c r="BT8" s="85"/>
+      <c r="BU8" s="35"/>
+      <c r="BV8" s="34"/>
+      <c r="BW8" s="35"/>
+      <c r="BX8" s="85"/>
+      <c r="BY8" s="34"/>
+      <c r="BZ8" s="48"/>
+      <c r="CA8" s="49"/>
       <c r="CB8" s="13"/>
       <c r="CC8" s="5"/>
       <c r="CD8" s="27"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="65" t="s">
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="273" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="74" t="s">
+      <c r="H9" s="274"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="282" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="143" t="s">
+      <c r="K9" s="283"/>
+      <c r="L9" s="283"/>
+      <c r="M9" s="283"/>
+      <c r="N9" s="283"/>
+      <c r="O9" s="284"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="279"/>
-      <c r="AG9" s="282" t="s">
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="AH9" s="283"/>
-      <c r="AI9" s="283"/>
-      <c r="AJ9" s="283"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45"/>
-      <c r="BG9" s="45"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="45"/>
-      <c r="BL9" s="45"/>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="45"/>
-      <c r="BO9" s="45"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BR9" s="45"/>
-      <c r="BS9" s="45"/>
-      <c r="BT9" s="45"/>
-      <c r="BU9" s="45"/>
-      <c r="BV9" s="45"/>
-      <c r="BW9" s="45"/>
-      <c r="BX9" s="45"/>
-      <c r="BY9" s="45"/>
-      <c r="BZ9" s="45"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="45"/>
-      <c r="CC9" s="45"/>
-      <c r="CD9" s="46"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="265"/>
+      <c r="AL9" s="265"/>
+      <c r="AM9" s="265"/>
+      <c r="AN9" s="265"/>
+      <c r="AO9" s="265"/>
+      <c r="AP9" s="265"/>
+      <c r="AQ9" s="265"/>
+      <c r="AR9" s="265"/>
+      <c r="AS9" s="265"/>
+      <c r="AT9" s="265"/>
+      <c r="AU9" s="265"/>
+      <c r="AV9" s="265"/>
+      <c r="AW9" s="265"/>
+      <c r="AX9" s="265"/>
+      <c r="AY9" s="265"/>
+      <c r="AZ9" s="265"/>
+      <c r="BA9" s="265"/>
+      <c r="BB9" s="265"/>
+      <c r="BC9" s="265"/>
+      <c r="BD9" s="265"/>
+      <c r="BE9" s="265"/>
+      <c r="BF9" s="265"/>
+      <c r="BG9" s="265"/>
+      <c r="BH9" s="265"/>
+      <c r="BI9" s="265"/>
+      <c r="BJ9" s="265"/>
+      <c r="BK9" s="265"/>
+      <c r="BL9" s="265"/>
+      <c r="BM9" s="265"/>
+      <c r="BN9" s="265"/>
+      <c r="BO9" s="265"/>
+      <c r="BP9" s="265"/>
+      <c r="BQ9" s="265"/>
+      <c r="BR9" s="265"/>
+      <c r="BS9" s="265"/>
+      <c r="BT9" s="265"/>
+      <c r="BU9" s="265"/>
+      <c r="BV9" s="265"/>
+      <c r="BW9" s="265"/>
+      <c r="BX9" s="265"/>
+      <c r="BY9" s="265"/>
+      <c r="BZ9" s="265"/>
+      <c r="CA9" s="265"/>
+      <c r="CB9" s="265"/>
+      <c r="CC9" s="265"/>
+      <c r="CD9" s="266"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="146"/>
-      <c r="AE10" s="147"/>
-      <c r="AF10" s="280"/>
-      <c r="AG10" s="230"/>
-      <c r="AH10" s="231"/>
-      <c r="AI10" s="231"/>
-      <c r="AJ10" s="231"/>
-      <c r="AK10" s="231"/>
-      <c r="AL10" s="231"/>
-      <c r="AM10" s="231"/>
-      <c r="AN10" s="231"/>
-      <c r="AO10" s="231"/>
-      <c r="AP10" s="231"/>
-      <c r="AQ10" s="231"/>
-      <c r="AR10" s="231"/>
-      <c r="AS10" s="231"/>
-      <c r="AT10" s="231"/>
-      <c r="AU10" s="231"/>
-      <c r="AV10" s="231"/>
-      <c r="AW10" s="231"/>
-      <c r="AX10" s="231"/>
-      <c r="AY10" s="231"/>
-      <c r="AZ10" s="231"/>
-      <c r="BA10" s="231"/>
-      <c r="BB10" s="231"/>
-      <c r="BC10" s="231"/>
-      <c r="BD10" s="231"/>
-      <c r="BE10" s="231"/>
-      <c r="BF10" s="231"/>
-      <c r="BG10" s="231"/>
-      <c r="BH10" s="231"/>
-      <c r="BI10" s="231"/>
-      <c r="BJ10" s="231"/>
-      <c r="BK10" s="231"/>
-      <c r="BL10" s="231"/>
-      <c r="BM10" s="231"/>
-      <c r="BN10" s="231"/>
-      <c r="BO10" s="231"/>
-      <c r="BP10" s="231"/>
-      <c r="BQ10" s="231"/>
-      <c r="BR10" s="231"/>
-      <c r="BS10" s="231"/>
-      <c r="BT10" s="231"/>
-      <c r="BU10" s="231"/>
-      <c r="BV10" s="231"/>
-      <c r="BW10" s="231"/>
-      <c r="BX10" s="231"/>
-      <c r="BY10" s="231"/>
-      <c r="BZ10" s="231"/>
-      <c r="CA10" s="231"/>
-      <c r="CB10" s="231"/>
-      <c r="CC10" s="231"/>
-      <c r="CD10" s="232"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="285"/>
+      <c r="K10" s="286"/>
+      <c r="L10" s="286"/>
+      <c r="M10" s="286"/>
+      <c r="N10" s="286"/>
+      <c r="O10" s="287"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="148"/>
+      <c r="AH10" s="149"/>
+      <c r="AI10" s="149"/>
+      <c r="AJ10" s="149"/>
+      <c r="AK10" s="149"/>
+      <c r="AL10" s="149"/>
+      <c r="AM10" s="149"/>
+      <c r="AN10" s="149"/>
+      <c r="AO10" s="149"/>
+      <c r="AP10" s="149"/>
+      <c r="AQ10" s="149"/>
+      <c r="AR10" s="149"/>
+      <c r="AS10" s="149"/>
+      <c r="AT10" s="149"/>
+      <c r="AU10" s="149"/>
+      <c r="AV10" s="149"/>
+      <c r="AW10" s="149"/>
+      <c r="AX10" s="149"/>
+      <c r="AY10" s="149"/>
+      <c r="AZ10" s="149"/>
+      <c r="BA10" s="149"/>
+      <c r="BB10" s="149"/>
+      <c r="BC10" s="149"/>
+      <c r="BD10" s="149"/>
+      <c r="BE10" s="149"/>
+      <c r="BF10" s="149"/>
+      <c r="BG10" s="149"/>
+      <c r="BH10" s="149"/>
+      <c r="BI10" s="149"/>
+      <c r="BJ10" s="149"/>
+      <c r="BK10" s="149"/>
+      <c r="BL10" s="149"/>
+      <c r="BM10" s="149"/>
+      <c r="BN10" s="149"/>
+      <c r="BO10" s="149"/>
+      <c r="BP10" s="149"/>
+      <c r="BQ10" s="149"/>
+      <c r="BR10" s="149"/>
+      <c r="BS10" s="149"/>
+      <c r="BT10" s="149"/>
+      <c r="BU10" s="149"/>
+      <c r="BV10" s="149"/>
+      <c r="BW10" s="149"/>
+      <c r="BX10" s="149"/>
+      <c r="BY10" s="149"/>
+      <c r="BZ10" s="149"/>
+      <c r="CA10" s="149"/>
+      <c r="CB10" s="149"/>
+      <c r="CC10" s="149"/>
+      <c r="CD10" s="150"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="149"/>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="281"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="91"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="91"/>
-      <c r="AM11" s="91"/>
-      <c r="AN11" s="91"/>
-      <c r="AO11" s="91"/>
-      <c r="AP11" s="91"/>
-      <c r="AQ11" s="91"/>
-      <c r="AR11" s="91"/>
-      <c r="AS11" s="91"/>
-      <c r="AT11" s="91"/>
-      <c r="AU11" s="91"/>
-      <c r="AV11" s="91"/>
-      <c r="AW11" s="91"/>
-      <c r="AX11" s="91"/>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="91"/>
-      <c r="BA11" s="91"/>
-      <c r="BB11" s="91"/>
-      <c r="BC11" s="91"/>
-      <c r="BD11" s="91"/>
-      <c r="BE11" s="91"/>
-      <c r="BF11" s="91"/>
-      <c r="BG11" s="91"/>
-      <c r="BH11" s="91"/>
-      <c r="BI11" s="91"/>
-      <c r="BJ11" s="91"/>
-      <c r="BK11" s="91"/>
-      <c r="BL11" s="91"/>
-      <c r="BM11" s="91"/>
-      <c r="BN11" s="91"/>
-      <c r="BO11" s="91"/>
-      <c r="BP11" s="91"/>
-      <c r="BQ11" s="91"/>
-      <c r="BR11" s="91"/>
-      <c r="BS11" s="91"/>
-      <c r="BT11" s="91"/>
-      <c r="BU11" s="91"/>
-      <c r="BV11" s="91"/>
-      <c r="BW11" s="91"/>
-      <c r="BX11" s="91"/>
-      <c r="BY11" s="91"/>
-      <c r="BZ11" s="91"/>
-      <c r="CA11" s="91"/>
-      <c r="CB11" s="91"/>
-      <c r="CC11" s="91"/>
-      <c r="CD11" s="92"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="279"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="289"/>
+      <c r="L11" s="289"/>
+      <c r="M11" s="289"/>
+      <c r="N11" s="289"/>
+      <c r="O11" s="290"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="151"/>
+      <c r="AH11" s="152"/>
+      <c r="AI11" s="152"/>
+      <c r="AJ11" s="152"/>
+      <c r="AK11" s="152"/>
+      <c r="AL11" s="152"/>
+      <c r="AM11" s="152"/>
+      <c r="AN11" s="152"/>
+      <c r="AO11" s="152"/>
+      <c r="AP11" s="152"/>
+      <c r="AQ11" s="152"/>
+      <c r="AR11" s="152"/>
+      <c r="AS11" s="152"/>
+      <c r="AT11" s="152"/>
+      <c r="AU11" s="152"/>
+      <c r="AV11" s="152"/>
+      <c r="AW11" s="152"/>
+      <c r="AX11" s="152"/>
+      <c r="AY11" s="152"/>
+      <c r="AZ11" s="152"/>
+      <c r="BA11" s="152"/>
+      <c r="BB11" s="152"/>
+      <c r="BC11" s="152"/>
+      <c r="BD11" s="152"/>
+      <c r="BE11" s="152"/>
+      <c r="BF11" s="152"/>
+      <c r="BG11" s="152"/>
+      <c r="BH11" s="152"/>
+      <c r="BI11" s="152"/>
+      <c r="BJ11" s="152"/>
+      <c r="BK11" s="152"/>
+      <c r="BL11" s="152"/>
+      <c r="BM11" s="152"/>
+      <c r="BN11" s="152"/>
+      <c r="BO11" s="152"/>
+      <c r="BP11" s="152"/>
+      <c r="BQ11" s="152"/>
+      <c r="BR11" s="152"/>
+      <c r="BS11" s="152"/>
+      <c r="BT11" s="152"/>
+      <c r="BU11" s="152"/>
+      <c r="BV11" s="152"/>
+      <c r="BW11" s="152"/>
+      <c r="BX11" s="152"/>
+      <c r="BY11" s="152"/>
+      <c r="BZ11" s="152"/>
+      <c r="CA11" s="152"/>
+      <c r="CB11" s="152"/>
+      <c r="CC11" s="152"/>
+      <c r="CD11" s="153"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="59" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="74" t="s">
+      <c r="H12" s="209"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="282" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="88"/>
-      <c r="AI12" s="88"/>
-      <c r="AJ12" s="88"/>
-      <c r="AK12" s="88"/>
-      <c r="AL12" s="88"/>
-      <c r="AM12" s="88"/>
-      <c r="AN12" s="88"/>
-      <c r="AO12" s="88"/>
-      <c r="AP12" s="88"/>
-      <c r="AQ12" s="88"/>
-      <c r="AR12" s="88"/>
-      <c r="AS12" s="88"/>
-      <c r="AT12" s="88"/>
-      <c r="AU12" s="88"/>
-      <c r="AV12" s="88"/>
-      <c r="AW12" s="88"/>
-      <c r="AX12" s="88"/>
-      <c r="AY12" s="88"/>
-      <c r="AZ12" s="88"/>
-      <c r="BA12" s="88"/>
-      <c r="BB12" s="88"/>
-      <c r="BC12" s="88"/>
-      <c r="BD12" s="88"/>
-      <c r="BE12" s="88"/>
-      <c r="BF12" s="88"/>
-      <c r="BG12" s="88"/>
-      <c r="BH12" s="88"/>
-      <c r="BI12" s="88"/>
-      <c r="BJ12" s="88"/>
-      <c r="BK12" s="88"/>
-      <c r="BL12" s="88"/>
-      <c r="BM12" s="88"/>
-      <c r="BN12" s="88"/>
-      <c r="BO12" s="88"/>
-      <c r="BP12" s="88"/>
-      <c r="BQ12" s="88"/>
-      <c r="BR12" s="88"/>
-      <c r="BS12" s="88"/>
-      <c r="BT12" s="88"/>
-      <c r="BU12" s="88"/>
-      <c r="BV12" s="88"/>
-      <c r="BW12" s="88"/>
-      <c r="BX12" s="88"/>
-      <c r="BY12" s="88"/>
-      <c r="BZ12" s="88"/>
-      <c r="CA12" s="88"/>
-      <c r="CB12" s="88"/>
-      <c r="CC12" s="88"/>
-      <c r="CD12" s="89"/>
+      <c r="K12" s="283"/>
+      <c r="L12" s="283"/>
+      <c r="M12" s="283"/>
+      <c r="N12" s="283"/>
+      <c r="O12" s="284"/>
+      <c r="P12" s="291"/>
+      <c r="Q12" s="292"/>
+      <c r="R12" s="292"/>
+      <c r="S12" s="292"/>
+      <c r="T12" s="292"/>
+      <c r="U12" s="292"/>
+      <c r="V12" s="292"/>
+      <c r="W12" s="292"/>
+      <c r="X12" s="292"/>
+      <c r="Y12" s="292"/>
+      <c r="Z12" s="292"/>
+      <c r="AA12" s="292"/>
+      <c r="AB12" s="292"/>
+      <c r="AC12" s="292"/>
+      <c r="AD12" s="292"/>
+      <c r="AE12" s="292"/>
+      <c r="AF12" s="292"/>
+      <c r="AG12" s="292"/>
+      <c r="AH12" s="292"/>
+      <c r="AI12" s="292"/>
+      <c r="AJ12" s="292"/>
+      <c r="AK12" s="292"/>
+      <c r="AL12" s="292"/>
+      <c r="AM12" s="292"/>
+      <c r="AN12" s="292"/>
+      <c r="AO12" s="292"/>
+      <c r="AP12" s="292"/>
+      <c r="AQ12" s="292"/>
+      <c r="AR12" s="292"/>
+      <c r="AS12" s="292"/>
+      <c r="AT12" s="292"/>
+      <c r="AU12" s="292"/>
+      <c r="AV12" s="292"/>
+      <c r="AW12" s="292"/>
+      <c r="AX12" s="292"/>
+      <c r="AY12" s="292"/>
+      <c r="AZ12" s="292"/>
+      <c r="BA12" s="292"/>
+      <c r="BB12" s="292"/>
+      <c r="BC12" s="292"/>
+      <c r="BD12" s="292"/>
+      <c r="BE12" s="292"/>
+      <c r="BF12" s="292"/>
+      <c r="BG12" s="292"/>
+      <c r="BH12" s="292"/>
+      <c r="BI12" s="292"/>
+      <c r="BJ12" s="292"/>
+      <c r="BK12" s="292"/>
+      <c r="BL12" s="292"/>
+      <c r="BM12" s="292"/>
+      <c r="BN12" s="292"/>
+      <c r="BO12" s="292"/>
+      <c r="BP12" s="292"/>
+      <c r="BQ12" s="292"/>
+      <c r="BR12" s="292"/>
+      <c r="BS12" s="292"/>
+      <c r="BT12" s="292"/>
+      <c r="BU12" s="292"/>
+      <c r="BV12" s="292"/>
+      <c r="BW12" s="292"/>
+      <c r="BX12" s="292"/>
+      <c r="BY12" s="292"/>
+      <c r="BZ12" s="292"/>
+      <c r="CA12" s="292"/>
+      <c r="CB12" s="292"/>
+      <c r="CC12" s="292"/>
+      <c r="CD12" s="293"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="91"/>
-      <c r="AE13" s="91"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="91"/>
-      <c r="AI13" s="91"/>
-      <c r="AJ13" s="91"/>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="91"/>
-      <c r="AM13" s="91"/>
-      <c r="AN13" s="91"/>
-      <c r="AO13" s="91"/>
-      <c r="AP13" s="91"/>
-      <c r="AQ13" s="91"/>
-      <c r="AR13" s="91"/>
-      <c r="AS13" s="91"/>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="91"/>
-      <c r="AV13" s="91"/>
-      <c r="AW13" s="91"/>
-      <c r="AX13" s="91"/>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="91"/>
-      <c r="BA13" s="91"/>
-      <c r="BB13" s="91"/>
-      <c r="BC13" s="91"/>
-      <c r="BD13" s="91"/>
-      <c r="BE13" s="91"/>
-      <c r="BF13" s="91"/>
-      <c r="BG13" s="91"/>
-      <c r="BH13" s="91"/>
-      <c r="BI13" s="91"/>
-      <c r="BJ13" s="91"/>
-      <c r="BK13" s="91"/>
-      <c r="BL13" s="91"/>
-      <c r="BM13" s="91"/>
-      <c r="BN13" s="91"/>
-      <c r="BO13" s="91"/>
-      <c r="BP13" s="91"/>
-      <c r="BQ13" s="91"/>
-      <c r="BR13" s="91"/>
-      <c r="BS13" s="91"/>
-      <c r="BT13" s="91"/>
-      <c r="BU13" s="91"/>
-      <c r="BV13" s="91"/>
-      <c r="BW13" s="91"/>
-      <c r="BX13" s="91"/>
-      <c r="BY13" s="91"/>
-      <c r="BZ13" s="91"/>
-      <c r="CA13" s="91"/>
-      <c r="CB13" s="91"/>
-      <c r="CC13" s="91"/>
-      <c r="CD13" s="92"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="289"/>
+      <c r="M13" s="289"/>
+      <c r="N13" s="289"/>
+      <c r="O13" s="290"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="152"/>
+      <c r="V13" s="152"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="152"/>
+      <c r="AE13" s="152"/>
+      <c r="AF13" s="152"/>
+      <c r="AG13" s="152"/>
+      <c r="AH13" s="152"/>
+      <c r="AI13" s="152"/>
+      <c r="AJ13" s="152"/>
+      <c r="AK13" s="152"/>
+      <c r="AL13" s="152"/>
+      <c r="AM13" s="152"/>
+      <c r="AN13" s="152"/>
+      <c r="AO13" s="152"/>
+      <c r="AP13" s="152"/>
+      <c r="AQ13" s="152"/>
+      <c r="AR13" s="152"/>
+      <c r="AS13" s="152"/>
+      <c r="AT13" s="152"/>
+      <c r="AU13" s="152"/>
+      <c r="AV13" s="152"/>
+      <c r="AW13" s="152"/>
+      <c r="AX13" s="152"/>
+      <c r="AY13" s="152"/>
+      <c r="AZ13" s="152"/>
+      <c r="BA13" s="152"/>
+      <c r="BB13" s="152"/>
+      <c r="BC13" s="152"/>
+      <c r="BD13" s="152"/>
+      <c r="BE13" s="152"/>
+      <c r="BF13" s="152"/>
+      <c r="BG13" s="152"/>
+      <c r="BH13" s="152"/>
+      <c r="BI13" s="152"/>
+      <c r="BJ13" s="152"/>
+      <c r="BK13" s="152"/>
+      <c r="BL13" s="152"/>
+      <c r="BM13" s="152"/>
+      <c r="BN13" s="152"/>
+      <c r="BO13" s="152"/>
+      <c r="BP13" s="152"/>
+      <c r="BQ13" s="152"/>
+      <c r="BR13" s="152"/>
+      <c r="BS13" s="152"/>
+      <c r="BT13" s="152"/>
+      <c r="BU13" s="152"/>
+      <c r="BV13" s="152"/>
+      <c r="BW13" s="152"/>
+      <c r="BX13" s="152"/>
+      <c r="BY13" s="152"/>
+      <c r="BZ13" s="152"/>
+      <c r="CA13" s="152"/>
+      <c r="CB13" s="152"/>
+      <c r="CC13" s="152"/>
+      <c r="CD13" s="153"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="233"/>
-      <c r="D14" s="233"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="47" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="188" t="s">
+      <c r="H14" s="268"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="269"/>
+      <c r="M14" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="168"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="174"/>
-      <c r="AF14" s="179" t="s">
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="192"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="190"/>
+      <c r="U14" s="192"/>
+      <c r="V14" s="193"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="192"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="200"/>
+      <c r="AD14" s="201"/>
+      <c r="AE14" s="202"/>
+      <c r="AF14" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="AG14" s="180"/>
-      <c r="AH14" s="180"/>
-      <c r="AI14" s="180"/>
-      <c r="AJ14" s="193" t="s">
+      <c r="AG14" s="163"/>
+      <c r="AH14" s="163"/>
+      <c r="AI14" s="163"/>
+      <c r="AJ14" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="AK14" s="194"/>
-      <c r="AL14" s="194"/>
-      <c r="AM14" s="194"/>
-      <c r="AN14" s="194"/>
-      <c r="AO14" s="194"/>
-      <c r="AP14" s="194"/>
-      <c r="AQ14" s="194"/>
-      <c r="AR14" s="194"/>
-      <c r="AS14" s="194"/>
-      <c r="AT14" s="194"/>
-      <c r="AU14" s="194"/>
-      <c r="AV14" s="194"/>
-      <c r="AW14" s="194"/>
-      <c r="AX14" s="194"/>
-      <c r="AY14" s="194"/>
-      <c r="AZ14" s="194"/>
-      <c r="BA14" s="194"/>
-      <c r="BB14" s="194"/>
-      <c r="BC14" s="194"/>
-      <c r="BD14" s="194"/>
-      <c r="BE14" s="194"/>
-      <c r="BF14" s="194"/>
-      <c r="BG14" s="194"/>
-      <c r="BH14" s="194"/>
-      <c r="BI14" s="194"/>
-      <c r="BJ14" s="194"/>
-      <c r="BK14" s="194"/>
-      <c r="BL14" s="194"/>
-      <c r="BM14" s="194"/>
-      <c r="BN14" s="194"/>
-      <c r="BO14" s="195"/>
+      <c r="AK14" s="177"/>
+      <c r="AL14" s="177"/>
+      <c r="AM14" s="177"/>
+      <c r="AN14" s="177"/>
+      <c r="AO14" s="177"/>
+      <c r="AP14" s="177"/>
+      <c r="AQ14" s="177"/>
+      <c r="AR14" s="177"/>
+      <c r="AS14" s="177"/>
+      <c r="AT14" s="177"/>
+      <c r="AU14" s="177"/>
+      <c r="AV14" s="177"/>
+      <c r="AW14" s="177"/>
+      <c r="AX14" s="177"/>
+      <c r="AY14" s="177"/>
+      <c r="AZ14" s="177"/>
+      <c r="BA14" s="177"/>
+      <c r="BB14" s="177"/>
+      <c r="BC14" s="177"/>
+      <c r="BD14" s="177"/>
+      <c r="BE14" s="177"/>
+      <c r="BF14" s="177"/>
+      <c r="BG14" s="177"/>
+      <c r="BH14" s="177"/>
+      <c r="BI14" s="177"/>
+      <c r="BJ14" s="177"/>
+      <c r="BK14" s="177"/>
+      <c r="BL14" s="177"/>
+      <c r="BM14" s="177"/>
+      <c r="BN14" s="177"/>
+      <c r="BO14" s="178"/>
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
@@ -9070,91 +9590,91 @@
       <c r="CC14"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="233"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="191"/>
-      <c r="O15" s="191"/>
-      <c r="P15" s="192"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="169"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="169"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="175"/>
-      <c r="AD15" s="176"/>
-      <c r="AE15" s="177"/>
-      <c r="AF15" s="181"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="196"/>
-      <c r="AK15" s="197"/>
-      <c r="AL15" s="197"/>
-      <c r="AM15" s="197"/>
-      <c r="AN15" s="197"/>
-      <c r="AO15" s="197"/>
-      <c r="AP15" s="197"/>
-      <c r="AQ15" s="197"/>
-      <c r="AR15" s="197"/>
-      <c r="AS15" s="197"/>
-      <c r="AT15" s="197"/>
-      <c r="AU15" s="197"/>
-      <c r="AV15" s="197"/>
-      <c r="AW15" s="197"/>
-      <c r="AX15" s="197"/>
-      <c r="AY15" s="197"/>
-      <c r="AZ15" s="197"/>
-      <c r="BA15" s="197"/>
-      <c r="BB15" s="197"/>
-      <c r="BC15" s="197"/>
-      <c r="BD15" s="197"/>
-      <c r="BE15" s="197"/>
-      <c r="BF15" s="197"/>
-      <c r="BG15" s="197"/>
-      <c r="BH15" s="197"/>
-      <c r="BI15" s="197"/>
-      <c r="BJ15" s="197"/>
-      <c r="BK15" s="197"/>
-      <c r="BL15" s="197"/>
-      <c r="BM15" s="197"/>
-      <c r="BN15" s="197"/>
-      <c r="BO15" s="198"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="271"/>
+      <c r="I15" s="271"/>
+      <c r="J15" s="271"/>
+      <c r="K15" s="271"/>
+      <c r="L15" s="272"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="191"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="195"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="191"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="195"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="204"/>
+      <c r="AE15" s="205"/>
+      <c r="AF15" s="164"/>
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="165"/>
+      <c r="AI15" s="165"/>
+      <c r="AJ15" s="179"/>
+      <c r="AK15" s="180"/>
+      <c r="AL15" s="180"/>
+      <c r="AM15" s="180"/>
+      <c r="AN15" s="180"/>
+      <c r="AO15" s="180"/>
+      <c r="AP15" s="180"/>
+      <c r="AQ15" s="180"/>
+      <c r="AR15" s="180"/>
+      <c r="AS15" s="180"/>
+      <c r="AT15" s="180"/>
+      <c r="AU15" s="180"/>
+      <c r="AV15" s="180"/>
+      <c r="AW15" s="180"/>
+      <c r="AX15" s="180"/>
+      <c r="AY15" s="180"/>
+      <c r="AZ15" s="180"/>
+      <c r="BA15" s="180"/>
+      <c r="BB15" s="180"/>
+      <c r="BC15" s="180"/>
+      <c r="BD15" s="180"/>
+      <c r="BE15" s="180"/>
+      <c r="BF15" s="180"/>
+      <c r="BG15" s="180"/>
+      <c r="BH15" s="180"/>
+      <c r="BI15" s="180"/>
+      <c r="BJ15" s="180"/>
+      <c r="BK15" s="180"/>
+      <c r="BL15" s="180"/>
+      <c r="BM15" s="180"/>
+      <c r="BN15" s="180"/>
+      <c r="BO15" s="181"/>
       <c r="BP15"/>
       <c r="BQ15"/>
-      <c r="BS15" s="237" t="s">
+      <c r="BS15" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="BT15" s="238"/>
-      <c r="BU15" s="238"/>
-      <c r="BV15" s="238"/>
-      <c r="BW15" s="238"/>
-      <c r="BX15" s="238"/>
-      <c r="BY15" s="238"/>
-      <c r="BZ15" s="238"/>
-      <c r="CA15" s="238"/>
-      <c r="CB15" s="238"/>
-      <c r="CC15" s="238"/>
-      <c r="CD15" s="239"/>
+      <c r="BT15" s="70"/>
+      <c r="BU15" s="70"/>
+      <c r="BV15" s="70"/>
+      <c r="BW15" s="70"/>
+      <c r="BX15" s="70"/>
+      <c r="BY15" s="70"/>
+      <c r="BZ15" s="70"/>
+      <c r="CA15" s="70"/>
+      <c r="CB15" s="70"/>
+      <c r="CC15" s="70"/>
+      <c r="CD15" s="71"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="25"/>
@@ -9222,22 +9742,22 @@
       <c r="BO16"/>
       <c r="BP16"/>
       <c r="BQ16"/>
-      <c r="BS16" s="237"/>
-      <c r="BT16" s="238"/>
-      <c r="BU16" s="238"/>
-      <c r="BV16" s="238"/>
-      <c r="BW16" s="238"/>
-      <c r="BX16" s="238"/>
-      <c r="BY16" s="238"/>
-      <c r="BZ16" s="238"/>
-      <c r="CA16" s="238"/>
-      <c r="CB16" s="238"/>
-      <c r="CC16" s="238"/>
-      <c r="CD16" s="239"/>
+      <c r="BS16" s="69"/>
+      <c r="BT16" s="70"/>
+      <c r="BU16" s="70"/>
+      <c r="BV16" s="70"/>
+      <c r="BW16" s="70"/>
+      <c r="BX16" s="70"/>
+      <c r="BY16" s="70"/>
+      <c r="BZ16" s="70"/>
+      <c r="CA16" s="70"/>
+      <c r="CB16" s="70"/>
+      <c r="CC16" s="70"/>
+      <c r="CD16" s="71"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="233"/>
-      <c r="D17" s="233"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="21" t="s">
@@ -9246,22 +9766,22 @@
       <c r="AO17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="BS17" s="284"/>
-      <c r="BT17" s="213"/>
-      <c r="BU17" s="213"/>
-      <c r="BV17" s="213"/>
-      <c r="BW17" s="213"/>
-      <c r="BX17" s="213"/>
-      <c r="BY17" s="213"/>
-      <c r="BZ17" s="213"/>
-      <c r="CA17" s="213"/>
-      <c r="CB17" s="213"/>
-      <c r="CC17" s="213"/>
-      <c r="CD17" s="285"/>
+      <c r="BS17" s="72"/>
+      <c r="BT17" s="73"/>
+      <c r="BU17" s="73"/>
+      <c r="BV17" s="73"/>
+      <c r="BW17" s="73"/>
+      <c r="BX17" s="73"/>
+      <c r="BY17" s="73"/>
+      <c r="BZ17" s="73"/>
+      <c r="CA17" s="73"/>
+      <c r="CB17" s="73"/>
+      <c r="CC17" s="73"/>
+      <c r="CD17" s="74"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="233"/>
-      <c r="D18" s="233"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="19" t="s">
@@ -9302,56 +9822,56 @@
       <c r="BE18"/>
       <c r="BF18"/>
       <c r="BG18"/>
-      <c r="BS18" s="284"/>
-      <c r="BT18" s="213"/>
-      <c r="BU18" s="213"/>
-      <c r="BV18" s="213"/>
-      <c r="BW18" s="213"/>
-      <c r="BX18" s="213"/>
-      <c r="BY18" s="213"/>
-      <c r="BZ18" s="213"/>
-      <c r="CA18" s="213"/>
-      <c r="CB18" s="213"/>
-      <c r="CC18" s="213"/>
-      <c r="CD18" s="285"/>
+      <c r="BS18" s="72"/>
+      <c r="BT18" s="73"/>
+      <c r="BU18" s="73"/>
+      <c r="BV18" s="73"/>
+      <c r="BW18" s="73"/>
+      <c r="BX18" s="73"/>
+      <c r="BY18" s="73"/>
+      <c r="BZ18" s="73"/>
+      <c r="CA18" s="73"/>
+      <c r="CB18" s="73"/>
+      <c r="CC18" s="73"/>
+      <c r="CD18" s="74"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="289" t="s">
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="290"/>
-      <c r="G19" s="290"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="290"/>
-      <c r="J19" s="290"/>
-      <c r="K19" s="290"/>
-      <c r="L19" s="290"/>
-      <c r="M19" s="290"/>
-      <c r="N19" s="290"/>
-      <c r="O19" s="290"/>
-      <c r="P19" s="290"/>
-      <c r="Q19" s="290"/>
-      <c r="R19" s="290"/>
-      <c r="S19" s="290"/>
-      <c r="T19" s="290"/>
-      <c r="U19" s="290"/>
-      <c r="V19" s="290"/>
-      <c r="W19" s="290"/>
-      <c r="X19" s="290"/>
-      <c r="Y19" s="290"/>
-      <c r="Z19" s="290"/>
-      <c r="AA19" s="290"/>
-      <c r="AB19" s="290"/>
-      <c r="AC19" s="290"/>
-      <c r="AD19" s="290"/>
-      <c r="AE19" s="290"/>
-      <c r="AF19" s="290"/>
-      <c r="AG19" s="290"/>
-      <c r="AH19" s="290"/>
-      <c r="AI19" s="290"/>
-      <c r="AJ19" s="290"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
@@ -9375,808 +9895,808 @@
       <c r="BE19"/>
       <c r="BF19"/>
       <c r="BG19"/>
-      <c r="BS19" s="284"/>
-      <c r="BT19" s="213"/>
-      <c r="BU19" s="213"/>
-      <c r="BV19" s="213"/>
-      <c r="BW19" s="213"/>
-      <c r="BX19" s="213"/>
-      <c r="BY19" s="213"/>
-      <c r="BZ19" s="213"/>
-      <c r="CA19" s="213"/>
-      <c r="CB19" s="213"/>
-      <c r="CC19" s="213"/>
-      <c r="CD19" s="285"/>
+      <c r="BS19" s="72"/>
+      <c r="BT19" s="73"/>
+      <c r="BU19" s="73"/>
+      <c r="BV19" s="73"/>
+      <c r="BW19" s="73"/>
+      <c r="BX19" s="73"/>
+      <c r="BY19" s="73"/>
+      <c r="BZ19" s="73"/>
+      <c r="CA19" s="73"/>
+      <c r="CB19" s="73"/>
+      <c r="CC19" s="73"/>
+      <c r="CD19" s="74"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="252" t="s">
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="253"/>
-      <c r="G20" s="30" t="s">
+      <c r="F20" s="137"/>
+      <c r="G20" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="30" t="s">
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="142"/>
+      <c r="Z20" s="142"/>
+      <c r="AA20" s="142"/>
+      <c r="AB20" s="142"/>
+      <c r="AC20" s="142"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="182"/>
-      <c r="AV20" s="183"/>
-      <c r="AW20" s="257" t="s">
+      <c r="AF20" s="142"/>
+      <c r="AG20" s="142"/>
+      <c r="AH20" s="142"/>
+      <c r="AI20" s="142"/>
+      <c r="AJ20" s="142"/>
+      <c r="AK20" s="142"/>
+      <c r="AL20" s="142"/>
+      <c r="AM20" s="142"/>
+      <c r="AN20" s="142"/>
+      <c r="AO20" s="142"/>
+      <c r="AP20" s="142"/>
+      <c r="AQ20" s="142"/>
+      <c r="AR20" s="142"/>
+      <c r="AS20" s="142"/>
+      <c r="AT20" s="143"/>
+      <c r="AU20" s="166"/>
+      <c r="AV20" s="167"/>
+      <c r="AW20" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="AX20" s="258"/>
+      <c r="AX20" s="91"/>
       <c r="AY20" s="18"/>
       <c r="AZ20" s="17" t="s">
         <v>24</v>
       </c>
       <c r="BA20" s="16"/>
       <c r="BB20" s="16"/>
-      <c r="BC20" s="33"/>
-      <c r="BD20" s="33"/>
-      <c r="BE20" s="33"/>
-      <c r="BF20" s="33"/>
-      <c r="BG20" s="33"/>
-      <c r="BH20" s="33"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="35"/>
-      <c r="BK20" s="35"/>
-      <c r="BL20" s="35"/>
-      <c r="BM20" s="35"/>
-      <c r="BN20" s="35"/>
-      <c r="BO20" s="35"/>
-      <c r="BP20" s="35"/>
-      <c r="BQ20" s="36"/>
-      <c r="BS20" s="284"/>
-      <c r="BT20" s="213"/>
-      <c r="BU20" s="213"/>
-      <c r="BV20" s="213"/>
-      <c r="BW20" s="213"/>
-      <c r="BX20" s="213"/>
-      <c r="BY20" s="213"/>
-      <c r="BZ20" s="213"/>
-      <c r="CA20" s="213"/>
-      <c r="CB20" s="213"/>
-      <c r="CC20" s="213"/>
-      <c r="CD20" s="285"/>
+      <c r="BC20" s="188"/>
+      <c r="BD20" s="188"/>
+      <c r="BE20" s="188"/>
+      <c r="BF20" s="188"/>
+      <c r="BG20" s="188"/>
+      <c r="BH20" s="188"/>
+      <c r="BI20" s="262"/>
+      <c r="BJ20" s="263"/>
+      <c r="BK20" s="263"/>
+      <c r="BL20" s="263"/>
+      <c r="BM20" s="263"/>
+      <c r="BN20" s="263"/>
+      <c r="BO20" s="263"/>
+      <c r="BP20" s="263"/>
+      <c r="BQ20" s="264"/>
+      <c r="BS20" s="72"/>
+      <c r="BT20" s="73"/>
+      <c r="BU20" s="73"/>
+      <c r="BV20" s="73"/>
+      <c r="BW20" s="73"/>
+      <c r="BX20" s="73"/>
+      <c r="BY20" s="73"/>
+      <c r="BZ20" s="73"/>
+      <c r="CA20" s="73"/>
+      <c r="CB20" s="73"/>
+      <c r="CC20" s="73"/>
+      <c r="CD20" s="74"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="254"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="170"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="170"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="205" t="s">
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="196"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="198"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="198"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="196"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="198"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="198"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="AF21" s="206"/>
-      <c r="AG21" s="206"/>
-      <c r="AH21" s="207"/>
-      <c r="AI21" s="269"/>
-      <c r="AJ21" s="200"/>
-      <c r="AK21" s="203"/>
-      <c r="AL21" s="204"/>
-      <c r="AM21" s="199"/>
-      <c r="AN21" s="200"/>
-      <c r="AO21" s="203"/>
-      <c r="AP21" s="204"/>
-      <c r="AQ21" s="199"/>
-      <c r="AR21" s="200"/>
-      <c r="AS21" s="203"/>
-      <c r="AT21" s="204"/>
-      <c r="AU21" s="184"/>
-      <c r="AV21" s="185"/>
-      <c r="AW21" s="261" t="s">
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="129"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="106"/>
+      <c r="AK21" s="109"/>
+      <c r="AL21" s="110"/>
+      <c r="AM21" s="182"/>
+      <c r="AN21" s="106"/>
+      <c r="AO21" s="109"/>
+      <c r="AP21" s="110"/>
+      <c r="AQ21" s="182"/>
+      <c r="AR21" s="106"/>
+      <c r="AS21" s="109"/>
+      <c r="AT21" s="110"/>
+      <c r="AU21" s="168"/>
+      <c r="AV21" s="169"/>
+      <c r="AW21" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="AX21" s="261"/>
-      <c r="AY21" s="262"/>
+      <c r="AX21" s="94"/>
+      <c r="AY21" s="95"/>
       <c r="AZ21" s="15" t="s">
         <v>31</v>
       </c>
       <c r="BA21" s="14"/>
-      <c r="BB21" s="124"/>
-      <c r="BC21" s="124"/>
-      <c r="BD21" s="124"/>
-      <c r="BE21" s="124"/>
-      <c r="BF21" s="124"/>
-      <c r="BG21" s="124"/>
-      <c r="BH21" s="124"/>
+      <c r="BB21" s="88"/>
+      <c r="BC21" s="88"/>
+      <c r="BD21" s="88"/>
+      <c r="BE21" s="88"/>
+      <c r="BF21" s="88"/>
+      <c r="BG21" s="88"/>
+      <c r="BH21" s="88"/>
       <c r="BI21" s="15" t="s">
         <v>30</v>
       </c>
       <c r="BJ21" s="14"/>
-      <c r="BK21" s="124"/>
-      <c r="BL21" s="124"/>
-      <c r="BM21" s="124"/>
-      <c r="BN21" s="124"/>
-      <c r="BO21" s="124"/>
-      <c r="BP21" s="124"/>
-      <c r="BQ21" s="125"/>
-      <c r="BS21" s="286"/>
-      <c r="BT21" s="287"/>
-      <c r="BU21" s="287"/>
-      <c r="BV21" s="287"/>
-      <c r="BW21" s="287"/>
-      <c r="BX21" s="287"/>
-      <c r="BY21" s="287"/>
-      <c r="BZ21" s="287"/>
-      <c r="CA21" s="287"/>
-      <c r="CB21" s="287"/>
-      <c r="CC21" s="287"/>
-      <c r="CD21" s="288"/>
-      <c r="CV21" s="29"/>
-      <c r="CW21" s="29"/>
-      <c r="CX21" s="29"/>
+      <c r="BK21" s="88"/>
+      <c r="BL21" s="88"/>
+      <c r="BM21" s="88"/>
+      <c r="BN21" s="88"/>
+      <c r="BO21" s="88"/>
+      <c r="BP21" s="88"/>
+      <c r="BQ21" s="89"/>
+      <c r="BS21" s="75"/>
+      <c r="BT21" s="76"/>
+      <c r="BU21" s="76"/>
+      <c r="BV21" s="76"/>
+      <c r="BW21" s="76"/>
+      <c r="BX21" s="76"/>
+      <c r="BY21" s="76"/>
+      <c r="BZ21" s="76"/>
+      <c r="CA21" s="76"/>
+      <c r="CB21" s="76"/>
+      <c r="CC21" s="76"/>
+      <c r="CD21" s="77"/>
+      <c r="CV21" s="185"/>
+      <c r="CW21" s="185"/>
+      <c r="CX21" s="185"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="233"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="254"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="171"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="171"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="208"/>
-      <c r="AF22" s="209"/>
-      <c r="AG22" s="209"/>
-      <c r="AH22" s="210"/>
-      <c r="AI22" s="270"/>
-      <c r="AJ22" s="202"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="202"/>
-      <c r="AM22" s="201"/>
-      <c r="AN22" s="202"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="202"/>
-      <c r="AQ22" s="201"/>
-      <c r="AR22" s="202"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="202"/>
-      <c r="AU22" s="186"/>
-      <c r="AV22" s="187"/>
-      <c r="AW22" s="263"/>
-      <c r="AX22" s="263"/>
-      <c r="AY22" s="264"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="197"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="103"/>
+      <c r="Z22" s="103"/>
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="103"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="130"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="131"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="108"/>
+      <c r="AM22" s="183"/>
+      <c r="AN22" s="108"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="108"/>
+      <c r="AQ22" s="183"/>
+      <c r="AR22" s="108"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="108"/>
+      <c r="AU22" s="170"/>
+      <c r="AV22" s="171"/>
+      <c r="AW22" s="96"/>
+      <c r="AX22" s="96"/>
+      <c r="AY22" s="97"/>
       <c r="AZ22" s="13"/>
       <c r="BA22" s="5"/>
-      <c r="BB22" s="156"/>
-      <c r="BC22" s="156"/>
-      <c r="BD22" s="156"/>
-      <c r="BE22" s="156"/>
-      <c r="BF22" s="156"/>
-      <c r="BG22" s="156"/>
-      <c r="BH22" s="156"/>
+      <c r="BB22" s="34"/>
+      <c r="BC22" s="34"/>
+      <c r="BD22" s="34"/>
+      <c r="BE22" s="34"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="34"/>
+      <c r="BH22" s="34"/>
       <c r="BI22" s="13"/>
       <c r="BJ22" s="5"/>
-      <c r="BK22" s="156"/>
-      <c r="BL22" s="156"/>
-      <c r="BM22" s="156"/>
-      <c r="BN22" s="156"/>
-      <c r="BO22" s="156"/>
-      <c r="BP22" s="156"/>
-      <c r="BQ22" s="256"/>
-      <c r="CV22" s="29"/>
-      <c r="CW22" s="29"/>
-      <c r="CX22" s="29"/>
+      <c r="BK22" s="34"/>
+      <c r="BL22" s="34"/>
+      <c r="BM22" s="34"/>
+      <c r="BN22" s="34"/>
+      <c r="BO22" s="34"/>
+      <c r="BP22" s="34"/>
+      <c r="BQ22" s="49"/>
+      <c r="CV22" s="185"/>
+      <c r="CW22" s="185"/>
+      <c r="CX22" s="185"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="143" t="s">
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="144"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="137" t="s">
+      <c r="H23" s="59"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="139"/>
-      <c r="X23" s="137" t="s">
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="138"/>
-      <c r="AA23" s="138"/>
-      <c r="AB23" s="138"/>
-      <c r="AC23" s="138"/>
-      <c r="AD23" s="138"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="138"/>
-      <c r="AG23" s="138"/>
-      <c r="AH23" s="138"/>
-      <c r="AI23" s="138"/>
-      <c r="AJ23" s="138"/>
-      <c r="AK23" s="138"/>
-      <c r="AL23" s="138"/>
-      <c r="AM23" s="138"/>
-      <c r="AN23" s="138"/>
-      <c r="AO23" s="138"/>
-      <c r="AP23" s="138"/>
-      <c r="AQ23" s="138"/>
-      <c r="AR23" s="138"/>
-      <c r="AS23" s="138"/>
-      <c r="AT23" s="138"/>
-      <c r="AU23" s="138"/>
-      <c r="AV23" s="138"/>
-      <c r="AW23" s="138"/>
-      <c r="AX23" s="138"/>
-      <c r="AY23" s="138"/>
-      <c r="AZ23" s="138"/>
-      <c r="BA23" s="138"/>
-      <c r="BB23" s="138"/>
-      <c r="BC23" s="138"/>
-      <c r="BD23" s="138"/>
-      <c r="BE23" s="138"/>
-      <c r="BF23" s="138"/>
-      <c r="BG23" s="138"/>
-      <c r="BH23" s="138"/>
-      <c r="BI23" s="138"/>
-      <c r="BJ23" s="138"/>
-      <c r="BK23" s="138"/>
-      <c r="BL23" s="138"/>
-      <c r="BM23" s="138"/>
-      <c r="BN23" s="138"/>
-      <c r="BO23" s="138"/>
-      <c r="BP23" s="139"/>
-      <c r="BQ23" s="137" t="s">
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="41"/>
+      <c r="BA23" s="41"/>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="41"/>
+      <c r="BD23" s="41"/>
+      <c r="BE23" s="41"/>
+      <c r="BF23" s="41"/>
+      <c r="BG23" s="41"/>
+      <c r="BH23" s="41"/>
+      <c r="BI23" s="41"/>
+      <c r="BJ23" s="41"/>
+      <c r="BK23" s="41"/>
+      <c r="BL23" s="41"/>
+      <c r="BM23" s="41"/>
+      <c r="BN23" s="41"/>
+      <c r="BO23" s="41"/>
+      <c r="BP23" s="42"/>
+      <c r="BQ23" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="BR23" s="138"/>
-      <c r="BS23" s="138"/>
-      <c r="BT23" s="138"/>
-      <c r="BU23" s="138"/>
-      <c r="BV23" s="138"/>
-      <c r="BW23" s="138"/>
-      <c r="BX23" s="138"/>
-      <c r="BY23" s="138"/>
-      <c r="BZ23" s="138"/>
-      <c r="CA23" s="138"/>
-      <c r="CB23" s="138"/>
-      <c r="CC23" s="138"/>
-      <c r="CD23" s="139"/>
-      <c r="CE23" s="236"/>
-      <c r="CF23" s="236"/>
+      <c r="BR23" s="41"/>
+      <c r="BS23" s="41"/>
+      <c r="BT23" s="41"/>
+      <c r="BU23" s="41"/>
+      <c r="BV23" s="41"/>
+      <c r="BW23" s="41"/>
+      <c r="BX23" s="41"/>
+      <c r="BY23" s="41"/>
+      <c r="BZ23" s="41"/>
+      <c r="CA23" s="41"/>
+      <c r="CB23" s="41"/>
+      <c r="CC23" s="41"/>
+      <c r="CD23" s="42"/>
+      <c r="CE23" s="114"/>
+      <c r="CF23" s="114"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="29"/>
-      <c r="CW23" s="29"/>
-      <c r="CX23" s="29"/>
+      <c r="CV23" s="185"/>
+      <c r="CW23" s="185"/>
+      <c r="CX23" s="185"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="233"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="249" t="s">
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="193"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="193"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="193"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="193"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="193"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="Y24" s="250"/>
-      <c r="Z24" s="250"/>
-      <c r="AA24" s="250"/>
-      <c r="AB24" s="250"/>
-      <c r="AC24" s="250"/>
-      <c r="AD24" s="250"/>
-      <c r="AE24" s="250"/>
-      <c r="AF24" s="250"/>
-      <c r="AG24" s="251"/>
-      <c r="AH24" s="178" t="s">
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="134"/>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="134"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="135"/>
+      <c r="AH24" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="AI24" s="178"/>
-      <c r="AJ24" s="178"/>
-      <c r="AK24" s="178"/>
-      <c r="AL24" s="259"/>
-      <c r="AM24" s="259"/>
-      <c r="AN24" s="259"/>
-      <c r="AO24" s="259"/>
-      <c r="AP24" s="259"/>
-      <c r="AQ24" s="259"/>
-      <c r="AR24" s="259"/>
-      <c r="AS24" s="259"/>
-      <c r="AT24" s="259"/>
-      <c r="AU24" s="259"/>
-      <c r="AV24" s="259"/>
-      <c r="AW24" s="259"/>
-      <c r="AX24" s="259"/>
-      <c r="AY24" s="259"/>
-      <c r="AZ24" s="259"/>
-      <c r="BA24" s="259"/>
-      <c r="BB24" s="259"/>
-      <c r="BC24" s="259"/>
-      <c r="BD24" s="259"/>
-      <c r="BE24" s="259"/>
-      <c r="BF24" s="259"/>
-      <c r="BG24" s="259"/>
-      <c r="BH24" s="259"/>
-      <c r="BI24" s="259"/>
-      <c r="BJ24" s="259"/>
-      <c r="BK24" s="259"/>
-      <c r="BL24" s="259"/>
-      <c r="BM24" s="259"/>
-      <c r="BN24" s="259"/>
-      <c r="BO24" s="259"/>
-      <c r="BP24" s="260"/>
-      <c r="BQ24" s="265" t="s">
+      <c r="AI24" s="234"/>
+      <c r="AJ24" s="234"/>
+      <c r="AK24" s="234"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="92"/>
+      <c r="AN24" s="92"/>
+      <c r="AO24" s="92"/>
+      <c r="AP24" s="92"/>
+      <c r="AQ24" s="92"/>
+      <c r="AR24" s="92"/>
+      <c r="AS24" s="92"/>
+      <c r="AT24" s="92"/>
+      <c r="AU24" s="92"/>
+      <c r="AV24" s="92"/>
+      <c r="AW24" s="92"/>
+      <c r="AX24" s="92"/>
+      <c r="AY24" s="92"/>
+      <c r="AZ24" s="92"/>
+      <c r="BA24" s="92"/>
+      <c r="BB24" s="92"/>
+      <c r="BC24" s="92"/>
+      <c r="BD24" s="92"/>
+      <c r="BE24" s="92"/>
+      <c r="BF24" s="92"/>
+      <c r="BG24" s="92"/>
+      <c r="BH24" s="92"/>
+      <c r="BI24" s="92"/>
+      <c r="BJ24" s="92"/>
+      <c r="BK24" s="92"/>
+      <c r="BL24" s="92"/>
+      <c r="BM24" s="92"/>
+      <c r="BN24" s="92"/>
+      <c r="BO24" s="92"/>
+      <c r="BP24" s="93"/>
+      <c r="BQ24" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="BR24" s="266"/>
-      <c r="BS24" s="135"/>
-      <c r="BT24" s="40"/>
-      <c r="BU24" s="55"/>
-      <c r="BV24" s="240"/>
-      <c r="BW24" s="135"/>
-      <c r="BX24" s="40"/>
-      <c r="BY24" s="55"/>
-      <c r="BZ24" s="240"/>
-      <c r="CA24" s="135"/>
-      <c r="CB24" s="40"/>
-      <c r="CC24" s="55"/>
-      <c r="CD24" s="240"/>
-      <c r="CE24" s="236"/>
-      <c r="CF24" s="236"/>
+      <c r="BR24" s="99"/>
+      <c r="BS24" s="117"/>
+      <c r="BT24" s="37"/>
+      <c r="BU24" s="50"/>
+      <c r="BV24" s="47"/>
+      <c r="BW24" s="117"/>
+      <c r="BX24" s="37"/>
+      <c r="BY24" s="50"/>
+      <c r="BZ24" s="47"/>
+      <c r="CA24" s="117"/>
+      <c r="CB24" s="37"/>
+      <c r="CC24" s="50"/>
+      <c r="CD24" s="47"/>
+      <c r="CE24" s="114"/>
+      <c r="CF24" s="114"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="254"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="140"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="140"/>
-      <c r="W25" s="293"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="123"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="124"/>
-      <c r="AL25" s="124"/>
-      <c r="AM25" s="124"/>
-      <c r="AN25" s="124"/>
-      <c r="AO25" s="124"/>
-      <c r="AP25" s="124"/>
-      <c r="AQ25" s="124"/>
-      <c r="AR25" s="124"/>
-      <c r="AS25" s="124"/>
-      <c r="AT25" s="124"/>
-      <c r="AU25" s="124"/>
-      <c r="AV25" s="124"/>
-      <c r="AW25" s="124"/>
-      <c r="AX25" s="124"/>
-      <c r="AY25" s="124"/>
-      <c r="AZ25" s="124"/>
-      <c r="BA25" s="124"/>
-      <c r="BB25" s="124"/>
-      <c r="BC25" s="124"/>
-      <c r="BD25" s="124"/>
-      <c r="BE25" s="124"/>
-      <c r="BF25" s="124"/>
-      <c r="BG25" s="124"/>
-      <c r="BH25" s="124"/>
-      <c r="BI25" s="124"/>
-      <c r="BJ25" s="124"/>
-      <c r="BK25" s="124"/>
-      <c r="BL25" s="124"/>
-      <c r="BM25" s="124"/>
-      <c r="BN25" s="124"/>
-      <c r="BO25" s="124"/>
-      <c r="BP25" s="125"/>
-      <c r="BQ25" s="267"/>
-      <c r="BR25" s="268"/>
-      <c r="BS25" s="126"/>
-      <c r="BT25" s="42"/>
-      <c r="BU25" s="41"/>
-      <c r="BV25" s="128"/>
-      <c r="BW25" s="126"/>
-      <c r="BX25" s="42"/>
-      <c r="BY25" s="41"/>
-      <c r="BZ25" s="128"/>
-      <c r="CA25" s="126"/>
-      <c r="CB25" s="42"/>
-      <c r="CC25" s="41"/>
-      <c r="CD25" s="128"/>
-      <c r="CE25" s="236"/>
-      <c r="CF25" s="236"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="221"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="199"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="199"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="199"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="199"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="193"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="193"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="193"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="193"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="206"/>
+      <c r="AI25" s="88"/>
+      <c r="AJ25" s="88"/>
+      <c r="AK25" s="88"/>
+      <c r="AL25" s="88"/>
+      <c r="AM25" s="88"/>
+      <c r="AN25" s="88"/>
+      <c r="AO25" s="88"/>
+      <c r="AP25" s="88"/>
+      <c r="AQ25" s="88"/>
+      <c r="AR25" s="88"/>
+      <c r="AS25" s="88"/>
+      <c r="AT25" s="88"/>
+      <c r="AU25" s="88"/>
+      <c r="AV25" s="88"/>
+      <c r="AW25" s="88"/>
+      <c r="AX25" s="88"/>
+      <c r="AY25" s="88"/>
+      <c r="AZ25" s="88"/>
+      <c r="BA25" s="88"/>
+      <c r="BB25" s="88"/>
+      <c r="BC25" s="88"/>
+      <c r="BD25" s="88"/>
+      <c r="BE25" s="88"/>
+      <c r="BF25" s="88"/>
+      <c r="BG25" s="88"/>
+      <c r="BH25" s="88"/>
+      <c r="BI25" s="88"/>
+      <c r="BJ25" s="88"/>
+      <c r="BK25" s="88"/>
+      <c r="BL25" s="88"/>
+      <c r="BM25" s="88"/>
+      <c r="BN25" s="88"/>
+      <c r="BO25" s="88"/>
+      <c r="BP25" s="89"/>
+      <c r="BQ25" s="100"/>
+      <c r="BR25" s="101"/>
+      <c r="BS25" s="118"/>
+      <c r="BT25" s="33"/>
+      <c r="BU25" s="115"/>
+      <c r="BV25" s="116"/>
+      <c r="BW25" s="118"/>
+      <c r="BX25" s="33"/>
+      <c r="BY25" s="115"/>
+      <c r="BZ25" s="116"/>
+      <c r="CA25" s="118"/>
+      <c r="CB25" s="33"/>
+      <c r="CC25" s="115"/>
+      <c r="CD25" s="116"/>
+      <c r="CE25" s="114"/>
+      <c r="CF25" s="114"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="136"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="126"/>
-      <c r="AI26" s="127"/>
-      <c r="AJ26" s="127"/>
-      <c r="AK26" s="127"/>
-      <c r="AL26" s="127"/>
-      <c r="AM26" s="127"/>
-      <c r="AN26" s="127"/>
-      <c r="AO26" s="127"/>
-      <c r="AP26" s="127"/>
-      <c r="AQ26" s="127"/>
-      <c r="AR26" s="127"/>
-      <c r="AS26" s="127"/>
-      <c r="AT26" s="127"/>
-      <c r="AU26" s="127"/>
-      <c r="AV26" s="127"/>
-      <c r="AW26" s="127"/>
-      <c r="AX26" s="127"/>
-      <c r="AY26" s="127"/>
-      <c r="AZ26" s="127"/>
-      <c r="BA26" s="127"/>
-      <c r="BB26" s="127"/>
-      <c r="BC26" s="127"/>
-      <c r="BD26" s="127"/>
-      <c r="BE26" s="127"/>
-      <c r="BF26" s="127"/>
-      <c r="BG26" s="127"/>
-      <c r="BH26" s="127"/>
-      <c r="BI26" s="127"/>
-      <c r="BJ26" s="127"/>
-      <c r="BK26" s="127"/>
-      <c r="BL26" s="127"/>
-      <c r="BM26" s="127"/>
-      <c r="BN26" s="127"/>
-      <c r="BO26" s="127"/>
-      <c r="BP26" s="128"/>
-      <c r="BQ26" s="267"/>
-      <c r="BR26" s="268"/>
-      <c r="BS26" s="126"/>
-      <c r="BT26" s="42"/>
-      <c r="BU26" s="41"/>
-      <c r="BV26" s="128"/>
-      <c r="BW26" s="126"/>
-      <c r="BX26" s="42"/>
-      <c r="BY26" s="41"/>
-      <c r="BZ26" s="128"/>
-      <c r="CA26" s="126"/>
-      <c r="CB26" s="42"/>
-      <c r="CC26" s="41"/>
-      <c r="CD26" s="128"/>
-      <c r="CE26" s="236"/>
-      <c r="CF26" s="236"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="220"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="195"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="195"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="195"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="195"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="220"/>
+      <c r="Y26" s="195"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="195"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="195"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="195"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="118"/>
+      <c r="AI26" s="207"/>
+      <c r="AJ26" s="207"/>
+      <c r="AK26" s="207"/>
+      <c r="AL26" s="207"/>
+      <c r="AM26" s="207"/>
+      <c r="AN26" s="207"/>
+      <c r="AO26" s="207"/>
+      <c r="AP26" s="207"/>
+      <c r="AQ26" s="207"/>
+      <c r="AR26" s="207"/>
+      <c r="AS26" s="207"/>
+      <c r="AT26" s="207"/>
+      <c r="AU26" s="207"/>
+      <c r="AV26" s="207"/>
+      <c r="AW26" s="207"/>
+      <c r="AX26" s="207"/>
+      <c r="AY26" s="207"/>
+      <c r="AZ26" s="207"/>
+      <c r="BA26" s="207"/>
+      <c r="BB26" s="207"/>
+      <c r="BC26" s="207"/>
+      <c r="BD26" s="207"/>
+      <c r="BE26" s="207"/>
+      <c r="BF26" s="207"/>
+      <c r="BG26" s="207"/>
+      <c r="BH26" s="207"/>
+      <c r="BI26" s="207"/>
+      <c r="BJ26" s="207"/>
+      <c r="BK26" s="207"/>
+      <c r="BL26" s="207"/>
+      <c r="BM26" s="207"/>
+      <c r="BN26" s="207"/>
+      <c r="BO26" s="207"/>
+      <c r="BP26" s="116"/>
+      <c r="BQ26" s="100"/>
+      <c r="BR26" s="101"/>
+      <c r="BS26" s="118"/>
+      <c r="BT26" s="33"/>
+      <c r="BU26" s="115"/>
+      <c r="BV26" s="116"/>
+      <c r="BW26" s="118"/>
+      <c r="BX26" s="33"/>
+      <c r="BY26" s="115"/>
+      <c r="BZ26" s="116"/>
+      <c r="CA26" s="118"/>
+      <c r="CB26" s="33"/>
+      <c r="CC26" s="115"/>
+      <c r="CD26" s="116"/>
+      <c r="CE26" s="114"/>
+      <c r="CF26" s="114"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="254"/>
-      <c r="G27" s="59" t="s">
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="132" t="s">
+      <c r="H27" s="209"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="153"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="153"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
-      <c r="AG27" s="153"/>
-      <c r="AH27" s="153"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="153"/>
-      <c r="AK27" s="153"/>
-      <c r="AL27" s="153"/>
-      <c r="AM27" s="153"/>
-      <c r="AN27" s="153"/>
-      <c r="AO27" s="153"/>
-      <c r="AP27" s="153"/>
-      <c r="AQ27" s="153"/>
-      <c r="AR27" s="153"/>
-      <c r="AS27" s="153"/>
-      <c r="AT27" s="153"/>
-      <c r="AU27" s="153"/>
-      <c r="AV27" s="153"/>
-      <c r="AW27" s="153"/>
-      <c r="AX27" s="153"/>
-      <c r="AY27" s="153"/>
-      <c r="AZ27" s="153"/>
-      <c r="BA27" s="153"/>
-      <c r="BB27" s="153"/>
-      <c r="BC27" s="153"/>
-      <c r="BD27" s="153"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="153"/>
-      <c r="BH27" s="153"/>
-      <c r="BI27" s="154"/>
-      <c r="BJ27" s="158" t="s">
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
+      <c r="N27" s="218"/>
+      <c r="O27" s="219"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="84"/>
+      <c r="AH27" s="84"/>
+      <c r="AI27" s="84"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="84"/>
+      <c r="AL27" s="84"/>
+      <c r="AM27" s="84"/>
+      <c r="AN27" s="84"/>
+      <c r="AO27" s="84"/>
+      <c r="AP27" s="84"/>
+      <c r="AQ27" s="84"/>
+      <c r="AR27" s="84"/>
+      <c r="AS27" s="84"/>
+      <c r="AT27" s="84"/>
+      <c r="AU27" s="84"/>
+      <c r="AV27" s="84"/>
+      <c r="AW27" s="84"/>
+      <c r="AX27" s="84"/>
+      <c r="AY27" s="84"/>
+      <c r="AZ27" s="84"/>
+      <c r="BA27" s="84"/>
+      <c r="BB27" s="84"/>
+      <c r="BC27" s="84"/>
+      <c r="BD27" s="84"/>
+      <c r="BE27" s="84"/>
+      <c r="BF27" s="84"/>
+      <c r="BG27" s="84"/>
+      <c r="BH27" s="84"/>
+      <c r="BI27" s="222"/>
+      <c r="BJ27" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="BK27" s="159"/>
-      <c r="BL27" s="160"/>
-      <c r="BM27" s="164" t="s">
+      <c r="BK27" s="225"/>
+      <c r="BL27" s="226"/>
+      <c r="BM27" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="BN27" s="164"/>
-      <c r="BO27" s="164"/>
-      <c r="BP27" s="164"/>
-      <c r="BQ27" s="164"/>
-      <c r="BR27" s="164"/>
-      <c r="BS27" s="164"/>
-      <c r="BT27" s="164"/>
-      <c r="BU27" s="164"/>
-      <c r="BV27" s="164"/>
-      <c r="BW27" s="164"/>
-      <c r="BX27" s="164"/>
-      <c r="BY27" s="164"/>
-      <c r="BZ27" s="164"/>
-      <c r="CA27" s="164"/>
-      <c r="CB27" s="164"/>
-      <c r="CC27" s="164"/>
-      <c r="CD27" s="164"/>
-      <c r="CE27" s="164"/>
-      <c r="CF27" s="165"/>
+      <c r="BN27" s="230"/>
+      <c r="BO27" s="230"/>
+      <c r="BP27" s="230"/>
+      <c r="BQ27" s="230"/>
+      <c r="BR27" s="230"/>
+      <c r="BS27" s="230"/>
+      <c r="BT27" s="230"/>
+      <c r="BU27" s="230"/>
+      <c r="BV27" s="230"/>
+      <c r="BW27" s="230"/>
+      <c r="BX27" s="230"/>
+      <c r="BY27" s="230"/>
+      <c r="BZ27" s="230"/>
+      <c r="CA27" s="230"/>
+      <c r="CB27" s="230"/>
+      <c r="CC27" s="230"/>
+      <c r="CD27" s="230"/>
+      <c r="CE27" s="230"/>
+      <c r="CF27" s="231"/>
     </row>
     <row r="28" spans="3:102" ht="22.5" customHeight="1">
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="255"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="129" t="s">
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="156"/>
-      <c r="AH28" s="156"/>
-      <c r="AI28" s="156"/>
-      <c r="AJ28" s="156"/>
-      <c r="AK28" s="156"/>
-      <c r="AL28" s="156"/>
-      <c r="AM28" s="156"/>
-      <c r="AN28" s="156"/>
-      <c r="AO28" s="156"/>
-      <c r="AP28" s="156"/>
-      <c r="AQ28" s="156"/>
-      <c r="AR28" s="156"/>
-      <c r="AS28" s="156"/>
-      <c r="AT28" s="156"/>
-      <c r="AU28" s="156"/>
-      <c r="AV28" s="156"/>
-      <c r="AW28" s="156"/>
-      <c r="AX28" s="156"/>
-      <c r="AY28" s="156"/>
-      <c r="AZ28" s="156"/>
-      <c r="BA28" s="156"/>
-      <c r="BB28" s="156"/>
-      <c r="BC28" s="156"/>
-      <c r="BD28" s="156"/>
-      <c r="BE28" s="156"/>
-      <c r="BF28" s="156"/>
-      <c r="BG28" s="156"/>
-      <c r="BH28" s="156"/>
-      <c r="BI28" s="157"/>
-      <c r="BJ28" s="161"/>
-      <c r="BK28" s="162"/>
-      <c r="BL28" s="163"/>
-      <c r="BM28" s="166"/>
-      <c r="BN28" s="166"/>
-      <c r="BO28" s="166"/>
-      <c r="BP28" s="166"/>
-      <c r="BQ28" s="166"/>
-      <c r="BR28" s="166"/>
-      <c r="BS28" s="166"/>
-      <c r="BT28" s="166"/>
-      <c r="BU28" s="166"/>
-      <c r="BV28" s="166"/>
-      <c r="BW28" s="166"/>
-      <c r="BX28" s="166"/>
-      <c r="BY28" s="166"/>
-      <c r="BZ28" s="166"/>
-      <c r="CA28" s="166"/>
-      <c r="CB28" s="166"/>
-      <c r="CC28" s="166"/>
-      <c r="CD28" s="166"/>
-      <c r="CE28" s="166"/>
-      <c r="CF28" s="167"/>
+      <c r="K28" s="215"/>
+      <c r="L28" s="215"/>
+      <c r="M28" s="215"/>
+      <c r="N28" s="215"/>
+      <c r="O28" s="216"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="34"/>
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="34"/>
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="34"/>
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="34"/>
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="34"/>
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="223"/>
+      <c r="BJ28" s="227"/>
+      <c r="BK28" s="228"/>
+      <c r="BL28" s="229"/>
+      <c r="BM28" s="232"/>
+      <c r="BN28" s="232"/>
+      <c r="BO28" s="232"/>
+      <c r="BP28" s="232"/>
+      <c r="BQ28" s="232"/>
+      <c r="BR28" s="232"/>
+      <c r="BS28" s="232"/>
+      <c r="BT28" s="232"/>
+      <c r="BU28" s="232"/>
+      <c r="BV28" s="232"/>
+      <c r="BW28" s="232"/>
+      <c r="BX28" s="232"/>
+      <c r="BY28" s="232"/>
+      <c r="BZ28" s="232"/>
+      <c r="CA28" s="232"/>
+      <c r="CB28" s="232"/>
+      <c r="CC28" s="232"/>
+      <c r="CD28" s="232"/>
+      <c r="CE28" s="232"/>
+      <c r="CF28" s="233"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="12"/>
@@ -10263,404 +10783,404 @@
       <c r="CF30" s="5"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="104"/>
-      <c r="AD31" s="106" t="s">
+      <c r="D31" s="244"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
+      <c r="J31" s="244"/>
+      <c r="K31" s="244"/>
+      <c r="L31" s="244"/>
+      <c r="M31" s="244"/>
+      <c r="N31" s="244"/>
+      <c r="O31" s="244"/>
+      <c r="P31" s="244"/>
+      <c r="Q31" s="244"/>
+      <c r="R31" s="244"/>
+      <c r="S31" s="244"/>
+      <c r="T31" s="244"/>
+      <c r="U31" s="244"/>
+      <c r="V31" s="244"/>
+      <c r="W31" s="244"/>
+      <c r="X31" s="244"/>
+      <c r="Y31" s="244"/>
+      <c r="Z31" s="244"/>
+      <c r="AA31" s="244"/>
+      <c r="AB31" s="245"/>
+      <c r="AD31" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="AE31" s="107"/>
-      <c r="AF31" s="107"/>
-      <c r="AG31" s="107"/>
-      <c r="AH31" s="107"/>
-      <c r="AI31" s="107"/>
-      <c r="AJ31" s="107"/>
-      <c r="AK31" s="107"/>
-      <c r="AL31" s="107"/>
-      <c r="AM31" s="107"/>
-      <c r="AN31" s="107"/>
-      <c r="AO31" s="107"/>
-      <c r="AP31" s="107"/>
-      <c r="AQ31" s="107"/>
-      <c r="AR31" s="107"/>
-      <c r="AS31" s="107"/>
-      <c r="AT31" s="107"/>
-      <c r="AU31" s="107"/>
-      <c r="AV31" s="107"/>
-      <c r="AW31" s="107"/>
-      <c r="AX31" s="107"/>
-      <c r="AY31" s="107"/>
-      <c r="AZ31" s="107"/>
-      <c r="BA31" s="107"/>
-      <c r="BB31" s="107"/>
-      <c r="BC31" s="108"/>
-      <c r="BE31" s="100" t="s">
+      <c r="AE31" s="248"/>
+      <c r="AF31" s="248"/>
+      <c r="AG31" s="248"/>
+      <c r="AH31" s="248"/>
+      <c r="AI31" s="248"/>
+      <c r="AJ31" s="248"/>
+      <c r="AK31" s="248"/>
+      <c r="AL31" s="248"/>
+      <c r="AM31" s="248"/>
+      <c r="AN31" s="248"/>
+      <c r="AO31" s="248"/>
+      <c r="AP31" s="248"/>
+      <c r="AQ31" s="248"/>
+      <c r="AR31" s="248"/>
+      <c r="AS31" s="248"/>
+      <c r="AT31" s="248"/>
+      <c r="AU31" s="248"/>
+      <c r="AV31" s="248"/>
+      <c r="AW31" s="248"/>
+      <c r="AX31" s="248"/>
+      <c r="AY31" s="248"/>
+      <c r="AZ31" s="248"/>
+      <c r="BA31" s="248"/>
+      <c r="BB31" s="248"/>
+      <c r="BC31" s="249"/>
+      <c r="BE31" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="BF31" s="101"/>
-      <c r="BG31" s="101"/>
-      <c r="BH31" s="101"/>
-      <c r="BI31" s="101"/>
-      <c r="BJ31" s="101"/>
-      <c r="BK31" s="101"/>
-      <c r="BL31" s="101"/>
-      <c r="BM31" s="101"/>
-      <c r="BN31" s="101"/>
-      <c r="BO31" s="101"/>
-      <c r="BP31" s="101"/>
-      <c r="BQ31" s="101"/>
-      <c r="BR31" s="101"/>
-      <c r="BS31" s="101"/>
-      <c r="BT31" s="101"/>
-      <c r="BU31" s="101"/>
-      <c r="BV31" s="101"/>
-      <c r="BW31" s="101"/>
-      <c r="BX31" s="101"/>
-      <c r="BY31" s="101"/>
-      <c r="BZ31" s="101"/>
-      <c r="CA31" s="101"/>
-      <c r="CB31" s="101"/>
-      <c r="CC31" s="101"/>
-      <c r="CD31" s="101"/>
-      <c r="CE31" s="101"/>
-      <c r="CF31" s="101"/>
+      <c r="BF31" s="242"/>
+      <c r="BG31" s="242"/>
+      <c r="BH31" s="242"/>
+      <c r="BI31" s="242"/>
+      <c r="BJ31" s="242"/>
+      <c r="BK31" s="242"/>
+      <c r="BL31" s="242"/>
+      <c r="BM31" s="242"/>
+      <c r="BN31" s="242"/>
+      <c r="BO31" s="242"/>
+      <c r="BP31" s="242"/>
+      <c r="BQ31" s="242"/>
+      <c r="BR31" s="242"/>
+      <c r="BS31" s="242"/>
+      <c r="BT31" s="242"/>
+      <c r="BU31" s="242"/>
+      <c r="BV31" s="242"/>
+      <c r="BW31" s="242"/>
+      <c r="BX31" s="242"/>
+      <c r="BY31" s="242"/>
+      <c r="BZ31" s="242"/>
+      <c r="CA31" s="242"/>
+      <c r="CB31" s="242"/>
+      <c r="CC31" s="242"/>
+      <c r="CD31" s="242"/>
+      <c r="CE31" s="242"/>
+      <c r="CF31" s="242"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="11"/>
       <c r="D32" s="2"/>
-      <c r="L32" s="121" t="s">
+      <c r="L32" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="122"/>
+      <c r="M32" s="260"/>
+      <c r="N32" s="260"/>
+      <c r="O32" s="260"/>
+      <c r="P32" s="260"/>
+      <c r="Q32" s="260"/>
+      <c r="R32" s="260"/>
+      <c r="S32" s="260"/>
+      <c r="T32" s="260"/>
+      <c r="U32" s="260"/>
+      <c r="V32" s="260"/>
+      <c r="W32" s="260"/>
+      <c r="X32" s="260"/>
+      <c r="Y32" s="260"/>
+      <c r="Z32" s="260"/>
+      <c r="AA32" s="260"/>
+      <c r="AB32" s="261"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="105" t="s">
+      <c r="AR32" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="AS32" s="105"/>
-      <c r="AT32" s="105"/>
-      <c r="AU32" s="105"/>
-      <c r="AV32" s="105"/>
-      <c r="AW32" s="105"/>
-      <c r="AX32" s="105"/>
-      <c r="AY32" s="105"/>
-      <c r="AZ32" s="105"/>
-      <c r="BA32" s="105"/>
-      <c r="BB32" s="105"/>
-      <c r="BC32" s="120"/>
-      <c r="BE32" s="97" t="s">
+      <c r="AS32" s="246"/>
+      <c r="AT32" s="246"/>
+      <c r="AU32" s="246"/>
+      <c r="AV32" s="246"/>
+      <c r="AW32" s="246"/>
+      <c r="AX32" s="246"/>
+      <c r="AY32" s="246"/>
+      <c r="AZ32" s="246"/>
+      <c r="BA32" s="246"/>
+      <c r="BB32" s="246"/>
+      <c r="BC32" s="259"/>
+      <c r="BE32" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="BF32" s="98"/>
-      <c r="BG32" s="98"/>
-      <c r="BH32" s="98"/>
-      <c r="BI32" s="98"/>
-      <c r="BJ32" s="98"/>
-      <c r="BK32" s="98"/>
-      <c r="BL32" s="98"/>
-      <c r="BM32" s="98"/>
-      <c r="BN32" s="98"/>
-      <c r="BO32" s="98"/>
-      <c r="BP32" s="98"/>
-      <c r="BQ32" s="98"/>
-      <c r="BR32" s="98"/>
-      <c r="BS32" s="98"/>
-      <c r="BT32" s="98"/>
-      <c r="BU32" s="98"/>
-      <c r="BV32" s="98"/>
-      <c r="BW32" s="98"/>
-      <c r="BX32" s="98"/>
-      <c r="BY32" s="98"/>
-      <c r="BZ32" s="98"/>
-      <c r="CA32" s="98"/>
-      <c r="CB32" s="98"/>
-      <c r="CC32" s="98"/>
-      <c r="CD32" s="98"/>
-      <c r="CE32" s="98"/>
-      <c r="CF32" s="99"/>
+      <c r="BF32" s="239"/>
+      <c r="BG32" s="239"/>
+      <c r="BH32" s="239"/>
+      <c r="BI32" s="239"/>
+      <c r="BJ32" s="239"/>
+      <c r="BK32" s="239"/>
+      <c r="BL32" s="239"/>
+      <c r="BM32" s="239"/>
+      <c r="BN32" s="239"/>
+      <c r="BO32" s="239"/>
+      <c r="BP32" s="239"/>
+      <c r="BQ32" s="239"/>
+      <c r="BR32" s="239"/>
+      <c r="BS32" s="239"/>
+      <c r="BT32" s="239"/>
+      <c r="BU32" s="239"/>
+      <c r="BV32" s="239"/>
+      <c r="BW32" s="239"/>
+      <c r="BX32" s="239"/>
+      <c r="BY32" s="239"/>
+      <c r="BZ32" s="239"/>
+      <c r="CA32" s="239"/>
+      <c r="CB32" s="239"/>
+      <c r="CC32" s="239"/>
+      <c r="CD32" s="239"/>
+      <c r="CE32" s="239"/>
+      <c r="CF32" s="240"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="110"/>
+      <c r="D33" s="250"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
-      <c r="AB33" s="114"/>
-      <c r="AD33" s="109" t="s">
+      <c r="L33" s="252"/>
+      <c r="M33" s="252"/>
+      <c r="N33" s="252"/>
+      <c r="O33" s="252"/>
+      <c r="P33" s="252"/>
+      <c r="Q33" s="252"/>
+      <c r="R33" s="252"/>
+      <c r="S33" s="252"/>
+      <c r="T33" s="252"/>
+      <c r="U33" s="252"/>
+      <c r="V33" s="252"/>
+      <c r="W33" s="252"/>
+      <c r="X33" s="252"/>
+      <c r="Y33" s="252"/>
+      <c r="Z33" s="252"/>
+      <c r="AA33" s="252"/>
+      <c r="AB33" s="253"/>
+      <c r="AD33" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="AE33" s="110"/>
+      <c r="AE33" s="250"/>
       <c r="AF33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AJ33" s="113"/>
-      <c r="AK33" s="113"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="113"/>
-      <c r="AN33" s="113"/>
-      <c r="AO33" s="113"/>
-      <c r="AP33" s="113"/>
-      <c r="AQ33" s="113"/>
-      <c r="AR33" s="113"/>
-      <c r="AS33" s="113"/>
-      <c r="AT33" s="113"/>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="113"/>
-      <c r="AX33" s="113"/>
-      <c r="AY33" s="113"/>
-      <c r="AZ33" s="113"/>
-      <c r="BA33" s="113"/>
-      <c r="BB33" s="113"/>
-      <c r="BC33" s="114"/>
-      <c r="BE33" s="116" t="s">
+      <c r="AJ33" s="252"/>
+      <c r="AK33" s="252"/>
+      <c r="AL33" s="252"/>
+      <c r="AM33" s="252"/>
+      <c r="AN33" s="252"/>
+      <c r="AO33" s="252"/>
+      <c r="AP33" s="252"/>
+      <c r="AQ33" s="252"/>
+      <c r="AR33" s="252"/>
+      <c r="AS33" s="252"/>
+      <c r="AT33" s="252"/>
+      <c r="AU33" s="252"/>
+      <c r="AV33" s="252"/>
+      <c r="AW33" s="252"/>
+      <c r="AX33" s="252"/>
+      <c r="AY33" s="252"/>
+      <c r="AZ33" s="252"/>
+      <c r="BA33" s="252"/>
+      <c r="BB33" s="252"/>
+      <c r="BC33" s="253"/>
+      <c r="BE33" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="BF33" s="117"/>
-      <c r="BG33" s="96" t="s">
+      <c r="BF33" s="256"/>
+      <c r="BG33" s="237" t="s">
         <v>65</v>
       </c>
-      <c r="BH33" s="96"/>
-      <c r="BI33" s="96"/>
-      <c r="BJ33" s="96"/>
-      <c r="BK33" s="96"/>
-      <c r="BL33" s="96"/>
-      <c r="BM33" s="96"/>
-      <c r="BN33" s="96"/>
-      <c r="BO33" s="96"/>
-      <c r="BP33" s="96"/>
-      <c r="BQ33" s="96"/>
-      <c r="BT33" s="105" t="s">
+      <c r="BH33" s="237"/>
+      <c r="BI33" s="237"/>
+      <c r="BJ33" s="237"/>
+      <c r="BK33" s="237"/>
+      <c r="BL33" s="237"/>
+      <c r="BM33" s="237"/>
+      <c r="BN33" s="237"/>
+      <c r="BO33" s="237"/>
+      <c r="BP33" s="237"/>
+      <c r="BQ33" s="237"/>
+      <c r="BT33" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="BU33" s="105"/>
-      <c r="BV33" s="105"/>
-      <c r="BW33" s="105"/>
-      <c r="BX33" s="105"/>
-      <c r="BY33" s="105"/>
-      <c r="BZ33" s="105"/>
-      <c r="CA33" s="105"/>
-      <c r="CB33" s="105"/>
-      <c r="CC33" s="105"/>
-      <c r="CD33" s="105"/>
-      <c r="CE33" s="105"/>
+      <c r="BU33" s="246"/>
+      <c r="BV33" s="246"/>
+      <c r="BW33" s="246"/>
+      <c r="BX33" s="246"/>
+      <c r="BY33" s="246"/>
+      <c r="BZ33" s="246"/>
+      <c r="CA33" s="246"/>
+      <c r="CB33" s="246"/>
+      <c r="CC33" s="246"/>
+      <c r="CD33" s="246"/>
+      <c r="CE33" s="246"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="109"/>
-      <c r="D34" s="110"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="250"/>
       <c r="E34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="113"/>
-      <c r="AB34" s="114"/>
-      <c r="AD34" s="109"/>
-      <c r="AE34" s="110"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="252"/>
+      <c r="N34" s="252"/>
+      <c r="O34" s="252"/>
+      <c r="P34" s="252"/>
+      <c r="Q34" s="252"/>
+      <c r="R34" s="252"/>
+      <c r="S34" s="252"/>
+      <c r="T34" s="252"/>
+      <c r="U34" s="252"/>
+      <c r="V34" s="252"/>
+      <c r="W34" s="252"/>
+      <c r="X34" s="252"/>
+      <c r="Y34" s="252"/>
+      <c r="Z34" s="252"/>
+      <c r="AA34" s="252"/>
+      <c r="AB34" s="253"/>
+      <c r="AD34" s="138"/>
+      <c r="AE34" s="250"/>
       <c r="AF34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AJ34" s="113"/>
-      <c r="AK34" s="113"/>
-      <c r="AL34" s="113"/>
-      <c r="AM34" s="113"/>
-      <c r="AN34" s="113"/>
-      <c r="AO34" s="113"/>
-      <c r="AP34" s="113"/>
-      <c r="AQ34" s="113"/>
-      <c r="AR34" s="113"/>
-      <c r="AS34" s="113"/>
-      <c r="AT34" s="113"/>
-      <c r="AU34" s="113"/>
-      <c r="AV34" s="113"/>
-      <c r="AW34" s="113"/>
-      <c r="AX34" s="113"/>
-      <c r="AY34" s="113"/>
-      <c r="AZ34" s="113"/>
-      <c r="BA34" s="113"/>
-      <c r="BB34" s="113"/>
-      <c r="BC34" s="114"/>
-      <c r="BE34" s="116"/>
-      <c r="BF34" s="117"/>
+      <c r="AJ34" s="252"/>
+      <c r="AK34" s="252"/>
+      <c r="AL34" s="252"/>
+      <c r="AM34" s="252"/>
+      <c r="AN34" s="252"/>
+      <c r="AO34" s="252"/>
+      <c r="AP34" s="252"/>
+      <c r="AQ34" s="252"/>
+      <c r="AR34" s="252"/>
+      <c r="AS34" s="252"/>
+      <c r="AT34" s="252"/>
+      <c r="AU34" s="252"/>
+      <c r="AV34" s="252"/>
+      <c r="AW34" s="252"/>
+      <c r="AX34" s="252"/>
+      <c r="AY34" s="252"/>
+      <c r="AZ34" s="252"/>
+      <c r="BA34" s="252"/>
+      <c r="BB34" s="252"/>
+      <c r="BC34" s="253"/>
+      <c r="BE34" s="255"/>
+      <c r="BF34" s="256"/>
       <c r="BG34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BL34" s="93"/>
-      <c r="BM34" s="93"/>
-      <c r="BN34" s="93"/>
-      <c r="BO34" s="93"/>
-      <c r="BP34" s="93"/>
-      <c r="BQ34" s="93"/>
-      <c r="BR34" s="93"/>
-      <c r="BS34" s="93"/>
-      <c r="BT34" s="93"/>
-      <c r="BU34" s="93"/>
-      <c r="BV34" s="93"/>
-      <c r="BW34" s="93"/>
-      <c r="BX34" s="93"/>
-      <c r="BY34" s="93"/>
-      <c r="BZ34" s="93"/>
-      <c r="CA34" s="93"/>
-      <c r="CB34" s="93"/>
-      <c r="CC34" s="93"/>
-      <c r="CD34" s="93"/>
+      <c r="BL34" s="165"/>
+      <c r="BM34" s="165"/>
+      <c r="BN34" s="165"/>
+      <c r="BO34" s="165"/>
+      <c r="BP34" s="165"/>
+      <c r="BQ34" s="165"/>
+      <c r="BR34" s="165"/>
+      <c r="BS34" s="165"/>
+      <c r="BT34" s="165"/>
+      <c r="BU34" s="165"/>
+      <c r="BV34" s="165"/>
+      <c r="BW34" s="165"/>
+      <c r="BX34" s="165"/>
+      <c r="BY34" s="165"/>
+      <c r="BZ34" s="165"/>
+      <c r="CA34" s="165"/>
+      <c r="CB34" s="165"/>
+      <c r="CC34" s="165"/>
+      <c r="CD34" s="165"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="109"/>
-      <c r="D35" s="110"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="250"/>
       <c r="E35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="113"/>
-      <c r="X35" s="113"/>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="113"/>
+      <c r="L35" s="252"/>
+      <c r="M35" s="252"/>
+      <c r="N35" s="252"/>
+      <c r="O35" s="252"/>
+      <c r="P35" s="252"/>
+      <c r="Q35" s="252"/>
+      <c r="R35" s="252"/>
+      <c r="S35" s="252"/>
+      <c r="T35" s="252"/>
+      <c r="U35" s="252"/>
+      <c r="V35" s="252"/>
+      <c r="W35" s="252"/>
+      <c r="X35" s="252"/>
+      <c r="Y35" s="252"/>
+      <c r="Z35" s="252"/>
       <c r="AA35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="AB35" s="9"/>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="110"/>
+      <c r="AD35" s="138"/>
+      <c r="AE35" s="250"/>
       <c r="AF35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AJ35" s="113"/>
-      <c r="AK35" s="113"/>
-      <c r="AL35" s="113"/>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="113"/>
-      <c r="AO35" s="113"/>
-      <c r="AP35" s="113"/>
-      <c r="AQ35" s="113"/>
-      <c r="AR35" s="113"/>
-      <c r="AS35" s="113"/>
-      <c r="AT35" s="113"/>
-      <c r="AU35" s="113"/>
-      <c r="AV35" s="113"/>
-      <c r="AW35" s="113"/>
-      <c r="AX35" s="113"/>
-      <c r="AY35" s="113"/>
-      <c r="AZ35" s="113"/>
-      <c r="BA35" s="113"/>
+      <c r="AJ35" s="252"/>
+      <c r="AK35" s="252"/>
+      <c r="AL35" s="252"/>
+      <c r="AM35" s="252"/>
+      <c r="AN35" s="252"/>
+      <c r="AO35" s="252"/>
+      <c r="AP35" s="252"/>
+      <c r="AQ35" s="252"/>
+      <c r="AR35" s="252"/>
+      <c r="AS35" s="252"/>
+      <c r="AT35" s="252"/>
+      <c r="AU35" s="252"/>
+      <c r="AV35" s="252"/>
+      <c r="AW35" s="252"/>
+      <c r="AX35" s="252"/>
+      <c r="AY35" s="252"/>
+      <c r="AZ35" s="252"/>
+      <c r="BA35" s="252"/>
       <c r="BB35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="BC35" s="9"/>
-      <c r="BE35" s="116"/>
-      <c r="BF35" s="117"/>
+      <c r="BE35" s="255"/>
+      <c r="BF35" s="256"/>
       <c r="BG35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BL35" s="93"/>
-      <c r="BM35" s="93"/>
-      <c r="BN35" s="93"/>
-      <c r="BO35" s="93"/>
-      <c r="BP35" s="93"/>
-      <c r="BQ35" s="93"/>
-      <c r="BR35" s="93"/>
-      <c r="BS35" s="93"/>
-      <c r="BT35" s="93"/>
-      <c r="BU35" s="93"/>
-      <c r="BV35" s="93"/>
-      <c r="BW35" s="93"/>
-      <c r="BX35" s="93"/>
-      <c r="BY35" s="93"/>
-      <c r="BZ35" s="93"/>
-      <c r="CA35" s="93"/>
-      <c r="CB35" s="93"/>
+      <c r="BL35" s="165"/>
+      <c r="BM35" s="165"/>
+      <c r="BN35" s="165"/>
+      <c r="BO35" s="165"/>
+      <c r="BP35" s="165"/>
+      <c r="BQ35" s="165"/>
+      <c r="BR35" s="165"/>
+      <c r="BS35" s="165"/>
+      <c r="BT35" s="165"/>
+      <c r="BU35" s="165"/>
+      <c r="BV35" s="165"/>
+      <c r="BW35" s="165"/>
+      <c r="BX35" s="165"/>
+      <c r="BY35" s="165"/>
+      <c r="BZ35" s="165"/>
+      <c r="CA35" s="165"/>
+      <c r="CB35" s="165"/>
       <c r="CC35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="111"/>
-      <c r="D36" s="112"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="251"/>
       <c r="E36" s="7" t="s">
         <v>2</v>
       </c>
@@ -10670,53 +11190,53 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="93"/>
-      <c r="W36" s="93"/>
-      <c r="X36" s="93"/>
-      <c r="Y36" s="93"/>
-      <c r="Z36" s="93"/>
-      <c r="AA36" s="93"/>
-      <c r="AB36" s="115"/>
-      <c r="AD36" s="111"/>
-      <c r="AE36" s="112"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="165"/>
+      <c r="N36" s="165"/>
+      <c r="O36" s="165"/>
+      <c r="P36" s="165"/>
+      <c r="Q36" s="165"/>
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="165"/>
+      <c r="U36" s="165"/>
+      <c r="V36" s="165"/>
+      <c r="W36" s="165"/>
+      <c r="X36" s="165"/>
+      <c r="Y36" s="165"/>
+      <c r="Z36" s="165"/>
+      <c r="AA36" s="165"/>
+      <c r="AB36" s="254"/>
+      <c r="AD36" s="140"/>
+      <c r="AE36" s="251"/>
       <c r="AF36" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="93"/>
-      <c r="AK36" s="93"/>
-      <c r="AL36" s="93"/>
-      <c r="AM36" s="93"/>
-      <c r="AN36" s="93"/>
-      <c r="AO36" s="93"/>
-      <c r="AP36" s="93"/>
-      <c r="AQ36" s="93"/>
-      <c r="AR36" s="93"/>
-      <c r="AS36" s="93"/>
-      <c r="AT36" s="93"/>
-      <c r="AU36" s="93"/>
-      <c r="AV36" s="93"/>
-      <c r="AW36" s="93"/>
-      <c r="AX36" s="93"/>
-      <c r="AY36" s="93"/>
-      <c r="AZ36" s="93"/>
-      <c r="BA36" s="93"/>
-      <c r="BB36" s="93"/>
-      <c r="BC36" s="115"/>
-      <c r="BE36" s="118"/>
-      <c r="BF36" s="119"/>
+      <c r="AJ36" s="165"/>
+      <c r="AK36" s="165"/>
+      <c r="AL36" s="165"/>
+      <c r="AM36" s="165"/>
+      <c r="AN36" s="165"/>
+      <c r="AO36" s="165"/>
+      <c r="AP36" s="165"/>
+      <c r="AQ36" s="165"/>
+      <c r="AR36" s="165"/>
+      <c r="AS36" s="165"/>
+      <c r="AT36" s="165"/>
+      <c r="AU36" s="165"/>
+      <c r="AV36" s="165"/>
+      <c r="AW36" s="165"/>
+      <c r="AX36" s="165"/>
+      <c r="AY36" s="165"/>
+      <c r="AZ36" s="165"/>
+      <c r="BA36" s="165"/>
+      <c r="BB36" s="165"/>
+      <c r="BC36" s="254"/>
+      <c r="BE36" s="257"/>
+      <c r="BF36" s="258"/>
       <c r="BG36" s="6" t="s">
         <v>0</v>
       </c>
@@ -10724,27 +11244,27 @@
       <c r="BI36" s="5"/>
       <c r="BJ36" s="5"/>
       <c r="BK36" s="5"/>
-      <c r="BL36" s="94" t="s">
+      <c r="BL36" s="235" t="s">
         <v>67</v>
       </c>
-      <c r="BM36" s="95"/>
-      <c r="BN36" s="95"/>
-      <c r="BO36" s="95"/>
-      <c r="BP36" s="95"/>
-      <c r="BQ36" s="95"/>
-      <c r="BR36" s="95"/>
-      <c r="BS36" s="95"/>
-      <c r="BT36" s="95"/>
-      <c r="BU36" s="95"/>
-      <c r="BV36" s="95"/>
-      <c r="BW36" s="95"/>
-      <c r="BX36" s="95"/>
-      <c r="BY36" s="95"/>
-      <c r="BZ36" s="95"/>
-      <c r="CA36" s="95"/>
-      <c r="CB36" s="95"/>
-      <c r="CC36" s="95"/>
-      <c r="CD36" s="95"/>
+      <c r="BM36" s="236"/>
+      <c r="BN36" s="236"/>
+      <c r="BO36" s="236"/>
+      <c r="BP36" s="236"/>
+      <c r="BQ36" s="236"/>
+      <c r="BR36" s="236"/>
+      <c r="BS36" s="236"/>
+      <c r="BT36" s="236"/>
+      <c r="BU36" s="236"/>
+      <c r="BV36" s="236"/>
+      <c r="BW36" s="236"/>
+      <c r="BX36" s="236"/>
+      <c r="BY36" s="236"/>
+      <c r="BZ36" s="236"/>
+      <c r="CA36" s="236"/>
+      <c r="CB36" s="236"/>
+      <c r="CC36" s="236"/>
+      <c r="CD36" s="236"/>
       <c r="CE36" s="5"/>
       <c r="CF36" s="5"/>
       <c r="CG36" s="4"/>
@@ -10973,6 +11493,156 @@
     </row>
   </sheetData>
   <mergeCells count="174">
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="CV21:CX23"/>
+    <mergeCell ref="G20:AD20"/>
+    <mergeCell ref="AE20:AT20"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BI20:BQ20"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="T9:U11"/>
+    <mergeCell ref="AK9:CD9"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="G14:L15"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="J9:O11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="P12:CD13"/>
+    <mergeCell ref="BJ27:BL28"/>
+    <mergeCell ref="BM27:CF28"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="P27:BI28"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC14:AE15"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="AF14:AI15"/>
+    <mergeCell ref="AU20:AV22"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="AJ14:BO15"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AE21:AH22"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="BD7:BK7"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="AV6:BK6"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AG10:CD11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="X6:AU6"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BF8:BK8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="AW21:AY22"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="AH25:BP26"/>
     <mergeCell ref="BP2:BT2"/>
     <mergeCell ref="AD7:AE8"/>
     <mergeCell ref="AF7:AG8"/>
@@ -10997,156 +11667,6 @@
     <mergeCell ref="BT7:BU8"/>
     <mergeCell ref="AL7:AM8"/>
     <mergeCell ref="V24:W26"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="AW21:AY22"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="BF8:BK8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="AV6:BK6"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AG10:CD11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="AF14:AI15"/>
-    <mergeCell ref="AU20:AV22"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="AJ14:BO15"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AE21:AH22"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="BD7:BK7"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="AH25:BP26"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="P27:BI28"/>
-    <mergeCell ref="BJ27:BL28"/>
-    <mergeCell ref="BM27:CF28"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="CV21:CX23"/>
-    <mergeCell ref="G20:AD20"/>
-    <mergeCell ref="AE20:AT20"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BI20:BQ20"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AK9:CD9"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="G14:L15"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="J9:O11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="P12:CD13"/>
-    <mergeCell ref="U14:V15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -1,106 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NSS\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\20190111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D5BAE-1163-4D34-86FB-FC571BD644FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6254C165-ABD6-4E53-9ECE-5A2DBD780014}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="被保険者住所変更届（二枚目）" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A1_1_1">'被保険者住所変更届（二枚目）'!$X$7</definedName>
-    <definedName name="A1_1_10">'被保険者住所変更届（二枚目）'!$AP$7</definedName>
-    <definedName name="A1_1_11">'被保険者住所変更届（二枚目）'!$AR$7</definedName>
-    <definedName name="A1_1_12">'被保険者住所変更届（二枚目）'!$AT$7</definedName>
-    <definedName name="A1_1_2">'被保険者住所変更届（二枚目）'!$Z$7</definedName>
-    <definedName name="A1_1_3">'被保険者住所変更届（二枚目）'!$AB$7</definedName>
-    <definedName name="A1_1_4">'被保険者住所変更届（二枚目）'!$AD$7</definedName>
-    <definedName name="A1_1_5">'被保険者住所変更届（二枚目）'!$AF$7</definedName>
-    <definedName name="A1_1_6">'被保険者住所変更届（二枚目）'!$AH$7</definedName>
-    <definedName name="A1_1_7">'被保険者住所変更届（二枚目）'!$AJ$7</definedName>
-    <definedName name="A1_1_8">'被保険者住所変更届（二枚目）'!$AL$7</definedName>
-    <definedName name="A1_1_9">'被保険者住所変更届（二枚目）'!$AN$7</definedName>
-    <definedName name="A1_10_1">'被保険者住所変更届（二枚目）'!$Q$14</definedName>
-    <definedName name="A1_10_2">'被保険者住所変更届（二枚目）'!$S$14</definedName>
-    <definedName name="A1_10_3">'被保険者住所変更届（二枚目）'!$U$14</definedName>
-    <definedName name="A1_10_4">'被保険者住所変更届（二枚目）'!$W$14</definedName>
-    <definedName name="A1_10_5">'被保険者住所変更届（二枚目）'!$Y$14</definedName>
-    <definedName name="A1_10_6">'被保険者住所変更届（二枚目）'!$AA$14</definedName>
+    <definedName name="A1_1_1">被保険者住所変更届（二枚目）!$X$7</definedName>
+    <definedName name="A1_1_10">被保険者住所変更届（二枚目）!$AP$7</definedName>
+    <definedName name="A1_1_11">被保険者住所変更届（二枚目）!$AR$7</definedName>
+    <definedName name="A1_1_12">被保険者住所変更届（二枚目）!$AT$7</definedName>
+    <definedName name="A1_1_2">被保険者住所変更届（二枚目）!$Z$7</definedName>
+    <definedName name="A1_1_3">被保険者住所変更届（二枚目）!$AB$7</definedName>
+    <definedName name="A1_1_4">被保険者住所変更届（二枚目）!$AD$7</definedName>
+    <definedName name="A1_1_5">被保険者住所変更届（二枚目）!$AF$7</definedName>
+    <definedName name="A1_1_6">被保険者住所変更届（二枚目）!$AH$7</definedName>
+    <definedName name="A1_1_7">被保険者住所変更届（二枚目）!$AJ$7</definedName>
+    <definedName name="A1_1_8">被保険者住所変更届（二枚目）!$AL$7</definedName>
+    <definedName name="A1_1_9">被保険者住所変更届（二枚目）!$AN$7</definedName>
+    <definedName name="A1_10_1">被保険者住所変更届（二枚目）!$Q$14</definedName>
+    <definedName name="A1_10_2">被保険者住所変更届（二枚目）!$S$14</definedName>
+    <definedName name="A1_10_3">被保険者住所変更届（二枚目）!$U$14</definedName>
+    <definedName name="A1_10_4">被保険者住所変更届（二枚目）!$W$14</definedName>
+    <definedName name="A1_10_5">被保険者住所変更届（二枚目）!$Y$14</definedName>
+    <definedName name="A1_10_6">被保険者住所変更届（二枚目）!$AA$14</definedName>
     <definedName name="A1_11">"Check Box 1"</definedName>
-    <definedName name="A1_2">'被保険者住所変更届（二枚目）'!$AX$7</definedName>
-    <definedName name="A1_3">'被保険者住所変更届（二枚目）'!$BD$7</definedName>
-    <definedName name="A1_4">'被保険者住所変更届（二枚目）'!$AX$8</definedName>
-    <definedName name="A1_5">'被保険者住所変更届（二枚目）'!$BF$8</definedName>
-    <definedName name="A1_54_1">'被保険者住所変更届（二枚目）'!$BP$7</definedName>
-    <definedName name="A1_54_2">'被保険者住所変更届（二枚目）'!$BR$7</definedName>
-    <definedName name="A1_54_3">'被保険者住所変更届（二枚目）'!$BT$7</definedName>
-    <definedName name="A1_54_4">'被保険者住所変更届（二枚目）'!$BV$7</definedName>
-    <definedName name="A1_54_5">'被保険者住所変更届（二枚目）'!$BX$7</definedName>
-    <definedName name="A1_54_6">'被保険者住所変更届（二枚目）'!$BZ$7</definedName>
-    <definedName name="A1_6_1">'被保険者住所変更届（二枚目）'!$P$9</definedName>
-    <definedName name="A1_6_2">'被保険者住所変更届（二枚目）'!$R$9</definedName>
-    <definedName name="A1_6_3">'被保険者住所変更届（二枚目）'!$T$9</definedName>
-    <definedName name="A1_6_4">'被保険者住所変更届（二枚目）'!$V$9</definedName>
-    <definedName name="A1_6_5">'被保険者住所変更届（二枚目）'!$X$9</definedName>
-    <definedName name="A1_6_6">'被保険者住所変更届（二枚目）'!$Z$9</definedName>
-    <definedName name="A1_6_7">'被保険者住所変更届（二枚目）'!$AB$9</definedName>
-    <definedName name="A1_7">'被保険者住所変更届（二枚目）'!$AK$9</definedName>
-    <definedName name="A1_8">'被保険者住所変更届（二枚目）'!$AG$10:$CD$11</definedName>
-    <definedName name="A1_9">'被保険者住所変更届（二枚目）'!$P$12</definedName>
-    <definedName name="A2_10_1">'被保険者住所変更届（二枚目）'!$J$24</definedName>
-    <definedName name="A2_10_2">'被保険者住所変更届（二枚目）'!$L$24</definedName>
-    <definedName name="A2_10_3">'被保険者住所変更届（二枚目）'!$N$24</definedName>
-    <definedName name="A2_10_4">'被保険者住所変更届（二枚目）'!$P$24</definedName>
-    <definedName name="A2_10_5">'被保険者住所変更届（二枚目）'!$R$24</definedName>
-    <definedName name="A2_10_6">'被保険者住所変更届（二枚目）'!$T$24</definedName>
-    <definedName name="A2_10_7">'被保険者住所変更届（二枚目）'!$V$24</definedName>
-    <definedName name="A2_11">'被保険者住所変更届（二枚目）'!$AL$24</definedName>
-    <definedName name="A2_12">'被保険者住所変更届（二枚目）'!$AH$25</definedName>
-    <definedName name="A2_13_1">'被保険者住所変更届（二枚目）'!$BS$24</definedName>
-    <definedName name="A2_13_2">'被保険者住所変更届（二枚目）'!$BU$24</definedName>
-    <definedName name="A2_13_3">'被保険者住所変更届（二枚目）'!$BW$24</definedName>
-    <definedName name="A2_13_4">'被保険者住所変更届（二枚目）'!$BY$24</definedName>
-    <definedName name="A2_13_5">'被保険者住所変更届（二枚目）'!$CA$24</definedName>
-    <definedName name="A2_13_6">'被保険者住所変更届（二枚目）'!$CC$24</definedName>
-    <definedName name="A2_14">'被保険者住所変更届（二枚目）'!$P$27</definedName>
-    <definedName name="A2_2_1">'被保険者住所変更届（二枚目）'!$G$21</definedName>
-    <definedName name="A2_2_10">'被保険者住所変更届（二枚目）'!$Y$21</definedName>
-    <definedName name="A2_2_11">'被保険者住所変更届（二枚目）'!$AA$21</definedName>
-    <definedName name="A2_2_12">'被保険者住所変更届（二枚目）'!$AC$21</definedName>
-    <definedName name="A2_2_2">'被保険者住所変更届（二枚目）'!$I$21</definedName>
-    <definedName name="A2_2_3">'被保険者住所変更届（二枚目）'!$K$21</definedName>
-    <definedName name="A2_2_4">'被保険者住所変更届（二枚目）'!$M$21</definedName>
-    <definedName name="A2_2_5">'被保険者住所変更届（二枚目）'!$O$21</definedName>
-    <definedName name="A2_2_6">'被保険者住所変更届（二枚目）'!$Q$21</definedName>
-    <definedName name="A2_2_7">'被保険者住所変更届（二枚目）'!$S$21</definedName>
-    <definedName name="A2_2_8">'被保険者住所変更届（二枚目）'!$U$21</definedName>
-    <definedName name="A2_2_9">'被保険者住所変更届（二枚目）'!$W$21</definedName>
-    <definedName name="A2_5_1">'被保険者住所変更届（二枚目）'!$AI$21</definedName>
-    <definedName name="A2_5_2">'被保険者住所変更届（二枚目）'!$AK$21</definedName>
-    <definedName name="A2_5_3">'被保険者住所変更届（二枚目）'!$AM$21</definedName>
-    <definedName name="A2_5_4">'被保険者住所変更届（二枚目）'!$AO$21</definedName>
-    <definedName name="A2_5_5">'被保険者住所変更届（二枚目）'!$AQ$21</definedName>
-    <definedName name="A2_5_6">'被保険者住所変更届（二枚目）'!$AS$21</definedName>
-    <definedName name="A2_6">'被保険者住所変更届（二枚目）'!$BC$20</definedName>
-    <definedName name="A2_7">'被保険者住所変更届（二枚目）'!$BI$20</definedName>
-    <definedName name="A2_8">'被保険者住所変更届（二枚目）'!$BB$21</definedName>
-    <definedName name="A2_9">'被保険者住所変更届（二枚目）'!$BK$21</definedName>
-    <definedName name="A3_1">'被保険者住所変更届（二枚目）'!$L$32</definedName>
-    <definedName name="A3_2">'被保険者住所変更届（二枚目）'!$L$33</definedName>
-    <definedName name="A3_3">'被保険者住所変更届（二枚目）'!$L$34</definedName>
-    <definedName name="A3_4">'被保険者住所変更届（二枚目）'!$L$35</definedName>
-    <definedName name="A3_5">'被保険者住所変更届（二枚目）'!$L$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'被保険者住所変更届（二枚目）'!$A$1:$CI$37</definedName>
+    <definedName name="A1_2">被保険者住所変更届（二枚目）!$AX$7</definedName>
+    <definedName name="A1_3">被保険者住所変更届（二枚目）!$BD$7</definedName>
+    <definedName name="A1_4">被保険者住所変更届（二枚目）!$AX$8</definedName>
+    <definedName name="A1_5">被保険者住所変更届（二枚目）!$BF$8</definedName>
+    <definedName name="A1_54_1">被保険者住所変更届（二枚目）!$BP$7</definedName>
+    <definedName name="A1_54_2">被保険者住所変更届（二枚目）!$BR$7</definedName>
+    <definedName name="A1_54_3">被保険者住所変更届（二枚目）!$BT$7</definedName>
+    <definedName name="A1_54_4">被保険者住所変更届（二枚目）!$BV$7</definedName>
+    <definedName name="A1_54_5">被保険者住所変更届（二枚目）!$BX$7</definedName>
+    <definedName name="A1_54_6">被保険者住所変更届（二枚目）!$BZ$7</definedName>
+    <definedName name="A1_6_1">被保険者住所変更届（二枚目）!$P$9</definedName>
+    <definedName name="A1_6_2">被保険者住所変更届（二枚目）!$R$9</definedName>
+    <definedName name="A1_6_3">被保険者住所変更届（二枚目）!$T$9</definedName>
+    <definedName name="A1_6_4">被保険者住所変更届（二枚目）!$V$9</definedName>
+    <definedName name="A1_6_5">被保険者住所変更届（二枚目）!$X$9</definedName>
+    <definedName name="A1_6_6">被保険者住所変更届（二枚目）!$Z$9</definedName>
+    <definedName name="A1_6_7">被保険者住所変更届（二枚目）!$AB$9</definedName>
+    <definedName name="A1_7">被保険者住所変更届（二枚目）!$AK$9</definedName>
+    <definedName name="A1_8">被保険者住所変更届（二枚目）!$AG$10:$CD$11</definedName>
+    <definedName name="A1_9">被保険者住所変更届（二枚目）!$P$12</definedName>
+    <definedName name="A2_10_1">被保険者住所変更届（二枚目）!$J$24</definedName>
+    <definedName name="A2_10_2">被保険者住所変更届（二枚目）!$L$24</definedName>
+    <definedName name="A2_10_3">被保険者住所変更届（二枚目）!$N$24</definedName>
+    <definedName name="A2_10_4">被保険者住所変更届（二枚目）!$P$24</definedName>
+    <definedName name="A2_10_5">被保険者住所変更届（二枚目）!$R$24</definedName>
+    <definedName name="A2_10_6">被保険者住所変更届（二枚目）!$T$24</definedName>
+    <definedName name="A2_10_7">被保険者住所変更届（二枚目）!$V$24</definedName>
+    <definedName name="A2_11">被保険者住所変更届（二枚目）!$AL$24</definedName>
+    <definedName name="A2_12">被保険者住所変更届（二枚目）!$AH$25</definedName>
+    <definedName name="A2_13_1">被保険者住所変更届（二枚目）!$BS$24</definedName>
+    <definedName name="A2_13_2">被保険者住所変更届（二枚目）!$BU$24</definedName>
+    <definedName name="A2_13_3">被保険者住所変更届（二枚目）!$BW$24</definedName>
+    <definedName name="A2_13_4">被保険者住所変更届（二枚目）!$BY$24</definedName>
+    <definedName name="A2_13_5">被保険者住所変更届（二枚目）!$CA$24</definedName>
+    <definedName name="A2_13_6">被保険者住所変更届（二枚目）!$CC$24</definedName>
+    <definedName name="A2_14">被保険者住所変更届（二枚目）!$P$27</definedName>
+    <definedName name="A2_2_1">被保険者住所変更届（二枚目）!$G$21</definedName>
+    <definedName name="A2_2_10">被保険者住所変更届（二枚目）!$Y$21</definedName>
+    <definedName name="A2_2_11">被保険者住所変更届（二枚目）!$AA$21</definedName>
+    <definedName name="A2_2_12">被保険者住所変更届（二枚目）!$AC$21</definedName>
+    <definedName name="A2_2_2">被保険者住所変更届（二枚目）!$I$21</definedName>
+    <definedName name="A2_2_3">被保険者住所変更届（二枚目）!$K$21</definedName>
+    <definedName name="A2_2_4">被保険者住所変更届（二枚目）!$M$21</definedName>
+    <definedName name="A2_2_5">被保険者住所変更届（二枚目）!$O$21</definedName>
+    <definedName name="A2_2_6">被保険者住所変更届（二枚目）!$Q$21</definedName>
+    <definedName name="A2_2_7">被保険者住所変更届（二枚目）!$S$21</definedName>
+    <definedName name="A2_2_8">被保険者住所変更届（二枚目）!$U$21</definedName>
+    <definedName name="A2_2_9">被保険者住所変更届（二枚目）!$W$21</definedName>
+    <definedName name="A2_5_1">被保険者住所変更届（二枚目）!$AI$21</definedName>
+    <definedName name="A2_5_2">被保険者住所変更届（二枚目）!$AK$21</definedName>
+    <definedName name="A2_5_3">被保険者住所変更届（二枚目）!$AM$21</definedName>
+    <definedName name="A2_5_4">被保険者住所変更届（二枚目）!$AO$21</definedName>
+    <definedName name="A2_5_5">被保険者住所変更届（二枚目）!$AQ$21</definedName>
+    <definedName name="A2_5_6">被保険者住所変更届（二枚目）!$AS$21</definedName>
+    <definedName name="A2_6">被保険者住所変更届（二枚目）!$BC$20</definedName>
+    <definedName name="A2_7">被保険者住所変更届（二枚目）!$BI$20</definedName>
+    <definedName name="A2_8">被保険者住所変更届（二枚目）!$BB$21</definedName>
+    <definedName name="A2_9">被保険者住所変更届（二枚目）!$BK$21</definedName>
+    <definedName name="A3_1">被保険者住所変更届（二枚目）!$L$32</definedName>
+    <definedName name="A3_2">被保険者住所変更届（二枚目）!$L$33</definedName>
+    <definedName name="A3_3">被保険者住所変更届（二枚目）!$L$34</definedName>
+    <definedName name="A3_4">被保険者住所変更届（二枚目）!$L$35</definedName>
+    <definedName name="A3_5">被保険者住所変更届（二枚目）!$L$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">被保険者住所変更届（二枚目）!$A$1:$CI$37</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -422,24 +421,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　住所コード</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>⑥　住所変更年月日</t>
     <rPh sb="2" eb="4">
       <t>ジュウショ</t>
@@ -504,21 +485,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>５．昭和
-７．平成
-９．令和</t>
-    <rPh sb="2" eb="4">
-      <t>ショウワ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘイセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>レ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -560,43 +526,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>同居の場合は、下記の□欄に「レ」等のしるしを付してください。</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>注２</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ドウキョ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　　　　際に手続きが必要となります。</t>
     <rPh sb="6" eb="8">
       <t>テツヅ</t>
@@ -651,25 +580,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>キコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> ウ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-　備考</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -757,20 +667,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※被保険者
- 　整理番号</t>
-    <rPh sb="1" eb="5">
-      <t>ヒホケンシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※事業所整理記号</t>
     <rPh sb="1" eb="4">
       <t>ジギョウショ</t>
@@ -884,31 +780,6 @@
   </si>
   <si>
     <t>日本年金機構理事長　あて</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      短期在留　　  　住民票住所以外の居所</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>注１</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　
-    　海外居住　     　その他（　　　　　　　　　　　　　）</t>
-    </r>
   </si>
   <si>
     <r>
@@ -938,47 +809,97 @@
     <t>令和　　　年　　　月　　　日提出</t>
   </si>
   <si>
+    <t>住　所</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　（      被保険者と配偶者は同居している。）</t>
+  </si>
+  <si>
     <r>
-      <t>　  　短期在留　            住民票住所以外の居所</t>
+      <t xml:space="preserve"> ウ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+　備考</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>同居の場合は、下記の□欄に「レ」等のしるしを付してください。</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="8.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
+        <sz val="10"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>注２</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>　住所コード</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   短期在留　　 住民票住所以外の居所</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
       </rPr>
       <t>注１</t>
     </r>
     <r>
       <rPr>
-        <sz val="8.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
       </rPr>
-      <t xml:space="preserve">
-　　  海外居住　　           その他（　　　　　　　　　　）  </t>
+      <t>　
+   海外居住     その他（　　　　　　　　　）</t>
     </r>
   </si>
   <si>
-    <t>住　所</t>
+    <t xml:space="preserve">   短期在留　　  住民票住所以外の居所注１　
+   海外居住      その他（　　　　　　　　）  </t>
   </si>
   <si>
-    <t>　　　　　　　　　　　（      被保険者と配偶者は同居している。）</t>
+    <t>５.昭和
+７.平成
+９.令和</t>
+  </si>
+  <si>
+    <t>※被保険者
+ 整理番号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1029,69 +950,9 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="8.5"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8.5"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -1107,6 +968,77 @@
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1945,7 +1877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1985,846 +1917,876 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2844,7 +2806,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2852,7 +2814,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6906,16 +6868,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>64</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>63</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>66</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6973,16 +6935,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>64</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:col>63</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>66</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7040,16 +7002,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>70</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>69</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>72</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7107,16 +7069,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>70</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>69</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>72</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7240,13 +7202,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -7263,7 +7225,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971925" y="4276725"/>
+          <a:off x="3933825" y="4276725"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7306,13 +7268,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -7329,7 +7291,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="4419600"/>
+          <a:off x="3943350" y="4419600"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7372,13 +7334,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -7395,7 +7357,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="4562475"/>
+          <a:off x="3943350" y="4562475"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7437,16 +7399,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7461,7 +7423,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9686925" y="5753100"/>
+          <a:off x="9753600" y="5734050"/>
           <a:ext cx="609600" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7499,16 +7461,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7523,7 +7485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438899" y="3162300"/>
+          <a:off x="6486524" y="3124200"/>
           <a:ext cx="1152525" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7562,15 +7524,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7585,7 +7547,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8058150" y="1524000"/>
+          <a:off x="8039100" y="1485900"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7628,15 +7590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7651,7 +7613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067675" y="1666875"/>
+          <a:off x="8048625" y="1628775"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7694,15 +7656,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7717,7 +7679,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8058150" y="1809750"/>
+          <a:off x="8039100" y="1771650"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7760,22 +7722,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>193071</xdr:rowOff>
+      <xdr:rowOff>174021</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="99" name="A4_111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A1CC7B-FAAB-466F-BB4D-62AB2836DFC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7783,7 +7745,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4667251" y="2962275"/>
+          <a:off x="4629151" y="2943225"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7825,22 +7787,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>193071</xdr:rowOff>
+      <xdr:rowOff>174021</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="104" name="A4_113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18EE95C-797A-4388-BE07-B8612FD82F01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7848,7 +7810,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4657725" y="3162300"/>
+          <a:off x="4638675" y="3143250"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7890,22 +7852,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>193071</xdr:rowOff>
+      <xdr:rowOff>183546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="105" name="A4_112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69F232B-7C33-40F9-8952-0B57E4AA399B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7913,7 +7875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600701" y="2962275"/>
+          <a:off x="5581651" y="2952750"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7954,23 +7916,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>183546</xdr:rowOff>
+      <xdr:rowOff>174021</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="106" name="A4_114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E9A954-65F1-4CA5-84C0-A55A372939F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7978,7 +7940,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5619751" y="3152775"/>
+          <a:off x="5581651" y="3143250"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8020,22 +7982,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>40671</xdr:rowOff>
+      <xdr:rowOff>21621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="107" name="A4_221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E385ED8D-ABFC-4A42-956F-BD52975FD717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8043,7 +8005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286750" y="5572125"/>
+          <a:off x="8220075" y="5553075"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8085,22 +8047,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>21621</xdr:rowOff>
+      <xdr:rowOff>12096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="108" name="A4_222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5BCBBD-8DBE-4748-8629-2CA74E3DF53D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8108,7 +8070,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9039225" y="5553075"/>
+          <a:off x="8982075" y="5543550"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8150,22 +8112,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>231171</xdr:rowOff>
+      <xdr:rowOff>193071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="109" name="A4_223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764886ED-146B-49AC-833A-20A013144539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8173,7 +8135,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8305800" y="5762625"/>
+          <a:off x="8229600" y="5724525"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8215,22 +8177,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>250221</xdr:rowOff>
+      <xdr:rowOff>183546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="110" name="A4_224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A142FEB-4BED-43C1-9EEA-83916E6E838D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8238,7 +8200,72 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9039225" y="5781675"/>
+          <a:off x="9010650" y="5715000"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145446</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="A4_1111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6B8BE6-2F10-4FE2-8B40-02C18ACEE7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="3876675"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8576,14 +8603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C279E402-A6A0-4E83-A3D2-C34591FEC392}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:CX76"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27:BI28"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -8602,2101 +8629,2254 @@
     <col min="86" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
-    <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="BK2" s="57" t="s">
-        <v>62</v>
+    <row r="1" spans="3:84" ht="26.25" customHeight="1"/>
+    <row r="2" spans="3:84" ht="20.25" customHeight="1">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="BK2" s="26" t="s">
+        <v>57</v>
       </c>
-      <c r="BL2" s="39"/>
-      <c r="BM2" s="39"/>
-      <c r="BN2" s="39"/>
-      <c r="BO2" s="39"/>
-      <c r="BP2" s="29" t="s">
-        <v>61</v>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="13" t="s">
+        <v>56</v>
       </c>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="31"/>
-      <c r="BU2" s="39" t="s">
-        <v>60</v>
+      <c r="BQ2" s="14"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="16" t="s">
+        <v>55</v>
       </c>
-      <c r="BV2" s="39"/>
-      <c r="BW2" s="39"/>
-      <c r="BX2" s="39"/>
-      <c r="BY2" s="39"/>
-      <c r="BZ2" s="54" t="s">
-        <v>59</v>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="23" t="s">
+        <v>54</v>
       </c>
-      <c r="CA2" s="55"/>
-      <c r="CB2" s="55"/>
-      <c r="CC2" s="55"/>
-      <c r="CD2" s="56"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="24"/>
+      <c r="CC2" s="24"/>
+      <c r="CD2" s="25"/>
     </row>
-    <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
-      <c r="Y3" s="186" t="s">
-        <v>58</v>
+    <row r="3" spans="3:84" ht="17.25" customHeight="1">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="Y3" s="33" t="s">
+        <v>53</v>
       </c>
-      <c r="Z3" s="186"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="186"/>
-      <c r="AC3" s="186"/>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="186"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="186"/>
-      <c r="AH3" s="186"/>
-      <c r="AI3" s="186"/>
-      <c r="AJ3" s="186"/>
-      <c r="AK3" s="186"/>
-      <c r="AL3" s="186"/>
-      <c r="AM3" s="186"/>
-      <c r="AN3" s="186"/>
-      <c r="AO3" s="186"/>
-      <c r="AP3" s="186"/>
-      <c r="AQ3" s="186"/>
-      <c r="AR3" s="186"/>
-      <c r="AS3" s="186"/>
-      <c r="AT3" s="186"/>
-      <c r="AU3" s="186"/>
-      <c r="AV3" s="186"/>
-      <c r="AW3" s="186"/>
-      <c r="AX3" s="186"/>
-      <c r="AY3" s="186"/>
-      <c r="AZ3" s="186"/>
-      <c r="BA3" s="186"/>
-      <c r="BB3" s="186"/>
-      <c r="BC3" s="186"/>
-      <c r="BD3" s="186"/>
-      <c r="BE3" s="186"/>
-      <c r="BF3" s="186"/>
-      <c r="BG3" s="186"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33"/>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
-      <c r="BK3" s="40"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="40"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="40"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="41"/>
-      <c r="CB3" s="41"/>
-      <c r="CC3" s="41"/>
-      <c r="CD3" s="42"/>
+      <c r="BK3" s="17"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="17"/>
+      <c r="BQ3" s="18"/>
+      <c r="BR3" s="18"/>
+      <c r="BS3" s="18"/>
+      <c r="BT3" s="19"/>
+      <c r="BU3" s="17"/>
+      <c r="BV3" s="18"/>
+      <c r="BW3" s="18"/>
+      <c r="BX3" s="18"/>
+      <c r="BY3" s="19"/>
+      <c r="BZ3" s="17"/>
+      <c r="CA3" s="18"/>
+      <c r="CB3" s="18"/>
+      <c r="CC3" s="18"/>
+      <c r="CD3" s="19"/>
     </row>
-    <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="185"/>
-      <c r="T4" s="185"/>
-      <c r="Y4" s="186"/>
-      <c r="Z4" s="186"/>
-      <c r="AA4" s="186"/>
-      <c r="AB4" s="186"/>
-      <c r="AC4" s="186"/>
-      <c r="AD4" s="186"/>
-      <c r="AE4" s="186"/>
-      <c r="AF4" s="186"/>
-      <c r="AG4" s="186"/>
-      <c r="AH4" s="186"/>
-      <c r="AI4" s="186"/>
-      <c r="AJ4" s="186"/>
-      <c r="AK4" s="186"/>
-      <c r="AL4" s="186"/>
-      <c r="AM4" s="186"/>
-      <c r="AN4" s="186"/>
-      <c r="AO4" s="186"/>
-      <c r="AP4" s="186"/>
-      <c r="AQ4" s="186"/>
-      <c r="AR4" s="186"/>
-      <c r="AS4" s="186"/>
-      <c r="AT4" s="186"/>
-      <c r="AU4" s="186"/>
-      <c r="AV4" s="186"/>
-      <c r="AW4" s="186"/>
-      <c r="AX4" s="186"/>
-      <c r="AY4" s="186"/>
-      <c r="AZ4" s="186"/>
-      <c r="BA4" s="186"/>
-      <c r="BB4" s="186"/>
-      <c r="BC4" s="186"/>
-      <c r="BD4" s="186"/>
-      <c r="BE4" s="186"/>
-      <c r="BF4" s="186"/>
-      <c r="BG4" s="186"/>
+    <row r="4" spans="3:84" ht="17.25" customHeight="1">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="33"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="33"/>
+      <c r="BA4" s="33"/>
+      <c r="BB4" s="33"/>
+      <c r="BC4" s="33"/>
+      <c r="BD4" s="33"/>
+      <c r="BE4" s="33"/>
+      <c r="BF4" s="33"/>
+      <c r="BG4" s="33"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="43"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="45"/>
-      <c r="BP4" s="43"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="45"/>
-      <c r="BU4" s="43"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="45"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="45"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="21"/>
+      <c r="BM4" s="21"/>
+      <c r="BN4" s="21"/>
+      <c r="BO4" s="22"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="21"/>
+      <c r="BR4" s="21"/>
+      <c r="BS4" s="21"/>
+      <c r="BT4" s="22"/>
+      <c r="BU4" s="20"/>
+      <c r="BV4" s="21"/>
+      <c r="BW4" s="21"/>
+      <c r="BX4" s="21"/>
+      <c r="BY4" s="22"/>
+      <c r="BZ4" s="20"/>
+      <c r="CA4" s="21"/>
+      <c r="CB4" s="21"/>
+      <c r="CC4" s="21"/>
+      <c r="CD4" s="22"/>
     </row>
-    <row r="5" spans="3:82" ht="9" customHeight="1"/>
-    <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="111" t="s">
+    <row r="5" spans="3:84" ht="9" customHeight="1"/>
+    <row r="6" spans="3:84" ht="24" customHeight="1">
+      <c r="C6" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="68"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="68"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="68"/>
+      <c r="BE6" s="68"/>
+      <c r="BF6" s="68"/>
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="68"/>
+      <c r="BI6" s="68"/>
+      <c r="BJ6" s="68"/>
+      <c r="BK6" s="69"/>
+      <c r="BL6" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM6" s="71"/>
+      <c r="BN6" s="71"/>
+      <c r="BO6" s="71"/>
+      <c r="BP6" s="71"/>
+      <c r="BQ6" s="71"/>
+      <c r="BR6" s="71"/>
+      <c r="BS6" s="71"/>
+      <c r="BT6" s="71"/>
+      <c r="BU6" s="71"/>
+      <c r="BV6" s="71"/>
+      <c r="BW6" s="71"/>
+      <c r="BX6" s="71"/>
+      <c r="BY6" s="71"/>
+      <c r="BZ6" s="71"/>
+      <c r="CA6" s="72"/>
+      <c r="CB6" s="73"/>
+      <c r="CC6" s="73"/>
+      <c r="CD6" s="74"/>
+      <c r="CE6" s="73"/>
+      <c r="CF6" s="73"/>
+    </row>
+    <row r="7" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="85"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="84"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="85"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW7" s="88"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="89"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="91"/>
+      <c r="BE7" s="92"/>
+      <c r="BF7" s="92"/>
+      <c r="BG7" s="92"/>
+      <c r="BH7" s="92"/>
+      <c r="BI7" s="92"/>
+      <c r="BJ7" s="92"/>
+      <c r="BK7" s="93"/>
+      <c r="BL7" s="298" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM7" s="299"/>
+      <c r="BN7" s="299"/>
+      <c r="BO7" s="300"/>
+      <c r="BP7" s="94"/>
+      <c r="BQ7" s="83"/>
+      <c r="BR7" s="82"/>
+      <c r="BS7" s="83"/>
+      <c r="BT7" s="94"/>
+      <c r="BU7" s="83"/>
+      <c r="BV7" s="82"/>
+      <c r="BW7" s="83"/>
+      <c r="BX7" s="94"/>
+      <c r="BY7" s="82"/>
+      <c r="BZ7" s="84"/>
+      <c r="CA7" s="95"/>
+      <c r="CB7" s="96"/>
+      <c r="CC7" s="73"/>
+      <c r="CD7" s="74"/>
+      <c r="CE7" s="73"/>
+      <c r="CF7" s="73"/>
+    </row>
+    <row r="8" spans="3:84" ht="21.75" customHeight="1">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="103"/>
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="102"/>
+      <c r="AU8" s="103"/>
+      <c r="AV8" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="107"/>
+      <c r="AY8" s="107"/>
+      <c r="AZ8" s="107"/>
+      <c r="BA8" s="107"/>
+      <c r="BB8" s="107"/>
+      <c r="BC8" s="108"/>
+      <c r="BD8" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE8" s="110"/>
+      <c r="BF8" s="111"/>
+      <c r="BG8" s="111"/>
+      <c r="BH8" s="111"/>
+      <c r="BI8" s="111"/>
+      <c r="BJ8" s="111"/>
+      <c r="BK8" s="112"/>
+      <c r="BL8" s="301"/>
+      <c r="BM8" s="302"/>
+      <c r="BN8" s="302"/>
+      <c r="BO8" s="303"/>
+      <c r="BP8" s="113"/>
+      <c r="BQ8" s="103"/>
+      <c r="BR8" s="102"/>
+      <c r="BS8" s="103"/>
+      <c r="BT8" s="113"/>
+      <c r="BU8" s="103"/>
+      <c r="BV8" s="102"/>
+      <c r="BW8" s="103"/>
+      <c r="BX8" s="113"/>
+      <c r="BY8" s="102"/>
+      <c r="BZ8" s="104"/>
+      <c r="CA8" s="114"/>
+      <c r="CB8" s="115"/>
+      <c r="CC8" s="116"/>
+      <c r="CD8" s="74"/>
+      <c r="CE8" s="73"/>
+      <c r="CF8" s="73"/>
+    </row>
+    <row r="9" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="124"/>
+      <c r="AG9" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="126"/>
+      <c r="AK9" s="127"/>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="127"/>
+      <c r="AN9" s="127"/>
+      <c r="AO9" s="127"/>
+      <c r="AP9" s="127"/>
+      <c r="AQ9" s="127"/>
+      <c r="AR9" s="127"/>
+      <c r="AS9" s="127"/>
+      <c r="AT9" s="127"/>
+      <c r="AU9" s="127"/>
+      <c r="AV9" s="127"/>
+      <c r="AW9" s="127"/>
+      <c r="AX9" s="127"/>
+      <c r="AY9" s="127"/>
+      <c r="AZ9" s="127"/>
+      <c r="BA9" s="127"/>
+      <c r="BB9" s="127"/>
+      <c r="BC9" s="127"/>
+      <c r="BD9" s="127"/>
+      <c r="BE9" s="127"/>
+      <c r="BF9" s="127"/>
+      <c r="BG9" s="127"/>
+      <c r="BH9" s="127"/>
+      <c r="BI9" s="127"/>
+      <c r="BJ9" s="127"/>
+      <c r="BK9" s="127"/>
+      <c r="BL9" s="127"/>
+      <c r="BM9" s="127"/>
+      <c r="BN9" s="127"/>
+      <c r="BO9" s="127"/>
+      <c r="BP9" s="127"/>
+      <c r="BQ9" s="127"/>
+      <c r="BR9" s="127"/>
+      <c r="BS9" s="127"/>
+      <c r="BT9" s="127"/>
+      <c r="BU9" s="127"/>
+      <c r="BV9" s="127"/>
+      <c r="BW9" s="127"/>
+      <c r="BX9" s="127"/>
+      <c r="BY9" s="127"/>
+      <c r="BZ9" s="127"/>
+      <c r="CA9" s="127"/>
+      <c r="CB9" s="127"/>
+      <c r="CC9" s="127"/>
+      <c r="CD9" s="128"/>
+      <c r="CE9" s="73"/>
+      <c r="CF9" s="73"/>
+    </row>
+    <row r="10" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="139"/>
+      <c r="AJ10" s="139"/>
+      <c r="AK10" s="139"/>
+      <c r="AL10" s="139"/>
+      <c r="AM10" s="139"/>
+      <c r="AN10" s="139"/>
+      <c r="AO10" s="139"/>
+      <c r="AP10" s="139"/>
+      <c r="AQ10" s="139"/>
+      <c r="AR10" s="139"/>
+      <c r="AS10" s="139"/>
+      <c r="AT10" s="139"/>
+      <c r="AU10" s="139"/>
+      <c r="AV10" s="139"/>
+      <c r="AW10" s="139"/>
+      <c r="AX10" s="139"/>
+      <c r="AY10" s="139"/>
+      <c r="AZ10" s="139"/>
+      <c r="BA10" s="139"/>
+      <c r="BB10" s="139"/>
+      <c r="BC10" s="139"/>
+      <c r="BD10" s="139"/>
+      <c r="BE10" s="139"/>
+      <c r="BF10" s="139"/>
+      <c r="BG10" s="139"/>
+      <c r="BH10" s="139"/>
+      <c r="BI10" s="139"/>
+      <c r="BJ10" s="139"/>
+      <c r="BK10" s="139"/>
+      <c r="BL10" s="139"/>
+      <c r="BM10" s="139"/>
+      <c r="BN10" s="139"/>
+      <c r="BO10" s="139"/>
+      <c r="BP10" s="139"/>
+      <c r="BQ10" s="139"/>
+      <c r="BR10" s="139"/>
+      <c r="BS10" s="139"/>
+      <c r="BT10" s="139"/>
+      <c r="BU10" s="139"/>
+      <c r="BV10" s="139"/>
+      <c r="BW10" s="139"/>
+      <c r="BX10" s="139"/>
+      <c r="BY10" s="139"/>
+      <c r="BZ10" s="139"/>
+      <c r="CA10" s="139"/>
+      <c r="CB10" s="139"/>
+      <c r="CC10" s="139"/>
+      <c r="CD10" s="140"/>
+      <c r="CE10" s="73"/>
+      <c r="CF10" s="73"/>
+    </row>
+    <row r="11" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="149"/>
+      <c r="AG11" s="150"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="151"/>
+      <c r="AJ11" s="151"/>
+      <c r="AK11" s="151"/>
+      <c r="AL11" s="151"/>
+      <c r="AM11" s="151"/>
+      <c r="AN11" s="151"/>
+      <c r="AO11" s="151"/>
+      <c r="AP11" s="151"/>
+      <c r="AQ11" s="151"/>
+      <c r="AR11" s="151"/>
+      <c r="AS11" s="151"/>
+      <c r="AT11" s="151"/>
+      <c r="AU11" s="151"/>
+      <c r="AV11" s="151"/>
+      <c r="AW11" s="151"/>
+      <c r="AX11" s="151"/>
+      <c r="AY11" s="151"/>
+      <c r="AZ11" s="151"/>
+      <c r="BA11" s="151"/>
+      <c r="BB11" s="151"/>
+      <c r="BC11" s="151"/>
+      <c r="BD11" s="151"/>
+      <c r="BE11" s="151"/>
+      <c r="BF11" s="151"/>
+      <c r="BG11" s="151"/>
+      <c r="BH11" s="151"/>
+      <c r="BI11" s="151"/>
+      <c r="BJ11" s="151"/>
+      <c r="BK11" s="151"/>
+      <c r="BL11" s="151"/>
+      <c r="BM11" s="151"/>
+      <c r="BN11" s="151"/>
+      <c r="BO11" s="151"/>
+      <c r="BP11" s="151"/>
+      <c r="BQ11" s="151"/>
+      <c r="BR11" s="151"/>
+      <c r="BS11" s="151"/>
+      <c r="BT11" s="151"/>
+      <c r="BU11" s="151"/>
+      <c r="BV11" s="151"/>
+      <c r="BW11" s="151"/>
+      <c r="BX11" s="151"/>
+      <c r="BY11" s="151"/>
+      <c r="BZ11" s="151"/>
+      <c r="CA11" s="151"/>
+      <c r="CB11" s="151"/>
+      <c r="CC11" s="151"/>
+      <c r="CD11" s="152"/>
+      <c r="CE11" s="73"/>
+      <c r="CF11" s="73"/>
+    </row>
+    <row r="12" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="153" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="58" t="s">
-        <v>57</v>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="157"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="157"/>
+      <c r="U12" s="157"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="157"/>
+      <c r="Z12" s="157"/>
+      <c r="AA12" s="157"/>
+      <c r="AB12" s="157"/>
+      <c r="AC12" s="157"/>
+      <c r="AD12" s="157"/>
+      <c r="AE12" s="157"/>
+      <c r="AF12" s="157"/>
+      <c r="AG12" s="157"/>
+      <c r="AH12" s="157"/>
+      <c r="AI12" s="157"/>
+      <c r="AJ12" s="157"/>
+      <c r="AK12" s="157"/>
+      <c r="AL12" s="157"/>
+      <c r="AM12" s="157"/>
+      <c r="AN12" s="157"/>
+      <c r="AO12" s="157"/>
+      <c r="AP12" s="157"/>
+      <c r="AQ12" s="157"/>
+      <c r="AR12" s="157"/>
+      <c r="AS12" s="157"/>
+      <c r="AT12" s="157"/>
+      <c r="AU12" s="157"/>
+      <c r="AV12" s="157"/>
+      <c r="AW12" s="157"/>
+      <c r="AX12" s="157"/>
+      <c r="AY12" s="157"/>
+      <c r="AZ12" s="157"/>
+      <c r="BA12" s="157"/>
+      <c r="BB12" s="157"/>
+      <c r="BC12" s="157"/>
+      <c r="BD12" s="157"/>
+      <c r="BE12" s="157"/>
+      <c r="BF12" s="157"/>
+      <c r="BG12" s="157"/>
+      <c r="BH12" s="157"/>
+      <c r="BI12" s="157"/>
+      <c r="BJ12" s="157"/>
+      <c r="BK12" s="157"/>
+      <c r="BL12" s="157"/>
+      <c r="BM12" s="157"/>
+      <c r="BN12" s="157"/>
+      <c r="BO12" s="157"/>
+      <c r="BP12" s="157"/>
+      <c r="BQ12" s="157"/>
+      <c r="BR12" s="157"/>
+      <c r="BS12" s="157"/>
+      <c r="BT12" s="157"/>
+      <c r="BU12" s="157"/>
+      <c r="BV12" s="157"/>
+      <c r="BW12" s="157"/>
+      <c r="BX12" s="157"/>
+      <c r="BY12" s="157"/>
+      <c r="BZ12" s="157"/>
+      <c r="CA12" s="157"/>
+      <c r="CB12" s="157"/>
+      <c r="CC12" s="157"/>
+      <c r="CD12" s="158"/>
+      <c r="CE12" s="73"/>
+      <c r="CF12" s="73"/>
+    </row>
+    <row r="13" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
+      <c r="AE13" s="151"/>
+      <c r="AF13" s="151"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="151"/>
+      <c r="AJ13" s="151"/>
+      <c r="AK13" s="151"/>
+      <c r="AL13" s="151"/>
+      <c r="AM13" s="151"/>
+      <c r="AN13" s="151"/>
+      <c r="AO13" s="151"/>
+      <c r="AP13" s="151"/>
+      <c r="AQ13" s="151"/>
+      <c r="AR13" s="151"/>
+      <c r="AS13" s="151"/>
+      <c r="AT13" s="151"/>
+      <c r="AU13" s="151"/>
+      <c r="AV13" s="151"/>
+      <c r="AW13" s="151"/>
+      <c r="AX13" s="151"/>
+      <c r="AY13" s="151"/>
+      <c r="AZ13" s="151"/>
+      <c r="BA13" s="151"/>
+      <c r="BB13" s="151"/>
+      <c r="BC13" s="151"/>
+      <c r="BD13" s="151"/>
+      <c r="BE13" s="151"/>
+      <c r="BF13" s="151"/>
+      <c r="BG13" s="151"/>
+      <c r="BH13" s="151"/>
+      <c r="BI13" s="151"/>
+      <c r="BJ13" s="151"/>
+      <c r="BK13" s="151"/>
+      <c r="BL13" s="151"/>
+      <c r="BM13" s="151"/>
+      <c r="BN13" s="151"/>
+      <c r="BO13" s="151"/>
+      <c r="BP13" s="151"/>
+      <c r="BQ13" s="151"/>
+      <c r="BR13" s="151"/>
+      <c r="BS13" s="151"/>
+      <c r="BT13" s="151"/>
+      <c r="BU13" s="151"/>
+      <c r="BV13" s="151"/>
+      <c r="BW13" s="151"/>
+      <c r="BX13" s="151"/>
+      <c r="BY13" s="151"/>
+      <c r="BZ13" s="151"/>
+      <c r="CA13" s="151"/>
+      <c r="CB13" s="151"/>
+      <c r="CC13" s="151"/>
+      <c r="CD13" s="152"/>
+      <c r="CE13" s="73"/>
+      <c r="CF13" s="73"/>
+    </row>
+    <row r="14" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="162" t="s">
+        <v>41</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="156" t="s">
-        <v>56</v>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="165" t="s">
+        <v>40</v>
       </c>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="154" t="s">
-        <v>55</v>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="169"/>
+      <c r="T14" s="170"/>
+      <c r="U14" s="167"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="169"/>
+      <c r="X14" s="170"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="168"/>
+      <c r="AA14" s="169"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="172"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="174"/>
+      <c r="AF14" s="175" t="s">
+        <v>65</v>
       </c>
-      <c r="T6" s="155"/>
-      <c r="U6" s="155"/>
-      <c r="V6" s="155"/>
-      <c r="W6" s="155"/>
-      <c r="X6" s="161" t="s">
-        <v>54</v>
+      <c r="AG14" s="176"/>
+      <c r="AH14" s="176"/>
+      <c r="AI14" s="176"/>
+      <c r="AJ14" s="177" t="s">
+        <v>68</v>
       </c>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="142"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="142"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="142"/>
-      <c r="AH6" s="142"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="142"/>
-      <c r="AL6" s="142"/>
-      <c r="AM6" s="142"/>
-      <c r="AN6" s="142"/>
-      <c r="AO6" s="142"/>
-      <c r="AP6" s="142"/>
-      <c r="AQ6" s="142"/>
-      <c r="AR6" s="142"/>
-      <c r="AS6" s="142"/>
-      <c r="AT6" s="142"/>
-      <c r="AU6" s="143"/>
-      <c r="AV6" s="142" t="s">
-        <v>53</v>
+      <c r="AK14" s="178"/>
+      <c r="AL14" s="178"/>
+      <c r="AM14" s="178"/>
+      <c r="AN14" s="178"/>
+      <c r="AO14" s="178"/>
+      <c r="AP14" s="178"/>
+      <c r="AQ14" s="178"/>
+      <c r="AR14" s="178"/>
+      <c r="AS14" s="178"/>
+      <c r="AT14" s="178"/>
+      <c r="AU14" s="178"/>
+      <c r="AV14" s="178"/>
+      <c r="AW14" s="178"/>
+      <c r="AX14" s="178"/>
+      <c r="AY14" s="178"/>
+      <c r="AZ14" s="178"/>
+      <c r="BA14" s="178"/>
+      <c r="BB14" s="178"/>
+      <c r="BC14" s="178"/>
+      <c r="BD14" s="178"/>
+      <c r="BE14" s="178"/>
+      <c r="BF14" s="178"/>
+      <c r="BG14" s="178"/>
+      <c r="BH14" s="178"/>
+      <c r="BI14" s="178"/>
+      <c r="BJ14" s="178"/>
+      <c r="BK14" s="178"/>
+      <c r="BL14" s="178"/>
+      <c r="BM14" s="178"/>
+      <c r="BN14" s="178"/>
+      <c r="BO14" s="179"/>
+      <c r="BP14" s="73"/>
+      <c r="BQ14" s="73"/>
+      <c r="BR14" s="73"/>
+      <c r="BS14" s="73"/>
+      <c r="BT14" s="73"/>
+      <c r="BU14" s="73"/>
+      <c r="BV14" s="73"/>
+      <c r="BW14" s="73"/>
+      <c r="BX14" s="73"/>
+      <c r="BY14" s="73"/>
+      <c r="BZ14" s="73"/>
+      <c r="CA14" s="73"/>
+      <c r="CB14" s="73"/>
+      <c r="CC14" s="73"/>
+      <c r="CD14" s="73"/>
+      <c r="CE14" s="73"/>
+      <c r="CF14" s="73"/>
+    </row>
+    <row r="15" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="189"/>
+      <c r="T15" s="190"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="188"/>
+      <c r="W15" s="189"/>
+      <c r="X15" s="190"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="188"/>
+      <c r="AA15" s="189"/>
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="193"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="195"/>
+      <c r="AG15" s="196"/>
+      <c r="AH15" s="196"/>
+      <c r="AI15" s="196"/>
+      <c r="AJ15" s="197"/>
+      <c r="AK15" s="198"/>
+      <c r="AL15" s="198"/>
+      <c r="AM15" s="198"/>
+      <c r="AN15" s="198"/>
+      <c r="AO15" s="198"/>
+      <c r="AP15" s="198"/>
+      <c r="AQ15" s="198"/>
+      <c r="AR15" s="198"/>
+      <c r="AS15" s="198"/>
+      <c r="AT15" s="198"/>
+      <c r="AU15" s="198"/>
+      <c r="AV15" s="198"/>
+      <c r="AW15" s="198"/>
+      <c r="AX15" s="198"/>
+      <c r="AY15" s="198"/>
+      <c r="AZ15" s="198"/>
+      <c r="BA15" s="198"/>
+      <c r="BB15" s="198"/>
+      <c r="BC15" s="198"/>
+      <c r="BD15" s="198"/>
+      <c r="BE15" s="198"/>
+      <c r="BF15" s="198"/>
+      <c r="BG15" s="198"/>
+      <c r="BH15" s="198"/>
+      <c r="BI15" s="198"/>
+      <c r="BJ15" s="198"/>
+      <c r="BK15" s="198"/>
+      <c r="BL15" s="198"/>
+      <c r="BM15" s="198"/>
+      <c r="BN15" s="198"/>
+      <c r="BO15" s="199"/>
+      <c r="BP15" s="73"/>
+      <c r="BQ15" s="73"/>
+      <c r="BR15" s="73"/>
+      <c r="BS15" s="200" t="s">
+        <v>39</v>
       </c>
-      <c r="AW6" s="142"/>
-      <c r="AX6" s="142"/>
-      <c r="AY6" s="142"/>
-      <c r="AZ6" s="142"/>
-      <c r="BA6" s="142"/>
-      <c r="BB6" s="142"/>
-      <c r="BC6" s="142"/>
-      <c r="BD6" s="142"/>
-      <c r="BE6" s="142"/>
-      <c r="BF6" s="142"/>
-      <c r="BG6" s="142"/>
-      <c r="BH6" s="142"/>
-      <c r="BI6" s="142"/>
-      <c r="BJ6" s="142"/>
-      <c r="BK6" s="143"/>
-      <c r="BL6" s="40" t="s">
+      <c r="BT15" s="201"/>
+      <c r="BU15" s="201"/>
+      <c r="BV15" s="201"/>
+      <c r="BW15" s="201"/>
+      <c r="BX15" s="201"/>
+      <c r="BY15" s="201"/>
+      <c r="BZ15" s="201"/>
+      <c r="CA15" s="201"/>
+      <c r="CB15" s="201"/>
+      <c r="CC15" s="201"/>
+      <c r="CD15" s="202"/>
+      <c r="CE15" s="73"/>
+      <c r="CF15" s="73"/>
+    </row>
+    <row r="16" spans="3:84" ht="12.75" customHeight="1">
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="205"/>
+      <c r="P16" s="205"/>
+      <c r="Q16" s="206"/>
+      <c r="R16" s="206"/>
+      <c r="S16" s="206"/>
+      <c r="T16" s="206"/>
+      <c r="U16" s="206"/>
+      <c r="V16" s="206"/>
+      <c r="W16" s="206"/>
+      <c r="X16" s="206"/>
+      <c r="Y16" s="206"/>
+      <c r="Z16" s="206"/>
+      <c r="AA16" s="206"/>
+      <c r="AB16" s="206"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="207"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="207" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="73"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="73"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
+      <c r="BD16" s="73"/>
+      <c r="BE16" s="73"/>
+      <c r="BF16" s="73"/>
+      <c r="BG16" s="73"/>
+      <c r="BH16" s="73"/>
+      <c r="BI16" s="73"/>
+      <c r="BJ16" s="73"/>
+      <c r="BK16" s="73"/>
+      <c r="BL16" s="73"/>
+      <c r="BM16" s="73"/>
+      <c r="BN16" s="73"/>
+      <c r="BO16" s="73"/>
+      <c r="BP16" s="73"/>
+      <c r="BQ16" s="73"/>
+      <c r="BR16" s="73"/>
+      <c r="BS16" s="200"/>
+      <c r="BT16" s="201"/>
+      <c r="BU16" s="201"/>
+      <c r="BV16" s="201"/>
+      <c r="BW16" s="201"/>
+      <c r="BX16" s="201"/>
+      <c r="BY16" s="201"/>
+      <c r="BZ16" s="201"/>
+      <c r="CA16" s="201"/>
+      <c r="CB16" s="201"/>
+      <c r="CC16" s="201"/>
+      <c r="CD16" s="202"/>
+      <c r="CE16" s="73"/>
+      <c r="CF16" s="73"/>
+    </row>
+    <row r="17" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="209" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="210" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="73"/>
+      <c r="AS17" s="73"/>
+      <c r="AT17" s="73"/>
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
+      <c r="AY17" s="73"/>
+      <c r="AZ17" s="73"/>
+      <c r="BA17" s="73"/>
+      <c r="BB17" s="73"/>
+      <c r="BC17" s="73"/>
+      <c r="BD17" s="73"/>
+      <c r="BE17" s="73"/>
+      <c r="BF17" s="73"/>
+      <c r="BG17" s="73"/>
+      <c r="BH17" s="73"/>
+      <c r="BI17" s="73"/>
+      <c r="BJ17" s="73"/>
+      <c r="BK17" s="73"/>
+      <c r="BL17" s="73"/>
+      <c r="BM17" s="73"/>
+      <c r="BN17" s="73"/>
+      <c r="BO17" s="73"/>
+      <c r="BP17" s="73"/>
+      <c r="BQ17" s="73"/>
+      <c r="BR17" s="73"/>
+      <c r="BS17" s="211"/>
+      <c r="BT17" s="212"/>
+      <c r="BU17" s="212"/>
+      <c r="BV17" s="212"/>
+      <c r="BW17" s="212"/>
+      <c r="BX17" s="212"/>
+      <c r="BY17" s="212"/>
+      <c r="BZ17" s="212"/>
+      <c r="CA17" s="212"/>
+      <c r="CB17" s="212"/>
+      <c r="CC17" s="212"/>
+      <c r="CD17" s="213"/>
+      <c r="CE17" s="73"/>
+      <c r="CF17" s="73"/>
+    </row>
+    <row r="18" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="214" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="73"/>
+      <c r="AS18" s="73"/>
+      <c r="AT18" s="73"/>
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="73"/>
+      <c r="BE18" s="73"/>
+      <c r="BF18" s="73"/>
+      <c r="BG18" s="73"/>
+      <c r="BH18" s="73"/>
+      <c r="BI18" s="73"/>
+      <c r="BJ18" s="73"/>
+      <c r="BK18" s="73"/>
+      <c r="BL18" s="73"/>
+      <c r="BM18" s="73"/>
+      <c r="BN18" s="73"/>
+      <c r="BO18" s="73"/>
+      <c r="BP18" s="73"/>
+      <c r="BQ18" s="73"/>
+      <c r="BR18" s="73"/>
+      <c r="BS18" s="211"/>
+      <c r="BT18" s="212"/>
+      <c r="BU18" s="212"/>
+      <c r="BV18" s="212"/>
+      <c r="BW18" s="212"/>
+      <c r="BX18" s="212"/>
+      <c r="BY18" s="212"/>
+      <c r="BZ18" s="212"/>
+      <c r="CA18" s="212"/>
+      <c r="CB18" s="212"/>
+      <c r="CC18" s="212"/>
+      <c r="CD18" s="213"/>
+      <c r="CE18" s="73"/>
+      <c r="CF18" s="73"/>
+    </row>
+    <row r="19" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="215" t="s">
         <v>64</v>
       </c>
-      <c r="BM6" s="41"/>
-      <c r="BN6" s="41"/>
-      <c r="BO6" s="41"/>
-      <c r="BP6" s="41"/>
-      <c r="BQ6" s="41"/>
-      <c r="BR6" s="41"/>
-      <c r="BS6" s="41"/>
-      <c r="BT6" s="41"/>
-      <c r="BU6" s="41"/>
-      <c r="BV6" s="41"/>
-      <c r="BW6" s="41"/>
-      <c r="BX6" s="41"/>
-      <c r="BY6" s="41"/>
-      <c r="BZ6" s="41"/>
-      <c r="CA6" s="42"/>
-      <c r="CB6"/>
-      <c r="CC6"/>
-      <c r="CD6" s="27"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="215"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215"/>
+      <c r="O19" s="215"/>
+      <c r="P19" s="215"/>
+      <c r="Q19" s="215"/>
+      <c r="R19" s="215"/>
+      <c r="S19" s="215"/>
+      <c r="T19" s="215"/>
+      <c r="U19" s="215"/>
+      <c r="V19" s="215"/>
+      <c r="W19" s="215"/>
+      <c r="X19" s="215"/>
+      <c r="Y19" s="215"/>
+      <c r="Z19" s="215"/>
+      <c r="AA19" s="215"/>
+      <c r="AB19" s="215"/>
+      <c r="AC19" s="215"/>
+      <c r="AD19" s="215"/>
+      <c r="AE19" s="215"/>
+      <c r="AF19" s="215"/>
+      <c r="AG19" s="215"/>
+      <c r="AH19" s="215"/>
+      <c r="AI19" s="215"/>
+      <c r="AJ19" s="215"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="73"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="73"/>
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="214"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="73"/>
+      <c r="AY19" s="73"/>
+      <c r="AZ19" s="73"/>
+      <c r="BA19" s="73"/>
+      <c r="BB19" s="73"/>
+      <c r="BC19" s="73"/>
+      <c r="BD19" s="73"/>
+      <c r="BE19" s="73"/>
+      <c r="BF19" s="73"/>
+      <c r="BG19" s="73"/>
+      <c r="BH19" s="73"/>
+      <c r="BI19" s="73"/>
+      <c r="BJ19" s="73"/>
+      <c r="BK19" s="73"/>
+      <c r="BL19" s="73"/>
+      <c r="BM19" s="73"/>
+      <c r="BN19" s="73"/>
+      <c r="BO19" s="73"/>
+      <c r="BP19" s="73"/>
+      <c r="BQ19" s="73"/>
+      <c r="BR19" s="73"/>
+      <c r="BS19" s="211"/>
+      <c r="BT19" s="212"/>
+      <c r="BU19" s="212"/>
+      <c r="BV19" s="212"/>
+      <c r="BW19" s="212"/>
+      <c r="BX19" s="212"/>
+      <c r="BY19" s="212"/>
+      <c r="BZ19" s="212"/>
+      <c r="CA19" s="212"/>
+      <c r="CB19" s="212"/>
+      <c r="CC19" s="212"/>
+      <c r="CD19" s="213"/>
+      <c r="CE19" s="73"/>
+      <c r="CF19" s="73"/>
     </row>
-    <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="144" t="s">
+    <row r="20" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="216" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="217"/>
+      <c r="G20" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
+      <c r="AO20" s="68"/>
+      <c r="AP20" s="68"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="68"/>
+      <c r="AS20" s="68"/>
+      <c r="AT20" s="69"/>
+      <c r="AU20" s="218"/>
+      <c r="AV20" s="219"/>
+      <c r="AW20" s="220" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX20" s="221"/>
+      <c r="AY20" s="222"/>
+      <c r="AZ20" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="AW7" s="145"/>
-      <c r="AX7" s="146"/>
-      <c r="AY7" s="146"/>
-      <c r="AZ7" s="146"/>
-      <c r="BA7" s="146"/>
-      <c r="BB7" s="146"/>
-      <c r="BC7" s="147"/>
-      <c r="BD7" s="187"/>
-      <c r="BE7" s="188"/>
-      <c r="BF7" s="188"/>
-      <c r="BG7" s="188"/>
-      <c r="BH7" s="188"/>
-      <c r="BI7" s="188"/>
-      <c r="BJ7" s="188"/>
-      <c r="BK7" s="189"/>
-      <c r="BL7" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="BM7" s="128"/>
-      <c r="BN7" s="128"/>
-      <c r="BO7" s="129"/>
-      <c r="BP7" s="83"/>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="84"/>
-      <c r="BS7" s="37"/>
-      <c r="BT7" s="83"/>
-      <c r="BU7" s="37"/>
-      <c r="BV7" s="84"/>
-      <c r="BW7" s="37"/>
-      <c r="BX7" s="83"/>
-      <c r="BY7" s="84"/>
-      <c r="BZ7" s="46"/>
-      <c r="CA7" s="47"/>
-      <c r="CB7" s="28"/>
-      <c r="CC7"/>
-      <c r="CD7" s="27"/>
+      <c r="BA20" s="224"/>
+      <c r="BB20" s="224"/>
+      <c r="BC20" s="92"/>
+      <c r="BD20" s="92"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="92"/>
+      <c r="BG20" s="92"/>
+      <c r="BH20" s="92"/>
+      <c r="BI20" s="225"/>
+      <c r="BJ20" s="226"/>
+      <c r="BK20" s="226"/>
+      <c r="BL20" s="226"/>
+      <c r="BM20" s="226"/>
+      <c r="BN20" s="226"/>
+      <c r="BO20" s="226"/>
+      <c r="BP20" s="226"/>
+      <c r="BQ20" s="227"/>
+      <c r="BR20" s="73"/>
+      <c r="BS20" s="211"/>
+      <c r="BT20" s="212"/>
+      <c r="BU20" s="212"/>
+      <c r="BV20" s="212"/>
+      <c r="BW20" s="212"/>
+      <c r="BX20" s="212"/>
+      <c r="BY20" s="212"/>
+      <c r="BZ20" s="212"/>
+      <c r="CA20" s="212"/>
+      <c r="CB20" s="212"/>
+      <c r="CC20" s="212"/>
+      <c r="CD20" s="213"/>
+      <c r="CE20" s="73"/>
+      <c r="CF20" s="73"/>
     </row>
-    <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="119" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW8" s="120"/>
-      <c r="AX8" s="121"/>
-      <c r="AY8" s="121"/>
-      <c r="AZ8" s="121"/>
-      <c r="BA8" s="121"/>
-      <c r="BB8" s="121"/>
-      <c r="BC8" s="122"/>
-      <c r="BD8" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE8" s="124"/>
-      <c r="BF8" s="125"/>
-      <c r="BG8" s="125"/>
-      <c r="BH8" s="125"/>
-      <c r="BI8" s="125"/>
-      <c r="BJ8" s="125"/>
-      <c r="BK8" s="126"/>
-      <c r="BL8" s="130"/>
-      <c r="BM8" s="131"/>
-      <c r="BN8" s="131"/>
-      <c r="BO8" s="132"/>
-      <c r="BP8" s="85"/>
-      <c r="BQ8" s="35"/>
-      <c r="BR8" s="34"/>
-      <c r="BS8" s="35"/>
-      <c r="BT8" s="85"/>
-      <c r="BU8" s="35"/>
-      <c r="BV8" s="34"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="85"/>
-      <c r="BY8" s="34"/>
-      <c r="BZ8" s="48"/>
-      <c r="CA8" s="49"/>
-      <c r="CB8" s="13"/>
-      <c r="CC8" s="5"/>
-      <c r="CD8" s="27"/>
-    </row>
-    <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="273" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="274"/>
-      <c r="I9" s="275"/>
-      <c r="J9" s="282" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="283"/>
-      <c r="L9" s="283"/>
-      <c r="M9" s="283"/>
-      <c r="N9" s="283"/>
-      <c r="O9" s="284"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="68"/>
-      <c r="AK9" s="265"/>
-      <c r="AL9" s="265"/>
-      <c r="AM9" s="265"/>
-      <c r="AN9" s="265"/>
-      <c r="AO9" s="265"/>
-      <c r="AP9" s="265"/>
-      <c r="AQ9" s="265"/>
-      <c r="AR9" s="265"/>
-      <c r="AS9" s="265"/>
-      <c r="AT9" s="265"/>
-      <c r="AU9" s="265"/>
-      <c r="AV9" s="265"/>
-      <c r="AW9" s="265"/>
-      <c r="AX9" s="265"/>
-      <c r="AY9" s="265"/>
-      <c r="AZ9" s="265"/>
-      <c r="BA9" s="265"/>
-      <c r="BB9" s="265"/>
-      <c r="BC9" s="265"/>
-      <c r="BD9" s="265"/>
-      <c r="BE9" s="265"/>
-      <c r="BF9" s="265"/>
-      <c r="BG9" s="265"/>
-      <c r="BH9" s="265"/>
-      <c r="BI9" s="265"/>
-      <c r="BJ9" s="265"/>
-      <c r="BK9" s="265"/>
-      <c r="BL9" s="265"/>
-      <c r="BM9" s="265"/>
-      <c r="BN9" s="265"/>
-      <c r="BO9" s="265"/>
-      <c r="BP9" s="265"/>
-      <c r="BQ9" s="265"/>
-      <c r="BR9" s="265"/>
-      <c r="BS9" s="265"/>
-      <c r="BT9" s="265"/>
-      <c r="BU9" s="265"/>
-      <c r="BV9" s="265"/>
-      <c r="BW9" s="265"/>
-      <c r="BX9" s="265"/>
-      <c r="BY9" s="265"/>
-      <c r="BZ9" s="265"/>
-      <c r="CA9" s="265"/>
-      <c r="CB9" s="265"/>
-      <c r="CC9" s="265"/>
-      <c r="CD9" s="266"/>
-    </row>
-    <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="285"/>
-      <c r="K10" s="286"/>
-      <c r="L10" s="286"/>
-      <c r="M10" s="286"/>
-      <c r="N10" s="286"/>
-      <c r="O10" s="287"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="149"/>
-      <c r="AI10" s="149"/>
-      <c r="AJ10" s="149"/>
-      <c r="AK10" s="149"/>
-      <c r="AL10" s="149"/>
-      <c r="AM10" s="149"/>
-      <c r="AN10" s="149"/>
-      <c r="AO10" s="149"/>
-      <c r="AP10" s="149"/>
-      <c r="AQ10" s="149"/>
-      <c r="AR10" s="149"/>
-      <c r="AS10" s="149"/>
-      <c r="AT10" s="149"/>
-      <c r="AU10" s="149"/>
-      <c r="AV10" s="149"/>
-      <c r="AW10" s="149"/>
-      <c r="AX10" s="149"/>
-      <c r="AY10" s="149"/>
-      <c r="AZ10" s="149"/>
-      <c r="BA10" s="149"/>
-      <c r="BB10" s="149"/>
-      <c r="BC10" s="149"/>
-      <c r="BD10" s="149"/>
-      <c r="BE10" s="149"/>
-      <c r="BF10" s="149"/>
-      <c r="BG10" s="149"/>
-      <c r="BH10" s="149"/>
-      <c r="BI10" s="149"/>
-      <c r="BJ10" s="149"/>
-      <c r="BK10" s="149"/>
-      <c r="BL10" s="149"/>
-      <c r="BM10" s="149"/>
-      <c r="BN10" s="149"/>
-      <c r="BO10" s="149"/>
-      <c r="BP10" s="149"/>
-      <c r="BQ10" s="149"/>
-      <c r="BR10" s="149"/>
-      <c r="BS10" s="149"/>
-      <c r="BT10" s="149"/>
-      <c r="BU10" s="149"/>
-      <c r="BV10" s="149"/>
-      <c r="BW10" s="149"/>
-      <c r="BX10" s="149"/>
-      <c r="BY10" s="149"/>
-      <c r="BZ10" s="149"/>
-      <c r="CA10" s="149"/>
-      <c r="CB10" s="149"/>
-      <c r="CC10" s="149"/>
-      <c r="CD10" s="150"/>
-    </row>
-    <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="279"/>
-      <c r="H11" s="280"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="289"/>
-      <c r="L11" s="289"/>
-      <c r="M11" s="289"/>
-      <c r="N11" s="289"/>
-      <c r="O11" s="290"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="151"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="152"/>
-      <c r="AJ11" s="152"/>
-      <c r="AK11" s="152"/>
-      <c r="AL11" s="152"/>
-      <c r="AM11" s="152"/>
-      <c r="AN11" s="152"/>
-      <c r="AO11" s="152"/>
-      <c r="AP11" s="152"/>
-      <c r="AQ11" s="152"/>
-      <c r="AR11" s="152"/>
-      <c r="AS11" s="152"/>
-      <c r="AT11" s="152"/>
-      <c r="AU11" s="152"/>
-      <c r="AV11" s="152"/>
-      <c r="AW11" s="152"/>
-      <c r="AX11" s="152"/>
-      <c r="AY11" s="152"/>
-      <c r="AZ11" s="152"/>
-      <c r="BA11" s="152"/>
-      <c r="BB11" s="152"/>
-      <c r="BC11" s="152"/>
-      <c r="BD11" s="152"/>
-      <c r="BE11" s="152"/>
-      <c r="BF11" s="152"/>
-      <c r="BG11" s="152"/>
-      <c r="BH11" s="152"/>
-      <c r="BI11" s="152"/>
-      <c r="BJ11" s="152"/>
-      <c r="BK11" s="152"/>
-      <c r="BL11" s="152"/>
-      <c r="BM11" s="152"/>
-      <c r="BN11" s="152"/>
-      <c r="BO11" s="152"/>
-      <c r="BP11" s="152"/>
-      <c r="BQ11" s="152"/>
-      <c r="BR11" s="152"/>
-      <c r="BS11" s="152"/>
-      <c r="BT11" s="152"/>
-      <c r="BU11" s="152"/>
-      <c r="BV11" s="152"/>
-      <c r="BW11" s="152"/>
-      <c r="BX11" s="152"/>
-      <c r="BY11" s="152"/>
-      <c r="BZ11" s="152"/>
-      <c r="CA11" s="152"/>
-      <c r="CB11" s="152"/>
-      <c r="CC11" s="152"/>
-      <c r="CD11" s="153"/>
-    </row>
-    <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="208" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="209"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="282" t="s">
+    <row r="21" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="232"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="230"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="231"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="231"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="232"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="230"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="231"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="231"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="232"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="298" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="283"/>
-      <c r="L12" s="283"/>
-      <c r="M12" s="283"/>
-      <c r="N12" s="283"/>
-      <c r="O12" s="284"/>
-      <c r="P12" s="291"/>
-      <c r="Q12" s="292"/>
-      <c r="R12" s="292"/>
-      <c r="S12" s="292"/>
-      <c r="T12" s="292"/>
-      <c r="U12" s="292"/>
-      <c r="V12" s="292"/>
-      <c r="W12" s="292"/>
-      <c r="X12" s="292"/>
-      <c r="Y12" s="292"/>
-      <c r="Z12" s="292"/>
-      <c r="AA12" s="292"/>
-      <c r="AB12" s="292"/>
-      <c r="AC12" s="292"/>
-      <c r="AD12" s="292"/>
-      <c r="AE12" s="292"/>
-      <c r="AF12" s="292"/>
-      <c r="AG12" s="292"/>
-      <c r="AH12" s="292"/>
-      <c r="AI12" s="292"/>
-      <c r="AJ12" s="292"/>
-      <c r="AK12" s="292"/>
-      <c r="AL12" s="292"/>
-      <c r="AM12" s="292"/>
-      <c r="AN12" s="292"/>
-      <c r="AO12" s="292"/>
-      <c r="AP12" s="292"/>
-      <c r="AQ12" s="292"/>
-      <c r="AR12" s="292"/>
-      <c r="AS12" s="292"/>
-      <c r="AT12" s="292"/>
-      <c r="AU12" s="292"/>
-      <c r="AV12" s="292"/>
-      <c r="AW12" s="292"/>
-      <c r="AX12" s="292"/>
-      <c r="AY12" s="292"/>
-      <c r="AZ12" s="292"/>
-      <c r="BA12" s="292"/>
-      <c r="BB12" s="292"/>
-      <c r="BC12" s="292"/>
-      <c r="BD12" s="292"/>
-      <c r="BE12" s="292"/>
-      <c r="BF12" s="292"/>
-      <c r="BG12" s="292"/>
-      <c r="BH12" s="292"/>
-      <c r="BI12" s="292"/>
-      <c r="BJ12" s="292"/>
-      <c r="BK12" s="292"/>
-      <c r="BL12" s="292"/>
-      <c r="BM12" s="292"/>
-      <c r="BN12" s="292"/>
-      <c r="BO12" s="292"/>
-      <c r="BP12" s="292"/>
-      <c r="BQ12" s="292"/>
-      <c r="BR12" s="292"/>
-      <c r="BS12" s="292"/>
-      <c r="BT12" s="292"/>
-      <c r="BU12" s="292"/>
-      <c r="BV12" s="292"/>
-      <c r="BW12" s="292"/>
-      <c r="BX12" s="292"/>
-      <c r="BY12" s="292"/>
-      <c r="BZ12" s="292"/>
-      <c r="CA12" s="292"/>
-      <c r="CB12" s="292"/>
-      <c r="CC12" s="292"/>
-      <c r="CD12" s="293"/>
+      <c r="AF21" s="299"/>
+      <c r="AG21" s="299"/>
+      <c r="AH21" s="300"/>
+      <c r="AI21" s="233"/>
+      <c r="AJ21" s="234"/>
+      <c r="AK21" s="235"/>
+      <c r="AL21" s="236"/>
+      <c r="AM21" s="237"/>
+      <c r="AN21" s="234"/>
+      <c r="AO21" s="235"/>
+      <c r="AP21" s="236"/>
+      <c r="AQ21" s="237"/>
+      <c r="AR21" s="234"/>
+      <c r="AS21" s="235"/>
+      <c r="AT21" s="236"/>
+      <c r="AU21" s="238"/>
+      <c r="AV21" s="239"/>
+      <c r="AW21" s="240" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX21" s="240"/>
+      <c r="AY21" s="241"/>
+      <c r="AZ21" s="242" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA21" s="243"/>
+      <c r="BB21" s="244"/>
+      <c r="BC21" s="244"/>
+      <c r="BD21" s="244"/>
+      <c r="BE21" s="244"/>
+      <c r="BF21" s="244"/>
+      <c r="BG21" s="244"/>
+      <c r="BH21" s="244"/>
+      <c r="BI21" s="242" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ21" s="243"/>
+      <c r="BK21" s="244"/>
+      <c r="BL21" s="244"/>
+      <c r="BM21" s="244"/>
+      <c r="BN21" s="244"/>
+      <c r="BO21" s="244"/>
+      <c r="BP21" s="244"/>
+      <c r="BQ21" s="245"/>
+      <c r="BR21" s="73"/>
+      <c r="BS21" s="246"/>
+      <c r="BT21" s="247"/>
+      <c r="BU21" s="247"/>
+      <c r="BV21" s="247"/>
+      <c r="BW21" s="247"/>
+      <c r="BX21" s="247"/>
+      <c r="BY21" s="247"/>
+      <c r="BZ21" s="247"/>
+      <c r="CA21" s="247"/>
+      <c r="CB21" s="247"/>
+      <c r="CC21" s="247"/>
+      <c r="CD21" s="248"/>
+      <c r="CE21" s="73"/>
+      <c r="CF21" s="73"/>
+      <c r="CV21" s="32"/>
+      <c r="CW21" s="32"/>
+      <c r="CX21" s="32"/>
     </row>
-    <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="289"/>
-      <c r="L13" s="289"/>
-      <c r="M13" s="289"/>
-      <c r="N13" s="289"/>
-      <c r="O13" s="290"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="152"/>
-      <c r="W13" s="152"/>
-      <c r="X13" s="152"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="152"/>
-      <c r="AE13" s="152"/>
-      <c r="AF13" s="152"/>
-      <c r="AG13" s="152"/>
-      <c r="AH13" s="152"/>
-      <c r="AI13" s="152"/>
-      <c r="AJ13" s="152"/>
-      <c r="AK13" s="152"/>
-      <c r="AL13" s="152"/>
-      <c r="AM13" s="152"/>
-      <c r="AN13" s="152"/>
-      <c r="AO13" s="152"/>
-      <c r="AP13" s="152"/>
-      <c r="AQ13" s="152"/>
-      <c r="AR13" s="152"/>
-      <c r="AS13" s="152"/>
-      <c r="AT13" s="152"/>
-      <c r="AU13" s="152"/>
-      <c r="AV13" s="152"/>
-      <c r="AW13" s="152"/>
-      <c r="AX13" s="152"/>
-      <c r="AY13" s="152"/>
-      <c r="AZ13" s="152"/>
-      <c r="BA13" s="152"/>
-      <c r="BB13" s="152"/>
-      <c r="BC13" s="152"/>
-      <c r="BD13" s="152"/>
-      <c r="BE13" s="152"/>
-      <c r="BF13" s="152"/>
-      <c r="BG13" s="152"/>
-      <c r="BH13" s="152"/>
-      <c r="BI13" s="152"/>
-      <c r="BJ13" s="152"/>
-      <c r="BK13" s="152"/>
-      <c r="BL13" s="152"/>
-      <c r="BM13" s="152"/>
-      <c r="BN13" s="152"/>
-      <c r="BO13" s="152"/>
-      <c r="BP13" s="152"/>
-      <c r="BQ13" s="152"/>
-      <c r="BR13" s="152"/>
-      <c r="BS13" s="152"/>
-      <c r="BT13" s="152"/>
-      <c r="BU13" s="152"/>
-      <c r="BV13" s="152"/>
-      <c r="BW13" s="152"/>
-      <c r="BX13" s="152"/>
-      <c r="BY13" s="152"/>
-      <c r="BZ13" s="152"/>
-      <c r="CA13" s="152"/>
-      <c r="CB13" s="152"/>
-      <c r="CC13" s="152"/>
-      <c r="CD13" s="153"/>
+    <row r="22" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="229"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="249"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="249"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="301"/>
+      <c r="AF22" s="302"/>
+      <c r="AG22" s="302"/>
+      <c r="AH22" s="303"/>
+      <c r="AI22" s="250"/>
+      <c r="AJ22" s="251"/>
+      <c r="AK22" s="103"/>
+      <c r="AL22" s="251"/>
+      <c r="AM22" s="252"/>
+      <c r="AN22" s="251"/>
+      <c r="AO22" s="103"/>
+      <c r="AP22" s="251"/>
+      <c r="AQ22" s="252"/>
+      <c r="AR22" s="251"/>
+      <c r="AS22" s="103"/>
+      <c r="AT22" s="251"/>
+      <c r="AU22" s="253"/>
+      <c r="AV22" s="254"/>
+      <c r="AW22" s="255"/>
+      <c r="AX22" s="255"/>
+      <c r="AY22" s="256"/>
+      <c r="AZ22" s="115"/>
+      <c r="BA22" s="116"/>
+      <c r="BB22" s="102"/>
+      <c r="BC22" s="102"/>
+      <c r="BD22" s="102"/>
+      <c r="BE22" s="102"/>
+      <c r="BF22" s="102"/>
+      <c r="BG22" s="102"/>
+      <c r="BH22" s="102"/>
+      <c r="BI22" s="115"/>
+      <c r="BJ22" s="116"/>
+      <c r="BK22" s="102"/>
+      <c r="BL22" s="102"/>
+      <c r="BM22" s="102"/>
+      <c r="BN22" s="102"/>
+      <c r="BO22" s="102"/>
+      <c r="BP22" s="102"/>
+      <c r="BQ22" s="114"/>
+      <c r="BR22" s="73"/>
+      <c r="BS22" s="73"/>
+      <c r="BT22" s="73"/>
+      <c r="BU22" s="73"/>
+      <c r="BV22" s="73"/>
+      <c r="BW22" s="73"/>
+      <c r="BX22" s="73"/>
+      <c r="BY22" s="73"/>
+      <c r="BZ22" s="73"/>
+      <c r="CA22" s="73"/>
+      <c r="CB22" s="73"/>
+      <c r="CC22" s="73"/>
+      <c r="CD22" s="73"/>
+      <c r="CE22" s="73"/>
+      <c r="CF22" s="73"/>
+      <c r="CV22" s="32"/>
+      <c r="CW22" s="32"/>
+      <c r="CX22" s="32"/>
     </row>
-    <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="267" t="s">
-        <v>45</v>
+    <row r="23" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="62" t="s">
+        <v>28</v>
       </c>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="172" t="s">
-        <v>44</v>
+      <c r="H23" s="123"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="70" t="s">
+        <v>27</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="192"/>
-      <c r="R14" s="193"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="190"/>
-      <c r="U14" s="192"/>
-      <c r="V14" s="193"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="192"/>
-      <c r="Z14" s="193"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="200"/>
-      <c r="AD14" s="201"/>
-      <c r="AE14" s="202"/>
-      <c r="AF14" s="162" t="s">
-        <v>43</v>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="70" t="s">
+        <v>26</v>
       </c>
-      <c r="AG14" s="163"/>
-      <c r="AH14" s="163"/>
-      <c r="AI14" s="163"/>
-      <c r="AJ14" s="176" t="s">
-        <v>66</v>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="71"/>
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="71"/>
+      <c r="AT23" s="71"/>
+      <c r="AU23" s="71"/>
+      <c r="AV23" s="71"/>
+      <c r="AW23" s="71"/>
+      <c r="AX23" s="71"/>
+      <c r="AY23" s="71"/>
+      <c r="AZ23" s="71"/>
+      <c r="BA23" s="71"/>
+      <c r="BB23" s="71"/>
+      <c r="BC23" s="71"/>
+      <c r="BD23" s="71"/>
+      <c r="BE23" s="71"/>
+      <c r="BF23" s="71"/>
+      <c r="BG23" s="71"/>
+      <c r="BH23" s="71"/>
+      <c r="BI23" s="71"/>
+      <c r="BJ23" s="71"/>
+      <c r="BK23" s="71"/>
+      <c r="BL23" s="71"/>
+      <c r="BM23" s="71"/>
+      <c r="BN23" s="71"/>
+      <c r="BO23" s="71"/>
+      <c r="BP23" s="72"/>
+      <c r="BQ23" s="70" t="s">
+        <v>25</v>
       </c>
-      <c r="AK14" s="177"/>
-      <c r="AL14" s="177"/>
-      <c r="AM14" s="177"/>
-      <c r="AN14" s="177"/>
-      <c r="AO14" s="177"/>
-      <c r="AP14" s="177"/>
-      <c r="AQ14" s="177"/>
-      <c r="AR14" s="177"/>
-      <c r="AS14" s="177"/>
-      <c r="AT14" s="177"/>
-      <c r="AU14" s="177"/>
-      <c r="AV14" s="177"/>
-      <c r="AW14" s="177"/>
-      <c r="AX14" s="177"/>
-      <c r="AY14" s="177"/>
-      <c r="AZ14" s="177"/>
-      <c r="BA14" s="177"/>
-      <c r="BB14" s="177"/>
-      <c r="BC14" s="177"/>
-      <c r="BD14" s="177"/>
-      <c r="BE14" s="177"/>
-      <c r="BF14" s="177"/>
-      <c r="BG14" s="177"/>
-      <c r="BH14" s="177"/>
-      <c r="BI14" s="177"/>
-      <c r="BJ14" s="177"/>
-      <c r="BK14" s="177"/>
-      <c r="BL14" s="177"/>
-      <c r="BM14" s="177"/>
-      <c r="BN14" s="177"/>
-      <c r="BO14" s="178"/>
-      <c r="BP14"/>
-      <c r="BQ14"/>
-      <c r="BR14"/>
-      <c r="BS14"/>
-      <c r="BT14"/>
-      <c r="BU14"/>
-      <c r="BV14"/>
-      <c r="BW14"/>
-      <c r="BX14"/>
-      <c r="BY14"/>
-      <c r="BZ14"/>
-      <c r="CA14"/>
-      <c r="CB14"/>
-      <c r="CC14"/>
+      <c r="BR23" s="71"/>
+      <c r="BS23" s="71"/>
+      <c r="BT23" s="71"/>
+      <c r="BU23" s="71"/>
+      <c r="BV23" s="71"/>
+      <c r="BW23" s="71"/>
+      <c r="BX23" s="71"/>
+      <c r="BY23" s="71"/>
+      <c r="BZ23" s="71"/>
+      <c r="CA23" s="71"/>
+      <c r="CB23" s="71"/>
+      <c r="CC23" s="71"/>
+      <c r="CD23" s="72"/>
+      <c r="CE23" s="257"/>
+      <c r="CF23" s="257"/>
+      <c r="CG23" s="4"/>
+      <c r="CV23" s="32"/>
+      <c r="CW23" s="32"/>
+      <c r="CX23" s="32"/>
     </row>
-    <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="271"/>
-      <c r="I15" s="271"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="271"/>
-      <c r="L15" s="272"/>
-      <c r="M15" s="174"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="194"/>
-      <c r="R15" s="195"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="191"/>
-      <c r="U15" s="194"/>
-      <c r="V15" s="195"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="194"/>
-      <c r="Z15" s="195"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="203"/>
-      <c r="AD15" s="204"/>
-      <c r="AE15" s="205"/>
-      <c r="AF15" s="164"/>
-      <c r="AG15" s="165"/>
-      <c r="AH15" s="165"/>
-      <c r="AI15" s="165"/>
-      <c r="AJ15" s="179"/>
-      <c r="AK15" s="180"/>
-      <c r="AL15" s="180"/>
-      <c r="AM15" s="180"/>
-      <c r="AN15" s="180"/>
-      <c r="AO15" s="180"/>
-      <c r="AP15" s="180"/>
-      <c r="AQ15" s="180"/>
-      <c r="AR15" s="180"/>
-      <c r="AS15" s="180"/>
-      <c r="AT15" s="180"/>
-      <c r="AU15" s="180"/>
-      <c r="AV15" s="180"/>
-      <c r="AW15" s="180"/>
-      <c r="AX15" s="180"/>
-      <c r="AY15" s="180"/>
-      <c r="AZ15" s="180"/>
-      <c r="BA15" s="180"/>
-      <c r="BB15" s="180"/>
-      <c r="BC15" s="180"/>
-      <c r="BD15" s="180"/>
-      <c r="BE15" s="180"/>
-      <c r="BF15" s="180"/>
-      <c r="BG15" s="180"/>
-      <c r="BH15" s="180"/>
-      <c r="BI15" s="180"/>
-      <c r="BJ15" s="180"/>
-      <c r="BK15" s="180"/>
-      <c r="BL15" s="180"/>
-      <c r="BM15" s="180"/>
-      <c r="BN15" s="180"/>
-      <c r="BO15" s="181"/>
-      <c r="BP15"/>
-      <c r="BQ15"/>
-      <c r="BS15" s="69" t="s">
-        <v>42</v>
+    <row r="24" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="258"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="168"/>
+      <c r="P24" s="169"/>
+      <c r="Q24" s="168"/>
+      <c r="R24" s="169"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="169"/>
+      <c r="U24" s="168"/>
+      <c r="V24" s="169"/>
+      <c r="W24" s="171"/>
+      <c r="X24" s="259" t="s">
+        <v>67</v>
       </c>
-      <c r="BT15" s="70"/>
-      <c r="BU15" s="70"/>
-      <c r="BV15" s="70"/>
-      <c r="BW15" s="70"/>
-      <c r="BX15" s="70"/>
-      <c r="BY15" s="70"/>
-      <c r="BZ15" s="70"/>
-      <c r="CA15" s="70"/>
-      <c r="CB15" s="70"/>
-      <c r="CC15" s="70"/>
-      <c r="CD15" s="71"/>
-    </row>
-    <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16"/>
-      <c r="AL16"/>
-      <c r="AM16"/>
-      <c r="AN16"/>
-      <c r="AO16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP16"/>
-      <c r="AQ16"/>
-      <c r="AR16"/>
-      <c r="AS16"/>
-      <c r="AT16"/>
-      <c r="AU16"/>
-      <c r="AV16"/>
-      <c r="AW16"/>
-      <c r="AX16"/>
-      <c r="AY16"/>
-      <c r="AZ16"/>
-      <c r="BA16"/>
-      <c r="BB16"/>
-      <c r="BC16"/>
-      <c r="BD16"/>
-      <c r="BE16"/>
-      <c r="BF16"/>
-      <c r="BG16"/>
-      <c r="BH16"/>
-      <c r="BI16"/>
-      <c r="BJ16"/>
-      <c r="BK16"/>
-      <c r="BL16"/>
-      <c r="BM16"/>
-      <c r="BN16"/>
-      <c r="BO16"/>
-      <c r="BP16"/>
-      <c r="BQ16"/>
-      <c r="BS16" s="69"/>
-      <c r="BT16" s="70"/>
-      <c r="BU16" s="70"/>
-      <c r="BV16" s="70"/>
-      <c r="BW16" s="70"/>
-      <c r="BX16" s="70"/>
-      <c r="BY16" s="70"/>
-      <c r="BZ16" s="70"/>
-      <c r="CA16" s="70"/>
-      <c r="CB16" s="70"/>
-      <c r="CC16" s="70"/>
-      <c r="CD16" s="71"/>
-    </row>
-    <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS17" s="72"/>
-      <c r="BT17" s="73"/>
-      <c r="BU17" s="73"/>
-      <c r="BV17" s="73"/>
-      <c r="BW17" s="73"/>
-      <c r="BX17" s="73"/>
-      <c r="BY17" s="73"/>
-      <c r="BZ17" s="73"/>
-      <c r="CA17" s="73"/>
-      <c r="CB17" s="73"/>
-      <c r="CC17" s="73"/>
-      <c r="CD17" s="74"/>
-    </row>
-    <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="H18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AL18"/>
-      <c r="AM18"/>
-      <c r="AN18"/>
-      <c r="AO18"/>
-      <c r="AP18"/>
-      <c r="AQ18"/>
-      <c r="AR18"/>
-      <c r="AS18"/>
-      <c r="AT18"/>
-      <c r="AU18"/>
-      <c r="AV18"/>
-      <c r="AW18"/>
-      <c r="AX18"/>
-      <c r="AY18"/>
-      <c r="AZ18"/>
-      <c r="BA18"/>
-      <c r="BB18"/>
-      <c r="BC18"/>
-      <c r="BD18"/>
-      <c r="BE18"/>
-      <c r="BF18"/>
-      <c r="BG18"/>
-      <c r="BS18" s="72"/>
-      <c r="BT18" s="73"/>
-      <c r="BU18" s="73"/>
-      <c r="BV18" s="73"/>
-      <c r="BW18" s="73"/>
-      <c r="BX18" s="73"/>
-      <c r="BY18" s="73"/>
-      <c r="BZ18" s="73"/>
-      <c r="CA18" s="73"/>
-      <c r="CB18" s="73"/>
-      <c r="CC18" s="73"/>
-      <c r="CD18" s="74"/>
-    </row>
-    <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19"/>
-      <c r="AL19"/>
-      <c r="AM19"/>
-      <c r="AN19"/>
-      <c r="AO19"/>
-      <c r="AP19"/>
-      <c r="AQ19"/>
-      <c r="AR19"/>
-      <c r="AS19"/>
-      <c r="AT19"/>
-      <c r="AU19"/>
-      <c r="AV19" s="19"/>
-      <c r="AW19"/>
-      <c r="AX19"/>
-      <c r="AY19"/>
-      <c r="AZ19"/>
-      <c r="BA19"/>
-      <c r="BB19"/>
-      <c r="BC19"/>
-      <c r="BD19"/>
-      <c r="BE19"/>
-      <c r="BF19"/>
-      <c r="BG19"/>
-      <c r="BS19" s="72"/>
-      <c r="BT19" s="73"/>
-      <c r="BU19" s="73"/>
-      <c r="BV19" s="73"/>
-      <c r="BW19" s="73"/>
-      <c r="BX19" s="73"/>
-      <c r="BY19" s="73"/>
-      <c r="BZ19" s="73"/>
-      <c r="CA19" s="73"/>
-      <c r="CB19" s="73"/>
-      <c r="CC19" s="73"/>
-      <c r="CD19" s="74"/>
-    </row>
-    <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="137"/>
-      <c r="G20" s="161" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="142"/>
-      <c r="Z20" s="142"/>
-      <c r="AA20" s="142"/>
-      <c r="AB20" s="142"/>
-      <c r="AC20" s="142"/>
-      <c r="AD20" s="143"/>
-      <c r="AE20" s="161" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF20" s="142"/>
-      <c r="AG20" s="142"/>
-      <c r="AH20" s="142"/>
-      <c r="AI20" s="142"/>
-      <c r="AJ20" s="142"/>
-      <c r="AK20" s="142"/>
-      <c r="AL20" s="142"/>
-      <c r="AM20" s="142"/>
-      <c r="AN20" s="142"/>
-      <c r="AO20" s="142"/>
-      <c r="AP20" s="142"/>
-      <c r="AQ20" s="142"/>
-      <c r="AR20" s="142"/>
-      <c r="AS20" s="142"/>
-      <c r="AT20" s="143"/>
-      <c r="AU20" s="166"/>
-      <c r="AV20" s="167"/>
-      <c r="AW20" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX20" s="91"/>
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="17" t="s">
+      <c r="Y24" s="260"/>
+      <c r="Z24" s="260"/>
+      <c r="AA24" s="260"/>
+      <c r="AB24" s="260"/>
+      <c r="AC24" s="260"/>
+      <c r="AD24" s="260"/>
+      <c r="AE24" s="260"/>
+      <c r="AF24" s="260"/>
+      <c r="AG24" s="261"/>
+      <c r="AH24" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="16"/>
-      <c r="BC20" s="188"/>
-      <c r="BD20" s="188"/>
-      <c r="BE20" s="188"/>
-      <c r="BF20" s="188"/>
-      <c r="BG20" s="188"/>
-      <c r="BH20" s="188"/>
-      <c r="BI20" s="262"/>
-      <c r="BJ20" s="263"/>
-      <c r="BK20" s="263"/>
-      <c r="BL20" s="263"/>
-      <c r="BM20" s="263"/>
-      <c r="BN20" s="263"/>
-      <c r="BO20" s="263"/>
-      <c r="BP20" s="263"/>
-      <c r="BQ20" s="264"/>
-      <c r="BS20" s="72"/>
-      <c r="BT20" s="73"/>
-      <c r="BU20" s="73"/>
-      <c r="BV20" s="73"/>
-      <c r="BW20" s="73"/>
-      <c r="BX20" s="73"/>
-      <c r="BY20" s="73"/>
-      <c r="BZ20" s="73"/>
-      <c r="CA20" s="73"/>
-      <c r="CB20" s="73"/>
-      <c r="CC20" s="73"/>
-      <c r="CD20" s="74"/>
-    </row>
-    <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="196"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="198"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="196"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="198"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="198"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="105"/>
-      <c r="AJ21" s="106"/>
-      <c r="AK21" s="109"/>
-      <c r="AL21" s="110"/>
-      <c r="AM21" s="182"/>
-      <c r="AN21" s="106"/>
-      <c r="AO21" s="109"/>
-      <c r="AP21" s="110"/>
-      <c r="AQ21" s="182"/>
-      <c r="AR21" s="106"/>
-      <c r="AS21" s="109"/>
-      <c r="AT21" s="110"/>
-      <c r="AU21" s="168"/>
-      <c r="AV21" s="169"/>
-      <c r="AW21" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX21" s="94"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="88"/>
-      <c r="BC21" s="88"/>
-      <c r="BD21" s="88"/>
-      <c r="BE21" s="88"/>
-      <c r="BF21" s="88"/>
-      <c r="BG21" s="88"/>
-      <c r="BH21" s="88"/>
-      <c r="BI21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="BJ21" s="14"/>
-      <c r="BK21" s="88"/>
-      <c r="BL21" s="88"/>
-      <c r="BM21" s="88"/>
-      <c r="BN21" s="88"/>
-      <c r="BO21" s="88"/>
-      <c r="BP21" s="88"/>
-      <c r="BQ21" s="89"/>
-      <c r="BS21" s="75"/>
-      <c r="BT21" s="76"/>
-      <c r="BU21" s="76"/>
-      <c r="BV21" s="76"/>
-      <c r="BW21" s="76"/>
-      <c r="BX21" s="76"/>
-      <c r="BY21" s="76"/>
-      <c r="BZ21" s="76"/>
-      <c r="CA21" s="76"/>
-      <c r="CB21" s="76"/>
-      <c r="CC21" s="76"/>
-      <c r="CD21" s="77"/>
-      <c r="CV21" s="185"/>
-      <c r="CW21" s="185"/>
-      <c r="CX21" s="185"/>
-    </row>
-    <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="197"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="197"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="130"/>
-      <c r="AF22" s="131"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="107"/>
-      <c r="AJ22" s="108"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="108"/>
-      <c r="AM22" s="183"/>
-      <c r="AN22" s="108"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="108"/>
-      <c r="AQ22" s="183"/>
-      <c r="AR22" s="108"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="108"/>
-      <c r="AU22" s="170"/>
-      <c r="AV22" s="171"/>
-      <c r="AW22" s="96"/>
-      <c r="AX22" s="96"/>
-      <c r="AY22" s="97"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="34"/>
-      <c r="BC22" s="34"/>
-      <c r="BD22" s="34"/>
-      <c r="BE22" s="34"/>
-      <c r="BF22" s="34"/>
-      <c r="BG22" s="34"/>
-      <c r="BH22" s="34"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="5"/>
-      <c r="BK22" s="34"/>
-      <c r="BL22" s="34"/>
-      <c r="BM22" s="34"/>
-      <c r="BN22" s="34"/>
-      <c r="BO22" s="34"/>
-      <c r="BP22" s="34"/>
-      <c r="BQ22" s="49"/>
-      <c r="CV22" s="185"/>
-      <c r="CW22" s="185"/>
-      <c r="CX22" s="185"/>
-    </row>
-    <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
-      <c r="BA23" s="41"/>
-      <c r="BB23" s="41"/>
-      <c r="BC23" s="41"/>
-      <c r="BD23" s="41"/>
-      <c r="BE23" s="41"/>
-      <c r="BF23" s="41"/>
-      <c r="BG23" s="41"/>
-      <c r="BH23" s="41"/>
-      <c r="BI23" s="41"/>
-      <c r="BJ23" s="41"/>
-      <c r="BK23" s="41"/>
-      <c r="BL23" s="41"/>
-      <c r="BM23" s="41"/>
-      <c r="BN23" s="41"/>
-      <c r="BO23" s="41"/>
-      <c r="BP23" s="42"/>
-      <c r="BQ23" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="BR23" s="41"/>
-      <c r="BS23" s="41"/>
-      <c r="BT23" s="41"/>
-      <c r="BU23" s="41"/>
-      <c r="BV23" s="41"/>
-      <c r="BW23" s="41"/>
-      <c r="BX23" s="41"/>
-      <c r="BY23" s="41"/>
-      <c r="BZ23" s="41"/>
-      <c r="CA23" s="41"/>
-      <c r="CB23" s="41"/>
-      <c r="CC23" s="41"/>
-      <c r="CD23" s="42"/>
-      <c r="CE23" s="114"/>
-      <c r="CF23" s="114"/>
-      <c r="CG23" s="4"/>
-      <c r="CV23" s="185"/>
-      <c r="CW23" s="185"/>
-      <c r="CX23" s="185"/>
-    </row>
-    <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="193"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="193"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="193"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="193"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="193"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="193"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y24" s="134"/>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="134"/>
-      <c r="AD24" s="134"/>
-      <c r="AE24" s="134"/>
-      <c r="AF24" s="134"/>
-      <c r="AG24" s="135"/>
-      <c r="AH24" s="234" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI24" s="234"/>
-      <c r="AJ24" s="234"/>
-      <c r="AK24" s="234"/>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="92"/>
-      <c r="AN24" s="92"/>
-      <c r="AO24" s="92"/>
-      <c r="AP24" s="92"/>
-      <c r="AQ24" s="92"/>
-      <c r="AR24" s="92"/>
-      <c r="AS24" s="92"/>
-      <c r="AT24" s="92"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="92"/>
-      <c r="AW24" s="92"/>
-      <c r="AX24" s="92"/>
-      <c r="AY24" s="92"/>
-      <c r="AZ24" s="92"/>
-      <c r="BA24" s="92"/>
-      <c r="BB24" s="92"/>
-      <c r="BC24" s="92"/>
-      <c r="BD24" s="92"/>
-      <c r="BE24" s="92"/>
-      <c r="BF24" s="92"/>
-      <c r="BG24" s="92"/>
-      <c r="BH24" s="92"/>
-      <c r="BI24" s="92"/>
-      <c r="BJ24" s="92"/>
-      <c r="BK24" s="92"/>
-      <c r="BL24" s="92"/>
-      <c r="BM24" s="92"/>
-      <c r="BN24" s="92"/>
-      <c r="BO24" s="92"/>
-      <c r="BP24" s="93"/>
-      <c r="BQ24" s="98" t="s">
+      <c r="AI24" s="262"/>
+      <c r="AJ24" s="262"/>
+      <c r="AK24" s="262"/>
+      <c r="AL24" s="263"/>
+      <c r="AM24" s="263"/>
+      <c r="AN24" s="263"/>
+      <c r="AO24" s="263"/>
+      <c r="AP24" s="263"/>
+      <c r="AQ24" s="263"/>
+      <c r="AR24" s="263"/>
+      <c r="AS24" s="263"/>
+      <c r="AT24" s="263"/>
+      <c r="AU24" s="263"/>
+      <c r="AV24" s="263"/>
+      <c r="AW24" s="263"/>
+      <c r="AX24" s="263"/>
+      <c r="AY24" s="263"/>
+      <c r="AZ24" s="263"/>
+      <c r="BA24" s="263"/>
+      <c r="BB24" s="263"/>
+      <c r="BC24" s="263"/>
+      <c r="BD24" s="263"/>
+      <c r="BE24" s="263"/>
+      <c r="BF24" s="263"/>
+      <c r="BG24" s="263"/>
+      <c r="BH24" s="263"/>
+      <c r="BI24" s="263"/>
+      <c r="BJ24" s="263"/>
+      <c r="BK24" s="263"/>
+      <c r="BL24" s="263"/>
+      <c r="BM24" s="263"/>
+      <c r="BN24" s="263"/>
+      <c r="BO24" s="263"/>
+      <c r="BP24" s="264"/>
+      <c r="BQ24" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="BR24" s="99"/>
-      <c r="BS24" s="117"/>
-      <c r="BT24" s="37"/>
-      <c r="BU24" s="50"/>
-      <c r="BV24" s="47"/>
-      <c r="BW24" s="117"/>
-      <c r="BX24" s="37"/>
-      <c r="BY24" s="50"/>
-      <c r="BZ24" s="47"/>
-      <c r="CA24" s="117"/>
-      <c r="CB24" s="37"/>
-      <c r="CC24" s="50"/>
-      <c r="CD24" s="47"/>
-      <c r="CE24" s="114"/>
-      <c r="CF24" s="114"/>
+      <c r="BR24" s="266"/>
+      <c r="BS24" s="258"/>
+      <c r="BT24" s="83"/>
+      <c r="BU24" s="169"/>
+      <c r="BV24" s="95"/>
+      <c r="BW24" s="258"/>
+      <c r="BX24" s="83"/>
+      <c r="BY24" s="169"/>
+      <c r="BZ24" s="95"/>
+      <c r="CA24" s="258"/>
+      <c r="CB24" s="83"/>
+      <c r="CC24" s="169"/>
+      <c r="CD24" s="95"/>
+      <c r="CE24" s="257"/>
+      <c r="CF24" s="257"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="199"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="199"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="193"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="193"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="193"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="193"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="206"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="88"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="88"/>
-      <c r="AM25" s="88"/>
-      <c r="AN25" s="88"/>
-      <c r="AO25" s="88"/>
-      <c r="AP25" s="88"/>
-      <c r="AQ25" s="88"/>
-      <c r="AR25" s="88"/>
-      <c r="AS25" s="88"/>
-      <c r="AT25" s="88"/>
-      <c r="AU25" s="88"/>
-      <c r="AV25" s="88"/>
-      <c r="AW25" s="88"/>
-      <c r="AX25" s="88"/>
-      <c r="AY25" s="88"/>
-      <c r="AZ25" s="88"/>
-      <c r="BA25" s="88"/>
-      <c r="BB25" s="88"/>
-      <c r="BC25" s="88"/>
-      <c r="BD25" s="88"/>
-      <c r="BE25" s="88"/>
-      <c r="BF25" s="88"/>
-      <c r="BG25" s="88"/>
-      <c r="BH25" s="88"/>
-      <c r="BI25" s="88"/>
-      <c r="BJ25" s="88"/>
-      <c r="BK25" s="88"/>
-      <c r="BL25" s="88"/>
-      <c r="BM25" s="88"/>
-      <c r="BN25" s="88"/>
-      <c r="BO25" s="88"/>
-      <c r="BP25" s="89"/>
-      <c r="BQ25" s="100"/>
-      <c r="BR25" s="101"/>
-      <c r="BS25" s="118"/>
-      <c r="BT25" s="33"/>
-      <c r="BU25" s="115"/>
-      <c r="BV25" s="116"/>
-      <c r="BW25" s="118"/>
-      <c r="BX25" s="33"/>
-      <c r="BY25" s="115"/>
-      <c r="BZ25" s="116"/>
-      <c r="CA25" s="118"/>
-      <c r="CB25" s="33"/>
-      <c r="CC25" s="115"/>
-      <c r="CD25" s="116"/>
-      <c r="CE25" s="114"/>
-      <c r="CF25" s="114"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="267"/>
+      <c r="K25" s="268"/>
+      <c r="L25" s="269"/>
+      <c r="M25" s="268"/>
+      <c r="N25" s="269"/>
+      <c r="O25" s="268"/>
+      <c r="P25" s="269"/>
+      <c r="Q25" s="268"/>
+      <c r="R25" s="269"/>
+      <c r="S25" s="268"/>
+      <c r="T25" s="269"/>
+      <c r="U25" s="268"/>
+      <c r="V25" s="269"/>
+      <c r="W25" s="270"/>
+      <c r="X25" s="258"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="169"/>
+      <c r="AA25" s="168"/>
+      <c r="AB25" s="169"/>
+      <c r="AC25" s="168"/>
+      <c r="AD25" s="169"/>
+      <c r="AE25" s="168"/>
+      <c r="AF25" s="169"/>
+      <c r="AG25" s="171"/>
+      <c r="AH25" s="271"/>
+      <c r="AI25" s="244"/>
+      <c r="AJ25" s="244"/>
+      <c r="AK25" s="244"/>
+      <c r="AL25" s="244"/>
+      <c r="AM25" s="244"/>
+      <c r="AN25" s="244"/>
+      <c r="AO25" s="244"/>
+      <c r="AP25" s="244"/>
+      <c r="AQ25" s="244"/>
+      <c r="AR25" s="244"/>
+      <c r="AS25" s="244"/>
+      <c r="AT25" s="244"/>
+      <c r="AU25" s="244"/>
+      <c r="AV25" s="244"/>
+      <c r="AW25" s="244"/>
+      <c r="AX25" s="244"/>
+      <c r="AY25" s="244"/>
+      <c r="AZ25" s="244"/>
+      <c r="BA25" s="244"/>
+      <c r="BB25" s="244"/>
+      <c r="BC25" s="244"/>
+      <c r="BD25" s="244"/>
+      <c r="BE25" s="244"/>
+      <c r="BF25" s="244"/>
+      <c r="BG25" s="244"/>
+      <c r="BH25" s="244"/>
+      <c r="BI25" s="244"/>
+      <c r="BJ25" s="244"/>
+      <c r="BK25" s="244"/>
+      <c r="BL25" s="244"/>
+      <c r="BM25" s="244"/>
+      <c r="BN25" s="244"/>
+      <c r="BO25" s="244"/>
+      <c r="BP25" s="245"/>
+      <c r="BQ25" s="272"/>
+      <c r="BR25" s="273"/>
+      <c r="BS25" s="274"/>
+      <c r="BT25" s="86"/>
+      <c r="BU25" s="135"/>
+      <c r="BV25" s="275"/>
+      <c r="BW25" s="274"/>
+      <c r="BX25" s="86"/>
+      <c r="BY25" s="135"/>
+      <c r="BZ25" s="275"/>
+      <c r="CA25" s="274"/>
+      <c r="CB25" s="86"/>
+      <c r="CC25" s="135"/>
+      <c r="CD25" s="275"/>
+      <c r="CE25" s="257"/>
+      <c r="CF25" s="257"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="195"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="195"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="195"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="195"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="195"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="195"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="220"/>
-      <c r="Y26" s="195"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="195"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="195"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="195"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="118"/>
-      <c r="AI26" s="207"/>
-      <c r="AJ26" s="207"/>
-      <c r="AK26" s="207"/>
-      <c r="AL26" s="207"/>
-      <c r="AM26" s="207"/>
-      <c r="AN26" s="207"/>
-      <c r="AO26" s="207"/>
-      <c r="AP26" s="207"/>
-      <c r="AQ26" s="207"/>
-      <c r="AR26" s="207"/>
-      <c r="AS26" s="207"/>
-      <c r="AT26" s="207"/>
-      <c r="AU26" s="207"/>
-      <c r="AV26" s="207"/>
-      <c r="AW26" s="207"/>
-      <c r="AX26" s="207"/>
-      <c r="AY26" s="207"/>
-      <c r="AZ26" s="207"/>
-      <c r="BA26" s="207"/>
-      <c r="BB26" s="207"/>
-      <c r="BC26" s="207"/>
-      <c r="BD26" s="207"/>
-      <c r="BE26" s="207"/>
-      <c r="BF26" s="207"/>
-      <c r="BG26" s="207"/>
-      <c r="BH26" s="207"/>
-      <c r="BI26" s="207"/>
-      <c r="BJ26" s="207"/>
-      <c r="BK26" s="207"/>
-      <c r="BL26" s="207"/>
-      <c r="BM26" s="207"/>
-      <c r="BN26" s="207"/>
-      <c r="BO26" s="207"/>
-      <c r="BP26" s="116"/>
-      <c r="BQ26" s="100"/>
-      <c r="BR26" s="101"/>
-      <c r="BS26" s="118"/>
-      <c r="BT26" s="33"/>
-      <c r="BU26" s="115"/>
-      <c r="BV26" s="116"/>
-      <c r="BW26" s="118"/>
-      <c r="BX26" s="33"/>
-      <c r="BY26" s="115"/>
-      <c r="BZ26" s="116"/>
-      <c r="CA26" s="118"/>
-      <c r="CB26" s="33"/>
-      <c r="CC26" s="115"/>
-      <c r="CD26" s="116"/>
-      <c r="CE26" s="114"/>
-      <c r="CF26" s="114"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="276"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="189"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="189"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="188"/>
+      <c r="R26" s="189"/>
+      <c r="S26" s="188"/>
+      <c r="T26" s="189"/>
+      <c r="U26" s="188"/>
+      <c r="V26" s="189"/>
+      <c r="W26" s="191"/>
+      <c r="X26" s="276"/>
+      <c r="Y26" s="188"/>
+      <c r="Z26" s="189"/>
+      <c r="AA26" s="188"/>
+      <c r="AB26" s="189"/>
+      <c r="AC26" s="188"/>
+      <c r="AD26" s="189"/>
+      <c r="AE26" s="188"/>
+      <c r="AF26" s="189"/>
+      <c r="AG26" s="191"/>
+      <c r="AH26" s="274"/>
+      <c r="AI26" s="277"/>
+      <c r="AJ26" s="277"/>
+      <c r="AK26" s="277"/>
+      <c r="AL26" s="277"/>
+      <c r="AM26" s="277"/>
+      <c r="AN26" s="277"/>
+      <c r="AO26" s="277"/>
+      <c r="AP26" s="277"/>
+      <c r="AQ26" s="277"/>
+      <c r="AR26" s="277"/>
+      <c r="AS26" s="277"/>
+      <c r="AT26" s="277"/>
+      <c r="AU26" s="277"/>
+      <c r="AV26" s="277"/>
+      <c r="AW26" s="277"/>
+      <c r="AX26" s="277"/>
+      <c r="AY26" s="277"/>
+      <c r="AZ26" s="277"/>
+      <c r="BA26" s="277"/>
+      <c r="BB26" s="277"/>
+      <c r="BC26" s="277"/>
+      <c r="BD26" s="277"/>
+      <c r="BE26" s="277"/>
+      <c r="BF26" s="277"/>
+      <c r="BG26" s="277"/>
+      <c r="BH26" s="277"/>
+      <c r="BI26" s="277"/>
+      <c r="BJ26" s="277"/>
+      <c r="BK26" s="277"/>
+      <c r="BL26" s="277"/>
+      <c r="BM26" s="277"/>
+      <c r="BN26" s="277"/>
+      <c r="BO26" s="277"/>
+      <c r="BP26" s="275"/>
+      <c r="BQ26" s="272"/>
+      <c r="BR26" s="273"/>
+      <c r="BS26" s="274"/>
+      <c r="BT26" s="86"/>
+      <c r="BU26" s="135"/>
+      <c r="BV26" s="275"/>
+      <c r="BW26" s="274"/>
+      <c r="BX26" s="86"/>
+      <c r="BY26" s="135"/>
+      <c r="BZ26" s="275"/>
+      <c r="CA26" s="274"/>
+      <c r="CB26" s="86"/>
+      <c r="CC26" s="135"/>
+      <c r="CD26" s="275"/>
+      <c r="CE26" s="257"/>
+      <c r="CF26" s="257"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="208" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="209"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="217" t="s">
+      <c r="H27" s="154"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="278" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="218"/>
-      <c r="L27" s="218"/>
-      <c r="M27" s="218"/>
-      <c r="N27" s="218"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="84"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="84"/>
-      <c r="AH27" s="84"/>
-      <c r="AI27" s="84"/>
-      <c r="AJ27" s="84"/>
-      <c r="AK27" s="84"/>
-      <c r="AL27" s="84"/>
-      <c r="AM27" s="84"/>
-      <c r="AN27" s="84"/>
-      <c r="AO27" s="84"/>
-      <c r="AP27" s="84"/>
-      <c r="AQ27" s="84"/>
-      <c r="AR27" s="84"/>
-      <c r="AS27" s="84"/>
-      <c r="AT27" s="84"/>
-      <c r="AU27" s="84"/>
-      <c r="AV27" s="84"/>
-      <c r="AW27" s="84"/>
-      <c r="AX27" s="84"/>
-      <c r="AY27" s="84"/>
-      <c r="AZ27" s="84"/>
-      <c r="BA27" s="84"/>
-      <c r="BB27" s="84"/>
-      <c r="BC27" s="84"/>
-      <c r="BD27" s="84"/>
-      <c r="BE27" s="84"/>
-      <c r="BF27" s="84"/>
-      <c r="BG27" s="84"/>
-      <c r="BH27" s="84"/>
-      <c r="BI27" s="222"/>
-      <c r="BJ27" s="224" t="s">
+      <c r="K27" s="279"/>
+      <c r="L27" s="279"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="279"/>
+      <c r="O27" s="280"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="82"/>
+      <c r="BD27" s="82"/>
+      <c r="BE27" s="82"/>
+      <c r="BF27" s="82"/>
+      <c r="BG27" s="82"/>
+      <c r="BH27" s="82"/>
+      <c r="BI27" s="281"/>
+      <c r="BJ27" s="282" t="s">
         <v>20</v>
       </c>
-      <c r="BK27" s="225"/>
-      <c r="BL27" s="226"/>
-      <c r="BM27" s="230" t="s">
+      <c r="BK27" s="283"/>
+      <c r="BL27" s="284"/>
+      <c r="BM27" s="285" t="s">
         <v>69</v>
       </c>
-      <c r="BN27" s="230"/>
-      <c r="BO27" s="230"/>
-      <c r="BP27" s="230"/>
-      <c r="BQ27" s="230"/>
-      <c r="BR27" s="230"/>
-      <c r="BS27" s="230"/>
-      <c r="BT27" s="230"/>
-      <c r="BU27" s="230"/>
-      <c r="BV27" s="230"/>
-      <c r="BW27" s="230"/>
-      <c r="BX27" s="230"/>
-      <c r="BY27" s="230"/>
-      <c r="BZ27" s="230"/>
-      <c r="CA27" s="230"/>
-      <c r="CB27" s="230"/>
-      <c r="CC27" s="230"/>
-      <c r="CD27" s="230"/>
-      <c r="CE27" s="230"/>
-      <c r="CF27" s="231"/>
+      <c r="BN27" s="285"/>
+      <c r="BO27" s="285"/>
+      <c r="BP27" s="285"/>
+      <c r="BQ27" s="285"/>
+      <c r="BR27" s="285"/>
+      <c r="BS27" s="285"/>
+      <c r="BT27" s="285"/>
+      <c r="BU27" s="285"/>
+      <c r="BV27" s="285"/>
+      <c r="BW27" s="285"/>
+      <c r="BX27" s="285"/>
+      <c r="BY27" s="285"/>
+      <c r="BZ27" s="285"/>
+      <c r="CA27" s="285"/>
+      <c r="CB27" s="285"/>
+      <c r="CC27" s="285"/>
+      <c r="CD27" s="285"/>
+      <c r="CE27" s="285"/>
+      <c r="CF27" s="286"/>
     </row>
     <row r="28" spans="3:102" ht="22.5" customHeight="1">
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="214" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="287"/>
+      <c r="F28" s="288"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
-      <c r="M28" s="215"/>
-      <c r="N28" s="215"/>
-      <c r="O28" s="216"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="34"/>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="34"/>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="34"/>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="223"/>
-      <c r="BJ28" s="227"/>
-      <c r="BK28" s="228"/>
-      <c r="BL28" s="229"/>
-      <c r="BM28" s="232"/>
-      <c r="BN28" s="232"/>
-      <c r="BO28" s="232"/>
-      <c r="BP28" s="232"/>
-      <c r="BQ28" s="232"/>
-      <c r="BR28" s="232"/>
-      <c r="BS28" s="232"/>
-      <c r="BT28" s="232"/>
-      <c r="BU28" s="232"/>
-      <c r="BV28" s="232"/>
-      <c r="BW28" s="232"/>
-      <c r="BX28" s="232"/>
-      <c r="BY28" s="232"/>
-      <c r="BZ28" s="232"/>
-      <c r="CA28" s="232"/>
-      <c r="CB28" s="232"/>
-      <c r="CC28" s="232"/>
-      <c r="CD28" s="232"/>
-      <c r="CE28" s="232"/>
-      <c r="CF28" s="233"/>
+      <c r="K28" s="290"/>
+      <c r="L28" s="290"/>
+      <c r="M28" s="290"/>
+      <c r="N28" s="290"/>
+      <c r="O28" s="291"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="102"/>
+      <c r="AF28" s="102"/>
+      <c r="AG28" s="102"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="102"/>
+      <c r="AJ28" s="102"/>
+      <c r="AK28" s="102"/>
+      <c r="AL28" s="102"/>
+      <c r="AM28" s="102"/>
+      <c r="AN28" s="102"/>
+      <c r="AO28" s="102"/>
+      <c r="AP28" s="102"/>
+      <c r="AQ28" s="102"/>
+      <c r="AR28" s="102"/>
+      <c r="AS28" s="102"/>
+      <c r="AT28" s="102"/>
+      <c r="AU28" s="102"/>
+      <c r="AV28" s="102"/>
+      <c r="AW28" s="102"/>
+      <c r="AX28" s="102"/>
+      <c r="AY28" s="102"/>
+      <c r="AZ28" s="102"/>
+      <c r="BA28" s="102"/>
+      <c r="BB28" s="102"/>
+      <c r="BC28" s="102"/>
+      <c r="BD28" s="102"/>
+      <c r="BE28" s="102"/>
+      <c r="BF28" s="102"/>
+      <c r="BG28" s="102"/>
+      <c r="BH28" s="102"/>
+      <c r="BI28" s="292"/>
+      <c r="BJ28" s="293"/>
+      <c r="BK28" s="294"/>
+      <c r="BL28" s="295"/>
+      <c r="BM28" s="296"/>
+      <c r="BN28" s="296"/>
+      <c r="BO28" s="296"/>
+      <c r="BP28" s="296"/>
+      <c r="BQ28" s="296"/>
+      <c r="BR28" s="296"/>
+      <c r="BS28" s="296"/>
+      <c r="BT28" s="296"/>
+      <c r="BU28" s="296"/>
+      <c r="BV28" s="296"/>
+      <c r="BW28" s="296"/>
+      <c r="BX28" s="296"/>
+      <c r="BY28" s="296"/>
+      <c r="BZ28" s="296"/>
+      <c r="CA28" s="296"/>
+      <c r="CB28" s="296"/>
+      <c r="CC28" s="296"/>
+      <c r="CD28" s="296"/>
+      <c r="CE28" s="296"/>
+      <c r="CF28" s="297"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="12"/>
@@ -10783,404 +10963,404 @@
       <c r="CF30" s="5"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="243" t="s">
+      <c r="C31" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="244"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
-      <c r="I31" s="244"/>
-      <c r="J31" s="244"/>
-      <c r="K31" s="244"/>
-      <c r="L31" s="244"/>
-      <c r="M31" s="244"/>
-      <c r="N31" s="244"/>
-      <c r="O31" s="244"/>
-      <c r="P31" s="244"/>
-      <c r="Q31" s="244"/>
-      <c r="R31" s="244"/>
-      <c r="S31" s="244"/>
-      <c r="T31" s="244"/>
-      <c r="U31" s="244"/>
-      <c r="V31" s="244"/>
-      <c r="W31" s="244"/>
-      <c r="X31" s="244"/>
-      <c r="Y31" s="244"/>
-      <c r="Z31" s="244"/>
-      <c r="AA31" s="244"/>
-      <c r="AB31" s="245"/>
-      <c r="AD31" s="247" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="44"/>
+      <c r="AD31" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="AE31" s="248"/>
-      <c r="AF31" s="248"/>
-      <c r="AG31" s="248"/>
-      <c r="AH31" s="248"/>
-      <c r="AI31" s="248"/>
-      <c r="AJ31" s="248"/>
-      <c r="AK31" s="248"/>
-      <c r="AL31" s="248"/>
-      <c r="AM31" s="248"/>
-      <c r="AN31" s="248"/>
-      <c r="AO31" s="248"/>
-      <c r="AP31" s="248"/>
-      <c r="AQ31" s="248"/>
-      <c r="AR31" s="248"/>
-      <c r="AS31" s="248"/>
-      <c r="AT31" s="248"/>
-      <c r="AU31" s="248"/>
-      <c r="AV31" s="248"/>
-      <c r="AW31" s="248"/>
-      <c r="AX31" s="248"/>
-      <c r="AY31" s="248"/>
-      <c r="AZ31" s="248"/>
-      <c r="BA31" s="248"/>
-      <c r="BB31" s="248"/>
-      <c r="BC31" s="249"/>
-      <c r="BE31" s="241" t="s">
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
+      <c r="BA31" s="47"/>
+      <c r="BB31" s="47"/>
+      <c r="BC31" s="48"/>
+      <c r="BE31" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="BF31" s="242"/>
-      <c r="BG31" s="242"/>
-      <c r="BH31" s="242"/>
-      <c r="BI31" s="242"/>
-      <c r="BJ31" s="242"/>
-      <c r="BK31" s="242"/>
-      <c r="BL31" s="242"/>
-      <c r="BM31" s="242"/>
-      <c r="BN31" s="242"/>
-      <c r="BO31" s="242"/>
-      <c r="BP31" s="242"/>
-      <c r="BQ31" s="242"/>
-      <c r="BR31" s="242"/>
-      <c r="BS31" s="242"/>
-      <c r="BT31" s="242"/>
-      <c r="BU31" s="242"/>
-      <c r="BV31" s="242"/>
-      <c r="BW31" s="242"/>
-      <c r="BX31" s="242"/>
-      <c r="BY31" s="242"/>
-      <c r="BZ31" s="242"/>
-      <c r="CA31" s="242"/>
-      <c r="CB31" s="242"/>
-      <c r="CC31" s="242"/>
-      <c r="CD31" s="242"/>
-      <c r="CE31" s="242"/>
-      <c r="CF31" s="242"/>
+      <c r="BF31" s="41"/>
+      <c r="BG31" s="41"/>
+      <c r="BH31" s="41"/>
+      <c r="BI31" s="41"/>
+      <c r="BJ31" s="41"/>
+      <c r="BK31" s="41"/>
+      <c r="BL31" s="41"/>
+      <c r="BM31" s="41"/>
+      <c r="BN31" s="41"/>
+      <c r="BO31" s="41"/>
+      <c r="BP31" s="41"/>
+      <c r="BQ31" s="41"/>
+      <c r="BR31" s="41"/>
+      <c r="BS31" s="41"/>
+      <c r="BT31" s="41"/>
+      <c r="BU31" s="41"/>
+      <c r="BV31" s="41"/>
+      <c r="BW31" s="41"/>
+      <c r="BX31" s="41"/>
+      <c r="BY31" s="41"/>
+      <c r="BZ31" s="41"/>
+      <c r="CA31" s="41"/>
+      <c r="CB31" s="41"/>
+      <c r="CC31" s="41"/>
+      <c r="CD31" s="41"/>
+      <c r="CE31" s="41"/>
+      <c r="CF31" s="41"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="11"/>
       <c r="D32" s="2"/>
-      <c r="L32" s="260" t="s">
-        <v>68</v>
+      <c r="L32" s="59" t="s">
+        <v>62</v>
       </c>
-      <c r="M32" s="260"/>
-      <c r="N32" s="260"/>
-      <c r="O32" s="260"/>
-      <c r="P32" s="260"/>
-      <c r="Q32" s="260"/>
-      <c r="R32" s="260"/>
-      <c r="S32" s="260"/>
-      <c r="T32" s="260"/>
-      <c r="U32" s="260"/>
-      <c r="V32" s="260"/>
-      <c r="W32" s="260"/>
-      <c r="X32" s="260"/>
-      <c r="Y32" s="260"/>
-      <c r="Z32" s="260"/>
-      <c r="AA32" s="260"/>
-      <c r="AB32" s="261"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="60"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="246" t="s">
+      <c r="AR32" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AS32" s="246"/>
-      <c r="AT32" s="246"/>
-      <c r="AU32" s="246"/>
-      <c r="AV32" s="246"/>
-      <c r="AW32" s="246"/>
-      <c r="AX32" s="246"/>
-      <c r="AY32" s="246"/>
-      <c r="AZ32" s="246"/>
-      <c r="BA32" s="246"/>
-      <c r="BB32" s="246"/>
-      <c r="BC32" s="259"/>
-      <c r="BE32" s="238" t="s">
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="45"/>
+      <c r="AX32" s="45"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="45"/>
+      <c r="BA32" s="45"/>
+      <c r="BB32" s="45"/>
+      <c r="BC32" s="58"/>
+      <c r="BE32" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BF32" s="239"/>
-      <c r="BG32" s="239"/>
-      <c r="BH32" s="239"/>
-      <c r="BI32" s="239"/>
-      <c r="BJ32" s="239"/>
-      <c r="BK32" s="239"/>
-      <c r="BL32" s="239"/>
-      <c r="BM32" s="239"/>
-      <c r="BN32" s="239"/>
-      <c r="BO32" s="239"/>
-      <c r="BP32" s="239"/>
-      <c r="BQ32" s="239"/>
-      <c r="BR32" s="239"/>
-      <c r="BS32" s="239"/>
-      <c r="BT32" s="239"/>
-      <c r="BU32" s="239"/>
-      <c r="BV32" s="239"/>
-      <c r="BW32" s="239"/>
-      <c r="BX32" s="239"/>
-      <c r="BY32" s="239"/>
-      <c r="BZ32" s="239"/>
-      <c r="CA32" s="239"/>
-      <c r="CB32" s="239"/>
-      <c r="CC32" s="239"/>
-      <c r="CD32" s="239"/>
-      <c r="CE32" s="239"/>
-      <c r="CF32" s="240"/>
+      <c r="BF32" s="38"/>
+      <c r="BG32" s="38"/>
+      <c r="BH32" s="38"/>
+      <c r="BI32" s="38"/>
+      <c r="BJ32" s="38"/>
+      <c r="BK32" s="38"/>
+      <c r="BL32" s="38"/>
+      <c r="BM32" s="38"/>
+      <c r="BN32" s="38"/>
+      <c r="BO32" s="38"/>
+      <c r="BP32" s="38"/>
+      <c r="BQ32" s="38"/>
+      <c r="BR32" s="38"/>
+      <c r="BS32" s="38"/>
+      <c r="BT32" s="38"/>
+      <c r="BU32" s="38"/>
+      <c r="BV32" s="38"/>
+      <c r="BW32" s="38"/>
+      <c r="BX32" s="38"/>
+      <c r="BY32" s="38"/>
+      <c r="BZ32" s="38"/>
+      <c r="CA32" s="38"/>
+      <c r="CB32" s="38"/>
+      <c r="CC32" s="38"/>
+      <c r="CD32" s="38"/>
+      <c r="CE32" s="38"/>
+      <c r="CF32" s="39"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="250"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="252"/>
-      <c r="M33" s="252"/>
-      <c r="N33" s="252"/>
-      <c r="O33" s="252"/>
-      <c r="P33" s="252"/>
-      <c r="Q33" s="252"/>
-      <c r="R33" s="252"/>
-      <c r="S33" s="252"/>
-      <c r="T33" s="252"/>
-      <c r="U33" s="252"/>
-      <c r="V33" s="252"/>
-      <c r="W33" s="252"/>
-      <c r="X33" s="252"/>
-      <c r="Y33" s="252"/>
-      <c r="Z33" s="252"/>
-      <c r="AA33" s="252"/>
-      <c r="AB33" s="253"/>
-      <c r="AD33" s="138" t="s">
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="52"/>
+      <c r="AD33" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AE33" s="250"/>
+      <c r="AE33" s="49"/>
       <c r="AF33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AJ33" s="252"/>
-      <c r="AK33" s="252"/>
-      <c r="AL33" s="252"/>
-      <c r="AM33" s="252"/>
-      <c r="AN33" s="252"/>
-      <c r="AO33" s="252"/>
-      <c r="AP33" s="252"/>
-      <c r="AQ33" s="252"/>
-      <c r="AR33" s="252"/>
-      <c r="AS33" s="252"/>
-      <c r="AT33" s="252"/>
-      <c r="AU33" s="252"/>
-      <c r="AV33" s="252"/>
-      <c r="AW33" s="252"/>
-      <c r="AX33" s="252"/>
-      <c r="AY33" s="252"/>
-      <c r="AZ33" s="252"/>
-      <c r="BA33" s="252"/>
-      <c r="BB33" s="252"/>
-      <c r="BC33" s="253"/>
-      <c r="BE33" s="255" t="s">
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="51"/>
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="51"/>
+      <c r="AU33" s="51"/>
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="51"/>
+      <c r="AX33" s="51"/>
+      <c r="AY33" s="51"/>
+      <c r="AZ33" s="51"/>
+      <c r="BA33" s="51"/>
+      <c r="BB33" s="51"/>
+      <c r="BC33" s="52"/>
+      <c r="BE33" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="BF33" s="256"/>
-      <c r="BG33" s="237" t="s">
-        <v>65</v>
+      <c r="BF33" s="55"/>
+      <c r="BG33" s="36" t="s">
+        <v>60</v>
       </c>
-      <c r="BH33" s="237"/>
-      <c r="BI33" s="237"/>
-      <c r="BJ33" s="237"/>
-      <c r="BK33" s="237"/>
-      <c r="BL33" s="237"/>
-      <c r="BM33" s="237"/>
-      <c r="BN33" s="237"/>
-      <c r="BO33" s="237"/>
-      <c r="BP33" s="237"/>
-      <c r="BQ33" s="237"/>
-      <c r="BT33" s="246" t="s">
+      <c r="BH33" s="36"/>
+      <c r="BI33" s="36"/>
+      <c r="BJ33" s="36"/>
+      <c r="BK33" s="36"/>
+      <c r="BL33" s="36"/>
+      <c r="BM33" s="36"/>
+      <c r="BN33" s="36"/>
+      <c r="BO33" s="36"/>
+      <c r="BP33" s="36"/>
+      <c r="BQ33" s="36"/>
+      <c r="BT33" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="BU33" s="246"/>
-      <c r="BV33" s="246"/>
-      <c r="BW33" s="246"/>
-      <c r="BX33" s="246"/>
-      <c r="BY33" s="246"/>
-      <c r="BZ33" s="246"/>
-      <c r="CA33" s="246"/>
-      <c r="CB33" s="246"/>
-      <c r="CC33" s="246"/>
-      <c r="CD33" s="246"/>
-      <c r="CE33" s="246"/>
+      <c r="BU33" s="45"/>
+      <c r="BV33" s="45"/>
+      <c r="BW33" s="45"/>
+      <c r="BX33" s="45"/>
+      <c r="BY33" s="45"/>
+      <c r="BZ33" s="45"/>
+      <c r="CA33" s="45"/>
+      <c r="CB33" s="45"/>
+      <c r="CC33" s="45"/>
+      <c r="CD33" s="45"/>
+      <c r="CE33" s="45"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="138"/>
-      <c r="D34" s="250"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="252"/>
-      <c r="M34" s="252"/>
-      <c r="N34" s="252"/>
-      <c r="O34" s="252"/>
-      <c r="P34" s="252"/>
-      <c r="Q34" s="252"/>
-      <c r="R34" s="252"/>
-      <c r="S34" s="252"/>
-      <c r="T34" s="252"/>
-      <c r="U34" s="252"/>
-      <c r="V34" s="252"/>
-      <c r="W34" s="252"/>
-      <c r="X34" s="252"/>
-      <c r="Y34" s="252"/>
-      <c r="Z34" s="252"/>
-      <c r="AA34" s="252"/>
-      <c r="AB34" s="253"/>
-      <c r="AD34" s="138"/>
-      <c r="AE34" s="250"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="52"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="49"/>
       <c r="AF34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AJ34" s="252"/>
-      <c r="AK34" s="252"/>
-      <c r="AL34" s="252"/>
-      <c r="AM34" s="252"/>
-      <c r="AN34" s="252"/>
-      <c r="AO34" s="252"/>
-      <c r="AP34" s="252"/>
-      <c r="AQ34" s="252"/>
-      <c r="AR34" s="252"/>
-      <c r="AS34" s="252"/>
-      <c r="AT34" s="252"/>
-      <c r="AU34" s="252"/>
-      <c r="AV34" s="252"/>
-      <c r="AW34" s="252"/>
-      <c r="AX34" s="252"/>
-      <c r="AY34" s="252"/>
-      <c r="AZ34" s="252"/>
-      <c r="BA34" s="252"/>
-      <c r="BB34" s="252"/>
-      <c r="BC34" s="253"/>
-      <c r="BE34" s="255"/>
-      <c r="BF34" s="256"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="51"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
+      <c r="BB34" s="51"/>
+      <c r="BC34" s="52"/>
+      <c r="BE34" s="54"/>
+      <c r="BF34" s="55"/>
       <c r="BG34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BL34" s="165"/>
-      <c r="BM34" s="165"/>
-      <c r="BN34" s="165"/>
-      <c r="BO34" s="165"/>
-      <c r="BP34" s="165"/>
-      <c r="BQ34" s="165"/>
-      <c r="BR34" s="165"/>
-      <c r="BS34" s="165"/>
-      <c r="BT34" s="165"/>
-      <c r="BU34" s="165"/>
-      <c r="BV34" s="165"/>
-      <c r="BW34" s="165"/>
-      <c r="BX34" s="165"/>
-      <c r="BY34" s="165"/>
-      <c r="BZ34" s="165"/>
-      <c r="CA34" s="165"/>
-      <c r="CB34" s="165"/>
-      <c r="CC34" s="165"/>
-      <c r="CD34" s="165"/>
+      <c r="BL34" s="30"/>
+      <c r="BM34" s="30"/>
+      <c r="BN34" s="30"/>
+      <c r="BO34" s="30"/>
+      <c r="BP34" s="30"/>
+      <c r="BQ34" s="30"/>
+      <c r="BR34" s="30"/>
+      <c r="BS34" s="30"/>
+      <c r="BT34" s="30"/>
+      <c r="BU34" s="30"/>
+      <c r="BV34" s="30"/>
+      <c r="BW34" s="30"/>
+      <c r="BX34" s="30"/>
+      <c r="BY34" s="30"/>
+      <c r="BZ34" s="30"/>
+      <c r="CA34" s="30"/>
+      <c r="CB34" s="30"/>
+      <c r="CC34" s="30"/>
+      <c r="CD34" s="30"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="138"/>
-      <c r="D35" s="250"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="252"/>
-      <c r="M35" s="252"/>
-      <c r="N35" s="252"/>
-      <c r="O35" s="252"/>
-      <c r="P35" s="252"/>
-      <c r="Q35" s="252"/>
-      <c r="R35" s="252"/>
-      <c r="S35" s="252"/>
-      <c r="T35" s="252"/>
-      <c r="U35" s="252"/>
-      <c r="V35" s="252"/>
-      <c r="W35" s="252"/>
-      <c r="X35" s="252"/>
-      <c r="Y35" s="252"/>
-      <c r="Z35" s="252"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
       <c r="AA35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="AB35" s="9"/>
-      <c r="AD35" s="138"/>
-      <c r="AE35" s="250"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="49"/>
       <c r="AF35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AJ35" s="252"/>
-      <c r="AK35" s="252"/>
-      <c r="AL35" s="252"/>
-      <c r="AM35" s="252"/>
-      <c r="AN35" s="252"/>
-      <c r="AO35" s="252"/>
-      <c r="AP35" s="252"/>
-      <c r="AQ35" s="252"/>
-      <c r="AR35" s="252"/>
-      <c r="AS35" s="252"/>
-      <c r="AT35" s="252"/>
-      <c r="AU35" s="252"/>
-      <c r="AV35" s="252"/>
-      <c r="AW35" s="252"/>
-      <c r="AX35" s="252"/>
-      <c r="AY35" s="252"/>
-      <c r="AZ35" s="252"/>
-      <c r="BA35" s="252"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="51"/>
+      <c r="AO35" s="51"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="51"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="51"/>
+      <c r="AX35" s="51"/>
+      <c r="AY35" s="51"/>
+      <c r="AZ35" s="51"/>
+      <c r="BA35" s="51"/>
       <c r="BB35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="BC35" s="9"/>
-      <c r="BE35" s="255"/>
-      <c r="BF35" s="256"/>
+      <c r="BE35" s="54"/>
+      <c r="BF35" s="55"/>
       <c r="BG35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BL35" s="165"/>
-      <c r="BM35" s="165"/>
-      <c r="BN35" s="165"/>
-      <c r="BO35" s="165"/>
-      <c r="BP35" s="165"/>
-      <c r="BQ35" s="165"/>
-      <c r="BR35" s="165"/>
-      <c r="BS35" s="165"/>
-      <c r="BT35" s="165"/>
-      <c r="BU35" s="165"/>
-      <c r="BV35" s="165"/>
-      <c r="BW35" s="165"/>
-      <c r="BX35" s="165"/>
-      <c r="BY35" s="165"/>
-      <c r="BZ35" s="165"/>
-      <c r="CA35" s="165"/>
-      <c r="CB35" s="165"/>
+      <c r="BL35" s="30"/>
+      <c r="BM35" s="30"/>
+      <c r="BN35" s="30"/>
+      <c r="BO35" s="30"/>
+      <c r="BP35" s="30"/>
+      <c r="BQ35" s="30"/>
+      <c r="BR35" s="30"/>
+      <c r="BS35" s="30"/>
+      <c r="BT35" s="30"/>
+      <c r="BU35" s="30"/>
+      <c r="BV35" s="30"/>
+      <c r="BW35" s="30"/>
+      <c r="BX35" s="30"/>
+      <c r="BY35" s="30"/>
+      <c r="BZ35" s="30"/>
+      <c r="CA35" s="30"/>
+      <c r="CB35" s="30"/>
       <c r="CC35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="140"/>
-      <c r="D36" s="251"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="7" t="s">
         <v>2</v>
       </c>
@@ -11190,53 +11370,53 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="165"/>
-      <c r="M36" s="165"/>
-      <c r="N36" s="165"/>
-      <c r="O36" s="165"/>
-      <c r="P36" s="165"/>
-      <c r="Q36" s="165"/>
-      <c r="R36" s="165"/>
-      <c r="S36" s="165"/>
-      <c r="T36" s="165"/>
-      <c r="U36" s="165"/>
-      <c r="V36" s="165"/>
-      <c r="W36" s="165"/>
-      <c r="X36" s="165"/>
-      <c r="Y36" s="165"/>
-      <c r="Z36" s="165"/>
-      <c r="AA36" s="165"/>
-      <c r="AB36" s="254"/>
-      <c r="AD36" s="140"/>
-      <c r="AE36" s="251"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="53"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="50"/>
       <c r="AF36" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="165"/>
-      <c r="AK36" s="165"/>
-      <c r="AL36" s="165"/>
-      <c r="AM36" s="165"/>
-      <c r="AN36" s="165"/>
-      <c r="AO36" s="165"/>
-      <c r="AP36" s="165"/>
-      <c r="AQ36" s="165"/>
-      <c r="AR36" s="165"/>
-      <c r="AS36" s="165"/>
-      <c r="AT36" s="165"/>
-      <c r="AU36" s="165"/>
-      <c r="AV36" s="165"/>
-      <c r="AW36" s="165"/>
-      <c r="AX36" s="165"/>
-      <c r="AY36" s="165"/>
-      <c r="AZ36" s="165"/>
-      <c r="BA36" s="165"/>
-      <c r="BB36" s="165"/>
-      <c r="BC36" s="254"/>
-      <c r="BE36" s="257"/>
-      <c r="BF36" s="258"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="30"/>
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="30"/>
+      <c r="AS36" s="30"/>
+      <c r="AT36" s="30"/>
+      <c r="AU36" s="30"/>
+      <c r="AV36" s="30"/>
+      <c r="AW36" s="30"/>
+      <c r="AX36" s="30"/>
+      <c r="AY36" s="30"/>
+      <c r="AZ36" s="30"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="30"/>
+      <c r="BC36" s="53"/>
+      <c r="BE36" s="56"/>
+      <c r="BF36" s="57"/>
       <c r="BG36" s="6" t="s">
         <v>0</v>
       </c>
@@ -11244,27 +11424,27 @@
       <c r="BI36" s="5"/>
       <c r="BJ36" s="5"/>
       <c r="BK36" s="5"/>
-      <c r="BL36" s="235" t="s">
-        <v>67</v>
+      <c r="BL36" s="34" t="s">
+        <v>61</v>
       </c>
-      <c r="BM36" s="236"/>
-      <c r="BN36" s="236"/>
-      <c r="BO36" s="236"/>
-      <c r="BP36" s="236"/>
-      <c r="BQ36" s="236"/>
-      <c r="BR36" s="236"/>
-      <c r="BS36" s="236"/>
-      <c r="BT36" s="236"/>
-      <c r="BU36" s="236"/>
-      <c r="BV36" s="236"/>
-      <c r="BW36" s="236"/>
-      <c r="BX36" s="236"/>
-      <c r="BY36" s="236"/>
-      <c r="BZ36" s="236"/>
-      <c r="CA36" s="236"/>
-      <c r="CB36" s="236"/>
-      <c r="CC36" s="236"/>
-      <c r="CD36" s="236"/>
+      <c r="BM36" s="35"/>
+      <c r="BN36" s="35"/>
+      <c r="BO36" s="35"/>
+      <c r="BP36" s="35"/>
+      <c r="BQ36" s="35"/>
+      <c r="BR36" s="35"/>
+      <c r="BS36" s="35"/>
+      <c r="BT36" s="35"/>
+      <c r="BU36" s="35"/>
+      <c r="BV36" s="35"/>
+      <c r="BW36" s="35"/>
+      <c r="BX36" s="35"/>
+      <c r="BY36" s="35"/>
+      <c r="BZ36" s="35"/>
+      <c r="CA36" s="35"/>
+      <c r="CB36" s="35"/>
+      <c r="CC36" s="35"/>
+      <c r="CD36" s="35"/>
       <c r="CE36" s="5"/>
       <c r="CF36" s="5"/>
       <c r="CG36" s="4"/>
@@ -11670,7 +11850,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -11793,16 +11973,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>64</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:col>63</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>66</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11815,16 +11995,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>64</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:col>63</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>66</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11837,16 +12017,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>70</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:col>69</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>72</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11859,16 +12039,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>70</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:col>69</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>72</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>219075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\20190111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NSS\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5265"/>
   </bookViews>
   <sheets>
     <sheet name="被保険者住所変更届（二枚目）" sheetId="1" r:id="rId1"/>
@@ -132,16 +132,6 @@
       <t>デン</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>ハナシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電　　　　　　話</t>
-    <rPh sb="0" eb="1">
-      <t>デン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
       <t>ハナシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -890,6 +880,9 @@
   <si>
     <t>※被保険者
  整理番号</t>
+  </si>
+  <si>
+    <t>電 話</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1917,575 +1910,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2509,6 +1947,816 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2518,275 +2766,26 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7202,13 +7201,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -7225,7 +7224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933825" y="4276725"/>
+          <a:off x="3971925" y="4276725"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7268,13 +7267,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -7291,7 +7290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="4419600"/>
+          <a:off x="3981450" y="4419600"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7334,13 +7333,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -7357,7 +7356,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="4562475"/>
+          <a:off x="3981450" y="4562475"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7399,16 +7398,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7423,8 +7422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9753600" y="5734050"/>
-          <a:ext cx="609600" cy="161925"/>
+          <a:off x="9639299" y="5715000"/>
+          <a:ext cx="866775" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7449,7 +7448,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -7523,14 +7522,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -7547,7 +7546,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8039100" y="1485900"/>
+          <a:off x="8086725" y="1485900"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7589,14 +7588,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -7613,7 +7612,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8048625" y="1628775"/>
+          <a:off x="8096250" y="1628775"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7655,14 +7654,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
@@ -7679,7 +7678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8039100" y="1771650"/>
+          <a:off x="8086725" y="1771650"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8609,8 +8608,8 @@
   </sheetPr>
   <dimension ref="C1:CX76"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -8631,2252 +8630,2252 @@
   <sheetData>
     <row r="1" spans="3:84" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:84" ht="20.25" customHeight="1">
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="BK2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="16"/>
-      <c r="BN2" s="16"/>
-      <c r="BO2" s="16"/>
-      <c r="BP2" s="13" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="BK2" s="290" t="s">
         <v>56</v>
       </c>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="15"/>
-      <c r="BU2" s="16" t="s">
+      <c r="BL2" s="286"/>
+      <c r="BM2" s="286"/>
+      <c r="BN2" s="286"/>
+      <c r="BO2" s="286"/>
+      <c r="BP2" s="283" t="s">
         <v>55</v>
       </c>
-      <c r="BV2" s="16"/>
-      <c r="BW2" s="16"/>
-      <c r="BX2" s="16"/>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="23" t="s">
+      <c r="BQ2" s="284"/>
+      <c r="BR2" s="284"/>
+      <c r="BS2" s="284"/>
+      <c r="BT2" s="285"/>
+      <c r="BU2" s="286" t="s">
         <v>54</v>
       </c>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="24"/>
-      <c r="CC2" s="24"/>
-      <c r="CD2" s="25"/>
+      <c r="BV2" s="286"/>
+      <c r="BW2" s="286"/>
+      <c r="BX2" s="286"/>
+      <c r="BY2" s="286"/>
+      <c r="BZ2" s="287" t="s">
+        <v>53</v>
+      </c>
+      <c r="CA2" s="288"/>
+      <c r="CB2" s="288"/>
+      <c r="CC2" s="288"/>
+      <c r="CD2" s="289"/>
     </row>
     <row r="3" spans="3:84" ht="17.25" customHeight="1">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="Y3" s="33" t="s">
-        <v>53</v>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
+      <c r="R3" s="211"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="Y3" s="210" t="s">
+        <v>52</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="33"/>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="33"/>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33"/>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33"/>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="210"/>
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="210"/>
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="210"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="210"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="210"/>
+      <c r="AJ3" s="210"/>
+      <c r="AK3" s="210"/>
+      <c r="AL3" s="210"/>
+      <c r="AM3" s="210"/>
+      <c r="AN3" s="210"/>
+      <c r="AO3" s="210"/>
+      <c r="AP3" s="210"/>
+      <c r="AQ3" s="210"/>
+      <c r="AR3" s="210"/>
+      <c r="AS3" s="210"/>
+      <c r="AT3" s="210"/>
+      <c r="AU3" s="210"/>
+      <c r="AV3" s="210"/>
+      <c r="AW3" s="210"/>
+      <c r="AX3" s="210"/>
+      <c r="AY3" s="210"/>
+      <c r="AZ3" s="210"/>
+      <c r="BA3" s="210"/>
+      <c r="BB3" s="210"/>
+      <c r="BC3" s="210"/>
+      <c r="BD3" s="210"/>
+      <c r="BE3" s="210"/>
+      <c r="BF3" s="210"/>
+      <c r="BG3" s="210"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
-      <c r="BK3" s="17"/>
-      <c r="BL3" s="18"/>
-      <c r="BM3" s="18"/>
-      <c r="BN3" s="18"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="17"/>
-      <c r="BQ3" s="18"/>
-      <c r="BR3" s="18"/>
-      <c r="BS3" s="18"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="17"/>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18"/>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="19"/>
-      <c r="BZ3" s="17"/>
-      <c r="CA3" s="18"/>
-      <c r="CB3" s="18"/>
-      <c r="CC3" s="18"/>
-      <c r="CD3" s="19"/>
+      <c r="BK3" s="212"/>
+      <c r="BL3" s="213"/>
+      <c r="BM3" s="213"/>
+      <c r="BN3" s="213"/>
+      <c r="BO3" s="214"/>
+      <c r="BP3" s="212"/>
+      <c r="BQ3" s="213"/>
+      <c r="BR3" s="213"/>
+      <c r="BS3" s="213"/>
+      <c r="BT3" s="214"/>
+      <c r="BU3" s="212"/>
+      <c r="BV3" s="213"/>
+      <c r="BW3" s="213"/>
+      <c r="BX3" s="213"/>
+      <c r="BY3" s="214"/>
+      <c r="BZ3" s="212"/>
+      <c r="CA3" s="213"/>
+      <c r="CB3" s="213"/>
+      <c r="CC3" s="213"/>
+      <c r="CD3" s="214"/>
     </row>
     <row r="4" spans="3:84" ht="17.25" customHeight="1">
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="33"/>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="33"/>
-      <c r="BA4" s="33"/>
-      <c r="BB4" s="33"/>
-      <c r="BC4" s="33"/>
-      <c r="BD4" s="33"/>
-      <c r="BE4" s="33"/>
-      <c r="BF4" s="33"/>
-      <c r="BG4" s="33"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="211"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="Y4" s="210"/>
+      <c r="Z4" s="210"/>
+      <c r="AA4" s="210"/>
+      <c r="AB4" s="210"/>
+      <c r="AC4" s="210"/>
+      <c r="AD4" s="210"/>
+      <c r="AE4" s="210"/>
+      <c r="AF4" s="210"/>
+      <c r="AG4" s="210"/>
+      <c r="AH4" s="210"/>
+      <c r="AI4" s="210"/>
+      <c r="AJ4" s="210"/>
+      <c r="AK4" s="210"/>
+      <c r="AL4" s="210"/>
+      <c r="AM4" s="210"/>
+      <c r="AN4" s="210"/>
+      <c r="AO4" s="210"/>
+      <c r="AP4" s="210"/>
+      <c r="AQ4" s="210"/>
+      <c r="AR4" s="210"/>
+      <c r="AS4" s="210"/>
+      <c r="AT4" s="210"/>
+      <c r="AU4" s="210"/>
+      <c r="AV4" s="210"/>
+      <c r="AW4" s="210"/>
+      <c r="AX4" s="210"/>
+      <c r="AY4" s="210"/>
+      <c r="AZ4" s="210"/>
+      <c r="BA4" s="210"/>
+      <c r="BB4" s="210"/>
+      <c r="BC4" s="210"/>
+      <c r="BD4" s="210"/>
+      <c r="BE4" s="210"/>
+      <c r="BF4" s="210"/>
+      <c r="BG4" s="210"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="21"/>
-      <c r="BM4" s="21"/>
-      <c r="BN4" s="21"/>
-      <c r="BO4" s="22"/>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="21"/>
-      <c r="BR4" s="21"/>
-      <c r="BS4" s="21"/>
-      <c r="BT4" s="22"/>
-      <c r="BU4" s="20"/>
-      <c r="BV4" s="21"/>
-      <c r="BW4" s="21"/>
-      <c r="BX4" s="21"/>
-      <c r="BY4" s="22"/>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="21"/>
-      <c r="CB4" s="21"/>
-      <c r="CC4" s="21"/>
-      <c r="CD4" s="22"/>
+      <c r="BK4" s="215"/>
+      <c r="BL4" s="216"/>
+      <c r="BM4" s="216"/>
+      <c r="BN4" s="216"/>
+      <c r="BO4" s="217"/>
+      <c r="BP4" s="215"/>
+      <c r="BQ4" s="216"/>
+      <c r="BR4" s="216"/>
+      <c r="BS4" s="216"/>
+      <c r="BT4" s="217"/>
+      <c r="BU4" s="215"/>
+      <c r="BV4" s="216"/>
+      <c r="BW4" s="216"/>
+      <c r="BX4" s="216"/>
+      <c r="BY4" s="217"/>
+      <c r="BZ4" s="215"/>
+      <c r="CA4" s="216"/>
+      <c r="CB4" s="216"/>
+      <c r="CC4" s="216"/>
+      <c r="CD4" s="217"/>
     </row>
     <row r="5" spans="3:84" ht="9" customHeight="1"/>
     <row r="6" spans="3:84" ht="24" customHeight="1">
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="239" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="239"/>
+      <c r="E6" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="153"/>
+      <c r="G6" s="234" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="234"/>
+      <c r="I6" s="234"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="234"/>
+      <c r="M6" s="234"/>
+      <c r="N6" s="234"/>
+      <c r="O6" s="234"/>
+      <c r="P6" s="234"/>
+      <c r="Q6" s="234"/>
+      <c r="R6" s="234"/>
+      <c r="S6" s="232" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="233"/>
+      <c r="U6" s="233"/>
+      <c r="V6" s="233"/>
+      <c r="W6" s="233"/>
+      <c r="X6" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
+      <c r="BJ6" s="36"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="68"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="68"/>
-      <c r="AP6" s="68"/>
-      <c r="AQ6" s="68"/>
-      <c r="AR6" s="68"/>
-      <c r="AS6" s="68"/>
-      <c r="AT6" s="68"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW6" s="68"/>
-      <c r="AX6" s="68"/>
-      <c r="AY6" s="68"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="68"/>
-      <c r="BF6" s="68"/>
-      <c r="BG6" s="68"/>
-      <c r="BH6" s="68"/>
-      <c r="BI6" s="68"/>
-      <c r="BJ6" s="68"/>
-      <c r="BK6" s="69"/>
-      <c r="BL6" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM6" s="71"/>
-      <c r="BN6" s="71"/>
-      <c r="BO6" s="71"/>
-      <c r="BP6" s="71"/>
-      <c r="BQ6" s="71"/>
-      <c r="BR6" s="71"/>
-      <c r="BS6" s="71"/>
-      <c r="BT6" s="71"/>
-      <c r="BU6" s="71"/>
-      <c r="BV6" s="71"/>
-      <c r="BW6" s="71"/>
-      <c r="BX6" s="71"/>
-      <c r="BY6" s="71"/>
-      <c r="BZ6" s="71"/>
-      <c r="CA6" s="72"/>
-      <c r="CB6" s="73"/>
-      <c r="CC6" s="73"/>
-      <c r="CD6" s="74"/>
-      <c r="CE6" s="73"/>
-      <c r="CF6" s="73"/>
+      <c r="BM6" s="146"/>
+      <c r="BN6" s="146"/>
+      <c r="BO6" s="146"/>
+      <c r="BP6" s="146"/>
+      <c r="BQ6" s="146"/>
+      <c r="BR6" s="146"/>
+      <c r="BS6" s="146"/>
+      <c r="BT6" s="146"/>
+      <c r="BU6" s="146"/>
+      <c r="BV6" s="146"/>
+      <c r="BW6" s="146"/>
+      <c r="BX6" s="146"/>
+      <c r="BY6" s="146"/>
+      <c r="BZ6" s="146"/>
+      <c r="CA6" s="147"/>
+      <c r="CB6" s="13"/>
+      <c r="CC6" s="13"/>
+      <c r="CD6" s="14"/>
+      <c r="CE6" s="13"/>
+      <c r="CF6" s="13"/>
     </row>
     <row r="7" spans="3:84" ht="15.75" customHeight="1">
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="81"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="83"/>
-      <c r="AR7" s="84"/>
-      <c r="AS7" s="83"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="87" t="s">
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="160"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="221"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="160"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="221"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="160"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="221"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="222" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW7" s="223"/>
+      <c r="AX7" s="224"/>
+      <c r="AY7" s="224"/>
+      <c r="AZ7" s="224"/>
+      <c r="BA7" s="224"/>
+      <c r="BB7" s="224"/>
+      <c r="BC7" s="225"/>
+      <c r="BD7" s="218"/>
+      <c r="BE7" s="219"/>
+      <c r="BF7" s="219"/>
+      <c r="BG7" s="219"/>
+      <c r="BH7" s="219"/>
+      <c r="BI7" s="219"/>
+      <c r="BJ7" s="219"/>
+      <c r="BK7" s="220"/>
+      <c r="BL7" s="203" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM7" s="204"/>
+      <c r="BN7" s="204"/>
+      <c r="BO7" s="205"/>
+      <c r="BP7" s="303"/>
+      <c r="BQ7" s="45"/>
+      <c r="BR7" s="161"/>
+      <c r="BS7" s="45"/>
+      <c r="BT7" s="303"/>
+      <c r="BU7" s="45"/>
+      <c r="BV7" s="161"/>
+      <c r="BW7" s="45"/>
+      <c r="BX7" s="303"/>
+      <c r="BY7" s="161"/>
+      <c r="BZ7" s="44"/>
+      <c r="CA7" s="246"/>
+      <c r="CB7" s="15"/>
+      <c r="CC7" s="13"/>
+      <c r="CD7" s="14"/>
+      <c r="CE7" s="13"/>
+      <c r="CF7" s="13"/>
+    </row>
+    <row r="8" spans="3:84" ht="21.75" customHeight="1">
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="169"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="164"/>
+      <c r="U8" s="164"/>
+      <c r="V8" s="164"/>
+      <c r="W8" s="164"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="164"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="164"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="163"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="164"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="249" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW8" s="250"/>
+      <c r="AX8" s="251"/>
+      <c r="AY8" s="251"/>
+      <c r="AZ8" s="251"/>
+      <c r="BA8" s="251"/>
+      <c r="BB8" s="251"/>
+      <c r="BC8" s="252"/>
+      <c r="BD8" s="253" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE8" s="254"/>
+      <c r="BF8" s="255"/>
+      <c r="BG8" s="255"/>
+      <c r="BH8" s="255"/>
+      <c r="BI8" s="255"/>
+      <c r="BJ8" s="255"/>
+      <c r="BK8" s="256"/>
+      <c r="BL8" s="206"/>
+      <c r="BM8" s="207"/>
+      <c r="BN8" s="207"/>
+      <c r="BO8" s="208"/>
+      <c r="BP8" s="304"/>
+      <c r="BQ8" s="49"/>
+      <c r="BR8" s="164"/>
+      <c r="BS8" s="49"/>
+      <c r="BT8" s="304"/>
+      <c r="BU8" s="49"/>
+      <c r="BV8" s="164"/>
+      <c r="BW8" s="49"/>
+      <c r="BX8" s="304"/>
+      <c r="BY8" s="164"/>
+      <c r="BZ8" s="48"/>
+      <c r="CA8" s="268"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="17"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="13"/>
+      <c r="CF8" s="13"/>
+    </row>
+    <row r="9" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C9" s="239"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="151" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="291"/>
+      <c r="AG9" s="294" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH9" s="295"/>
+      <c r="AI9" s="295"/>
+      <c r="AJ9" s="295"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50"/>
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="50"/>
+      <c r="BM9" s="50"/>
+      <c r="BN9" s="50"/>
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="50"/>
+      <c r="BQ9" s="50"/>
+      <c r="BR9" s="50"/>
+      <c r="BS9" s="50"/>
+      <c r="BT9" s="50"/>
+      <c r="BU9" s="50"/>
+      <c r="BV9" s="50"/>
+      <c r="BW9" s="50"/>
+      <c r="BX9" s="50"/>
+      <c r="BY9" s="50"/>
+      <c r="BZ9" s="50"/>
+      <c r="CA9" s="50"/>
+      <c r="CB9" s="50"/>
+      <c r="CC9" s="50"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="13"/>
+      <c r="CF9" s="13"/>
+    </row>
+    <row r="10" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C10" s="239"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="155"/>
+      <c r="AF10" s="292"/>
+      <c r="AG10" s="226"/>
+      <c r="AH10" s="227"/>
+      <c r="AI10" s="227"/>
+      <c r="AJ10" s="227"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="227"/>
+      <c r="AN10" s="227"/>
+      <c r="AO10" s="227"/>
+      <c r="AP10" s="227"/>
+      <c r="AQ10" s="227"/>
+      <c r="AR10" s="227"/>
+      <c r="AS10" s="227"/>
+      <c r="AT10" s="227"/>
+      <c r="AU10" s="227"/>
+      <c r="AV10" s="227"/>
+      <c r="AW10" s="227"/>
+      <c r="AX10" s="227"/>
+      <c r="AY10" s="227"/>
+      <c r="AZ10" s="227"/>
+      <c r="BA10" s="227"/>
+      <c r="BB10" s="227"/>
+      <c r="BC10" s="227"/>
+      <c r="BD10" s="227"/>
+      <c r="BE10" s="227"/>
+      <c r="BF10" s="227"/>
+      <c r="BG10" s="227"/>
+      <c r="BH10" s="227"/>
+      <c r="BI10" s="227"/>
+      <c r="BJ10" s="227"/>
+      <c r="BK10" s="227"/>
+      <c r="BL10" s="227"/>
+      <c r="BM10" s="227"/>
+      <c r="BN10" s="227"/>
+      <c r="BO10" s="227"/>
+      <c r="BP10" s="227"/>
+      <c r="BQ10" s="227"/>
+      <c r="BR10" s="227"/>
+      <c r="BS10" s="227"/>
+      <c r="BT10" s="227"/>
+      <c r="BU10" s="227"/>
+      <c r="BV10" s="227"/>
+      <c r="BW10" s="227"/>
+      <c r="BX10" s="227"/>
+      <c r="BY10" s="227"/>
+      <c r="BZ10" s="227"/>
+      <c r="CA10" s="227"/>
+      <c r="CB10" s="227"/>
+      <c r="CC10" s="227"/>
+      <c r="CD10" s="228"/>
+      <c r="CE10" s="13"/>
+      <c r="CF10" s="13"/>
+    </row>
+    <row r="11" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="157"/>
+      <c r="AE11" s="158"/>
+      <c r="AF11" s="293"/>
+      <c r="AG11" s="229"/>
+      <c r="AH11" s="230"/>
+      <c r="AI11" s="230"/>
+      <c r="AJ11" s="230"/>
+      <c r="AK11" s="230"/>
+      <c r="AL11" s="230"/>
+      <c r="AM11" s="230"/>
+      <c r="AN11" s="230"/>
+      <c r="AO11" s="230"/>
+      <c r="AP11" s="230"/>
+      <c r="AQ11" s="230"/>
+      <c r="AR11" s="230"/>
+      <c r="AS11" s="230"/>
+      <c r="AT11" s="230"/>
+      <c r="AU11" s="230"/>
+      <c r="AV11" s="230"/>
+      <c r="AW11" s="230"/>
+      <c r="AX11" s="230"/>
+      <c r="AY11" s="230"/>
+      <c r="AZ11" s="230"/>
+      <c r="BA11" s="230"/>
+      <c r="BB11" s="230"/>
+      <c r="BC11" s="230"/>
+      <c r="BD11" s="230"/>
+      <c r="BE11" s="230"/>
+      <c r="BF11" s="230"/>
+      <c r="BG11" s="230"/>
+      <c r="BH11" s="230"/>
+      <c r="BI11" s="230"/>
+      <c r="BJ11" s="230"/>
+      <c r="BK11" s="230"/>
+      <c r="BL11" s="230"/>
+      <c r="BM11" s="230"/>
+      <c r="BN11" s="230"/>
+      <c r="BO11" s="230"/>
+      <c r="BP11" s="230"/>
+      <c r="BQ11" s="230"/>
+      <c r="BR11" s="230"/>
+      <c r="BS11" s="230"/>
+      <c r="BT11" s="230"/>
+      <c r="BU11" s="230"/>
+      <c r="BV11" s="230"/>
+      <c r="BW11" s="230"/>
+      <c r="BX11" s="230"/>
+      <c r="BY11" s="230"/>
+      <c r="BZ11" s="230"/>
+      <c r="CA11" s="230"/>
+      <c r="CB11" s="230"/>
+      <c r="CC11" s="230"/>
+      <c r="CD11" s="231"/>
+      <c r="CE11" s="13"/>
+      <c r="CF11" s="13"/>
+    </row>
+    <row r="12" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C12" s="239"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="93"/>
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="93"/>
+      <c r="AW12" s="93"/>
+      <c r="AX12" s="93"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="93"/>
+      <c r="BA12" s="93"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="93"/>
+      <c r="BE12" s="93"/>
+      <c r="BF12" s="93"/>
+      <c r="BG12" s="93"/>
+      <c r="BH12" s="93"/>
+      <c r="BI12" s="93"/>
+      <c r="BJ12" s="93"/>
+      <c r="BK12" s="93"/>
+      <c r="BL12" s="93"/>
+      <c r="BM12" s="93"/>
+      <c r="BN12" s="93"/>
+      <c r="BO12" s="93"/>
+      <c r="BP12" s="93"/>
+      <c r="BQ12" s="93"/>
+      <c r="BR12" s="93"/>
+      <c r="BS12" s="93"/>
+      <c r="BT12" s="93"/>
+      <c r="BU12" s="93"/>
+      <c r="BV12" s="93"/>
+      <c r="BW12" s="93"/>
+      <c r="BX12" s="93"/>
+      <c r="BY12" s="93"/>
+      <c r="BZ12" s="93"/>
+      <c r="CA12" s="93"/>
+      <c r="CB12" s="93"/>
+      <c r="CC12" s="93"/>
+      <c r="CD12" s="94"/>
+      <c r="CE12" s="13"/>
+      <c r="CF12" s="13"/>
+    </row>
+    <row r="13" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C13" s="239"/>
+      <c r="D13" s="239"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="96"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="96"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="96"/>
+      <c r="AO13" s="96"/>
+      <c r="AP13" s="96"/>
+      <c r="AQ13" s="96"/>
+      <c r="AR13" s="96"/>
+      <c r="AS13" s="96"/>
+      <c r="AT13" s="96"/>
+      <c r="AU13" s="96"/>
+      <c r="AV13" s="96"/>
+      <c r="AW13" s="96"/>
+      <c r="AX13" s="96"/>
+      <c r="AY13" s="96"/>
+      <c r="AZ13" s="96"/>
+      <c r="BA13" s="96"/>
+      <c r="BB13" s="96"/>
+      <c r="BC13" s="96"/>
+      <c r="BD13" s="96"/>
+      <c r="BE13" s="96"/>
+      <c r="BF13" s="96"/>
+      <c r="BG13" s="96"/>
+      <c r="BH13" s="96"/>
+      <c r="BI13" s="96"/>
+      <c r="BJ13" s="96"/>
+      <c r="BK13" s="96"/>
+      <c r="BL13" s="96"/>
+      <c r="BM13" s="96"/>
+      <c r="BN13" s="96"/>
+      <c r="BO13" s="96"/>
+      <c r="BP13" s="96"/>
+      <c r="BQ13" s="96"/>
+      <c r="BR13" s="96"/>
+      <c r="BS13" s="96"/>
+      <c r="BT13" s="96"/>
+      <c r="BU13" s="96"/>
+      <c r="BV13" s="96"/>
+      <c r="BW13" s="96"/>
+      <c r="BX13" s="96"/>
+      <c r="BY13" s="96"/>
+      <c r="BZ13" s="96"/>
+      <c r="CA13" s="96"/>
+      <c r="CB13" s="96"/>
+      <c r="CC13" s="96"/>
+      <c r="CD13" s="97"/>
+      <c r="CE13" s="13"/>
+      <c r="CF13" s="13"/>
+    </row>
+    <row r="14" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="186" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="166"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="170"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="172"/>
+      <c r="AF14" s="176" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG14" s="177"/>
+      <c r="AH14" s="177"/>
+      <c r="AI14" s="177"/>
+      <c r="AJ14" s="191" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK14" s="192"/>
+      <c r="AL14" s="192"/>
+      <c r="AM14" s="192"/>
+      <c r="AN14" s="192"/>
+      <c r="AO14" s="192"/>
+      <c r="AP14" s="192"/>
+      <c r="AQ14" s="192"/>
+      <c r="AR14" s="192"/>
+      <c r="AS14" s="192"/>
+      <c r="AT14" s="192"/>
+      <c r="AU14" s="192"/>
+      <c r="AV14" s="192"/>
+      <c r="AW14" s="192"/>
+      <c r="AX14" s="192"/>
+      <c r="AY14" s="192"/>
+      <c r="AZ14" s="192"/>
+      <c r="BA14" s="192"/>
+      <c r="BB14" s="192"/>
+      <c r="BC14" s="192"/>
+      <c r="BD14" s="192"/>
+      <c r="BE14" s="192"/>
+      <c r="BF14" s="192"/>
+      <c r="BG14" s="192"/>
+      <c r="BH14" s="192"/>
+      <c r="BI14" s="192"/>
+      <c r="BJ14" s="192"/>
+      <c r="BK14" s="192"/>
+      <c r="BL14" s="192"/>
+      <c r="BM14" s="192"/>
+      <c r="BN14" s="192"/>
+      <c r="BO14" s="193"/>
+      <c r="BP14" s="13"/>
+      <c r="BQ14" s="13"/>
+      <c r="BR14" s="13"/>
+      <c r="BS14" s="13"/>
+      <c r="BT14" s="13"/>
+      <c r="BU14" s="13"/>
+      <c r="BV14" s="13"/>
+      <c r="BW14" s="13"/>
+      <c r="BX14" s="13"/>
+      <c r="BY14" s="13"/>
+      <c r="BZ14" s="13"/>
+      <c r="CA14" s="13"/>
+      <c r="CB14" s="13"/>
+      <c r="CC14" s="13"/>
+      <c r="CD14" s="13"/>
+      <c r="CE14" s="13"/>
+      <c r="CF14" s="13"/>
+    </row>
+    <row r="15" spans="3:84" ht="15.75" customHeight="1">
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="167"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="167"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="174"/>
+      <c r="AE15" s="175"/>
+      <c r="AF15" s="178"/>
+      <c r="AG15" s="179"/>
+      <c r="AH15" s="179"/>
+      <c r="AI15" s="179"/>
+      <c r="AJ15" s="194"/>
+      <c r="AK15" s="195"/>
+      <c r="AL15" s="195"/>
+      <c r="AM15" s="195"/>
+      <c r="AN15" s="195"/>
+      <c r="AO15" s="195"/>
+      <c r="AP15" s="195"/>
+      <c r="AQ15" s="195"/>
+      <c r="AR15" s="195"/>
+      <c r="AS15" s="195"/>
+      <c r="AT15" s="195"/>
+      <c r="AU15" s="195"/>
+      <c r="AV15" s="195"/>
+      <c r="AW15" s="195"/>
+      <c r="AX15" s="195"/>
+      <c r="AY15" s="195"/>
+      <c r="AZ15" s="195"/>
+      <c r="BA15" s="195"/>
+      <c r="BB15" s="195"/>
+      <c r="BC15" s="195"/>
+      <c r="BD15" s="195"/>
+      <c r="BE15" s="195"/>
+      <c r="BF15" s="195"/>
+      <c r="BG15" s="195"/>
+      <c r="BH15" s="195"/>
+      <c r="BI15" s="195"/>
+      <c r="BJ15" s="195"/>
+      <c r="BK15" s="195"/>
+      <c r="BL15" s="195"/>
+      <c r="BM15" s="195"/>
+      <c r="BN15" s="195"/>
+      <c r="BO15" s="196"/>
+      <c r="BP15" s="13"/>
+      <c r="BQ15" s="13"/>
+      <c r="BR15" s="13"/>
+      <c r="BS15" s="243" t="s">
+        <v>38</v>
+      </c>
+      <c r="BT15" s="244"/>
+      <c r="BU15" s="244"/>
+      <c r="BV15" s="244"/>
+      <c r="BW15" s="244"/>
+      <c r="BX15" s="244"/>
+      <c r="BY15" s="244"/>
+      <c r="BZ15" s="244"/>
+      <c r="CA15" s="244"/>
+      <c r="CB15" s="244"/>
+      <c r="CC15" s="244"/>
+      <c r="CD15" s="245"/>
+      <c r="CE15" s="13"/>
+      <c r="CF15" s="13"/>
+    </row>
+    <row r="16" spans="3:84" ht="12.75" customHeight="1">
+      <c r="C16" s="239"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="13"/>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="13"/>
+      <c r="BH16" s="13"/>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="13"/>
+      <c r="BL16" s="13"/>
+      <c r="BM16" s="13"/>
+      <c r="BN16" s="13"/>
+      <c r="BO16" s="13"/>
+      <c r="BP16" s="13"/>
+      <c r="BQ16" s="13"/>
+      <c r="BR16" s="13"/>
+      <c r="BS16" s="243"/>
+      <c r="BT16" s="244"/>
+      <c r="BU16" s="244"/>
+      <c r="BV16" s="244"/>
+      <c r="BW16" s="244"/>
+      <c r="BX16" s="244"/>
+      <c r="BY16" s="244"/>
+      <c r="BZ16" s="244"/>
+      <c r="CA16" s="244"/>
+      <c r="CB16" s="244"/>
+      <c r="CC16" s="244"/>
+      <c r="CD16" s="245"/>
+      <c r="CE16" s="13"/>
+      <c r="CF16" s="13"/>
+    </row>
+    <row r="17" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C17" s="239"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="13"/>
+      <c r="BB17" s="13"/>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="13"/>
+      <c r="BE17" s="13"/>
+      <c r="BF17" s="13"/>
+      <c r="BG17" s="13"/>
+      <c r="BH17" s="13"/>
+      <c r="BI17" s="13"/>
+      <c r="BJ17" s="13"/>
+      <c r="BK17" s="13"/>
+      <c r="BL17" s="13"/>
+      <c r="BM17" s="13"/>
+      <c r="BN17" s="13"/>
+      <c r="BO17" s="13"/>
+      <c r="BP17" s="13"/>
+      <c r="BQ17" s="13"/>
+      <c r="BR17" s="13"/>
+      <c r="BS17" s="296"/>
+      <c r="BT17" s="297"/>
+      <c r="BU17" s="297"/>
+      <c r="BV17" s="297"/>
+      <c r="BW17" s="297"/>
+      <c r="BX17" s="297"/>
+      <c r="BY17" s="297"/>
+      <c r="BZ17" s="297"/>
+      <c r="CA17" s="297"/>
+      <c r="CB17" s="297"/>
+      <c r="CC17" s="297"/>
+      <c r="CD17" s="298"/>
+      <c r="CE17" s="13"/>
+      <c r="CF17" s="13"/>
+    </row>
+    <row r="18" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C18" s="239"/>
+      <c r="D18" s="239"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="13"/>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="13"/>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="13"/>
+      <c r="BL18" s="13"/>
+      <c r="BM18" s="13"/>
+      <c r="BN18" s="13"/>
+      <c r="BO18" s="13"/>
+      <c r="BP18" s="13"/>
+      <c r="BQ18" s="13"/>
+      <c r="BR18" s="13"/>
+      <c r="BS18" s="296"/>
+      <c r="BT18" s="297"/>
+      <c r="BU18" s="297"/>
+      <c r="BV18" s="297"/>
+      <c r="BW18" s="297"/>
+      <c r="BX18" s="297"/>
+      <c r="BY18" s="297"/>
+      <c r="BZ18" s="297"/>
+      <c r="CA18" s="297"/>
+      <c r="CB18" s="297"/>
+      <c r="CC18" s="297"/>
+      <c r="CD18" s="298"/>
+      <c r="CE18" s="13"/>
+      <c r="CF18" s="13"/>
+    </row>
+    <row r="19" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C19" s="239"/>
+      <c r="D19" s="239"/>
+      <c r="E19" s="302" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="302"/>
+      <c r="K19" s="302"/>
+      <c r="L19" s="302"/>
+      <c r="M19" s="302"/>
+      <c r="N19" s="302"/>
+      <c r="O19" s="302"/>
+      <c r="P19" s="302"/>
+      <c r="Q19" s="302"/>
+      <c r="R19" s="302"/>
+      <c r="S19" s="302"/>
+      <c r="T19" s="302"/>
+      <c r="U19" s="302"/>
+      <c r="V19" s="302"/>
+      <c r="W19" s="302"/>
+      <c r="X19" s="302"/>
+      <c r="Y19" s="302"/>
+      <c r="Z19" s="302"/>
+      <c r="AA19" s="302"/>
+      <c r="AB19" s="302"/>
+      <c r="AC19" s="302"/>
+      <c r="AD19" s="302"/>
+      <c r="AE19" s="302"/>
+      <c r="AF19" s="302"/>
+      <c r="AG19" s="302"/>
+      <c r="AH19" s="302"/>
+      <c r="AI19" s="302"/>
+      <c r="AJ19" s="302"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="13"/>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="13"/>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="13"/>
+      <c r="BL19" s="13"/>
+      <c r="BM19" s="13"/>
+      <c r="BN19" s="13"/>
+      <c r="BO19" s="13"/>
+      <c r="BP19" s="13"/>
+      <c r="BQ19" s="13"/>
+      <c r="BR19" s="13"/>
+      <c r="BS19" s="296"/>
+      <c r="BT19" s="297"/>
+      <c r="BU19" s="297"/>
+      <c r="BV19" s="297"/>
+      <c r="BW19" s="297"/>
+      <c r="BX19" s="297"/>
+      <c r="BY19" s="297"/>
+      <c r="BZ19" s="297"/>
+      <c r="CA19" s="297"/>
+      <c r="CB19" s="297"/>
+      <c r="CC19" s="297"/>
+      <c r="CD19" s="298"/>
+      <c r="CE19" s="13"/>
+      <c r="CF19" s="13"/>
+    </row>
+    <row r="20" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C20" s="239"/>
+      <c r="D20" s="239"/>
+      <c r="E20" s="260" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="261"/>
+      <c r="G20" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="180"/>
+      <c r="AV20" s="181"/>
+      <c r="AW20" s="269" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX20" s="270"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BI20" s="39"/>
+      <c r="BJ20" s="40"/>
+      <c r="BK20" s="40"/>
+      <c r="BL20" s="40"/>
+      <c r="BM20" s="40"/>
+      <c r="BN20" s="40"/>
+      <c r="BO20" s="40"/>
+      <c r="BP20" s="40"/>
+      <c r="BQ20" s="41"/>
+      <c r="BR20" s="13"/>
+      <c r="BS20" s="296"/>
+      <c r="BT20" s="297"/>
+      <c r="BU20" s="297"/>
+      <c r="BV20" s="297"/>
+      <c r="BW20" s="297"/>
+      <c r="BX20" s="297"/>
+      <c r="BY20" s="297"/>
+      <c r="BZ20" s="297"/>
+      <c r="CA20" s="297"/>
+      <c r="CB20" s="297"/>
+      <c r="CC20" s="297"/>
+      <c r="CD20" s="298"/>
+      <c r="CE20" s="13"/>
+      <c r="CF20" s="13"/>
+    </row>
+    <row r="21" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C21" s="239"/>
+      <c r="D21" s="239"/>
+      <c r="E21" s="262"/>
+      <c r="F21" s="263"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="168"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="168"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="203" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF21" s="204"/>
+      <c r="AG21" s="204"/>
+      <c r="AH21" s="205"/>
+      <c r="AI21" s="279"/>
+      <c r="AJ21" s="198"/>
+      <c r="AK21" s="201"/>
+      <c r="AL21" s="202"/>
+      <c r="AM21" s="197"/>
+      <c r="AN21" s="198"/>
+      <c r="AO21" s="201"/>
+      <c r="AP21" s="202"/>
+      <c r="AQ21" s="197"/>
+      <c r="AR21" s="198"/>
+      <c r="AS21" s="201"/>
+      <c r="AT21" s="202"/>
+      <c r="AU21" s="182"/>
+      <c r="AV21" s="183"/>
+      <c r="AW21" s="271" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX21" s="271"/>
+      <c r="AY21" s="272"/>
+      <c r="AZ21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="266"/>
+      <c r="BC21" s="266"/>
+      <c r="BD21" s="266"/>
+      <c r="BE21" s="266"/>
+      <c r="BF21" s="266"/>
+      <c r="BG21" s="266"/>
+      <c r="BH21" s="266"/>
+      <c r="BI21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="266"/>
+      <c r="BL21" s="266"/>
+      <c r="BM21" s="266"/>
+      <c r="BN21" s="266"/>
+      <c r="BO21" s="266"/>
+      <c r="BP21" s="266"/>
+      <c r="BQ21" s="267"/>
+      <c r="BR21" s="13"/>
+      <c r="BS21" s="299"/>
+      <c r="BT21" s="300"/>
+      <c r="BU21" s="300"/>
+      <c r="BV21" s="300"/>
+      <c r="BW21" s="300"/>
+      <c r="BX21" s="300"/>
+      <c r="BY21" s="300"/>
+      <c r="BZ21" s="300"/>
+      <c r="CA21" s="300"/>
+      <c r="CB21" s="300"/>
+      <c r="CC21" s="300"/>
+      <c r="CD21" s="301"/>
+      <c r="CE21" s="13"/>
+      <c r="CF21" s="13"/>
+      <c r="CV21" s="34"/>
+      <c r="CW21" s="34"/>
+      <c r="CX21" s="34"/>
+    </row>
+    <row r="22" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C22" s="239"/>
+      <c r="D22" s="239"/>
+      <c r="E22" s="262"/>
+      <c r="F22" s="263"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="169"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="169"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="206"/>
+      <c r="AF22" s="207"/>
+      <c r="AG22" s="207"/>
+      <c r="AH22" s="208"/>
+      <c r="AI22" s="280"/>
+      <c r="AJ22" s="200"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="200"/>
+      <c r="AM22" s="199"/>
+      <c r="AN22" s="200"/>
+      <c r="AO22" s="49"/>
+      <c r="AP22" s="200"/>
+      <c r="AQ22" s="199"/>
+      <c r="AR22" s="200"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="200"/>
+      <c r="AU22" s="184"/>
+      <c r="AV22" s="185"/>
+      <c r="AW22" s="273"/>
+      <c r="AX22" s="273"/>
+      <c r="AY22" s="274"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="164"/>
+      <c r="BC22" s="164"/>
+      <c r="BD22" s="164"/>
+      <c r="BE22" s="164"/>
+      <c r="BF22" s="164"/>
+      <c r="BG22" s="164"/>
+      <c r="BH22" s="164"/>
+      <c r="BI22" s="16"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="164"/>
+      <c r="BL22" s="164"/>
+      <c r="BM22" s="164"/>
+      <c r="BN22" s="164"/>
+      <c r="BO22" s="164"/>
+      <c r="BP22" s="164"/>
+      <c r="BQ22" s="268"/>
+      <c r="BR22" s="13"/>
+      <c r="BS22" s="13"/>
+      <c r="BT22" s="13"/>
+      <c r="BU22" s="13"/>
+      <c r="BV22" s="13"/>
+      <c r="BW22" s="13"/>
+      <c r="BX22" s="13"/>
+      <c r="BY22" s="13"/>
+      <c r="BZ22" s="13"/>
+      <c r="CA22" s="13"/>
+      <c r="CB22" s="13"/>
+      <c r="CC22" s="13"/>
+      <c r="CD22" s="13"/>
+      <c r="CE22" s="13"/>
+      <c r="CF22" s="13"/>
+      <c r="CV22" s="34"/>
+      <c r="CW22" s="34"/>
+      <c r="CX22" s="34"/>
+    </row>
+    <row r="23" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C23" s="239"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="262"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="152"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="146"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="146"/>
+      <c r="V23" s="146"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="145" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y23" s="146"/>
+      <c r="Z23" s="146"/>
+      <c r="AA23" s="146"/>
+      <c r="AB23" s="146"/>
+      <c r="AC23" s="146"/>
+      <c r="AD23" s="146"/>
+      <c r="AE23" s="146"/>
+      <c r="AF23" s="146"/>
+      <c r="AG23" s="146"/>
+      <c r="AH23" s="146"/>
+      <c r="AI23" s="146"/>
+      <c r="AJ23" s="146"/>
+      <c r="AK23" s="146"/>
+      <c r="AL23" s="146"/>
+      <c r="AM23" s="146"/>
+      <c r="AN23" s="146"/>
+      <c r="AO23" s="146"/>
+      <c r="AP23" s="146"/>
+      <c r="AQ23" s="146"/>
+      <c r="AR23" s="146"/>
+      <c r="AS23" s="146"/>
+      <c r="AT23" s="146"/>
+      <c r="AU23" s="146"/>
+      <c r="AV23" s="146"/>
+      <c r="AW23" s="146"/>
+      <c r="AX23" s="146"/>
+      <c r="AY23" s="146"/>
+      <c r="AZ23" s="146"/>
+      <c r="BA23" s="146"/>
+      <c r="BB23" s="146"/>
+      <c r="BC23" s="146"/>
+      <c r="BD23" s="146"/>
+      <c r="BE23" s="146"/>
+      <c r="BF23" s="146"/>
+      <c r="BG23" s="146"/>
+      <c r="BH23" s="146"/>
+      <c r="BI23" s="146"/>
+      <c r="BJ23" s="146"/>
+      <c r="BK23" s="146"/>
+      <c r="BL23" s="146"/>
+      <c r="BM23" s="146"/>
+      <c r="BN23" s="146"/>
+      <c r="BO23" s="146"/>
+      <c r="BP23" s="147"/>
+      <c r="BQ23" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="AW7" s="88"/>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="89"/>
-      <c r="BA7" s="89"/>
-      <c r="BB7" s="89"/>
-      <c r="BC7" s="90"/>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="92"/>
-      <c r="BF7" s="92"/>
-      <c r="BG7" s="92"/>
-      <c r="BH7" s="92"/>
-      <c r="BI7" s="92"/>
-      <c r="BJ7" s="92"/>
-      <c r="BK7" s="93"/>
-      <c r="BL7" s="298" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM7" s="299"/>
-      <c r="BN7" s="299"/>
-      <c r="BO7" s="300"/>
-      <c r="BP7" s="94"/>
-      <c r="BQ7" s="83"/>
-      <c r="BR7" s="82"/>
-      <c r="BS7" s="83"/>
-      <c r="BT7" s="94"/>
-      <c r="BU7" s="83"/>
-      <c r="BV7" s="82"/>
-      <c r="BW7" s="83"/>
-      <c r="BX7" s="94"/>
-      <c r="BY7" s="82"/>
-      <c r="BZ7" s="84"/>
-      <c r="CA7" s="95"/>
-      <c r="CB7" s="96"/>
-      <c r="CC7" s="73"/>
-      <c r="CD7" s="74"/>
-      <c r="CE7" s="73"/>
-      <c r="CF7" s="73"/>
+      <c r="BR23" s="146"/>
+      <c r="BS23" s="146"/>
+      <c r="BT23" s="146"/>
+      <c r="BU23" s="146"/>
+      <c r="BV23" s="146"/>
+      <c r="BW23" s="146"/>
+      <c r="BX23" s="146"/>
+      <c r="BY23" s="146"/>
+      <c r="BZ23" s="146"/>
+      <c r="CA23" s="146"/>
+      <c r="CB23" s="146"/>
+      <c r="CC23" s="146"/>
+      <c r="CD23" s="147"/>
+      <c r="CE23" s="242"/>
+      <c r="CF23" s="242"/>
+      <c r="CG23" s="4"/>
+      <c r="CV23" s="34"/>
+      <c r="CW23" s="34"/>
+      <c r="CX23" s="34"/>
     </row>
-    <row r="8" spans="3:84" ht="21.75" customHeight="1">
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="104"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="102"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="101"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="102"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="107"/>
-      <c r="AY8" s="107"/>
-      <c r="AZ8" s="107"/>
-      <c r="BA8" s="107"/>
-      <c r="BB8" s="107"/>
-      <c r="BC8" s="108"/>
-      <c r="BD8" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE8" s="110"/>
-      <c r="BF8" s="111"/>
-      <c r="BG8" s="111"/>
-      <c r="BH8" s="111"/>
-      <c r="BI8" s="111"/>
-      <c r="BJ8" s="111"/>
-      <c r="BK8" s="112"/>
-      <c r="BL8" s="301"/>
-      <c r="BM8" s="302"/>
-      <c r="BN8" s="302"/>
-      <c r="BO8" s="303"/>
-      <c r="BP8" s="113"/>
-      <c r="BQ8" s="103"/>
-      <c r="BR8" s="102"/>
-      <c r="BS8" s="103"/>
-      <c r="BT8" s="113"/>
-      <c r="BU8" s="103"/>
-      <c r="BV8" s="102"/>
-      <c r="BW8" s="103"/>
-      <c r="BX8" s="113"/>
-      <c r="BY8" s="102"/>
-      <c r="BZ8" s="104"/>
-      <c r="CA8" s="114"/>
-      <c r="CB8" s="115"/>
-      <c r="CC8" s="116"/>
-      <c r="CD8" s="74"/>
-      <c r="CE8" s="73"/>
-      <c r="CF8" s="73"/>
-    </row>
-    <row r="9" spans="3:84" ht="15.75" customHeight="1">
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="124"/>
-      <c r="AG9" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="126"/>
-      <c r="AK9" s="127"/>
-      <c r="AL9" s="127"/>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="127"/>
-      <c r="AO9" s="127"/>
-      <c r="AP9" s="127"/>
-      <c r="AQ9" s="127"/>
-      <c r="AR9" s="127"/>
-      <c r="AS9" s="127"/>
-      <c r="AT9" s="127"/>
-      <c r="AU9" s="127"/>
-      <c r="AV9" s="127"/>
-      <c r="AW9" s="127"/>
-      <c r="AX9" s="127"/>
-      <c r="AY9" s="127"/>
-      <c r="AZ9" s="127"/>
-      <c r="BA9" s="127"/>
-      <c r="BB9" s="127"/>
-      <c r="BC9" s="127"/>
-      <c r="BD9" s="127"/>
-      <c r="BE9" s="127"/>
-      <c r="BF9" s="127"/>
-      <c r="BG9" s="127"/>
-      <c r="BH9" s="127"/>
-      <c r="BI9" s="127"/>
-      <c r="BJ9" s="127"/>
-      <c r="BK9" s="127"/>
-      <c r="BL9" s="127"/>
-      <c r="BM9" s="127"/>
-      <c r="BN9" s="127"/>
-      <c r="BO9" s="127"/>
-      <c r="BP9" s="127"/>
-      <c r="BQ9" s="127"/>
-      <c r="BR9" s="127"/>
-      <c r="BS9" s="127"/>
-      <c r="BT9" s="127"/>
-      <c r="BU9" s="127"/>
-      <c r="BV9" s="127"/>
-      <c r="BW9" s="127"/>
-      <c r="BX9" s="127"/>
-      <c r="BY9" s="127"/>
-      <c r="BZ9" s="127"/>
-      <c r="CA9" s="127"/>
-      <c r="CB9" s="127"/>
-      <c r="CC9" s="127"/>
-      <c r="CD9" s="128"/>
-      <c r="CE9" s="73"/>
-      <c r="CF9" s="73"/>
-    </row>
-    <row r="10" spans="3:84" ht="15.75" customHeight="1">
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="137"/>
-      <c r="AG10" s="138"/>
-      <c r="AH10" s="139"/>
-      <c r="AI10" s="139"/>
-      <c r="AJ10" s="139"/>
-      <c r="AK10" s="139"/>
-      <c r="AL10" s="139"/>
-      <c r="AM10" s="139"/>
-      <c r="AN10" s="139"/>
-      <c r="AO10" s="139"/>
-      <c r="AP10" s="139"/>
-      <c r="AQ10" s="139"/>
-      <c r="AR10" s="139"/>
-      <c r="AS10" s="139"/>
-      <c r="AT10" s="139"/>
-      <c r="AU10" s="139"/>
-      <c r="AV10" s="139"/>
-      <c r="AW10" s="139"/>
-      <c r="AX10" s="139"/>
-      <c r="AY10" s="139"/>
-      <c r="AZ10" s="139"/>
-      <c r="BA10" s="139"/>
-      <c r="BB10" s="139"/>
-      <c r="BC10" s="139"/>
-      <c r="BD10" s="139"/>
-      <c r="BE10" s="139"/>
-      <c r="BF10" s="139"/>
-      <c r="BG10" s="139"/>
-      <c r="BH10" s="139"/>
-      <c r="BI10" s="139"/>
-      <c r="BJ10" s="139"/>
-      <c r="BK10" s="139"/>
-      <c r="BL10" s="139"/>
-      <c r="BM10" s="139"/>
-      <c r="BN10" s="139"/>
-      <c r="BO10" s="139"/>
-      <c r="BP10" s="139"/>
-      <c r="BQ10" s="139"/>
-      <c r="BR10" s="139"/>
-      <c r="BS10" s="139"/>
-      <c r="BT10" s="139"/>
-      <c r="BU10" s="139"/>
-      <c r="BV10" s="139"/>
-      <c r="BW10" s="139"/>
-      <c r="BX10" s="139"/>
-      <c r="BY10" s="139"/>
-      <c r="BZ10" s="139"/>
-      <c r="CA10" s="139"/>
-      <c r="CB10" s="139"/>
-      <c r="CC10" s="139"/>
-      <c r="CD10" s="140"/>
-      <c r="CE10" s="73"/>
-      <c r="CF10" s="73"/>
-    </row>
-    <row r="11" spans="3:84" ht="15.75" customHeight="1">
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="149"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="151"/>
-      <c r="AJ11" s="151"/>
-      <c r="AK11" s="151"/>
-      <c r="AL11" s="151"/>
-      <c r="AM11" s="151"/>
-      <c r="AN11" s="151"/>
-      <c r="AO11" s="151"/>
-      <c r="AP11" s="151"/>
-      <c r="AQ11" s="151"/>
-      <c r="AR11" s="151"/>
-      <c r="AS11" s="151"/>
-      <c r="AT11" s="151"/>
-      <c r="AU11" s="151"/>
-      <c r="AV11" s="151"/>
-      <c r="AW11" s="151"/>
-      <c r="AX11" s="151"/>
-      <c r="AY11" s="151"/>
-      <c r="AZ11" s="151"/>
-      <c r="BA11" s="151"/>
-      <c r="BB11" s="151"/>
-      <c r="BC11" s="151"/>
-      <c r="BD11" s="151"/>
-      <c r="BE11" s="151"/>
-      <c r="BF11" s="151"/>
-      <c r="BG11" s="151"/>
-      <c r="BH11" s="151"/>
-      <c r="BI11" s="151"/>
-      <c r="BJ11" s="151"/>
-      <c r="BK11" s="151"/>
-      <c r="BL11" s="151"/>
-      <c r="BM11" s="151"/>
-      <c r="BN11" s="151"/>
-      <c r="BO11" s="151"/>
-      <c r="BP11" s="151"/>
-      <c r="BQ11" s="151"/>
-      <c r="BR11" s="151"/>
-      <c r="BS11" s="151"/>
-      <c r="BT11" s="151"/>
-      <c r="BU11" s="151"/>
-      <c r="BV11" s="151"/>
-      <c r="BW11" s="151"/>
-      <c r="BX11" s="151"/>
-      <c r="BY11" s="151"/>
-      <c r="BZ11" s="151"/>
-      <c r="CA11" s="151"/>
-      <c r="CB11" s="151"/>
-      <c r="CC11" s="151"/>
-      <c r="CD11" s="152"/>
-      <c r="CE11" s="73"/>
-      <c r="CF11" s="73"/>
-    </row>
-    <row r="12" spans="3:84" ht="15.75" customHeight="1">
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="153" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="154"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="157"/>
-      <c r="S12" s="157"/>
-      <c r="T12" s="157"/>
-      <c r="U12" s="157"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="157"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="157"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="157"/>
-      <c r="AD12" s="157"/>
-      <c r="AE12" s="157"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="157"/>
-      <c r="AH12" s="157"/>
-      <c r="AI12" s="157"/>
-      <c r="AJ12" s="157"/>
-      <c r="AK12" s="157"/>
-      <c r="AL12" s="157"/>
-      <c r="AM12" s="157"/>
-      <c r="AN12" s="157"/>
-      <c r="AO12" s="157"/>
-      <c r="AP12" s="157"/>
-      <c r="AQ12" s="157"/>
-      <c r="AR12" s="157"/>
-      <c r="AS12" s="157"/>
-      <c r="AT12" s="157"/>
-      <c r="AU12" s="157"/>
-      <c r="AV12" s="157"/>
-      <c r="AW12" s="157"/>
-      <c r="AX12" s="157"/>
-      <c r="AY12" s="157"/>
-      <c r="AZ12" s="157"/>
-      <c r="BA12" s="157"/>
-      <c r="BB12" s="157"/>
-      <c r="BC12" s="157"/>
-      <c r="BD12" s="157"/>
-      <c r="BE12" s="157"/>
-      <c r="BF12" s="157"/>
-      <c r="BG12" s="157"/>
-      <c r="BH12" s="157"/>
-      <c r="BI12" s="157"/>
-      <c r="BJ12" s="157"/>
-      <c r="BK12" s="157"/>
-      <c r="BL12" s="157"/>
-      <c r="BM12" s="157"/>
-      <c r="BN12" s="157"/>
-      <c r="BO12" s="157"/>
-      <c r="BP12" s="157"/>
-      <c r="BQ12" s="157"/>
-      <c r="BR12" s="157"/>
-      <c r="BS12" s="157"/>
-      <c r="BT12" s="157"/>
-      <c r="BU12" s="157"/>
-      <c r="BV12" s="157"/>
-      <c r="BW12" s="157"/>
-      <c r="BX12" s="157"/>
-      <c r="BY12" s="157"/>
-      <c r="BZ12" s="157"/>
-      <c r="CA12" s="157"/>
-      <c r="CB12" s="157"/>
-      <c r="CC12" s="157"/>
-      <c r="CD12" s="158"/>
-      <c r="CE12" s="73"/>
-      <c r="CF12" s="73"/>
-    </row>
-    <row r="13" spans="3:84" ht="15.75" customHeight="1">
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
-      <c r="AE13" s="151"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="151"/>
-      <c r="AJ13" s="151"/>
-      <c r="AK13" s="151"/>
-      <c r="AL13" s="151"/>
-      <c r="AM13" s="151"/>
-      <c r="AN13" s="151"/>
-      <c r="AO13" s="151"/>
-      <c r="AP13" s="151"/>
-      <c r="AQ13" s="151"/>
-      <c r="AR13" s="151"/>
-      <c r="AS13" s="151"/>
-      <c r="AT13" s="151"/>
-      <c r="AU13" s="151"/>
-      <c r="AV13" s="151"/>
-      <c r="AW13" s="151"/>
-      <c r="AX13" s="151"/>
-      <c r="AY13" s="151"/>
-      <c r="AZ13" s="151"/>
-      <c r="BA13" s="151"/>
-      <c r="BB13" s="151"/>
-      <c r="BC13" s="151"/>
-      <c r="BD13" s="151"/>
-      <c r="BE13" s="151"/>
-      <c r="BF13" s="151"/>
-      <c r="BG13" s="151"/>
-      <c r="BH13" s="151"/>
-      <c r="BI13" s="151"/>
-      <c r="BJ13" s="151"/>
-      <c r="BK13" s="151"/>
-      <c r="BL13" s="151"/>
-      <c r="BM13" s="151"/>
-      <c r="BN13" s="151"/>
-      <c r="BO13" s="151"/>
-      <c r="BP13" s="151"/>
-      <c r="BQ13" s="151"/>
-      <c r="BR13" s="151"/>
-      <c r="BS13" s="151"/>
-      <c r="BT13" s="151"/>
-      <c r="BU13" s="151"/>
-      <c r="BV13" s="151"/>
-      <c r="BW13" s="151"/>
-      <c r="BX13" s="151"/>
-      <c r="BY13" s="151"/>
-      <c r="BZ13" s="151"/>
-      <c r="CA13" s="151"/>
-      <c r="CB13" s="151"/>
-      <c r="CC13" s="151"/>
-      <c r="CD13" s="152"/>
-      <c r="CE13" s="73"/>
-      <c r="CF13" s="73"/>
-    </row>
-    <row r="14" spans="3:84" ht="15.75" customHeight="1">
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="165" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="167"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="169"/>
-      <c r="T14" s="170"/>
-      <c r="U14" s="167"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="169"/>
-      <c r="X14" s="170"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="168"/>
-      <c r="AA14" s="169"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="174"/>
-      <c r="AF14" s="175" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG14" s="176"/>
-      <c r="AH14" s="176"/>
-      <c r="AI14" s="176"/>
-      <c r="AJ14" s="177" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK14" s="178"/>
-      <c r="AL14" s="178"/>
-      <c r="AM14" s="178"/>
-      <c r="AN14" s="178"/>
-      <c r="AO14" s="178"/>
-      <c r="AP14" s="178"/>
-      <c r="AQ14" s="178"/>
-      <c r="AR14" s="178"/>
-      <c r="AS14" s="178"/>
-      <c r="AT14" s="178"/>
-      <c r="AU14" s="178"/>
-      <c r="AV14" s="178"/>
-      <c r="AW14" s="178"/>
-      <c r="AX14" s="178"/>
-      <c r="AY14" s="178"/>
-      <c r="AZ14" s="178"/>
-      <c r="BA14" s="178"/>
-      <c r="BB14" s="178"/>
-      <c r="BC14" s="178"/>
-      <c r="BD14" s="178"/>
-      <c r="BE14" s="178"/>
-      <c r="BF14" s="178"/>
-      <c r="BG14" s="178"/>
-      <c r="BH14" s="178"/>
-      <c r="BI14" s="178"/>
-      <c r="BJ14" s="178"/>
-      <c r="BK14" s="178"/>
-      <c r="BL14" s="178"/>
-      <c r="BM14" s="178"/>
-      <c r="BN14" s="178"/>
-      <c r="BO14" s="179"/>
-      <c r="BP14" s="73"/>
-      <c r="BQ14" s="73"/>
-      <c r="BR14" s="73"/>
-      <c r="BS14" s="73"/>
-      <c r="BT14" s="73"/>
-      <c r="BU14" s="73"/>
-      <c r="BV14" s="73"/>
-      <c r="BW14" s="73"/>
-      <c r="BX14" s="73"/>
-      <c r="BY14" s="73"/>
-      <c r="BZ14" s="73"/>
-      <c r="CA14" s="73"/>
-      <c r="CB14" s="73"/>
-      <c r="CC14" s="73"/>
-      <c r="CD14" s="73"/>
-      <c r="CE14" s="73"/>
-      <c r="CF14" s="73"/>
-    </row>
-    <row r="15" spans="3:84" ht="15.75" customHeight="1">
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="186"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="188"/>
-      <c r="S15" s="189"/>
-      <c r="T15" s="190"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="188"/>
-      <c r="W15" s="189"/>
-      <c r="X15" s="190"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="188"/>
-      <c r="AA15" s="189"/>
-      <c r="AB15" s="191"/>
-      <c r="AC15" s="192"/>
-      <c r="AD15" s="193"/>
-      <c r="AE15" s="194"/>
-      <c r="AF15" s="195"/>
-      <c r="AG15" s="196"/>
-      <c r="AH15" s="196"/>
-      <c r="AI15" s="196"/>
-      <c r="AJ15" s="197"/>
-      <c r="AK15" s="198"/>
-      <c r="AL15" s="198"/>
-      <c r="AM15" s="198"/>
-      <c r="AN15" s="198"/>
-      <c r="AO15" s="198"/>
-      <c r="AP15" s="198"/>
-      <c r="AQ15" s="198"/>
-      <c r="AR15" s="198"/>
-      <c r="AS15" s="198"/>
-      <c r="AT15" s="198"/>
-      <c r="AU15" s="198"/>
-      <c r="AV15" s="198"/>
-      <c r="AW15" s="198"/>
-      <c r="AX15" s="198"/>
-      <c r="AY15" s="198"/>
-      <c r="AZ15" s="198"/>
-      <c r="BA15" s="198"/>
-      <c r="BB15" s="198"/>
-      <c r="BC15" s="198"/>
-      <c r="BD15" s="198"/>
-      <c r="BE15" s="198"/>
-      <c r="BF15" s="198"/>
-      <c r="BG15" s="198"/>
-      <c r="BH15" s="198"/>
-      <c r="BI15" s="198"/>
-      <c r="BJ15" s="198"/>
-      <c r="BK15" s="198"/>
-      <c r="BL15" s="198"/>
-      <c r="BM15" s="198"/>
-      <c r="BN15" s="198"/>
-      <c r="BO15" s="199"/>
-      <c r="BP15" s="73"/>
-      <c r="BQ15" s="73"/>
-      <c r="BR15" s="73"/>
-      <c r="BS15" s="200" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT15" s="201"/>
-      <c r="BU15" s="201"/>
-      <c r="BV15" s="201"/>
-      <c r="BW15" s="201"/>
-      <c r="BX15" s="201"/>
-      <c r="BY15" s="201"/>
-      <c r="BZ15" s="201"/>
-      <c r="CA15" s="201"/>
-      <c r="CB15" s="201"/>
-      <c r="CC15" s="201"/>
-      <c r="CD15" s="202"/>
-      <c r="CE15" s="73"/>
-      <c r="CF15" s="73"/>
-    </row>
-    <row r="16" spans="3:84" ht="12.75" customHeight="1">
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="204"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
-      <c r="P16" s="205"/>
-      <c r="Q16" s="206"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="206"/>
-      <c r="T16" s="206"/>
-      <c r="U16" s="206"/>
-      <c r="V16" s="206"/>
-      <c r="W16" s="206"/>
-      <c r="X16" s="206"/>
-      <c r="Y16" s="206"/>
-      <c r="Z16" s="206"/>
-      <c r="AA16" s="206"/>
-      <c r="AB16" s="206"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="207"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="207" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="73"/>
-      <c r="BF16" s="73"/>
-      <c r="BG16" s="73"/>
-      <c r="BH16" s="73"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="73"/>
-      <c r="BL16" s="73"/>
-      <c r="BM16" s="73"/>
-      <c r="BN16" s="73"/>
-      <c r="BO16" s="73"/>
-      <c r="BP16" s="73"/>
-      <c r="BQ16" s="73"/>
-      <c r="BR16" s="73"/>
-      <c r="BS16" s="200"/>
-      <c r="BT16" s="201"/>
-      <c r="BU16" s="201"/>
-      <c r="BV16" s="201"/>
-      <c r="BW16" s="201"/>
-      <c r="BX16" s="201"/>
-      <c r="BY16" s="201"/>
-      <c r="BZ16" s="201"/>
-      <c r="CA16" s="201"/>
-      <c r="CB16" s="201"/>
-      <c r="CC16" s="201"/>
-      <c r="CD16" s="202"/>
-      <c r="CE16" s="73"/>
-      <c r="CF16" s="73"/>
-    </row>
-    <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="209" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="210" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="73"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="73"/>
-      <c r="BF17" s="73"/>
-      <c r="BG17" s="73"/>
-      <c r="BH17" s="73"/>
-      <c r="BI17" s="73"/>
-      <c r="BJ17" s="73"/>
-      <c r="BK17" s="73"/>
-      <c r="BL17" s="73"/>
-      <c r="BM17" s="73"/>
-      <c r="BN17" s="73"/>
-      <c r="BO17" s="73"/>
-      <c r="BP17" s="73"/>
-      <c r="BQ17" s="73"/>
-      <c r="BR17" s="73"/>
-      <c r="BS17" s="211"/>
-      <c r="BT17" s="212"/>
-      <c r="BU17" s="212"/>
-      <c r="BV17" s="212"/>
-      <c r="BW17" s="212"/>
-      <c r="BX17" s="212"/>
-      <c r="BY17" s="212"/>
-      <c r="BZ17" s="212"/>
-      <c r="CA17" s="212"/>
-      <c r="CB17" s="212"/>
-      <c r="CC17" s="212"/>
-      <c r="CD17" s="213"/>
-      <c r="CE17" s="73"/>
-      <c r="CF17" s="73"/>
-    </row>
-    <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="214" t="s">
+    <row r="24" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C24" s="239"/>
+      <c r="D24" s="239"/>
+      <c r="E24" s="262"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="257" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="73"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="73"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="73"/>
-      <c r="BJ18" s="73"/>
-      <c r="BK18" s="73"/>
-      <c r="BL18" s="73"/>
-      <c r="BM18" s="73"/>
-      <c r="BN18" s="73"/>
-      <c r="BO18" s="73"/>
-      <c r="BP18" s="73"/>
-      <c r="BQ18" s="73"/>
-      <c r="BR18" s="73"/>
-      <c r="BS18" s="211"/>
-      <c r="BT18" s="212"/>
-      <c r="BU18" s="212"/>
-      <c r="BV18" s="212"/>
-      <c r="BW18" s="212"/>
-      <c r="BX18" s="212"/>
-      <c r="BY18" s="212"/>
-      <c r="BZ18" s="212"/>
-      <c r="CA18" s="212"/>
-      <c r="CB18" s="212"/>
-      <c r="CC18" s="212"/>
-      <c r="CD18" s="213"/>
-      <c r="CE18" s="73"/>
-      <c r="CF18" s="73"/>
-    </row>
-    <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="215" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="215"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="215"/>
-      <c r="O19" s="215"/>
-      <c r="P19" s="215"/>
-      <c r="Q19" s="215"/>
-      <c r="R19" s="215"/>
-      <c r="S19" s="215"/>
-      <c r="T19" s="215"/>
-      <c r="U19" s="215"/>
-      <c r="V19" s="215"/>
-      <c r="W19" s="215"/>
-      <c r="X19" s="215"/>
-      <c r="Y19" s="215"/>
-      <c r="Z19" s="215"/>
-      <c r="AA19" s="215"/>
-      <c r="AB19" s="215"/>
-      <c r="AC19" s="215"/>
-      <c r="AD19" s="215"/>
-      <c r="AE19" s="215"/>
-      <c r="AF19" s="215"/>
-      <c r="AG19" s="215"/>
-      <c r="AH19" s="215"/>
-      <c r="AI19" s="215"/>
-      <c r="AJ19" s="215"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="214"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="73"/>
-      <c r="BE19" s="73"/>
-      <c r="BF19" s="73"/>
-      <c r="BG19" s="73"/>
-      <c r="BH19" s="73"/>
-      <c r="BI19" s="73"/>
-      <c r="BJ19" s="73"/>
-      <c r="BK19" s="73"/>
-      <c r="BL19" s="73"/>
-      <c r="BM19" s="73"/>
-      <c r="BN19" s="73"/>
-      <c r="BO19" s="73"/>
-      <c r="BP19" s="73"/>
-      <c r="BQ19" s="73"/>
-      <c r="BR19" s="73"/>
-      <c r="BS19" s="211"/>
-      <c r="BT19" s="212"/>
-      <c r="BU19" s="212"/>
-      <c r="BV19" s="212"/>
-      <c r="BW19" s="212"/>
-      <c r="BX19" s="212"/>
-      <c r="BY19" s="212"/>
-      <c r="BZ19" s="212"/>
-      <c r="CA19" s="212"/>
-      <c r="CB19" s="212"/>
-      <c r="CC19" s="212"/>
-      <c r="CD19" s="213"/>
-      <c r="CE19" s="73"/>
-      <c r="CF19" s="73"/>
-    </row>
-    <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="216" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="217"/>
-      <c r="G20" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="68"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="218"/>
-      <c r="AV20" s="219"/>
-      <c r="AW20" s="220" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX20" s="221"/>
-      <c r="AY20" s="222"/>
-      <c r="AZ20" s="223" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA20" s="224"/>
-      <c r="BB20" s="224"/>
-      <c r="BC20" s="92"/>
-      <c r="BD20" s="92"/>
-      <c r="BE20" s="92"/>
-      <c r="BF20" s="92"/>
-      <c r="BG20" s="92"/>
-      <c r="BH20" s="92"/>
-      <c r="BI20" s="225"/>
-      <c r="BJ20" s="226"/>
-      <c r="BK20" s="226"/>
-      <c r="BL20" s="226"/>
-      <c r="BM20" s="226"/>
-      <c r="BN20" s="226"/>
-      <c r="BO20" s="226"/>
-      <c r="BP20" s="226"/>
-      <c r="BQ20" s="227"/>
-      <c r="BR20" s="73"/>
-      <c r="BS20" s="211"/>
-      <c r="BT20" s="212"/>
-      <c r="BU20" s="212"/>
-      <c r="BV20" s="212"/>
-      <c r="BW20" s="212"/>
-      <c r="BX20" s="212"/>
-      <c r="BY20" s="212"/>
-      <c r="BZ20" s="212"/>
-      <c r="CA20" s="212"/>
-      <c r="CB20" s="212"/>
-      <c r="CC20" s="212"/>
-      <c r="CD20" s="213"/>
-      <c r="CE20" s="73"/>
-      <c r="CF20" s="73"/>
-    </row>
-    <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="228"/>
-      <c r="F21" s="229"/>
-      <c r="G21" s="230"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="231"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="232"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="230"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="231"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="231"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="232"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="230"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="231"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="231"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="232"/>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="298" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF21" s="299"/>
-      <c r="AG21" s="299"/>
-      <c r="AH21" s="300"/>
-      <c r="AI21" s="233"/>
-      <c r="AJ21" s="234"/>
-      <c r="AK21" s="235"/>
-      <c r="AL21" s="236"/>
-      <c r="AM21" s="237"/>
-      <c r="AN21" s="234"/>
-      <c r="AO21" s="235"/>
-      <c r="AP21" s="236"/>
-      <c r="AQ21" s="237"/>
-      <c r="AR21" s="234"/>
-      <c r="AS21" s="235"/>
-      <c r="AT21" s="236"/>
-      <c r="AU21" s="238"/>
-      <c r="AV21" s="239"/>
-      <c r="AW21" s="240" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX21" s="240"/>
-      <c r="AY21" s="241"/>
-      <c r="AZ21" s="242" t="s">
-        <v>30</v>
-      </c>
-      <c r="BA21" s="243"/>
-      <c r="BB21" s="244"/>
-      <c r="BC21" s="244"/>
-      <c r="BD21" s="244"/>
-      <c r="BE21" s="244"/>
-      <c r="BF21" s="244"/>
-      <c r="BG21" s="244"/>
-      <c r="BH21" s="244"/>
-      <c r="BI21" s="242" t="s">
-        <v>29</v>
-      </c>
-      <c r="BJ21" s="243"/>
-      <c r="BK21" s="244"/>
-      <c r="BL21" s="244"/>
-      <c r="BM21" s="244"/>
-      <c r="BN21" s="244"/>
-      <c r="BO21" s="244"/>
-      <c r="BP21" s="244"/>
-      <c r="BQ21" s="245"/>
-      <c r="BR21" s="73"/>
-      <c r="BS21" s="246"/>
-      <c r="BT21" s="247"/>
-      <c r="BU21" s="247"/>
-      <c r="BV21" s="247"/>
-      <c r="BW21" s="247"/>
-      <c r="BX21" s="247"/>
-      <c r="BY21" s="247"/>
-      <c r="BZ21" s="247"/>
-      <c r="CA21" s="247"/>
-      <c r="CB21" s="247"/>
-      <c r="CC21" s="247"/>
-      <c r="CD21" s="248"/>
-      <c r="CE21" s="73"/>
-      <c r="CF21" s="73"/>
-      <c r="CV21" s="32"/>
-      <c r="CW21" s="32"/>
-      <c r="CX21" s="32"/>
-    </row>
-    <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="229"/>
-      <c r="G22" s="249"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="249"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="249"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="80"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="80"/>
-      <c r="AE22" s="301"/>
-      <c r="AF22" s="302"/>
-      <c r="AG22" s="302"/>
-      <c r="AH22" s="303"/>
-      <c r="AI22" s="250"/>
-      <c r="AJ22" s="251"/>
-      <c r="AK22" s="103"/>
-      <c r="AL22" s="251"/>
-      <c r="AM22" s="252"/>
-      <c r="AN22" s="251"/>
-      <c r="AO22" s="103"/>
-      <c r="AP22" s="251"/>
-      <c r="AQ22" s="252"/>
-      <c r="AR22" s="251"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="251"/>
-      <c r="AU22" s="253"/>
-      <c r="AV22" s="254"/>
-      <c r="AW22" s="255"/>
-      <c r="AX22" s="255"/>
-      <c r="AY22" s="256"/>
-      <c r="AZ22" s="115"/>
-      <c r="BA22" s="116"/>
-      <c r="BB22" s="102"/>
-      <c r="BC22" s="102"/>
-      <c r="BD22" s="102"/>
-      <c r="BE22" s="102"/>
-      <c r="BF22" s="102"/>
-      <c r="BG22" s="102"/>
-      <c r="BH22" s="102"/>
-      <c r="BI22" s="115"/>
-      <c r="BJ22" s="116"/>
-      <c r="BK22" s="102"/>
-      <c r="BL22" s="102"/>
-      <c r="BM22" s="102"/>
-      <c r="BN22" s="102"/>
-      <c r="BO22" s="102"/>
-      <c r="BP22" s="102"/>
-      <c r="BQ22" s="114"/>
-      <c r="BR22" s="73"/>
-      <c r="BS22" s="73"/>
-      <c r="BT22" s="73"/>
-      <c r="BU22" s="73"/>
-      <c r="BV22" s="73"/>
-      <c r="BW22" s="73"/>
-      <c r="BX22" s="73"/>
-      <c r="BY22" s="73"/>
-      <c r="BZ22" s="73"/>
-      <c r="CA22" s="73"/>
-      <c r="CB22" s="73"/>
-      <c r="CC22" s="73"/>
-      <c r="CD22" s="73"/>
-      <c r="CE22" s="73"/>
-      <c r="CF22" s="73"/>
-      <c r="CV22" s="32"/>
-      <c r="CW22" s="32"/>
-      <c r="CX22" s="32"/>
-    </row>
-    <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="123"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="71"/>
-      <c r="AM23" s="71"/>
-      <c r="AN23" s="71"/>
-      <c r="AO23" s="71"/>
-      <c r="AP23" s="71"/>
-      <c r="AQ23" s="71"/>
-      <c r="AR23" s="71"/>
-      <c r="AS23" s="71"/>
-      <c r="AT23" s="71"/>
-      <c r="AU23" s="71"/>
-      <c r="AV23" s="71"/>
-      <c r="AW23" s="71"/>
-      <c r="AX23" s="71"/>
-      <c r="AY23" s="71"/>
-      <c r="AZ23" s="71"/>
-      <c r="BA23" s="71"/>
-      <c r="BB23" s="71"/>
-      <c r="BC23" s="71"/>
-      <c r="BD23" s="71"/>
-      <c r="BE23" s="71"/>
-      <c r="BF23" s="71"/>
-      <c r="BG23" s="71"/>
-      <c r="BH23" s="71"/>
-      <c r="BI23" s="71"/>
-      <c r="BJ23" s="71"/>
-      <c r="BK23" s="71"/>
-      <c r="BL23" s="71"/>
-      <c r="BM23" s="71"/>
-      <c r="BN23" s="71"/>
-      <c r="BO23" s="71"/>
-      <c r="BP23" s="72"/>
-      <c r="BQ23" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="BR23" s="71"/>
-      <c r="BS23" s="71"/>
-      <c r="BT23" s="71"/>
-      <c r="BU23" s="71"/>
-      <c r="BV23" s="71"/>
-      <c r="BW23" s="71"/>
-      <c r="BX23" s="71"/>
-      <c r="BY23" s="71"/>
-      <c r="BZ23" s="71"/>
-      <c r="CA23" s="71"/>
-      <c r="CB23" s="71"/>
-      <c r="CC23" s="71"/>
-      <c r="CD23" s="72"/>
-      <c r="CE23" s="257"/>
-      <c r="CF23" s="257"/>
-      <c r="CG23" s="4"/>
-      <c r="CV23" s="32"/>
-      <c r="CW23" s="32"/>
-      <c r="CX23" s="32"/>
-    </row>
-    <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="228"/>
-      <c r="F24" s="229"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="258"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="168"/>
-      <c r="P24" s="169"/>
-      <c r="Q24" s="168"/>
-      <c r="R24" s="169"/>
-      <c r="S24" s="168"/>
-      <c r="T24" s="169"/>
-      <c r="U24" s="168"/>
-      <c r="V24" s="169"/>
-      <c r="W24" s="171"/>
-      <c r="X24" s="259" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y24" s="260"/>
-      <c r="Z24" s="260"/>
-      <c r="AA24" s="260"/>
-      <c r="AB24" s="260"/>
-      <c r="AC24" s="260"/>
-      <c r="AD24" s="260"/>
-      <c r="AE24" s="260"/>
-      <c r="AF24" s="260"/>
-      <c r="AG24" s="261"/>
-      <c r="AH24" s="262" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI24" s="262"/>
-      <c r="AJ24" s="262"/>
-      <c r="AK24" s="262"/>
-      <c r="AL24" s="263"/>
-      <c r="AM24" s="263"/>
-      <c r="AN24" s="263"/>
-      <c r="AO24" s="263"/>
-      <c r="AP24" s="263"/>
-      <c r="AQ24" s="263"/>
-      <c r="AR24" s="263"/>
-      <c r="AS24" s="263"/>
-      <c r="AT24" s="263"/>
-      <c r="AU24" s="263"/>
-      <c r="AV24" s="263"/>
-      <c r="AW24" s="263"/>
-      <c r="AX24" s="263"/>
-      <c r="AY24" s="263"/>
-      <c r="AZ24" s="263"/>
-      <c r="BA24" s="263"/>
-      <c r="BB24" s="263"/>
-      <c r="BC24" s="263"/>
-      <c r="BD24" s="263"/>
-      <c r="BE24" s="263"/>
-      <c r="BF24" s="263"/>
-      <c r="BG24" s="263"/>
-      <c r="BH24" s="263"/>
-      <c r="BI24" s="263"/>
-      <c r="BJ24" s="263"/>
-      <c r="BK24" s="263"/>
-      <c r="BL24" s="263"/>
-      <c r="BM24" s="263"/>
-      <c r="BN24" s="263"/>
-      <c r="BO24" s="263"/>
-      <c r="BP24" s="264"/>
-      <c r="BQ24" s="265" t="s">
+      <c r="Y24" s="258"/>
+      <c r="Z24" s="258"/>
+      <c r="AA24" s="258"/>
+      <c r="AB24" s="258"/>
+      <c r="AC24" s="258"/>
+      <c r="AD24" s="258"/>
+      <c r="AE24" s="258"/>
+      <c r="AF24" s="258"/>
+      <c r="AG24" s="259"/>
+      <c r="AH24" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="BR24" s="266"/>
-      <c r="BS24" s="258"/>
-      <c r="BT24" s="83"/>
-      <c r="BU24" s="169"/>
-      <c r="BV24" s="95"/>
-      <c r="BW24" s="258"/>
-      <c r="BX24" s="83"/>
-      <c r="BY24" s="169"/>
-      <c r="BZ24" s="95"/>
-      <c r="CA24" s="258"/>
-      <c r="CB24" s="83"/>
-      <c r="CC24" s="169"/>
-      <c r="CD24" s="95"/>
-      <c r="CE24" s="257"/>
-      <c r="CF24" s="257"/>
+      <c r="AI24" s="108"/>
+      <c r="AJ24" s="108"/>
+      <c r="AK24" s="108"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="50"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="50"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="50"/>
+      <c r="BH24" s="50"/>
+      <c r="BI24" s="50"/>
+      <c r="BJ24" s="50"/>
+      <c r="BK24" s="50"/>
+      <c r="BL24" s="50"/>
+      <c r="BM24" s="50"/>
+      <c r="BN24" s="50"/>
+      <c r="BO24" s="50"/>
+      <c r="BP24" s="51"/>
+      <c r="BQ24" s="275" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR24" s="276"/>
+      <c r="BS24" s="143"/>
+      <c r="BT24" s="45"/>
+      <c r="BU24" s="60"/>
+      <c r="BV24" s="246"/>
+      <c r="BW24" s="143"/>
+      <c r="BX24" s="45"/>
+      <c r="BY24" s="60"/>
+      <c r="BZ24" s="246"/>
+      <c r="CA24" s="143"/>
+      <c r="CB24" s="45"/>
+      <c r="CC24" s="60"/>
+      <c r="CD24" s="246"/>
+      <c r="CE24" s="242"/>
+      <c r="CF24" s="242"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="267"/>
-      <c r="K25" s="268"/>
-      <c r="L25" s="269"/>
-      <c r="M25" s="268"/>
-      <c r="N25" s="269"/>
-      <c r="O25" s="268"/>
-      <c r="P25" s="269"/>
-      <c r="Q25" s="268"/>
-      <c r="R25" s="269"/>
-      <c r="S25" s="268"/>
-      <c r="T25" s="269"/>
-      <c r="U25" s="268"/>
-      <c r="V25" s="269"/>
-      <c r="W25" s="270"/>
-      <c r="X25" s="258"/>
-      <c r="Y25" s="168"/>
-      <c r="Z25" s="169"/>
-      <c r="AA25" s="168"/>
-      <c r="AB25" s="169"/>
-      <c r="AC25" s="168"/>
-      <c r="AD25" s="169"/>
-      <c r="AE25" s="168"/>
-      <c r="AF25" s="169"/>
-      <c r="AG25" s="171"/>
-      <c r="AH25" s="271"/>
-      <c r="AI25" s="244"/>
-      <c r="AJ25" s="244"/>
-      <c r="AK25" s="244"/>
-      <c r="AL25" s="244"/>
-      <c r="AM25" s="244"/>
-      <c r="AN25" s="244"/>
-      <c r="AO25" s="244"/>
-      <c r="AP25" s="244"/>
-      <c r="AQ25" s="244"/>
-      <c r="AR25" s="244"/>
-      <c r="AS25" s="244"/>
-      <c r="AT25" s="244"/>
-      <c r="AU25" s="244"/>
-      <c r="AV25" s="244"/>
-      <c r="AW25" s="244"/>
-      <c r="AX25" s="244"/>
-      <c r="AY25" s="244"/>
-      <c r="AZ25" s="244"/>
-      <c r="BA25" s="244"/>
-      <c r="BB25" s="244"/>
-      <c r="BC25" s="244"/>
-      <c r="BD25" s="244"/>
-      <c r="BE25" s="244"/>
-      <c r="BF25" s="244"/>
-      <c r="BG25" s="244"/>
-      <c r="BH25" s="244"/>
-      <c r="BI25" s="244"/>
-      <c r="BJ25" s="244"/>
-      <c r="BK25" s="244"/>
-      <c r="BL25" s="244"/>
-      <c r="BM25" s="244"/>
-      <c r="BN25" s="244"/>
-      <c r="BO25" s="244"/>
-      <c r="BP25" s="245"/>
-      <c r="BQ25" s="272"/>
-      <c r="BR25" s="273"/>
-      <c r="BS25" s="274"/>
-      <c r="BT25" s="86"/>
-      <c r="BU25" s="135"/>
-      <c r="BV25" s="275"/>
-      <c r="BW25" s="274"/>
-      <c r="BX25" s="86"/>
-      <c r="BY25" s="135"/>
-      <c r="BZ25" s="275"/>
-      <c r="CA25" s="274"/>
-      <c r="CB25" s="86"/>
-      <c r="CC25" s="135"/>
-      <c r="CD25" s="275"/>
-      <c r="CE25" s="257"/>
-      <c r="CF25" s="257"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="262"/>
+      <c r="F25" s="263"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="149"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="149"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="305"/>
+      <c r="X25" s="143"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="281"/>
+      <c r="AI25" s="266"/>
+      <c r="AJ25" s="266"/>
+      <c r="AK25" s="266"/>
+      <c r="AL25" s="266"/>
+      <c r="AM25" s="266"/>
+      <c r="AN25" s="266"/>
+      <c r="AO25" s="266"/>
+      <c r="AP25" s="266"/>
+      <c r="AQ25" s="266"/>
+      <c r="AR25" s="266"/>
+      <c r="AS25" s="266"/>
+      <c r="AT25" s="266"/>
+      <c r="AU25" s="266"/>
+      <c r="AV25" s="266"/>
+      <c r="AW25" s="266"/>
+      <c r="AX25" s="266"/>
+      <c r="AY25" s="266"/>
+      <c r="AZ25" s="266"/>
+      <c r="BA25" s="266"/>
+      <c r="BB25" s="266"/>
+      <c r="BC25" s="266"/>
+      <c r="BD25" s="266"/>
+      <c r="BE25" s="266"/>
+      <c r="BF25" s="266"/>
+      <c r="BG25" s="266"/>
+      <c r="BH25" s="266"/>
+      <c r="BI25" s="266"/>
+      <c r="BJ25" s="266"/>
+      <c r="BK25" s="266"/>
+      <c r="BL25" s="266"/>
+      <c r="BM25" s="266"/>
+      <c r="BN25" s="266"/>
+      <c r="BO25" s="266"/>
+      <c r="BP25" s="267"/>
+      <c r="BQ25" s="277"/>
+      <c r="BR25" s="278"/>
+      <c r="BS25" s="248"/>
+      <c r="BT25" s="47"/>
+      <c r="BU25" s="46"/>
+      <c r="BV25" s="247"/>
+      <c r="BW25" s="248"/>
+      <c r="BX25" s="47"/>
+      <c r="BY25" s="46"/>
+      <c r="BZ25" s="247"/>
+      <c r="CA25" s="248"/>
+      <c r="CB25" s="47"/>
+      <c r="CC25" s="46"/>
+      <c r="CD25" s="247"/>
+      <c r="CE25" s="242"/>
+      <c r="CF25" s="242"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="229"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="276"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="189"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="189"/>
-      <c r="O26" s="188"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="188"/>
-      <c r="R26" s="189"/>
-      <c r="S26" s="188"/>
-      <c r="T26" s="189"/>
-      <c r="U26" s="188"/>
-      <c r="V26" s="189"/>
-      <c r="W26" s="191"/>
-      <c r="X26" s="276"/>
-      <c r="Y26" s="188"/>
-      <c r="Z26" s="189"/>
-      <c r="AA26" s="188"/>
-      <c r="AB26" s="189"/>
-      <c r="AC26" s="188"/>
-      <c r="AD26" s="189"/>
-      <c r="AE26" s="188"/>
-      <c r="AF26" s="189"/>
-      <c r="AG26" s="191"/>
-      <c r="AH26" s="274"/>
-      <c r="AI26" s="277"/>
-      <c r="AJ26" s="277"/>
-      <c r="AK26" s="277"/>
-      <c r="AL26" s="277"/>
-      <c r="AM26" s="277"/>
-      <c r="AN26" s="277"/>
-      <c r="AO26" s="277"/>
-      <c r="AP26" s="277"/>
-      <c r="AQ26" s="277"/>
-      <c r="AR26" s="277"/>
-      <c r="AS26" s="277"/>
-      <c r="AT26" s="277"/>
-      <c r="AU26" s="277"/>
-      <c r="AV26" s="277"/>
-      <c r="AW26" s="277"/>
-      <c r="AX26" s="277"/>
-      <c r="AY26" s="277"/>
-      <c r="AZ26" s="277"/>
-      <c r="BA26" s="277"/>
-      <c r="BB26" s="277"/>
-      <c r="BC26" s="277"/>
-      <c r="BD26" s="277"/>
-      <c r="BE26" s="277"/>
-      <c r="BF26" s="277"/>
-      <c r="BG26" s="277"/>
-      <c r="BH26" s="277"/>
-      <c r="BI26" s="277"/>
-      <c r="BJ26" s="277"/>
-      <c r="BK26" s="277"/>
-      <c r="BL26" s="277"/>
-      <c r="BM26" s="277"/>
-      <c r="BN26" s="277"/>
-      <c r="BO26" s="277"/>
-      <c r="BP26" s="275"/>
-      <c r="BQ26" s="272"/>
-      <c r="BR26" s="273"/>
-      <c r="BS26" s="274"/>
-      <c r="BT26" s="86"/>
-      <c r="BU26" s="135"/>
-      <c r="BV26" s="275"/>
-      <c r="BW26" s="274"/>
-      <c r="BX26" s="86"/>
-      <c r="BY26" s="135"/>
-      <c r="BZ26" s="275"/>
-      <c r="CA26" s="274"/>
-      <c r="CB26" s="86"/>
-      <c r="CC26" s="135"/>
-      <c r="CD26" s="275"/>
-      <c r="CE26" s="257"/>
-      <c r="CF26" s="257"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="239"/>
+      <c r="E26" s="262"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="144"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="91"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="91"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="248"/>
+      <c r="AI26" s="282"/>
+      <c r="AJ26" s="282"/>
+      <c r="AK26" s="282"/>
+      <c r="AL26" s="282"/>
+      <c r="AM26" s="282"/>
+      <c r="AN26" s="282"/>
+      <c r="AO26" s="282"/>
+      <c r="AP26" s="282"/>
+      <c r="AQ26" s="282"/>
+      <c r="AR26" s="282"/>
+      <c r="AS26" s="282"/>
+      <c r="AT26" s="282"/>
+      <c r="AU26" s="282"/>
+      <c r="AV26" s="282"/>
+      <c r="AW26" s="282"/>
+      <c r="AX26" s="282"/>
+      <c r="AY26" s="282"/>
+      <c r="AZ26" s="282"/>
+      <c r="BA26" s="282"/>
+      <c r="BB26" s="282"/>
+      <c r="BC26" s="282"/>
+      <c r="BD26" s="282"/>
+      <c r="BE26" s="282"/>
+      <c r="BF26" s="282"/>
+      <c r="BG26" s="282"/>
+      <c r="BH26" s="282"/>
+      <c r="BI26" s="282"/>
+      <c r="BJ26" s="282"/>
+      <c r="BK26" s="282"/>
+      <c r="BL26" s="282"/>
+      <c r="BM26" s="282"/>
+      <c r="BN26" s="282"/>
+      <c r="BO26" s="282"/>
+      <c r="BP26" s="247"/>
+      <c r="BQ26" s="277"/>
+      <c r="BR26" s="278"/>
+      <c r="BS26" s="248"/>
+      <c r="BT26" s="47"/>
+      <c r="BU26" s="46"/>
+      <c r="BV26" s="247"/>
+      <c r="BW26" s="248"/>
+      <c r="BX26" s="47"/>
+      <c r="BY26" s="46"/>
+      <c r="BZ26" s="247"/>
+      <c r="CA26" s="248"/>
+      <c r="CB26" s="47"/>
+      <c r="CC26" s="46"/>
+      <c r="CD26" s="247"/>
+      <c r="CE26" s="242"/>
+      <c r="CF26" s="242"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="228"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="154"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="278" t="s">
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="279"/>
-      <c r="L27" s="279"/>
-      <c r="M27" s="279"/>
-      <c r="N27" s="279"/>
-      <c r="O27" s="280"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="82"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
-      <c r="AP27" s="82"/>
-      <c r="AQ27" s="82"/>
-      <c r="AR27" s="82"/>
-      <c r="AS27" s="82"/>
-      <c r="AT27" s="82"/>
-      <c r="AU27" s="82"/>
-      <c r="AV27" s="82"/>
-      <c r="AW27" s="82"/>
-      <c r="AX27" s="82"/>
-      <c r="AY27" s="82"/>
-      <c r="AZ27" s="82"/>
-      <c r="BA27" s="82"/>
-      <c r="BB27" s="82"/>
-      <c r="BC27" s="82"/>
-      <c r="BD27" s="82"/>
-      <c r="BE27" s="82"/>
-      <c r="BF27" s="82"/>
-      <c r="BG27" s="82"/>
-      <c r="BH27" s="82"/>
-      <c r="BI27" s="281"/>
-      <c r="BJ27" s="282" t="s">
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="BK27" s="283"/>
-      <c r="BL27" s="284"/>
-      <c r="BM27" s="285" t="s">
-        <v>69</v>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="161"/>
+      <c r="S27" s="161"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="161"/>
+      <c r="AB27" s="161"/>
+      <c r="AC27" s="161"/>
+      <c r="AD27" s="161"/>
+      <c r="AE27" s="161"/>
+      <c r="AF27" s="161"/>
+      <c r="AG27" s="161"/>
+      <c r="AH27" s="161"/>
+      <c r="AI27" s="161"/>
+      <c r="AJ27" s="161"/>
+      <c r="AK27" s="161"/>
+      <c r="AL27" s="161"/>
+      <c r="AM27" s="161"/>
+      <c r="AN27" s="161"/>
+      <c r="AO27" s="161"/>
+      <c r="AP27" s="161"/>
+      <c r="AQ27" s="161"/>
+      <c r="AR27" s="161"/>
+      <c r="AS27" s="161"/>
+      <c r="AT27" s="161"/>
+      <c r="AU27" s="161"/>
+      <c r="AV27" s="161"/>
+      <c r="AW27" s="161"/>
+      <c r="AX27" s="161"/>
+      <c r="AY27" s="161"/>
+      <c r="AZ27" s="161"/>
+      <c r="BA27" s="161"/>
+      <c r="BB27" s="161"/>
+      <c r="BC27" s="161"/>
+      <c r="BD27" s="161"/>
+      <c r="BE27" s="161"/>
+      <c r="BF27" s="161"/>
+      <c r="BG27" s="161"/>
+      <c r="BH27" s="161"/>
+      <c r="BI27" s="162"/>
+      <c r="BJ27" s="98" t="s">
+        <v>19</v>
       </c>
-      <c r="BN27" s="285"/>
-      <c r="BO27" s="285"/>
-      <c r="BP27" s="285"/>
-      <c r="BQ27" s="285"/>
-      <c r="BR27" s="285"/>
-      <c r="BS27" s="285"/>
-      <c r="BT27" s="285"/>
-      <c r="BU27" s="285"/>
-      <c r="BV27" s="285"/>
-      <c r="BW27" s="285"/>
-      <c r="BX27" s="285"/>
-      <c r="BY27" s="285"/>
-      <c r="BZ27" s="285"/>
-      <c r="CA27" s="285"/>
-      <c r="CB27" s="285"/>
-      <c r="CC27" s="285"/>
-      <c r="CD27" s="285"/>
-      <c r="CE27" s="285"/>
-      <c r="CF27" s="286"/>
+      <c r="BK27" s="99"/>
+      <c r="BL27" s="100"/>
+      <c r="BM27" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN27" s="104"/>
+      <c r="BO27" s="104"/>
+      <c r="BP27" s="104"/>
+      <c r="BQ27" s="104"/>
+      <c r="BR27" s="104"/>
+      <c r="BS27" s="104"/>
+      <c r="BT27" s="104"/>
+      <c r="BU27" s="104"/>
+      <c r="BV27" s="104"/>
+      <c r="BW27" s="104"/>
+      <c r="BX27" s="104"/>
+      <c r="BY27" s="104"/>
+      <c r="BZ27" s="104"/>
+      <c r="CA27" s="104"/>
+      <c r="CB27" s="104"/>
+      <c r="CC27" s="104"/>
+      <c r="CD27" s="104"/>
+      <c r="CE27" s="104"/>
+      <c r="CF27" s="105"/>
     </row>
     <row r="28" spans="3:102" ht="22.5" customHeight="1">
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="289" t="s">
-        <v>7</v>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="137" t="s">
+        <v>6</v>
       </c>
-      <c r="K28" s="290"/>
-      <c r="L28" s="290"/>
-      <c r="M28" s="290"/>
-      <c r="N28" s="290"/>
-      <c r="O28" s="291"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="102"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="102"/>
-      <c r="AE28" s="102"/>
-      <c r="AF28" s="102"/>
-      <c r="AG28" s="102"/>
-      <c r="AH28" s="102"/>
-      <c r="AI28" s="102"/>
-      <c r="AJ28" s="102"/>
-      <c r="AK28" s="102"/>
-      <c r="AL28" s="102"/>
-      <c r="AM28" s="102"/>
-      <c r="AN28" s="102"/>
-      <c r="AO28" s="102"/>
-      <c r="AP28" s="102"/>
-      <c r="AQ28" s="102"/>
-      <c r="AR28" s="102"/>
-      <c r="AS28" s="102"/>
-      <c r="AT28" s="102"/>
-      <c r="AU28" s="102"/>
-      <c r="AV28" s="102"/>
-      <c r="AW28" s="102"/>
-      <c r="AX28" s="102"/>
-      <c r="AY28" s="102"/>
-      <c r="AZ28" s="102"/>
-      <c r="BA28" s="102"/>
-      <c r="BB28" s="102"/>
-      <c r="BC28" s="102"/>
-      <c r="BD28" s="102"/>
-      <c r="BE28" s="102"/>
-      <c r="BF28" s="102"/>
-      <c r="BG28" s="102"/>
-      <c r="BH28" s="102"/>
-      <c r="BI28" s="292"/>
-      <c r="BJ28" s="293"/>
-      <c r="BK28" s="294"/>
-      <c r="BL28" s="295"/>
-      <c r="BM28" s="296"/>
-      <c r="BN28" s="296"/>
-      <c r="BO28" s="296"/>
-      <c r="BP28" s="296"/>
-      <c r="BQ28" s="296"/>
-      <c r="BR28" s="296"/>
-      <c r="BS28" s="296"/>
-      <c r="BT28" s="296"/>
-      <c r="BU28" s="296"/>
-      <c r="BV28" s="296"/>
-      <c r="BW28" s="296"/>
-      <c r="BX28" s="296"/>
-      <c r="BY28" s="296"/>
-      <c r="BZ28" s="296"/>
-      <c r="CA28" s="296"/>
-      <c r="CB28" s="296"/>
-      <c r="CC28" s="296"/>
-      <c r="CD28" s="296"/>
-      <c r="CE28" s="296"/>
-      <c r="CF28" s="297"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="164"/>
+      <c r="S28" s="164"/>
+      <c r="T28" s="164"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="164"/>
+      <c r="W28" s="164"/>
+      <c r="X28" s="164"/>
+      <c r="Y28" s="164"/>
+      <c r="Z28" s="164"/>
+      <c r="AA28" s="164"/>
+      <c r="AB28" s="164"/>
+      <c r="AC28" s="164"/>
+      <c r="AD28" s="164"/>
+      <c r="AE28" s="164"/>
+      <c r="AF28" s="164"/>
+      <c r="AG28" s="164"/>
+      <c r="AH28" s="164"/>
+      <c r="AI28" s="164"/>
+      <c r="AJ28" s="164"/>
+      <c r="AK28" s="164"/>
+      <c r="AL28" s="164"/>
+      <c r="AM28" s="164"/>
+      <c r="AN28" s="164"/>
+      <c r="AO28" s="164"/>
+      <c r="AP28" s="164"/>
+      <c r="AQ28" s="164"/>
+      <c r="AR28" s="164"/>
+      <c r="AS28" s="164"/>
+      <c r="AT28" s="164"/>
+      <c r="AU28" s="164"/>
+      <c r="AV28" s="164"/>
+      <c r="AW28" s="164"/>
+      <c r="AX28" s="164"/>
+      <c r="AY28" s="164"/>
+      <c r="AZ28" s="164"/>
+      <c r="BA28" s="164"/>
+      <c r="BB28" s="164"/>
+      <c r="BC28" s="164"/>
+      <c r="BD28" s="164"/>
+      <c r="BE28" s="164"/>
+      <c r="BF28" s="164"/>
+      <c r="BG28" s="164"/>
+      <c r="BH28" s="164"/>
+      <c r="BI28" s="165"/>
+      <c r="BJ28" s="101"/>
+      <c r="BK28" s="102"/>
+      <c r="BL28" s="103"/>
+      <c r="BM28" s="106"/>
+      <c r="BN28" s="106"/>
+      <c r="BO28" s="106"/>
+      <c r="BP28" s="106"/>
+      <c r="BQ28" s="106"/>
+      <c r="BR28" s="106"/>
+      <c r="BS28" s="106"/>
+      <c r="BT28" s="106"/>
+      <c r="BU28" s="106"/>
+      <c r="BV28" s="106"/>
+      <c r="BW28" s="106"/>
+      <c r="BX28" s="106"/>
+      <c r="BY28" s="106"/>
+      <c r="BZ28" s="106"/>
+      <c r="CA28" s="106"/>
+      <c r="CB28" s="106"/>
+      <c r="CC28" s="106"/>
+      <c r="CD28" s="106"/>
+      <c r="CE28" s="106"/>
+      <c r="CF28" s="107"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="12"/>
@@ -10963,406 +10962,406 @@
       <c r="CF30" s="5"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="44"/>
-      <c r="AD31" s="46" t="s">
+      <c r="C31" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="47"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="47"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="47"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47"/>
-      <c r="AS31" s="47"/>
-      <c r="AT31" s="47"/>
-      <c r="AU31" s="47"/>
-      <c r="AV31" s="47"/>
-      <c r="AW31" s="47"/>
-      <c r="AX31" s="47"/>
-      <c r="AY31" s="47"/>
-      <c r="AZ31" s="47"/>
-      <c r="BA31" s="47"/>
-      <c r="BB31" s="47"/>
-      <c r="BC31" s="48"/>
-      <c r="BE31" s="40" t="s">
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="119"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="119"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="120"/>
+      <c r="AD31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="BF31" s="41"/>
-      <c r="BG31" s="41"/>
-      <c r="BH31" s="41"/>
-      <c r="BI31" s="41"/>
-      <c r="BJ31" s="41"/>
-      <c r="BK31" s="41"/>
-      <c r="BL31" s="41"/>
-      <c r="BM31" s="41"/>
-      <c r="BN31" s="41"/>
-      <c r="BO31" s="41"/>
-      <c r="BP31" s="41"/>
-      <c r="BQ31" s="41"/>
-      <c r="BR31" s="41"/>
-      <c r="BS31" s="41"/>
-      <c r="BT31" s="41"/>
-      <c r="BU31" s="41"/>
-      <c r="BV31" s="41"/>
-      <c r="BW31" s="41"/>
-      <c r="BX31" s="41"/>
-      <c r="BY31" s="41"/>
-      <c r="BZ31" s="41"/>
-      <c r="CA31" s="41"/>
-      <c r="CB31" s="41"/>
-      <c r="CC31" s="41"/>
-      <c r="CD31" s="41"/>
-      <c r="CE31" s="41"/>
-      <c r="CF31" s="41"/>
+      <c r="AE31" s="123"/>
+      <c r="AF31" s="123"/>
+      <c r="AG31" s="123"/>
+      <c r="AH31" s="123"/>
+      <c r="AI31" s="123"/>
+      <c r="AJ31" s="123"/>
+      <c r="AK31" s="123"/>
+      <c r="AL31" s="123"/>
+      <c r="AM31" s="123"/>
+      <c r="AN31" s="123"/>
+      <c r="AO31" s="123"/>
+      <c r="AP31" s="123"/>
+      <c r="AQ31" s="123"/>
+      <c r="AR31" s="123"/>
+      <c r="AS31" s="123"/>
+      <c r="AT31" s="123"/>
+      <c r="AU31" s="123"/>
+      <c r="AV31" s="123"/>
+      <c r="AW31" s="123"/>
+      <c r="AX31" s="123"/>
+      <c r="AY31" s="123"/>
+      <c r="AZ31" s="123"/>
+      <c r="BA31" s="123"/>
+      <c r="BB31" s="123"/>
+      <c r="BC31" s="124"/>
+      <c r="BE31" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF31" s="117"/>
+      <c r="BG31" s="117"/>
+      <c r="BH31" s="117"/>
+      <c r="BI31" s="117"/>
+      <c r="BJ31" s="117"/>
+      <c r="BK31" s="117"/>
+      <c r="BL31" s="117"/>
+      <c r="BM31" s="117"/>
+      <c r="BN31" s="117"/>
+      <c r="BO31" s="117"/>
+      <c r="BP31" s="117"/>
+      <c r="BQ31" s="117"/>
+      <c r="BR31" s="117"/>
+      <c r="BS31" s="117"/>
+      <c r="BT31" s="117"/>
+      <c r="BU31" s="117"/>
+      <c r="BV31" s="117"/>
+      <c r="BW31" s="117"/>
+      <c r="BX31" s="117"/>
+      <c r="BY31" s="117"/>
+      <c r="BZ31" s="117"/>
+      <c r="CA31" s="117"/>
+      <c r="CB31" s="117"/>
+      <c r="CC31" s="117"/>
+      <c r="CD31" s="117"/>
+      <c r="CE31" s="117"/>
+      <c r="CF31" s="117"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="11"/>
       <c r="D32" s="2"/>
-      <c r="L32" s="59" t="s">
-        <v>62</v>
+      <c r="L32" s="32" t="s">
+        <v>61</v>
       </c>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="60"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="33"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="45" t="s">
-        <v>10</v>
+      <c r="AR32" s="121" t="s">
+        <v>9</v>
       </c>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="45"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
-      <c r="BA32" s="45"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="58"/>
-      <c r="BE32" s="37" t="s">
-        <v>16</v>
+      <c r="AS32" s="121"/>
+      <c r="AT32" s="121"/>
+      <c r="AU32" s="121"/>
+      <c r="AV32" s="121"/>
+      <c r="AW32" s="121"/>
+      <c r="AX32" s="121"/>
+      <c r="AY32" s="121"/>
+      <c r="AZ32" s="121"/>
+      <c r="BA32" s="121"/>
+      <c r="BB32" s="121"/>
+      <c r="BC32" s="136"/>
+      <c r="BE32" s="113" t="s">
+        <v>15</v>
       </c>
-      <c r="BF32" s="38"/>
-      <c r="BG32" s="38"/>
-      <c r="BH32" s="38"/>
-      <c r="BI32" s="38"/>
-      <c r="BJ32" s="38"/>
-      <c r="BK32" s="38"/>
-      <c r="BL32" s="38"/>
-      <c r="BM32" s="38"/>
-      <c r="BN32" s="38"/>
-      <c r="BO32" s="38"/>
-      <c r="BP32" s="38"/>
-      <c r="BQ32" s="38"/>
-      <c r="BR32" s="38"/>
-      <c r="BS32" s="38"/>
-      <c r="BT32" s="38"/>
-      <c r="BU32" s="38"/>
-      <c r="BV32" s="38"/>
-      <c r="BW32" s="38"/>
-      <c r="BX32" s="38"/>
-      <c r="BY32" s="38"/>
-      <c r="BZ32" s="38"/>
-      <c r="CA32" s="38"/>
-      <c r="CB32" s="38"/>
-      <c r="CC32" s="38"/>
-      <c r="CD32" s="38"/>
-      <c r="CE32" s="38"/>
-      <c r="CF32" s="39"/>
+      <c r="BF32" s="114"/>
+      <c r="BG32" s="114"/>
+      <c r="BH32" s="114"/>
+      <c r="BI32" s="114"/>
+      <c r="BJ32" s="114"/>
+      <c r="BK32" s="114"/>
+      <c r="BL32" s="114"/>
+      <c r="BM32" s="114"/>
+      <c r="BN32" s="114"/>
+      <c r="BO32" s="114"/>
+      <c r="BP32" s="114"/>
+      <c r="BQ32" s="114"/>
+      <c r="BR32" s="114"/>
+      <c r="BS32" s="114"/>
+      <c r="BT32" s="114"/>
+      <c r="BU32" s="114"/>
+      <c r="BV32" s="114"/>
+      <c r="BW32" s="114"/>
+      <c r="BX32" s="114"/>
+      <c r="BY32" s="114"/>
+      <c r="BZ32" s="114"/>
+      <c r="CA32" s="114"/>
+      <c r="CB32" s="114"/>
+      <c r="CC32" s="114"/>
+      <c r="CD32" s="114"/>
+      <c r="CE32" s="114"/>
+      <c r="CF32" s="115"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="10" t="s">
+      <c r="C33" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="52"/>
-      <c r="AD33" s="28" t="s">
+      <c r="D33" s="126"/>
+      <c r="E33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="10" t="s">
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="129"/>
+      <c r="V33" s="129"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="129"/>
+      <c r="Y33" s="129"/>
+      <c r="Z33" s="129"/>
+      <c r="AA33" s="129"/>
+      <c r="AB33" s="130"/>
+      <c r="AD33" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="51"/>
-      <c r="AL33" s="51"/>
-      <c r="AM33" s="51"/>
-      <c r="AN33" s="51"/>
-      <c r="AO33" s="51"/>
-      <c r="AP33" s="51"/>
-      <c r="AQ33" s="51"/>
-      <c r="AR33" s="51"/>
-      <c r="AS33" s="51"/>
-      <c r="AT33" s="51"/>
-      <c r="AU33" s="51"/>
-      <c r="AV33" s="51"/>
-      <c r="AW33" s="51"/>
-      <c r="AX33" s="51"/>
-      <c r="AY33" s="51"/>
-      <c r="AZ33" s="51"/>
-      <c r="BA33" s="51"/>
-      <c r="BB33" s="51"/>
-      <c r="BC33" s="52"/>
-      <c r="BE33" s="54" t="s">
+      <c r="AE33" s="126"/>
+      <c r="AF33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BF33" s="55"/>
-      <c r="BG33" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH33" s="36"/>
-      <c r="BI33" s="36"/>
-      <c r="BJ33" s="36"/>
-      <c r="BK33" s="36"/>
-      <c r="BL33" s="36"/>
-      <c r="BM33" s="36"/>
-      <c r="BN33" s="36"/>
-      <c r="BO33" s="36"/>
-      <c r="BP33" s="36"/>
-      <c r="BQ33" s="36"/>
-      <c r="BT33" s="45" t="s">
+      <c r="AJ33" s="129"/>
+      <c r="AK33" s="129"/>
+      <c r="AL33" s="129"/>
+      <c r="AM33" s="129"/>
+      <c r="AN33" s="129"/>
+      <c r="AO33" s="129"/>
+      <c r="AP33" s="129"/>
+      <c r="AQ33" s="129"/>
+      <c r="AR33" s="129"/>
+      <c r="AS33" s="129"/>
+      <c r="AT33" s="129"/>
+      <c r="AU33" s="129"/>
+      <c r="AV33" s="129"/>
+      <c r="AW33" s="129"/>
+      <c r="AX33" s="129"/>
+      <c r="AY33" s="129"/>
+      <c r="AZ33" s="129"/>
+      <c r="BA33" s="129"/>
+      <c r="BB33" s="129"/>
+      <c r="BC33" s="130"/>
+      <c r="BE33" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="BU33" s="45"/>
-      <c r="BV33" s="45"/>
-      <c r="BW33" s="45"/>
-      <c r="BX33" s="45"/>
-      <c r="BY33" s="45"/>
-      <c r="BZ33" s="45"/>
-      <c r="CA33" s="45"/>
-      <c r="CB33" s="45"/>
-      <c r="CC33" s="45"/>
-      <c r="CD33" s="45"/>
-      <c r="CE33" s="45"/>
+      <c r="BF33" s="133"/>
+      <c r="BG33" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH33" s="112"/>
+      <c r="BI33" s="112"/>
+      <c r="BJ33" s="112"/>
+      <c r="BK33" s="112"/>
+      <c r="BL33" s="112"/>
+      <c r="BM33" s="112"/>
+      <c r="BN33" s="112"/>
+      <c r="BO33" s="112"/>
+      <c r="BP33" s="112"/>
+      <c r="BQ33" s="112"/>
+      <c r="BT33" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU33" s="121"/>
+      <c r="BV33" s="121"/>
+      <c r="BW33" s="121"/>
+      <c r="BX33" s="121"/>
+      <c r="BY33" s="121"/>
+      <c r="BZ33" s="121"/>
+      <c r="CA33" s="121"/>
+      <c r="CB33" s="121"/>
+      <c r="CC33" s="121"/>
+      <c r="CD33" s="121"/>
+      <c r="CE33" s="121"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="28"/>
-      <c r="D34" s="49"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
       <c r="E34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="52"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="51"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
-      <c r="BB34" s="51"/>
-      <c r="BC34" s="52"/>
-      <c r="BE34" s="54"/>
-      <c r="BF34" s="55"/>
-      <c r="BG34" s="8" t="s">
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="129"/>
+      <c r="V34" s="129"/>
+      <c r="W34" s="129"/>
+      <c r="X34" s="129"/>
+      <c r="Y34" s="129"/>
+      <c r="Z34" s="129"/>
+      <c r="AA34" s="129"/>
+      <c r="AB34" s="130"/>
+      <c r="AD34" s="125"/>
+      <c r="AE34" s="126"/>
+      <c r="AF34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="BL34" s="30"/>
-      <c r="BM34" s="30"/>
-      <c r="BN34" s="30"/>
-      <c r="BO34" s="30"/>
-      <c r="BP34" s="30"/>
-      <c r="BQ34" s="30"/>
-      <c r="BR34" s="30"/>
-      <c r="BS34" s="30"/>
-      <c r="BT34" s="30"/>
-      <c r="BU34" s="30"/>
-      <c r="BV34" s="30"/>
-      <c r="BW34" s="30"/>
-      <c r="BX34" s="30"/>
-      <c r="BY34" s="30"/>
-      <c r="BZ34" s="30"/>
-      <c r="CA34" s="30"/>
-      <c r="CB34" s="30"/>
-      <c r="CC34" s="30"/>
-      <c r="CD34" s="30"/>
+      <c r="AJ34" s="129"/>
+      <c r="AK34" s="129"/>
+      <c r="AL34" s="129"/>
+      <c r="AM34" s="129"/>
+      <c r="AN34" s="129"/>
+      <c r="AO34" s="129"/>
+      <c r="AP34" s="129"/>
+      <c r="AQ34" s="129"/>
+      <c r="AR34" s="129"/>
+      <c r="AS34" s="129"/>
+      <c r="AT34" s="129"/>
+      <c r="AU34" s="129"/>
+      <c r="AV34" s="129"/>
+      <c r="AW34" s="129"/>
+      <c r="AX34" s="129"/>
+      <c r="AY34" s="129"/>
+      <c r="AZ34" s="129"/>
+      <c r="BA34" s="129"/>
+      <c r="BB34" s="129"/>
+      <c r="BC34" s="130"/>
+      <c r="BE34" s="132"/>
+      <c r="BF34" s="133"/>
+      <c r="BG34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL34" s="109"/>
+      <c r="BM34" s="109"/>
+      <c r="BN34" s="109"/>
+      <c r="BO34" s="109"/>
+      <c r="BP34" s="109"/>
+      <c r="BQ34" s="109"/>
+      <c r="BR34" s="109"/>
+      <c r="BS34" s="109"/>
+      <c r="BT34" s="109"/>
+      <c r="BU34" s="109"/>
+      <c r="BV34" s="109"/>
+      <c r="BW34" s="109"/>
+      <c r="BX34" s="109"/>
+      <c r="BY34" s="109"/>
+      <c r="BZ34" s="109"/>
+      <c r="CA34" s="109"/>
+      <c r="CB34" s="109"/>
+      <c r="CC34" s="109"/>
+      <c r="CD34" s="109"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="28"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="126"/>
       <c r="E35" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="129"/>
+      <c r="W35" s="129"/>
+      <c r="X35" s="129"/>
+      <c r="Y35" s="129"/>
+      <c r="Z35" s="129"/>
       <c r="AA35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="9"/>
+      <c r="AD35" s="125"/>
+      <c r="AE35" s="126"/>
+      <c r="AF35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ35" s="129"/>
+      <c r="AK35" s="129"/>
+      <c r="AL35" s="129"/>
+      <c r="AM35" s="129"/>
+      <c r="AN35" s="129"/>
+      <c r="AO35" s="129"/>
+      <c r="AP35" s="129"/>
+      <c r="AQ35" s="129"/>
+      <c r="AR35" s="129"/>
+      <c r="AS35" s="129"/>
+      <c r="AT35" s="129"/>
+      <c r="AU35" s="129"/>
+      <c r="AV35" s="129"/>
+      <c r="AW35" s="129"/>
+      <c r="AX35" s="129"/>
+      <c r="AY35" s="129"/>
+      <c r="AZ35" s="129"/>
+      <c r="BA35" s="129"/>
+      <c r="BB35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC35" s="9"/>
+      <c r="BE35" s="132"/>
+      <c r="BF35" s="133"/>
+      <c r="BG35" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AB35" s="9"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="51"/>
-      <c r="AL35" s="51"/>
-      <c r="AM35" s="51"/>
-      <c r="AN35" s="51"/>
-      <c r="AO35" s="51"/>
-      <c r="AP35" s="51"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="51"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="51"/>
-      <c r="AX35" s="51"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="51"/>
-      <c r="BA35" s="51"/>
-      <c r="BB35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC35" s="9"/>
-      <c r="BE35" s="54"/>
-      <c r="BF35" s="55"/>
-      <c r="BG35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL35" s="30"/>
-      <c r="BM35" s="30"/>
-      <c r="BN35" s="30"/>
-      <c r="BO35" s="30"/>
-      <c r="BP35" s="30"/>
-      <c r="BQ35" s="30"/>
-      <c r="BR35" s="30"/>
-      <c r="BS35" s="30"/>
-      <c r="BT35" s="30"/>
-      <c r="BU35" s="30"/>
-      <c r="BV35" s="30"/>
-      <c r="BW35" s="30"/>
-      <c r="BX35" s="30"/>
-      <c r="BY35" s="30"/>
-      <c r="BZ35" s="30"/>
-      <c r="CA35" s="30"/>
-      <c r="CB35" s="30"/>
+      <c r="BL35" s="109"/>
+      <c r="BM35" s="109"/>
+      <c r="BN35" s="109"/>
+      <c r="BO35" s="109"/>
+      <c r="BP35" s="109"/>
+      <c r="BQ35" s="109"/>
+      <c r="BR35" s="109"/>
+      <c r="BS35" s="109"/>
+      <c r="BT35" s="109"/>
+      <c r="BU35" s="109"/>
+      <c r="BV35" s="109"/>
+      <c r="BW35" s="109"/>
+      <c r="BX35" s="109"/>
+      <c r="BY35" s="109"/>
+      <c r="BZ35" s="109"/>
+      <c r="CA35" s="109"/>
+      <c r="CB35" s="109"/>
       <c r="CC35" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="29"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="128"/>
       <c r="E36" s="7" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -11370,53 +11369,53 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="53"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="50"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109"/>
+      <c r="U36" s="109"/>
+      <c r="V36" s="109"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="109"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="131"/>
+      <c r="AD36" s="127"/>
+      <c r="AE36" s="128"/>
       <c r="AF36" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30"/>
-      <c r="AM36" s="30"/>
-      <c r="AN36" s="30"/>
-      <c r="AO36" s="30"/>
-      <c r="AP36" s="30"/>
-      <c r="AQ36" s="30"/>
-      <c r="AR36" s="30"/>
-      <c r="AS36" s="30"/>
-      <c r="AT36" s="30"/>
-      <c r="AU36" s="30"/>
-      <c r="AV36" s="30"/>
-      <c r="AW36" s="30"/>
-      <c r="AX36" s="30"/>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
-      <c r="BA36" s="30"/>
-      <c r="BB36" s="30"/>
-      <c r="BC36" s="53"/>
-      <c r="BE36" s="56"/>
-      <c r="BF36" s="57"/>
+      <c r="AJ36" s="109"/>
+      <c r="AK36" s="109"/>
+      <c r="AL36" s="109"/>
+      <c r="AM36" s="109"/>
+      <c r="AN36" s="109"/>
+      <c r="AO36" s="109"/>
+      <c r="AP36" s="109"/>
+      <c r="AQ36" s="109"/>
+      <c r="AR36" s="109"/>
+      <c r="AS36" s="109"/>
+      <c r="AT36" s="109"/>
+      <c r="AU36" s="109"/>
+      <c r="AV36" s="109"/>
+      <c r="AW36" s="109"/>
+      <c r="AX36" s="109"/>
+      <c r="AY36" s="109"/>
+      <c r="AZ36" s="109"/>
+      <c r="BA36" s="109"/>
+      <c r="BB36" s="109"/>
+      <c r="BC36" s="131"/>
+      <c r="BE36" s="134"/>
+      <c r="BF36" s="135"/>
       <c r="BG36" s="6" t="s">
         <v>0</v>
       </c>
@@ -11424,27 +11423,27 @@
       <c r="BI36" s="5"/>
       <c r="BJ36" s="5"/>
       <c r="BK36" s="5"/>
-      <c r="BL36" s="34" t="s">
-        <v>61</v>
+      <c r="BL36" s="110" t="s">
+        <v>60</v>
       </c>
-      <c r="BM36" s="35"/>
-      <c r="BN36" s="35"/>
-      <c r="BO36" s="35"/>
-      <c r="BP36" s="35"/>
-      <c r="BQ36" s="35"/>
-      <c r="BR36" s="35"/>
-      <c r="BS36" s="35"/>
-      <c r="BT36" s="35"/>
-      <c r="BU36" s="35"/>
-      <c r="BV36" s="35"/>
-      <c r="BW36" s="35"/>
-      <c r="BX36" s="35"/>
-      <c r="BY36" s="35"/>
-      <c r="BZ36" s="35"/>
-      <c r="CA36" s="35"/>
-      <c r="CB36" s="35"/>
-      <c r="CC36" s="35"/>
-      <c r="CD36" s="35"/>
+      <c r="BM36" s="111"/>
+      <c r="BN36" s="111"/>
+      <c r="BO36" s="111"/>
+      <c r="BP36" s="111"/>
+      <c r="BQ36" s="111"/>
+      <c r="BR36" s="111"/>
+      <c r="BS36" s="111"/>
+      <c r="BT36" s="111"/>
+      <c r="BU36" s="111"/>
+      <c r="BV36" s="111"/>
+      <c r="BW36" s="111"/>
+      <c r="BX36" s="111"/>
+      <c r="BY36" s="111"/>
+      <c r="BZ36" s="111"/>
+      <c r="CA36" s="111"/>
+      <c r="CB36" s="111"/>
+      <c r="CC36" s="111"/>
+      <c r="CD36" s="111"/>
       <c r="CE36" s="5"/>
       <c r="CF36" s="5"/>
       <c r="CG36" s="4"/>
@@ -11673,6 +11672,156 @@
     </row>
   </sheetData>
   <mergeCells count="174">
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ3:CD4"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AF25:AG26"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BU3:BY4"/>
+    <mergeCell ref="BP3:BT4"/>
+    <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="BS16:CD21"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="E6:F15"/>
+    <mergeCell ref="BX7:BY8"/>
+    <mergeCell ref="BP7:BQ8"/>
+    <mergeCell ref="BR7:BS8"/>
+    <mergeCell ref="BT7:BU8"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="AW21:AY22"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="AH25:BP26"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BF8:BK8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="AV6:BK6"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AG10:CD11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="X6:AU6"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="AF14:AI15"/>
+    <mergeCell ref="AU20:AV22"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="AJ14:BO15"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AE21:AH22"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="BD7:BK7"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC14:AE15"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="P27:BI28"/>
+    <mergeCell ref="BJ27:BL28"/>
+    <mergeCell ref="BM27:CF28"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
     <mergeCell ref="L32:AB32"/>
     <mergeCell ref="CV21:CX23"/>
     <mergeCell ref="G20:AD20"/>
@@ -11697,156 +11846,6 @@
     <mergeCell ref="Q14:R15"/>
     <mergeCell ref="J12:O13"/>
     <mergeCell ref="P12:CD13"/>
-    <mergeCell ref="BJ27:BL28"/>
-    <mergeCell ref="BM27:CF28"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="P27:BI28"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="AF14:AI15"/>
-    <mergeCell ref="AU20:AV22"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="AJ14:BO15"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AE21:AH22"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="BD7:BK7"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="AV6:BK6"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AG10:CD11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="BF8:BK8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="AW21:AY22"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="AH25:BP26"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BZ3:CD4"/>
-    <mergeCell ref="BZ7:CA8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AF25:AG26"/>
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BU3:BY4"/>
-    <mergeCell ref="BP3:BT4"/>
-    <mergeCell ref="BL6:CA6"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="BS16:CD21"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="E6:F15"/>
-    <mergeCell ref="BX7:BY8"/>
-    <mergeCell ref="BP7:BQ8"/>
-    <mergeCell ref="BR7:BS8"/>
-    <mergeCell ref="BT7:BU8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="V24:W26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -124,7 +124,7 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>電　 話</t>
@@ -134,14 +134,14 @@
     <rPh sb="3" eb="4">
       <t>ハナシ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>印</t>
     <rPh sb="0" eb="1">
       <t>イン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>氏　名</t>
@@ -151,7 +151,7 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>氏　 名</t>
@@ -161,7 +161,7 @@
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>事業主等氏名</t>
@@ -171,7 +171,7 @@
     <rPh sb="4" eb="6">
       <t>シメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>住　所</t>
@@ -181,7 +181,7 @@
     <rPh sb="2" eb="3">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>名　 称</t>
@@ -191,7 +191,7 @@
     <rPh sb="3" eb="4">
       <t>ショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>事業所等名称</t>
@@ -201,7 +201,7 @@
     <rPh sb="4" eb="6">
       <t>メイショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>令和　　　年　　　月　　　日提出</t>
@@ -220,21 +220,21 @@
     <rPh sb="14" eb="16">
       <t>テイシュツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(届出人)</t>
     <rPh sb="1" eb="4">
       <t>トドケデニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>所在地</t>
     <rPh sb="0" eb="3">
       <t>ショザイチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(医療保険者等）</t>
@@ -247,7 +247,7 @@
     <rPh sb="6" eb="7">
       <t>トウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>事業所等所在地</t>
@@ -260,7 +260,7 @@
     <rPh sb="4" eb="7">
       <t>ショザイチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(事業主等）</t>
@@ -270,22 +270,7 @@
     <rPh sb="4" eb="5">
       <t>トウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>届書の提出は配偶者（第2号被保険者）に委任します</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　　　　　　　　</t>
-    </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>国民年金第３号被保険者住所変更届の記載のとおり届出します。</t>
@@ -319,7 +304,7 @@
     <rPh sb="23" eb="25">
       <t>トドケデ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>上記のとおり被保険者から第３号関係の届出がありましたので提出します。</t>
@@ -344,7 +329,7 @@
     <rPh sb="28" eb="30">
       <t>テイシュツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>届出人の個人番号（基礎年金番号）に誤りがないことを確認しました。</t>
@@ -375,18 +360,18 @@
     <rPh sb="25" eb="27">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>⑦</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>変更前</t>
@@ -396,7 +381,7 @@
     <rPh sb="2" eb="3">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>令和
@@ -404,11 +389,11 @@
     <rPh sb="0" eb="2">
       <t>レ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(ﾌﾘｶﾞﾅ)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>⑥　住所変更年月日</t>
@@ -421,7 +406,7 @@
     <rPh sb="6" eb="9">
       <t>ネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>⑤　　　　　　　　住　　　　　　　　　　　　　　　　　　所</t>
@@ -431,7 +416,7 @@
     <rPh sb="28" eb="29">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>④　郵便番号</t>
@@ -441,7 +426,7 @@
     <rPh sb="4" eb="6">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>変更後</t>
@@ -451,21 +436,21 @@
     <rPh sb="2" eb="3">
       <t>ゴ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(名）</t>
     <rPh sb="1" eb="2">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(氏）</t>
     <rPh sb="1" eb="2">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>被保険者
@@ -476,15 +461,15 @@
     <rPh sb="5" eb="7">
       <t>シメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>③</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>②　生　年　月　日</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>①　個人番号（または基礎年金番号）</t>
@@ -503,7 +488,7 @@
     <rPh sb="14" eb="16">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>被保険者欄</t>
@@ -513,14 +498,14 @@
     <rPh sb="4" eb="5">
       <t>ラン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　際に手続きが必要となります。</t>
     <rPh sb="6" eb="8">
       <t>テツヅ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>被保険者と配偶者が同住所の場合は④～⑦欄への記入は不要です。</t>
@@ -548,7 +533,7 @@
     <rPh sb="25" eb="27">
       <t>フヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>（注１）住民票住所以外の居所を登録する場合は、今後、住所（居所）を変更した</t>
@@ -558,7 +543,7 @@
     <rPh sb="29" eb="31">
       <t>キョショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>日本年金機構</t>
@@ -571,14 +556,14 @@
     <rPh sb="4" eb="6">
       <t>キコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>令和</t>
     <rPh sb="0" eb="2">
       <t>レ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>変更年月日</t>
@@ -588,25 +573,25 @@
     <rPh sb="2" eb="5">
       <t>ネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>変更前</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウマエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(ﾌﾘｶﾞﾅ)　</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>住所</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>郵便番号</t>
@@ -616,26 +601,26 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>変更後</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウゴ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(名）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(氏）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>イ　被保険者の氏名</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ア　個人番号（または基礎年金番号）</t>
@@ -654,7 +639,7 @@
     <rPh sb="14" eb="16">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※事業所整理記号</t>
@@ -667,7 +652,7 @@
     <rPh sb="6" eb="8">
       <t>キゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>配偶者欄</t>
@@ -677,7 +662,7 @@
     <rPh sb="3" eb="4">
       <t>ラン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>国民年金第３号被保険者住所変更届</t>
@@ -699,7 +684,7 @@
     <rPh sb="11" eb="13">
       <t>ジュウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>担当者</t>
@@ -709,7 +694,7 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>グループ長
@@ -723,7 +708,7 @@
     <rPh sb="11" eb="12">
       <t>チョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>副事務センター長
@@ -743,7 +728,7 @@
     <rPh sb="23" eb="24">
       <t>チョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>事務センター長
@@ -760,7 +745,7 @@
     <rPh sb="16" eb="17">
       <t>チョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>◎「※」印欄は記入しないでください。</t>
@@ -772,30 +757,6 @@
     <t>日本年金機構理事長　あて</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">　　　　　　　　　　　　　　（本人が自署した場合は押印は不要です。）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　　　　　　　　　-　　　　　　　　-　　　　　　　　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　　　　　　　　　　</t>
-    </r>
-  </si>
-  <si>
     <t>令和　　　年　　　月　　　日提出</t>
   </si>
   <si>
@@ -805,14 +766,25 @@
     <t>　　　　　　　　　　　（      被保険者と配偶者は同居している。）</t>
   </si>
   <si>
+    <t>５.昭和
+７.平成
+９.令和</t>
+  </si>
+  <si>
+    <t>※被保険者
+ 整理番号</t>
+  </si>
+  <si>
+    <t>電 話</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> ウ</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
       </rPr>
       <t xml:space="preserve">
 　備考</t>
@@ -826,8 +798,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="10"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
       </rPr>
       <t>注２</t>
     </r>
@@ -839,50 +810,67 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
       </rPr>
       <t>　住所コード</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">   短期在留　　 住民票住所以外の居所</t>
+      <t>届書の提出は配偶者（第2号被保険者）に委任します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t>　　　　　　　　</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　　　　　　　　（本人が自署した場合は押印は不要です。）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t>　　　　　　　　　-　　　　　　　　-　　　　　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t>　　　　　　　　　　</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    短期在留　　  住民票住所以外の居所</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
       </rPr>
       <t>注１</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
       </rPr>
       <t>　
-   海外居住     その他（　　　　　　　　　）</t>
+    海外居住         その他（　　　　　　　　　）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">   短期在留　　  住民票住所以外の居所注１　
-   海外居住      その他（　　　　　　　　）  </t>
-  </si>
-  <si>
-    <t>５.昭和
-７.平成
-９.令和</t>
-  </si>
-  <si>
-    <t>※被保険者
- 整理番号</t>
-  </si>
-  <si>
-    <t>電 話</t>
+    <t xml:space="preserve">     短期在留　　     住民票住所以外の居所注１　
+     海外居住             その他（　　　　　　　　）  </t>
   </si>
 </sst>
 </file>
@@ -892,17 +880,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -912,126 +894,75 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <sz val="5"/>
       <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <sz val="7"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <sz val="8.5"/>
       <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1870,922 +1801,886 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7721,15 +7616,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>174021</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2571</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7744,7 +7639,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629151" y="2943225"/>
+          <a:off x="4667251" y="2971800"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7786,15 +7681,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>174021</xdr:rowOff>
+      <xdr:rowOff>154971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7809,7 +7704,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4638675" y="3143250"/>
+          <a:off x="4657725" y="3124200"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8303,6 +8198,130 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="A2_19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="5762625"/>
+          <a:ext cx="609600" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>247651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="A2_19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9696450" y="5734050"/>
+          <a:ext cx="809626" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8606,10 +8625,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:CX76"/>
+  <dimension ref="C1:CX75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:W8"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36:AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -8628,2836 +8647,2493 @@
     <col min="86" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:84" ht="26.25" customHeight="1"/>
-    <row r="2" spans="3:84" ht="20.25" customHeight="1">
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="BK2" s="290" t="s">
+    <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
+    <row r="2" spans="3:82" ht="20.25" customHeight="1">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="BK2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5"/>
+      <c r="BY2" s="5"/>
+      <c r="BZ2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10"/>
+      <c r="CC2" s="10"/>
+      <c r="CD2" s="11"/>
+    </row>
+    <row r="3" spans="3:82" ht="17.25" customHeight="1">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="Y3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="13"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="17"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="17"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="16"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="17"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="17"/>
+    </row>
+    <row r="4" spans="3:82" ht="17.25" customHeight="1">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="18"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BX4" s="19"/>
+      <c r="BY4" s="20"/>
+      <c r="BZ4" s="18"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="20"/>
+    </row>
+    <row r="5" spans="3:82" ht="9" customHeight="1"/>
+    <row r="6" spans="3:82" ht="24" customHeight="1">
+      <c r="C6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BL2" s="286"/>
-      <c r="BM2" s="286"/>
-      <c r="BN2" s="286"/>
-      <c r="BO2" s="286"/>
-      <c r="BP2" s="283" t="s">
-        <v>55</v>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22" t="s">
+        <v>50</v>
       </c>
-      <c r="BQ2" s="284"/>
-      <c r="BR2" s="284"/>
-      <c r="BS2" s="284"/>
-      <c r="BT2" s="285"/>
-      <c r="BU2" s="286" t="s">
-        <v>54</v>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24" t="s">
+        <v>49</v>
       </c>
-      <c r="BV2" s="286"/>
-      <c r="BW2" s="286"/>
-      <c r="BX2" s="286"/>
-      <c r="BY2" s="286"/>
-      <c r="BZ2" s="287" t="s">
-        <v>53</v>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="25" t="s">
+        <v>63</v>
       </c>
-      <c r="CA2" s="288"/>
-      <c r="CB2" s="288"/>
-      <c r="CC2" s="288"/>
-      <c r="CD2" s="289"/>
-    </row>
-    <row r="3" spans="3:84" ht="17.25" customHeight="1">
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="211"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="Y3" s="210" t="s">
-        <v>52</v>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="27" t="s">
+        <v>48</v>
       </c>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="210"/>
-      <c r="AD3" s="210"/>
-      <c r="AE3" s="210"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="210"/>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="210"/>
-      <c r="AJ3" s="210"/>
-      <c r="AK3" s="210"/>
-      <c r="AL3" s="210"/>
-      <c r="AM3" s="210"/>
-      <c r="AN3" s="210"/>
-      <c r="AO3" s="210"/>
-      <c r="AP3" s="210"/>
-      <c r="AQ3" s="210"/>
-      <c r="AR3" s="210"/>
-      <c r="AS3" s="210"/>
-      <c r="AT3" s="210"/>
-      <c r="AU3" s="210"/>
-      <c r="AV3" s="210"/>
-      <c r="AW3" s="210"/>
-      <c r="AX3" s="210"/>
-      <c r="AY3" s="210"/>
-      <c r="AZ3" s="210"/>
-      <c r="BA3" s="210"/>
-      <c r="BB3" s="210"/>
-      <c r="BC3" s="210"/>
-      <c r="BD3" s="210"/>
-      <c r="BE3" s="210"/>
-      <c r="BF3" s="210"/>
-      <c r="BG3" s="210"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="212"/>
-      <c r="BL3" s="213"/>
-      <c r="BM3" s="213"/>
-      <c r="BN3" s="213"/>
-      <c r="BO3" s="214"/>
-      <c r="BP3" s="212"/>
-      <c r="BQ3" s="213"/>
-      <c r="BR3" s="213"/>
-      <c r="BS3" s="213"/>
-      <c r="BT3" s="214"/>
-      <c r="BU3" s="212"/>
-      <c r="BV3" s="213"/>
-      <c r="BW3" s="213"/>
-      <c r="BX3" s="213"/>
-      <c r="BY3" s="214"/>
-      <c r="BZ3" s="212"/>
-      <c r="CA3" s="213"/>
-      <c r="CB3" s="213"/>
-      <c r="CC3" s="213"/>
-      <c r="CD3" s="214"/>
-    </row>
-    <row r="4" spans="3:84" ht="17.25" customHeight="1">
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="211"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="Y4" s="210"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
-      <c r="AB4" s="210"/>
-      <c r="AC4" s="210"/>
-      <c r="AD4" s="210"/>
-      <c r="AE4" s="210"/>
-      <c r="AF4" s="210"/>
-      <c r="AG4" s="210"/>
-      <c r="AH4" s="210"/>
-      <c r="AI4" s="210"/>
-      <c r="AJ4" s="210"/>
-      <c r="AK4" s="210"/>
-      <c r="AL4" s="210"/>
-      <c r="AM4" s="210"/>
-      <c r="AN4" s="210"/>
-      <c r="AO4" s="210"/>
-      <c r="AP4" s="210"/>
-      <c r="AQ4" s="210"/>
-      <c r="AR4" s="210"/>
-      <c r="AS4" s="210"/>
-      <c r="AT4" s="210"/>
-      <c r="AU4" s="210"/>
-      <c r="AV4" s="210"/>
-      <c r="AW4" s="210"/>
-      <c r="AX4" s="210"/>
-      <c r="AY4" s="210"/>
-      <c r="AZ4" s="210"/>
-      <c r="BA4" s="210"/>
-      <c r="BB4" s="210"/>
-      <c r="BC4" s="210"/>
-      <c r="BD4" s="210"/>
-      <c r="BE4" s="210"/>
-      <c r="BF4" s="210"/>
-      <c r="BG4" s="210"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="215"/>
-      <c r="BL4" s="216"/>
-      <c r="BM4" s="216"/>
-      <c r="BN4" s="216"/>
-      <c r="BO4" s="217"/>
-      <c r="BP4" s="215"/>
-      <c r="BQ4" s="216"/>
-      <c r="BR4" s="216"/>
-      <c r="BS4" s="216"/>
-      <c r="BT4" s="217"/>
-      <c r="BU4" s="215"/>
-      <c r="BV4" s="216"/>
-      <c r="BW4" s="216"/>
-      <c r="BX4" s="216"/>
-      <c r="BY4" s="217"/>
-      <c r="BZ4" s="215"/>
-      <c r="CA4" s="216"/>
-      <c r="CB4" s="216"/>
-      <c r="CC4" s="216"/>
-      <c r="CD4" s="217"/>
-    </row>
-    <row r="5" spans="3:84" ht="9" customHeight="1"/>
-    <row r="6" spans="3:84" ht="24" customHeight="1">
-      <c r="C6" s="239" t="s">
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="28"/>
+      <c r="BB6" s="28"/>
+      <c r="BC6" s="28"/>
+      <c r="BD6" s="28"/>
+      <c r="BE6" s="28"/>
+      <c r="BF6" s="28"/>
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="28"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="29"/>
+      <c r="BL6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="151" t="s">
-        <v>51</v>
+      <c r="BM6" s="16"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="16"/>
+      <c r="BP6" s="16"/>
+      <c r="BQ6" s="16"/>
+      <c r="BR6" s="16"/>
+      <c r="BS6" s="16"/>
+      <c r="BT6" s="16"/>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="16"/>
+      <c r="BW6" s="16"/>
+      <c r="BX6" s="16"/>
+      <c r="BY6" s="16"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="17"/>
+      <c r="CD6" s="30"/>
+    </row>
+    <row r="7" spans="3:82" ht="15.75" customHeight="1">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="43" t="s">
+        <v>22</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="234" t="s">
-        <v>50</v>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="47"/>
+      <c r="BE7" s="48"/>
+      <c r="BF7" s="48"/>
+      <c r="BG7" s="48"/>
+      <c r="BH7" s="48"/>
+      <c r="BI7" s="48"/>
+      <c r="BJ7" s="48"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="50" t="s">
+        <v>62</v>
       </c>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="234"/>
-      <c r="Q6" s="234"/>
-      <c r="R6" s="234"/>
-      <c r="S6" s="232" t="s">
+      <c r="BM7" s="51"/>
+      <c r="BN7" s="51"/>
+      <c r="BO7" s="52"/>
+      <c r="BP7" s="53"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="38"/>
+      <c r="BS7" s="39"/>
+      <c r="BT7" s="53"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="38"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="53"/>
+      <c r="BY7" s="38"/>
+      <c r="BZ7" s="40"/>
+      <c r="CA7" s="54"/>
+      <c r="CB7" s="55"/>
+      <c r="CD7" s="30"/>
+    </row>
+    <row r="8" spans="3:82" ht="21.75" customHeight="1">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="61"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="61"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="66"/>
+      <c r="AZ8" s="66"/>
+      <c r="BA8" s="66"/>
+      <c r="BB8" s="66"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="70"/>
+      <c r="BH8" s="70"/>
+      <c r="BI8" s="70"/>
+      <c r="BJ8" s="70"/>
+      <c r="BK8" s="71"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="73"/>
+      <c r="BN8" s="73"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="75"/>
+      <c r="BQ8" s="62"/>
+      <c r="BR8" s="61"/>
+      <c r="BS8" s="62"/>
+      <c r="BT8" s="75"/>
+      <c r="BU8" s="62"/>
+      <c r="BV8" s="61"/>
+      <c r="BW8" s="62"/>
+      <c r="BX8" s="75"/>
+      <c r="BY8" s="61"/>
+      <c r="BZ8" s="63"/>
+      <c r="CA8" s="76"/>
+      <c r="CB8" s="77"/>
+      <c r="CC8" s="78"/>
+      <c r="CD8" s="30"/>
+    </row>
+    <row r="9" spans="3:82" ht="15.75" customHeight="1">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="89"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="89"/>
+      <c r="BB9" s="89"/>
+      <c r="BC9" s="89"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="89"/>
+      <c r="BF9" s="89"/>
+      <c r="BG9" s="89"/>
+      <c r="BH9" s="89"/>
+      <c r="BI9" s="89"/>
+      <c r="BJ9" s="89"/>
+      <c r="BK9" s="89"/>
+      <c r="BL9" s="89"/>
+      <c r="BM9" s="89"/>
+      <c r="BN9" s="89"/>
+      <c r="BO9" s="89"/>
+      <c r="BP9" s="89"/>
+      <c r="BQ9" s="89"/>
+      <c r="BR9" s="89"/>
+      <c r="BS9" s="89"/>
+      <c r="BT9" s="89"/>
+      <c r="BU9" s="89"/>
+      <c r="BV9" s="89"/>
+      <c r="BW9" s="89"/>
+      <c r="BX9" s="89"/>
+      <c r="BY9" s="89"/>
+      <c r="BZ9" s="89"/>
+      <c r="CA9" s="89"/>
+      <c r="CB9" s="89"/>
+      <c r="CC9" s="89"/>
+      <c r="CD9" s="90"/>
+    </row>
+    <row r="10" spans="3:82" ht="15.75" customHeight="1">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="101"/>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="101"/>
+      <c r="AL10" s="101"/>
+      <c r="AM10" s="101"/>
+      <c r="AN10" s="101"/>
+      <c r="AO10" s="101"/>
+      <c r="AP10" s="101"/>
+      <c r="AQ10" s="101"/>
+      <c r="AR10" s="101"/>
+      <c r="AS10" s="101"/>
+      <c r="AT10" s="101"/>
+      <c r="AU10" s="101"/>
+      <c r="AV10" s="101"/>
+      <c r="AW10" s="101"/>
+      <c r="AX10" s="101"/>
+      <c r="AY10" s="101"/>
+      <c r="AZ10" s="101"/>
+      <c r="BA10" s="101"/>
+      <c r="BB10" s="101"/>
+      <c r="BC10" s="101"/>
+      <c r="BD10" s="101"/>
+      <c r="BE10" s="101"/>
+      <c r="BF10" s="101"/>
+      <c r="BG10" s="101"/>
+      <c r="BH10" s="101"/>
+      <c r="BI10" s="101"/>
+      <c r="BJ10" s="101"/>
+      <c r="BK10" s="101"/>
+      <c r="BL10" s="101"/>
+      <c r="BM10" s="101"/>
+      <c r="BN10" s="101"/>
+      <c r="BO10" s="101"/>
+      <c r="BP10" s="101"/>
+      <c r="BQ10" s="101"/>
+      <c r="BR10" s="101"/>
+      <c r="BS10" s="101"/>
+      <c r="BT10" s="101"/>
+      <c r="BU10" s="101"/>
+      <c r="BV10" s="101"/>
+      <c r="BW10" s="101"/>
+      <c r="BX10" s="101"/>
+      <c r="BY10" s="101"/>
+      <c r="BZ10" s="101"/>
+      <c r="CA10" s="101"/>
+      <c r="CB10" s="101"/>
+      <c r="CC10" s="101"/>
+      <c r="CD10" s="102"/>
+    </row>
+    <row r="11" spans="3:82" ht="15.75" customHeight="1">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="109"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="113"/>
+      <c r="AJ11" s="113"/>
+      <c r="AK11" s="113"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="113"/>
+      <c r="AO11" s="113"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
+      <c r="AY11" s="113"/>
+      <c r="AZ11" s="113"/>
+      <c r="BA11" s="113"/>
+      <c r="BB11" s="113"/>
+      <c r="BC11" s="113"/>
+      <c r="BD11" s="113"/>
+      <c r="BE11" s="113"/>
+      <c r="BF11" s="113"/>
+      <c r="BG11" s="113"/>
+      <c r="BH11" s="113"/>
+      <c r="BI11" s="113"/>
+      <c r="BJ11" s="113"/>
+      <c r="BK11" s="113"/>
+      <c r="BL11" s="113"/>
+      <c r="BM11" s="113"/>
+      <c r="BN11" s="113"/>
+      <c r="BO11" s="113"/>
+      <c r="BP11" s="113"/>
+      <c r="BQ11" s="113"/>
+      <c r="BR11" s="113"/>
+      <c r="BS11" s="113"/>
+      <c r="BT11" s="113"/>
+      <c r="BU11" s="113"/>
+      <c r="BV11" s="113"/>
+      <c r="BW11" s="113"/>
+      <c r="BX11" s="113"/>
+      <c r="BY11" s="113"/>
+      <c r="BZ11" s="113"/>
+      <c r="CA11" s="113"/>
+      <c r="CB11" s="113"/>
+      <c r="CC11" s="113"/>
+      <c r="CD11" s="114"/>
+    </row>
+    <row r="12" spans="3:82" ht="15.75" customHeight="1">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="116"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="119"/>
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="119"/>
+      <c r="AH12" s="119"/>
+      <c r="AI12" s="119"/>
+      <c r="AJ12" s="119"/>
+      <c r="AK12" s="119"/>
+      <c r="AL12" s="119"/>
+      <c r="AM12" s="119"/>
+      <c r="AN12" s="119"/>
+      <c r="AO12" s="119"/>
+      <c r="AP12" s="119"/>
+      <c r="AQ12" s="119"/>
+      <c r="AR12" s="119"/>
+      <c r="AS12" s="119"/>
+      <c r="AT12" s="119"/>
+      <c r="AU12" s="119"/>
+      <c r="AV12" s="119"/>
+      <c r="AW12" s="119"/>
+      <c r="AX12" s="119"/>
+      <c r="AY12" s="119"/>
+      <c r="AZ12" s="119"/>
+      <c r="BA12" s="119"/>
+      <c r="BB12" s="119"/>
+      <c r="BC12" s="119"/>
+      <c r="BD12" s="119"/>
+      <c r="BE12" s="119"/>
+      <c r="BF12" s="119"/>
+      <c r="BG12" s="119"/>
+      <c r="BH12" s="119"/>
+      <c r="BI12" s="119"/>
+      <c r="BJ12" s="119"/>
+      <c r="BK12" s="119"/>
+      <c r="BL12" s="119"/>
+      <c r="BM12" s="119"/>
+      <c r="BN12" s="119"/>
+      <c r="BO12" s="119"/>
+      <c r="BP12" s="119"/>
+      <c r="BQ12" s="119"/>
+      <c r="BR12" s="119"/>
+      <c r="BS12" s="119"/>
+      <c r="BT12" s="119"/>
+      <c r="BU12" s="119"/>
+      <c r="BV12" s="119"/>
+      <c r="BW12" s="119"/>
+      <c r="BX12" s="119"/>
+      <c r="BY12" s="119"/>
+      <c r="BZ12" s="119"/>
+      <c r="CA12" s="119"/>
+      <c r="CB12" s="119"/>
+      <c r="CC12" s="119"/>
+      <c r="CD12" s="120"/>
+    </row>
+    <row r="13" spans="3:82" ht="15.75" customHeight="1">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="125"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="125"/>
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="125"/>
+      <c r="AJ13" s="125"/>
+      <c r="AK13" s="125"/>
+      <c r="AL13" s="125"/>
+      <c r="AM13" s="125"/>
+      <c r="AN13" s="125"/>
+      <c r="AO13" s="125"/>
+      <c r="AP13" s="125"/>
+      <c r="AQ13" s="125"/>
+      <c r="AR13" s="125"/>
+      <c r="AS13" s="125"/>
+      <c r="AT13" s="125"/>
+      <c r="AU13" s="125"/>
+      <c r="AV13" s="125"/>
+      <c r="AW13" s="125"/>
+      <c r="AX13" s="125"/>
+      <c r="AY13" s="125"/>
+      <c r="AZ13" s="125"/>
+      <c r="BA13" s="125"/>
+      <c r="BB13" s="125"/>
+      <c r="BC13" s="125"/>
+      <c r="BD13" s="125"/>
+      <c r="BE13" s="125"/>
+      <c r="BF13" s="125"/>
+      <c r="BG13" s="125"/>
+      <c r="BH13" s="125"/>
+      <c r="BI13" s="125"/>
+      <c r="BJ13" s="125"/>
+      <c r="BK13" s="125"/>
+      <c r="BL13" s="125"/>
+      <c r="BM13" s="125"/>
+      <c r="BN13" s="125"/>
+      <c r="BO13" s="125"/>
+      <c r="BP13" s="125"/>
+      <c r="BQ13" s="125"/>
+      <c r="BR13" s="125"/>
+      <c r="BS13" s="125"/>
+      <c r="BT13" s="125"/>
+      <c r="BU13" s="125"/>
+      <c r="BV13" s="125"/>
+      <c r="BW13" s="125"/>
+      <c r="BX13" s="125"/>
+      <c r="BY13" s="125"/>
+      <c r="BZ13" s="125"/>
+      <c r="CA13" s="125"/>
+      <c r="CB13" s="125"/>
+      <c r="CC13" s="125"/>
+      <c r="CD13" s="126"/>
+    </row>
+    <row r="14" spans="3:82" ht="15.75" customHeight="1">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="133"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="139"/>
+      <c r="AF14" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG14" s="141"/>
+      <c r="AH14" s="141"/>
+      <c r="AI14" s="141"/>
+      <c r="AJ14" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="233"/>
-      <c r="U6" s="233"/>
-      <c r="V6" s="233"/>
-      <c r="W6" s="233"/>
-      <c r="X6" s="35" t="s">
-        <v>49</v>
+      <c r="AK14" s="143"/>
+      <c r="AL14" s="143"/>
+      <c r="AM14" s="143"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="143"/>
+      <c r="AQ14" s="143"/>
+      <c r="AR14" s="143"/>
+      <c r="AS14" s="143"/>
+      <c r="AT14" s="143"/>
+      <c r="AU14" s="143"/>
+      <c r="AV14" s="143"/>
+      <c r="AW14" s="143"/>
+      <c r="AX14" s="143"/>
+      <c r="AY14" s="143"/>
+      <c r="AZ14" s="143"/>
+      <c r="BA14" s="143"/>
+      <c r="BB14" s="143"/>
+      <c r="BC14" s="143"/>
+      <c r="BD14" s="143"/>
+      <c r="BE14" s="143"/>
+      <c r="BF14" s="143"/>
+      <c r="BG14" s="143"/>
+      <c r="BH14" s="143"/>
+      <c r="BI14" s="143"/>
+      <c r="BJ14" s="143"/>
+      <c r="BK14" s="143"/>
+      <c r="BL14" s="143"/>
+      <c r="BM14" s="143"/>
+      <c r="BN14" s="143"/>
+      <c r="BO14" s="144"/>
+    </row>
+    <row r="15" spans="3:82" ht="15.75" customHeight="1">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="152"/>
+      <c r="W15" s="153"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="151"/>
+      <c r="Z15" s="152"/>
+      <c r="AA15" s="153"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="157"/>
+      <c r="AE15" s="158"/>
+      <c r="AF15" s="159"/>
+      <c r="AG15" s="160"/>
+      <c r="AH15" s="160"/>
+      <c r="AI15" s="160"/>
+      <c r="AJ15" s="161"/>
+      <c r="AK15" s="162"/>
+      <c r="AL15" s="162"/>
+      <c r="AM15" s="162"/>
+      <c r="AN15" s="162"/>
+      <c r="AO15" s="162"/>
+      <c r="AP15" s="162"/>
+      <c r="AQ15" s="162"/>
+      <c r="AR15" s="162"/>
+      <c r="AS15" s="162"/>
+      <c r="AT15" s="162"/>
+      <c r="AU15" s="162"/>
+      <c r="AV15" s="162"/>
+      <c r="AW15" s="162"/>
+      <c r="AX15" s="162"/>
+      <c r="AY15" s="162"/>
+      <c r="AZ15" s="162"/>
+      <c r="BA15" s="162"/>
+      <c r="BB15" s="162"/>
+      <c r="BC15" s="162"/>
+      <c r="BD15" s="162"/>
+      <c r="BE15" s="162"/>
+      <c r="BF15" s="162"/>
+      <c r="BG15" s="162"/>
+      <c r="BH15" s="162"/>
+      <c r="BI15" s="162"/>
+      <c r="BJ15" s="162"/>
+      <c r="BK15" s="162"/>
+      <c r="BL15" s="162"/>
+      <c r="BM15" s="162"/>
+      <c r="BN15" s="162"/>
+      <c r="BO15" s="163"/>
+      <c r="BS15" s="164" t="s">
+        <v>37</v>
       </c>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="36" t="s">
-        <v>48</v>
+      <c r="BT15" s="165"/>
+      <c r="BU15" s="165"/>
+      <c r="BV15" s="165"/>
+      <c r="BW15" s="165"/>
+      <c r="BX15" s="165"/>
+      <c r="BY15" s="165"/>
+      <c r="BZ15" s="165"/>
+      <c r="CA15" s="165"/>
+      <c r="CB15" s="165"/>
+      <c r="CC15" s="165"/>
+      <c r="CD15" s="166"/>
+    </row>
+    <row r="16" spans="3:82" ht="12.75" customHeight="1">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="169"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="169"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="170"/>
+      <c r="S16" s="170"/>
+      <c r="T16" s="170"/>
+      <c r="U16" s="170"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="170"/>
+      <c r="Y16" s="170"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="170"/>
+      <c r="AB16" s="170"/>
+      <c r="AJ16" s="171"/>
+      <c r="AO16" s="171" t="s">
+        <v>36</v>
       </c>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="37"/>
-      <c r="BL6" s="145" t="s">
+      <c r="BS16" s="164"/>
+      <c r="BT16" s="165"/>
+      <c r="BU16" s="165"/>
+      <c r="BV16" s="165"/>
+      <c r="BW16" s="165"/>
+      <c r="BX16" s="165"/>
+      <c r="BY16" s="165"/>
+      <c r="BZ16" s="165"/>
+      <c r="CA16" s="165"/>
+      <c r="CB16" s="165"/>
+      <c r="CC16" s="165"/>
+      <c r="CD16" s="166"/>
+    </row>
+    <row r="17" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="H17" s="173" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO17" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS17" s="175"/>
+      <c r="BT17" s="12"/>
+      <c r="BU17" s="12"/>
+      <c r="BV17" s="12"/>
+      <c r="BW17" s="12"/>
+      <c r="BX17" s="12"/>
+      <c r="BY17" s="12"/>
+      <c r="BZ17" s="12"/>
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="12"/>
+      <c r="CC17" s="12"/>
+      <c r="CD17" s="176"/>
+    </row>
+    <row r="18" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="H18" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS18" s="175"/>
+      <c r="BT18" s="12"/>
+      <c r="BU18" s="12"/>
+      <c r="BV18" s="12"/>
+      <c r="BW18" s="12"/>
+      <c r="BX18" s="12"/>
+      <c r="BY18" s="12"/>
+      <c r="BZ18" s="12"/>
+      <c r="CA18" s="12"/>
+      <c r="CB18" s="12"/>
+      <c r="CC18" s="12"/>
+      <c r="CD18" s="176"/>
+    </row>
+    <row r="19" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="178" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="178"/>
+      <c r="O19" s="178"/>
+      <c r="P19" s="178"/>
+      <c r="Q19" s="178"/>
+      <c r="R19" s="178"/>
+      <c r="S19" s="178"/>
+      <c r="T19" s="178"/>
+      <c r="U19" s="178"/>
+      <c r="V19" s="178"/>
+      <c r="W19" s="178"/>
+      <c r="X19" s="178"/>
+      <c r="Y19" s="178"/>
+      <c r="Z19" s="178"/>
+      <c r="AA19" s="178"/>
+      <c r="AB19" s="178"/>
+      <c r="AC19" s="178"/>
+      <c r="AD19" s="178"/>
+      <c r="AE19" s="178"/>
+      <c r="AF19" s="178"/>
+      <c r="AG19" s="178"/>
+      <c r="AH19" s="178"/>
+      <c r="AI19" s="178"/>
+      <c r="AJ19" s="178"/>
+      <c r="AV19" s="177"/>
+      <c r="BS19" s="175"/>
+      <c r="BT19" s="12"/>
+      <c r="BU19" s="12"/>
+      <c r="BV19" s="12"/>
+      <c r="BW19" s="12"/>
+      <c r="BX19" s="12"/>
+      <c r="BY19" s="12"/>
+      <c r="BZ19" s="12"/>
+      <c r="CA19" s="12"/>
+      <c r="CB19" s="12"/>
+      <c r="CC19" s="12"/>
+      <c r="CD19" s="176"/>
+    </row>
+    <row r="20" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="179" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="180"/>
+      <c r="G20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="181"/>
+      <c r="AV20" s="182"/>
+      <c r="AW20" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX20" s="184"/>
+      <c r="AY20" s="185"/>
+      <c r="AZ20" s="186" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA20" s="187"/>
+      <c r="BB20" s="187"/>
+      <c r="BC20" s="188"/>
+      <c r="BD20" s="188"/>
+      <c r="BE20" s="188"/>
+      <c r="BF20" s="188"/>
+      <c r="BG20" s="188"/>
+      <c r="BH20" s="188"/>
+      <c r="BI20" s="189"/>
+      <c r="BJ20" s="190"/>
+      <c r="BK20" s="190"/>
+      <c r="BL20" s="190"/>
+      <c r="BM20" s="190"/>
+      <c r="BN20" s="190"/>
+      <c r="BO20" s="190"/>
+      <c r="BP20" s="190"/>
+      <c r="BQ20" s="191"/>
+      <c r="BS20" s="175"/>
+      <c r="BT20" s="12"/>
+      <c r="BU20" s="12"/>
+      <c r="BV20" s="12"/>
+      <c r="BW20" s="12"/>
+      <c r="BX20" s="12"/>
+      <c r="BY20" s="12"/>
+      <c r="BZ20" s="12"/>
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="12"/>
+      <c r="CC20" s="12"/>
+      <c r="CD20" s="176"/>
+    </row>
+    <row r="21" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="196"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="195"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="195"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="196"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="195"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="195"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="196"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="197"/>
+      <c r="AJ21" s="198"/>
+      <c r="AK21" s="199"/>
+      <c r="AL21" s="200"/>
+      <c r="AM21" s="201"/>
+      <c r="AN21" s="198"/>
+      <c r="AO21" s="199"/>
+      <c r="AP21" s="200"/>
+      <c r="AQ21" s="201"/>
+      <c r="AR21" s="198"/>
+      <c r="AS21" s="199"/>
+      <c r="AT21" s="200"/>
+      <c r="AU21" s="202"/>
+      <c r="AV21" s="203"/>
+      <c r="AW21" s="204" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX21" s="204"/>
+      <c r="AY21" s="205"/>
+      <c r="AZ21" s="206" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA21" s="207"/>
+      <c r="BB21" s="208"/>
+      <c r="BC21" s="208"/>
+      <c r="BD21" s="208"/>
+      <c r="BE21" s="208"/>
+      <c r="BF21" s="208"/>
+      <c r="BG21" s="208"/>
+      <c r="BH21" s="208"/>
+      <c r="BI21" s="206" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ21" s="207"/>
+      <c r="BK21" s="208"/>
+      <c r="BL21" s="208"/>
+      <c r="BM21" s="208"/>
+      <c r="BN21" s="208"/>
+      <c r="BO21" s="208"/>
+      <c r="BP21" s="208"/>
+      <c r="BQ21" s="209"/>
+      <c r="BS21" s="210"/>
+      <c r="BT21" s="211"/>
+      <c r="BU21" s="211"/>
+      <c r="BV21" s="211"/>
+      <c r="BW21" s="211"/>
+      <c r="BX21" s="211"/>
+      <c r="BY21" s="211"/>
+      <c r="BZ21" s="211"/>
+      <c r="CA21" s="211"/>
+      <c r="CB21" s="211"/>
+      <c r="CC21" s="211"/>
+      <c r="CD21" s="212"/>
+      <c r="CV21" s="3"/>
+      <c r="CW21" s="3"/>
+      <c r="CX21" s="3"/>
+    </row>
+    <row r="22" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="213"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="214"/>
+      <c r="AJ22" s="215"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="215"/>
+      <c r="AM22" s="216"/>
+      <c r="AN22" s="215"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="215"/>
+      <c r="AQ22" s="216"/>
+      <c r="AR22" s="215"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="215"/>
+      <c r="AU22" s="217"/>
+      <c r="AV22" s="218"/>
+      <c r="AW22" s="219"/>
+      <c r="AX22" s="219"/>
+      <c r="AY22" s="220"/>
+      <c r="AZ22" s="77"/>
+      <c r="BA22" s="78"/>
+      <c r="BB22" s="61"/>
+      <c r="BC22" s="61"/>
+      <c r="BD22" s="61"/>
+      <c r="BE22" s="61"/>
+      <c r="BF22" s="61"/>
+      <c r="BG22" s="61"/>
+      <c r="BH22" s="61"/>
+      <c r="BI22" s="77"/>
+      <c r="BJ22" s="78"/>
+      <c r="BK22" s="61"/>
+      <c r="BL22" s="61"/>
+      <c r="BM22" s="61"/>
+      <c r="BN22" s="61"/>
+      <c r="BO22" s="61"/>
+      <c r="BP22" s="61"/>
+      <c r="BQ22" s="76"/>
+      <c r="CV22" s="3"/>
+      <c r="CW22" s="3"/>
+      <c r="CX22" s="3"/>
+    </row>
+    <row r="23" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="85"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="16"/>
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="16"/>
+      <c r="BE23" s="16"/>
+      <c r="BF23" s="16"/>
+      <c r="BG23" s="16"/>
+      <c r="BH23" s="16"/>
+      <c r="BI23" s="16"/>
+      <c r="BJ23" s="16"/>
+      <c r="BK23" s="16"/>
+      <c r="BL23" s="16"/>
+      <c r="BM23" s="16"/>
+      <c r="BN23" s="16"/>
+      <c r="BO23" s="16"/>
+      <c r="BP23" s="17"/>
+      <c r="BQ23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR23" s="16"/>
+      <c r="BS23" s="16"/>
+      <c r="BT23" s="16"/>
+      <c r="BU23" s="16"/>
+      <c r="BV23" s="16"/>
+      <c r="BW23" s="16"/>
+      <c r="BX23" s="16"/>
+      <c r="BY23" s="16"/>
+      <c r="BZ23" s="16"/>
+      <c r="CA23" s="16"/>
+      <c r="CB23" s="16"/>
+      <c r="CC23" s="16"/>
+      <c r="CD23" s="17"/>
+      <c r="CE23" s="221"/>
+      <c r="CF23" s="221"/>
+      <c r="CG23" s="55"/>
+      <c r="CV23" s="3"/>
+      <c r="CW23" s="3"/>
+      <c r="CX23" s="3"/>
+    </row>
+    <row r="24" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="222"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="133"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="133"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="223" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y24" s="224"/>
+      <c r="Z24" s="224"/>
+      <c r="AA24" s="224"/>
+      <c r="AB24" s="224"/>
+      <c r="AC24" s="224"/>
+      <c r="AD24" s="224"/>
+      <c r="AE24" s="224"/>
+      <c r="AF24" s="224"/>
+      <c r="AG24" s="225"/>
+      <c r="AH24" s="226" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI24" s="226"/>
+      <c r="AJ24" s="226"/>
+      <c r="AK24" s="226"/>
+      <c r="AL24" s="89"/>
+      <c r="AM24" s="89"/>
+      <c r="AN24" s="89"/>
+      <c r="AO24" s="89"/>
+      <c r="AP24" s="89"/>
+      <c r="AQ24" s="89"/>
+      <c r="AR24" s="89"/>
+      <c r="AS24" s="89"/>
+      <c r="AT24" s="89"/>
+      <c r="AU24" s="89"/>
+      <c r="AV24" s="89"/>
+      <c r="AW24" s="89"/>
+      <c r="AX24" s="89"/>
+      <c r="AY24" s="89"/>
+      <c r="AZ24" s="89"/>
+      <c r="BA24" s="89"/>
+      <c r="BB24" s="89"/>
+      <c r="BC24" s="89"/>
+      <c r="BD24" s="89"/>
+      <c r="BE24" s="89"/>
+      <c r="BF24" s="89"/>
+      <c r="BG24" s="89"/>
+      <c r="BH24" s="89"/>
+      <c r="BI24" s="89"/>
+      <c r="BJ24" s="89"/>
+      <c r="BK24" s="89"/>
+      <c r="BL24" s="89"/>
+      <c r="BM24" s="89"/>
+      <c r="BN24" s="89"/>
+      <c r="BO24" s="89"/>
+      <c r="BP24" s="90"/>
+      <c r="BQ24" s="227" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR24" s="228"/>
+      <c r="BS24" s="222"/>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="134"/>
+      <c r="BV24" s="54"/>
+      <c r="BW24" s="222"/>
+      <c r="BX24" s="39"/>
+      <c r="BY24" s="134"/>
+      <c r="BZ24" s="54"/>
+      <c r="CA24" s="222"/>
+      <c r="CB24" s="39"/>
+      <c r="CC24" s="134"/>
+      <c r="CD24" s="54"/>
+      <c r="CE24" s="221"/>
+      <c r="CF24" s="221"/>
+      <c r="CG24" s="55"/>
+    </row>
+    <row r="25" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="229"/>
+      <c r="K25" s="230"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="230"/>
+      <c r="N25" s="231"/>
+      <c r="O25" s="230"/>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="230"/>
+      <c r="R25" s="231"/>
+      <c r="S25" s="230"/>
+      <c r="T25" s="231"/>
+      <c r="U25" s="230"/>
+      <c r="V25" s="231"/>
+      <c r="W25" s="232"/>
+      <c r="X25" s="222"/>
+      <c r="Y25" s="133"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="133"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="133"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="133"/>
+      <c r="AF25" s="134"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="233"/>
+      <c r="AI25" s="208"/>
+      <c r="AJ25" s="208"/>
+      <c r="AK25" s="208"/>
+      <c r="AL25" s="208"/>
+      <c r="AM25" s="208"/>
+      <c r="AN25" s="208"/>
+      <c r="AO25" s="208"/>
+      <c r="AP25" s="208"/>
+      <c r="AQ25" s="208"/>
+      <c r="AR25" s="208"/>
+      <c r="AS25" s="208"/>
+      <c r="AT25" s="208"/>
+      <c r="AU25" s="208"/>
+      <c r="AV25" s="208"/>
+      <c r="AW25" s="208"/>
+      <c r="AX25" s="208"/>
+      <c r="AY25" s="208"/>
+      <c r="AZ25" s="208"/>
+      <c r="BA25" s="208"/>
+      <c r="BB25" s="208"/>
+      <c r="BC25" s="208"/>
+      <c r="BD25" s="208"/>
+      <c r="BE25" s="208"/>
+      <c r="BF25" s="208"/>
+      <c r="BG25" s="208"/>
+      <c r="BH25" s="208"/>
+      <c r="BI25" s="208"/>
+      <c r="BJ25" s="208"/>
+      <c r="BK25" s="208"/>
+      <c r="BL25" s="208"/>
+      <c r="BM25" s="208"/>
+      <c r="BN25" s="208"/>
+      <c r="BO25" s="208"/>
+      <c r="BP25" s="209"/>
+      <c r="BQ25" s="234"/>
+      <c r="BR25" s="235"/>
+      <c r="BS25" s="236"/>
+      <c r="BT25" s="42"/>
+      <c r="BU25" s="97"/>
+      <c r="BV25" s="237"/>
+      <c r="BW25" s="236"/>
+      <c r="BX25" s="42"/>
+      <c r="BY25" s="97"/>
+      <c r="BZ25" s="237"/>
+      <c r="CA25" s="236"/>
+      <c r="CB25" s="42"/>
+      <c r="CC25" s="97"/>
+      <c r="CD25" s="237"/>
+      <c r="CE25" s="221"/>
+      <c r="CF25" s="221"/>
+      <c r="CG25" s="55"/>
+    </row>
+    <row r="26" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="238"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="153"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="238"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="153"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="153"/>
+      <c r="AC26" s="152"/>
+      <c r="AD26" s="153"/>
+      <c r="AE26" s="152"/>
+      <c r="AF26" s="153"/>
+      <c r="AG26" s="155"/>
+      <c r="AH26" s="236"/>
+      <c r="AI26" s="239"/>
+      <c r="AJ26" s="239"/>
+      <c r="AK26" s="239"/>
+      <c r="AL26" s="239"/>
+      <c r="AM26" s="239"/>
+      <c r="AN26" s="239"/>
+      <c r="AO26" s="239"/>
+      <c r="AP26" s="239"/>
+      <c r="AQ26" s="239"/>
+      <c r="AR26" s="239"/>
+      <c r="AS26" s="239"/>
+      <c r="AT26" s="239"/>
+      <c r="AU26" s="239"/>
+      <c r="AV26" s="239"/>
+      <c r="AW26" s="239"/>
+      <c r="AX26" s="239"/>
+      <c r="AY26" s="239"/>
+      <c r="AZ26" s="239"/>
+      <c r="BA26" s="239"/>
+      <c r="BB26" s="239"/>
+      <c r="BC26" s="239"/>
+      <c r="BD26" s="239"/>
+      <c r="BE26" s="239"/>
+      <c r="BF26" s="239"/>
+      <c r="BG26" s="239"/>
+      <c r="BH26" s="239"/>
+      <c r="BI26" s="239"/>
+      <c r="BJ26" s="239"/>
+      <c r="BK26" s="239"/>
+      <c r="BL26" s="239"/>
+      <c r="BM26" s="239"/>
+      <c r="BN26" s="239"/>
+      <c r="BO26" s="239"/>
+      <c r="BP26" s="237"/>
+      <c r="BQ26" s="234"/>
+      <c r="BR26" s="235"/>
+      <c r="BS26" s="236"/>
+      <c r="BT26" s="42"/>
+      <c r="BU26" s="97"/>
+      <c r="BV26" s="237"/>
+      <c r="BW26" s="236"/>
+      <c r="BX26" s="42"/>
+      <c r="BY26" s="97"/>
+      <c r="BZ26" s="237"/>
+      <c r="CA26" s="236"/>
+      <c r="CB26" s="42"/>
+      <c r="CC26" s="97"/>
+      <c r="CD26" s="237"/>
+      <c r="CE26" s="221"/>
+      <c r="CF26" s="221"/>
+      <c r="CG26" s="55"/>
+    </row>
+    <row r="27" spans="3:102" ht="15.75" customHeight="1">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="116"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="240" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="241"/>
+      <c r="L27" s="241"/>
+      <c r="M27" s="241"/>
+      <c r="N27" s="241"/>
+      <c r="O27" s="242"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="38"/>
+      <c r="AY27" s="38"/>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="38"/>
+      <c r="BB27" s="38"/>
+      <c r="BC27" s="38"/>
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="38"/>
+      <c r="BF27" s="38"/>
+      <c r="BG27" s="38"/>
+      <c r="BH27" s="38"/>
+      <c r="BI27" s="243"/>
+      <c r="BJ27" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK27" s="245"/>
+      <c r="BL27" s="246"/>
+      <c r="BM27" s="247" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN27" s="247"/>
+      <c r="BO27" s="247"/>
+      <c r="BP27" s="247"/>
+      <c r="BQ27" s="247"/>
+      <c r="BR27" s="247"/>
+      <c r="BS27" s="247"/>
+      <c r="BT27" s="247"/>
+      <c r="BU27" s="247"/>
+      <c r="BV27" s="247"/>
+      <c r="BW27" s="247"/>
+      <c r="BX27" s="247"/>
+      <c r="BY27" s="247"/>
+      <c r="BZ27" s="247"/>
+      <c r="CA27" s="247"/>
+      <c r="CB27" s="247"/>
+      <c r="CC27" s="247"/>
+      <c r="CD27" s="247"/>
+      <c r="CE27" s="247"/>
+      <c r="CF27" s="248"/>
+    </row>
+    <row r="28" spans="3:102" ht="22.5" customHeight="1">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="250"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="251" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="252"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="252"/>
+      <c r="N28" s="252"/>
+      <c r="O28" s="253"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="61"/>
+      <c r="AS28" s="61"/>
+      <c r="AT28" s="61"/>
+      <c r="AU28" s="61"/>
+      <c r="AV28" s="61"/>
+      <c r="AW28" s="61"/>
+      <c r="AX28" s="61"/>
+      <c r="AY28" s="61"/>
+      <c r="AZ28" s="61"/>
+      <c r="BA28" s="61"/>
+      <c r="BB28" s="61"/>
+      <c r="BC28" s="61"/>
+      <c r="BD28" s="61"/>
+      <c r="BE28" s="61"/>
+      <c r="BF28" s="61"/>
+      <c r="BG28" s="61"/>
+      <c r="BH28" s="61"/>
+      <c r="BI28" s="254"/>
+      <c r="BJ28" s="255"/>
+      <c r="BK28" s="256"/>
+      <c r="BL28" s="257"/>
+      <c r="BM28" s="258"/>
+      <c r="BN28" s="258"/>
+      <c r="BO28" s="258"/>
+      <c r="BP28" s="258"/>
+      <c r="BQ28" s="258"/>
+      <c r="BR28" s="258"/>
+      <c r="BS28" s="258"/>
+      <c r="BT28" s="258"/>
+      <c r="BU28" s="258"/>
+      <c r="BV28" s="258"/>
+      <c r="BW28" s="258"/>
+      <c r="BX28" s="258"/>
+      <c r="BY28" s="258"/>
+      <c r="BZ28" s="258"/>
+      <c r="CA28" s="258"/>
+      <c r="CB28" s="258"/